--- a/Pasajeros_por_aerolinea_nac.xlsx
+++ b/Pasajeros_por_aerolinea_nac.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Aéreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18706B0B-3779-446C-A7B9-440076989B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732D2FF5-2713-4265-8A14-C07D6DBE4CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -37,15 +37,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Ultima actualización: mayo 2024</t>
-  </si>
-  <si>
-    <t>Dirección General de Planeación</t>
-  </si>
-  <si>
-    <t>Periodo</t>
-  </si>
   <si>
     <t>Total</t>
   </si>
@@ -102,6 +93,15 @@
   </si>
   <si>
     <t>Pasajeros transportados en el servicio regular nacionales</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Atualización: agosto 2024.</t>
   </si>
 </sst>
 </file>
@@ -186,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -269,12 +269,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -291,32 +302,9 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -328,12 +316,6 @@
     <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -343,24 +325,62 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
@@ -409,10 +429,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -484,30 +500,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:N82" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14">
-  <autoFilter ref="B5:N82" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O85" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
+  <autoFilter ref="B5:O85" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2024" dateTimeGrouping="year"/>
+        <filter val="2023"/>
+        <filter val="2024"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Periodo" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{86077915-C170-40DA-9DB4-19E81910B485}" name="Total" dataDxfId="0">
-      <calculatedColumnFormula>SUM(D6:N6)</calculatedColumnFormula>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{BA0C0B85-5366-4A43-92B4-3E3742FD994D}" name="Mes" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{86077915-C170-40DA-9DB4-19E81910B485}" name="Total" dataDxfId="1">
+      <calculatedColumnFormula>SUM(E6:O6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Aéreo Calafia" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Aeromar" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aeroméxico (Aerovías de México)" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{A869730C-1719-4A70-8838-10376967FD05}" name="Aeroméxico Connect (Aerolitoral)" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{523CBB34-1DEE-445B-8474-FD8E64117197}" name="Aerus" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{631795EF-E72C-4257-9376-F3F950D2CD24}" name="Interjet (ABC Aerolíneas)" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{7825E645-762A-41A2-B4FE-F68035B408F7}" name="Magnicharters (Grupo Aéreo Monterrey)" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{ABE62262-6A70-4763-8581-1FC262023BDA}" name="Mexicana (Aerolínea del Estado Mexicano)" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{79063C30-2596-43D4-82AD-DC7007BA3E47}" name="Transportes Aéreos Regionales (TAR)" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{CDE1B9AF-E706-4B29-B603-3DCD26E54911}" name="Vivaaerobus (Aeroenlaces)" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{50F53BD2-7347-4FA4-8F64-203C18A4DA6A}" name="Volaris (Concesionaria Vuela Cia de Aviación)" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Aéreo Calafia" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Aeromar" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aeroméxico (Aerovías de México)" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{A869730C-1719-4A70-8838-10376967FD05}" name="Aeroméxico Connect (Aerolitoral)" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{523CBB34-1DEE-445B-8474-FD8E64117197}" name="Aerus" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{631795EF-E72C-4257-9376-F3F950D2CD24}" name="Interjet (ABC Aerolíneas)" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{7825E645-762A-41A2-B4FE-F68035B408F7}" name="Magnicharters (Grupo Aéreo Monterrey)" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{ABE62262-6A70-4763-8581-1FC262023BDA}" name="Mexicana (Aerolínea del Estado Mexicano)" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{79063C30-2596-43D4-82AD-DC7007BA3E47}" name="Transportes Aéreos Regionales (TAR)" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{CDE1B9AF-E706-4B29-B603-3DCD26E54911}" name="Vivaaerobus (Aeroenlaces)" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{50F53BD2-7347-4FA4-8F64-203C18A4DA6A}" name="Volaris (Concesionaria Vuela Cia de Aviación)" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -736,3039 +754,3355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N95"/>
+  <dimension ref="B2:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.19921875" customWidth="1"/>
-    <col min="7" max="7" width="15.8984375" customWidth="1"/>
-    <col min="8" max="8" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="16.796875" customWidth="1"/>
-    <col min="12" max="12" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.3984375" customWidth="1"/>
-    <col min="14" max="14" width="17.796875" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.19921875" customWidth="1"/>
+    <col min="8" max="8" width="15.8984375" customWidth="1"/>
+    <col min="9" max="9" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="16.796875" customWidth="1"/>
+    <col min="13" max="13" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.3984375" customWidth="1"/>
+    <col min="15" max="15" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="23"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-    </row>
-    <row r="5" spans="2:14" ht="54" x14ac:dyDescent="0.35">
-      <c r="B5" s="25" t="s">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B4" s="14"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+    </row>
+    <row r="5" spans="2:15" ht="54" x14ac:dyDescent="0.35">
+      <c r="B5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="F5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="G5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="I5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="K5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="O5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="16">
-        <v>45413</v>
-      </c>
-      <c r="C6" s="17">
-        <f t="shared" ref="C6:C37" si="0">SUM(D6:N6)</f>
+    </row>
+    <row r="6" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="23">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="24">
+        <v>8</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" ref="D6:D40" si="0">SUM(E6:O6)</f>
+        <v>7122666</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7">
+        <v>1846259</v>
+      </c>
+      <c r="H6" s="7">
+        <v>423300</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3350</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7">
+        <v>23287</v>
+      </c>
+      <c r="L6" s="7">
+        <v>32823</v>
+      </c>
+      <c r="M6" s="7">
+        <v>13500</v>
+      </c>
+      <c r="N6" s="7">
+        <v>2380847</v>
+      </c>
+      <c r="O6" s="7">
+        <v>2399300</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="25">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="26">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" ref="D7:D9" si="1">SUM(E7:O7)</f>
+        <v>7366092</v>
+      </c>
+      <c r="E7" s="4">
+        <v>972</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <v>1936260</v>
+      </c>
+      <c r="H7" s="4">
+        <v>455999</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2952</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4">
+        <v>25726</v>
+      </c>
+      <c r="L7" s="4">
+        <v>35662</v>
+      </c>
+      <c r="M7" s="4">
+        <v>12021</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2421165</v>
+      </c>
+      <c r="O7" s="4">
+        <v>2475335</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="23">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="24">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" si="1"/>
+        <v>6546101</v>
+      </c>
+      <c r="E8" s="7">
+        <v>744</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7">
+        <v>1681153</v>
+      </c>
+      <c r="H8" s="7">
+        <v>420652</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2495</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7">
+        <v>23110</v>
+      </c>
+      <c r="L8" s="7">
+        <v>21518</v>
+      </c>
+      <c r="M8" s="7">
+        <v>10064</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2174929</v>
+      </c>
+      <c r="O8" s="7">
+        <v>2211436</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="25">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="26">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="1"/>
         <v>6589382</v>
       </c>
-      <c r="D6" s="18">
+      <c r="E9" s="4">
         <v>820</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
         <v>1727003</v>
       </c>
-      <c r="G6" s="18">
+      <c r="H9" s="4">
         <v>431546</v>
       </c>
-      <c r="H6" s="18">
+      <c r="I9" s="4">
         <v>2633</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
         <v>13929</v>
       </c>
-      <c r="K6" s="18">
+      <c r="L9" s="4">
         <v>22186</v>
       </c>
-      <c r="L6" s="18">
+      <c r="M9" s="4">
         <v>11316</v>
       </c>
-      <c r="M6" s="18">
+      <c r="N9" s="4">
         <v>2176419</v>
       </c>
-      <c r="N6" s="18">
+      <c r="O9" s="4">
         <v>2203530</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="9">
-        <v>45383</v>
-      </c>
-      <c r="C7" s="14">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B10" s="23">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="24">
+        <v>4</v>
+      </c>
+      <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>6256107</v>
       </c>
-      <c r="D7" s="7">
+      <c r="E10" s="7">
         <v>1018</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7">
         <v>1647314</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H10" s="7">
         <v>437362</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I10" s="7">
         <v>2451</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7">
+      <c r="J10" s="7"/>
+      <c r="K10" s="7">
         <v>17123</v>
       </c>
-      <c r="K7" s="7">
+      <c r="L10" s="7">
         <v>21899</v>
       </c>
-      <c r="L7" s="7">
+      <c r="M10" s="7">
         <v>13736</v>
       </c>
-      <c r="M7" s="7">
+      <c r="N10" s="7">
         <v>2025760</v>
       </c>
-      <c r="N7" s="7">
+      <c r="O10" s="7">
         <v>2089444</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="8">
-        <v>45352</v>
-      </c>
-      <c r="C8" s="13">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B11" s="25">
+        <v>2024</v>
+      </c>
+      <c r="C11" s="26">
+        <v>3</v>
+      </c>
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
         <v>6265547</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E11" s="4">
         <v>985</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
         <v>1663451</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H11" s="4">
         <v>414407</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I11" s="4">
         <v>2426</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4">
         <v>16310</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L11" s="4">
         <v>24140</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M11" s="4">
         <v>11984</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N11" s="4">
         <v>2037641</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O11" s="4">
         <v>2094203</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="9">
-        <v>45323</v>
-      </c>
-      <c r="C9" s="14">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B12" s="23">
+        <v>2024</v>
+      </c>
+      <c r="C12" s="24">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9">
         <f t="shared" si="0"/>
         <v>5607014</v>
       </c>
-      <c r="D9" s="7">
+      <c r="E12" s="7">
         <v>703</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7">
         <v>1479121</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H12" s="7">
         <v>395860</v>
       </c>
-      <c r="H9" s="7">
+      <c r="I12" s="7">
         <v>2323</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7">
+      <c r="J12" s="7"/>
+      <c r="K12" s="7">
         <v>11161</v>
       </c>
-      <c r="K9" s="7">
+      <c r="L12" s="7">
         <v>17287</v>
       </c>
-      <c r="L9" s="7">
+      <c r="M12" s="7">
         <v>11768</v>
       </c>
-      <c r="M9" s="7">
+      <c r="N12" s="7">
         <v>1772299</v>
       </c>
-      <c r="N9" s="7">
+      <c r="O12" s="7">
         <v>1916492</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="11">
-        <v>45292</v>
-      </c>
-      <c r="C10" s="15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B13" s="27">
+        <v>2024</v>
+      </c>
+      <c r="C13" s="28">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10">
         <f t="shared" si="0"/>
         <v>6274620</v>
       </c>
-      <c r="D10" s="6">
+      <c r="E13" s="6">
         <v>1102</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6">
         <v>1481216</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H13" s="6">
         <v>490118</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I13" s="6">
         <v>2332</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6">
+      <c r="J13" s="6"/>
+      <c r="K13" s="6">
         <v>14046</v>
       </c>
-      <c r="K10" s="6">
+      <c r="L13" s="6">
         <v>12504</v>
       </c>
-      <c r="L10" s="6">
+      <c r="M13" s="6">
         <v>12424</v>
       </c>
-      <c r="M10" s="6">
+      <c r="N13" s="6">
         <v>2028846</v>
       </c>
-      <c r="N10" s="6">
+      <c r="O13" s="6">
         <v>2232032</v>
       </c>
     </row>
-    <row r="11" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="19">
-        <v>45261</v>
-      </c>
-      <c r="C11" s="20">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B14" s="29">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="30">
+        <v>12</v>
+      </c>
+      <c r="D14" s="11">
         <f t="shared" si="0"/>
         <v>6943699</v>
       </c>
-      <c r="D11" s="21">
+      <c r="E14" s="12">
         <v>1263</v>
       </c>
-      <c r="E11" s="21">
-        <v>0</v>
-      </c>
-      <c r="F11" s="21">
+      <c r="F14" s="12"/>
+      <c r="G14" s="12">
         <v>1661066</v>
       </c>
-      <c r="G11" s="21">
+      <c r="H14" s="12">
         <v>520344</v>
       </c>
-      <c r="H11" s="21">
+      <c r="I14" s="12">
         <v>2164</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21">
+      <c r="J14" s="12"/>
+      <c r="K14" s="12">
         <v>23295</v>
       </c>
-      <c r="K11" s="21">
+      <c r="L14" s="12">
         <v>1620</v>
       </c>
-      <c r="L11" s="21">
+      <c r="M14" s="12">
         <v>19717</v>
       </c>
-      <c r="M11" s="21">
+      <c r="N14" s="12">
         <v>2180392</v>
       </c>
-      <c r="N11" s="21">
+      <c r="O14" s="12">
         <v>2533838</v>
       </c>
     </row>
-    <row r="12" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C12" s="13">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B15" s="25">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="26">
+        <v>11</v>
+      </c>
+      <c r="D15" s="8">
         <f t="shared" si="0"/>
         <v>6524452</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E15" s="4">
         <v>817</v>
       </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
         <v>1518614</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H15" s="4">
         <v>487651</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I15" s="4">
         <v>1815</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4">
+      <c r="J15" s="4"/>
+      <c r="K15" s="4">
         <v>23109</v>
       </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4">
         <v>18006</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N15" s="4">
         <v>2055956</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O15" s="4">
         <v>2418484</v>
       </c>
     </row>
-    <row r="13" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="9">
-        <v>45200</v>
-      </c>
-      <c r="C13" s="14">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B16" s="23">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="24">
+        <v>10</v>
+      </c>
+      <c r="D16" s="9">
         <f t="shared" si="0"/>
         <v>6666523</v>
       </c>
-      <c r="D13" s="7">
+      <c r="E16" s="7">
         <v>745</v>
       </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7">
         <v>1534357</v>
       </c>
-      <c r="G13" s="7">
+      <c r="H16" s="7">
         <v>502142</v>
       </c>
-      <c r="H13" s="7">
+      <c r="I16" s="7">
         <v>1593</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7">
+      <c r="J16" s="7"/>
+      <c r="K16" s="7">
         <v>27175</v>
       </c>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7">
+      <c r="L16" s="7"/>
+      <c r="M16" s="7">
         <v>15799</v>
       </c>
-      <c r="M13" s="7">
+      <c r="N16" s="7">
         <v>2142423</v>
       </c>
-      <c r="N13" s="7">
+      <c r="O16" s="7">
         <v>2442289</v>
       </c>
     </row>
-    <row r="14" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="8">
-        <v>45170</v>
-      </c>
-      <c r="C14" s="13">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B17" s="25">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="26">
+        <v>9</v>
+      </c>
+      <c r="D17" s="8">
         <f t="shared" si="0"/>
         <v>6234323</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E17" s="4">
         <v>136</v>
       </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4">
         <v>1449933</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H17" s="4">
         <v>489367</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I17" s="4">
         <v>1718</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4">
+      <c r="J17" s="4"/>
+      <c r="K17" s="4">
         <v>20794</v>
       </c>
-      <c r="K14" s="4">
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
+      <c r="L17" s="4"/>
+      <c r="M17" s="4">
         <v>13440</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N17" s="4">
         <v>1975887</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O17" s="4">
         <v>2283048</v>
       </c>
     </row>
-    <row r="15" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="9">
-        <v>45139</v>
-      </c>
-      <c r="C15" s="14">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B18" s="23">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="24">
+        <v>8</v>
+      </c>
+      <c r="D18" s="9">
         <f t="shared" si="0"/>
         <v>7366586</v>
       </c>
-      <c r="D15" s="7">
+      <c r="E18" s="7">
         <v>711</v>
       </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7">
         <v>1790842</v>
       </c>
-      <c r="G15" s="7">
+      <c r="H18" s="7">
         <v>509073</v>
       </c>
-      <c r="H15" s="7">
+      <c r="I18" s="7">
         <v>1858</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7">
+      <c r="J18" s="7"/>
+      <c r="K18" s="7">
         <v>33617</v>
       </c>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
+      <c r="L18" s="7"/>
+      <c r="M18" s="7">
         <v>17102</v>
       </c>
-      <c r="M15" s="7">
+      <c r="N18" s="7">
         <v>2222143</v>
       </c>
-      <c r="N15" s="7">
+      <c r="O18" s="7">
         <v>2791240</v>
       </c>
     </row>
-    <row r="16" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="8">
-        <v>45108</v>
-      </c>
-      <c r="C16" s="13">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B19" s="25">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="26">
+        <v>7</v>
+      </c>
+      <c r="D19" s="8">
         <f t="shared" si="0"/>
         <v>7470779</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E19" s="4">
         <v>7815</v>
       </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
         <v>1877785</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H19" s="4">
         <v>489520</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I19" s="4">
         <v>1593</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4">
         <v>38495</v>
       </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
+      <c r="L19" s="4"/>
+      <c r="M19" s="4">
         <v>16965</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N19" s="4">
         <v>2256958</v>
       </c>
-      <c r="N16" s="4">
+      <c r="O19" s="4">
         <v>2781648</v>
       </c>
     </row>
-    <row r="17" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="9">
-        <v>45078</v>
-      </c>
-      <c r="C17" s="14">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B20" s="23">
+        <v>2023</v>
+      </c>
+      <c r="C20" s="24">
+        <v>6</v>
+      </c>
+      <c r="D20" s="9">
         <f t="shared" si="0"/>
         <v>6481356</v>
       </c>
-      <c r="D17" s="7">
+      <c r="E20" s="7">
         <v>8579</v>
       </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7">
         <v>1623869</v>
       </c>
-      <c r="G17" s="7">
+      <c r="H20" s="7">
         <v>444461</v>
       </c>
-      <c r="H17" s="7">
+      <c r="I20" s="7">
         <v>930</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7">
+      <c r="J20" s="7"/>
+      <c r="K20" s="7">
         <v>26027</v>
       </c>
-      <c r="K17" s="7">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
+      <c r="L20" s="7"/>
+      <c r="M20" s="7">
         <v>16972</v>
       </c>
-      <c r="M17" s="7">
+      <c r="N20" s="7">
         <v>1939577</v>
       </c>
-      <c r="N17" s="7">
+      <c r="O20" s="7">
         <v>2420941</v>
       </c>
     </row>
-    <row r="18" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="8">
-        <v>45047</v>
-      </c>
-      <c r="C18" s="13">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B21" s="25">
+        <v>2023</v>
+      </c>
+      <c r="C21" s="26">
+        <v>5</v>
+      </c>
+      <c r="D21" s="8">
         <f t="shared" si="0"/>
         <v>6466836</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E21" s="4">
         <v>10045</v>
       </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4">
         <v>1475419</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H21" s="4">
         <v>493646</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I21" s="4">
         <v>866</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4">
+      <c r="J21" s="4"/>
+      <c r="K21" s="4">
         <v>22311</v>
       </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4">
+      <c r="L21" s="4"/>
+      <c r="M21" s="4">
         <v>22530</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N21" s="4">
         <v>1903714</v>
       </c>
-      <c r="N18" s="4">
+      <c r="O21" s="4">
         <v>2538305</v>
       </c>
     </row>
-    <row r="19" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="9">
-        <v>45017</v>
-      </c>
-      <c r="C19" s="14">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B22" s="23">
+        <v>2023</v>
+      </c>
+      <c r="C22" s="24">
+        <v>4</v>
+      </c>
+      <c r="D22" s="9">
         <f t="shared" si="0"/>
         <v>6505979</v>
       </c>
-      <c r="D19" s="7">
+      <c r="E22" s="7">
         <v>7610</v>
       </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7">
         <v>1447508</v>
       </c>
-      <c r="G19" s="7">
+      <c r="H22" s="7">
         <v>495864</v>
       </c>
-      <c r="H19" s="7">
+      <c r="I22" s="7">
         <v>73</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7">
+      <c r="J22" s="7"/>
+      <c r="K22" s="7">
         <v>22224</v>
       </c>
-      <c r="K19" s="7">
-        <v>0</v>
-      </c>
-      <c r="L19" s="7">
+      <c r="L22" s="7"/>
+      <c r="M22" s="7">
         <v>23384</v>
       </c>
-      <c r="M19" s="7">
+      <c r="N22" s="7">
         <v>1903503</v>
       </c>
-      <c r="N19" s="7">
+      <c r="O22" s="7">
         <v>2605813</v>
       </c>
     </row>
-    <row r="20" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="8">
-        <v>44986</v>
-      </c>
-      <c r="C20" s="13">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B23" s="25">
+        <v>2023</v>
+      </c>
+      <c r="C23" s="26">
+        <v>3</v>
+      </c>
+      <c r="D23" s="8">
         <f t="shared" si="0"/>
         <v>6389909</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E23" s="4">
         <v>4538</v>
       </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
         <v>1502404</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H23" s="4">
         <v>516526</v>
       </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4">
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4">
         <v>15589</v>
       </c>
-      <c r="K20" s="4">
-        <v>0</v>
-      </c>
-      <c r="L20" s="4">
+      <c r="L23" s="4"/>
+      <c r="M23" s="4">
         <v>23229</v>
       </c>
-      <c r="M20" s="4">
+      <c r="N23" s="4">
         <v>1776763</v>
       </c>
-      <c r="N20" s="4">
+      <c r="O23" s="4">
         <v>2550860</v>
       </c>
     </row>
-    <row r="21" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="9">
-        <v>44958</v>
-      </c>
-      <c r="C21" s="14">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B24" s="23">
+        <v>2023</v>
+      </c>
+      <c r="C24" s="24">
+        <v>2</v>
+      </c>
+      <c r="D24" s="9">
         <f t="shared" si="0"/>
         <v>5478771</v>
       </c>
-      <c r="D21" s="7">
+      <c r="E24" s="7">
         <v>9031</v>
       </c>
-      <c r="E21" s="7">
+      <c r="F24" s="7">
         <v>9443</v>
       </c>
-      <c r="F21" s="7">
+      <c r="G24" s="7">
         <v>1277871</v>
       </c>
-      <c r="G21" s="7">
+      <c r="H24" s="7">
         <v>459155</v>
       </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7">
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7">
         <v>11992</v>
       </c>
-      <c r="K21" s="7">
-        <v>0</v>
-      </c>
-      <c r="L21" s="7">
+      <c r="L24" s="7"/>
+      <c r="M24" s="7">
         <v>19704</v>
       </c>
-      <c r="M21" s="7">
+      <c r="N24" s="7">
         <v>1431046</v>
       </c>
-      <c r="N21" s="7">
+      <c r="O24" s="7">
         <v>2260529</v>
       </c>
     </row>
-    <row r="22" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="11">
-        <v>44927</v>
-      </c>
-      <c r="C22" s="15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B25" s="27">
+        <v>2023</v>
+      </c>
+      <c r="C25" s="28">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10">
         <f t="shared" si="0"/>
         <v>6248337</v>
       </c>
-      <c r="D22" s="6">
+      <c r="E25" s="6">
         <v>9895</v>
       </c>
-      <c r="E22" s="6">
+      <c r="F25" s="6">
         <v>23595</v>
       </c>
-      <c r="F22" s="6">
+      <c r="G25" s="6">
         <v>1439058</v>
       </c>
-      <c r="G22" s="6">
+      <c r="H25" s="6">
         <v>503079</v>
       </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6">
         <v>15438</v>
       </c>
-      <c r="K22" s="6">
-        <v>0</v>
-      </c>
-      <c r="L22" s="6">
+      <c r="L25" s="6"/>
+      <c r="M25" s="6">
         <v>23680</v>
       </c>
-      <c r="M22" s="6">
+      <c r="N25" s="6">
         <v>1650780</v>
       </c>
-      <c r="N22" s="6">
+      <c r="O25" s="6">
         <v>2582812</v>
       </c>
     </row>
-    <row r="23" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="19">
-        <v>44896</v>
-      </c>
-      <c r="C23" s="20">
+    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="29">
+        <v>2022</v>
+      </c>
+      <c r="C26" s="30">
+        <v>12</v>
+      </c>
+      <c r="D26" s="11">
         <f t="shared" si="0"/>
         <v>6735243</v>
       </c>
-      <c r="D23" s="21">
+      <c r="E26" s="12">
         <v>8855</v>
       </c>
-      <c r="E23" s="21">
+      <c r="F26" s="12">
         <v>30082</v>
       </c>
-      <c r="F23" s="21">
+      <c r="G26" s="12">
         <v>1541064</v>
       </c>
-      <c r="G23" s="21">
+      <c r="H26" s="12">
         <v>545257</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21">
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12">
         <v>31832</v>
       </c>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21">
+      <c r="L26" s="12"/>
+      <c r="M26" s="12">
         <v>32706</v>
       </c>
-      <c r="M23" s="21">
+      <c r="N26" s="12">
         <v>1885616</v>
       </c>
-      <c r="N23" s="21">
+      <c r="O26" s="12">
         <v>2659831</v>
       </c>
     </row>
-    <row r="24" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="8">
-        <v>44866</v>
-      </c>
-      <c r="C24" s="13">
+    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="25">
+        <v>2022</v>
+      </c>
+      <c r="C27" s="26">
+        <v>11</v>
+      </c>
+      <c r="D27" s="8">
         <f t="shared" si="0"/>
         <v>6388091</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E27" s="4">
         <v>10809</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F27" s="4">
         <v>29180</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G27" s="4">
         <v>1477832</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H27" s="4">
         <v>542019</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4">
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4">
         <v>26190</v>
       </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4">
+      <c r="L27" s="4"/>
+      <c r="M27" s="4">
         <v>25324</v>
       </c>
-      <c r="M24" s="4">
+      <c r="N27" s="4">
         <v>1806360</v>
       </c>
-      <c r="N24" s="4">
+      <c r="O27" s="4">
         <v>2470377</v>
       </c>
     </row>
-    <row r="25" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="9">
-        <v>44835</v>
-      </c>
-      <c r="C25" s="14">
+    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="23">
+        <v>2022</v>
+      </c>
+      <c r="C28" s="24">
+        <v>10</v>
+      </c>
+      <c r="D28" s="9">
         <f t="shared" si="0"/>
         <v>6296390</v>
       </c>
-      <c r="D25" s="7">
+      <c r="E28" s="7">
         <v>11560</v>
       </c>
-      <c r="E25" s="7">
+      <c r="F28" s="7">
         <v>29156</v>
       </c>
-      <c r="F25" s="7">
+      <c r="G28" s="7">
         <v>1436769</v>
       </c>
-      <c r="G25" s="7">
+      <c r="H28" s="7">
         <v>525145</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7">
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7">
         <v>25003</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7">
+      <c r="L28" s="7"/>
+      <c r="M28" s="7">
         <v>26165</v>
       </c>
-      <c r="M25" s="7">
+      <c r="N28" s="7">
         <v>1730130</v>
       </c>
-      <c r="N25" s="7">
+      <c r="O28" s="7">
         <v>2512462</v>
       </c>
     </row>
-    <row r="26" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="8">
-        <v>44805</v>
-      </c>
-      <c r="C26" s="13">
+    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="25">
+        <v>2022</v>
+      </c>
+      <c r="C29" s="26">
+        <v>9</v>
+      </c>
+      <c r="D29" s="8">
         <f t="shared" si="0"/>
         <v>5717570</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E29" s="4">
         <v>8563</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F29" s="4">
         <v>27782</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G29" s="4">
         <v>1324735</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H29" s="4">
         <v>461328</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4">
         <v>24539</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4">
+      <c r="L29" s="4"/>
+      <c r="M29" s="4">
         <v>23409</v>
       </c>
-      <c r="M26" s="4">
+      <c r="N29" s="4">
         <v>1533686</v>
       </c>
-      <c r="N26" s="4">
+      <c r="O29" s="4">
         <v>2313528</v>
       </c>
     </row>
-    <row r="27" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="9">
-        <v>44774</v>
-      </c>
-      <c r="C27" s="14">
+    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="23">
+        <v>2022</v>
+      </c>
+      <c r="C30" s="24">
+        <v>8</v>
+      </c>
+      <c r="D30" s="9">
         <f t="shared" si="0"/>
         <v>6395624</v>
       </c>
-      <c r="D27" s="7">
+      <c r="E30" s="7">
         <v>12206</v>
       </c>
-      <c r="E27" s="7">
+      <c r="F30" s="7">
         <v>36300</v>
       </c>
-      <c r="F27" s="7">
+      <c r="G30" s="7">
         <v>1459848</v>
       </c>
-      <c r="G27" s="7">
+      <c r="H30" s="7">
         <v>550210</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7">
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7">
         <v>41574</v>
       </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7">
+      <c r="L30" s="7"/>
+      <c r="M30" s="7">
         <v>28457</v>
       </c>
-      <c r="M27" s="7">
+      <c r="N30" s="7">
         <v>1770150</v>
       </c>
-      <c r="N27" s="7">
+      <c r="O30" s="7">
         <v>2496879</v>
       </c>
     </row>
-    <row r="28" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="8">
-        <v>44743</v>
-      </c>
-      <c r="C28" s="13">
+    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="25">
+        <v>2022</v>
+      </c>
+      <c r="C31" s="26">
+        <v>7</v>
+      </c>
+      <c r="D31" s="8">
         <f t="shared" si="0"/>
         <v>6606709</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E31" s="4">
         <v>12900</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F31" s="4">
         <v>37410</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G31" s="4">
         <v>1493132</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H31" s="4">
         <v>544988</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4">
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4">
         <v>52783</v>
       </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4">
+      <c r="L31" s="4"/>
+      <c r="M31" s="4">
         <v>35829</v>
       </c>
-      <c r="M28" s="4">
+      <c r="N31" s="4">
         <v>1832173</v>
       </c>
-      <c r="N28" s="4">
+      <c r="O31" s="4">
         <v>2597494</v>
       </c>
     </row>
-    <row r="29" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="9">
-        <v>44713</v>
-      </c>
-      <c r="C29" s="14">
+    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="23">
+        <v>2022</v>
+      </c>
+      <c r="C32" s="24">
+        <v>6</v>
+      </c>
+      <c r="D32" s="9">
         <f t="shared" si="0"/>
         <v>5816384</v>
       </c>
-      <c r="D29" s="7">
+      <c r="E32" s="7">
         <v>11528</v>
       </c>
-      <c r="E29" s="7">
+      <c r="F32" s="7">
         <v>29894</v>
       </c>
-      <c r="F29" s="7">
+      <c r="G32" s="7">
         <v>1448616</v>
       </c>
-      <c r="G29" s="7">
+      <c r="H32" s="7">
         <v>482837</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7">
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7">
         <v>38612</v>
       </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7">
+      <c r="L32" s="7"/>
+      <c r="M32" s="7">
         <v>31692</v>
       </c>
-      <c r="M29" s="7">
+      <c r="N32" s="7">
         <v>1629719</v>
       </c>
-      <c r="N29" s="7">
+      <c r="O32" s="7">
         <v>2143486</v>
       </c>
     </row>
-    <row r="30" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="8">
-        <v>44682</v>
-      </c>
-      <c r="C30" s="13">
+    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="25">
+        <v>2022</v>
+      </c>
+      <c r="C33" s="26">
+        <v>5</v>
+      </c>
+      <c r="D33" s="8">
         <f t="shared" si="0"/>
         <v>5938227</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E33" s="4">
         <v>14051</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F33" s="4">
         <v>34530</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G33" s="4">
         <v>1394194</v>
       </c>
-      <c r="G30" s="4">
+      <c r="H33" s="4">
         <v>469001</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4">
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4">
         <v>36048</v>
       </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4">
+      <c r="L33" s="4"/>
+      <c r="M33" s="4">
         <v>32934</v>
       </c>
-      <c r="M30" s="4">
+      <c r="N33" s="4">
         <v>1638787</v>
       </c>
-      <c r="N30" s="4">
+      <c r="O33" s="4">
         <v>2318682</v>
       </c>
     </row>
-    <row r="31" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="9">
-        <v>44652</v>
-      </c>
-      <c r="C31" s="14">
+    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="23">
+        <v>2022</v>
+      </c>
+      <c r="C34" s="24">
+        <v>4</v>
+      </c>
+      <c r="D34" s="9">
         <f t="shared" si="0"/>
         <v>5762121</v>
       </c>
-      <c r="D31" s="7">
+      <c r="E34" s="7">
         <v>12580</v>
       </c>
-      <c r="E31" s="7">
+      <c r="F34" s="7">
         <v>39403</v>
       </c>
-      <c r="F31" s="7">
+      <c r="G34" s="7">
         <v>1248745</v>
       </c>
-      <c r="G31" s="7">
+      <c r="H34" s="7">
         <v>447104</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7">
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7">
         <v>30427</v>
       </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7">
+      <c r="L34" s="7"/>
+      <c r="M34" s="7">
         <v>31976</v>
       </c>
-      <c r="M31" s="7">
+      <c r="N34" s="7">
         <v>1571982</v>
       </c>
-      <c r="N31" s="7">
+      <c r="O34" s="7">
         <v>2379904</v>
       </c>
     </row>
-    <row r="32" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="8">
-        <v>44621</v>
-      </c>
-      <c r="C32" s="13">
+    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="25">
+        <v>2022</v>
+      </c>
+      <c r="C35" s="26">
+        <v>3</v>
+      </c>
+      <c r="D35" s="8">
         <f t="shared" si="0"/>
         <v>5450271</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E35" s="4">
         <v>13206</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F35" s="4">
         <v>32413</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G35" s="4">
         <v>1137873</v>
       </c>
-      <c r="G32" s="4">
+      <c r="H35" s="4">
         <v>485288</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4">
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4">
         <v>20444</v>
       </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4">
+      <c r="L35" s="4"/>
+      <c r="M35" s="4">
         <v>30333</v>
       </c>
-      <c r="M32" s="4">
+      <c r="N35" s="4">
         <v>1443642</v>
       </c>
-      <c r="N32" s="4">
+      <c r="O35" s="4">
         <v>2287072</v>
       </c>
     </row>
-    <row r="33" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="9">
-        <v>44593</v>
-      </c>
-      <c r="C33" s="14">
+    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="23">
+        <v>2022</v>
+      </c>
+      <c r="C36" s="24">
+        <v>2</v>
+      </c>
+      <c r="D36" s="9">
         <f t="shared" si="0"/>
         <v>4335053</v>
       </c>
-      <c r="D33" s="7">
+      <c r="E36" s="7">
         <v>10775</v>
       </c>
-      <c r="E33" s="7">
+      <c r="F36" s="7">
         <v>26979</v>
       </c>
-      <c r="F33" s="7">
+      <c r="G36" s="7">
         <v>817221</v>
       </c>
-      <c r="G33" s="7">
+      <c r="H36" s="7">
         <v>400280</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7">
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7">
         <v>14632</v>
       </c>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7">
+      <c r="L36" s="7"/>
+      <c r="M36" s="7">
         <v>22836</v>
       </c>
-      <c r="M33" s="7">
+      <c r="N36" s="7">
         <v>1113977</v>
       </c>
-      <c r="N33" s="7">
+      <c r="O36" s="7">
         <v>1928353</v>
       </c>
     </row>
-    <row r="34" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="11">
-        <v>44562</v>
-      </c>
-      <c r="C34" s="15">
+    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="27">
+        <v>2022</v>
+      </c>
+      <c r="C37" s="28">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10">
         <f t="shared" si="0"/>
         <v>4754587</v>
       </c>
-      <c r="D34" s="6">
+      <c r="E37" s="6">
         <v>10351</v>
       </c>
-      <c r="E34" s="6">
+      <c r="F37" s="6">
         <v>35019</v>
       </c>
-      <c r="F34" s="6">
+      <c r="G37" s="6">
         <v>851918</v>
       </c>
-      <c r="G34" s="6">
+      <c r="H37" s="6">
         <v>400866</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6">
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6">
         <v>19731</v>
       </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6">
+      <c r="L37" s="6"/>
+      <c r="M37" s="6">
         <v>22335</v>
       </c>
-      <c r="M34" s="6">
+      <c r="N37" s="6">
         <v>1322859</v>
       </c>
-      <c r="N34" s="6">
+      <c r="O37" s="6">
         <v>2091508</v>
       </c>
     </row>
-    <row r="35" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="19">
-        <v>44531</v>
-      </c>
-      <c r="C35" s="20">
+    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="29">
+        <v>2021</v>
+      </c>
+      <c r="C38" s="30">
+        <v>12</v>
+      </c>
+      <c r="D38" s="11">
         <f t="shared" si="0"/>
         <v>5788606</v>
       </c>
-      <c r="D35" s="21">
+      <c r="E38" s="12">
         <v>12597</v>
       </c>
-      <c r="E35" s="21">
+      <c r="F38" s="12">
         <v>48986</v>
       </c>
-      <c r="F35" s="21">
+      <c r="G38" s="12">
         <v>1194196</v>
       </c>
-      <c r="G35" s="21">
+      <c r="H38" s="12">
         <v>531737</v>
       </c>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21">
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12">
         <v>41564</v>
       </c>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21">
+      <c r="L38" s="12"/>
+      <c r="M38" s="12">
         <v>32426</v>
       </c>
-      <c r="M35" s="21">
+      <c r="N38" s="12">
         <v>1542449</v>
       </c>
-      <c r="N35" s="21">
+      <c r="O38" s="12">
         <v>2384651</v>
       </c>
     </row>
-    <row r="36" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="8">
-        <v>44501</v>
-      </c>
-      <c r="C36" s="13">
+    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="25">
+        <v>2021</v>
+      </c>
+      <c r="C39" s="26">
+        <v>11</v>
+      </c>
+      <c r="D39" s="8">
         <f t="shared" si="0"/>
         <v>5289729</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E39" s="4">
         <v>11837</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F39" s="4">
         <v>46757</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G39" s="4">
         <v>1056753</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H39" s="4">
         <v>485468</v>
       </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4">
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4">
         <v>32507</v>
       </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4">
+      <c r="L39" s="4"/>
+      <c r="M39" s="4">
         <v>29832</v>
       </c>
-      <c r="M36" s="4">
+      <c r="N39" s="4">
         <v>1406500</v>
       </c>
-      <c r="N36" s="4">
+      <c r="O39" s="4">
         <v>2220075</v>
       </c>
     </row>
-    <row r="37" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="9">
-        <v>44470</v>
-      </c>
-      <c r="C37" s="14">
+    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="23">
+        <v>2021</v>
+      </c>
+      <c r="C40" s="24">
+        <v>10</v>
+      </c>
+      <c r="D40" s="9">
         <f t="shared" si="0"/>
         <v>5118685</v>
       </c>
-      <c r="D37" s="7">
+      <c r="E40" s="7">
         <v>14115</v>
       </c>
-      <c r="E37" s="7">
+      <c r="F40" s="7">
         <v>45703</v>
       </c>
-      <c r="F37" s="7">
+      <c r="G40" s="7">
         <v>1034177</v>
       </c>
-      <c r="G37" s="7">
+      <c r="H40" s="7">
         <v>510398</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7">
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7">
         <v>28313</v>
       </c>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7">
+      <c r="L40" s="7"/>
+      <c r="M40" s="7">
         <v>31649</v>
       </c>
-      <c r="M37" s="7">
+      <c r="N40" s="7">
         <v>1355918</v>
       </c>
-      <c r="N37" s="7">
+      <c r="O40" s="7">
         <v>2098412</v>
       </c>
     </row>
-    <row r="38" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="8">
-        <v>44440</v>
-      </c>
-      <c r="C38" s="13">
-        <f t="shared" ref="C38:C69" si="1">SUM(D38:N38)</f>
+    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="25">
+        <v>2021</v>
+      </c>
+      <c r="C41" s="26">
+        <v>9</v>
+      </c>
+      <c r="D41" s="8">
+        <f t="shared" ref="D41:D72" si="2">SUM(E41:O41)</f>
         <v>4470649</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E41" s="4">
         <v>12872</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F41" s="4">
         <v>42716</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G41" s="4">
         <v>893242</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H41" s="4">
         <v>444101</v>
       </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4">
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4">
         <v>24490</v>
       </c>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4">
+      <c r="L41" s="4"/>
+      <c r="M41" s="4">
         <v>25901</v>
       </c>
-      <c r="M38" s="4">
+      <c r="N41" s="4">
         <v>1153271</v>
       </c>
-      <c r="N38" s="4">
+      <c r="O41" s="4">
         <v>1874056</v>
       </c>
     </row>
-    <row r="39" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="9">
-        <v>44409</v>
-      </c>
-      <c r="C39" s="14">
-        <f t="shared" si="1"/>
+    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="23">
+        <v>2021</v>
+      </c>
+      <c r="C42" s="24">
+        <v>8</v>
+      </c>
+      <c r="D42" s="9">
+        <f t="shared" si="2"/>
         <v>5008604</v>
       </c>
-      <c r="D39" s="7">
+      <c r="E42" s="7">
         <v>12792</v>
       </c>
-      <c r="E39" s="7">
+      <c r="F42" s="7">
         <v>47119</v>
       </c>
-      <c r="F39" s="7">
+      <c r="G42" s="7">
         <v>993427</v>
       </c>
-      <c r="G39" s="7">
+      <c r="H42" s="7">
         <v>524484</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7">
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7">
         <v>35479</v>
       </c>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7">
+      <c r="L42" s="7"/>
+      <c r="M42" s="7">
         <v>26034</v>
       </c>
-      <c r="M39" s="7">
+      <c r="N42" s="7">
         <v>1305965</v>
       </c>
-      <c r="N39" s="7">
+      <c r="O42" s="7">
         <v>2063304</v>
       </c>
     </row>
-    <row r="40" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="8">
-        <v>44378</v>
-      </c>
-      <c r="C40" s="13">
-        <f t="shared" si="1"/>
+    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="25">
+        <v>2021</v>
+      </c>
+      <c r="C43" s="26">
+        <v>7</v>
+      </c>
+      <c r="D43" s="8">
+        <f t="shared" si="2"/>
         <v>5456169</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E43" s="4">
         <v>15216</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F43" s="4">
         <v>53005</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G43" s="4">
         <v>1058956</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H43" s="4">
         <v>590598</v>
       </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4">
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4">
         <v>64029</v>
       </c>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4">
+      <c r="L43" s="4"/>
+      <c r="M43" s="4">
         <v>30912</v>
       </c>
-      <c r="M40" s="4">
+      <c r="N43" s="4">
         <v>1503552</v>
       </c>
-      <c r="N40" s="4">
+      <c r="O43" s="4">
         <v>2139901</v>
       </c>
     </row>
-    <row r="41" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="9">
-        <v>44348</v>
-      </c>
-      <c r="C41" s="14">
-        <f t="shared" si="1"/>
+    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="23">
+        <v>2021</v>
+      </c>
+      <c r="C44" s="24">
+        <v>6</v>
+      </c>
+      <c r="D44" s="9">
+        <f t="shared" si="2"/>
         <v>4784013</v>
       </c>
-      <c r="D41" s="7">
+      <c r="E44" s="7">
         <v>15389</v>
       </c>
-      <c r="E41" s="7">
+      <c r="F44" s="7">
         <v>43733</v>
       </c>
-      <c r="F41" s="7">
+      <c r="G44" s="7">
         <v>853708</v>
       </c>
-      <c r="G41" s="7">
+      <c r="H44" s="7">
         <v>536816</v>
       </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7">
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7">
         <v>54554</v>
       </c>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7">
+      <c r="L44" s="7"/>
+      <c r="M44" s="7">
         <v>23167</v>
       </c>
-      <c r="M41" s="7">
+      <c r="N44" s="7">
         <v>1288126</v>
       </c>
-      <c r="N41" s="7">
+      <c r="O44" s="7">
         <v>1968520</v>
       </c>
     </row>
-    <row r="42" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="8">
-        <v>44317</v>
-      </c>
-      <c r="C42" s="13">
-        <f t="shared" si="1"/>
+    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="25">
+        <v>2021</v>
+      </c>
+      <c r="C45" s="26">
+        <v>5</v>
+      </c>
+      <c r="D45" s="8">
+        <f t="shared" si="2"/>
         <v>4739036</v>
       </c>
-      <c r="D42" s="4">
+      <c r="E45" s="4">
         <v>16431</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F45" s="4">
         <v>40566</v>
       </c>
-      <c r="F42" s="4">
+      <c r="G45" s="4">
         <v>804638</v>
       </c>
-      <c r="G42" s="4">
+      <c r="H45" s="4">
         <v>535959</v>
       </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4">
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4">
         <v>45166</v>
       </c>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4">
+      <c r="L45" s="4"/>
+      <c r="M45" s="4">
         <v>20712</v>
       </c>
-      <c r="M42" s="4">
+      <c r="N45" s="4">
         <v>1283475</v>
       </c>
-      <c r="N42" s="4">
+      <c r="O45" s="4">
         <v>1992089</v>
       </c>
     </row>
-    <row r="43" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="9">
-        <v>44287</v>
-      </c>
-      <c r="C43" s="14">
-        <f t="shared" si="1"/>
+    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="23">
+        <v>2021</v>
+      </c>
+      <c r="C46" s="24">
+        <v>4</v>
+      </c>
+      <c r="D46" s="9">
+        <f t="shared" si="2"/>
         <v>4139956</v>
       </c>
-      <c r="D43" s="7">
+      <c r="E46" s="7">
         <v>13432</v>
       </c>
-      <c r="E43" s="7">
+      <c r="F46" s="7">
         <v>34786</v>
       </c>
-      <c r="F43" s="7">
+      <c r="G46" s="7">
         <v>729359</v>
       </c>
-      <c r="G43" s="7">
+      <c r="H46" s="7">
         <v>459115</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7">
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7">
         <v>37963</v>
       </c>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7">
+      <c r="L46" s="7"/>
+      <c r="M46" s="7">
         <v>19899</v>
       </c>
-      <c r="M43" s="7">
+      <c r="N46" s="7">
         <v>1098291</v>
       </c>
-      <c r="N43" s="7">
+      <c r="O46" s="7">
         <v>1747111</v>
       </c>
     </row>
-    <row r="44" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="8">
-        <v>44256</v>
-      </c>
-      <c r="C44" s="13">
-        <f t="shared" si="1"/>
+    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="25">
+        <v>2021</v>
+      </c>
+      <c r="C47" s="26">
+        <v>3</v>
+      </c>
+      <c r="D47" s="8">
+        <f t="shared" si="2"/>
         <v>3643233</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E47" s="4">
         <v>13443</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F47" s="4">
         <v>34472</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G47" s="4">
         <v>700282</v>
       </c>
-      <c r="G44" s="4">
+      <c r="H47" s="4">
         <v>454696</v>
       </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4">
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4">
         <v>25539</v>
       </c>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4">
+      <c r="L47" s="4"/>
+      <c r="M47" s="4">
         <v>18739</v>
       </c>
-      <c r="M44" s="4">
+      <c r="N47" s="4">
         <v>1015276</v>
       </c>
-      <c r="N44" s="4">
+      <c r="O47" s="4">
         <v>1380786</v>
       </c>
     </row>
-    <row r="45" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="9">
-        <v>44228</v>
-      </c>
-      <c r="C45" s="14">
-        <f t="shared" si="1"/>
+    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="23">
+        <v>2021</v>
+      </c>
+      <c r="C48" s="24">
+        <v>2</v>
+      </c>
+      <c r="D48" s="9">
+        <f t="shared" si="2"/>
         <v>2522697</v>
       </c>
-      <c r="D45" s="7">
+      <c r="E48" s="7">
         <v>8230</v>
       </c>
-      <c r="E45" s="7">
+      <c r="F48" s="7">
         <v>21876</v>
       </c>
-      <c r="F45" s="7">
+      <c r="G48" s="7">
         <v>521896</v>
       </c>
-      <c r="G45" s="7">
+      <c r="H48" s="7">
         <v>365190</v>
       </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7">
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7">
         <v>13877</v>
       </c>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7">
+      <c r="L48" s="7"/>
+      <c r="M48" s="7">
         <v>12256</v>
       </c>
-      <c r="M45" s="7">
+      <c r="N48" s="7">
         <v>590075</v>
       </c>
-      <c r="N45" s="7">
+      <c r="O48" s="7">
         <v>989297</v>
       </c>
     </row>
-    <row r="46" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="11">
-        <v>44197</v>
-      </c>
-      <c r="C46" s="15">
-        <f t="shared" si="1"/>
+    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="27">
+        <v>2021</v>
+      </c>
+      <c r="C49" s="28">
+        <v>1</v>
+      </c>
+      <c r="D49" s="10">
+        <f t="shared" si="2"/>
         <v>3256499</v>
       </c>
-      <c r="D46" s="6">
+      <c r="E49" s="6">
         <v>7181</v>
       </c>
-      <c r="E46" s="6">
+      <c r="F49" s="6">
         <v>25543</v>
       </c>
-      <c r="F46" s="6">
+      <c r="G49" s="6">
         <v>641860</v>
       </c>
-      <c r="G46" s="6">
+      <c r="H49" s="6">
         <v>438330</v>
       </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6">
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6">
         <v>19413</v>
       </c>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6">
+      <c r="L49" s="6"/>
+      <c r="M49" s="6">
         <v>13791</v>
       </c>
-      <c r="M46" s="6">
+      <c r="N49" s="6">
         <v>759842</v>
       </c>
-      <c r="N46" s="6">
+      <c r="O49" s="6">
         <v>1350539</v>
       </c>
     </row>
-    <row r="47" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="19">
-        <v>44166</v>
-      </c>
-      <c r="C47" s="20">
-        <f t="shared" si="1"/>
+    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="29">
+        <v>2020</v>
+      </c>
+      <c r="C50" s="30">
+        <v>12</v>
+      </c>
+      <c r="D50" s="11">
+        <f t="shared" si="2"/>
         <v>3752676</v>
       </c>
-      <c r="D47" s="21">
+      <c r="E50" s="12">
         <v>6626</v>
       </c>
-      <c r="E47" s="21">
+      <c r="F50" s="12">
         <v>32040</v>
       </c>
-      <c r="F47" s="21">
+      <c r="G50" s="12">
         <v>610544</v>
       </c>
-      <c r="G47" s="21">
+      <c r="H50" s="12">
         <v>491905</v>
       </c>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21">
+      <c r="I50" s="12"/>
+      <c r="J50" s="12">
         <v>4039</v>
       </c>
-      <c r="J47" s="21">
+      <c r="K50" s="12">
         <v>45610</v>
       </c>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21">
+      <c r="L50" s="12"/>
+      <c r="M50" s="12">
         <v>17383</v>
       </c>
-      <c r="M47" s="21">
+      <c r="N50" s="12">
         <v>998369</v>
       </c>
-      <c r="N47" s="21">
+      <c r="O50" s="12">
         <v>1546160</v>
       </c>
     </row>
-    <row r="48" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="8">
-        <v>44136</v>
-      </c>
-      <c r="C48" s="13">
-        <f t="shared" si="1"/>
+    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="25">
+        <v>2020</v>
+      </c>
+      <c r="C51" s="26">
+        <v>11</v>
+      </c>
+      <c r="D51" s="8">
+        <f t="shared" si="2"/>
         <v>3347186</v>
       </c>
-      <c r="D48" s="4">
+      <c r="E51" s="4">
         <v>6583</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F51" s="4">
         <v>28629</v>
       </c>
-      <c r="F48" s="4">
+      <c r="G51" s="4">
         <v>520221</v>
       </c>
-      <c r="G48" s="4">
+      <c r="H51" s="4">
         <v>395967</v>
       </c>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4">
+      <c r="I51" s="4"/>
+      <c r="J51" s="4">
         <v>17545</v>
       </c>
-      <c r="J48" s="4">
+      <c r="K51" s="4">
         <v>37463</v>
       </c>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4">
+      <c r="L51" s="4"/>
+      <c r="M51" s="4">
         <v>14115</v>
       </c>
-      <c r="M48" s="4">
+      <c r="N51" s="4">
         <v>863224</v>
       </c>
-      <c r="N48" s="4">
+      <c r="O51" s="4">
         <v>1463439</v>
       </c>
     </row>
-    <row r="49" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="9">
-        <v>44105</v>
-      </c>
-      <c r="C49" s="14">
-        <f t="shared" si="1"/>
+    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="23">
+        <v>2020</v>
+      </c>
+      <c r="C52" s="24">
+        <v>10</v>
+      </c>
+      <c r="D52" s="9">
+        <f t="shared" si="2"/>
         <v>3072785</v>
       </c>
-      <c r="D49" s="7">
+      <c r="E52" s="7">
         <v>5614</v>
       </c>
-      <c r="E49" s="7">
+      <c r="F52" s="7">
         <v>27120</v>
       </c>
-      <c r="F49" s="7">
+      <c r="G52" s="7">
         <v>463245</v>
       </c>
-      <c r="G49" s="7">
+      <c r="H52" s="7">
         <v>395686</v>
       </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7">
+      <c r="I52" s="7"/>
+      <c r="J52" s="7">
         <v>33425</v>
       </c>
-      <c r="J49" s="7">
+      <c r="K52" s="7">
         <v>29759</v>
       </c>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7">
+      <c r="L52" s="7"/>
+      <c r="M52" s="7">
         <v>14897</v>
       </c>
-      <c r="M49" s="7">
+      <c r="N52" s="7">
         <v>803614</v>
       </c>
-      <c r="N49" s="7">
+      <c r="O52" s="7">
         <v>1299425</v>
       </c>
     </row>
-    <row r="50" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="8">
-        <v>44075</v>
-      </c>
-      <c r="C50" s="13">
-        <f t="shared" si="1"/>
+    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="25">
+        <v>2020</v>
+      </c>
+      <c r="C53" s="26">
+        <v>9</v>
+      </c>
+      <c r="D53" s="8">
+        <f t="shared" si="2"/>
         <v>2614973</v>
       </c>
-      <c r="D50" s="4">
+      <c r="E53" s="4">
         <v>4853</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F53" s="4">
         <v>21371</v>
       </c>
-      <c r="F50" s="4">
+      <c r="G53" s="4">
         <v>371636</v>
       </c>
-      <c r="G50" s="4">
+      <c r="H53" s="4">
         <v>325704</v>
       </c>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4">
+      <c r="I53" s="4"/>
+      <c r="J53" s="4">
         <v>41547</v>
       </c>
-      <c r="J50" s="4">
+      <c r="K53" s="4">
         <v>30615</v>
       </c>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4">
+      <c r="L53" s="4"/>
+      <c r="M53" s="4">
         <v>11615</v>
       </c>
-      <c r="M50" s="4">
+      <c r="N53" s="4">
         <v>665331</v>
       </c>
-      <c r="N50" s="4">
+      <c r="O53" s="4">
         <v>1142301</v>
       </c>
     </row>
-    <row r="51" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="9">
-        <v>44044</v>
-      </c>
-      <c r="C51" s="14">
-        <f t="shared" si="1"/>
+    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="23">
+        <v>2020</v>
+      </c>
+      <c r="C54" s="24">
+        <v>8</v>
+      </c>
+      <c r="D54" s="9">
+        <f t="shared" si="2"/>
         <v>2423904</v>
       </c>
-      <c r="D51" s="7">
+      <c r="E54" s="7">
         <v>3748</v>
       </c>
-      <c r="E51" s="7">
+      <c r="F54" s="7">
         <v>22617</v>
       </c>
-      <c r="F51" s="7">
+      <c r="G54" s="7">
         <v>322580</v>
       </c>
-      <c r="G51" s="7">
+      <c r="H54" s="7">
         <v>310616</v>
       </c>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7">
+      <c r="I54" s="7"/>
+      <c r="J54" s="7">
         <v>38737</v>
       </c>
-      <c r="J51" s="7">
+      <c r="K54" s="7">
         <v>30641</v>
       </c>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7">
+      <c r="L54" s="7"/>
+      <c r="M54" s="7">
         <v>7400</v>
       </c>
-      <c r="M51" s="7">
+      <c r="N54" s="7">
         <v>586367</v>
       </c>
-      <c r="N51" s="7">
+      <c r="O54" s="7">
         <v>1101198</v>
       </c>
     </row>
-    <row r="52" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="8">
-        <v>44013</v>
-      </c>
-      <c r="C52" s="13">
-        <f t="shared" si="1"/>
+    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="25">
+        <v>2020</v>
+      </c>
+      <c r="C55" s="26">
+        <v>7</v>
+      </c>
+      <c r="D55" s="8">
+        <f t="shared" si="2"/>
         <v>1910823</v>
       </c>
-      <c r="D52" s="4">
+      <c r="E55" s="4">
         <v>3082</v>
       </c>
-      <c r="E52" s="4">
+      <c r="F55" s="4">
         <v>18259</v>
       </c>
-      <c r="F52" s="4">
+      <c r="G55" s="4">
         <v>251899</v>
       </c>
-      <c r="G52" s="4">
+      <c r="H55" s="4">
         <v>254505</v>
       </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4">
+      <c r="I55" s="4"/>
+      <c r="J55" s="4">
         <v>38811</v>
       </c>
-      <c r="J52" s="4">
+      <c r="K55" s="4">
         <v>24630</v>
       </c>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4">
+      <c r="L55" s="4"/>
+      <c r="M55" s="4">
         <v>4178</v>
       </c>
-      <c r="M52" s="4">
+      <c r="N55" s="4">
         <v>418350</v>
       </c>
-      <c r="N52" s="4">
+      <c r="O55" s="4">
         <v>897109</v>
       </c>
     </row>
-    <row r="53" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="9">
-        <v>43983</v>
-      </c>
-      <c r="C53" s="14">
-        <f t="shared" si="1"/>
+    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="23">
+        <v>2020</v>
+      </c>
+      <c r="C56" s="24">
+        <v>6</v>
+      </c>
+      <c r="D56" s="9">
+        <f t="shared" si="2"/>
         <v>996346</v>
       </c>
-      <c r="D53" s="7">
+      <c r="E56" s="7">
         <v>1927</v>
       </c>
-      <c r="E53" s="7">
+      <c r="F56" s="7">
         <v>9051</v>
       </c>
-      <c r="F53" s="7">
+      <c r="G56" s="7">
         <v>140991</v>
       </c>
-      <c r="G53" s="7">
+      <c r="H56" s="7">
         <v>97306</v>
       </c>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7">
+      <c r="I56" s="7"/>
+      <c r="J56" s="7">
         <v>24942</v>
       </c>
-      <c r="J53" s="7">
+      <c r="K56" s="7">
         <v>5002</v>
       </c>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7">
+      <c r="L56" s="7"/>
+      <c r="M56" s="7">
         <v>2168</v>
       </c>
-      <c r="M53" s="7">
+      <c r="N56" s="7">
         <v>201937</v>
       </c>
-      <c r="N53" s="7">
+      <c r="O56" s="7">
         <v>513022</v>
       </c>
     </row>
-    <row r="54" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="8">
-        <v>43952</v>
-      </c>
-      <c r="C54" s="13">
-        <f t="shared" si="1"/>
+    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="25">
+        <v>2020</v>
+      </c>
+      <c r="C57" s="26">
+        <v>5</v>
+      </c>
+      <c r="D57" s="8">
+        <f t="shared" si="2"/>
         <v>410766</v>
       </c>
-      <c r="D54" s="4">
+      <c r="E57" s="4">
         <v>1324</v>
       </c>
-      <c r="E54" s="4">
+      <c r="F57" s="4">
         <v>4688</v>
       </c>
-      <c r="F54" s="4">
+      <c r="G57" s="4">
         <v>50801</v>
       </c>
-      <c r="G54" s="4">
+      <c r="H57" s="4">
         <v>80478</v>
       </c>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4">
+      <c r="I57" s="4"/>
+      <c r="J57" s="4">
         <v>14835</v>
       </c>
-      <c r="J54" s="4">
+      <c r="K57" s="4">
         <v>0</v>
       </c>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4">
+      <c r="L57" s="4"/>
+      <c r="M57" s="4">
         <v>1040</v>
       </c>
-      <c r="M54" s="4">
+      <c r="N57" s="4">
         <v>90419</v>
       </c>
-      <c r="N54" s="4">
+      <c r="O57" s="4">
         <v>167181</v>
       </c>
     </row>
-    <row r="55" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="9">
-        <v>43922</v>
-      </c>
-      <c r="C55" s="14">
-        <f t="shared" si="1"/>
+    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="23">
+        <v>2020</v>
+      </c>
+      <c r="C58" s="24">
+        <v>4</v>
+      </c>
+      <c r="D58" s="9">
+        <f t="shared" si="2"/>
         <v>449003</v>
       </c>
-      <c r="D55" s="7">
+      <c r="E58" s="7">
         <v>1164</v>
       </c>
-      <c r="E55" s="7">
+      <c r="F58" s="7">
         <v>2668</v>
       </c>
-      <c r="F55" s="7">
+      <c r="G58" s="7">
         <v>60744</v>
       </c>
-      <c r="G55" s="7">
+      <c r="H58" s="7">
         <v>86523</v>
       </c>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7">
+      <c r="I58" s="7"/>
+      <c r="J58" s="7">
         <v>25068</v>
       </c>
-      <c r="J55" s="7">
+      <c r="K58" s="7">
         <v>705</v>
       </c>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7">
+      <c r="L58" s="7"/>
+      <c r="M58" s="7">
         <v>485</v>
       </c>
-      <c r="M55" s="7">
+      <c r="N58" s="7">
         <v>89915</v>
       </c>
-      <c r="N55" s="7">
+      <c r="O58" s="7">
         <v>181731</v>
       </c>
     </row>
-    <row r="56" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="8">
-        <v>43891</v>
-      </c>
-      <c r="C56" s="13">
-        <f t="shared" si="1"/>
+    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="25">
+        <v>2020</v>
+      </c>
+      <c r="C59" s="26">
+        <v>3</v>
+      </c>
+      <c r="D59" s="8">
+        <f t="shared" si="2"/>
         <v>3931644</v>
       </c>
-      <c r="D56" s="4">
+      <c r="E59" s="4">
         <v>8791</v>
       </c>
-      <c r="E56" s="4">
+      <c r="F59" s="4">
         <v>41673</v>
       </c>
-      <c r="F56" s="4">
+      <c r="G59" s="4">
         <v>572018</v>
       </c>
-      <c r="G56" s="4">
+      <c r="H59" s="4">
         <v>464064</v>
       </c>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4">
+      <c r="I59" s="4"/>
+      <c r="J59" s="4">
         <v>822187</v>
       </c>
-      <c r="J56" s="4">
+      <c r="K59" s="4">
         <v>23248</v>
       </c>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4">
+      <c r="L59" s="4"/>
+      <c r="M59" s="4">
         <v>26274</v>
       </c>
-      <c r="M56" s="4">
+      <c r="N59" s="4">
         <v>704638</v>
       </c>
-      <c r="N56" s="4">
+      <c r="O59" s="4">
         <v>1268751</v>
       </c>
     </row>
-    <row r="57" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="9">
-        <v>43862</v>
-      </c>
-      <c r="C57" s="14">
-        <f t="shared" si="1"/>
+    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="23">
+        <v>2020</v>
+      </c>
+      <c r="C60" s="24">
+        <v>2</v>
+      </c>
+      <c r="D60" s="9">
+        <f t="shared" si="2"/>
         <v>5315967</v>
       </c>
-      <c r="D57" s="7">
+      <c r="E60" s="7">
         <v>10857</v>
       </c>
-      <c r="E57" s="7">
+      <c r="F60" s="7">
         <v>59357</v>
       </c>
-      <c r="F57" s="7">
+      <c r="G60" s="7">
         <v>846279</v>
       </c>
-      <c r="G57" s="7">
+      <c r="H60" s="7">
         <v>641873</v>
       </c>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7">
+      <c r="I60" s="7"/>
+      <c r="J60" s="7">
         <v>1178801</v>
       </c>
-      <c r="J57" s="7">
+      <c r="K60" s="7">
         <v>26652</v>
       </c>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7">
+      <c r="L60" s="7"/>
+      <c r="M60" s="7">
         <v>36382</v>
       </c>
-      <c r="M57" s="7">
+      <c r="N60" s="7">
         <v>881600</v>
       </c>
-      <c r="N57" s="7">
+      <c r="O60" s="7">
         <v>1634166</v>
       </c>
     </row>
-    <row r="58" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="11">
-        <v>43831</v>
-      </c>
-      <c r="C58" s="15">
-        <f t="shared" si="1"/>
+    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="27">
+        <v>2020</v>
+      </c>
+      <c r="C61" s="28">
+        <v>1</v>
+      </c>
+      <c r="D61" s="10">
+        <f t="shared" si="2"/>
         <v>5907035</v>
       </c>
-      <c r="D58" s="6">
+      <c r="E61" s="6">
         <v>13840</v>
       </c>
-      <c r="E58" s="6">
+      <c r="F61" s="6">
         <v>68044</v>
       </c>
-      <c r="F58" s="6">
+      <c r="G61" s="6">
         <v>961808</v>
       </c>
-      <c r="G58" s="6">
+      <c r="H61" s="6">
         <v>680707</v>
       </c>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6">
+      <c r="I61" s="6"/>
+      <c r="J61" s="6">
         <v>1315599</v>
       </c>
-      <c r="J58" s="6">
+      <c r="K61" s="6">
         <v>47575</v>
       </c>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6">
+      <c r="L61" s="6"/>
+      <c r="M61" s="6">
         <v>40620</v>
       </c>
-      <c r="M58" s="6">
+      <c r="N61" s="6">
         <v>980414</v>
       </c>
-      <c r="N58" s="6">
+      <c r="O61" s="6">
         <v>1798428</v>
       </c>
     </row>
-    <row r="59" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="19">
-        <v>43800</v>
-      </c>
-      <c r="C59" s="20">
-        <f t="shared" si="1"/>
+    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="29">
+        <v>2019</v>
+      </c>
+      <c r="C62" s="30">
+        <v>12</v>
+      </c>
+      <c r="D62" s="11">
+        <f t="shared" si="2"/>
         <v>6305291</v>
       </c>
-      <c r="D59" s="21">
+      <c r="E62" s="12">
         <v>14577</v>
       </c>
-      <c r="E59" s="21">
+      <c r="F62" s="12">
         <v>79686</v>
       </c>
-      <c r="F59" s="21">
+      <c r="G62" s="12">
         <v>1001613</v>
       </c>
-      <c r="G59" s="21">
+      <c r="H62" s="12">
         <v>756331</v>
       </c>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21">
+      <c r="I62" s="12"/>
+      <c r="J62" s="12">
         <v>1419527</v>
       </c>
-      <c r="J59" s="21">
+      <c r="K62" s="12">
         <v>72539</v>
       </c>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21">
+      <c r="L62" s="12"/>
+      <c r="M62" s="12">
         <v>45759</v>
       </c>
-      <c r="M59" s="21">
+      <c r="N62" s="12">
         <v>1083272</v>
       </c>
-      <c r="N59" s="21">
+      <c r="O62" s="12">
         <v>1831987</v>
       </c>
     </row>
-    <row r="60" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="8">
-        <v>43770</v>
-      </c>
-      <c r="C60" s="13">
-        <f t="shared" si="1"/>
+    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="25">
+        <v>2019</v>
+      </c>
+      <c r="C63" s="26">
+        <v>11</v>
+      </c>
+      <c r="D63" s="8">
+        <f t="shared" si="2"/>
         <v>5933699</v>
       </c>
-      <c r="D60" s="4">
+      <c r="E63" s="4">
         <v>15593</v>
       </c>
-      <c r="E60" s="4">
+      <c r="F63" s="4">
         <v>73513</v>
       </c>
-      <c r="F60" s="4">
+      <c r="G63" s="4">
         <v>938515</v>
       </c>
-      <c r="G60" s="4">
+      <c r="H63" s="4">
         <v>697055</v>
       </c>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4">
+      <c r="I63" s="4"/>
+      <c r="J63" s="4">
         <v>1349425</v>
       </c>
-      <c r="J60" s="4">
+      <c r="K63" s="4">
         <v>54165</v>
       </c>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4">
+      <c r="L63" s="4"/>
+      <c r="M63" s="4">
         <v>41740</v>
       </c>
-      <c r="M60" s="4">
+      <c r="N63" s="4">
         <v>1014931</v>
       </c>
-      <c r="N60" s="4">
+      <c r="O63" s="4">
         <v>1748762</v>
       </c>
     </row>
-    <row r="61" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="9">
-        <v>43739</v>
-      </c>
-      <c r="C61" s="14">
-        <f t="shared" si="1"/>
+    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="23">
+        <v>2019</v>
+      </c>
+      <c r="C64" s="24">
+        <v>10</v>
+      </c>
+      <c r="D64" s="9">
+        <f t="shared" si="2"/>
         <v>5863191</v>
       </c>
-      <c r="D61" s="7">
+      <c r="E64" s="7">
         <v>19701</v>
       </c>
-      <c r="E61" s="7">
+      <c r="F64" s="7">
         <v>67349</v>
       </c>
-      <c r="F61" s="7">
+      <c r="G64" s="7">
         <v>957393</v>
       </c>
-      <c r="G61" s="7">
+      <c r="H64" s="7">
         <v>740956</v>
       </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7">
+      <c r="I64" s="7"/>
+      <c r="J64" s="7">
         <v>1232933</v>
       </c>
-      <c r="J61" s="7">
+      <c r="K64" s="7">
         <v>57392</v>
       </c>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7">
+      <c r="L64" s="7"/>
+      <c r="M64" s="7">
         <v>40850</v>
       </c>
-      <c r="M61" s="7">
+      <c r="N64" s="7">
         <v>1022260</v>
       </c>
-      <c r="N61" s="7">
+      <c r="O64" s="7">
         <v>1724357</v>
       </c>
     </row>
-    <row r="62" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="8">
-        <v>43709</v>
-      </c>
-      <c r="C62" s="13">
-        <f t="shared" si="1"/>
+    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="25">
+        <v>2019</v>
+      </c>
+      <c r="C65" s="26">
+        <v>9</v>
+      </c>
+      <c r="D65" s="8">
+        <f t="shared" si="2"/>
         <v>5409755</v>
       </c>
-      <c r="D62" s="4">
+      <c r="E65" s="4">
         <v>15863</v>
       </c>
-      <c r="E62" s="4">
+      <c r="F65" s="4">
         <v>61156</v>
       </c>
-      <c r="F62" s="4">
+      <c r="G65" s="4">
         <v>897733</v>
       </c>
-      <c r="G62" s="4">
+      <c r="H65" s="4">
         <v>677299</v>
       </c>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4">
+      <c r="I65" s="4"/>
+      <c r="J65" s="4">
         <v>1115654</v>
       </c>
-      <c r="J62" s="4">
+      <c r="K65" s="4">
         <v>61638</v>
       </c>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4">
+      <c r="L65" s="4"/>
+      <c r="M65" s="4">
         <v>42002</v>
       </c>
-      <c r="M62" s="4">
+      <c r="N65" s="4">
         <v>922290</v>
       </c>
-      <c r="N62" s="4">
+      <c r="O65" s="4">
         <v>1616120</v>
       </c>
     </row>
-    <row r="63" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="9">
-        <v>43678</v>
-      </c>
-      <c r="C63" s="14">
-        <f t="shared" si="1"/>
+    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="23">
+        <v>2019</v>
+      </c>
+      <c r="C66" s="24">
+        <v>8</v>
+      </c>
+      <c r="D66" s="9">
+        <f t="shared" si="2"/>
         <v>6259657</v>
       </c>
-      <c r="D63" s="7">
+      <c r="E66" s="7">
         <v>22090</v>
       </c>
-      <c r="E63" s="7">
+      <c r="F66" s="7">
         <v>68824</v>
       </c>
-      <c r="F63" s="7">
+      <c r="G66" s="7">
         <v>1001754</v>
       </c>
-      <c r="G63" s="7">
+      <c r="H66" s="7">
         <v>777867</v>
       </c>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7">
+      <c r="I66" s="7"/>
+      <c r="J66" s="7">
         <v>1395254</v>
       </c>
-      <c r="J63" s="7">
+      <c r="K66" s="7">
         <v>88036</v>
       </c>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7">
+      <c r="L66" s="7"/>
+      <c r="M66" s="7">
         <v>47511</v>
       </c>
-      <c r="M63" s="7">
+      <c r="N66" s="7">
         <v>1112562</v>
       </c>
-      <c r="N63" s="7">
+      <c r="O66" s="7">
         <v>1745759</v>
       </c>
     </row>
-    <row r="64" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="8">
-        <v>43647</v>
-      </c>
-      <c r="C64" s="13">
-        <f t="shared" si="1"/>
+    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="25">
+        <v>2019</v>
+      </c>
+      <c r="C67" s="26">
+        <v>7</v>
+      </c>
+      <c r="D67" s="8">
+        <f t="shared" si="2"/>
         <v>6643948</v>
       </c>
-      <c r="D64" s="4">
+      <c r="E67" s="4">
         <v>24398</v>
       </c>
-      <c r="E64" s="4">
+      <c r="F67" s="4">
         <v>75738</v>
       </c>
-      <c r="F64" s="4">
+      <c r="G67" s="4">
         <v>1056905</v>
       </c>
-      <c r="G64" s="4">
+      <c r="H67" s="4">
         <v>847525</v>
       </c>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4">
+      <c r="I67" s="4"/>
+      <c r="J67" s="4">
         <v>1440396</v>
       </c>
-      <c r="J64" s="4">
+      <c r="K67" s="4">
         <v>112757</v>
       </c>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4">
+      <c r="L67" s="4"/>
+      <c r="M67" s="4">
         <v>53404</v>
       </c>
-      <c r="M64" s="4">
+      <c r="N67" s="4">
         <v>1151999</v>
       </c>
-      <c r="N64" s="4">
+      <c r="O67" s="4">
         <v>1880826</v>
       </c>
     </row>
-    <row r="65" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="9">
-        <v>43617</v>
-      </c>
-      <c r="C65" s="14">
-        <f t="shared" si="1"/>
+    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="23">
+        <v>2019</v>
+      </c>
+      <c r="C68" s="24">
+        <v>6</v>
+      </c>
+      <c r="D68" s="9">
+        <f t="shared" si="2"/>
         <v>6003625</v>
       </c>
-      <c r="D65" s="7">
+      <c r="E68" s="7">
         <v>24034</v>
       </c>
-      <c r="E65" s="7">
+      <c r="F68" s="7">
         <v>65120</v>
       </c>
-      <c r="F65" s="7">
+      <c r="G68" s="7">
         <v>968584</v>
       </c>
-      <c r="G65" s="7">
+      <c r="H68" s="7">
         <v>772914</v>
       </c>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7">
+      <c r="I68" s="7"/>
+      <c r="J68" s="7">
         <v>1315938</v>
       </c>
-      <c r="J65" s="7">
+      <c r="K68" s="7">
         <v>90790</v>
       </c>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7">
+      <c r="L68" s="7"/>
+      <c r="M68" s="7">
         <v>47162</v>
       </c>
-      <c r="M65" s="7">
+      <c r="N68" s="7">
         <v>974523</v>
       </c>
-      <c r="N65" s="7">
+      <c r="O68" s="7">
         <v>1744560</v>
       </c>
     </row>
-    <row r="66" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="8">
-        <v>43586</v>
-      </c>
-      <c r="C66" s="13">
-        <f t="shared" si="1"/>
+    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="25">
+        <v>2019</v>
+      </c>
+      <c r="C69" s="26">
+        <v>5</v>
+      </c>
+      <c r="D69" s="8">
+        <f t="shared" si="2"/>
         <v>6066733</v>
       </c>
-      <c r="D66" s="4">
+      <c r="E69" s="4">
         <v>24578</v>
       </c>
-      <c r="E66" s="4">
+      <c r="F69" s="4">
         <v>61163</v>
       </c>
-      <c r="F66" s="4">
+      <c r="G69" s="4">
         <v>976676</v>
       </c>
-      <c r="G66" s="4">
+      <c r="H69" s="4">
         <v>788262</v>
       </c>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4">
+      <c r="I69" s="4"/>
+      <c r="J69" s="4">
         <v>1373059</v>
       </c>
-      <c r="J66" s="4">
+      <c r="K69" s="4">
         <v>74030</v>
       </c>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4">
+      <c r="L69" s="4"/>
+      <c r="M69" s="4">
         <v>51746</v>
       </c>
-      <c r="M66" s="4">
+      <c r="N69" s="4">
         <v>931984</v>
       </c>
-      <c r="N66" s="4">
+      <c r="O69" s="4">
         <v>1785235</v>
       </c>
     </row>
-    <row r="67" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="9">
-        <v>43556</v>
-      </c>
-      <c r="C67" s="14">
-        <f t="shared" si="1"/>
+    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="23">
+        <v>2019</v>
+      </c>
+      <c r="C70" s="24">
+        <v>4</v>
+      </c>
+      <c r="D70" s="9">
+        <f t="shared" si="2"/>
         <v>5766967</v>
       </c>
-      <c r="D67" s="7">
+      <c r="E70" s="7">
         <v>26137</v>
       </c>
-      <c r="E67" s="7">
+      <c r="F70" s="7">
         <v>63912</v>
       </c>
-      <c r="F67" s="7">
+      <c r="G70" s="7">
         <v>935481</v>
       </c>
-      <c r="G67" s="7">
+      <c r="H70" s="7">
         <v>737722</v>
       </c>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7">
+      <c r="I70" s="7"/>
+      <c r="J70" s="7">
         <v>1282012</v>
       </c>
-      <c r="J67" s="7">
+      <c r="K70" s="7">
         <v>54469</v>
       </c>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7">
+      <c r="L70" s="7"/>
+      <c r="M70" s="7">
         <v>50399</v>
       </c>
-      <c r="M67" s="7">
+      <c r="N70" s="7">
         <v>893208</v>
       </c>
-      <c r="N67" s="7">
+      <c r="O70" s="7">
         <v>1723627</v>
       </c>
     </row>
-    <row r="68" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="8">
-        <v>43525</v>
-      </c>
-      <c r="C68" s="13">
-        <f t="shared" si="1"/>
+    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="25">
+        <v>2019</v>
+      </c>
+      <c r="C71" s="26">
+        <v>3</v>
+      </c>
+      <c r="D71" s="8">
+        <f t="shared" si="2"/>
         <v>5617314</v>
       </c>
-      <c r="D68" s="4">
+      <c r="E71" s="4">
         <v>24631</v>
       </c>
-      <c r="E68" s="4">
+      <c r="F71" s="4">
         <v>66177</v>
       </c>
-      <c r="F68" s="4">
+      <c r="G71" s="4">
         <v>991931</v>
       </c>
-      <c r="G68" s="4">
+      <c r="H71" s="4">
         <v>774790</v>
       </c>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4">
+      <c r="I71" s="4"/>
+      <c r="J71" s="4">
         <v>1245949</v>
       </c>
-      <c r="J68" s="4">
+      <c r="K71" s="4">
         <v>40758</v>
       </c>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4">
+      <c r="L71" s="4"/>
+      <c r="M71" s="4">
         <v>49242</v>
       </c>
-      <c r="M68" s="4">
+      <c r="N71" s="4">
         <v>767922</v>
       </c>
-      <c r="N68" s="4">
+      <c r="O71" s="4">
         <v>1655914</v>
       </c>
     </row>
-    <row r="69" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="9">
-        <v>43497</v>
-      </c>
-      <c r="C69" s="14">
-        <f t="shared" si="1"/>
+    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="23">
+        <v>2019</v>
+      </c>
+      <c r="C72" s="24">
+        <v>2</v>
+      </c>
+      <c r="D72" s="9">
+        <f t="shared" si="2"/>
         <v>4697667</v>
       </c>
-      <c r="D69" s="7">
+      <c r="E72" s="7">
         <v>20074</v>
       </c>
-      <c r="E69" s="7">
+      <c r="F72" s="7">
         <v>57946</v>
       </c>
-      <c r="F69" s="7">
+      <c r="G72" s="7">
         <v>888111</v>
       </c>
-      <c r="G69" s="7">
+      <c r="H72" s="7">
         <v>647818</v>
       </c>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7">
+      <c r="I72" s="7"/>
+      <c r="J72" s="7">
         <v>1002798</v>
       </c>
-      <c r="J69" s="7">
+      <c r="K72" s="7">
         <v>31139</v>
       </c>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7">
+      <c r="L72" s="7"/>
+      <c r="M72" s="7">
         <v>40877</v>
       </c>
-      <c r="M69" s="7">
+      <c r="N72" s="7">
         <v>617809</v>
       </c>
-      <c r="N69" s="7">
+      <c r="O72" s="7">
         <v>1391095</v>
       </c>
     </row>
-    <row r="70" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="11">
-        <v>43466</v>
-      </c>
-      <c r="C70" s="15">
-        <f t="shared" ref="C70:C101" si="2">SUM(D70:N70)</f>
+    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="27">
+        <v>2019</v>
+      </c>
+      <c r="C73" s="28">
+        <v>1</v>
+      </c>
+      <c r="D73" s="10">
+        <f t="shared" ref="D73:D85" si="3">SUM(E73:O73)</f>
         <v>5369991</v>
       </c>
-      <c r="D70" s="6">
+      <c r="E73" s="6">
         <v>24399</v>
       </c>
-      <c r="E70" s="6">
+      <c r="F73" s="6">
         <v>59133</v>
       </c>
-      <c r="F70" s="6">
+      <c r="G73" s="6">
         <v>1017714</v>
       </c>
-      <c r="G70" s="6">
+      <c r="H73" s="6">
         <v>718168</v>
       </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6">
+      <c r="I73" s="6"/>
+      <c r="J73" s="6">
         <v>1143850</v>
       </c>
-      <c r="J70" s="6">
+      <c r="K73" s="6">
         <v>45885</v>
       </c>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6">
+      <c r="L73" s="6"/>
+      <c r="M73" s="6">
         <v>45704</v>
       </c>
-      <c r="M70" s="6">
+      <c r="N73" s="6">
         <v>787962</v>
       </c>
-      <c r="N70" s="6">
+      <c r="O73" s="6">
         <v>1527176</v>
       </c>
     </row>
-    <row r="71" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="10">
-        <v>43435</v>
-      </c>
-      <c r="C71" s="14">
-        <f t="shared" si="2"/>
+    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="24">
+        <v>2018</v>
+      </c>
+      <c r="C74" s="24">
+        <v>12</v>
+      </c>
+      <c r="D74" s="9">
+        <f t="shared" si="3"/>
         <v>5844697</v>
       </c>
-      <c r="D71" s="7">
+      <c r="E74" s="7">
         <v>25513</v>
       </c>
-      <c r="E71" s="7">
+      <c r="F74" s="7">
         <v>64369</v>
       </c>
-      <c r="F71" s="7">
+      <c r="G74" s="7">
         <v>1071044</v>
       </c>
-      <c r="G71" s="7">
+      <c r="H74" s="7">
         <v>804521</v>
       </c>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7">
+      <c r="I74" s="7"/>
+      <c r="J74" s="7">
         <v>1232404</v>
       </c>
-      <c r="J71" s="7">
+      <c r="K74" s="7">
         <v>78800</v>
       </c>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7">
+      <c r="L74" s="7"/>
+      <c r="M74" s="7">
         <v>50423</v>
       </c>
-      <c r="M71" s="7">
+      <c r="N74" s="7">
         <v>905477</v>
       </c>
-      <c r="N71" s="7">
+      <c r="O74" s="7">
         <v>1612146</v>
       </c>
     </row>
-    <row r="72" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="12">
-        <v>43405</v>
-      </c>
-      <c r="C72" s="13">
-        <f t="shared" si="2"/>
+    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="26">
+        <v>2018</v>
+      </c>
+      <c r="C75" s="26">
+        <v>11</v>
+      </c>
+      <c r="D75" s="8">
+        <f t="shared" si="3"/>
         <v>5548187</v>
       </c>
-      <c r="D72" s="4">
+      <c r="E75" s="4">
         <v>24593</v>
       </c>
-      <c r="E72" s="4">
+      <c r="F75" s="4">
         <v>68160</v>
       </c>
-      <c r="F72" s="4">
+      <c r="G75" s="4">
         <v>1004506</v>
       </c>
-      <c r="G72" s="4">
+      <c r="H75" s="4">
         <v>761656</v>
       </c>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4">
+      <c r="I75" s="4"/>
+      <c r="J75" s="4">
         <v>1214579</v>
       </c>
-      <c r="J72" s="4">
+      <c r="K75" s="4">
         <v>70291</v>
       </c>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4">
+      <c r="L75" s="4"/>
+      <c r="M75" s="4">
         <v>52654</v>
       </c>
-      <c r="M72" s="4">
+      <c r="N75" s="4">
         <v>844104</v>
       </c>
-      <c r="N72" s="4">
+      <c r="O75" s="4">
         <v>1507644</v>
       </c>
     </row>
-    <row r="73" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="10">
-        <v>43374</v>
-      </c>
-      <c r="C73" s="14">
-        <f t="shared" si="2"/>
+    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="24">
+        <v>2018</v>
+      </c>
+      <c r="C76" s="24">
+        <v>10</v>
+      </c>
+      <c r="D76" s="9">
+        <f t="shared" si="3"/>
         <v>5436017</v>
       </c>
-      <c r="D73" s="7">
+      <c r="E76" s="7">
         <v>23163</v>
       </c>
-      <c r="E73" s="7">
+      <c r="F76" s="7">
         <v>67739</v>
       </c>
-      <c r="F73" s="7">
+      <c r="G76" s="7">
         <v>1006759</v>
       </c>
-      <c r="G73" s="7">
+      <c r="H76" s="7">
         <v>779871</v>
       </c>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7">
+      <c r="I76" s="7"/>
+      <c r="J76" s="7">
         <v>1170513</v>
       </c>
-      <c r="J73" s="7">
+      <c r="K76" s="7">
         <v>65741</v>
       </c>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7">
+      <c r="L76" s="7"/>
+      <c r="M76" s="7">
         <v>52203</v>
       </c>
-      <c r="M73" s="7">
+      <c r="N76" s="7">
         <v>808467</v>
       </c>
-      <c r="N73" s="7">
+      <c r="O76" s="7">
         <v>1461561</v>
       </c>
     </row>
-    <row r="74" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="12">
-        <v>43344</v>
-      </c>
-      <c r="C74" s="13">
-        <f t="shared" si="2"/>
+    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="26">
+        <v>2018</v>
+      </c>
+      <c r="C77" s="26">
+        <v>9</v>
+      </c>
+      <c r="D77" s="8">
+        <f t="shared" si="3"/>
         <v>5031295</v>
       </c>
-      <c r="D74" s="4">
+      <c r="E77" s="4">
         <v>21054</v>
       </c>
-      <c r="E74" s="4">
+      <c r="F77" s="4">
         <v>57581</v>
       </c>
-      <c r="F74" s="4">
+      <c r="G77" s="4">
         <v>953415</v>
       </c>
-      <c r="G74" s="4">
+      <c r="H77" s="4">
         <v>749609</v>
       </c>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4">
+      <c r="I77" s="4"/>
+      <c r="J77" s="4">
         <v>1042581</v>
       </c>
-      <c r="J74" s="4">
+      <c r="K77" s="4">
         <v>61896</v>
       </c>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4">
+      <c r="L77" s="4"/>
+      <c r="M77" s="4">
         <v>46860</v>
       </c>
-      <c r="M74" s="4">
+      <c r="N77" s="4">
         <v>767606</v>
       </c>
-      <c r="N74" s="4">
+      <c r="O77" s="4">
         <v>1330693</v>
       </c>
     </row>
-    <row r="75" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="10">
-        <v>43313</v>
-      </c>
-      <c r="C75" s="14">
-        <f t="shared" si="2"/>
+    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="24">
+        <v>2018</v>
+      </c>
+      <c r="C78" s="24">
+        <v>8</v>
+      </c>
+      <c r="D78" s="9">
+        <f t="shared" si="3"/>
         <v>5768371</v>
       </c>
-      <c r="D75" s="7">
+      <c r="E78" s="7">
         <v>27838</v>
       </c>
-      <c r="E75" s="7">
+      <c r="F78" s="7">
         <v>63083</v>
       </c>
-      <c r="F75" s="7">
+      <c r="G78" s="7">
         <v>1074998</v>
       </c>
-      <c r="G75" s="7">
+      <c r="H78" s="7">
         <v>852980</v>
       </c>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7">
+      <c r="I78" s="7"/>
+      <c r="J78" s="7">
         <v>1233129</v>
       </c>
-      <c r="J75" s="7">
+      <c r="K78" s="7">
         <v>104695</v>
       </c>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7">
+      <c r="L78" s="7"/>
+      <c r="M78" s="7">
         <v>54110</v>
       </c>
-      <c r="M75" s="7">
+      <c r="N78" s="7">
         <v>921277</v>
       </c>
-      <c r="N75" s="7">
+      <c r="O78" s="7">
         <v>1436261</v>
       </c>
     </row>
-    <row r="76" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="12">
-        <v>43282</v>
-      </c>
-      <c r="C76" s="13">
-        <f t="shared" si="2"/>
+    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="26">
+        <v>2018</v>
+      </c>
+      <c r="C79" s="26">
+        <v>7</v>
+      </c>
+      <c r="D79" s="8">
+        <f t="shared" si="3"/>
         <v>6140662</v>
       </c>
-      <c r="D76" s="4">
+      <c r="E79" s="4">
         <v>32903</v>
       </c>
-      <c r="E76" s="4">
+      <c r="F79" s="4">
         <v>56167</v>
       </c>
-      <c r="F76" s="4">
+      <c r="G79" s="4">
         <v>1179423</v>
       </c>
-      <c r="G76" s="4">
+      <c r="H79" s="4">
         <v>895787</v>
       </c>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4">
+      <c r="I79" s="4"/>
+      <c r="J79" s="4">
         <v>1280292</v>
       </c>
-      <c r="J76" s="4">
+      <c r="K79" s="4">
         <v>110733</v>
       </c>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4">
+      <c r="L79" s="4"/>
+      <c r="M79" s="4">
         <v>58466</v>
       </c>
-      <c r="M76" s="4">
+      <c r="N79" s="4">
         <v>944861</v>
       </c>
-      <c r="N76" s="4">
+      <c r="O79" s="4">
         <v>1582030</v>
       </c>
     </row>
-    <row r="77" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="10">
-        <v>43252</v>
-      </c>
-      <c r="C77" s="14">
-        <f t="shared" si="2"/>
+    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="24">
+        <v>2018</v>
+      </c>
+      <c r="C80" s="24">
+        <v>6</v>
+      </c>
+      <c r="D80" s="9">
+        <f t="shared" si="3"/>
         <v>5347432</v>
       </c>
-      <c r="D77" s="7">
+      <c r="E80" s="7">
         <v>26323</v>
       </c>
-      <c r="E77" s="7">
+      <c r="F80" s="7">
         <v>46065</v>
       </c>
-      <c r="F77" s="7">
+      <c r="G80" s="7">
         <v>1036698</v>
       </c>
-      <c r="G77" s="7">
+      <c r="H80" s="7">
         <v>815293</v>
       </c>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7">
+      <c r="I80" s="7"/>
+      <c r="J80" s="7">
         <v>1141203</v>
       </c>
-      <c r="J77" s="7">
+      <c r="K80" s="7">
         <v>75066</v>
       </c>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7">
+      <c r="L80" s="7"/>
+      <c r="M80" s="7">
         <v>48032</v>
       </c>
-      <c r="M77" s="7">
+      <c r="N80" s="7">
         <v>768437</v>
       </c>
-      <c r="N77" s="7">
+      <c r="O80" s="7">
         <v>1390315</v>
       </c>
     </row>
-    <row r="78" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="12">
-        <v>43221</v>
-      </c>
-      <c r="C78" s="13">
-        <f t="shared" si="2"/>
+    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="26">
+        <v>2018</v>
+      </c>
+      <c r="C81" s="26">
+        <v>5</v>
+      </c>
+      <c r="D81" s="8">
+        <f t="shared" si="3"/>
         <v>5369812</v>
       </c>
-      <c r="D78" s="4">
+      <c r="E81" s="4">
         <v>26212</v>
       </c>
-      <c r="E78" s="4">
+      <c r="F81" s="4">
         <v>54265</v>
       </c>
-      <c r="F78" s="4">
+      <c r="G81" s="4">
         <v>1033321</v>
       </c>
-      <c r="G78" s="4">
+      <c r="H81" s="4">
         <v>780048</v>
       </c>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4">
+      <c r="I81" s="4"/>
+      <c r="J81" s="4">
         <v>1201298</v>
       </c>
-      <c r="J78" s="4">
+      <c r="K81" s="4">
         <v>84998</v>
       </c>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4">
+      <c r="L81" s="4"/>
+      <c r="M81" s="4">
         <v>49481</v>
       </c>
-      <c r="M78" s="4">
+      <c r="N81" s="4">
         <v>759447</v>
       </c>
-      <c r="N78" s="4">
+      <c r="O81" s="4">
         <v>1380742</v>
       </c>
     </row>
-    <row r="79" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="10">
-        <v>43191</v>
-      </c>
-      <c r="C79" s="14">
-        <f t="shared" si="2"/>
+    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="24">
+        <v>2018</v>
+      </c>
+      <c r="C82" s="24">
+        <v>4</v>
+      </c>
+      <c r="D82" s="9">
+        <f t="shared" si="3"/>
         <v>5275071</v>
       </c>
-      <c r="D79" s="7">
+      <c r="E82" s="7">
         <v>25839</v>
       </c>
-      <c r="E79" s="7">
+      <c r="F82" s="7">
         <v>59133</v>
       </c>
-      <c r="F79" s="7">
+      <c r="G82" s="7">
         <v>996415</v>
       </c>
-      <c r="G79" s="7">
+      <c r="H82" s="7">
         <v>794436</v>
       </c>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7">
+      <c r="I82" s="7"/>
+      <c r="J82" s="7">
         <v>1176450</v>
       </c>
-      <c r="J79" s="7">
+      <c r="K82" s="7">
         <v>73805</v>
       </c>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7">
+      <c r="L82" s="7"/>
+      <c r="M82" s="7">
         <v>49795</v>
       </c>
-      <c r="M79" s="7">
+      <c r="N82" s="7">
         <v>730221</v>
       </c>
-      <c r="N79" s="7">
+      <c r="O82" s="7">
         <v>1368977</v>
       </c>
     </row>
-    <row r="80" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="12">
-        <v>43160</v>
-      </c>
-      <c r="C80" s="13">
-        <f t="shared" si="2"/>
+    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="26">
+        <v>2018</v>
+      </c>
+      <c r="C83" s="26">
+        <v>3</v>
+      </c>
+      <c r="D83" s="8">
+        <f t="shared" si="3"/>
         <v>5277344</v>
       </c>
-      <c r="D80" s="4">
+      <c r="E83" s="4">
         <v>29029</v>
       </c>
-      <c r="E80" s="4">
+      <c r="F83" s="4">
         <v>65814</v>
       </c>
-      <c r="F80" s="4">
+      <c r="G83" s="4">
         <v>993548</v>
       </c>
-      <c r="G80" s="4">
+      <c r="H83" s="4">
         <v>797581</v>
       </c>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4">
+      <c r="I83" s="4"/>
+      <c r="J83" s="4">
         <v>1174935</v>
       </c>
-      <c r="J80" s="4">
+      <c r="K83" s="4">
         <v>50611</v>
       </c>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4">
+      <c r="L83" s="4"/>
+      <c r="M83" s="4">
         <v>50043</v>
       </c>
-      <c r="M80" s="4">
+      <c r="N83" s="4">
         <v>723374</v>
       </c>
-      <c r="N80" s="4">
+      <c r="O83" s="4">
         <v>1392409</v>
       </c>
     </row>
-    <row r="81" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="10">
-        <v>43132</v>
-      </c>
-      <c r="C81" s="14">
-        <f t="shared" si="2"/>
+    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="24">
+        <v>2018</v>
+      </c>
+      <c r="C84" s="24">
+        <v>2</v>
+      </c>
+      <c r="D84" s="9">
+        <f t="shared" si="3"/>
         <v>4448093</v>
       </c>
-      <c r="D81" s="7">
+      <c r="E84" s="7">
         <v>22962</v>
       </c>
-      <c r="E81" s="7">
+      <c r="F84" s="7">
         <v>59046</v>
       </c>
-      <c r="F81" s="7">
+      <c r="G84" s="7">
         <v>878966</v>
       </c>
-      <c r="G81" s="7">
+      <c r="H84" s="7">
         <v>699650</v>
       </c>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7">
+      <c r="I84" s="7"/>
+      <c r="J84" s="7">
         <v>934030</v>
       </c>
-      <c r="J81" s="7">
+      <c r="K84" s="7">
         <v>39995</v>
       </c>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7">
+      <c r="L84" s="7"/>
+      <c r="M84" s="7">
         <v>44679</v>
       </c>
-      <c r="M81" s="7">
+      <c r="N84" s="7">
         <v>569891</v>
       </c>
-      <c r="N81" s="7">
+      <c r="O84" s="7">
         <v>1198874</v>
       </c>
     </row>
-    <row r="82" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="12">
-        <v>43101</v>
-      </c>
-      <c r="C82" s="13">
-        <f t="shared" si="2"/>
+    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="26">
+        <v>2018</v>
+      </c>
+      <c r="C85" s="26">
+        <v>1</v>
+      </c>
+      <c r="D85" s="8">
+        <f t="shared" si="3"/>
         <v>5082659</v>
       </c>
-      <c r="D82" s="4">
+      <c r="E85" s="4">
         <v>24734</v>
       </c>
-      <c r="E82" s="4">
+      <c r="F85" s="4">
         <v>60981</v>
       </c>
-      <c r="F82" s="4">
+      <c r="G85" s="4">
         <v>1021784</v>
       </c>
-      <c r="G82" s="4">
+      <c r="H85" s="4">
         <v>777479</v>
       </c>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4">
+      <c r="I85" s="4"/>
+      <c r="J85" s="4">
         <v>1078923</v>
       </c>
-      <c r="J82" s="4">
+      <c r="K85" s="4">
         <v>55290</v>
       </c>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4">
+      <c r="L85" s="4"/>
+      <c r="M85" s="4">
         <v>47772</v>
       </c>
-      <c r="M82" s="4">
+      <c r="N85" s="4">
         <v>664529</v>
       </c>
-      <c r="N82" s="4">
+      <c r="O85" s="4">
         <v>1351167</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B83" s="27" t="s">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B86" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="16"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B87" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="17"/>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B88" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="17"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B89" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="17"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B90" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B84" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="N84" s="3" t="s">
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B85" s="28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B86" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B87" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="C91" s="27"/>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="C95" s="27"/>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="D94" s="16"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D98" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D4:N4"/>
+    <mergeCell ref="E4:O4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Pasajeros_por_aerolinea_nac.xlsx
+++ b/Pasajeros_por_aerolinea_nac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732D2FF5-2713-4265-8A14-C07D6DBE4CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AACD10A-6A06-4529-8DD5-512124C0C375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -102,6 +102,42 @@
   </si>
   <si>
     <t>Atualización: agosto 2024.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
   </si>
 </sst>
 </file>
@@ -331,12 +367,6 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -361,16 +391,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -431,11 +463,8 @@
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -445,6 +474,13 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -500,7 +536,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O85" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O85" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="B5:O85" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
@@ -510,22 +546,22 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{BA0C0B85-5366-4A43-92B4-3E3742FD994D}" name="Mes" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{86077915-C170-40DA-9DB4-19E81910B485}" name="Total" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{BA0C0B85-5366-4A43-92B4-3E3742FD994D}" name="Mes" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{86077915-C170-40DA-9DB4-19E81910B485}" name="Total" dataDxfId="0">
       <calculatedColumnFormula>SUM(E6:O6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Aéreo Calafia" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Aeromar" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aeroméxico (Aerovías de México)" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{A869730C-1719-4A70-8838-10376967FD05}" name="Aeroméxico Connect (Aerolitoral)" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{523CBB34-1DEE-445B-8474-FD8E64117197}" name="Aerus" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{631795EF-E72C-4257-9376-F3F950D2CD24}" name="Interjet (ABC Aerolíneas)" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{7825E645-762A-41A2-B4FE-F68035B408F7}" name="Magnicharters (Grupo Aéreo Monterrey)" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{ABE62262-6A70-4763-8581-1FC262023BDA}" name="Mexicana (Aerolínea del Estado Mexicano)" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{79063C30-2596-43D4-82AD-DC7007BA3E47}" name="Transportes Aéreos Regionales (TAR)" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{CDE1B9AF-E706-4B29-B603-3DCD26E54911}" name="Vivaaerobus (Aeroenlaces)" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{50F53BD2-7347-4FA4-8F64-203C18A4DA6A}" name="Volaris (Concesionaria Vuela Cia de Aviación)" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Aéreo Calafia" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Aeromar" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aeroméxico (Aerovías de México)" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{A869730C-1719-4A70-8838-10376967FD05}" name="Aeroméxico Connect (Aerolitoral)" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{523CBB34-1DEE-445B-8474-FD8E64117197}" name="Aerus" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{631795EF-E72C-4257-9376-F3F950D2CD24}" name="Interjet (ABC Aerolíneas)" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{7825E645-762A-41A2-B4FE-F68035B408F7}" name="Magnicharters (Grupo Aéreo Monterrey)" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{ABE62262-6A70-4763-8581-1FC262023BDA}" name="Mexicana (Aerolínea del Estado Mexicano)" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{79063C30-2596-43D4-82AD-DC7007BA3E47}" name="Transportes Aéreos Regionales (TAR)" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{CDE1B9AF-E706-4B29-B603-3DCD26E54911}" name="Vivaaerobus (Aeroenlaces)" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{50F53BD2-7347-4FA4-8F64-203C18A4DA6A}" name="Volaris (Concesionaria Vuela Cia de Aviación)" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -795,19 +831,19 @@
       <c r="B4" s="14"/>
       <c r="C4" s="19"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
     </row>
     <row r="5" spans="2:15" ht="54" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
@@ -854,14 +890,14 @@
       </c>
     </row>
     <row r="6" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="23">
+      <c r="B6" s="21">
         <v>2024</v>
       </c>
-      <c r="C6" s="24">
-        <v>8</v>
+      <c r="C6" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" ref="D6:D40" si="0">SUM(E6:O6)</f>
+        <f>SUM(E6:O6)</f>
         <v>7122666</v>
       </c>
       <c r="E6" s="7"/>
@@ -893,14 +929,14 @@
       </c>
     </row>
     <row r="7" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="25">
+      <c r="B7" s="23">
         <v>2024</v>
       </c>
-      <c r="C7" s="26">
-        <v>7</v>
+      <c r="C7" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" ref="D7:D9" si="1">SUM(E7:O7)</f>
+        <f t="shared" ref="D7:D9" si="0">SUM(E7:O7)</f>
         <v>7366092</v>
       </c>
       <c r="E7" s="4">
@@ -934,14 +970,14 @@
       </c>
     </row>
     <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="23">
+      <c r="B8" s="21">
         <v>2024</v>
       </c>
-      <c r="C8" s="24">
-        <v>6</v>
+      <c r="C8" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6546101</v>
       </c>
       <c r="E8" s="7">
@@ -975,14 +1011,14 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="25">
+      <c r="B9" s="23">
         <v>2024</v>
       </c>
-      <c r="C9" s="26">
-        <v>5</v>
+      <c r="C9" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6589382</v>
       </c>
       <c r="E9" s="4">
@@ -1016,14 +1052,14 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="23">
+      <c r="B10" s="21">
         <v>2024</v>
       </c>
-      <c r="C10" s="24">
-        <v>4</v>
+      <c r="C10" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D10:D40" si="1">SUM(E10:O10)</f>
         <v>6256107</v>
       </c>
       <c r="E10" s="7">
@@ -1057,14 +1093,14 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="25">
+      <c r="B11" s="23">
         <v>2024</v>
       </c>
-      <c r="C11" s="26">
-        <v>3</v>
+      <c r="C11" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="D11" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6265547</v>
       </c>
       <c r="E11" s="4">
@@ -1098,14 +1134,14 @@
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="23">
+      <c r="B12" s="21">
         <v>2024</v>
       </c>
-      <c r="C12" s="24">
-        <v>2</v>
+      <c r="C12" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5607014</v>
       </c>
       <c r="E12" s="7">
@@ -1139,14 +1175,14 @@
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="27">
+      <c r="B13" s="25">
         <v>2024</v>
       </c>
-      <c r="C13" s="28">
-        <v>1</v>
+      <c r="C13" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6274620</v>
       </c>
       <c r="E13" s="6">
@@ -1180,14 +1216,14 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="29">
+      <c r="B14" s="27">
         <v>2023</v>
       </c>
-      <c r="C14" s="30">
-        <v>12</v>
+      <c r="C14" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="D14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6943699</v>
       </c>
       <c r="E14" s="12">
@@ -1221,14 +1257,14 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="25">
+      <c r="B15" s="23">
         <v>2023</v>
       </c>
-      <c r="C15" s="26">
-        <v>11</v>
+      <c r="C15" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="D15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6524452</v>
       </c>
       <c r="E15" s="4">
@@ -1260,14 +1296,14 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="23">
+      <c r="B16" s="21">
         <v>2023</v>
       </c>
-      <c r="C16" s="24">
-        <v>10</v>
+      <c r="C16" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6666523</v>
       </c>
       <c r="E16" s="7">
@@ -1299,14 +1335,14 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B17" s="25">
+      <c r="B17" s="23">
         <v>2023</v>
       </c>
-      <c r="C17" s="26">
-        <v>9</v>
+      <c r="C17" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6234323</v>
       </c>
       <c r="E17" s="4">
@@ -1338,14 +1374,14 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B18" s="23">
+      <c r="B18" s="21">
         <v>2023</v>
       </c>
-      <c r="C18" s="24">
-        <v>8</v>
+      <c r="C18" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="D18" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7366586</v>
       </c>
       <c r="E18" s="7">
@@ -1377,14 +1413,14 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B19" s="25">
+      <c r="B19" s="23">
         <v>2023</v>
       </c>
-      <c r="C19" s="26">
-        <v>7</v>
+      <c r="C19" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7470779</v>
       </c>
       <c r="E19" s="4">
@@ -1416,14 +1452,14 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B20" s="23">
+      <c r="B20" s="21">
         <v>2023</v>
       </c>
-      <c r="C20" s="24">
-        <v>6</v>
+      <c r="C20" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="D20" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6481356</v>
       </c>
       <c r="E20" s="7">
@@ -1455,14 +1491,14 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B21" s="25">
+      <c r="B21" s="23">
         <v>2023</v>
       </c>
-      <c r="C21" s="26">
-        <v>5</v>
+      <c r="C21" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="D21" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6466836</v>
       </c>
       <c r="E21" s="4">
@@ -1494,14 +1530,14 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B22" s="23">
+      <c r="B22" s="21">
         <v>2023</v>
       </c>
-      <c r="C22" s="24">
-        <v>4</v>
+      <c r="C22" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6505979</v>
       </c>
       <c r="E22" s="7">
@@ -1533,14 +1569,14 @@
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B23" s="25">
+      <c r="B23" s="23">
         <v>2023</v>
       </c>
-      <c r="C23" s="26">
-        <v>3</v>
+      <c r="C23" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6389909</v>
       </c>
       <c r="E23" s="4">
@@ -1570,14 +1606,14 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B24" s="23">
+      <c r="B24" s="21">
         <v>2023</v>
       </c>
-      <c r="C24" s="24">
-        <v>2</v>
+      <c r="C24" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5478771</v>
       </c>
       <c r="E24" s="7">
@@ -1609,14 +1645,14 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B25" s="27">
+      <c r="B25" s="25">
         <v>2023</v>
       </c>
-      <c r="C25" s="28">
-        <v>1</v>
+      <c r="C25" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="D25" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6248337</v>
       </c>
       <c r="E25" s="6">
@@ -1648,14 +1684,14 @@
       </c>
     </row>
     <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="29">
+      <c r="B26" s="27">
         <v>2022</v>
       </c>
-      <c r="C26" s="30">
-        <v>12</v>
+      <c r="C26" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="D26" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6735243</v>
       </c>
       <c r="E26" s="12">
@@ -1687,14 +1723,14 @@
       </c>
     </row>
     <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="25">
+      <c r="B27" s="23">
         <v>2022</v>
       </c>
-      <c r="C27" s="26">
-        <v>11</v>
+      <c r="C27" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6388091</v>
       </c>
       <c r="E27" s="4">
@@ -1726,14 +1762,14 @@
       </c>
     </row>
     <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="23">
+      <c r="B28" s="21">
         <v>2022</v>
       </c>
-      <c r="C28" s="24">
-        <v>10</v>
+      <c r="C28" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="D28" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6296390</v>
       </c>
       <c r="E28" s="7">
@@ -1765,14 +1801,14 @@
       </c>
     </row>
     <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="25">
+      <c r="B29" s="23">
         <v>2022</v>
       </c>
-      <c r="C29" s="26">
-        <v>9</v>
+      <c r="C29" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="D29" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5717570</v>
       </c>
       <c r="E29" s="4">
@@ -1804,14 +1840,14 @@
       </c>
     </row>
     <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="23">
+      <c r="B30" s="21">
         <v>2022</v>
       </c>
-      <c r="C30" s="24">
-        <v>8</v>
+      <c r="C30" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6395624</v>
       </c>
       <c r="E30" s="7">
@@ -1843,14 +1879,14 @@
       </c>
     </row>
     <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="25">
+      <c r="B31" s="23">
         <v>2022</v>
       </c>
-      <c r="C31" s="26">
-        <v>7</v>
+      <c r="C31" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="D31" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6606709</v>
       </c>
       <c r="E31" s="4">
@@ -1882,14 +1918,14 @@
       </c>
     </row>
     <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="23">
+      <c r="B32" s="21">
         <v>2022</v>
       </c>
-      <c r="C32" s="24">
-        <v>6</v>
+      <c r="C32" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5816384</v>
       </c>
       <c r="E32" s="7">
@@ -1921,14 +1957,14 @@
       </c>
     </row>
     <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="25">
+      <c r="B33" s="23">
         <v>2022</v>
       </c>
-      <c r="C33" s="26">
-        <v>5</v>
+      <c r="C33" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="D33" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5938227</v>
       </c>
       <c r="E33" s="4">
@@ -1960,14 +1996,14 @@
       </c>
     </row>
     <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="23">
+      <c r="B34" s="21">
         <v>2022</v>
       </c>
-      <c r="C34" s="24">
-        <v>4</v>
+      <c r="C34" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5762121</v>
       </c>
       <c r="E34" s="7">
@@ -1999,14 +2035,14 @@
       </c>
     </row>
     <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="25">
+      <c r="B35" s="23">
         <v>2022</v>
       </c>
-      <c r="C35" s="26">
-        <v>3</v>
+      <c r="C35" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="D35" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5450271</v>
       </c>
       <c r="E35" s="4">
@@ -2038,14 +2074,14 @@
       </c>
     </row>
     <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="23">
+      <c r="B36" s="21">
         <v>2022</v>
       </c>
-      <c r="C36" s="24">
-        <v>2</v>
+      <c r="C36" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="D36" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4335053</v>
       </c>
       <c r="E36" s="7">
@@ -2077,14 +2113,14 @@
       </c>
     </row>
     <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="27">
+      <c r="B37" s="25">
         <v>2022</v>
       </c>
-      <c r="C37" s="28">
-        <v>1</v>
+      <c r="C37" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="D37" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4754587</v>
       </c>
       <c r="E37" s="6">
@@ -2116,14 +2152,14 @@
       </c>
     </row>
     <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="29">
+      <c r="B38" s="27">
         <v>2021</v>
       </c>
-      <c r="C38" s="30">
-        <v>12</v>
+      <c r="C38" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="D38" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5788606</v>
       </c>
       <c r="E38" s="12">
@@ -2155,14 +2191,14 @@
       </c>
     </row>
     <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="25">
+      <c r="B39" s="23">
         <v>2021</v>
       </c>
-      <c r="C39" s="26">
-        <v>11</v>
+      <c r="C39" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="D39" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5289729</v>
       </c>
       <c r="E39" s="4">
@@ -2194,14 +2230,14 @@
       </c>
     </row>
     <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="23">
+      <c r="B40" s="21">
         <v>2021</v>
       </c>
-      <c r="C40" s="24">
-        <v>10</v>
+      <c r="C40" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="D40" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5118685</v>
       </c>
       <c r="E40" s="7">
@@ -2233,11 +2269,11 @@
       </c>
     </row>
     <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="25">
+      <c r="B41" s="23">
         <v>2021</v>
       </c>
-      <c r="C41" s="26">
-        <v>9</v>
+      <c r="C41" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="D41" s="8">
         <f t="shared" ref="D41:D72" si="2">SUM(E41:O41)</f>
@@ -2272,11 +2308,11 @@
       </c>
     </row>
     <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="23">
+      <c r="B42" s="21">
         <v>2021</v>
       </c>
-      <c r="C42" s="24">
-        <v>8</v>
+      <c r="C42" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" si="2"/>
@@ -2311,11 +2347,11 @@
       </c>
     </row>
     <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="25">
+      <c r="B43" s="23">
         <v>2021</v>
       </c>
-      <c r="C43" s="26">
-        <v>7</v>
+      <c r="C43" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="D43" s="8">
         <f t="shared" si="2"/>
@@ -2350,11 +2386,11 @@
       </c>
     </row>
     <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="23">
+      <c r="B44" s="21">
         <v>2021</v>
       </c>
-      <c r="C44" s="24">
-        <v>6</v>
+      <c r="C44" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" si="2"/>
@@ -2389,11 +2425,11 @@
       </c>
     </row>
     <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="25">
+      <c r="B45" s="23">
         <v>2021</v>
       </c>
-      <c r="C45" s="26">
-        <v>5</v>
+      <c r="C45" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="D45" s="8">
         <f t="shared" si="2"/>
@@ -2428,11 +2464,11 @@
       </c>
     </row>
     <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="23">
+      <c r="B46" s="21">
         <v>2021</v>
       </c>
-      <c r="C46" s="24">
-        <v>4</v>
+      <c r="C46" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="D46" s="9">
         <f t="shared" si="2"/>
@@ -2467,11 +2503,11 @@
       </c>
     </row>
     <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="25">
+      <c r="B47" s="23">
         <v>2021</v>
       </c>
-      <c r="C47" s="26">
-        <v>3</v>
+      <c r="C47" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="D47" s="8">
         <f t="shared" si="2"/>
@@ -2506,11 +2542,11 @@
       </c>
     </row>
     <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="23">
+      <c r="B48" s="21">
         <v>2021</v>
       </c>
-      <c r="C48" s="24">
-        <v>2</v>
+      <c r="C48" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="D48" s="9">
         <f t="shared" si="2"/>
@@ -2545,11 +2581,11 @@
       </c>
     </row>
     <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="27">
+      <c r="B49" s="25">
         <v>2021</v>
       </c>
-      <c r="C49" s="28">
-        <v>1</v>
+      <c r="C49" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="D49" s="10">
         <f t="shared" si="2"/>
@@ -2584,11 +2620,11 @@
       </c>
     </row>
     <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="29">
+      <c r="B50" s="27">
         <v>2020</v>
       </c>
-      <c r="C50" s="30">
-        <v>12</v>
+      <c r="C50" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="D50" s="11">
         <f t="shared" si="2"/>
@@ -2625,11 +2661,11 @@
       </c>
     </row>
     <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="25">
+      <c r="B51" s="23">
         <v>2020</v>
       </c>
-      <c r="C51" s="26">
-        <v>11</v>
+      <c r="C51" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="D51" s="8">
         <f t="shared" si="2"/>
@@ -2666,11 +2702,11 @@
       </c>
     </row>
     <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="23">
+      <c r="B52" s="21">
         <v>2020</v>
       </c>
-      <c r="C52" s="24">
-        <v>10</v>
+      <c r="C52" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="D52" s="9">
         <f t="shared" si="2"/>
@@ -2707,11 +2743,11 @@
       </c>
     </row>
     <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="25">
+      <c r="B53" s="23">
         <v>2020</v>
       </c>
-      <c r="C53" s="26">
-        <v>9</v>
+      <c r="C53" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="D53" s="8">
         <f t="shared" si="2"/>
@@ -2748,11 +2784,11 @@
       </c>
     </row>
     <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="23">
+      <c r="B54" s="21">
         <v>2020</v>
       </c>
-      <c r="C54" s="24">
-        <v>8</v>
+      <c r="C54" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="D54" s="9">
         <f t="shared" si="2"/>
@@ -2789,11 +2825,11 @@
       </c>
     </row>
     <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="25">
+      <c r="B55" s="23">
         <v>2020</v>
       </c>
-      <c r="C55" s="26">
-        <v>7</v>
+      <c r="C55" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="D55" s="8">
         <f t="shared" si="2"/>
@@ -2830,11 +2866,11 @@
       </c>
     </row>
     <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="23">
+      <c r="B56" s="21">
         <v>2020</v>
       </c>
-      <c r="C56" s="24">
-        <v>6</v>
+      <c r="C56" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="D56" s="9">
         <f t="shared" si="2"/>
@@ -2871,11 +2907,11 @@
       </c>
     </row>
     <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="25">
+      <c r="B57" s="23">
         <v>2020</v>
       </c>
-      <c r="C57" s="26">
-        <v>5</v>
+      <c r="C57" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="D57" s="8">
         <f t="shared" si="2"/>
@@ -2912,11 +2948,11 @@
       </c>
     </row>
     <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="23">
+      <c r="B58" s="21">
         <v>2020</v>
       </c>
-      <c r="C58" s="24">
-        <v>4</v>
+      <c r="C58" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="D58" s="9">
         <f t="shared" si="2"/>
@@ -2953,11 +2989,11 @@
       </c>
     </row>
     <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="25">
+      <c r="B59" s="23">
         <v>2020</v>
       </c>
-      <c r="C59" s="26">
-        <v>3</v>
+      <c r="C59" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="D59" s="8">
         <f t="shared" si="2"/>
@@ -2994,11 +3030,11 @@
       </c>
     </row>
     <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="23">
+      <c r="B60" s="21">
         <v>2020</v>
       </c>
-      <c r="C60" s="24">
-        <v>2</v>
+      <c r="C60" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="D60" s="9">
         <f t="shared" si="2"/>
@@ -3035,11 +3071,11 @@
       </c>
     </row>
     <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="27">
+      <c r="B61" s="25">
         <v>2020</v>
       </c>
-      <c r="C61" s="28">
-        <v>1</v>
+      <c r="C61" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="D61" s="10">
         <f t="shared" si="2"/>
@@ -3076,11 +3112,11 @@
       </c>
     </row>
     <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="29">
+      <c r="B62" s="27">
         <v>2019</v>
       </c>
-      <c r="C62" s="30">
-        <v>12</v>
+      <c r="C62" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="D62" s="11">
         <f t="shared" si="2"/>
@@ -3117,11 +3153,11 @@
       </c>
     </row>
     <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="25">
+      <c r="B63" s="23">
         <v>2019</v>
       </c>
-      <c r="C63" s="26">
-        <v>11</v>
+      <c r="C63" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="D63" s="8">
         <f t="shared" si="2"/>
@@ -3158,11 +3194,11 @@
       </c>
     </row>
     <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="23">
+      <c r="B64" s="21">
         <v>2019</v>
       </c>
-      <c r="C64" s="24">
-        <v>10</v>
+      <c r="C64" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="D64" s="9">
         <f t="shared" si="2"/>
@@ -3199,11 +3235,11 @@
       </c>
     </row>
     <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="25">
+      <c r="B65" s="23">
         <v>2019</v>
       </c>
-      <c r="C65" s="26">
-        <v>9</v>
+      <c r="C65" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="D65" s="8">
         <f t="shared" si="2"/>
@@ -3240,11 +3276,11 @@
       </c>
     </row>
     <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="23">
+      <c r="B66" s="21">
         <v>2019</v>
       </c>
-      <c r="C66" s="24">
-        <v>8</v>
+      <c r="C66" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="D66" s="9">
         <f t="shared" si="2"/>
@@ -3281,11 +3317,11 @@
       </c>
     </row>
     <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="25">
+      <c r="B67" s="23">
         <v>2019</v>
       </c>
-      <c r="C67" s="26">
-        <v>7</v>
+      <c r="C67" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="D67" s="8">
         <f t="shared" si="2"/>
@@ -3322,11 +3358,11 @@
       </c>
     </row>
     <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="23">
+      <c r="B68" s="21">
         <v>2019</v>
       </c>
-      <c r="C68" s="24">
-        <v>6</v>
+      <c r="C68" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="D68" s="9">
         <f t="shared" si="2"/>
@@ -3363,11 +3399,11 @@
       </c>
     </row>
     <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="25">
+      <c r="B69" s="23">
         <v>2019</v>
       </c>
-      <c r="C69" s="26">
-        <v>5</v>
+      <c r="C69" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="D69" s="8">
         <f t="shared" si="2"/>
@@ -3404,11 +3440,11 @@
       </c>
     </row>
     <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="23">
+      <c r="B70" s="21">
         <v>2019</v>
       </c>
-      <c r="C70" s="24">
-        <v>4</v>
+      <c r="C70" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="D70" s="9">
         <f t="shared" si="2"/>
@@ -3445,11 +3481,11 @@
       </c>
     </row>
     <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="25">
+      <c r="B71" s="23">
         <v>2019</v>
       </c>
-      <c r="C71" s="26">
-        <v>3</v>
+      <c r="C71" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="D71" s="8">
         <f t="shared" si="2"/>
@@ -3486,11 +3522,11 @@
       </c>
     </row>
     <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="23">
+      <c r="B72" s="21">
         <v>2019</v>
       </c>
-      <c r="C72" s="24">
-        <v>2</v>
+      <c r="C72" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="D72" s="9">
         <f t="shared" si="2"/>
@@ -3527,11 +3563,11 @@
       </c>
     </row>
     <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="27">
+      <c r="B73" s="25">
         <v>2019</v>
       </c>
-      <c r="C73" s="28">
-        <v>1</v>
+      <c r="C73" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="D73" s="10">
         <f t="shared" ref="D73:D85" si="3">SUM(E73:O73)</f>
@@ -3568,11 +3604,11 @@
       </c>
     </row>
     <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="24">
+      <c r="B74" s="22">
         <v>2018</v>
       </c>
-      <c r="C74" s="24">
-        <v>12</v>
+      <c r="C74" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="D74" s="9">
         <f t="shared" si="3"/>
@@ -3609,11 +3645,11 @@
       </c>
     </row>
     <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="26">
+      <c r="B75" s="24">
         <v>2018</v>
       </c>
-      <c r="C75" s="26">
-        <v>11</v>
+      <c r="C75" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="D75" s="8">
         <f t="shared" si="3"/>
@@ -3650,11 +3686,11 @@
       </c>
     </row>
     <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="24">
+      <c r="B76" s="22">
         <v>2018</v>
       </c>
-      <c r="C76" s="24">
-        <v>10</v>
+      <c r="C76" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="D76" s="9">
         <f t="shared" si="3"/>
@@ -3691,11 +3727,11 @@
       </c>
     </row>
     <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="26">
+      <c r="B77" s="24">
         <v>2018</v>
       </c>
-      <c r="C77" s="26">
-        <v>9</v>
+      <c r="C77" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="D77" s="8">
         <f t="shared" si="3"/>
@@ -3732,11 +3768,11 @@
       </c>
     </row>
     <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="24">
+      <c r="B78" s="22">
         <v>2018</v>
       </c>
-      <c r="C78" s="24">
-        <v>8</v>
+      <c r="C78" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="D78" s="9">
         <f t="shared" si="3"/>
@@ -3773,11 +3809,11 @@
       </c>
     </row>
     <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="26">
+      <c r="B79" s="24">
         <v>2018</v>
       </c>
-      <c r="C79" s="26">
-        <v>7</v>
+      <c r="C79" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="D79" s="8">
         <f t="shared" si="3"/>
@@ -3814,11 +3850,11 @@
       </c>
     </row>
     <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="24">
+      <c r="B80" s="22">
         <v>2018</v>
       </c>
-      <c r="C80" s="24">
-        <v>6</v>
+      <c r="C80" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="D80" s="9">
         <f t="shared" si="3"/>
@@ -3855,11 +3891,11 @@
       </c>
     </row>
     <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="26">
+      <c r="B81" s="24">
         <v>2018</v>
       </c>
-      <c r="C81" s="26">
-        <v>5</v>
+      <c r="C81" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="D81" s="8">
         <f t="shared" si="3"/>
@@ -3896,11 +3932,11 @@
       </c>
     </row>
     <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="24">
+      <c r="B82" s="22">
         <v>2018</v>
       </c>
-      <c r="C82" s="24">
-        <v>4</v>
+      <c r="C82" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="D82" s="9">
         <f t="shared" si="3"/>
@@ -3937,11 +3973,11 @@
       </c>
     </row>
     <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="26">
+      <c r="B83" s="24">
         <v>2018</v>
       </c>
-      <c r="C83" s="26">
-        <v>3</v>
+      <c r="C83" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="D83" s="8">
         <f t="shared" si="3"/>
@@ -3978,11 +4014,11 @@
       </c>
     </row>
     <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="24">
+      <c r="B84" s="22">
         <v>2018</v>
       </c>
-      <c r="C84" s="24">
-        <v>2</v>
+      <c r="C84" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="D84" s="9">
         <f t="shared" si="3"/>
@@ -4019,11 +4055,11 @@
       </c>
     </row>
     <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="26">
+      <c r="B85" s="24">
         <v>2018</v>
       </c>
-      <c r="C85" s="26">
-        <v>1</v>
+      <c r="C85" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="D85" s="8">
         <f t="shared" si="3"/>

--- a/Pasajeros_por_aerolinea_nac.xlsx
+++ b/Pasajeros_por_aerolinea_nac.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AACD10A-6A06-4529-8DD5-512124C0C375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D45493-BE2D-4DF9-839D-16D3B4BFC7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -65,19 +65,7 @@
     <t>Volaris (Concesionaria Vuela Cia de Aviación)</t>
   </si>
   <si>
-    <t>Aerolineas</t>
-  </si>
-  <si>
     <t>Nota: Interjet suspendió operaciones a partir del 11 de diciembre de 2020.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  La linea aérea Mexicana comenzó operaciones el 26 de diciembre de 2023.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  La linea aérea Aeromar suspendió operaciones a partir del 16 de febrero de 2023.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  La linea aérea Aerus inició operaciones el 27 de abril de 2023.</t>
   </si>
   <si>
     <t>Aerus</t>
@@ -99,9 +87,6 @@
   </si>
   <si>
     <t>Año</t>
-  </si>
-  <si>
-    <t>Atualización: agosto 2024.</t>
   </si>
   <si>
     <t>Ene.</t>
@@ -139,6 +124,21 @@
   <si>
     <t>Dic.</t>
   </si>
+  <si>
+    <t xml:space="preserve">  La línea aérea Mexicana comenzó operaciones el 26 de diciembre de 2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  La línea aérea Aeromar suspendió operaciones a partir del 16 de febrero de 2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  La línea aérea Aerus inició operaciones el 27 de abril de 2023.</t>
+  </si>
+  <si>
+    <t>Aerolíneas</t>
+  </si>
+  <si>
+    <t>Actualización: septiembre 2024.</t>
+  </si>
 </sst>
 </file>
 
@@ -147,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +193,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Montserrat Medium"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Montserrat Medium"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -321,7 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -397,23 +405,21 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
@@ -461,6 +467,17 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -536,8 +553,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O85" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="B5:O85" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O87" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
+  <autoFilter ref="B5:O87" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -547,21 +564,21 @@
   </autoFilter>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{BA0C0B85-5366-4A43-92B4-3E3742FD994D}" name="Mes" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{86077915-C170-40DA-9DB4-19E81910B485}" name="Total" dataDxfId="0">
+    <tableColumn id="14" xr3:uid="{BA0C0B85-5366-4A43-92B4-3E3742FD994D}" name="Mes" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{86077915-C170-40DA-9DB4-19E81910B485}" name="Total" dataDxfId="11">
       <calculatedColumnFormula>SUM(E6:O6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Aéreo Calafia" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Aeromar" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aeroméxico (Aerovías de México)" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{A869730C-1719-4A70-8838-10376967FD05}" name="Aeroméxico Connect (Aerolitoral)" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{523CBB34-1DEE-445B-8474-FD8E64117197}" name="Aerus" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{631795EF-E72C-4257-9376-F3F950D2CD24}" name="Interjet (ABC Aerolíneas)" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{7825E645-762A-41A2-B4FE-F68035B408F7}" name="Magnicharters (Grupo Aéreo Monterrey)" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{ABE62262-6A70-4763-8581-1FC262023BDA}" name="Mexicana (Aerolínea del Estado Mexicano)" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{79063C30-2596-43D4-82AD-DC7007BA3E47}" name="Transportes Aéreos Regionales (TAR)" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{CDE1B9AF-E706-4B29-B603-3DCD26E54911}" name="Vivaaerobus (Aeroenlaces)" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{50F53BD2-7347-4FA4-8F64-203C18A4DA6A}" name="Volaris (Concesionaria Vuela Cia de Aviación)" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Aéreo Calafia" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Aeromar" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aeroméxico (Aerovías de México)" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{A869730C-1719-4A70-8838-10376967FD05}" name="Aeroméxico Connect (Aerolitoral)" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{523CBB34-1DEE-445B-8474-FD8E64117197}" name="Aerus" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{631795EF-E72C-4257-9376-F3F950D2CD24}" name="Interjet (ABC Aerolíneas)" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{7825E645-762A-41A2-B4FE-F68035B408F7}" name="Magnicharters (Grupo Aéreo Monterrey)" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{ABE62262-6A70-4763-8581-1FC262023BDA}" name="Mexicana (Aerolínea del Estado Mexicano)" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{79063C30-2596-43D4-82AD-DC7007BA3E47}" name="Transportes Aéreos Regionales (TAR)" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{CDE1B9AF-E706-4B29-B603-3DCD26E54911}" name="Vivaaerobus (Aeroenlaces)" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{50F53BD2-7347-4FA4-8F64-203C18A4DA6A}" name="Volaris (Concesionaria Vuela Cia de Aviación)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -790,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O98"/>
+  <dimension ref="B2:O99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -817,7 +834,7 @@
   <sheetData>
     <row r="2" spans="2:15" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -832,7 +849,7 @@
       <c r="C4" s="19"/>
       <c r="D4" s="13"/>
       <c r="E4" s="29" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
@@ -847,10 +864,10 @@
     </row>
     <row r="5" spans="2:15" ht="54" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>0</v>
@@ -868,19 +885,19 @@
         <v>5</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>6</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>7</v>
@@ -889,3252 +906,3306 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="21">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B6" s="23">
         <v>2024</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C6" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="8">
         <f>SUM(E6:O6)</f>
+        <v>6241021</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>1602332</v>
+      </c>
+      <c r="H6" s="4">
+        <v>357115</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3750</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
+        <v>16595</v>
+      </c>
+      <c r="L6" s="4">
+        <v>21490</v>
+      </c>
+      <c r="M6" s="4">
+        <v>8152</v>
+      </c>
+      <c r="N6" s="4">
+        <v>2135071</v>
+      </c>
+      <c r="O6" s="4">
+        <v>2096516</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="21">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="9">
+        <f>SUM(E7:O7)</f>
         <v>7122666</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7">
         <v>1846259</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H7" s="7">
         <v>423300</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I7" s="7">
         <v>3350</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7">
+      <c r="J7" s="7"/>
+      <c r="K7" s="7">
         <v>23287</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L7" s="7">
         <v>32823</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M7" s="7">
         <v>13500</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N7" s="7">
         <v>2380847</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O7" s="7">
         <v>2399300</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="23">
+    <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="23">
         <v>2024</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="8">
-        <f t="shared" ref="D7:D9" si="0">SUM(E7:O7)</f>
+      <c r="C8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" ref="D8:D10" si="0">SUM(E8:O8)</f>
         <v>7366092</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="4">
         <v>972</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
         <v>1936260</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H8" s="4">
         <v>455999</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I8" s="4">
         <v>2952</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
         <v>25726</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L8" s="4">
         <v>35662</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M8" s="4">
         <v>12021</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N8" s="4">
         <v>2421165</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O8" s="4">
         <v>2475335</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="21">
+    <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="21">
         <v>2024</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>6546101</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="7">
         <v>744</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7">
         <v>1681153</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H9" s="7">
         <v>420652</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I9" s="7">
         <v>2495</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7">
+      <c r="J9" s="7"/>
+      <c r="K9" s="7">
         <v>23110</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L9" s="7">
         <v>21518</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M9" s="7">
         <v>10064</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N9" s="7">
         <v>2174929</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O9" s="7">
         <v>2211436</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="23">
+    <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="23">
         <v>2024</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="C10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="8">
         <f t="shared" si="0"/>
         <v>6589382</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="4">
         <v>820</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
         <v>1727003</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H10" s="4">
         <v>431546</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I10" s="4">
         <v>2633</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
         <v>13929</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L10" s="4">
         <v>22186</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M10" s="4">
         <v>11316</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N10" s="4">
         <v>2176419</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O10" s="4">
         <v>2203530</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="21">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B11" s="21">
         <v>2024</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="9">
-        <f t="shared" ref="D10:D40" si="1">SUM(E10:O10)</f>
+      <c r="C11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" ref="D11:D41" si="1">SUM(E11:O11)</f>
         <v>6256107</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E11" s="7">
         <v>1018</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7">
         <v>1647314</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H11" s="7">
         <v>437362</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I11" s="7">
         <v>2451</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7">
+      <c r="J11" s="7"/>
+      <c r="K11" s="7">
         <v>17123</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L11" s="7">
         <v>21899</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M11" s="7">
         <v>13736</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N11" s="7">
         <v>2025760</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O11" s="7">
         <v>2089444</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="23">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B12" s="23">
         <v>2024</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="C12" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="8">
         <f t="shared" si="1"/>
         <v>6265547</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="4">
         <v>985</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
         <v>1663451</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H12" s="4">
         <v>414407</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I12" s="4">
         <v>2426</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4">
         <v>16310</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L12" s="4">
         <v>24140</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M12" s="4">
         <v>11984</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N12" s="4">
         <v>2037641</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O12" s="4">
         <v>2094203</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="21">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B13" s="21">
         <v>2024</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="C13" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="9">
         <f t="shared" si="1"/>
         <v>5607014</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E13" s="7">
         <v>703</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7">
         <v>1479121</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H13" s="7">
         <v>395860</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I13" s="7">
         <v>2323</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7">
+      <c r="J13" s="7"/>
+      <c r="K13" s="7">
         <v>11161</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L13" s="7">
         <v>17287</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M13" s="7">
         <v>11768</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N13" s="7">
         <v>1772299</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O13" s="7">
         <v>1916492</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B14" s="25">
         <v>2024</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="C14" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="10">
         <f t="shared" si="1"/>
         <v>6274620</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="6">
         <v>1102</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6">
         <v>1481216</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H14" s="6">
         <v>490118</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I14" s="6">
         <v>2332</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6">
+      <c r="J14" s="6"/>
+      <c r="K14" s="6">
         <v>14046</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L14" s="6">
         <v>12504</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M14" s="6">
         <v>12424</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N14" s="6">
         <v>2028846</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O14" s="6">
         <v>2232032</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="27">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B15" s="27">
         <v>2023</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="C15" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="11">
         <f t="shared" si="1"/>
         <v>6943699</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E15" s="12">
         <v>1263</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12">
         <v>1661066</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H15" s="12">
         <v>520344</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I15" s="12">
         <v>2164</v>
       </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12">
+      <c r="J15" s="12"/>
+      <c r="K15" s="12">
         <v>23295</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L15" s="12">
         <v>1620</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M15" s="12">
         <v>19717</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N15" s="12">
         <v>2180392</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O15" s="12">
         <v>2533838</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="23">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B16" s="23">
         <v>2023</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="C16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="8">
         <f t="shared" si="1"/>
         <v>6524452</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="4">
         <v>817</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
         <v>1518614</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H16" s="4">
         <v>487651</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="4">
         <v>1815</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4">
         <v>23109</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4">
+      <c r="L16" s="4"/>
+      <c r="M16" s="4">
         <v>18006</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N16" s="4">
         <v>2055956</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O16" s="4">
         <v>2418484</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="21">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B17" s="21">
         <v>2023</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="C17" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="9">
         <f t="shared" si="1"/>
         <v>6666523</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E17" s="7">
         <v>745</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7">
         <v>1534357</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H17" s="7">
         <v>502142</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I17" s="7">
         <v>1593</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7">
+      <c r="J17" s="7"/>
+      <c r="K17" s="7">
         <v>27175</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7">
+      <c r="L17" s="7"/>
+      <c r="M17" s="7">
         <v>15799</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N17" s="7">
         <v>2142423</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O17" s="7">
         <v>2442289</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B17" s="23">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B18" s="23">
         <v>2023</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="C18" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="8">
         <f t="shared" si="1"/>
         <v>6234323</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="4">
         <v>136</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4">
         <v>1449933</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H18" s="4">
         <v>489367</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I18" s="4">
         <v>1718</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4">
         <v>20794</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4">
+      <c r="L18" s="4"/>
+      <c r="M18" s="4">
         <v>13440</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N18" s="4">
         <v>1975887</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O18" s="4">
         <v>2283048</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B18" s="21">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B19" s="21">
         <v>2023</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="9">
+      <c r="C19" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="9">
         <f t="shared" si="1"/>
         <v>7366586</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E19" s="7">
         <v>711</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7">
         <v>1790842</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H19" s="7">
         <v>509073</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I19" s="7">
         <v>1858</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7">
+      <c r="J19" s="7"/>
+      <c r="K19" s="7">
         <v>33617</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7">
+      <c r="L19" s="7"/>
+      <c r="M19" s="7">
         <v>17102</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N19" s="7">
         <v>2222143</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O19" s="7">
         <v>2791240</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B19" s="23">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B20" s="23">
         <v>2023</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="C20" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="8">
         <f t="shared" si="1"/>
         <v>7470779</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <v>7815</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4">
         <v>1877785</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H20" s="4">
         <v>489520</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I20" s="4">
         <v>1593</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4">
+      <c r="J20" s="4"/>
+      <c r="K20" s="4">
         <v>38495</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4">
+      <c r="L20" s="4"/>
+      <c r="M20" s="4">
         <v>16965</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N20" s="4">
         <v>2256958</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O20" s="4">
         <v>2781648</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B20" s="21">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B21" s="21">
         <v>2023</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="C21" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="9">
         <f t="shared" si="1"/>
         <v>6481356</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E21" s="7">
         <v>8579</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7">
         <v>1623869</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H21" s="7">
         <v>444461</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I21" s="7">
         <v>930</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7">
+      <c r="J21" s="7"/>
+      <c r="K21" s="7">
         <v>26027</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7">
+      <c r="L21" s="7"/>
+      <c r="M21" s="7">
         <v>16972</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N21" s="7">
         <v>1939577</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O21" s="7">
         <v>2420941</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B21" s="23">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B22" s="23">
         <v>2023</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="C22" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="8">
         <f t="shared" si="1"/>
         <v>6466836</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="4">
         <v>10045</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4">
         <v>1475419</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H22" s="4">
         <v>493646</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I22" s="4">
         <v>866</v>
       </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4">
+      <c r="J22" s="4"/>
+      <c r="K22" s="4">
         <v>22311</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4">
+      <c r="L22" s="4"/>
+      <c r="M22" s="4">
         <v>22530</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N22" s="4">
         <v>1903714</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O22" s="4">
         <v>2538305</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B22" s="21">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B23" s="21">
         <v>2023</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="9">
+      <c r="C23" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="9">
         <f t="shared" si="1"/>
         <v>6505979</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E23" s="7">
         <v>7610</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7">
+      <c r="F23" s="7"/>
+      <c r="G23" s="7">
         <v>1447508</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H23" s="7">
         <v>495864</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I23" s="7">
         <v>73</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7">
+      <c r="J23" s="7"/>
+      <c r="K23" s="7">
         <v>22224</v>
       </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7">
+      <c r="L23" s="7"/>
+      <c r="M23" s="7">
         <v>23384</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N23" s="7">
         <v>1903503</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O23" s="7">
         <v>2605813</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B23" s="23">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B24" s="23">
         <v>2023</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="C24" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="8">
         <f t="shared" si="1"/>
         <v>6389909</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="4">
         <v>4538</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4">
         <v>1502404</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H24" s="4">
         <v>516526</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4">
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4">
         <v>15589</v>
       </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4">
+      <c r="L24" s="4"/>
+      <c r="M24" s="4">
         <v>23229</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N24" s="4">
         <v>1776763</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O24" s="4">
         <v>2550860</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B24" s="21">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B25" s="21">
         <v>2023</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="9">
+      <c r="C25" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="9">
         <f t="shared" si="1"/>
         <v>5478771</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E25" s="7">
         <v>9031</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F25" s="7">
         <v>9443</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G25" s="7">
         <v>1277871</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H25" s="7">
         <v>459155</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7">
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7">
         <v>11992</v>
       </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7">
+      <c r="L25" s="7"/>
+      <c r="M25" s="7">
         <v>19704</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N25" s="7">
         <v>1431046</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O25" s="7">
         <v>2260529</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B25" s="25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B26" s="25">
         <v>2023</v>
       </c>
-      <c r="C25" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="10">
+      <c r="C26" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="10">
         <f t="shared" si="1"/>
         <v>6248337</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E26" s="6">
         <v>9895</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F26" s="6">
         <v>23595</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G26" s="6">
         <v>1439058</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H26" s="6">
         <v>503079</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6">
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6">
         <v>15438</v>
       </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6">
+      <c r="L26" s="6"/>
+      <c r="M26" s="6">
         <v>23680</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N26" s="6">
         <v>1650780</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O26" s="6">
         <v>2582812</v>
       </c>
     </row>
-    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="27">
+    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="27">
         <v>2022</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="11">
+      <c r="C27" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="11">
         <f t="shared" si="1"/>
         <v>6735243</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E27" s="12">
         <v>8855</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F27" s="12">
         <v>30082</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G27" s="12">
         <v>1541064</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H27" s="12">
         <v>545257</v>
       </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12">
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12">
         <v>31832</v>
       </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12">
+      <c r="L27" s="12"/>
+      <c r="M27" s="12">
         <v>32706</v>
       </c>
-      <c r="N26" s="12">
+      <c r="N27" s="12">
         <v>1885616</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O27" s="12">
         <v>2659831</v>
       </c>
     </row>
-    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="23">
+    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="23">
         <v>2022</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="C28" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="8">
         <f t="shared" si="1"/>
         <v>6388091</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E28" s="4">
         <v>10809</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F28" s="4">
         <v>29180</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G28" s="4">
         <v>1477832</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H28" s="4">
         <v>542019</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4">
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4">
         <v>26190</v>
       </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4">
+      <c r="L28" s="4"/>
+      <c r="M28" s="4">
         <v>25324</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N28" s="4">
         <v>1806360</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O28" s="4">
         <v>2470377</v>
       </c>
     </row>
-    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="21">
+    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="21">
         <v>2022</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="9">
+      <c r="C29" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="9">
         <f t="shared" si="1"/>
         <v>6296390</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E29" s="7">
         <v>11560</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F29" s="7">
         <v>29156</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G29" s="7">
         <v>1436769</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H29" s="7">
         <v>525145</v>
       </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7">
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7">
         <v>25003</v>
       </c>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7">
+      <c r="L29" s="7"/>
+      <c r="M29" s="7">
         <v>26165</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N29" s="7">
         <v>1730130</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O29" s="7">
         <v>2512462</v>
       </c>
     </row>
-    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="23">
+    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="23">
         <v>2022</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="C30" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="8">
         <f t="shared" si="1"/>
         <v>5717570</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E30" s="4">
         <v>8563</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F30" s="4">
         <v>27782</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G30" s="4">
         <v>1324735</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H30" s="4">
         <v>461328</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4">
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4">
         <v>24539</v>
       </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4">
+      <c r="L30" s="4"/>
+      <c r="M30" s="4">
         <v>23409</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N30" s="4">
         <v>1533686</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O30" s="4">
         <v>2313528</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="21">
+    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="21">
         <v>2022</v>
       </c>
-      <c r="C30" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="9">
+      <c r="C31" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="9">
         <f t="shared" si="1"/>
         <v>6395624</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E31" s="7">
         <v>12206</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F31" s="7">
         <v>36300</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G31" s="7">
         <v>1459848</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H31" s="7">
         <v>550210</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7">
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7">
         <v>41574</v>
       </c>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7">
+      <c r="L31" s="7"/>
+      <c r="M31" s="7">
         <v>28457</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N31" s="7">
         <v>1770150</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O31" s="7">
         <v>2496879</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="23">
+    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="23">
         <v>2022</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="8">
+      <c r="C32" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="8">
         <f t="shared" si="1"/>
         <v>6606709</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E32" s="4">
         <v>12900</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F32" s="4">
         <v>37410</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G32" s="4">
         <v>1493132</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H32" s="4">
         <v>544988</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4">
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4">
         <v>52783</v>
       </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4">
+      <c r="L32" s="4"/>
+      <c r="M32" s="4">
         <v>35829</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N32" s="4">
         <v>1832173</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O32" s="4">
         <v>2597494</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="21">
+    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="21">
         <v>2022</v>
       </c>
-      <c r="C32" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="9">
+      <c r="C33" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="9">
         <f t="shared" si="1"/>
         <v>5816384</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E33" s="7">
         <v>11528</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F33" s="7">
         <v>29894</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G33" s="7">
         <v>1448616</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H33" s="7">
         <v>482837</v>
       </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7">
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7">
         <v>38612</v>
       </c>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7">
+      <c r="L33" s="7"/>
+      <c r="M33" s="7">
         <v>31692</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N33" s="7">
         <v>1629719</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O33" s="7">
         <v>2143486</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="23">
+    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="23">
         <v>2022</v>
       </c>
-      <c r="C33" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="8">
+      <c r="C34" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="8">
         <f t="shared" si="1"/>
         <v>5938227</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E34" s="4">
         <v>14051</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F34" s="4">
         <v>34530</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G34" s="4">
         <v>1394194</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H34" s="4">
         <v>469001</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4">
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4">
         <v>36048</v>
       </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4">
+      <c r="L34" s="4"/>
+      <c r="M34" s="4">
         <v>32934</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N34" s="4">
         <v>1638787</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O34" s="4">
         <v>2318682</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="21">
+    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="21">
         <v>2022</v>
       </c>
-      <c r="C34" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="9">
+      <c r="C35" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="9">
         <f t="shared" si="1"/>
         <v>5762121</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E35" s="7">
         <v>12580</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F35" s="7">
         <v>39403</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G35" s="7">
         <v>1248745</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H35" s="7">
         <v>447104</v>
       </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7">
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7">
         <v>30427</v>
       </c>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7">
+      <c r="L35" s="7"/>
+      <c r="M35" s="7">
         <v>31976</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N35" s="7">
         <v>1571982</v>
       </c>
-      <c r="O34" s="7">
+      <c r="O35" s="7">
         <v>2379904</v>
       </c>
     </row>
-    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="23">
+    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="23">
         <v>2022</v>
       </c>
-      <c r="C35" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="8">
+      <c r="C36" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="8">
         <f t="shared" si="1"/>
         <v>5450271</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E36" s="4">
         <v>13206</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F36" s="4">
         <v>32413</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G36" s="4">
         <v>1137873</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H36" s="4">
         <v>485288</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4">
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4">
         <v>20444</v>
       </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4">
+      <c r="L36" s="4"/>
+      <c r="M36" s="4">
         <v>30333</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N36" s="4">
         <v>1443642</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O36" s="4">
         <v>2287072</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="21">
+    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="21">
         <v>2022</v>
       </c>
-      <c r="C36" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="9">
+      <c r="C37" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="9">
         <f t="shared" si="1"/>
         <v>4335053</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E37" s="7">
         <v>10775</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F37" s="7">
         <v>26979</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G37" s="7">
         <v>817221</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H37" s="7">
         <v>400280</v>
       </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7">
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7">
         <v>14632</v>
       </c>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7">
+      <c r="L37" s="7"/>
+      <c r="M37" s="7">
         <v>22836</v>
       </c>
-      <c r="N36" s="7">
+      <c r="N37" s="7">
         <v>1113977</v>
       </c>
-      <c r="O36" s="7">
+      <c r="O37" s="7">
         <v>1928353</v>
       </c>
     </row>
-    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="25">
+    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="25">
         <v>2022</v>
       </c>
-      <c r="C37" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="10">
+      <c r="C38" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="10">
         <f t="shared" si="1"/>
         <v>4754587</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E38" s="6">
         <v>10351</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F38" s="6">
         <v>35019</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G38" s="6">
         <v>851918</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H38" s="6">
         <v>400866</v>
       </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6">
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6">
         <v>19731</v>
       </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6">
+      <c r="L38" s="6"/>
+      <c r="M38" s="6">
         <v>22335</v>
       </c>
-      <c r="N37" s="6">
+      <c r="N38" s="6">
         <v>1322859</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O38" s="6">
         <v>2091508</v>
       </c>
     </row>
-    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="27">
+    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="27">
         <v>2021</v>
       </c>
-      <c r="C38" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="11">
+      <c r="C39" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="11">
         <f t="shared" si="1"/>
         <v>5788606</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E39" s="12">
         <v>12597</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F39" s="12">
         <v>48986</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G39" s="12">
         <v>1194196</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H39" s="12">
         <v>531737</v>
       </c>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12">
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12">
         <v>41564</v>
       </c>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12">
+      <c r="L39" s="12"/>
+      <c r="M39" s="12">
         <v>32426</v>
       </c>
-      <c r="N38" s="12">
+      <c r="N39" s="12">
         <v>1542449</v>
       </c>
-      <c r="O38" s="12">
+      <c r="O39" s="12">
         <v>2384651</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="23">
+    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="23">
         <v>2021</v>
       </c>
-      <c r="C39" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="8">
+      <c r="C40" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="8">
         <f t="shared" si="1"/>
         <v>5289729</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E40" s="4">
         <v>11837</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F40" s="4">
         <v>46757</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G40" s="4">
         <v>1056753</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H40" s="4">
         <v>485468</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4">
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4">
         <v>32507</v>
       </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4">
+      <c r="L40" s="4"/>
+      <c r="M40" s="4">
         <v>29832</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N40" s="4">
         <v>1406500</v>
       </c>
-      <c r="O39" s="4">
+      <c r="O40" s="4">
         <v>2220075</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="21">
+    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="21">
         <v>2021</v>
       </c>
-      <c r="C40" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="9">
+      <c r="C41" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="9">
         <f t="shared" si="1"/>
         <v>5118685</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E41" s="7">
         <v>14115</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F41" s="7">
         <v>45703</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G41" s="7">
         <v>1034177</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H41" s="7">
         <v>510398</v>
       </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7">
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7">
         <v>28313</v>
       </c>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7">
+      <c r="L41" s="7"/>
+      <c r="M41" s="7">
         <v>31649</v>
       </c>
-      <c r="N40" s="7">
+      <c r="N41" s="7">
         <v>1355918</v>
       </c>
-      <c r="O40" s="7">
+      <c r="O41" s="7">
         <v>2098412</v>
       </c>
     </row>
-    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="23">
+    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="23">
         <v>2021</v>
       </c>
-      <c r="C41" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="8">
-        <f t="shared" ref="D41:D72" si="2">SUM(E41:O41)</f>
+      <c r="C42" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="8">
+        <f t="shared" ref="D42:D73" si="2">SUM(E42:O42)</f>
         <v>4470649</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E42" s="4">
         <v>12872</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F42" s="4">
         <v>42716</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G42" s="4">
         <v>893242</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H42" s="4">
         <v>444101</v>
       </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4">
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4">
         <v>24490</v>
       </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4">
+      <c r="L42" s="4"/>
+      <c r="M42" s="4">
         <v>25901</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N42" s="4">
         <v>1153271</v>
       </c>
-      <c r="O41" s="4">
+      <c r="O42" s="4">
         <v>1874056</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="21">
+    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="21">
         <v>2021</v>
       </c>
-      <c r="C42" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="9">
+      <c r="C43" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="9">
         <f t="shared" si="2"/>
         <v>5008604</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E43" s="7">
         <v>12792</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F43" s="7">
         <v>47119</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G43" s="7">
         <v>993427</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H43" s="7">
         <v>524484</v>
       </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7">
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7">
         <v>35479</v>
       </c>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7">
+      <c r="L43" s="7"/>
+      <c r="M43" s="7">
         <v>26034</v>
       </c>
-      <c r="N42" s="7">
+      <c r="N43" s="7">
         <v>1305965</v>
       </c>
-      <c r="O42" s="7">
+      <c r="O43" s="7">
         <v>2063304</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="23">
+    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="23">
         <v>2021</v>
       </c>
-      <c r="C43" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="8">
+      <c r="C44" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="8">
         <f t="shared" si="2"/>
         <v>5456169</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E44" s="4">
         <v>15216</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F44" s="4">
         <v>53005</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G44" s="4">
         <v>1058956</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H44" s="4">
         <v>590598</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4">
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4">
         <v>64029</v>
       </c>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4">
+      <c r="L44" s="4"/>
+      <c r="M44" s="4">
         <v>30912</v>
       </c>
-      <c r="N43" s="4">
+      <c r="N44" s="4">
         <v>1503552</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O44" s="4">
         <v>2139901</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="21">
+    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="21">
         <v>2021</v>
       </c>
-      <c r="C44" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="9">
+      <c r="C45" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="9">
         <f t="shared" si="2"/>
         <v>4784013</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E45" s="7">
         <v>15389</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F45" s="7">
         <v>43733</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G45" s="7">
         <v>853708</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H45" s="7">
         <v>536816</v>
       </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7">
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7">
         <v>54554</v>
       </c>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7">
+      <c r="L45" s="7"/>
+      <c r="M45" s="7">
         <v>23167</v>
       </c>
-      <c r="N44" s="7">
+      <c r="N45" s="7">
         <v>1288126</v>
       </c>
-      <c r="O44" s="7">
+      <c r="O45" s="7">
         <v>1968520</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="23">
+    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="23">
         <v>2021</v>
       </c>
-      <c r="C45" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="8">
+      <c r="C46" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="8">
         <f t="shared" si="2"/>
         <v>4739036</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E46" s="4">
         <v>16431</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F46" s="4">
         <v>40566</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G46" s="4">
         <v>804638</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H46" s="4">
         <v>535959</v>
       </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4">
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4">
         <v>45166</v>
       </c>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4">
+      <c r="L46" s="4"/>
+      <c r="M46" s="4">
         <v>20712</v>
       </c>
-      <c r="N45" s="4">
+      <c r="N46" s="4">
         <v>1283475</v>
       </c>
-      <c r="O45" s="4">
+      <c r="O46" s="4">
         <v>1992089</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="21">
+    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="21">
         <v>2021</v>
       </c>
-      <c r="C46" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="9">
+      <c r="C47" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="9">
         <f t="shared" si="2"/>
         <v>4139956</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E47" s="7">
         <v>13432</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F47" s="7">
         <v>34786</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G47" s="7">
         <v>729359</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H47" s="7">
         <v>459115</v>
       </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7">
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7">
         <v>37963</v>
       </c>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7">
+      <c r="L47" s="7"/>
+      <c r="M47" s="7">
         <v>19899</v>
       </c>
-      <c r="N46" s="7">
+      <c r="N47" s="7">
         <v>1098291</v>
       </c>
-      <c r="O46" s="7">
+      <c r="O47" s="7">
         <v>1747111</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="23">
+    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="23">
         <v>2021</v>
       </c>
-      <c r="C47" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="8">
+      <c r="C48" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="8">
         <f t="shared" si="2"/>
         <v>3643233</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E48" s="4">
         <v>13443</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F48" s="4">
         <v>34472</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G48" s="4">
         <v>700282</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H48" s="4">
         <v>454696</v>
       </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4">
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4">
         <v>25539</v>
       </c>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4">
+      <c r="L48" s="4"/>
+      <c r="M48" s="4">
         <v>18739</v>
       </c>
-      <c r="N47" s="4">
+      <c r="N48" s="4">
         <v>1015276</v>
       </c>
-      <c r="O47" s="4">
+      <c r="O48" s="4">
         <v>1380786</v>
       </c>
     </row>
-    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="21">
+    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="21">
         <v>2021</v>
       </c>
-      <c r="C48" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="9">
+      <c r="C49" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="9">
         <f t="shared" si="2"/>
         <v>2522697</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E49" s="7">
         <v>8230</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F49" s="7">
         <v>21876</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G49" s="7">
         <v>521896</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H49" s="7">
         <v>365190</v>
       </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7">
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7">
         <v>13877</v>
       </c>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7">
+      <c r="L49" s="7"/>
+      <c r="M49" s="7">
         <v>12256</v>
       </c>
-      <c r="N48" s="7">
+      <c r="N49" s="7">
         <v>590075</v>
       </c>
-      <c r="O48" s="7">
+      <c r="O49" s="7">
         <v>989297</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="25">
+    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="25">
         <v>2021</v>
       </c>
-      <c r="C49" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="10">
+      <c r="C50" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="10">
         <f t="shared" si="2"/>
         <v>3256499</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E50" s="6">
         <v>7181</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F50" s="6">
         <v>25543</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G50" s="6">
         <v>641860</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H50" s="6">
         <v>438330</v>
       </c>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6">
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6">
         <v>19413</v>
       </c>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6">
+      <c r="L50" s="6"/>
+      <c r="M50" s="6">
         <v>13791</v>
       </c>
-      <c r="N49" s="6">
+      <c r="N50" s="6">
         <v>759842</v>
       </c>
-      <c r="O49" s="6">
+      <c r="O50" s="6">
         <v>1350539</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="27">
+    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="27">
         <v>2020</v>
       </c>
-      <c r="C50" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="11">
+      <c r="C51" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="11">
         <f t="shared" si="2"/>
         <v>3752676</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E51" s="12">
         <v>6626</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F51" s="12">
         <v>32040</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G51" s="12">
         <v>610544</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H51" s="12">
         <v>491905</v>
       </c>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12">
+      <c r="I51" s="12"/>
+      <c r="J51" s="12">
         <v>4039</v>
       </c>
-      <c r="K50" s="12">
+      <c r="K51" s="12">
         <v>45610</v>
       </c>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12">
+      <c r="L51" s="12"/>
+      <c r="M51" s="12">
         <v>17383</v>
       </c>
-      <c r="N50" s="12">
+      <c r="N51" s="12">
         <v>998369</v>
       </c>
-      <c r="O50" s="12">
+      <c r="O51" s="12">
         <v>1546160</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="23">
+    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="23">
         <v>2020</v>
       </c>
-      <c r="C51" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" s="8">
+      <c r="C52" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="8">
         <f t="shared" si="2"/>
         <v>3347186</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E52" s="4">
         <v>6583</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F52" s="4">
         <v>28629</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G52" s="4">
         <v>520221</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H52" s="4">
         <v>395967</v>
       </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4">
+      <c r="I52" s="4"/>
+      <c r="J52" s="4">
         <v>17545</v>
       </c>
-      <c r="K51" s="4">
+      <c r="K52" s="4">
         <v>37463</v>
       </c>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4">
+      <c r="L52" s="4"/>
+      <c r="M52" s="4">
         <v>14115</v>
       </c>
-      <c r="N51" s="4">
+      <c r="N52" s="4">
         <v>863224</v>
       </c>
-      <c r="O51" s="4">
+      <c r="O52" s="4">
         <v>1463439</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="21">
+    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="21">
         <v>2020</v>
       </c>
-      <c r="C52" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="9">
+      <c r="C53" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="9">
         <f t="shared" si="2"/>
         <v>3072785</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E53" s="7">
         <v>5614</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F53" s="7">
         <v>27120</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G53" s="7">
         <v>463245</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H53" s="7">
         <v>395686</v>
       </c>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7">
+      <c r="I53" s="7"/>
+      <c r="J53" s="7">
         <v>33425</v>
       </c>
-      <c r="K52" s="7">
+      <c r="K53" s="7">
         <v>29759</v>
       </c>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7">
+      <c r="L53" s="7"/>
+      <c r="M53" s="7">
         <v>14897</v>
       </c>
-      <c r="N52" s="7">
+      <c r="N53" s="7">
         <v>803614</v>
       </c>
-      <c r="O52" s="7">
+      <c r="O53" s="7">
         <v>1299425</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="23">
+    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="23">
         <v>2020</v>
       </c>
-      <c r="C53" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="8">
+      <c r="C54" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="8">
         <f t="shared" si="2"/>
         <v>2614973</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E54" s="4">
         <v>4853</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F54" s="4">
         <v>21371</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G54" s="4">
         <v>371636</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H54" s="4">
         <v>325704</v>
       </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4">
+      <c r="I54" s="4"/>
+      <c r="J54" s="4">
         <v>41547</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K54" s="4">
         <v>30615</v>
       </c>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4">
+      <c r="L54" s="4"/>
+      <c r="M54" s="4">
         <v>11615</v>
       </c>
-      <c r="N53" s="4">
+      <c r="N54" s="4">
         <v>665331</v>
       </c>
-      <c r="O53" s="4">
+      <c r="O54" s="4">
         <v>1142301</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="21">
+    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="21">
         <v>2020</v>
       </c>
-      <c r="C54" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="9">
+      <c r="C55" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="9">
         <f t="shared" si="2"/>
         <v>2423904</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E55" s="7">
         <v>3748</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F55" s="7">
         <v>22617</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G55" s="7">
         <v>322580</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H55" s="7">
         <v>310616</v>
       </c>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7">
+      <c r="I55" s="7"/>
+      <c r="J55" s="7">
         <v>38737</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K55" s="7">
         <v>30641</v>
       </c>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7">
+      <c r="L55" s="7"/>
+      <c r="M55" s="7">
         <v>7400</v>
       </c>
-      <c r="N54" s="7">
+      <c r="N55" s="7">
         <v>586367</v>
       </c>
-      <c r="O54" s="7">
+      <c r="O55" s="7">
         <v>1101198</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="23">
+    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="23">
         <v>2020</v>
       </c>
-      <c r="C55" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D55" s="8">
+      <c r="C56" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="8">
         <f t="shared" si="2"/>
         <v>1910823</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E56" s="4">
         <v>3082</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F56" s="4">
         <v>18259</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G56" s="4">
         <v>251899</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H56" s="4">
         <v>254505</v>
       </c>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4">
+      <c r="I56" s="4"/>
+      <c r="J56" s="4">
         <v>38811</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K56" s="4">
         <v>24630</v>
       </c>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4">
+      <c r="L56" s="4"/>
+      <c r="M56" s="4">
         <v>4178</v>
       </c>
-      <c r="N55" s="4">
+      <c r="N56" s="4">
         <v>418350</v>
       </c>
-      <c r="O55" s="4">
+      <c r="O56" s="4">
         <v>897109</v>
       </c>
     </row>
-    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="21">
+    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="21">
         <v>2020</v>
       </c>
-      <c r="C56" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" s="9">
+      <c r="C57" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="9">
         <f t="shared" si="2"/>
         <v>996346</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E57" s="7">
         <v>1927</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F57" s="7">
         <v>9051</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G57" s="7">
         <v>140991</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H57" s="7">
         <v>97306</v>
       </c>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7">
+      <c r="I57" s="7"/>
+      <c r="J57" s="7">
         <v>24942</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K57" s="7">
         <v>5002</v>
       </c>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7">
+      <c r="L57" s="7"/>
+      <c r="M57" s="7">
         <v>2168</v>
       </c>
-      <c r="N56" s="7">
+      <c r="N57" s="7">
         <v>201937</v>
       </c>
-      <c r="O56" s="7">
+      <c r="O57" s="7">
         <v>513022</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="23">
+    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="23">
         <v>2020</v>
       </c>
-      <c r="C57" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D57" s="8">
+      <c r="C58" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="8">
         <f t="shared" si="2"/>
         <v>410766</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E58" s="4">
         <v>1324</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F58" s="4">
         <v>4688</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G58" s="4">
         <v>50801</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H58" s="4">
         <v>80478</v>
       </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4">
+      <c r="I58" s="4"/>
+      <c r="J58" s="4">
         <v>14835</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K58" s="4">
         <v>0</v>
       </c>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4">
+      <c r="L58" s="4"/>
+      <c r="M58" s="4">
         <v>1040</v>
       </c>
-      <c r="N57" s="4">
+      <c r="N58" s="4">
         <v>90419</v>
       </c>
-      <c r="O57" s="4">
+      <c r="O58" s="4">
         <v>167181</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="21">
+    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="21">
         <v>2020</v>
       </c>
-      <c r="C58" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="9">
+      <c r="C59" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="9">
         <f t="shared" si="2"/>
         <v>449003</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E59" s="7">
         <v>1164</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F59" s="7">
         <v>2668</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G59" s="7">
         <v>60744</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H59" s="7">
         <v>86523</v>
       </c>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7">
+      <c r="I59" s="7"/>
+      <c r="J59" s="7">
         <v>25068</v>
       </c>
-      <c r="K58" s="7">
+      <c r="K59" s="7">
         <v>705</v>
       </c>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7">
+      <c r="L59" s="7"/>
+      <c r="M59" s="7">
         <v>485</v>
       </c>
-      <c r="N58" s="7">
+      <c r="N59" s="7">
         <v>89915</v>
       </c>
-      <c r="O58" s="7">
+      <c r="O59" s="7">
         <v>181731</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="23">
+    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="23">
         <v>2020</v>
       </c>
-      <c r="C59" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="8">
+      <c r="C60" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="8">
         <f t="shared" si="2"/>
         <v>3931644</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E60" s="4">
         <v>8791</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F60" s="4">
         <v>41673</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G60" s="4">
         <v>572018</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H60" s="4">
         <v>464064</v>
       </c>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4">
+      <c r="I60" s="4"/>
+      <c r="J60" s="4">
         <v>822187</v>
       </c>
-      <c r="K59" s="4">
+      <c r="K60" s="4">
         <v>23248</v>
       </c>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4">
+      <c r="L60" s="4"/>
+      <c r="M60" s="4">
         <v>26274</v>
       </c>
-      <c r="N59" s="4">
+      <c r="N60" s="4">
         <v>704638</v>
       </c>
-      <c r="O59" s="4">
+      <c r="O60" s="4">
         <v>1268751</v>
       </c>
     </row>
-    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="21">
+    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="21">
         <v>2020</v>
       </c>
-      <c r="C60" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60" s="9">
+      <c r="C61" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="9">
         <f t="shared" si="2"/>
         <v>5315967</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E61" s="7">
         <v>10857</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F61" s="7">
         <v>59357</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G61" s="7">
         <v>846279</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H61" s="7">
         <v>641873</v>
       </c>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7">
+      <c r="I61" s="7"/>
+      <c r="J61" s="7">
         <v>1178801</v>
       </c>
-      <c r="K60" s="7">
+      <c r="K61" s="7">
         <v>26652</v>
       </c>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7">
+      <c r="L61" s="7"/>
+      <c r="M61" s="7">
         <v>36382</v>
       </c>
-      <c r="N60" s="7">
+      <c r="N61" s="7">
         <v>881600</v>
       </c>
-      <c r="O60" s="7">
+      <c r="O61" s="7">
         <v>1634166</v>
       </c>
     </row>
-    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="25">
+    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="25">
         <v>2020</v>
       </c>
-      <c r="C61" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="10">
+      <c r="C62" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="10">
         <f t="shared" si="2"/>
         <v>5907035</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E62" s="6">
         <v>13840</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F62" s="6">
         <v>68044</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G62" s="6">
         <v>961808</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H62" s="6">
         <v>680707</v>
       </c>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6">
+      <c r="I62" s="6"/>
+      <c r="J62" s="6">
         <v>1315599</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K62" s="6">
         <v>47575</v>
       </c>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6">
+      <c r="L62" s="6"/>
+      <c r="M62" s="6">
         <v>40620</v>
       </c>
-      <c r="N61" s="6">
+      <c r="N62" s="6">
         <v>980414</v>
       </c>
-      <c r="O61" s="6">
+      <c r="O62" s="6">
         <v>1798428</v>
       </c>
     </row>
-    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="27">
+    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="27">
         <v>2019</v>
       </c>
-      <c r="C62" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" s="11">
+      <c r="C63" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="11">
         <f t="shared" si="2"/>
         <v>6305291</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E63" s="12">
         <v>14577</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F63" s="12">
         <v>79686</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G63" s="12">
         <v>1001613</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H63" s="12">
         <v>756331</v>
       </c>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12">
+      <c r="I63" s="12"/>
+      <c r="J63" s="12">
         <v>1419527</v>
       </c>
-      <c r="K62" s="12">
+      <c r="K63" s="12">
         <v>72539</v>
       </c>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12">
+      <c r="L63" s="12"/>
+      <c r="M63" s="12">
         <v>45759</v>
       </c>
-      <c r="N62" s="12">
+      <c r="N63" s="12">
         <v>1083272</v>
       </c>
-      <c r="O62" s="12">
+      <c r="O63" s="12">
         <v>1831987</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="23">
+    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="23">
         <v>2019</v>
       </c>
-      <c r="C63" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="8">
+      <c r="C64" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="8">
         <f t="shared" si="2"/>
         <v>5933699</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E64" s="4">
         <v>15593</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F64" s="4">
         <v>73513</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G64" s="4">
         <v>938515</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H64" s="4">
         <v>697055</v>
       </c>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4">
+      <c r="I64" s="4"/>
+      <c r="J64" s="4">
         <v>1349425</v>
       </c>
-      <c r="K63" s="4">
+      <c r="K64" s="4">
         <v>54165</v>
       </c>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4">
+      <c r="L64" s="4"/>
+      <c r="M64" s="4">
         <v>41740</v>
       </c>
-      <c r="N63" s="4">
+      <c r="N64" s="4">
         <v>1014931</v>
       </c>
-      <c r="O63" s="4">
+      <c r="O64" s="4">
         <v>1748762</v>
       </c>
     </row>
-    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="21">
+    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="21">
         <v>2019</v>
       </c>
-      <c r="C64" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D64" s="9">
+      <c r="C65" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="9">
         <f t="shared" si="2"/>
         <v>5863191</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E65" s="7">
         <v>19701</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F65" s="7">
         <v>67349</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G65" s="7">
         <v>957393</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H65" s="7">
         <v>740956</v>
       </c>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7">
+      <c r="I65" s="7"/>
+      <c r="J65" s="7">
         <v>1232933</v>
       </c>
-      <c r="K64" s="7">
+      <c r="K65" s="7">
         <v>57392</v>
       </c>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7">
+      <c r="L65" s="7"/>
+      <c r="M65" s="7">
         <v>40850</v>
       </c>
-      <c r="N64" s="7">
+      <c r="N65" s="7">
         <v>1022260</v>
       </c>
-      <c r="O64" s="7">
+      <c r="O65" s="7">
         <v>1724357</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="23">
+    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="23">
         <v>2019</v>
       </c>
-      <c r="C65" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" s="8">
+      <c r="C66" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="8">
         <f t="shared" si="2"/>
         <v>5409755</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E66" s="4">
         <v>15863</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F66" s="4">
         <v>61156</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G66" s="4">
         <v>897733</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H66" s="4">
         <v>677299</v>
       </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4">
+      <c r="I66" s="4"/>
+      <c r="J66" s="4">
         <v>1115654</v>
       </c>
-      <c r="K65" s="4">
+      <c r="K66" s="4">
         <v>61638</v>
       </c>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4">
+      <c r="L66" s="4"/>
+      <c r="M66" s="4">
         <v>42002</v>
       </c>
-      <c r="N65" s="4">
+      <c r="N66" s="4">
         <v>922290</v>
       </c>
-      <c r="O65" s="4">
+      <c r="O66" s="4">
         <v>1616120</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="21">
+    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="21">
         <v>2019</v>
       </c>
-      <c r="C66" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="9">
+      <c r="C67" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="9">
         <f t="shared" si="2"/>
         <v>6259657</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E67" s="7">
         <v>22090</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F67" s="7">
         <v>68824</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G67" s="7">
         <v>1001754</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H67" s="7">
         <v>777867</v>
       </c>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7">
+      <c r="I67" s="7"/>
+      <c r="J67" s="7">
         <v>1395254</v>
       </c>
-      <c r="K66" s="7">
+      <c r="K67" s="7">
         <v>88036</v>
       </c>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7">
+      <c r="L67" s="7"/>
+      <c r="M67" s="7">
         <v>47511</v>
       </c>
-      <c r="N66" s="7">
+      <c r="N67" s="7">
         <v>1112562</v>
       </c>
-      <c r="O66" s="7">
+      <c r="O67" s="7">
         <v>1745759</v>
       </c>
     </row>
-    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="23">
+    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="23">
         <v>2019</v>
       </c>
-      <c r="C67" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D67" s="8">
+      <c r="C68" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="8">
         <f t="shared" si="2"/>
         <v>6643948</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E68" s="4">
         <v>24398</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F68" s="4">
         <v>75738</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G68" s="4">
         <v>1056905</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H68" s="4">
         <v>847525</v>
       </c>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4">
+      <c r="I68" s="4"/>
+      <c r="J68" s="4">
         <v>1440396</v>
       </c>
-      <c r="K67" s="4">
+      <c r="K68" s="4">
         <v>112757</v>
       </c>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4">
+      <c r="L68" s="4"/>
+      <c r="M68" s="4">
         <v>53404</v>
       </c>
-      <c r="N67" s="4">
+      <c r="N68" s="4">
         <v>1151999</v>
       </c>
-      <c r="O67" s="4">
+      <c r="O68" s="4">
         <v>1880826</v>
       </c>
     </row>
-    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="21">
+    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="21">
         <v>2019</v>
       </c>
-      <c r="C68" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" s="9">
+      <c r="C69" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="9">
         <f t="shared" si="2"/>
         <v>6003625</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E69" s="7">
         <v>24034</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F69" s="7">
         <v>65120</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G69" s="7">
         <v>968584</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H69" s="7">
         <v>772914</v>
       </c>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7">
+      <c r="I69" s="7"/>
+      <c r="J69" s="7">
         <v>1315938</v>
       </c>
-      <c r="K68" s="7">
+      <c r="K69" s="7">
         <v>90790</v>
       </c>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7">
+      <c r="L69" s="7"/>
+      <c r="M69" s="7">
         <v>47162</v>
       </c>
-      <c r="N68" s="7">
+      <c r="N69" s="7">
         <v>974523</v>
       </c>
-      <c r="O68" s="7">
+      <c r="O69" s="7">
         <v>1744560</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="23">
+    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="23">
         <v>2019</v>
       </c>
-      <c r="C69" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D69" s="8">
+      <c r="C70" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="8">
         <f t="shared" si="2"/>
         <v>6066733</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E70" s="4">
         <v>24578</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F70" s="4">
         <v>61163</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G70" s="4">
         <v>976676</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H70" s="4">
         <v>788262</v>
       </c>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4">
+      <c r="I70" s="4"/>
+      <c r="J70" s="4">
         <v>1373059</v>
       </c>
-      <c r="K69" s="4">
+      <c r="K70" s="4">
         <v>74030</v>
       </c>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4">
+      <c r="L70" s="4"/>
+      <c r="M70" s="4">
         <v>51746</v>
       </c>
-      <c r="N69" s="4">
+      <c r="N70" s="4">
         <v>931984</v>
       </c>
-      <c r="O69" s="4">
+      <c r="O70" s="4">
         <v>1785235</v>
       </c>
     </row>
-    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="21">
+    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="21">
         <v>2019</v>
       </c>
-      <c r="C70" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D70" s="9">
+      <c r="C71" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="9">
         <f t="shared" si="2"/>
         <v>5766967</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E71" s="7">
         <v>26137</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F71" s="7">
         <v>63912</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G71" s="7">
         <v>935481</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H71" s="7">
         <v>737722</v>
       </c>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7">
+      <c r="I71" s="7"/>
+      <c r="J71" s="7">
         <v>1282012</v>
       </c>
-      <c r="K70" s="7">
+      <c r="K71" s="7">
         <v>54469</v>
       </c>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7">
+      <c r="L71" s="7"/>
+      <c r="M71" s="7">
         <v>50399</v>
       </c>
-      <c r="N70" s="7">
+      <c r="N71" s="7">
         <v>893208</v>
       </c>
-      <c r="O70" s="7">
+      <c r="O71" s="7">
         <v>1723627</v>
       </c>
     </row>
-    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="23">
+    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="23">
         <v>2019</v>
       </c>
-      <c r="C71" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71" s="8">
+      <c r="C72" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="8">
         <f t="shared" si="2"/>
         <v>5617314</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E72" s="4">
         <v>24631</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F72" s="4">
         <v>66177</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G72" s="4">
         <v>991931</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H72" s="4">
         <v>774790</v>
       </c>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4">
+      <c r="I72" s="4"/>
+      <c r="J72" s="4">
         <v>1245949</v>
       </c>
-      <c r="K71" s="4">
+      <c r="K72" s="4">
         <v>40758</v>
       </c>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4">
+      <c r="L72" s="4"/>
+      <c r="M72" s="4">
         <v>49242</v>
       </c>
-      <c r="N71" s="4">
+      <c r="N72" s="4">
         <v>767922</v>
       </c>
-      <c r="O71" s="4">
+      <c r="O72" s="4">
         <v>1655914</v>
       </c>
     </row>
-    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="21">
+    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="21">
         <v>2019</v>
       </c>
-      <c r="C72" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" s="9">
+      <c r="C73" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="9">
         <f t="shared" si="2"/>
         <v>4697667</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E73" s="7">
         <v>20074</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F73" s="7">
         <v>57946</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G73" s="7">
         <v>888111</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H73" s="7">
         <v>647818</v>
       </c>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7">
+      <c r="I73" s="7"/>
+      <c r="J73" s="7">
         <v>1002798</v>
       </c>
-      <c r="K72" s="7">
+      <c r="K73" s="7">
         <v>31139</v>
       </c>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7">
+      <c r="L73" s="7"/>
+      <c r="M73" s="7">
         <v>40877</v>
       </c>
-      <c r="N72" s="7">
+      <c r="N73" s="7">
         <v>617809</v>
       </c>
-      <c r="O72" s="7">
+      <c r="O73" s="7">
         <v>1391095</v>
       </c>
     </row>
-    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="25">
+    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="25">
         <v>2019</v>
       </c>
-      <c r="C73" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" s="10">
-        <f t="shared" ref="D73:D85" si="3">SUM(E73:O73)</f>
+      <c r="C74" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="10">
+        <f t="shared" ref="D74:D86" si="3">SUM(E74:O74)</f>
         <v>5369991</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E74" s="6">
         <v>24399</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F74" s="6">
         <v>59133</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G74" s="6">
         <v>1017714</v>
       </c>
-      <c r="H73" s="6">
+      <c r="H74" s="6">
         <v>718168</v>
       </c>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6">
+      <c r="I74" s="6"/>
+      <c r="J74" s="6">
         <v>1143850</v>
       </c>
-      <c r="K73" s="6">
+      <c r="K74" s="6">
         <v>45885</v>
       </c>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6">
+      <c r="L74" s="6"/>
+      <c r="M74" s="6">
         <v>45704</v>
       </c>
-      <c r="N73" s="6">
+      <c r="N74" s="6">
         <v>787962</v>
       </c>
-      <c r="O73" s="6">
+      <c r="O74" s="6">
         <v>1527176</v>
       </c>
     </row>
-    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="22">
+    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="22">
         <v>2018</v>
       </c>
-      <c r="C74" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D74" s="9">
+      <c r="C75" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="9">
         <f t="shared" si="3"/>
         <v>5844697</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E75" s="7">
         <v>25513</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F75" s="7">
         <v>64369</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G75" s="7">
         <v>1071044</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H75" s="7">
         <v>804521</v>
       </c>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7">
+      <c r="I75" s="7"/>
+      <c r="J75" s="7">
         <v>1232404</v>
       </c>
-      <c r="K74" s="7">
+      <c r="K75" s="7">
         <v>78800</v>
       </c>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7">
+      <c r="L75" s="7"/>
+      <c r="M75" s="7">
         <v>50423</v>
       </c>
-      <c r="N74" s="7">
+      <c r="N75" s="7">
         <v>905477</v>
       </c>
-      <c r="O74" s="7">
+      <c r="O75" s="7">
         <v>1612146</v>
       </c>
     </row>
-    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="24">
+    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="24">
         <v>2018</v>
       </c>
-      <c r="C75" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D75" s="8">
+      <c r="C76" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76" s="8">
         <f t="shared" si="3"/>
         <v>5548187</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E76" s="4">
         <v>24593</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F76" s="4">
         <v>68160</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G76" s="4">
         <v>1004506</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H76" s="4">
         <v>761656</v>
       </c>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4">
+      <c r="I76" s="4"/>
+      <c r="J76" s="4">
         <v>1214579</v>
       </c>
-      <c r="K75" s="4">
+      <c r="K76" s="4">
         <v>70291</v>
       </c>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4">
+      <c r="L76" s="4"/>
+      <c r="M76" s="4">
         <v>52654</v>
       </c>
-      <c r="N75" s="4">
+      <c r="N76" s="4">
         <v>844104</v>
       </c>
-      <c r="O75" s="4">
+      <c r="O76" s="4">
         <v>1507644</v>
       </c>
     </row>
-    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="22">
+    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="22">
         <v>2018</v>
       </c>
-      <c r="C76" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D76" s="9">
+      <c r="C77" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="9">
         <f t="shared" si="3"/>
         <v>5436017</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E77" s="7">
         <v>23163</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F77" s="7">
         <v>67739</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G77" s="7">
         <v>1006759</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H77" s="7">
         <v>779871</v>
       </c>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7">
+      <c r="I77" s="7"/>
+      <c r="J77" s="7">
         <v>1170513</v>
       </c>
-      <c r="K76" s="7">
+      <c r="K77" s="7">
         <v>65741</v>
       </c>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7">
+      <c r="L77" s="7"/>
+      <c r="M77" s="7">
         <v>52203</v>
       </c>
-      <c r="N76" s="7">
+      <c r="N77" s="7">
         <v>808467</v>
       </c>
-      <c r="O76" s="7">
+      <c r="O77" s="7">
         <v>1461561</v>
       </c>
     </row>
-    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="24">
+    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="24">
         <v>2018</v>
       </c>
-      <c r="C77" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D77" s="8">
+      <c r="C78" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="8">
         <f t="shared" si="3"/>
         <v>5031295</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E78" s="4">
         <v>21054</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F78" s="4">
         <v>57581</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G78" s="4">
         <v>953415</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H78" s="4">
         <v>749609</v>
       </c>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4">
+      <c r="I78" s="4"/>
+      <c r="J78" s="4">
         <v>1042581</v>
       </c>
-      <c r="K77" s="4">
+      <c r="K78" s="4">
         <v>61896</v>
       </c>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4">
+      <c r="L78" s="4"/>
+      <c r="M78" s="4">
         <v>46860</v>
       </c>
-      <c r="N77" s="4">
+      <c r="N78" s="4">
         <v>767606</v>
       </c>
-      <c r="O77" s="4">
+      <c r="O78" s="4">
         <v>1330693</v>
       </c>
     </row>
-    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="22">
+    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="22">
         <v>2018</v>
       </c>
-      <c r="C78" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D78" s="9">
+      <c r="C79" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="9">
         <f t="shared" si="3"/>
         <v>5768371</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E79" s="7">
         <v>27838</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F79" s="7">
         <v>63083</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G79" s="7">
         <v>1074998</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H79" s="7">
         <v>852980</v>
       </c>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7">
+      <c r="I79" s="7"/>
+      <c r="J79" s="7">
         <v>1233129</v>
       </c>
-      <c r="K78" s="7">
+      <c r="K79" s="7">
         <v>104695</v>
       </c>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7">
+      <c r="L79" s="7"/>
+      <c r="M79" s="7">
         <v>54110</v>
       </c>
-      <c r="N78" s="7">
+      <c r="N79" s="7">
         <v>921277</v>
       </c>
-      <c r="O78" s="7">
+      <c r="O79" s="7">
         <v>1436261</v>
       </c>
     </row>
-    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="24">
+    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="24">
         <v>2018</v>
       </c>
-      <c r="C79" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D79" s="8">
+      <c r="C80" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="8">
         <f t="shared" si="3"/>
         <v>6140662</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E80" s="4">
         <v>32903</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F80" s="4">
         <v>56167</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G80" s="4">
         <v>1179423</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H80" s="4">
         <v>895787</v>
       </c>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4">
+      <c r="I80" s="4"/>
+      <c r="J80" s="4">
         <v>1280292</v>
       </c>
-      <c r="K79" s="4">
+      <c r="K80" s="4">
         <v>110733</v>
       </c>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4">
+      <c r="L80" s="4"/>
+      <c r="M80" s="4">
         <v>58466</v>
       </c>
-      <c r="N79" s="4">
+      <c r="N80" s="4">
         <v>944861</v>
       </c>
-      <c r="O79" s="4">
+      <c r="O80" s="4">
         <v>1582030</v>
       </c>
     </row>
-    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="22">
+    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="22">
         <v>2018</v>
       </c>
-      <c r="C80" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D80" s="9">
+      <c r="C81" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="9">
         <f t="shared" si="3"/>
         <v>5347432</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E81" s="7">
         <v>26323</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F81" s="7">
         <v>46065</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G81" s="7">
         <v>1036698</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H81" s="7">
         <v>815293</v>
       </c>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7">
+      <c r="I81" s="7"/>
+      <c r="J81" s="7">
         <v>1141203</v>
       </c>
-      <c r="K80" s="7">
+      <c r="K81" s="7">
         <v>75066</v>
       </c>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7">
+      <c r="L81" s="7"/>
+      <c r="M81" s="7">
         <v>48032</v>
       </c>
-      <c r="N80" s="7">
+      <c r="N81" s="7">
         <v>768437</v>
       </c>
-      <c r="O80" s="7">
+      <c r="O81" s="7">
         <v>1390315</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="24">
+    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="24">
         <v>2018</v>
       </c>
-      <c r="C81" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D81" s="8">
+      <c r="C82" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="8">
         <f t="shared" si="3"/>
         <v>5369812</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E82" s="4">
         <v>26212</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F82" s="4">
         <v>54265</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G82" s="4">
         <v>1033321</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H82" s="4">
         <v>780048</v>
       </c>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4">
+      <c r="I82" s="4"/>
+      <c r="J82" s="4">
         <v>1201298</v>
       </c>
-      <c r="K81" s="4">
+      <c r="K82" s="4">
         <v>84998</v>
       </c>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4">
+      <c r="L82" s="4"/>
+      <c r="M82" s="4">
         <v>49481</v>
       </c>
-      <c r="N81" s="4">
+      <c r="N82" s="4">
         <v>759447</v>
       </c>
-      <c r="O81" s="4">
+      <c r="O82" s="4">
         <v>1380742</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="22">
+    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="22">
         <v>2018</v>
       </c>
-      <c r="C82" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D82" s="9">
+      <c r="C83" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="9">
         <f t="shared" si="3"/>
         <v>5275071</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E83" s="7">
         <v>25839</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F83" s="7">
         <v>59133</v>
       </c>
-      <c r="G82" s="7">
+      <c r="G83" s="7">
         <v>996415</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H83" s="7">
         <v>794436</v>
       </c>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7">
+      <c r="I83" s="7"/>
+      <c r="J83" s="7">
         <v>1176450</v>
       </c>
-      <c r="K82" s="7">
+      <c r="K83" s="7">
         <v>73805</v>
       </c>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7">
+      <c r="L83" s="7"/>
+      <c r="M83" s="7">
         <v>49795</v>
       </c>
-      <c r="N82" s="7">
+      <c r="N83" s="7">
         <v>730221</v>
       </c>
-      <c r="O82" s="7">
+      <c r="O83" s="7">
         <v>1368977</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="24">
+    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="24">
         <v>2018</v>
       </c>
-      <c r="C83" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D83" s="8">
+      <c r="C84" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="8">
         <f t="shared" si="3"/>
         <v>5277344</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E84" s="4">
         <v>29029</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F84" s="4">
         <v>65814</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G84" s="4">
         <v>993548</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H84" s="4">
         <v>797581</v>
       </c>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4">
+      <c r="I84" s="4"/>
+      <c r="J84" s="4">
         <v>1174935</v>
       </c>
-      <c r="K83" s="4">
+      <c r="K84" s="4">
         <v>50611</v>
       </c>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4">
+      <c r="L84" s="4"/>
+      <c r="M84" s="4">
         <v>50043</v>
       </c>
-      <c r="N83" s="4">
+      <c r="N84" s="4">
         <v>723374</v>
       </c>
-      <c r="O83" s="4">
+      <c r="O84" s="4">
         <v>1392409</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="22">
+    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="22">
         <v>2018</v>
       </c>
-      <c r="C84" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D84" s="9">
+      <c r="C85" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="9">
         <f t="shared" si="3"/>
         <v>4448093</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E85" s="7">
         <v>22962</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F85" s="7">
         <v>59046</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G85" s="7">
         <v>878966</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H85" s="7">
         <v>699650</v>
       </c>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7">
+      <c r="I85" s="7"/>
+      <c r="J85" s="7">
         <v>934030</v>
       </c>
-      <c r="K84" s="7">
+      <c r="K85" s="7">
         <v>39995</v>
       </c>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7">
+      <c r="L85" s="7"/>
+      <c r="M85" s="7">
         <v>44679</v>
       </c>
-      <c r="N84" s="7">
+      <c r="N85" s="7">
         <v>569891</v>
       </c>
-      <c r="O84" s="7">
+      <c r="O85" s="7">
         <v>1198874</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="24">
+    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="24">
         <v>2018</v>
       </c>
-      <c r="C85" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D85" s="8">
+      <c r="C86" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="8">
         <f t="shared" si="3"/>
         <v>5082659</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E86" s="4">
         <v>24734</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F86" s="4">
         <v>60981</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G86" s="4">
         <v>1021784</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H86" s="4">
         <v>777479</v>
       </c>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4">
+      <c r="I86" s="4"/>
+      <c r="J86" s="4">
         <v>1078923</v>
       </c>
-      <c r="K85" s="4">
+      <c r="K86" s="4">
         <v>55290</v>
       </c>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4">
+      <c r="L86" s="4"/>
+      <c r="M86" s="4">
         <v>47772</v>
       </c>
-      <c r="N85" s="4">
+      <c r="N86" s="4">
         <v>664529</v>
       </c>
-      <c r="O85" s="4">
+      <c r="O86" s="4">
         <v>1351167</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B86" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C86" s="16"/>
-    </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B87" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C87" s="17"/>
-      <c r="O87" s="3"/>
+      <c r="B87" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" s="31"/>
+      <c r="D87" s="32">
+        <f>SUM(E87:O87)</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="33"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B88" s="17" t="s">
-        <v>11</v>
+      <c r="B88" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="C88" s="17"/>
+      <c r="O88" s="3"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B89" s="17" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C89" s="17"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B90" s="17" t="s">
-        <v>13</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C90" s="17"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B91" t="s">
+      <c r="B91" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="D94" s="16"/>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D98" s="16"/>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="D95" s="16"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D99" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Pasajeros_por_aerolinea_nac.xlsx
+++ b/Pasajeros_por_aerolinea_nac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D45493-BE2D-4DF9-839D-16D3B4BFC7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698C0444-A543-4DB8-91E2-31109742572F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_31" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -137,7 +137,7 @@
     <t>Aerolíneas</t>
   </si>
   <si>
-    <t>Actualización: septiembre 2024.</t>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -147,44 +147,44 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -192,15 +192,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Montserrat Medium"/>
-      <family val="2"/>
+      <name val="Geomanist"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -329,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -405,15 +397,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -463,7 +446,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
@@ -485,12 +468,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -498,6 +475,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -516,7 +499,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -553,7 +536,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O87" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O87" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
   <autoFilter ref="B5:O87" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
@@ -587,7 +570,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -595,28 +578,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -625,14 +608,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -807,44 +790,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O99"/>
+  <dimension ref="B2:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.19921875" customWidth="1"/>
-    <col min="8" max="8" width="15.8984375" customWidth="1"/>
-    <col min="9" max="9" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="16.796875" customWidth="1"/>
-    <col min="13" max="13" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.3984375" customWidth="1"/>
-    <col min="15" max="15" width="17.796875" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
       <c r="C4" s="19"/>
       <c r="D4" s="13"/>
@@ -862,7 +845,7 @@
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
     </row>
-    <row r="5" spans="2:15" ht="54" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>16</v>
       </c>
@@ -906,3306 +889,3330 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B6" s="23">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="21">
         <v>2024</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" ref="D6" si="0">SUM(E6:O6)</f>
+        <v>6571845</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7">
+        <v>1659284</v>
+      </c>
+      <c r="H6" s="7">
+        <v>357763</v>
+      </c>
+      <c r="I6" s="7">
+        <v>4125</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7">
+        <v>18874</v>
+      </c>
+      <c r="L6" s="7">
+        <v>22660</v>
+      </c>
+      <c r="M6" s="7">
+        <v>9268</v>
+      </c>
+      <c r="N6" s="7">
+        <v>2210987</v>
+      </c>
+      <c r="O6" s="7">
+        <v>2288884</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="23">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="8">
-        <f>SUM(E6:O6)</f>
+      <c r="D7" s="8">
+        <f>SUM(E7:O7)</f>
         <v>6241021</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
         <v>1602332</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H7" s="4">
         <v>357115</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I7" s="4">
         <v>3750</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4">
         <v>16595</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L7" s="4">
         <v>21490</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M7" s="4">
         <v>8152</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N7" s="4">
         <v>2135071</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O7" s="4">
         <v>2096516</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="21">
+    <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="21">
         <v>2024</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="9">
-        <f>SUM(E7:O7)</f>
+      <c r="D8" s="9">
+        <f>SUM(E8:O8)</f>
         <v>7122666</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7">
         <v>1846259</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H8" s="7">
         <v>423300</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I8" s="7">
         <v>3350</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7">
+      <c r="J8" s="7"/>
+      <c r="K8" s="7">
         <v>23287</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L8" s="7">
         <v>32823</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M8" s="7">
         <v>13500</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N8" s="7">
         <v>2380847</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O8" s="7">
         <v>2399300</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="23">
+    <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="23">
         <v>2024</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="8">
-        <f t="shared" ref="D8:D10" si="0">SUM(E8:O8)</f>
+      <c r="D9" s="8">
+        <f t="shared" ref="D9:D11" si="1">SUM(E9:O9)</f>
         <v>7366092</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="4">
         <v>972</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
         <v>1936260</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H9" s="4">
         <v>455999</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I9" s="4">
         <v>2952</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
         <v>25726</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L9" s="4">
         <v>35662</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M9" s="4">
         <v>12021</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N9" s="4">
         <v>2421165</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O9" s="4">
         <v>2475335</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="21">
+    <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="21">
         <v>2024</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="9">
-        <f t="shared" si="0"/>
+      <c r="D10" s="9">
+        <f t="shared" si="1"/>
         <v>6546101</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E10" s="7">
         <v>744</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7">
         <v>1681153</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H10" s="7">
         <v>420652</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I10" s="7">
         <v>2495</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7">
+      <c r="J10" s="7"/>
+      <c r="K10" s="7">
         <v>23110</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L10" s="7">
         <v>21518</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M10" s="7">
         <v>10064</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N10" s="7">
         <v>2174929</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O10" s="7">
         <v>2211436</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="23">
+    <row r="11" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="23">
         <v>2024</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="8">
-        <f t="shared" si="0"/>
+      <c r="D11" s="8">
+        <f t="shared" si="1"/>
         <v>6589382</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="4">
         <v>820</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
         <v>1727003</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H11" s="4">
         <v>431546</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I11" s="4">
         <v>2633</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4">
         <v>13929</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L11" s="4">
         <v>22186</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M11" s="4">
         <v>11316</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N11" s="4">
         <v>2176419</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O11" s="4">
         <v>2203530</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="21">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="21">
         <v>2024</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="9">
-        <f t="shared" ref="D11:D41" si="1">SUM(E11:O11)</f>
+      <c r="D12" s="9">
+        <f t="shared" ref="D12:D42" si="2">SUM(E12:O12)</f>
         <v>6256107</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E12" s="7">
         <v>1018</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7">
         <v>1647314</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H12" s="7">
         <v>437362</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I12" s="7">
         <v>2451</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7">
+      <c r="J12" s="7"/>
+      <c r="K12" s="7">
         <v>17123</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L12" s="7">
         <v>21899</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M12" s="7">
         <v>13736</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N12" s="7">
         <v>2025760</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O12" s="7">
         <v>2089444</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="23">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="23">
         <v>2024</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C13" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="8">
-        <f t="shared" si="1"/>
+      <c r="D13" s="8">
+        <f t="shared" si="2"/>
         <v>6265547</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E13" s="4">
         <v>985</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
         <v>1663451</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H13" s="4">
         <v>414407</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I13" s="4">
         <v>2426</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4">
         <v>16310</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L13" s="4">
         <v>24140</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M13" s="4">
         <v>11984</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N13" s="4">
         <v>2037641</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O13" s="4">
         <v>2094203</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="21">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="21">
         <v>2024</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C14" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="9">
-        <f t="shared" si="1"/>
+      <c r="D14" s="9">
+        <f t="shared" si="2"/>
         <v>5607014</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E14" s="7">
         <v>703</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7">
         <v>1479121</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H14" s="7">
         <v>395860</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I14" s="7">
         <v>2323</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7">
+      <c r="J14" s="7"/>
+      <c r="K14" s="7">
         <v>11161</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L14" s="7">
         <v>17287</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M14" s="7">
         <v>11768</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N14" s="7">
         <v>1772299</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O14" s="7">
         <v>1916492</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="25">
         <v>2024</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C15" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="10">
-        <f t="shared" si="1"/>
+      <c r="D15" s="10">
+        <f t="shared" si="2"/>
         <v>6274620</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="6">
         <v>1102</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6">
         <v>1481216</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H15" s="6">
         <v>490118</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I15" s="6">
         <v>2332</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6">
+      <c r="J15" s="6"/>
+      <c r="K15" s="6">
         <v>14046</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L15" s="6">
         <v>12504</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M15" s="6">
         <v>12424</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N15" s="6">
         <v>2028846</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O15" s="6">
         <v>2232032</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="27">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="27">
         <v>2023</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C16" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="11">
-        <f t="shared" si="1"/>
+      <c r="D16" s="11">
+        <f t="shared" si="2"/>
         <v>6943699</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E16" s="12">
         <v>1263</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12">
+      <c r="F16" s="12"/>
+      <c r="G16" s="12">
         <v>1661066</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H16" s="12">
         <v>520344</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I16" s="12">
         <v>2164</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12">
+      <c r="J16" s="12"/>
+      <c r="K16" s="12">
         <v>23295</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L16" s="12">
         <v>1620</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M16" s="12">
         <v>19717</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N16" s="12">
         <v>2180392</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O16" s="12">
         <v>2533838</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="23">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="23">
         <v>2023</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C17" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="8">
-        <f t="shared" si="1"/>
+      <c r="D17" s="8">
+        <f t="shared" si="2"/>
         <v>6524452</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E17" s="4">
         <v>817</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4">
         <v>1518614</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H17" s="4">
         <v>487651</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I17" s="4">
         <v>1815</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4">
+      <c r="J17" s="4"/>
+      <c r="K17" s="4">
         <v>23109</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4">
+      <c r="L17" s="4"/>
+      <c r="M17" s="4">
         <v>18006</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N17" s="4">
         <v>2055956</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O17" s="4">
         <v>2418484</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B17" s="21">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="21">
         <v>2023</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="9">
-        <f t="shared" si="1"/>
+      <c r="D18" s="9">
+        <f t="shared" si="2"/>
         <v>6666523</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E18" s="7">
         <v>745</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7">
         <v>1534357</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H18" s="7">
         <v>502142</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I18" s="7">
         <v>1593</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7">
+      <c r="J18" s="7"/>
+      <c r="K18" s="7">
         <v>27175</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7">
+      <c r="L18" s="7"/>
+      <c r="M18" s="7">
         <v>15799</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N18" s="7">
         <v>2142423</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O18" s="7">
         <v>2442289</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B18" s="23">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="23">
         <v>2023</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C19" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="8">
-        <f t="shared" si="1"/>
+      <c r="D19" s="8">
+        <f t="shared" si="2"/>
         <v>6234323</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E19" s="4">
         <v>136</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
         <v>1449933</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H19" s="4">
         <v>489367</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I19" s="4">
         <v>1718</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4">
         <v>20794</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4">
+      <c r="L19" s="4"/>
+      <c r="M19" s="4">
         <v>13440</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N19" s="4">
         <v>1975887</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O19" s="4">
         <v>2283048</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B19" s="21">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="21">
         <v>2023</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C20" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="9">
-        <f t="shared" si="1"/>
+      <c r="D20" s="9">
+        <f t="shared" si="2"/>
         <v>7366586</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E20" s="7">
         <v>711</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7">
         <v>1790842</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H20" s="7">
         <v>509073</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I20" s="7">
         <v>1858</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7">
+      <c r="J20" s="7"/>
+      <c r="K20" s="7">
         <v>33617</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7">
+      <c r="L20" s="7"/>
+      <c r="M20" s="7">
         <v>17102</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N20" s="7">
         <v>2222143</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O20" s="7">
         <v>2791240</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B20" s="23">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="23">
         <v>2023</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C21" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="8">
-        <f t="shared" si="1"/>
+      <c r="D21" s="8">
+        <f t="shared" si="2"/>
         <v>7470779</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="4">
         <v>7815</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4">
         <v>1877785</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H21" s="4">
         <v>489520</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I21" s="4">
         <v>1593</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4">
+      <c r="J21" s="4"/>
+      <c r="K21" s="4">
         <v>38495</v>
       </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4">
+      <c r="L21" s="4"/>
+      <c r="M21" s="4">
         <v>16965</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N21" s="4">
         <v>2256958</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O21" s="4">
         <v>2781648</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B21" s="21">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="21">
         <v>2023</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C22" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="9">
-        <f t="shared" si="1"/>
+      <c r="D22" s="9">
+        <f t="shared" si="2"/>
         <v>6481356</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E22" s="7">
         <v>8579</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7">
         <v>1623869</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H22" s="7">
         <v>444461</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I22" s="7">
         <v>930</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7">
+      <c r="J22" s="7"/>
+      <c r="K22" s="7">
         <v>26027</v>
       </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7">
+      <c r="L22" s="7"/>
+      <c r="M22" s="7">
         <v>16972</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N22" s="7">
         <v>1939577</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O22" s="7">
         <v>2420941</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B22" s="23">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="23">
         <v>2023</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C23" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="8">
-        <f t="shared" si="1"/>
+      <c r="D23" s="8">
+        <f t="shared" si="2"/>
         <v>6466836</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="4">
         <v>10045</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
         <v>1475419</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H23" s="4">
         <v>493646</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I23" s="4">
         <v>866</v>
       </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4">
+      <c r="J23" s="4"/>
+      <c r="K23" s="4">
         <v>22311</v>
       </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4">
+      <c r="L23" s="4"/>
+      <c r="M23" s="4">
         <v>22530</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N23" s="4">
         <v>1903714</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O23" s="4">
         <v>2538305</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B23" s="21">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="21">
         <v>2023</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C24" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="9">
-        <f t="shared" si="1"/>
+      <c r="D24" s="9">
+        <f t="shared" si="2"/>
         <v>6505979</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E24" s="7">
         <v>7610</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7">
         <v>1447508</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H24" s="7">
         <v>495864</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I24" s="7">
         <v>73</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7">
+      <c r="J24" s="7"/>
+      <c r="K24" s="7">
         <v>22224</v>
       </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7">
+      <c r="L24" s="7"/>
+      <c r="M24" s="7">
         <v>23384</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N24" s="7">
         <v>1903503</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O24" s="7">
         <v>2605813</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B24" s="23">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="23">
         <v>2023</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C25" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="8">
-        <f t="shared" si="1"/>
+      <c r="D25" s="8">
+        <f t="shared" si="2"/>
         <v>6389909</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E25" s="4">
         <v>4538</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4">
         <v>1502404</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H25" s="4">
         <v>516526</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4">
         <v>15589</v>
       </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4">
+      <c r="L25" s="4"/>
+      <c r="M25" s="4">
         <v>23229</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N25" s="4">
         <v>1776763</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O25" s="4">
         <v>2550860</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B25" s="21">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="21">
         <v>2023</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C26" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="9">
-        <f t="shared" si="1"/>
+      <c r="D26" s="9">
+        <f t="shared" si="2"/>
         <v>5478771</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E26" s="7">
         <v>9031</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F26" s="7">
         <v>9443</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G26" s="7">
         <v>1277871</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H26" s="7">
         <v>459155</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7">
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7">
         <v>11992</v>
       </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7">
+      <c r="L26" s="7"/>
+      <c r="M26" s="7">
         <v>19704</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N26" s="7">
         <v>1431046</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O26" s="7">
         <v>2260529</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B26" s="25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="25">
         <v>2023</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C27" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="10">
-        <f t="shared" si="1"/>
+      <c r="D27" s="10">
+        <f t="shared" si="2"/>
         <v>6248337</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E27" s="6">
         <v>9895</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F27" s="6">
         <v>23595</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G27" s="6">
         <v>1439058</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H27" s="6">
         <v>503079</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6">
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6">
         <v>15438</v>
       </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6">
+      <c r="L27" s="6"/>
+      <c r="M27" s="6">
         <v>23680</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N27" s="6">
         <v>1650780</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O27" s="6">
         <v>2582812</v>
       </c>
     </row>
-    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="27">
+    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="27">
         <v>2022</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C28" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="11">
-        <f t="shared" si="1"/>
+      <c r="D28" s="11">
+        <f t="shared" si="2"/>
         <v>6735243</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E28" s="12">
         <v>8855</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F28" s="12">
         <v>30082</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G28" s="12">
         <v>1541064</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H28" s="12">
         <v>545257</v>
       </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12">
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12">
         <v>31832</v>
       </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12">
+      <c r="L28" s="12"/>
+      <c r="M28" s="12">
         <v>32706</v>
       </c>
-      <c r="N27" s="12">
+      <c r="N28" s="12">
         <v>1885616</v>
       </c>
-      <c r="O27" s="12">
+      <c r="O28" s="12">
         <v>2659831</v>
       </c>
     </row>
-    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="23">
+    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="23">
         <v>2022</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C29" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="8">
-        <f t="shared" si="1"/>
+      <c r="D29" s="8">
+        <f t="shared" si="2"/>
         <v>6388091</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E29" s="4">
         <v>10809</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F29" s="4">
         <v>29180</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G29" s="4">
         <v>1477832</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H29" s="4">
         <v>542019</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4">
         <v>26190</v>
       </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4">
+      <c r="L29" s="4"/>
+      <c r="M29" s="4">
         <v>25324</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N29" s="4">
         <v>1806360</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O29" s="4">
         <v>2470377</v>
       </c>
     </row>
-    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="21">
+    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="21">
         <v>2022</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C30" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="9">
-        <f t="shared" si="1"/>
+      <c r="D30" s="9">
+        <f t="shared" si="2"/>
         <v>6296390</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E30" s="7">
         <v>11560</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F30" s="7">
         <v>29156</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G30" s="7">
         <v>1436769</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H30" s="7">
         <v>525145</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7">
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7">
         <v>25003</v>
       </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7">
+      <c r="L30" s="7"/>
+      <c r="M30" s="7">
         <v>26165</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N30" s="7">
         <v>1730130</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O30" s="7">
         <v>2512462</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="23">
+    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="23">
         <v>2022</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C31" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="8">
-        <f t="shared" si="1"/>
+      <c r="D31" s="8">
+        <f t="shared" si="2"/>
         <v>5717570</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E31" s="4">
         <v>8563</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F31" s="4">
         <v>27782</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G31" s="4">
         <v>1324735</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H31" s="4">
         <v>461328</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4">
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4">
         <v>24539</v>
       </c>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4">
+      <c r="L31" s="4"/>
+      <c r="M31" s="4">
         <v>23409</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N31" s="4">
         <v>1533686</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O31" s="4">
         <v>2313528</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="21">
+    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="21">
         <v>2022</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C32" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="9">
-        <f t="shared" si="1"/>
+      <c r="D32" s="9">
+        <f t="shared" si="2"/>
         <v>6395624</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E32" s="7">
         <v>12206</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F32" s="7">
         <v>36300</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G32" s="7">
         <v>1459848</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H32" s="7">
         <v>550210</v>
       </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7">
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7">
         <v>41574</v>
       </c>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7">
+      <c r="L32" s="7"/>
+      <c r="M32" s="7">
         <v>28457</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N32" s="7">
         <v>1770150</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O32" s="7">
         <v>2496879</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="23">
+    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="23">
         <v>2022</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C33" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="8">
-        <f t="shared" si="1"/>
+      <c r="D33" s="8">
+        <f t="shared" si="2"/>
         <v>6606709</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E33" s="4">
         <v>12900</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F33" s="4">
         <v>37410</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G33" s="4">
         <v>1493132</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H33" s="4">
         <v>544988</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4">
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4">
         <v>52783</v>
       </c>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4">
+      <c r="L33" s="4"/>
+      <c r="M33" s="4">
         <v>35829</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N33" s="4">
         <v>1832173</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O33" s="4">
         <v>2597494</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="21">
+    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="21">
         <v>2022</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C34" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="9">
-        <f t="shared" si="1"/>
+      <c r="D34" s="9">
+        <f t="shared" si="2"/>
         <v>5816384</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E34" s="7">
         <v>11528</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F34" s="7">
         <v>29894</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G34" s="7">
         <v>1448616</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H34" s="7">
         <v>482837</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7">
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7">
         <v>38612</v>
       </c>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7">
+      <c r="L34" s="7"/>
+      <c r="M34" s="7">
         <v>31692</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N34" s="7">
         <v>1629719</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O34" s="7">
         <v>2143486</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="23">
+    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="23">
         <v>2022</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C35" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="8">
-        <f t="shared" si="1"/>
+      <c r="D35" s="8">
+        <f t="shared" si="2"/>
         <v>5938227</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E35" s="4">
         <v>14051</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F35" s="4">
         <v>34530</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G35" s="4">
         <v>1394194</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H35" s="4">
         <v>469001</v>
       </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4">
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4">
         <v>36048</v>
       </c>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4">
+      <c r="L35" s="4"/>
+      <c r="M35" s="4">
         <v>32934</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N35" s="4">
         <v>1638787</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O35" s="4">
         <v>2318682</v>
       </c>
     </row>
-    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="21">
+    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="21">
         <v>2022</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C36" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="9">
-        <f t="shared" si="1"/>
+      <c r="D36" s="9">
+        <f t="shared" si="2"/>
         <v>5762121</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E36" s="7">
         <v>12580</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F36" s="7">
         <v>39403</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G36" s="7">
         <v>1248745</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H36" s="7">
         <v>447104</v>
       </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7">
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7">
         <v>30427</v>
       </c>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7">
+      <c r="L36" s="7"/>
+      <c r="M36" s="7">
         <v>31976</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N36" s="7">
         <v>1571982</v>
       </c>
-      <c r="O35" s="7">
+      <c r="O36" s="7">
         <v>2379904</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="23">
+    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="23">
         <v>2022</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C37" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="8">
-        <f t="shared" si="1"/>
+      <c r="D37" s="8">
+        <f t="shared" si="2"/>
         <v>5450271</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E37" s="4">
         <v>13206</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F37" s="4">
         <v>32413</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G37" s="4">
         <v>1137873</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H37" s="4">
         <v>485288</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4">
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4">
         <v>20444</v>
       </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4">
+      <c r="L37" s="4"/>
+      <c r="M37" s="4">
         <v>30333</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N37" s="4">
         <v>1443642</v>
       </c>
-      <c r="O36" s="4">
+      <c r="O37" s="4">
         <v>2287072</v>
       </c>
     </row>
-    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="21">
+    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="21">
         <v>2022</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C38" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="9">
-        <f t="shared" si="1"/>
+      <c r="D38" s="9">
+        <f t="shared" si="2"/>
         <v>4335053</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E38" s="7">
         <v>10775</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F38" s="7">
         <v>26979</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G38" s="7">
         <v>817221</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H38" s="7">
         <v>400280</v>
       </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7">
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7">
         <v>14632</v>
       </c>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7">
+      <c r="L38" s="7"/>
+      <c r="M38" s="7">
         <v>22836</v>
       </c>
-      <c r="N37" s="7">
+      <c r="N38" s="7">
         <v>1113977</v>
       </c>
-      <c r="O37" s="7">
+      <c r="O38" s="7">
         <v>1928353</v>
       </c>
     </row>
-    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="25">
+    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="25">
         <v>2022</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C39" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="10">
-        <f t="shared" si="1"/>
+      <c r="D39" s="10">
+        <f t="shared" si="2"/>
         <v>4754587</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E39" s="6">
         <v>10351</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F39" s="6">
         <v>35019</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G39" s="6">
         <v>851918</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H39" s="6">
         <v>400866</v>
       </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6">
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6">
         <v>19731</v>
       </c>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6">
+      <c r="L39" s="6"/>
+      <c r="M39" s="6">
         <v>22335</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N39" s="6">
         <v>1322859</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O39" s="6">
         <v>2091508</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="27">
+    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="27">
         <v>2021</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C40" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="11">
-        <f t="shared" si="1"/>
+      <c r="D40" s="11">
+        <f t="shared" si="2"/>
         <v>5788606</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E40" s="12">
         <v>12597</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F40" s="12">
         <v>48986</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G40" s="12">
         <v>1194196</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H40" s="12">
         <v>531737</v>
       </c>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12">
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12">
         <v>41564</v>
       </c>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12">
+      <c r="L40" s="12"/>
+      <c r="M40" s="12">
         <v>32426</v>
       </c>
-      <c r="N39" s="12">
+      <c r="N40" s="12">
         <v>1542449</v>
       </c>
-      <c r="O39" s="12">
+      <c r="O40" s="12">
         <v>2384651</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="23">
+    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="23">
         <v>2021</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C41" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="8">
-        <f t="shared" si="1"/>
+      <c r="D41" s="8">
+        <f t="shared" si="2"/>
         <v>5289729</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E41" s="4">
         <v>11837</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F41" s="4">
         <v>46757</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G41" s="4">
         <v>1056753</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H41" s="4">
         <v>485468</v>
       </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4">
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4">
         <v>32507</v>
       </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4">
+      <c r="L41" s="4"/>
+      <c r="M41" s="4">
         <v>29832</v>
       </c>
-      <c r="N40" s="4">
+      <c r="N41" s="4">
         <v>1406500</v>
       </c>
-      <c r="O40" s="4">
+      <c r="O41" s="4">
         <v>2220075</v>
       </c>
     </row>
-    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="21">
+    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="21">
         <v>2021</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C42" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="9">
-        <f t="shared" si="1"/>
+      <c r="D42" s="9">
+        <f t="shared" si="2"/>
         <v>5118685</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E42" s="7">
         <v>14115</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F42" s="7">
         <v>45703</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G42" s="7">
         <v>1034177</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H42" s="7">
         <v>510398</v>
       </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7">
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7">
         <v>28313</v>
       </c>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7">
+      <c r="L42" s="7"/>
+      <c r="M42" s="7">
         <v>31649</v>
       </c>
-      <c r="N41" s="7">
+      <c r="N42" s="7">
         <v>1355918</v>
       </c>
-      <c r="O41" s="7">
+      <c r="O42" s="7">
         <v>2098412</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="23">
+    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="23">
         <v>2021</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C43" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="8">
-        <f t="shared" ref="D42:D73" si="2">SUM(E42:O42)</f>
+      <c r="D43" s="8">
+        <f t="shared" ref="D43:D74" si="3">SUM(E43:O43)</f>
         <v>4470649</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E43" s="4">
         <v>12872</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F43" s="4">
         <v>42716</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G43" s="4">
         <v>893242</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H43" s="4">
         <v>444101</v>
       </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4">
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4">
         <v>24490</v>
       </c>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4">
+      <c r="L43" s="4"/>
+      <c r="M43" s="4">
         <v>25901</v>
       </c>
-      <c r="N42" s="4">
+      <c r="N43" s="4">
         <v>1153271</v>
       </c>
-      <c r="O42" s="4">
+      <c r="O43" s="4">
         <v>1874056</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="21">
+    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="21">
         <v>2021</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C44" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="9">
-        <f t="shared" si="2"/>
+      <c r="D44" s="9">
+        <f t="shared" si="3"/>
         <v>5008604</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E44" s="7">
         <v>12792</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F44" s="7">
         <v>47119</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G44" s="7">
         <v>993427</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H44" s="7">
         <v>524484</v>
       </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7">
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7">
         <v>35479</v>
       </c>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7">
+      <c r="L44" s="7"/>
+      <c r="M44" s="7">
         <v>26034</v>
       </c>
-      <c r="N43" s="7">
+      <c r="N44" s="7">
         <v>1305965</v>
       </c>
-      <c r="O43" s="7">
+      <c r="O44" s="7">
         <v>2063304</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="23">
+    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="23">
         <v>2021</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C45" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="8">
-        <f t="shared" si="2"/>
+      <c r="D45" s="8">
+        <f t="shared" si="3"/>
         <v>5456169</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E45" s="4">
         <v>15216</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F45" s="4">
         <v>53005</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G45" s="4">
         <v>1058956</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H45" s="4">
         <v>590598</v>
       </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4">
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4">
         <v>64029</v>
       </c>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4">
+      <c r="L45" s="4"/>
+      <c r="M45" s="4">
         <v>30912</v>
       </c>
-      <c r="N44" s="4">
+      <c r="N45" s="4">
         <v>1503552</v>
       </c>
-      <c r="O44" s="4">
+      <c r="O45" s="4">
         <v>2139901</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="21">
+    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="21">
         <v>2021</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C46" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="9">
-        <f t="shared" si="2"/>
+      <c r="D46" s="9">
+        <f t="shared" si="3"/>
         <v>4784013</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E46" s="7">
         <v>15389</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F46" s="7">
         <v>43733</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G46" s="7">
         <v>853708</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H46" s="7">
         <v>536816</v>
       </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7">
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7">
         <v>54554</v>
       </c>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7">
+      <c r="L46" s="7"/>
+      <c r="M46" s="7">
         <v>23167</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N46" s="7">
         <v>1288126</v>
       </c>
-      <c r="O45" s="7">
+      <c r="O46" s="7">
         <v>1968520</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="23">
+    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="23">
         <v>2021</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C47" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="8">
-        <f t="shared" si="2"/>
+      <c r="D47" s="8">
+        <f t="shared" si="3"/>
         <v>4739036</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E47" s="4">
         <v>16431</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F47" s="4">
         <v>40566</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G47" s="4">
         <v>804638</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H47" s="4">
         <v>535959</v>
       </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4">
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4">
         <v>45166</v>
       </c>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4">
+      <c r="L47" s="4"/>
+      <c r="M47" s="4">
         <v>20712</v>
       </c>
-      <c r="N46" s="4">
+      <c r="N47" s="4">
         <v>1283475</v>
       </c>
-      <c r="O46" s="4">
+      <c r="O47" s="4">
         <v>1992089</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="21">
+    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="21">
         <v>2021</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C48" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="9">
-        <f t="shared" si="2"/>
+      <c r="D48" s="9">
+        <f t="shared" si="3"/>
         <v>4139956</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E48" s="7">
         <v>13432</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F48" s="7">
         <v>34786</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G48" s="7">
         <v>729359</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H48" s="7">
         <v>459115</v>
       </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7">
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7">
         <v>37963</v>
       </c>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7">
+      <c r="L48" s="7"/>
+      <c r="M48" s="7">
         <v>19899</v>
       </c>
-      <c r="N47" s="7">
+      <c r="N48" s="7">
         <v>1098291</v>
       </c>
-      <c r="O47" s="7">
+      <c r="O48" s="7">
         <v>1747111</v>
       </c>
     </row>
-    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="23">
+    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="23">
         <v>2021</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C49" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="8">
-        <f t="shared" si="2"/>
+      <c r="D49" s="8">
+        <f t="shared" si="3"/>
         <v>3643233</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E49" s="4">
         <v>13443</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F49" s="4">
         <v>34472</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G49" s="4">
         <v>700282</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H49" s="4">
         <v>454696</v>
       </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4">
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4">
         <v>25539</v>
       </c>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4">
+      <c r="L49" s="4"/>
+      <c r="M49" s="4">
         <v>18739</v>
       </c>
-      <c r="N48" s="4">
+      <c r="N49" s="4">
         <v>1015276</v>
       </c>
-      <c r="O48" s="4">
+      <c r="O49" s="4">
         <v>1380786</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="21">
+    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="21">
         <v>2021</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C50" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="9">
-        <f t="shared" si="2"/>
+      <c r="D50" s="9">
+        <f t="shared" si="3"/>
         <v>2522697</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E50" s="7">
         <v>8230</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F50" s="7">
         <v>21876</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G50" s="7">
         <v>521896</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H50" s="7">
         <v>365190</v>
       </c>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7">
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7">
         <v>13877</v>
       </c>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7">
+      <c r="L50" s="7"/>
+      <c r="M50" s="7">
         <v>12256</v>
       </c>
-      <c r="N49" s="7">
+      <c r="N50" s="7">
         <v>590075</v>
       </c>
-      <c r="O49" s="7">
+      <c r="O50" s="7">
         <v>989297</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="25">
+    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="25">
         <v>2021</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C51" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="10">
-        <f t="shared" si="2"/>
+      <c r="D51" s="10">
+        <f t="shared" si="3"/>
         <v>3256499</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E51" s="6">
         <v>7181</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F51" s="6">
         <v>25543</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G51" s="6">
         <v>641860</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H51" s="6">
         <v>438330</v>
       </c>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6">
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6">
         <v>19413</v>
       </c>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6">
+      <c r="L51" s="6"/>
+      <c r="M51" s="6">
         <v>13791</v>
       </c>
-      <c r="N50" s="6">
+      <c r="N51" s="6">
         <v>759842</v>
       </c>
-      <c r="O50" s="6">
+      <c r="O51" s="6">
         <v>1350539</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="27">
+    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="27">
         <v>2020</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C52" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="11">
-        <f t="shared" si="2"/>
+      <c r="D52" s="11">
+        <f t="shared" si="3"/>
         <v>3752676</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E52" s="12">
         <v>6626</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F52" s="12">
         <v>32040</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G52" s="12">
         <v>610544</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H52" s="12">
         <v>491905</v>
       </c>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12">
+      <c r="I52" s="12"/>
+      <c r="J52" s="12">
         <v>4039</v>
       </c>
-      <c r="K51" s="12">
+      <c r="K52" s="12">
         <v>45610</v>
       </c>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12">
+      <c r="L52" s="12"/>
+      <c r="M52" s="12">
         <v>17383</v>
       </c>
-      <c r="N51" s="12">
+      <c r="N52" s="12">
         <v>998369</v>
       </c>
-      <c r="O51" s="12">
+      <c r="O52" s="12">
         <v>1546160</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="23">
+    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="23">
         <v>2020</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C53" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="8">
-        <f t="shared" si="2"/>
+      <c r="D53" s="8">
+        <f t="shared" si="3"/>
         <v>3347186</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E53" s="4">
         <v>6583</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F53" s="4">
         <v>28629</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G53" s="4">
         <v>520221</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H53" s="4">
         <v>395967</v>
       </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4">
+      <c r="I53" s="4"/>
+      <c r="J53" s="4">
         <v>17545</v>
       </c>
-      <c r="K52" s="4">
+      <c r="K53" s="4">
         <v>37463</v>
       </c>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4">
+      <c r="L53" s="4"/>
+      <c r="M53" s="4">
         <v>14115</v>
       </c>
-      <c r="N52" s="4">
+      <c r="N53" s="4">
         <v>863224</v>
       </c>
-      <c r="O52" s="4">
+      <c r="O53" s="4">
         <v>1463439</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="21">
+    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="21">
         <v>2020</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C54" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="9">
-        <f t="shared" si="2"/>
+      <c r="D54" s="9">
+        <f t="shared" si="3"/>
         <v>3072785</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E54" s="7">
         <v>5614</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F54" s="7">
         <v>27120</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G54" s="7">
         <v>463245</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H54" s="7">
         <v>395686</v>
       </c>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7">
+      <c r="I54" s="7"/>
+      <c r="J54" s="7">
         <v>33425</v>
       </c>
-      <c r="K53" s="7">
+      <c r="K54" s="7">
         <v>29759</v>
       </c>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7">
+      <c r="L54" s="7"/>
+      <c r="M54" s="7">
         <v>14897</v>
       </c>
-      <c r="N53" s="7">
+      <c r="N54" s="7">
         <v>803614</v>
       </c>
-      <c r="O53" s="7">
+      <c r="O54" s="7">
         <v>1299425</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="23">
+    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="23">
         <v>2020</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C55" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="8">
-        <f t="shared" si="2"/>
+      <c r="D55" s="8">
+        <f t="shared" si="3"/>
         <v>2614973</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E55" s="4">
         <v>4853</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F55" s="4">
         <v>21371</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G55" s="4">
         <v>371636</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H55" s="4">
         <v>325704</v>
       </c>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4">
+      <c r="I55" s="4"/>
+      <c r="J55" s="4">
         <v>41547</v>
       </c>
-      <c r="K54" s="4">
+      <c r="K55" s="4">
         <v>30615</v>
       </c>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4">
+      <c r="L55" s="4"/>
+      <c r="M55" s="4">
         <v>11615</v>
       </c>
-      <c r="N54" s="4">
+      <c r="N55" s="4">
         <v>665331</v>
       </c>
-      <c r="O54" s="4">
+      <c r="O55" s="4">
         <v>1142301</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="21">
+    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="21">
         <v>2020</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C56" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="9">
-        <f t="shared" si="2"/>
+      <c r="D56" s="9">
+        <f t="shared" si="3"/>
         <v>2423904</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E56" s="7">
         <v>3748</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F56" s="7">
         <v>22617</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G56" s="7">
         <v>322580</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H56" s="7">
         <v>310616</v>
       </c>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7">
+      <c r="I56" s="7"/>
+      <c r="J56" s="7">
         <v>38737</v>
       </c>
-      <c r="K55" s="7">
+      <c r="K56" s="7">
         <v>30641</v>
       </c>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7">
+      <c r="L56" s="7"/>
+      <c r="M56" s="7">
         <v>7400</v>
       </c>
-      <c r="N55" s="7">
+      <c r="N56" s="7">
         <v>586367</v>
       </c>
-      <c r="O55" s="7">
+      <c r="O56" s="7">
         <v>1101198</v>
       </c>
     </row>
-    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="23">
+    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="23">
         <v>2020</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C57" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="8">
-        <f t="shared" si="2"/>
+      <c r="D57" s="8">
+        <f t="shared" si="3"/>
         <v>1910823</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E57" s="4">
         <v>3082</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F57" s="4">
         <v>18259</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G57" s="4">
         <v>251899</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H57" s="4">
         <v>254505</v>
       </c>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4">
+      <c r="I57" s="4"/>
+      <c r="J57" s="4">
         <v>38811</v>
       </c>
-      <c r="K56" s="4">
+      <c r="K57" s="4">
         <v>24630</v>
       </c>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4">
+      <c r="L57" s="4"/>
+      <c r="M57" s="4">
         <v>4178</v>
       </c>
-      <c r="N56" s="4">
+      <c r="N57" s="4">
         <v>418350</v>
       </c>
-      <c r="O56" s="4">
+      <c r="O57" s="4">
         <v>897109</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="21">
+    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="21">
         <v>2020</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C58" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="9">
-        <f t="shared" si="2"/>
+      <c r="D58" s="9">
+        <f t="shared" si="3"/>
         <v>996346</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E58" s="7">
         <v>1927</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F58" s="7">
         <v>9051</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G58" s="7">
         <v>140991</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H58" s="7">
         <v>97306</v>
       </c>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7">
+      <c r="I58" s="7"/>
+      <c r="J58" s="7">
         <v>24942</v>
       </c>
-      <c r="K57" s="7">
+      <c r="K58" s="7">
         <v>5002</v>
       </c>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7">
+      <c r="L58" s="7"/>
+      <c r="M58" s="7">
         <v>2168</v>
       </c>
-      <c r="N57" s="7">
+      <c r="N58" s="7">
         <v>201937</v>
       </c>
-      <c r="O57" s="7">
+      <c r="O58" s="7">
         <v>513022</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="23">
+    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="23">
         <v>2020</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C59" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="8">
-        <f t="shared" si="2"/>
+      <c r="D59" s="8">
+        <f t="shared" si="3"/>
         <v>410766</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E59" s="4">
         <v>1324</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F59" s="4">
         <v>4688</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G59" s="4">
         <v>50801</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H59" s="4">
         <v>80478</v>
       </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4">
+      <c r="I59" s="4"/>
+      <c r="J59" s="4">
         <v>14835</v>
       </c>
-      <c r="K58" s="4">
+      <c r="K59" s="4">
         <v>0</v>
       </c>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4">
+      <c r="L59" s="4"/>
+      <c r="M59" s="4">
         <v>1040</v>
       </c>
-      <c r="N58" s="4">
+      <c r="N59" s="4">
         <v>90419</v>
       </c>
-      <c r="O58" s="4">
+      <c r="O59" s="4">
         <v>167181</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="21">
+    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="21">
         <v>2020</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C60" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="9">
-        <f t="shared" si="2"/>
+      <c r="D60" s="9">
+        <f t="shared" si="3"/>
         <v>449003</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E60" s="7">
         <v>1164</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F60" s="7">
         <v>2668</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G60" s="7">
         <v>60744</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H60" s="7">
         <v>86523</v>
       </c>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7">
+      <c r="I60" s="7"/>
+      <c r="J60" s="7">
         <v>25068</v>
       </c>
-      <c r="K59" s="7">
+      <c r="K60" s="7">
         <v>705</v>
       </c>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7">
+      <c r="L60" s="7"/>
+      <c r="M60" s="7">
         <v>485</v>
       </c>
-      <c r="N59" s="7">
+      <c r="N60" s="7">
         <v>89915</v>
       </c>
-      <c r="O59" s="7">
+      <c r="O60" s="7">
         <v>181731</v>
       </c>
     </row>
-    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="23">
+    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="23">
         <v>2020</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C61" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="8">
-        <f t="shared" si="2"/>
+      <c r="D61" s="8">
+        <f t="shared" si="3"/>
         <v>3931644</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E61" s="4">
         <v>8791</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F61" s="4">
         <v>41673</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G61" s="4">
         <v>572018</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H61" s="4">
         <v>464064</v>
       </c>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4">
+      <c r="I61" s="4"/>
+      <c r="J61" s="4">
         <v>822187</v>
       </c>
-      <c r="K60" s="4">
+      <c r="K61" s="4">
         <v>23248</v>
       </c>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4">
+      <c r="L61" s="4"/>
+      <c r="M61" s="4">
         <v>26274</v>
       </c>
-      <c r="N60" s="4">
+      <c r="N61" s="4">
         <v>704638</v>
       </c>
-      <c r="O60" s="4">
+      <c r="O61" s="4">
         <v>1268751</v>
       </c>
     </row>
-    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="21">
+    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="21">
         <v>2020</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C62" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="9">
-        <f t="shared" si="2"/>
+      <c r="D62" s="9">
+        <f t="shared" si="3"/>
         <v>5315967</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E62" s="7">
         <v>10857</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F62" s="7">
         <v>59357</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G62" s="7">
         <v>846279</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H62" s="7">
         <v>641873</v>
       </c>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7">
+      <c r="I62" s="7"/>
+      <c r="J62" s="7">
         <v>1178801</v>
       </c>
-      <c r="K61" s="7">
+      <c r="K62" s="7">
         <v>26652</v>
       </c>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7">
+      <c r="L62" s="7"/>
+      <c r="M62" s="7">
         <v>36382</v>
       </c>
-      <c r="N61" s="7">
+      <c r="N62" s="7">
         <v>881600</v>
       </c>
-      <c r="O61" s="7">
+      <c r="O62" s="7">
         <v>1634166</v>
       </c>
     </row>
-    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="25">
+    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="25">
         <v>2020</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C63" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="10">
-        <f t="shared" si="2"/>
+      <c r="D63" s="10">
+        <f t="shared" si="3"/>
         <v>5907035</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E63" s="6">
         <v>13840</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F63" s="6">
         <v>68044</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G63" s="6">
         <v>961808</v>
       </c>
-      <c r="H62" s="6">
+      <c r="H63" s="6">
         <v>680707</v>
       </c>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6">
+      <c r="I63" s="6"/>
+      <c r="J63" s="6">
         <v>1315599</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K63" s="6">
         <v>47575</v>
       </c>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6">
+      <c r="L63" s="6"/>
+      <c r="M63" s="6">
         <v>40620</v>
       </c>
-      <c r="N62" s="6">
+      <c r="N63" s="6">
         <v>980414</v>
       </c>
-      <c r="O62" s="6">
+      <c r="O63" s="6">
         <v>1798428</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="27">
+    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="27">
         <v>2019</v>
       </c>
-      <c r="C63" s="28" t="s">
+      <c r="C64" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="11">
-        <f t="shared" si="2"/>
+      <c r="D64" s="11">
+        <f t="shared" si="3"/>
         <v>6305291</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E64" s="12">
         <v>14577</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F64" s="12">
         <v>79686</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G64" s="12">
         <v>1001613</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H64" s="12">
         <v>756331</v>
       </c>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12">
+      <c r="I64" s="12"/>
+      <c r="J64" s="12">
         <v>1419527</v>
       </c>
-      <c r="K63" s="12">
+      <c r="K64" s="12">
         <v>72539</v>
       </c>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12">
+      <c r="L64" s="12"/>
+      <c r="M64" s="12">
         <v>45759</v>
       </c>
-      <c r="N63" s="12">
+      <c r="N64" s="12">
         <v>1083272</v>
       </c>
-      <c r="O63" s="12">
+      <c r="O64" s="12">
         <v>1831987</v>
       </c>
     </row>
-    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="23">
+    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="23">
         <v>2019</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C65" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="8">
-        <f t="shared" si="2"/>
+      <c r="D65" s="8">
+        <f t="shared" si="3"/>
         <v>5933699</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E65" s="4">
         <v>15593</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F65" s="4">
         <v>73513</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G65" s="4">
         <v>938515</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H65" s="4">
         <v>697055</v>
       </c>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4">
+      <c r="I65" s="4"/>
+      <c r="J65" s="4">
         <v>1349425</v>
       </c>
-      <c r="K64" s="4">
+      <c r="K65" s="4">
         <v>54165</v>
       </c>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4">
+      <c r="L65" s="4"/>
+      <c r="M65" s="4">
         <v>41740</v>
       </c>
-      <c r="N64" s="4">
+      <c r="N65" s="4">
         <v>1014931</v>
       </c>
-      <c r="O64" s="4">
+      <c r="O65" s="4">
         <v>1748762</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="21">
+    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="21">
         <v>2019</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C66" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="9">
-        <f t="shared" si="2"/>
+      <c r="D66" s="9">
+        <f t="shared" si="3"/>
         <v>5863191</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E66" s="7">
         <v>19701</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F66" s="7">
         <v>67349</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G66" s="7">
         <v>957393</v>
       </c>
-      <c r="H65" s="7">
+      <c r="H66" s="7">
         <v>740956</v>
       </c>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7">
+      <c r="I66" s="7"/>
+      <c r="J66" s="7">
         <v>1232933</v>
       </c>
-      <c r="K65" s="7">
+      <c r="K66" s="7">
         <v>57392</v>
       </c>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7">
+      <c r="L66" s="7"/>
+      <c r="M66" s="7">
         <v>40850</v>
       </c>
-      <c r="N65" s="7">
+      <c r="N66" s="7">
         <v>1022260</v>
       </c>
-      <c r="O65" s="7">
+      <c r="O66" s="7">
         <v>1724357</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="23">
+    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="23">
         <v>2019</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C67" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D66" s="8">
-        <f t="shared" si="2"/>
+      <c r="D67" s="8">
+        <f t="shared" si="3"/>
         <v>5409755</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E67" s="4">
         <v>15863</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F67" s="4">
         <v>61156</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G67" s="4">
         <v>897733</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H67" s="4">
         <v>677299</v>
       </c>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4">
+      <c r="I67" s="4"/>
+      <c r="J67" s="4">
         <v>1115654</v>
       </c>
-      <c r="K66" s="4">
+      <c r="K67" s="4">
         <v>61638</v>
       </c>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4">
+      <c r="L67" s="4"/>
+      <c r="M67" s="4">
         <v>42002</v>
       </c>
-      <c r="N66" s="4">
+      <c r="N67" s="4">
         <v>922290</v>
       </c>
-      <c r="O66" s="4">
+      <c r="O67" s="4">
         <v>1616120</v>
       </c>
     </row>
-    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="21">
+    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="21">
         <v>2019</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C68" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D67" s="9">
-        <f t="shared" si="2"/>
+      <c r="D68" s="9">
+        <f t="shared" si="3"/>
         <v>6259657</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E68" s="7">
         <v>22090</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F68" s="7">
         <v>68824</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G68" s="7">
         <v>1001754</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H68" s="7">
         <v>777867</v>
       </c>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7">
+      <c r="I68" s="7"/>
+      <c r="J68" s="7">
         <v>1395254</v>
       </c>
-      <c r="K67" s="7">
+      <c r="K68" s="7">
         <v>88036</v>
       </c>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7">
+      <c r="L68" s="7"/>
+      <c r="M68" s="7">
         <v>47511</v>
       </c>
-      <c r="N67" s="7">
+      <c r="N68" s="7">
         <v>1112562</v>
       </c>
-      <c r="O67" s="7">
+      <c r="O68" s="7">
         <v>1745759</v>
       </c>
     </row>
-    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="23">
+    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="23">
         <v>2019</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C69" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D68" s="8">
-        <f t="shared" si="2"/>
+      <c r="D69" s="8">
+        <f t="shared" si="3"/>
         <v>6643948</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E69" s="4">
         <v>24398</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F69" s="4">
         <v>75738</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G69" s="4">
         <v>1056905</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H69" s="4">
         <v>847525</v>
       </c>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4">
+      <c r="I69" s="4"/>
+      <c r="J69" s="4">
         <v>1440396</v>
       </c>
-      <c r="K68" s="4">
+      <c r="K69" s="4">
         <v>112757</v>
       </c>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4">
+      <c r="L69" s="4"/>
+      <c r="M69" s="4">
         <v>53404</v>
       </c>
-      <c r="N68" s="4">
+      <c r="N69" s="4">
         <v>1151999</v>
       </c>
-      <c r="O68" s="4">
+      <c r="O69" s="4">
         <v>1880826</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="21">
+    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="21">
         <v>2019</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C70" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="9">
-        <f t="shared" si="2"/>
+      <c r="D70" s="9">
+        <f t="shared" si="3"/>
         <v>6003625</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E70" s="7">
         <v>24034</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F70" s="7">
         <v>65120</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G70" s="7">
         <v>968584</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H70" s="7">
         <v>772914</v>
       </c>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7">
+      <c r="I70" s="7"/>
+      <c r="J70" s="7">
         <v>1315938</v>
       </c>
-      <c r="K69" s="7">
+      <c r="K70" s="7">
         <v>90790</v>
       </c>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7">
+      <c r="L70" s="7"/>
+      <c r="M70" s="7">
         <v>47162</v>
       </c>
-      <c r="N69" s="7">
+      <c r="N70" s="7">
         <v>974523</v>
       </c>
-      <c r="O69" s="7">
+      <c r="O70" s="7">
         <v>1744560</v>
       </c>
     </row>
-    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="23">
+    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="23">
         <v>2019</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C71" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="8">
-        <f t="shared" si="2"/>
+      <c r="D71" s="8">
+        <f t="shared" si="3"/>
         <v>6066733</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E71" s="4">
         <v>24578</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F71" s="4">
         <v>61163</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G71" s="4">
         <v>976676</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H71" s="4">
         <v>788262</v>
       </c>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4">
+      <c r="I71" s="4"/>
+      <c r="J71" s="4">
         <v>1373059</v>
       </c>
-      <c r="K70" s="4">
+      <c r="K71" s="4">
         <v>74030</v>
       </c>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4">
+      <c r="L71" s="4"/>
+      <c r="M71" s="4">
         <v>51746</v>
       </c>
-      <c r="N70" s="4">
+      <c r="N71" s="4">
         <v>931984</v>
       </c>
-      <c r="O70" s="4">
+      <c r="O71" s="4">
         <v>1785235</v>
       </c>
     </row>
-    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="21">
+    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="21">
         <v>2019</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C72" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="9">
-        <f t="shared" si="2"/>
+      <c r="D72" s="9">
+        <f t="shared" si="3"/>
         <v>5766967</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E72" s="7">
         <v>26137</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F72" s="7">
         <v>63912</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G72" s="7">
         <v>935481</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H72" s="7">
         <v>737722</v>
       </c>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7">
+      <c r="I72" s="7"/>
+      <c r="J72" s="7">
         <v>1282012</v>
       </c>
-      <c r="K71" s="7">
+      <c r="K72" s="7">
         <v>54469</v>
       </c>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7">
+      <c r="L72" s="7"/>
+      <c r="M72" s="7">
         <v>50399</v>
       </c>
-      <c r="N71" s="7">
+      <c r="N72" s="7">
         <v>893208</v>
       </c>
-      <c r="O71" s="7">
+      <c r="O72" s="7">
         <v>1723627</v>
       </c>
     </row>
-    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="23">
+    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="23">
         <v>2019</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C73" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D72" s="8">
-        <f t="shared" si="2"/>
+      <c r="D73" s="8">
+        <f t="shared" si="3"/>
         <v>5617314</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E73" s="4">
         <v>24631</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F73" s="4">
         <v>66177</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G73" s="4">
         <v>991931</v>
       </c>
-      <c r="H72" s="4">
+      <c r="H73" s="4">
         <v>774790</v>
       </c>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4">
+      <c r="I73" s="4"/>
+      <c r="J73" s="4">
         <v>1245949</v>
       </c>
-      <c r="K72" s="4">
+      <c r="K73" s="4">
         <v>40758</v>
       </c>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4">
+      <c r="L73" s="4"/>
+      <c r="M73" s="4">
         <v>49242</v>
       </c>
-      <c r="N72" s="4">
+      <c r="N73" s="4">
         <v>767922</v>
       </c>
-      <c r="O72" s="4">
+      <c r="O73" s="4">
         <v>1655914</v>
       </c>
     </row>
-    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="21">
+    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="21">
         <v>2019</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C74" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="9">
-        <f t="shared" si="2"/>
+      <c r="D74" s="9">
+        <f t="shared" si="3"/>
         <v>4697667</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E74" s="7">
         <v>20074</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F74" s="7">
         <v>57946</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G74" s="7">
         <v>888111</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H74" s="7">
         <v>647818</v>
       </c>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7">
+      <c r="I74" s="7"/>
+      <c r="J74" s="7">
         <v>1002798</v>
       </c>
-      <c r="K73" s="7">
+      <c r="K74" s="7">
         <v>31139</v>
       </c>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7">
+      <c r="L74" s="7"/>
+      <c r="M74" s="7">
         <v>40877</v>
       </c>
-      <c r="N73" s="7">
+      <c r="N74" s="7">
         <v>617809</v>
       </c>
-      <c r="O73" s="7">
+      <c r="O74" s="7">
         <v>1391095</v>
       </c>
     </row>
-    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="25">
+    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="25">
         <v>2019</v>
       </c>
-      <c r="C74" s="26" t="s">
+      <c r="C75" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="10">
-        <f t="shared" ref="D74:D86" si="3">SUM(E74:O74)</f>
+      <c r="D75" s="10">
+        <f t="shared" ref="D75:D87" si="4">SUM(E75:O75)</f>
         <v>5369991</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E75" s="6">
         <v>24399</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F75" s="6">
         <v>59133</v>
       </c>
-      <c r="G74" s="6">
+      <c r="G75" s="6">
         <v>1017714</v>
       </c>
-      <c r="H74" s="6">
+      <c r="H75" s="6">
         <v>718168</v>
       </c>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6">
+      <c r="I75" s="6"/>
+      <c r="J75" s="6">
         <v>1143850</v>
       </c>
-      <c r="K74" s="6">
+      <c r="K75" s="6">
         <v>45885</v>
       </c>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6">
+      <c r="L75" s="6"/>
+      <c r="M75" s="6">
         <v>45704</v>
       </c>
-      <c r="N74" s="6">
+      <c r="N75" s="6">
         <v>787962</v>
       </c>
-      <c r="O74" s="6">
+      <c r="O75" s="6">
         <v>1527176</v>
       </c>
     </row>
-    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="22">
+    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="22">
         <v>2018</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C76" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D75" s="9">
-        <f t="shared" si="3"/>
+      <c r="D76" s="9">
+        <f t="shared" si="4"/>
         <v>5844697</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E76" s="7">
         <v>25513</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F76" s="7">
         <v>64369</v>
       </c>
-      <c r="G75" s="7">
+      <c r="G76" s="7">
         <v>1071044</v>
       </c>
-      <c r="H75" s="7">
+      <c r="H76" s="7">
         <v>804521</v>
       </c>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7">
+      <c r="I76" s="7"/>
+      <c r="J76" s="7">
         <v>1232404</v>
       </c>
-      <c r="K75" s="7">
+      <c r="K76" s="7">
         <v>78800</v>
       </c>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7">
+      <c r="L76" s="7"/>
+      <c r="M76" s="7">
         <v>50423</v>
       </c>
-      <c r="N75" s="7">
+      <c r="N76" s="7">
         <v>905477</v>
       </c>
-      <c r="O75" s="7">
+      <c r="O76" s="7">
         <v>1612146</v>
       </c>
     </row>
-    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="24">
+    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="24">
         <v>2018</v>
       </c>
-      <c r="C76" s="24" t="s">
+      <c r="C77" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D76" s="8">
-        <f t="shared" si="3"/>
+      <c r="D77" s="8">
+        <f t="shared" si="4"/>
         <v>5548187</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E77" s="4">
         <v>24593</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F77" s="4">
         <v>68160</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G77" s="4">
         <v>1004506</v>
       </c>
-      <c r="H76" s="4">
+      <c r="H77" s="4">
         <v>761656</v>
       </c>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4">
+      <c r="I77" s="4"/>
+      <c r="J77" s="4">
         <v>1214579</v>
       </c>
-      <c r="K76" s="4">
+      <c r="K77" s="4">
         <v>70291</v>
       </c>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4">
+      <c r="L77" s="4"/>
+      <c r="M77" s="4">
         <v>52654</v>
       </c>
-      <c r="N76" s="4">
+      <c r="N77" s="4">
         <v>844104</v>
       </c>
-      <c r="O76" s="4">
+      <c r="O77" s="4">
         <v>1507644</v>
       </c>
     </row>
-    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="22">
+    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="22">
         <v>2018</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C78" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D77" s="9">
-        <f t="shared" si="3"/>
+      <c r="D78" s="9">
+        <f t="shared" si="4"/>
         <v>5436017</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E78" s="7">
         <v>23163</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F78" s="7">
         <v>67739</v>
       </c>
-      <c r="G77" s="7">
+      <c r="G78" s="7">
         <v>1006759</v>
       </c>
-      <c r="H77" s="7">
+      <c r="H78" s="7">
         <v>779871</v>
       </c>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7">
+      <c r="I78" s="7"/>
+      <c r="J78" s="7">
         <v>1170513</v>
       </c>
-      <c r="K77" s="7">
+      <c r="K78" s="7">
         <v>65741</v>
       </c>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7">
+      <c r="L78" s="7"/>
+      <c r="M78" s="7">
         <v>52203</v>
       </c>
-      <c r="N77" s="7">
+      <c r="N78" s="7">
         <v>808467</v>
       </c>
-      <c r="O77" s="7">
+      <c r="O78" s="7">
         <v>1461561</v>
       </c>
     </row>
-    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="24">
+    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="24">
         <v>2018</v>
       </c>
-      <c r="C78" s="24" t="s">
+      <c r="C79" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D78" s="8">
-        <f t="shared" si="3"/>
+      <c r="D79" s="8">
+        <f t="shared" si="4"/>
         <v>5031295</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E79" s="4">
         <v>21054</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F79" s="4">
         <v>57581</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G79" s="4">
         <v>953415</v>
       </c>
-      <c r="H78" s="4">
+      <c r="H79" s="4">
         <v>749609</v>
       </c>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4">
+      <c r="I79" s="4"/>
+      <c r="J79" s="4">
         <v>1042581</v>
       </c>
-      <c r="K78" s="4">
+      <c r="K79" s="4">
         <v>61896</v>
       </c>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4">
+      <c r="L79" s="4"/>
+      <c r="M79" s="4">
         <v>46860</v>
       </c>
-      <c r="N78" s="4">
+      <c r="N79" s="4">
         <v>767606</v>
       </c>
-      <c r="O78" s="4">
+      <c r="O79" s="4">
         <v>1330693</v>
       </c>
     </row>
-    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="22">
+    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="22">
         <v>2018</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C80" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D79" s="9">
-        <f t="shared" si="3"/>
+      <c r="D80" s="9">
+        <f t="shared" si="4"/>
         <v>5768371</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E80" s="7">
         <v>27838</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F80" s="7">
         <v>63083</v>
       </c>
-      <c r="G79" s="7">
+      <c r="G80" s="7">
         <v>1074998</v>
       </c>
-      <c r="H79" s="7">
+      <c r="H80" s="7">
         <v>852980</v>
       </c>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7">
+      <c r="I80" s="7"/>
+      <c r="J80" s="7">
         <v>1233129</v>
       </c>
-      <c r="K79" s="7">
+      <c r="K80" s="7">
         <v>104695</v>
       </c>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7">
+      <c r="L80" s="7"/>
+      <c r="M80" s="7">
         <v>54110</v>
       </c>
-      <c r="N79" s="7">
+      <c r="N80" s="7">
         <v>921277</v>
       </c>
-      <c r="O79" s="7">
+      <c r="O80" s="7">
         <v>1436261</v>
       </c>
     </row>
-    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="24">
+    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="24">
         <v>2018</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="C81" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="8">
-        <f t="shared" si="3"/>
+      <c r="D81" s="8">
+        <f t="shared" si="4"/>
         <v>6140662</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E81" s="4">
         <v>32903</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F81" s="4">
         <v>56167</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G81" s="4">
         <v>1179423</v>
       </c>
-      <c r="H80" s="4">
+      <c r="H81" s="4">
         <v>895787</v>
       </c>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4">
+      <c r="I81" s="4"/>
+      <c r="J81" s="4">
         <v>1280292</v>
       </c>
-      <c r="K80" s="4">
+      <c r="K81" s="4">
         <v>110733</v>
       </c>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4">
+      <c r="L81" s="4"/>
+      <c r="M81" s="4">
         <v>58466</v>
       </c>
-      <c r="N80" s="4">
+      <c r="N81" s="4">
         <v>944861</v>
       </c>
-      <c r="O80" s="4">
+      <c r="O81" s="4">
         <v>1582030</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="22">
+    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="22">
         <v>2018</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C82" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="9">
-        <f t="shared" si="3"/>
+      <c r="D82" s="9">
+        <f t="shared" si="4"/>
         <v>5347432</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E82" s="7">
         <v>26323</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F82" s="7">
         <v>46065</v>
       </c>
-      <c r="G81" s="7">
+      <c r="G82" s="7">
         <v>1036698</v>
       </c>
-      <c r="H81" s="7">
+      <c r="H82" s="7">
         <v>815293</v>
       </c>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7">
+      <c r="I82" s="7"/>
+      <c r="J82" s="7">
         <v>1141203</v>
       </c>
-      <c r="K81" s="7">
+      <c r="K82" s="7">
         <v>75066</v>
       </c>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7">
+      <c r="L82" s="7"/>
+      <c r="M82" s="7">
         <v>48032</v>
       </c>
-      <c r="N81" s="7">
+      <c r="N82" s="7">
         <v>768437</v>
       </c>
-      <c r="O81" s="7">
+      <c r="O82" s="7">
         <v>1390315</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="24">
+    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="24">
         <v>2018</v>
       </c>
-      <c r="C82" s="24" t="s">
+      <c r="C83" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="8">
-        <f t="shared" si="3"/>
+      <c r="D83" s="8">
+        <f t="shared" si="4"/>
         <v>5369812</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E83" s="4">
         <v>26212</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F83" s="4">
         <v>54265</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G83" s="4">
         <v>1033321</v>
       </c>
-      <c r="H82" s="4">
+      <c r="H83" s="4">
         <v>780048</v>
       </c>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4">
+      <c r="I83" s="4"/>
+      <c r="J83" s="4">
         <v>1201298</v>
       </c>
-      <c r="K82" s="4">
+      <c r="K83" s="4">
         <v>84998</v>
       </c>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4">
+      <c r="L83" s="4"/>
+      <c r="M83" s="4">
         <v>49481</v>
       </c>
-      <c r="N82" s="4">
+      <c r="N83" s="4">
         <v>759447</v>
       </c>
-      <c r="O82" s="4">
+      <c r="O83" s="4">
         <v>1380742</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="22">
+    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="22">
         <v>2018</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C84" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="9">
-        <f t="shared" si="3"/>
+      <c r="D84" s="9">
+        <f t="shared" si="4"/>
         <v>5275071</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E84" s="7">
         <v>25839</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F84" s="7">
         <v>59133</v>
       </c>
-      <c r="G83" s="7">
+      <c r="G84" s="7">
         <v>996415</v>
       </c>
-      <c r="H83" s="7">
+      <c r="H84" s="7">
         <v>794436</v>
       </c>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7">
+      <c r="I84" s="7"/>
+      <c r="J84" s="7">
         <v>1176450</v>
       </c>
-      <c r="K83" s="7">
+      <c r="K84" s="7">
         <v>73805</v>
       </c>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7">
+      <c r="L84" s="7"/>
+      <c r="M84" s="7">
         <v>49795</v>
       </c>
-      <c r="N83" s="7">
+      <c r="N84" s="7">
         <v>730221</v>
       </c>
-      <c r="O83" s="7">
+      <c r="O84" s="7">
         <v>1368977</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="24">
+    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="24">
         <v>2018</v>
       </c>
-      <c r="C84" s="24" t="s">
+      <c r="C85" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D84" s="8">
-        <f t="shared" si="3"/>
+      <c r="D85" s="8">
+        <f t="shared" si="4"/>
         <v>5277344</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E85" s="4">
         <v>29029</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F85" s="4">
         <v>65814</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G85" s="4">
         <v>993548</v>
       </c>
-      <c r="H84" s="4">
+      <c r="H85" s="4">
         <v>797581</v>
       </c>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4">
+      <c r="I85" s="4"/>
+      <c r="J85" s="4">
         <v>1174935</v>
       </c>
-      <c r="K84" s="4">
+      <c r="K85" s="4">
         <v>50611</v>
       </c>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4">
+      <c r="L85" s="4"/>
+      <c r="M85" s="4">
         <v>50043</v>
       </c>
-      <c r="N84" s="4">
+      <c r="N85" s="4">
         <v>723374</v>
       </c>
-      <c r="O84" s="4">
+      <c r="O85" s="4">
         <v>1392409</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="22">
+    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="22">
         <v>2018</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C86" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D85" s="9">
-        <f t="shared" si="3"/>
+      <c r="D86" s="9">
+        <f t="shared" si="4"/>
         <v>4448093</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E86" s="7">
         <v>22962</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F86" s="7">
         <v>59046</v>
       </c>
-      <c r="G85" s="7">
+      <c r="G86" s="7">
         <v>878966</v>
       </c>
-      <c r="H85" s="7">
+      <c r="H86" s="7">
         <v>699650</v>
       </c>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7">
+      <c r="I86" s="7"/>
+      <c r="J86" s="7">
         <v>934030</v>
       </c>
-      <c r="K85" s="7">
+      <c r="K86" s="7">
         <v>39995</v>
       </c>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7">
+      <c r="L86" s="7"/>
+      <c r="M86" s="7">
         <v>44679</v>
       </c>
-      <c r="N85" s="7">
+      <c r="N86" s="7">
         <v>569891</v>
       </c>
-      <c r="O85" s="7">
+      <c r="O86" s="7">
         <v>1198874</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="24">
+    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="24">
         <v>2018</v>
       </c>
-      <c r="C86" s="24" t="s">
+      <c r="C87" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="8">
-        <f t="shared" si="3"/>
+      <c r="D87" s="8">
+        <f t="shared" si="4"/>
         <v>5082659</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E87" s="4">
         <v>24734</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F87" s="4">
         <v>60981</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G87" s="4">
         <v>1021784</v>
       </c>
-      <c r="H86" s="4">
+      <c r="H87" s="4">
         <v>777479</v>
       </c>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4">
+      <c r="I87" s="4"/>
+      <c r="J87" s="4">
         <v>1078923</v>
       </c>
-      <c r="K86" s="4">
+      <c r="K87" s="4">
         <v>55290</v>
       </c>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4">
+      <c r="L87" s="4"/>
+      <c r="M87" s="4">
         <v>47772</v>
       </c>
-      <c r="N86" s="4">
+      <c r="N87" s="4">
         <v>664529</v>
       </c>
-      <c r="O86" s="4">
+      <c r="O87" s="4">
         <v>1351167</v>
       </c>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B87" s="31" t="s">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B88" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C87" s="31"/>
-      <c r="D87" s="32">
-        <f>SUM(E87:O87)</f>
-        <v>0</v>
-      </c>
-      <c r="E87" s="33"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B88" s="16" t="s">
+      <c r="E88"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B89" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="17"/>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B89" s="17" t="s">
+      <c r="C89" s="17"/>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B90" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C89" s="17"/>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B90" s="17" t="s">
+      <c r="C90" s="17"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B91" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C90" s="17"/>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B91" s="17" t="s">
+      <c r="C91" s="17"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B92" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B92" t="s">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="D95" s="16"/>
-    </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D99" s="16"/>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D96" s="16"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Pasajeros_por_aerolinea_nac.xlsx
+++ b/Pasajeros_por_aerolinea_nac.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698C0444-A543-4DB8-91E2-31109742572F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C25F34-61F9-44F7-9820-B251ACBCC39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_31" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -125,19 +125,19 @@
     <t>Dic.</t>
   </si>
   <si>
-    <t xml:space="preserve">  La línea aérea Mexicana comenzó operaciones el 26 de diciembre de 2023.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  La línea aérea Aeromar suspendió operaciones a partir del 16 de febrero de 2023.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  La línea aérea Aerus inició operaciones el 27 de abril de 2023.</t>
-  </si>
-  <si>
     <t>Aerolíneas</t>
   </si>
   <si>
-    <t>Actualización: Octubre 2024.</t>
+    <t>Actualización: Noviembre 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La línea aérea Mexicana comenzó operaciones el 26 de diciembre de 2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La línea aérea Aeromar suspendió operaciones a partir del 16 de febrero de 2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La línea aérea Aerus inició operaciones el 27 de abril de 2023.</t>
   </si>
 </sst>
 </file>
@@ -156,19 +156,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Geomanist"/>
       <family val="2"/>
@@ -182,18 +169,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="minor"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -319,77 +322,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -397,40 +351,250 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
@@ -446,23 +610,56 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Geomanist"/>
-        <scheme val="minor"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -486,42 +683,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Geomanist"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -536,32 +697,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O87" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
-  <autoFilter ref="B5:O87" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O88" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="16" tableBorderDxfId="17">
+  <autoFilter ref="B5:O88" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2023"/>
         <filter val="2024"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{BA0C0B85-5366-4A43-92B4-3E3742FD994D}" name="Mes" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{86077915-C170-40DA-9DB4-19E81910B485}" name="Total" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{BA0C0B85-5366-4A43-92B4-3E3742FD994D}" name="Mes" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{86077915-C170-40DA-9DB4-19E81910B485}" name="Total" dataDxfId="13">
       <calculatedColumnFormula>SUM(E6:O6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Aéreo Calafia" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Aeromar" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aeroméxico (Aerovías de México)" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{A869730C-1719-4A70-8838-10376967FD05}" name="Aeroméxico Connect (Aerolitoral)" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{523CBB34-1DEE-445B-8474-FD8E64117197}" name="Aerus" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{631795EF-E72C-4257-9376-F3F950D2CD24}" name="Interjet (ABC Aerolíneas)" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{7825E645-762A-41A2-B4FE-F68035B408F7}" name="Magnicharters (Grupo Aéreo Monterrey)" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{ABE62262-6A70-4763-8581-1FC262023BDA}" name="Mexicana (Aerolínea del Estado Mexicano)" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{79063C30-2596-43D4-82AD-DC7007BA3E47}" name="Transportes Aéreos Regionales (TAR)" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{CDE1B9AF-E706-4B29-B603-3DCD26E54911}" name="Vivaaerobus (Aeroenlaces)" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{50F53BD2-7347-4FA4-8F64-203C18A4DA6A}" name="Volaris (Concesionaria Vuela Cia de Aviación)" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Aéreo Calafia" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Aeromar" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aeroméxico (Aerovías de México)" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{A869730C-1719-4A70-8838-10376967FD05}" name="Aeroméxico Connect (Aerolitoral)" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{523CBB34-1DEE-445B-8474-FD8E64117197}" name="Aerus" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{631795EF-E72C-4257-9376-F3F950D2CD24}" name="Interjet (ABC Aerolíneas)" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{7825E645-762A-41A2-B4FE-F68035B408F7}" name="Magnicharters (Grupo Aéreo Monterrey)" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{ABE62262-6A70-4763-8581-1FC262023BDA}" name="Mexicana (Aerolínea del Estado Mexicano)" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{79063C30-2596-43D4-82AD-DC7007BA3E47}" name="Transportes Aéreos Regionales (TAR)" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{CDE1B9AF-E706-4B29-B603-3DCD26E54911}" name="Vivaaerobus (Aeroenlaces)" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{50F53BD2-7347-4FA4-8F64-203C18A4DA6A}" name="Volaris (Concesionaria Vuela Cia de Aviación)" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -790,3435 +950,3475 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O100"/>
+  <dimension ref="B2:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="6.875" customWidth="1"/>
-    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:15" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-    </row>
-    <row r="5" spans="2:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="2:15" ht="78" x14ac:dyDescent="0.45">
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="21">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B6" s="13">
         <v>2024</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="15">
+        <f>SUM(E6:O6)</f>
+        <v>6698440</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16">
+        <v>1630210</v>
+      </c>
+      <c r="H6" s="16">
+        <v>378802</v>
+      </c>
+      <c r="I6" s="16">
+        <v>3872</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16">
+        <v>18521</v>
+      </c>
+      <c r="L6" s="16">
+        <v>23922</v>
+      </c>
+      <c r="M6" s="16">
+        <v>14425</v>
+      </c>
+      <c r="N6" s="16">
+        <v>2321101</v>
+      </c>
+      <c r="O6" s="16">
+        <v>2307587</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="9">
-        <f t="shared" ref="D6" si="0">SUM(E6:O6)</f>
+      <c r="D7" s="19">
+        <f t="shared" ref="D7" si="0">SUM(E7:O7)</f>
         <v>6571845</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20">
         <v>1659284</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H7" s="20">
         <v>357763</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I7" s="20">
         <v>4125</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7">
+      <c r="J7" s="20"/>
+      <c r="K7" s="20">
         <v>18874</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L7" s="20">
         <v>22660</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M7" s="20">
         <v>9268</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N7" s="20">
         <v>2210987</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O7" s="20">
         <v>2288884</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="23">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8" s="13">
         <v>2024</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="8">
-        <f>SUM(E7:O7)</f>
+      <c r="D8" s="15">
+        <f>SUM(E8:O8)</f>
         <v>6241021</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16">
         <v>1602332</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H8" s="16">
         <v>357115</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I8" s="16">
         <v>3750</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4">
+      <c r="J8" s="16"/>
+      <c r="K8" s="16">
         <v>16595</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L8" s="16">
         <v>21490</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M8" s="16">
         <v>8152</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N8" s="16">
         <v>2135071</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O8" s="16">
         <v>2096516</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21">
+    <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="17">
         <v>2024</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="9">
-        <f>SUM(E8:O8)</f>
+      <c r="D9" s="19">
+        <f>SUM(E9:O9)</f>
         <v>7122666</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20">
         <v>1846259</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H9" s="20">
         <v>423300</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I9" s="20">
         <v>3350</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7">
+      <c r="J9" s="20"/>
+      <c r="K9" s="20">
         <v>23287</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L9" s="20">
         <v>32823</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M9" s="20">
         <v>13500</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N9" s="20">
         <v>2380847</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O9" s="20">
         <v>2399300</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23">
+    <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="13">
         <v>2024</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="8">
-        <f t="shared" ref="D9:D11" si="1">SUM(E9:O9)</f>
+      <c r="D10" s="15">
+        <f t="shared" ref="D10:D12" si="1">SUM(E10:O10)</f>
         <v>7366092</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="16">
         <v>972</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16">
         <v>1936260</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H10" s="16">
         <v>455999</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I10" s="16">
         <v>2952</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4">
+      <c r="J10" s="16"/>
+      <c r="K10" s="16">
         <v>25726</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L10" s="16">
         <v>35662</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M10" s="16">
         <v>12021</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N10" s="16">
         <v>2421165</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O10" s="16">
         <v>2475335</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21">
+    <row r="11" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="17">
         <v>2024</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="19">
         <f t="shared" si="1"/>
         <v>6546101</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E11" s="20">
         <v>744</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20">
         <v>1681153</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H11" s="20">
         <v>420652</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I11" s="20">
         <v>2495</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7">
+      <c r="J11" s="20"/>
+      <c r="K11" s="20">
         <v>23110</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L11" s="20">
         <v>21518</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M11" s="20">
         <v>10064</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N11" s="20">
         <v>2174929</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O11" s="20">
         <v>2211436</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23">
+    <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="13">
         <v>2024</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="15">
         <f t="shared" si="1"/>
         <v>6589382</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="16">
         <v>820</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
+      <c r="F12" s="16"/>
+      <c r="G12" s="16">
         <v>1727003</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H12" s="16">
         <v>431546</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I12" s="16">
         <v>2633</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4">
+      <c r="J12" s="16"/>
+      <c r="K12" s="16">
         <v>13929</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L12" s="16">
         <v>22186</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M12" s="16">
         <v>11316</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N12" s="16">
         <v>2176419</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O12" s="16">
         <v>2203530</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="21">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="17">
         <v>2024</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="9">
-        <f t="shared" ref="D12:D42" si="2">SUM(E12:O12)</f>
+      <c r="D13" s="19">
+        <f t="shared" ref="D13:D43" si="2">SUM(E13:O13)</f>
         <v>6256107</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E13" s="20">
         <v>1018</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7">
+      <c r="F13" s="20"/>
+      <c r="G13" s="20">
         <v>1647314</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H13" s="20">
         <v>437362</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I13" s="20">
         <v>2451</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7">
+      <c r="J13" s="20"/>
+      <c r="K13" s="20">
         <v>17123</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L13" s="20">
         <v>21899</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M13" s="20">
         <v>13736</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N13" s="20">
         <v>2025760</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O13" s="20">
         <v>2089444</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="23">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="13">
         <v>2024</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="15">
         <f t="shared" si="2"/>
         <v>6265547</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E14" s="16">
         <v>985</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4">
+      <c r="F14" s="16"/>
+      <c r="G14" s="16">
         <v>1663451</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H14" s="16">
         <v>414407</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I14" s="16">
         <v>2426</v>
       </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4">
+      <c r="J14" s="16"/>
+      <c r="K14" s="16">
         <v>16310</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L14" s="16">
         <v>24140</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M14" s="16">
         <v>11984</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N14" s="16">
         <v>2037641</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O14" s="16">
         <v>2094203</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="21">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="17">
         <v>2024</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="19">
         <f t="shared" si="2"/>
         <v>5607014</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E15" s="20">
         <v>703</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7">
+      <c r="F15" s="20"/>
+      <c r="G15" s="20">
         <v>1479121</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H15" s="20">
         <v>395860</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I15" s="20">
         <v>2323</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7">
+      <c r="J15" s="20"/>
+      <c r="K15" s="20">
         <v>11161</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L15" s="20">
         <v>17287</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M15" s="20">
         <v>11768</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N15" s="20">
         <v>1772299</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O15" s="20">
         <v>1916492</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="21">
         <v>2024</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D16" s="23">
         <f t="shared" si="2"/>
         <v>6274620</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="24">
         <v>1102</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6">
+      <c r="F16" s="24"/>
+      <c r="G16" s="24">
         <v>1481216</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H16" s="24">
         <v>490118</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I16" s="24">
         <v>2332</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6">
+      <c r="J16" s="24"/>
+      <c r="K16" s="24">
         <v>14046</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L16" s="24">
         <v>12504</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M16" s="24">
         <v>12424</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N16" s="24">
         <v>2028846</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O16" s="24">
         <v>2232032</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="27">
+    <row r="17" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="25">
         <v>2023</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C17" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="27">
         <f t="shared" si="2"/>
         <v>6943699</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E17" s="28">
         <v>1263</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12">
+      <c r="F17" s="28"/>
+      <c r="G17" s="28">
         <v>1661066</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H17" s="28">
         <v>520344</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I17" s="28">
         <v>2164</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12">
+      <c r="J17" s="28"/>
+      <c r="K17" s="28">
         <v>23295</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L17" s="28">
         <v>1620</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M17" s="28">
         <v>19717</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N17" s="28">
         <v>2180392</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O17" s="28">
         <v>2533838</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="23">
+    <row r="18" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="13">
         <v>2023</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="15">
         <f t="shared" si="2"/>
         <v>6524452</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="16">
         <v>817</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4">
+      <c r="F18" s="16"/>
+      <c r="G18" s="16">
         <v>1518614</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H18" s="16">
         <v>487651</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I18" s="16">
         <v>1815</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4">
+      <c r="J18" s="16"/>
+      <c r="K18" s="16">
         <v>23109</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4">
+      <c r="L18" s="16"/>
+      <c r="M18" s="16">
         <v>18006</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N18" s="16">
         <v>2055956</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O18" s="16">
         <v>2418484</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="21">
+    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="17">
         <v>2023</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C19" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="19">
         <f t="shared" si="2"/>
         <v>6666523</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E19" s="20">
         <v>745</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7">
+      <c r="F19" s="20"/>
+      <c r="G19" s="20">
         <v>1534357</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H19" s="20">
         <v>502142</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I19" s="20">
         <v>1593</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7">
+      <c r="J19" s="20"/>
+      <c r="K19" s="20">
         <v>27175</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7">
+      <c r="L19" s="20"/>
+      <c r="M19" s="20">
         <v>15799</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N19" s="20">
         <v>2142423</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O19" s="20">
         <v>2442289</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="23">
+    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="13">
         <v>2023</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="15">
         <f t="shared" si="2"/>
         <v>6234323</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="16">
         <v>136</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16">
         <v>1449933</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H20" s="16">
         <v>489367</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I20" s="16">
         <v>1718</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4">
+      <c r="J20" s="16"/>
+      <c r="K20" s="16">
         <v>20794</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4">
+      <c r="L20" s="16"/>
+      <c r="M20" s="16">
         <v>13440</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N20" s="16">
         <v>1975887</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O20" s="16">
         <v>2283048</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="21">
+    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="17">
         <v>2023</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="19">
         <f t="shared" si="2"/>
         <v>7366586</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E21" s="20">
         <v>711</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7">
+      <c r="F21" s="20"/>
+      <c r="G21" s="20">
         <v>1790842</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H21" s="20">
         <v>509073</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I21" s="20">
         <v>1858</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7">
+      <c r="J21" s="20"/>
+      <c r="K21" s="20">
         <v>33617</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7">
+      <c r="L21" s="20"/>
+      <c r="M21" s="20">
         <v>17102</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N21" s="20">
         <v>2222143</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O21" s="20">
         <v>2791240</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="23">
+    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="13">
         <v>2023</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C22" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="15">
         <f t="shared" si="2"/>
         <v>7470779</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="16">
         <v>7815</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4">
+      <c r="F22" s="16"/>
+      <c r="G22" s="16">
         <v>1877785</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H22" s="16">
         <v>489520</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I22" s="16">
         <v>1593</v>
       </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4">
+      <c r="J22" s="16"/>
+      <c r="K22" s="16">
         <v>38495</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4">
+      <c r="L22" s="16"/>
+      <c r="M22" s="16">
         <v>16965</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N22" s="16">
         <v>2256958</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O22" s="16">
         <v>2781648</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="21">
+    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="17">
         <v>2023</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D23" s="19">
         <f t="shared" si="2"/>
         <v>6481356</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E23" s="20">
         <v>8579</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7">
+      <c r="F23" s="20"/>
+      <c r="G23" s="20">
         <v>1623869</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H23" s="20">
         <v>444461</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I23" s="20">
         <v>930</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7">
+      <c r="J23" s="20"/>
+      <c r="K23" s="20">
         <v>26027</v>
       </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7">
+      <c r="L23" s="20"/>
+      <c r="M23" s="20">
         <v>16972</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N23" s="20">
         <v>1939577</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O23" s="20">
         <v>2420941</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="23">
+    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="13">
         <v>2023</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C24" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="15">
         <f t="shared" si="2"/>
         <v>6466836</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="16">
         <v>10045</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4">
+      <c r="F24" s="16"/>
+      <c r="G24" s="16">
         <v>1475419</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H24" s="16">
         <v>493646</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I24" s="16">
         <v>866</v>
       </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4">
+      <c r="J24" s="16"/>
+      <c r="K24" s="16">
         <v>22311</v>
       </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4">
+      <c r="L24" s="16"/>
+      <c r="M24" s="16">
         <v>22530</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N24" s="16">
         <v>1903714</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O24" s="16">
         <v>2538305</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="21">
+    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="17">
         <v>2023</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D25" s="19">
         <f t="shared" si="2"/>
         <v>6505979</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E25" s="20">
         <v>7610</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7">
+      <c r="F25" s="20"/>
+      <c r="G25" s="20">
         <v>1447508</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H25" s="20">
         <v>495864</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I25" s="20">
         <v>73</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7">
+      <c r="J25" s="20"/>
+      <c r="K25" s="20">
         <v>22224</v>
       </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7">
+      <c r="L25" s="20"/>
+      <c r="M25" s="20">
         <v>23384</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N25" s="20">
         <v>1903503</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O25" s="20">
         <v>2605813</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="23">
+    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="13">
         <v>2023</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C26" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="15">
         <f t="shared" si="2"/>
         <v>6389909</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E26" s="16">
         <v>4538</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4">
+      <c r="F26" s="16"/>
+      <c r="G26" s="16">
         <v>1502404</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H26" s="16">
         <v>516526</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4">
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16">
         <v>15589</v>
       </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4">
+      <c r="L26" s="16"/>
+      <c r="M26" s="16">
         <v>23229</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N26" s="16">
         <v>1776763</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O26" s="16">
         <v>2550860</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="21">
+    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="17">
         <v>2023</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="19">
         <f t="shared" si="2"/>
         <v>5478771</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E27" s="20">
         <v>9031</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F27" s="20">
         <v>9443</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G27" s="20">
         <v>1277871</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H27" s="20">
         <v>459155</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7">
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20">
         <v>11992</v>
       </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7">
+      <c r="L27" s="20"/>
+      <c r="M27" s="20">
         <v>19704</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N27" s="20">
         <v>1431046</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O27" s="20">
         <v>2260529</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="25">
+    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="21">
         <v>2023</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C28" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D28" s="23">
         <f t="shared" si="2"/>
         <v>6248337</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E28" s="24">
         <v>9895</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F28" s="24">
         <v>23595</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G28" s="24">
         <v>1439058</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H28" s="24">
         <v>503079</v>
       </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6">
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24">
         <v>15438</v>
       </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6">
+      <c r="L28" s="24"/>
+      <c r="M28" s="24">
         <v>23680</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N28" s="24">
         <v>1650780</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O28" s="24">
         <v>2582812</v>
       </c>
     </row>
-    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="27">
+    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="25">
         <v>2022</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C29" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="27">
         <f t="shared" si="2"/>
         <v>6735243</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E29" s="28">
         <v>8855</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F29" s="28">
         <v>30082</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G29" s="28">
         <v>1541064</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H29" s="28">
         <v>545257</v>
       </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12">
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28">
         <v>31832</v>
       </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12">
+      <c r="L29" s="28"/>
+      <c r="M29" s="28">
         <v>32706</v>
       </c>
-      <c r="N28" s="12">
+      <c r="N29" s="28">
         <v>1885616</v>
       </c>
-      <c r="O28" s="12">
+      <c r="O29" s="28">
         <v>2659831</v>
       </c>
     </row>
-    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="23">
+    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="13">
         <v>2022</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C30" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="15">
         <f t="shared" si="2"/>
         <v>6388091</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E30" s="16">
         <v>10809</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F30" s="16">
         <v>29180</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G30" s="16">
         <v>1477832</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H30" s="16">
         <v>542019</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4">
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16">
         <v>26190</v>
       </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4">
+      <c r="L30" s="16"/>
+      <c r="M30" s="16">
         <v>25324</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N30" s="16">
         <v>1806360</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O30" s="16">
         <v>2470377</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="21">
+    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="17">
         <v>2022</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D31" s="19">
         <f t="shared" si="2"/>
         <v>6296390</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E31" s="20">
         <v>11560</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F31" s="20">
         <v>29156</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G31" s="20">
         <v>1436769</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H31" s="20">
         <v>525145</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7">
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20">
         <v>25003</v>
       </c>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7">
+      <c r="L31" s="20"/>
+      <c r="M31" s="20">
         <v>26165</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N31" s="20">
         <v>1730130</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O31" s="20">
         <v>2512462</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="23">
+    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="13">
         <v>2022</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C32" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D32" s="15">
         <f t="shared" si="2"/>
         <v>5717570</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E32" s="16">
         <v>8563</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F32" s="16">
         <v>27782</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G32" s="16">
         <v>1324735</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H32" s="16">
         <v>461328</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4">
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16">
         <v>24539</v>
       </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4">
+      <c r="L32" s="16"/>
+      <c r="M32" s="16">
         <v>23409</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N32" s="16">
         <v>1533686</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O32" s="16">
         <v>2313528</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="21">
+    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="17">
         <v>2022</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C33" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D33" s="19">
         <f t="shared" si="2"/>
         <v>6395624</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E33" s="20">
         <v>12206</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F33" s="20">
         <v>36300</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G33" s="20">
         <v>1459848</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H33" s="20">
         <v>550210</v>
       </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7">
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20">
         <v>41574</v>
       </c>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7">
+      <c r="L33" s="20"/>
+      <c r="M33" s="20">
         <v>28457</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N33" s="20">
         <v>1770150</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O33" s="20">
         <v>2496879</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="23">
+    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="13">
         <v>2022</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C34" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D34" s="15">
         <f t="shared" si="2"/>
         <v>6606709</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E34" s="16">
         <v>12900</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F34" s="16">
         <v>37410</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G34" s="16">
         <v>1493132</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H34" s="16">
         <v>544988</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4">
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16">
         <v>52783</v>
       </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4">
+      <c r="L34" s="16"/>
+      <c r="M34" s="16">
         <v>35829</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N34" s="16">
         <v>1832173</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O34" s="16">
         <v>2597494</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="21">
+    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="17">
         <v>2022</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C35" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D35" s="19">
         <f t="shared" si="2"/>
         <v>5816384</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E35" s="20">
         <v>11528</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F35" s="20">
         <v>29894</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G35" s="20">
         <v>1448616</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H35" s="20">
         <v>482837</v>
       </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7">
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20">
         <v>38612</v>
       </c>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7">
+      <c r="L35" s="20"/>
+      <c r="M35" s="20">
         <v>31692</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N35" s="20">
         <v>1629719</v>
       </c>
-      <c r="O34" s="7">
+      <c r="O35" s="20">
         <v>2143486</v>
       </c>
     </row>
-    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="23">
+    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="13">
         <v>2022</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C36" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D36" s="15">
         <f t="shared" si="2"/>
         <v>5938227</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E36" s="16">
         <v>14051</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F36" s="16">
         <v>34530</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G36" s="16">
         <v>1394194</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H36" s="16">
         <v>469001</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4">
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16">
         <v>36048</v>
       </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4">
+      <c r="L36" s="16"/>
+      <c r="M36" s="16">
         <v>32934</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N36" s="16">
         <v>1638787</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O36" s="16">
         <v>2318682</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="21">
+    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="17">
         <v>2022</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C37" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D37" s="19">
         <f t="shared" si="2"/>
         <v>5762121</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E37" s="20">
         <v>12580</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F37" s="20">
         <v>39403</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G37" s="20">
         <v>1248745</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H37" s="20">
         <v>447104</v>
       </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7">
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20">
         <v>30427</v>
       </c>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7">
+      <c r="L37" s="20"/>
+      <c r="M37" s="20">
         <v>31976</v>
       </c>
-      <c r="N36" s="7">
+      <c r="N37" s="20">
         <v>1571982</v>
       </c>
-      <c r="O36" s="7">
+      <c r="O37" s="20">
         <v>2379904</v>
       </c>
     </row>
-    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="23">
+    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="13">
         <v>2022</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C38" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D38" s="15">
         <f t="shared" si="2"/>
         <v>5450271</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E38" s="16">
         <v>13206</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F38" s="16">
         <v>32413</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G38" s="16">
         <v>1137873</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H38" s="16">
         <v>485288</v>
       </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4">
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16">
         <v>20444</v>
       </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4">
+      <c r="L38" s="16"/>
+      <c r="M38" s="16">
         <v>30333</v>
       </c>
-      <c r="N37" s="4">
+      <c r="N38" s="16">
         <v>1443642</v>
       </c>
-      <c r="O37" s="4">
+      <c r="O38" s="16">
         <v>2287072</v>
       </c>
     </row>
-    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="21">
+    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="17">
         <v>2022</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C39" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="19">
         <f t="shared" si="2"/>
         <v>4335053</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E39" s="20">
         <v>10775</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F39" s="20">
         <v>26979</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G39" s="20">
         <v>817221</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H39" s="20">
         <v>400280</v>
       </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7">
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20">
         <v>14632</v>
       </c>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7">
+      <c r="L39" s="20"/>
+      <c r="M39" s="20">
         <v>22836</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N39" s="20">
         <v>1113977</v>
       </c>
-      <c r="O38" s="7">
+      <c r="O39" s="20">
         <v>1928353</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="25">
+    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="21">
         <v>2022</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C40" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D40" s="23">
         <f t="shared" si="2"/>
         <v>4754587</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E40" s="24">
         <v>10351</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F40" s="24">
         <v>35019</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G40" s="24">
         <v>851918</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H40" s="24">
         <v>400866</v>
       </c>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6">
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24">
         <v>19731</v>
       </c>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6">
+      <c r="L40" s="24"/>
+      <c r="M40" s="24">
         <v>22335</v>
       </c>
-      <c r="N39" s="6">
+      <c r="N40" s="24">
         <v>1322859</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O40" s="24">
         <v>2091508</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="27">
+    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="25">
         <v>2021</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C41" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="27">
         <f t="shared" si="2"/>
         <v>5788606</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E41" s="28">
         <v>12597</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F41" s="28">
         <v>48986</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G41" s="28">
         <v>1194196</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H41" s="28">
         <v>531737</v>
       </c>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12">
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28">
         <v>41564</v>
       </c>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12">
+      <c r="L41" s="28"/>
+      <c r="M41" s="28">
         <v>32426</v>
       </c>
-      <c r="N40" s="12">
+      <c r="N41" s="28">
         <v>1542449</v>
       </c>
-      <c r="O40" s="12">
+      <c r="O41" s="28">
         <v>2384651</v>
       </c>
     </row>
-    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="23">
+    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="13">
         <v>2021</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C42" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="15">
         <f t="shared" si="2"/>
         <v>5289729</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E42" s="16">
         <v>11837</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F42" s="16">
         <v>46757</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G42" s="16">
         <v>1056753</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H42" s="16">
         <v>485468</v>
       </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4">
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16">
         <v>32507</v>
       </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4">
+      <c r="L42" s="16"/>
+      <c r="M42" s="16">
         <v>29832</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N42" s="16">
         <v>1406500</v>
       </c>
-      <c r="O41" s="4">
+      <c r="O42" s="16">
         <v>2220075</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="21">
+    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="17">
         <v>2021</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C43" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D43" s="19">
         <f t="shared" si="2"/>
         <v>5118685</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E43" s="20">
         <v>14115</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F43" s="20">
         <v>45703</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G43" s="20">
         <v>1034177</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H43" s="20">
         <v>510398</v>
       </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7">
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20">
         <v>28313</v>
       </c>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7">
+      <c r="L43" s="20"/>
+      <c r="M43" s="20">
         <v>31649</v>
       </c>
-      <c r="N42" s="7">
+      <c r="N43" s="20">
         <v>1355918</v>
       </c>
-      <c r="O42" s="7">
+      <c r="O43" s="20">
         <v>2098412</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="23">
+    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="13">
         <v>2021</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C44" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="8">
-        <f t="shared" ref="D43:D74" si="3">SUM(E43:O43)</f>
+      <c r="D44" s="15">
+        <f t="shared" ref="D44:D75" si="3">SUM(E44:O44)</f>
         <v>4470649</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E44" s="16">
         <v>12872</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F44" s="16">
         <v>42716</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G44" s="16">
         <v>893242</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H44" s="16">
         <v>444101</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4">
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16">
         <v>24490</v>
       </c>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4">
+      <c r="L44" s="16"/>
+      <c r="M44" s="16">
         <v>25901</v>
       </c>
-      <c r="N43" s="4">
+      <c r="N44" s="16">
         <v>1153271</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O44" s="16">
         <v>1874056</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="21">
+    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="17">
         <v>2021</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C45" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D45" s="19">
         <f t="shared" si="3"/>
         <v>5008604</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E45" s="20">
         <v>12792</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F45" s="20">
         <v>47119</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G45" s="20">
         <v>993427</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H45" s="20">
         <v>524484</v>
       </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7">
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20">
         <v>35479</v>
       </c>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7">
+      <c r="L45" s="20"/>
+      <c r="M45" s="20">
         <v>26034</v>
       </c>
-      <c r="N44" s="7">
+      <c r="N45" s="20">
         <v>1305965</v>
       </c>
-      <c r="O44" s="7">
+      <c r="O45" s="20">
         <v>2063304</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="23">
+    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="13">
         <v>2021</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C46" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D46" s="15">
         <f t="shared" si="3"/>
         <v>5456169</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E46" s="16">
         <v>15216</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F46" s="16">
         <v>53005</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G46" s="16">
         <v>1058956</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H46" s="16">
         <v>590598</v>
       </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4">
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16">
         <v>64029</v>
       </c>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4">
+      <c r="L46" s="16"/>
+      <c r="M46" s="16">
         <v>30912</v>
       </c>
-      <c r="N45" s="4">
+      <c r="N46" s="16">
         <v>1503552</v>
       </c>
-      <c r="O45" s="4">
+      <c r="O46" s="16">
         <v>2139901</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="21">
+    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="17">
         <v>2021</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C47" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D47" s="19">
         <f t="shared" si="3"/>
         <v>4784013</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E47" s="20">
         <v>15389</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F47" s="20">
         <v>43733</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G47" s="20">
         <v>853708</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H47" s="20">
         <v>536816</v>
       </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7">
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20">
         <v>54554</v>
       </c>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7">
+      <c r="L47" s="20"/>
+      <c r="M47" s="20">
         <v>23167</v>
       </c>
-      <c r="N46" s="7">
+      <c r="N47" s="20">
         <v>1288126</v>
       </c>
-      <c r="O46" s="7">
+      <c r="O47" s="20">
         <v>1968520</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="23">
+    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="13">
         <v>2021</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C48" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D48" s="15">
         <f t="shared" si="3"/>
         <v>4739036</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E48" s="16">
         <v>16431</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F48" s="16">
         <v>40566</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G48" s="16">
         <v>804638</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H48" s="16">
         <v>535959</v>
       </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4">
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16">
         <v>45166</v>
       </c>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4">
+      <c r="L48" s="16"/>
+      <c r="M48" s="16">
         <v>20712</v>
       </c>
-      <c r="N47" s="4">
+      <c r="N48" s="16">
         <v>1283475</v>
       </c>
-      <c r="O47" s="4">
+      <c r="O48" s="16">
         <v>1992089</v>
       </c>
     </row>
-    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="21">
+    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="17">
         <v>2021</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C49" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D49" s="19">
         <f t="shared" si="3"/>
         <v>4139956</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E49" s="20">
         <v>13432</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F49" s="20">
         <v>34786</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G49" s="20">
         <v>729359</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H49" s="20">
         <v>459115</v>
       </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7">
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20">
         <v>37963</v>
       </c>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7">
+      <c r="L49" s="20"/>
+      <c r="M49" s="20">
         <v>19899</v>
       </c>
-      <c r="N48" s="7">
+      <c r="N49" s="20">
         <v>1098291</v>
       </c>
-      <c r="O48" s="7">
+      <c r="O49" s="20">
         <v>1747111</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="23">
+    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="13">
         <v>2021</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C50" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D50" s="15">
         <f t="shared" si="3"/>
         <v>3643233</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E50" s="16">
         <v>13443</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F50" s="16">
         <v>34472</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G50" s="16">
         <v>700282</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H50" s="16">
         <v>454696</v>
       </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4">
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16">
         <v>25539</v>
       </c>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4">
+      <c r="L50" s="16"/>
+      <c r="M50" s="16">
         <v>18739</v>
       </c>
-      <c r="N49" s="4">
+      <c r="N50" s="16">
         <v>1015276</v>
       </c>
-      <c r="O49" s="4">
+      <c r="O50" s="16">
         <v>1380786</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="21">
+    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="17">
         <v>2021</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C51" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D51" s="19">
         <f t="shared" si="3"/>
         <v>2522697</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E51" s="20">
         <v>8230</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F51" s="20">
         <v>21876</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G51" s="20">
         <v>521896</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H51" s="20">
         <v>365190</v>
       </c>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7">
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20">
         <v>13877</v>
       </c>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7">
+      <c r="L51" s="20"/>
+      <c r="M51" s="20">
         <v>12256</v>
       </c>
-      <c r="N50" s="7">
+      <c r="N51" s="20">
         <v>590075</v>
       </c>
-      <c r="O50" s="7">
+      <c r="O51" s="20">
         <v>989297</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="25">
+    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="21">
         <v>2021</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C52" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D52" s="23">
         <f t="shared" si="3"/>
         <v>3256499</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E52" s="24">
         <v>7181</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F52" s="24">
         <v>25543</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G52" s="24">
         <v>641860</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H52" s="24">
         <v>438330</v>
       </c>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6">
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24">
         <v>19413</v>
       </c>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6">
+      <c r="L52" s="24"/>
+      <c r="M52" s="24">
         <v>13791</v>
       </c>
-      <c r="N51" s="6">
+      <c r="N52" s="24">
         <v>759842</v>
       </c>
-      <c r="O51" s="6">
+      <c r="O52" s="24">
         <v>1350539</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="27">
+    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="25">
         <v>2020</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C53" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="27">
         <f t="shared" si="3"/>
         <v>3752676</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E53" s="28">
         <v>6626</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F53" s="28">
         <v>32040</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G53" s="28">
         <v>610544</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H53" s="28">
         <v>491905</v>
       </c>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12">
+      <c r="I53" s="28"/>
+      <c r="J53" s="28">
         <v>4039</v>
       </c>
-      <c r="K52" s="12">
+      <c r="K53" s="28">
         <v>45610</v>
       </c>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12">
+      <c r="L53" s="28"/>
+      <c r="M53" s="28">
         <v>17383</v>
       </c>
-      <c r="N52" s="12">
+      <c r="N53" s="28">
         <v>998369</v>
       </c>
-      <c r="O52" s="12">
+      <c r="O53" s="28">
         <v>1546160</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="23">
+    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="13">
         <v>2020</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C54" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D54" s="15">
         <f t="shared" si="3"/>
         <v>3347186</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E54" s="16">
         <v>6583</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F54" s="16">
         <v>28629</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G54" s="16">
         <v>520221</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H54" s="16">
         <v>395967</v>
       </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4">
+      <c r="I54" s="16"/>
+      <c r="J54" s="16">
         <v>17545</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K54" s="16">
         <v>37463</v>
       </c>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4">
+      <c r="L54" s="16"/>
+      <c r="M54" s="16">
         <v>14115</v>
       </c>
-      <c r="N53" s="4">
+      <c r="N54" s="16">
         <v>863224</v>
       </c>
-      <c r="O53" s="4">
+      <c r="O54" s="16">
         <v>1463439</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="21">
+    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="17">
         <v>2020</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C55" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D55" s="19">
         <f t="shared" si="3"/>
         <v>3072785</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E55" s="20">
         <v>5614</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F55" s="20">
         <v>27120</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G55" s="20">
         <v>463245</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H55" s="20">
         <v>395686</v>
       </c>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7">
+      <c r="I55" s="20"/>
+      <c r="J55" s="20">
         <v>33425</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K55" s="20">
         <v>29759</v>
       </c>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7">
+      <c r="L55" s="20"/>
+      <c r="M55" s="20">
         <v>14897</v>
       </c>
-      <c r="N54" s="7">
+      <c r="N55" s="20">
         <v>803614</v>
       </c>
-      <c r="O54" s="7">
+      <c r="O55" s="20">
         <v>1299425</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="23">
+    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="13">
         <v>2020</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C56" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D56" s="15">
         <f t="shared" si="3"/>
         <v>2614973</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E56" s="16">
         <v>4853</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F56" s="16">
         <v>21371</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G56" s="16">
         <v>371636</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H56" s="16">
         <v>325704</v>
       </c>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4">
+      <c r="I56" s="16"/>
+      <c r="J56" s="16">
         <v>41547</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K56" s="16">
         <v>30615</v>
       </c>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4">
+      <c r="L56" s="16"/>
+      <c r="M56" s="16">
         <v>11615</v>
       </c>
-      <c r="N55" s="4">
+      <c r="N56" s="16">
         <v>665331</v>
       </c>
-      <c r="O55" s="4">
+      <c r="O56" s="16">
         <v>1142301</v>
       </c>
     </row>
-    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="21">
+    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="17">
         <v>2020</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C57" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D57" s="19">
         <f t="shared" si="3"/>
         <v>2423904</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E57" s="20">
         <v>3748</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F57" s="20">
         <v>22617</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G57" s="20">
         <v>322580</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H57" s="20">
         <v>310616</v>
       </c>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7">
+      <c r="I57" s="20"/>
+      <c r="J57" s="20">
         <v>38737</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K57" s="20">
         <v>30641</v>
       </c>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7">
+      <c r="L57" s="20"/>
+      <c r="M57" s="20">
         <v>7400</v>
       </c>
-      <c r="N56" s="7">
+      <c r="N57" s="20">
         <v>586367</v>
       </c>
-      <c r="O56" s="7">
+      <c r="O57" s="20">
         <v>1101198</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="23">
+    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="13">
         <v>2020</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C58" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D58" s="15">
         <f t="shared" si="3"/>
         <v>1910823</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E58" s="16">
         <v>3082</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F58" s="16">
         <v>18259</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G58" s="16">
         <v>251899</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H58" s="16">
         <v>254505</v>
       </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4">
+      <c r="I58" s="16"/>
+      <c r="J58" s="16">
         <v>38811</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K58" s="16">
         <v>24630</v>
       </c>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4">
+      <c r="L58" s="16"/>
+      <c r="M58" s="16">
         <v>4178</v>
       </c>
-      <c r="N57" s="4">
+      <c r="N58" s="16">
         <v>418350</v>
       </c>
-      <c r="O57" s="4">
+      <c r="O58" s="16">
         <v>897109</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="21">
+    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="17">
         <v>2020</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C59" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D59" s="19">
         <f t="shared" si="3"/>
         <v>996346</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E59" s="20">
         <v>1927</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F59" s="20">
         <v>9051</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G59" s="20">
         <v>140991</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H59" s="20">
         <v>97306</v>
       </c>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7">
+      <c r="I59" s="20"/>
+      <c r="J59" s="20">
         <v>24942</v>
       </c>
-      <c r="K58" s="7">
+      <c r="K59" s="20">
         <v>5002</v>
       </c>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7">
+      <c r="L59" s="20"/>
+      <c r="M59" s="20">
         <v>2168</v>
       </c>
-      <c r="N58" s="7">
+      <c r="N59" s="20">
         <v>201937</v>
       </c>
-      <c r="O58" s="7">
+      <c r="O59" s="20">
         <v>513022</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="23">
+    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="13">
         <v>2020</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C60" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D60" s="15">
         <f t="shared" si="3"/>
         <v>410766</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E60" s="16">
         <v>1324</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F60" s="16">
         <v>4688</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G60" s="16">
         <v>50801</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H60" s="16">
         <v>80478</v>
       </c>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4">
+      <c r="I60" s="16"/>
+      <c r="J60" s="16">
         <v>14835</v>
       </c>
-      <c r="K59" s="4">
+      <c r="K60" s="16">
         <v>0</v>
       </c>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4">
+      <c r="L60" s="16"/>
+      <c r="M60" s="16">
         <v>1040</v>
       </c>
-      <c r="N59" s="4">
+      <c r="N60" s="16">
         <v>90419</v>
       </c>
-      <c r="O59" s="4">
+      <c r="O60" s="16">
         <v>167181</v>
       </c>
     </row>
-    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="21">
+    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="17">
         <v>2020</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C61" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D61" s="19">
         <f t="shared" si="3"/>
         <v>449003</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E61" s="20">
         <v>1164</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F61" s="20">
         <v>2668</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G61" s="20">
         <v>60744</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H61" s="20">
         <v>86523</v>
       </c>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7">
+      <c r="I61" s="20"/>
+      <c r="J61" s="20">
         <v>25068</v>
       </c>
-      <c r="K60" s="7">
+      <c r="K61" s="20">
         <v>705</v>
       </c>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7">
+      <c r="L61" s="20"/>
+      <c r="M61" s="20">
         <v>485</v>
       </c>
-      <c r="N60" s="7">
+      <c r="N61" s="20">
         <v>89915</v>
       </c>
-      <c r="O60" s="7">
+      <c r="O61" s="20">
         <v>181731</v>
       </c>
     </row>
-    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="23">
+    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="13">
         <v>2020</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C62" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D62" s="15">
         <f t="shared" si="3"/>
         <v>3931644</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E62" s="16">
         <v>8791</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F62" s="16">
         <v>41673</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G62" s="16">
         <v>572018</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H62" s="16">
         <v>464064</v>
       </c>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4">
+      <c r="I62" s="16"/>
+      <c r="J62" s="16">
         <v>822187</v>
       </c>
-      <c r="K61" s="4">
+      <c r="K62" s="16">
         <v>23248</v>
       </c>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4">
+      <c r="L62" s="16"/>
+      <c r="M62" s="16">
         <v>26274</v>
       </c>
-      <c r="N61" s="4">
+      <c r="N62" s="16">
         <v>704638</v>
       </c>
-      <c r="O61" s="4">
+      <c r="O62" s="16">
         <v>1268751</v>
       </c>
     </row>
-    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="21">
+    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="17">
         <v>2020</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C63" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D63" s="19">
         <f t="shared" si="3"/>
         <v>5315967</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E63" s="20">
         <v>10857</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F63" s="20">
         <v>59357</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G63" s="20">
         <v>846279</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H63" s="20">
         <v>641873</v>
       </c>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7">
+      <c r="I63" s="20"/>
+      <c r="J63" s="20">
         <v>1178801</v>
       </c>
-      <c r="K62" s="7">
+      <c r="K63" s="20">
         <v>26652</v>
       </c>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7">
+      <c r="L63" s="20"/>
+      <c r="M63" s="20">
         <v>36382</v>
       </c>
-      <c r="N62" s="7">
+      <c r="N63" s="20">
         <v>881600</v>
       </c>
-      <c r="O62" s="7">
+      <c r="O63" s="20">
         <v>1634166</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="25">
+    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="21">
         <v>2020</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C64" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D64" s="23">
         <f t="shared" si="3"/>
         <v>5907035</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E64" s="24">
         <v>13840</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F64" s="24">
         <v>68044</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G64" s="24">
         <v>961808</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H64" s="24">
         <v>680707</v>
       </c>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6">
+      <c r="I64" s="24"/>
+      <c r="J64" s="24">
         <v>1315599</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K64" s="24">
         <v>47575</v>
       </c>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6">
+      <c r="L64" s="24"/>
+      <c r="M64" s="24">
         <v>40620</v>
       </c>
-      <c r="N63" s="6">
+      <c r="N64" s="24">
         <v>980414</v>
       </c>
-      <c r="O63" s="6">
+      <c r="O64" s="24">
         <v>1798428</v>
       </c>
     </row>
-    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="27">
+    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="25">
         <v>2019</v>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="C65" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="27">
         <f t="shared" si="3"/>
         <v>6305291</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E65" s="28">
         <v>14577</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F65" s="28">
         <v>79686</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G65" s="28">
         <v>1001613</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H65" s="28">
         <v>756331</v>
       </c>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12">
+      <c r="I65" s="28"/>
+      <c r="J65" s="28">
         <v>1419527</v>
       </c>
-      <c r="K64" s="12">
+      <c r="K65" s="28">
         <v>72539</v>
       </c>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12">
+      <c r="L65" s="28"/>
+      <c r="M65" s="28">
         <v>45759</v>
       </c>
-      <c r="N64" s="12">
+      <c r="N65" s="28">
         <v>1083272</v>
       </c>
-      <c r="O64" s="12">
+      <c r="O65" s="28">
         <v>1831987</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="23">
+    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="13">
         <v>2019</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C66" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D66" s="15">
         <f t="shared" si="3"/>
         <v>5933699</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E66" s="16">
         <v>15593</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F66" s="16">
         <v>73513</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G66" s="16">
         <v>938515</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H66" s="16">
         <v>697055</v>
       </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4">
+      <c r="I66" s="16"/>
+      <c r="J66" s="16">
         <v>1349425</v>
       </c>
-      <c r="K65" s="4">
+      <c r="K66" s="16">
         <v>54165</v>
       </c>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4">
+      <c r="L66" s="16"/>
+      <c r="M66" s="16">
         <v>41740</v>
       </c>
-      <c r="N65" s="4">
+      <c r="N66" s="16">
         <v>1014931</v>
       </c>
-      <c r="O65" s="4">
+      <c r="O66" s="16">
         <v>1748762</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="21">
+    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="17">
         <v>2019</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C67" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D67" s="19">
         <f t="shared" si="3"/>
         <v>5863191</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E67" s="20">
         <v>19701</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F67" s="20">
         <v>67349</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G67" s="20">
         <v>957393</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H67" s="20">
         <v>740956</v>
       </c>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7">
+      <c r="I67" s="20"/>
+      <c r="J67" s="20">
         <v>1232933</v>
       </c>
-      <c r="K66" s="7">
+      <c r="K67" s="20">
         <v>57392</v>
       </c>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7">
+      <c r="L67" s="20"/>
+      <c r="M67" s="20">
         <v>40850</v>
       </c>
-      <c r="N66" s="7">
+      <c r="N67" s="20">
         <v>1022260</v>
       </c>
-      <c r="O66" s="7">
+      <c r="O67" s="20">
         <v>1724357</v>
       </c>
     </row>
-    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="23">
+    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="13">
         <v>2019</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C68" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D68" s="15">
         <f t="shared" si="3"/>
         <v>5409755</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E68" s="16">
         <v>15863</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F68" s="16">
         <v>61156</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G68" s="16">
         <v>897733</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H68" s="16">
         <v>677299</v>
       </c>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4">
+      <c r="I68" s="16"/>
+      <c r="J68" s="16">
         <v>1115654</v>
       </c>
-      <c r="K67" s="4">
+      <c r="K68" s="16">
         <v>61638</v>
       </c>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4">
+      <c r="L68" s="16"/>
+      <c r="M68" s="16">
         <v>42002</v>
       </c>
-      <c r="N67" s="4">
+      <c r="N68" s="16">
         <v>922290</v>
       </c>
-      <c r="O67" s="4">
+      <c r="O68" s="16">
         <v>1616120</v>
       </c>
     </row>
-    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="21">
+    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="17">
         <v>2019</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C69" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D69" s="19">
         <f t="shared" si="3"/>
         <v>6259657</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E69" s="20">
         <v>22090</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F69" s="20">
         <v>68824</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G69" s="20">
         <v>1001754</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H69" s="20">
         <v>777867</v>
       </c>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7">
+      <c r="I69" s="20"/>
+      <c r="J69" s="20">
         <v>1395254</v>
       </c>
-      <c r="K68" s="7">
+      <c r="K69" s="20">
         <v>88036</v>
       </c>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7">
+      <c r="L69" s="20"/>
+      <c r="M69" s="20">
         <v>47511</v>
       </c>
-      <c r="N68" s="7">
+      <c r="N69" s="20">
         <v>1112562</v>
       </c>
-      <c r="O68" s="7">
+      <c r="O69" s="20">
         <v>1745759</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="23">
+    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="13">
         <v>2019</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="C70" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D70" s="15">
         <f t="shared" si="3"/>
         <v>6643948</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E70" s="16">
         <v>24398</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F70" s="16">
         <v>75738</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G70" s="16">
         <v>1056905</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H70" s="16">
         <v>847525</v>
       </c>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4">
+      <c r="I70" s="16"/>
+      <c r="J70" s="16">
         <v>1440396</v>
       </c>
-      <c r="K69" s="4">
+      <c r="K70" s="16">
         <v>112757</v>
       </c>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4">
+      <c r="L70" s="16"/>
+      <c r="M70" s="16">
         <v>53404</v>
       </c>
-      <c r="N69" s="4">
+      <c r="N70" s="16">
         <v>1151999</v>
       </c>
-      <c r="O69" s="4">
+      <c r="O70" s="16">
         <v>1880826</v>
       </c>
     </row>
-    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="21">
+    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="17">
         <v>2019</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C71" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D71" s="19">
         <f t="shared" si="3"/>
         <v>6003625</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E71" s="20">
         <v>24034</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F71" s="20">
         <v>65120</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G71" s="20">
         <v>968584</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H71" s="20">
         <v>772914</v>
       </c>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7">
+      <c r="I71" s="20"/>
+      <c r="J71" s="20">
         <v>1315938</v>
       </c>
-      <c r="K70" s="7">
+      <c r="K71" s="20">
         <v>90790</v>
       </c>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7">
+      <c r="L71" s="20"/>
+      <c r="M71" s="20">
         <v>47162</v>
       </c>
-      <c r="N70" s="7">
+      <c r="N71" s="20">
         <v>974523</v>
       </c>
-      <c r="O70" s="7">
+      <c r="O71" s="20">
         <v>1744560</v>
       </c>
     </row>
-    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="23">
+    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="13">
         <v>2019</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C72" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D72" s="15">
         <f t="shared" si="3"/>
         <v>6066733</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E72" s="16">
         <v>24578</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F72" s="16">
         <v>61163</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G72" s="16">
         <v>976676</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H72" s="16">
         <v>788262</v>
       </c>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4">
+      <c r="I72" s="16"/>
+      <c r="J72" s="16">
         <v>1373059</v>
       </c>
-      <c r="K71" s="4">
+      <c r="K72" s="16">
         <v>74030</v>
       </c>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4">
+      <c r="L72" s="16"/>
+      <c r="M72" s="16">
         <v>51746</v>
       </c>
-      <c r="N71" s="4">
+      <c r="N72" s="16">
         <v>931984</v>
       </c>
-      <c r="O71" s="4">
+      <c r="O72" s="16">
         <v>1785235</v>
       </c>
     </row>
-    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="21">
+    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="17">
         <v>2019</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C73" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D73" s="19">
         <f t="shared" si="3"/>
         <v>5766967</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E73" s="20">
         <v>26137</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F73" s="20">
         <v>63912</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G73" s="20">
         <v>935481</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H73" s="20">
         <v>737722</v>
       </c>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7">
+      <c r="I73" s="20"/>
+      <c r="J73" s="20">
         <v>1282012</v>
       </c>
-      <c r="K72" s="7">
+      <c r="K73" s="20">
         <v>54469</v>
       </c>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7">
+      <c r="L73" s="20"/>
+      <c r="M73" s="20">
         <v>50399</v>
       </c>
-      <c r="N72" s="7">
+      <c r="N73" s="20">
         <v>893208</v>
       </c>
-      <c r="O72" s="7">
+      <c r="O73" s="20">
         <v>1723627</v>
       </c>
     </row>
-    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="23">
+    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="13">
         <v>2019</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C74" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D74" s="15">
         <f t="shared" si="3"/>
         <v>5617314</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E74" s="16">
         <v>24631</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F74" s="16">
         <v>66177</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G74" s="16">
         <v>991931</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H74" s="16">
         <v>774790</v>
       </c>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4">
+      <c r="I74" s="16"/>
+      <c r="J74" s="16">
         <v>1245949</v>
       </c>
-      <c r="K73" s="4">
+      <c r="K74" s="16">
         <v>40758</v>
       </c>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4">
+      <c r="L74" s="16"/>
+      <c r="M74" s="16">
         <v>49242</v>
       </c>
-      <c r="N73" s="4">
+      <c r="N74" s="16">
         <v>767922</v>
       </c>
-      <c r="O73" s="4">
+      <c r="O74" s="16">
         <v>1655914</v>
       </c>
     </row>
-    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="21">
+    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="17">
         <v>2019</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C75" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D75" s="19">
         <f t="shared" si="3"/>
         <v>4697667</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E75" s="20">
         <v>20074</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F75" s="20">
         <v>57946</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G75" s="20">
         <v>888111</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H75" s="20">
         <v>647818</v>
       </c>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7">
+      <c r="I75" s="20"/>
+      <c r="J75" s="20">
         <v>1002798</v>
       </c>
-      <c r="K74" s="7">
+      <c r="K75" s="20">
         <v>31139</v>
       </c>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7">
+      <c r="L75" s="20"/>
+      <c r="M75" s="20">
         <v>40877</v>
       </c>
-      <c r="N74" s="7">
+      <c r="N75" s="20">
         <v>617809</v>
       </c>
-      <c r="O74" s="7">
+      <c r="O75" s="20">
         <v>1391095</v>
       </c>
     </row>
-    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="25">
+    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="21">
         <v>2019</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C76" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="10">
-        <f t="shared" ref="D75:D87" si="4">SUM(E75:O75)</f>
+      <c r="D76" s="23">
+        <f t="shared" ref="D76:D88" si="4">SUM(E76:O76)</f>
         <v>5369991</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E76" s="24">
         <v>24399</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F76" s="24">
         <v>59133</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G76" s="24">
         <v>1017714</v>
       </c>
-      <c r="H75" s="6">
+      <c r="H76" s="24">
         <v>718168</v>
       </c>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6">
+      <c r="I76" s="24"/>
+      <c r="J76" s="24">
         <v>1143850</v>
       </c>
-      <c r="K75" s="6">
+      <c r="K76" s="24">
         <v>45885</v>
       </c>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6">
+      <c r="L76" s="24"/>
+      <c r="M76" s="24">
         <v>45704</v>
       </c>
-      <c r="N75" s="6">
+      <c r="N76" s="24">
         <v>787962</v>
       </c>
-      <c r="O75" s="6">
+      <c r="O76" s="24">
         <v>1527176</v>
       </c>
     </row>
-    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="22">
+    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="18">
         <v>2018</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C77" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D77" s="19">
         <f t="shared" si="4"/>
         <v>5844697</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E77" s="20">
         <v>25513</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F77" s="20">
         <v>64369</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G77" s="20">
         <v>1071044</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H77" s="20">
         <v>804521</v>
       </c>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7">
+      <c r="I77" s="20"/>
+      <c r="J77" s="20">
         <v>1232404</v>
       </c>
-      <c r="K76" s="7">
+      <c r="K77" s="20">
         <v>78800</v>
       </c>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7">
+      <c r="L77" s="20"/>
+      <c r="M77" s="20">
         <v>50423</v>
       </c>
-      <c r="N76" s="7">
+      <c r="N77" s="20">
         <v>905477</v>
       </c>
-      <c r="O76" s="7">
+      <c r="O77" s="20">
         <v>1612146</v>
       </c>
     </row>
-    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="24">
+    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="14">
         <v>2018</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="C78" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D78" s="15">
         <f t="shared" si="4"/>
         <v>5548187</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E78" s="16">
         <v>24593</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F78" s="16">
         <v>68160</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G78" s="16">
         <v>1004506</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H78" s="16">
         <v>761656</v>
       </c>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4">
+      <c r="I78" s="16"/>
+      <c r="J78" s="16">
         <v>1214579</v>
       </c>
-      <c r="K77" s="4">
+      <c r="K78" s="16">
         <v>70291</v>
       </c>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4">
+      <c r="L78" s="16"/>
+      <c r="M78" s="16">
         <v>52654</v>
       </c>
-      <c r="N77" s="4">
+      <c r="N78" s="16">
         <v>844104</v>
       </c>
-      <c r="O77" s="4">
+      <c r="O78" s="16">
         <v>1507644</v>
       </c>
     </row>
-    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="22">
+    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="18">
         <v>2018</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C79" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D79" s="19">
         <f t="shared" si="4"/>
         <v>5436017</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E79" s="20">
         <v>23163</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F79" s="20">
         <v>67739</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G79" s="20">
         <v>1006759</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H79" s="20">
         <v>779871</v>
       </c>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7">
+      <c r="I79" s="20"/>
+      <c r="J79" s="20">
         <v>1170513</v>
       </c>
-      <c r="K78" s="7">
+      <c r="K79" s="20">
         <v>65741</v>
       </c>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7">
+      <c r="L79" s="20"/>
+      <c r="M79" s="20">
         <v>52203</v>
       </c>
-      <c r="N78" s="7">
+      <c r="N79" s="20">
         <v>808467</v>
       </c>
-      <c r="O78" s="7">
+      <c r="O79" s="20">
         <v>1461561</v>
       </c>
     </row>
-    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="24">
+    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="14">
         <v>2018</v>
       </c>
-      <c r="C79" s="24" t="s">
+      <c r="C80" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D80" s="15">
         <f t="shared" si="4"/>
         <v>5031295</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E80" s="16">
         <v>21054</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F80" s="16">
         <v>57581</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G80" s="16">
         <v>953415</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H80" s="16">
         <v>749609</v>
       </c>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4">
+      <c r="I80" s="16"/>
+      <c r="J80" s="16">
         <v>1042581</v>
       </c>
-      <c r="K79" s="4">
+      <c r="K80" s="16">
         <v>61896</v>
       </c>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4">
+      <c r="L80" s="16"/>
+      <c r="M80" s="16">
         <v>46860</v>
       </c>
-      <c r="N79" s="4">
+      <c r="N80" s="16">
         <v>767606</v>
       </c>
-      <c r="O79" s="4">
+      <c r="O80" s="16">
         <v>1330693</v>
       </c>
     </row>
-    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="22">
+    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="18">
         <v>2018</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C81" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D81" s="19">
         <f t="shared" si="4"/>
         <v>5768371</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E81" s="20">
         <v>27838</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F81" s="20">
         <v>63083</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G81" s="20">
         <v>1074998</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H81" s="20">
         <v>852980</v>
       </c>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7">
+      <c r="I81" s="20"/>
+      <c r="J81" s="20">
         <v>1233129</v>
       </c>
-      <c r="K80" s="7">
+      <c r="K81" s="20">
         <v>104695</v>
       </c>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7">
+      <c r="L81" s="20"/>
+      <c r="M81" s="20">
         <v>54110</v>
       </c>
-      <c r="N80" s="7">
+      <c r="N81" s="20">
         <v>921277</v>
       </c>
-      <c r="O80" s="7">
+      <c r="O81" s="20">
         <v>1436261</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="24">
+    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="14">
         <v>2018</v>
       </c>
-      <c r="C81" s="24" t="s">
+      <c r="C82" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D82" s="15">
         <f t="shared" si="4"/>
         <v>6140662</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E82" s="16">
         <v>32903</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F82" s="16">
         <v>56167</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G82" s="16">
         <v>1179423</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H82" s="16">
         <v>895787</v>
       </c>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4">
+      <c r="I82" s="16"/>
+      <c r="J82" s="16">
         <v>1280292</v>
       </c>
-      <c r="K81" s="4">
+      <c r="K82" s="16">
         <v>110733</v>
       </c>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4">
+      <c r="L82" s="16"/>
+      <c r="M82" s="16">
         <v>58466</v>
       </c>
-      <c r="N81" s="4">
+      <c r="N82" s="16">
         <v>944861</v>
       </c>
-      <c r="O81" s="4">
+      <c r="O82" s="16">
         <v>1582030</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="22">
+    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="18">
         <v>2018</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C83" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D83" s="19">
         <f t="shared" si="4"/>
         <v>5347432</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E83" s="20">
         <v>26323</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F83" s="20">
         <v>46065</v>
       </c>
-      <c r="G82" s="7">
+      <c r="G83" s="20">
         <v>1036698</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H83" s="20">
         <v>815293</v>
       </c>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7">
+      <c r="I83" s="20"/>
+      <c r="J83" s="20">
         <v>1141203</v>
       </c>
-      <c r="K82" s="7">
+      <c r="K83" s="20">
         <v>75066</v>
       </c>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7">
+      <c r="L83" s="20"/>
+      <c r="M83" s="20">
         <v>48032</v>
       </c>
-      <c r="N82" s="7">
+      <c r="N83" s="20">
         <v>768437</v>
       </c>
-      <c r="O82" s="7">
+      <c r="O83" s="20">
         <v>1390315</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="24">
+    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="14">
         <v>2018</v>
       </c>
-      <c r="C83" s="24" t="s">
+      <c r="C84" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D84" s="15">
         <f t="shared" si="4"/>
         <v>5369812</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E84" s="16">
         <v>26212</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F84" s="16">
         <v>54265</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G84" s="16">
         <v>1033321</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H84" s="16">
         <v>780048</v>
       </c>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4">
+      <c r="I84" s="16"/>
+      <c r="J84" s="16">
         <v>1201298</v>
       </c>
-      <c r="K83" s="4">
+      <c r="K84" s="16">
         <v>84998</v>
       </c>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4">
+      <c r="L84" s="16"/>
+      <c r="M84" s="16">
         <v>49481</v>
       </c>
-      <c r="N83" s="4">
+      <c r="N84" s="16">
         <v>759447</v>
       </c>
-      <c r="O83" s="4">
+      <c r="O84" s="16">
         <v>1380742</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="22">
+    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="18">
         <v>2018</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C85" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D85" s="19">
         <f t="shared" si="4"/>
         <v>5275071</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E85" s="20">
         <v>25839</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F85" s="20">
         <v>59133</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G85" s="20">
         <v>996415</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H85" s="20">
         <v>794436</v>
       </c>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7">
+      <c r="I85" s="20"/>
+      <c r="J85" s="20">
         <v>1176450</v>
       </c>
-      <c r="K84" s="7">
+      <c r="K85" s="20">
         <v>73805</v>
       </c>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7">
+      <c r="L85" s="20"/>
+      <c r="M85" s="20">
         <v>49795</v>
       </c>
-      <c r="N84" s="7">
+      <c r="N85" s="20">
         <v>730221</v>
       </c>
-      <c r="O84" s="7">
+      <c r="O85" s="20">
         <v>1368977</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="24">
+    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="14">
         <v>2018</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C86" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D86" s="15">
         <f t="shared" si="4"/>
         <v>5277344</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E86" s="16">
         <v>29029</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F86" s="16">
         <v>65814</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G86" s="16">
         <v>993548</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H86" s="16">
         <v>797581</v>
       </c>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4">
+      <c r="I86" s="16"/>
+      <c r="J86" s="16">
         <v>1174935</v>
       </c>
-      <c r="K85" s="4">
+      <c r="K86" s="16">
         <v>50611</v>
       </c>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4">
+      <c r="L86" s="16"/>
+      <c r="M86" s="16">
         <v>50043</v>
       </c>
-      <c r="N85" s="4">
+      <c r="N86" s="16">
         <v>723374</v>
       </c>
-      <c r="O85" s="4">
+      <c r="O86" s="16">
         <v>1392409</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="22">
+    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="18">
         <v>2018</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C87" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D87" s="19">
         <f t="shared" si="4"/>
         <v>4448093</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E87" s="20">
         <v>22962</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F87" s="20">
         <v>59046</v>
       </c>
-      <c r="G86" s="7">
+      <c r="G87" s="20">
         <v>878966</v>
       </c>
-      <c r="H86" s="7">
+      <c r="H87" s="20">
         <v>699650</v>
       </c>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7">
+      <c r="I87" s="20"/>
+      <c r="J87" s="20">
         <v>934030</v>
       </c>
-      <c r="K86" s="7">
+      <c r="K87" s="20">
         <v>39995</v>
       </c>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7">
+      <c r="L87" s="20"/>
+      <c r="M87" s="20">
         <v>44679</v>
       </c>
-      <c r="N86" s="7">
+      <c r="N87" s="20">
         <v>569891</v>
       </c>
-      <c r="O86" s="7">
+      <c r="O87" s="20">
         <v>1198874</v>
       </c>
     </row>
-    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="24">
+    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="14">
         <v>2018</v>
       </c>
-      <c r="C87" s="24" t="s">
+      <c r="C88" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D88" s="15">
         <f t="shared" si="4"/>
         <v>5082659</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E88" s="16">
         <v>24734</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F88" s="16">
         <v>60981</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G88" s="16">
         <v>1021784</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H88" s="16">
         <v>777479</v>
       </c>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4">
+      <c r="I88" s="16"/>
+      <c r="J88" s="16">
         <v>1078923</v>
       </c>
-      <c r="K87" s="4">
+      <c r="K88" s="16">
         <v>55290</v>
       </c>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4">
+      <c r="L88" s="16"/>
+      <c r="M88" s="16">
         <v>47772</v>
       </c>
-      <c r="N87" s="4">
+      <c r="N88" s="16">
         <v>664529</v>
       </c>
-      <c r="O87" s="4">
+      <c r="O88" s="16">
         <v>1351167</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B88" s="16" t="s">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B89" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B90" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="30"/>
+      <c r="O90" s="31"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B91" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" s="30"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B92" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" s="30"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B93" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E88"/>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B89" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="17"/>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B90" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C90" s="17"/>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B91" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C91" s="17"/>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B92" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B94" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D96" s="16"/>
-    </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D100" s="16"/>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D97" s="29"/>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D101" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E4:O4"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Pasajeros_por_aerolinea_nac.xlsx
+++ b/Pasajeros_por_aerolinea_nac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C25F34-61F9-44F7-9820-B251ACBCC39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631CF6C6-91B3-4EED-A074-60A4C14E25FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_31" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Aerolíneas</t>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> La línea aérea Mexicana comenzó operaciones el 26 de diciembre de 2023.</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t xml:space="preserve"> La línea aérea Aerus inició operaciones el 27 de abril de 2023.</t>
+  </si>
+  <si>
+    <t>Actualización: Diciembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -345,12 +345,6 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -401,62 +395,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -683,6 +633,56 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -697,8 +697,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O88" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="16" tableBorderDxfId="17">
-  <autoFilter ref="B5:O88" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O89" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
+  <autoFilter ref="B5:O89" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -706,22 +706,22 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{BA0C0B85-5366-4A43-92B4-3E3742FD994D}" name="Mes" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{86077915-C170-40DA-9DB4-19E81910B485}" name="Total" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{BA0C0B85-5366-4A43-92B4-3E3742FD994D}" name="Mes" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{86077915-C170-40DA-9DB4-19E81910B485}" name="Total" dataDxfId="11">
       <calculatedColumnFormula>SUM(E6:O6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Aéreo Calafia" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Aeromar" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aeroméxico (Aerovías de México)" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{A869730C-1719-4A70-8838-10376967FD05}" name="Aeroméxico Connect (Aerolitoral)" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{523CBB34-1DEE-445B-8474-FD8E64117197}" name="Aerus" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{631795EF-E72C-4257-9376-F3F950D2CD24}" name="Interjet (ABC Aerolíneas)" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{7825E645-762A-41A2-B4FE-F68035B408F7}" name="Magnicharters (Grupo Aéreo Monterrey)" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{ABE62262-6A70-4763-8581-1FC262023BDA}" name="Mexicana (Aerolínea del Estado Mexicano)" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{79063C30-2596-43D4-82AD-DC7007BA3E47}" name="Transportes Aéreos Regionales (TAR)" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{CDE1B9AF-E706-4B29-B603-3DCD26E54911}" name="Vivaaerobus (Aeroenlaces)" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{50F53BD2-7347-4FA4-8F64-203C18A4DA6A}" name="Volaris (Concesionaria Vuela Cia de Aviación)" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Aéreo Calafia" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Aeromar" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aeroméxico (Aerovías de México)" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{A869730C-1719-4A70-8838-10376967FD05}" name="Aeroméxico Connect (Aerolitoral)" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{523CBB34-1DEE-445B-8474-FD8E64117197}" name="Aerus" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{631795EF-E72C-4257-9376-F3F950D2CD24}" name="Interjet (ABC Aerolíneas)" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{7825E645-762A-41A2-B4FE-F68035B408F7}" name="Magnicharters (Grupo Aéreo Monterrey)" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{ABE62262-6A70-4763-8581-1FC262023BDA}" name="Mexicana (Aerolínea del Estado Mexicano)" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{79063C30-2596-43D4-82AD-DC7007BA3E47}" name="Transportes Aéreos Regionales (TAR)" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{CDE1B9AF-E706-4B29-B603-3DCD26E54911}" name="Vivaaerobus (Aeroenlaces)" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{50F53BD2-7347-4FA4-8F64-203C18A4DA6A}" name="Volaris (Concesionaria Vuela Cia de Aviación)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -950,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O101"/>
+  <dimension ref="B2:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -992,3427 +992,3466 @@
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
     </row>
     <row r="5" spans="2:15" ht="78" x14ac:dyDescent="0.45">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6" s="13">
+      <c r="B6" s="15">
         <v>2024</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="17">
+        <f>SUM(E6:O6)</f>
+        <v>7193395</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18">
+        <v>1749211</v>
+      </c>
+      <c r="H6" s="18">
+        <v>393443</v>
+      </c>
+      <c r="I6" s="18">
+        <v>3591</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18">
+        <v>19131</v>
+      </c>
+      <c r="L6" s="18">
+        <v>42411</v>
+      </c>
+      <c r="M6" s="18">
+        <v>19789</v>
+      </c>
+      <c r="N6" s="18">
+        <v>2449237</v>
+      </c>
+      <c r="O6" s="18">
+        <v>2516582</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7" s="11">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="15">
-        <f>SUM(E6:O6)</f>
+      <c r="D7" s="13">
+        <f>SUM(E7:O7)</f>
         <v>6698440</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14">
         <v>1630210</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H7" s="14">
         <v>378802</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I7" s="14">
         <v>3872</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16">
+      <c r="J7" s="14"/>
+      <c r="K7" s="14">
         <v>18521</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L7" s="14">
         <v>23922</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M7" s="14">
         <v>14425</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N7" s="14">
         <v>2321101</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O7" s="14">
         <v>2307587</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7" s="17">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8" s="15">
         <v>2024</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="19">
-        <f t="shared" ref="D7" si="0">SUM(E7:O7)</f>
+      <c r="D8" s="17">
+        <f t="shared" ref="D8" si="0">SUM(E8:O8)</f>
         <v>6571845</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20">
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18">
         <v>1659284</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H8" s="18">
         <v>357763</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I8" s="18">
         <v>4125</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20">
+      <c r="J8" s="18"/>
+      <c r="K8" s="18">
         <v>18874</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L8" s="18">
         <v>22660</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M8" s="18">
         <v>9268</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N8" s="18">
         <v>2210987</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O8" s="18">
         <v>2288884</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" s="13">
+    <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="11">
         <v>2024</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="15">
-        <f>SUM(E8:O8)</f>
+      <c r="D9" s="13">
+        <f>SUM(E9:O9)</f>
         <v>6241021</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14">
         <v>1602332</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H9" s="14">
         <v>357115</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I9" s="14">
         <v>3750</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16">
+      <c r="J9" s="14"/>
+      <c r="K9" s="14">
         <v>16595</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L9" s="14">
         <v>21490</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M9" s="14">
         <v>8152</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N9" s="14">
         <v>2135071</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O9" s="14">
         <v>2096516</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="17">
+    <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="15">
         <v>2024</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="19">
-        <f>SUM(E9:O9)</f>
-        <v>7122666</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20">
+      <c r="D10" s="17">
+        <f>SUM(E10:O10)</f>
+        <v>7122257</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18">
         <v>1846259</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H10" s="18">
         <v>423300</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I10" s="18">
         <v>3350</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20">
+      <c r="J10" s="18"/>
+      <c r="K10" s="18">
         <v>23287</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L10" s="18">
         <v>32823</v>
       </c>
-      <c r="M9" s="20">
-        <v>13500</v>
-      </c>
-      <c r="N9" s="20">
+      <c r="M10" s="18">
+        <v>13091</v>
+      </c>
+      <c r="N10" s="18">
         <v>2380847</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O10" s="18">
         <v>2399300</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="13">
+    <row r="11" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="11">
         <v>2024</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="15">
-        <f t="shared" ref="D10:D12" si="1">SUM(E10:O10)</f>
-        <v>7366092</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="D11" s="13">
+        <f t="shared" ref="D11:D13" si="1">SUM(E11:O11)</f>
+        <v>7365600</v>
+      </c>
+      <c r="E11" s="14">
         <v>972</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14">
         <v>1936260</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H11" s="14">
         <v>455999</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I11" s="14">
         <v>2952</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16">
+      <c r="J11" s="14"/>
+      <c r="K11" s="14">
         <v>25726</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L11" s="14">
         <v>35662</v>
       </c>
-      <c r="M10" s="16">
-        <v>12021</v>
-      </c>
-      <c r="N10" s="16">
+      <c r="M11" s="14">
+        <v>11529</v>
+      </c>
+      <c r="N11" s="14">
         <v>2421165</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O11" s="14">
         <v>2475335</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="17">
+    <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="15">
         <v>2024</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D12" s="17">
         <f t="shared" si="1"/>
-        <v>6546101</v>
-      </c>
-      <c r="E11" s="20">
+        <v>6545709</v>
+      </c>
+      <c r="E12" s="18">
         <v>744</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20">
+      <c r="F12" s="18"/>
+      <c r="G12" s="18">
         <v>1681153</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H12" s="18">
         <v>420652</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I12" s="18">
         <v>2495</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20">
+      <c r="J12" s="18"/>
+      <c r="K12" s="18">
         <v>23110</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L12" s="18">
         <v>21518</v>
       </c>
-      <c r="M11" s="20">
-        <v>10064</v>
-      </c>
-      <c r="N11" s="20">
+      <c r="M12" s="18">
+        <v>9672</v>
+      </c>
+      <c r="N12" s="18">
         <v>2174929</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O12" s="18">
         <v>2211436</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="13">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="11">
         <v>2024</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D13" s="13">
         <f t="shared" si="1"/>
-        <v>6589382</v>
-      </c>
-      <c r="E12" s="16">
+        <v>6588910</v>
+      </c>
+      <c r="E13" s="14">
         <v>820</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14">
         <v>1727003</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H13" s="14">
         <v>431546</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I13" s="14">
         <v>2633</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16">
+      <c r="J13" s="14"/>
+      <c r="K13" s="14">
         <v>13929</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L13" s="14">
         <v>22186</v>
       </c>
-      <c r="M12" s="16">
-        <v>11316</v>
-      </c>
-      <c r="N12" s="16">
+      <c r="M13" s="14">
+        <v>10844</v>
+      </c>
+      <c r="N13" s="14">
         <v>2176419</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O13" s="14">
         <v>2203530</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="17">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="15">
         <v>2024</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="19">
-        <f t="shared" ref="D13:D43" si="2">SUM(E13:O13)</f>
-        <v>6256107</v>
-      </c>
-      <c r="E13" s="20">
+      <c r="D14" s="17">
+        <f t="shared" ref="D14:D44" si="2">SUM(E14:O14)</f>
+        <v>6255613</v>
+      </c>
+      <c r="E14" s="18">
         <v>1018</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20">
+      <c r="F14" s="18"/>
+      <c r="G14" s="18">
         <v>1647314</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H14" s="18">
         <v>437362</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I14" s="18">
         <v>2451</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20">
+      <c r="J14" s="18"/>
+      <c r="K14" s="18">
         <v>17123</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L14" s="18">
         <v>21899</v>
       </c>
-      <c r="M13" s="20">
-        <v>13736</v>
-      </c>
-      <c r="N13" s="20">
+      <c r="M14" s="18">
+        <v>13242</v>
+      </c>
+      <c r="N14" s="18">
         <v>2025760</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O14" s="18">
         <v>2089444</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="13">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="11">
         <v>2024</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D15" s="13">
         <f t="shared" si="2"/>
-        <v>6265547</v>
-      </c>
-      <c r="E14" s="16">
+        <v>6264883</v>
+      </c>
+      <c r="E15" s="14">
         <v>985</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14">
         <v>1663451</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H15" s="14">
         <v>414407</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I15" s="14">
         <v>2426</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16">
+      <c r="J15" s="14"/>
+      <c r="K15" s="14">
         <v>16310</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L15" s="14">
         <v>24140</v>
       </c>
-      <c r="M14" s="16">
-        <v>11984</v>
-      </c>
-      <c r="N14" s="16">
+      <c r="M15" s="14">
+        <v>11320</v>
+      </c>
+      <c r="N15" s="14">
         <v>2037641</v>
       </c>
-      <c r="O14" s="16">
+      <c r="O15" s="14">
         <v>2094203</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="17">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="15">
         <v>2024</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D16" s="17">
         <f t="shared" si="2"/>
-        <v>5607014</v>
-      </c>
-      <c r="E15" s="20">
+        <v>5606595</v>
+      </c>
+      <c r="E16" s="18">
         <v>703</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20">
+      <c r="F16" s="18"/>
+      <c r="G16" s="18">
         <v>1479121</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H16" s="18">
         <v>395860</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I16" s="18">
         <v>2323</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20">
+      <c r="J16" s="18"/>
+      <c r="K16" s="18">
         <v>11161</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L16" s="18">
         <v>17287</v>
       </c>
-      <c r="M15" s="20">
-        <v>11768</v>
-      </c>
-      <c r="N15" s="20">
+      <c r="M16" s="18">
+        <v>11349</v>
+      </c>
+      <c r="N16" s="18">
         <v>1772299</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O16" s="18">
         <v>1916492</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="21">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17" s="19">
         <v>2024</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D17" s="21">
         <f t="shared" si="2"/>
         <v>6274620</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E17" s="22">
         <v>1102</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24">
+      <c r="F17" s="22"/>
+      <c r="G17" s="22">
         <v>1481216</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H17" s="22">
         <v>490118</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I17" s="22">
         <v>2332</v>
       </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24">
+      <c r="J17" s="22"/>
+      <c r="K17" s="22">
         <v>14046</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L17" s="22">
         <v>12504</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M17" s="22">
         <v>12424</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N17" s="22">
         <v>2028846</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O17" s="22">
         <v>2232032</v>
       </c>
     </row>
-    <row r="17" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="25">
+    <row r="18" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="23">
         <v>2023</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C18" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D18" s="25">
         <f t="shared" si="2"/>
         <v>6943699</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E18" s="26">
         <v>1263</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28">
+      <c r="F18" s="26"/>
+      <c r="G18" s="26">
         <v>1661066</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H18" s="26">
         <v>520344</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I18" s="26">
         <v>2164</v>
       </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28">
+      <c r="J18" s="26"/>
+      <c r="K18" s="26">
         <v>23295</v>
       </c>
-      <c r="L17" s="28">
+      <c r="L18" s="26">
         <v>1620</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M18" s="26">
         <v>19717</v>
       </c>
-      <c r="N17" s="28">
+      <c r="N18" s="26">
         <v>2180392</v>
       </c>
-      <c r="O17" s="28">
+      <c r="O18" s="26">
         <v>2533838</v>
       </c>
     </row>
-    <row r="18" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="13">
+    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="11">
         <v>2023</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D19" s="13">
         <f t="shared" si="2"/>
         <v>6524452</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E19" s="14">
         <v>817</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14">
         <v>1518614</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H19" s="14">
         <v>487651</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I19" s="14">
         <v>1815</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16">
+      <c r="J19" s="14"/>
+      <c r="K19" s="14">
         <v>23109</v>
       </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16">
+      <c r="L19" s="14"/>
+      <c r="M19" s="14">
         <v>18006</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N19" s="14">
         <v>2055956</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O19" s="14">
         <v>2418484</v>
       </c>
     </row>
-    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="17">
+    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="15">
         <v>2023</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D20" s="17">
         <f t="shared" si="2"/>
         <v>6666523</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E20" s="18">
         <v>745</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20">
+      <c r="F20" s="18"/>
+      <c r="G20" s="18">
         <v>1534357</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H20" s="18">
         <v>502142</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I20" s="18">
         <v>1593</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20">
+      <c r="J20" s="18"/>
+      <c r="K20" s="18">
         <v>27175</v>
       </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20">
+      <c r="L20" s="18"/>
+      <c r="M20" s="18">
         <v>15799</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N20" s="18">
         <v>2142423</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O20" s="18">
         <v>2442289</v>
       </c>
     </row>
-    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="13">
+    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="11">
         <v>2023</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D21" s="13">
         <f t="shared" si="2"/>
         <v>6234323</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E21" s="14">
         <v>136</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16">
+      <c r="F21" s="14"/>
+      <c r="G21" s="14">
         <v>1449933</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H21" s="14">
         <v>489367</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I21" s="14">
         <v>1718</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16">
+      <c r="J21" s="14"/>
+      <c r="K21" s="14">
         <v>20794</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16">
+      <c r="L21" s="14"/>
+      <c r="M21" s="14">
         <v>13440</v>
       </c>
-      <c r="N20" s="16">
+      <c r="N21" s="14">
         <v>1975887</v>
       </c>
-      <c r="O20" s="16">
+      <c r="O21" s="14">
         <v>2283048</v>
       </c>
     </row>
-    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="17">
+    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="15">
         <v>2023</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C22" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D22" s="17">
         <f t="shared" si="2"/>
         <v>7366586</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E22" s="18">
         <v>711</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20">
+      <c r="F22" s="18"/>
+      <c r="G22" s="18">
         <v>1790842</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H22" s="18">
         <v>509073</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I22" s="18">
         <v>1858</v>
       </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20">
+      <c r="J22" s="18"/>
+      <c r="K22" s="18">
         <v>33617</v>
       </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20">
+      <c r="L22" s="18"/>
+      <c r="M22" s="18">
         <v>17102</v>
       </c>
-      <c r="N21" s="20">
+      <c r="N22" s="18">
         <v>2222143</v>
       </c>
-      <c r="O21" s="20">
+      <c r="O22" s="18">
         <v>2791240</v>
       </c>
     </row>
-    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="13">
+    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="11">
         <v>2023</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D23" s="13">
         <f t="shared" si="2"/>
         <v>7470779</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E23" s="14">
         <v>7815</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16">
+      <c r="F23" s="14"/>
+      <c r="G23" s="14">
         <v>1877785</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H23" s="14">
         <v>489520</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I23" s="14">
         <v>1593</v>
       </c>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16">
+      <c r="J23" s="14"/>
+      <c r="K23" s="14">
         <v>38495</v>
       </c>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16">
+      <c r="L23" s="14"/>
+      <c r="M23" s="14">
         <v>16965</v>
       </c>
-      <c r="N22" s="16">
+      <c r="N23" s="14">
         <v>2256958</v>
       </c>
-      <c r="O22" s="16">
+      <c r="O23" s="14">
         <v>2781648</v>
       </c>
     </row>
-    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="17">
+    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="15">
         <v>2023</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D24" s="17">
         <f t="shared" si="2"/>
         <v>6481356</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E24" s="18">
         <v>8579</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20">
+      <c r="F24" s="18"/>
+      <c r="G24" s="18">
         <v>1623869</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H24" s="18">
         <v>444461</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I24" s="18">
         <v>930</v>
       </c>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20">
+      <c r="J24" s="18"/>
+      <c r="K24" s="18">
         <v>26027</v>
       </c>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20">
+      <c r="L24" s="18"/>
+      <c r="M24" s="18">
         <v>16972</v>
       </c>
-      <c r="N23" s="20">
+      <c r="N24" s="18">
         <v>1939577</v>
       </c>
-      <c r="O23" s="20">
+      <c r="O24" s="18">
         <v>2420941</v>
       </c>
     </row>
-    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="13">
+    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="11">
         <v>2023</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D25" s="13">
         <f t="shared" si="2"/>
         <v>6466836</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E25" s="14">
         <v>10045</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16">
+      <c r="F25" s="14"/>
+      <c r="G25" s="14">
         <v>1475419</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H25" s="14">
         <v>493646</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I25" s="14">
         <v>866</v>
       </c>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16">
+      <c r="J25" s="14"/>
+      <c r="K25" s="14">
         <v>22311</v>
       </c>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16">
+      <c r="L25" s="14"/>
+      <c r="M25" s="14">
         <v>22530</v>
       </c>
-      <c r="N24" s="16">
+      <c r="N25" s="14">
         <v>1903714</v>
       </c>
-      <c r="O24" s="16">
+      <c r="O25" s="14">
         <v>2538305</v>
       </c>
     </row>
-    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="17">
+    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="15">
         <v>2023</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C26" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D26" s="17">
         <f t="shared" si="2"/>
         <v>6505979</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E26" s="18">
         <v>7610</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20">
+      <c r="F26" s="18"/>
+      <c r="G26" s="18">
         <v>1447508</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H26" s="18">
         <v>495864</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I26" s="18">
         <v>73</v>
       </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20">
+      <c r="J26" s="18"/>
+      <c r="K26" s="18">
         <v>22224</v>
       </c>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20">
+      <c r="L26" s="18"/>
+      <c r="M26" s="18">
         <v>23384</v>
       </c>
-      <c r="N25" s="20">
+      <c r="N26" s="18">
         <v>1903503</v>
       </c>
-      <c r="O25" s="20">
+      <c r="O26" s="18">
         <v>2605813</v>
       </c>
     </row>
-    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="13">
+    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="11">
         <v>2023</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D27" s="13">
         <f t="shared" si="2"/>
         <v>6389909</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E27" s="14">
         <v>4538</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16">
+      <c r="F27" s="14"/>
+      <c r="G27" s="14">
         <v>1502404</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H27" s="14">
         <v>516526</v>
       </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16">
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14">
         <v>15589</v>
       </c>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16">
+      <c r="L27" s="14"/>
+      <c r="M27" s="14">
         <v>23229</v>
       </c>
-      <c r="N26" s="16">
+      <c r="N27" s="14">
         <v>1776763</v>
       </c>
-      <c r="O26" s="16">
+      <c r="O27" s="14">
         <v>2550860</v>
       </c>
     </row>
-    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="17">
+    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="15">
         <v>2023</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C28" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D28" s="17">
         <f t="shared" si="2"/>
         <v>5478771</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E28" s="18">
         <v>9031</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F28" s="18">
         <v>9443</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G28" s="18">
         <v>1277871</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H28" s="18">
         <v>459155</v>
       </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20">
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18">
         <v>11992</v>
       </c>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20">
+      <c r="L28" s="18"/>
+      <c r="M28" s="18">
         <v>19704</v>
       </c>
-      <c r="N27" s="20">
+      <c r="N28" s="18">
         <v>1431046</v>
       </c>
-      <c r="O27" s="20">
+      <c r="O28" s="18">
         <v>2260529</v>
       </c>
     </row>
-    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="21">
+    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="19">
         <v>2023</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C29" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D29" s="21">
         <f t="shared" si="2"/>
         <v>6248337</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E29" s="22">
         <v>9895</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F29" s="22">
         <v>23595</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G29" s="22">
         <v>1439058</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H29" s="22">
         <v>503079</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24">
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22">
         <v>15438</v>
       </c>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24">
+      <c r="L29" s="22"/>
+      <c r="M29" s="22">
         <v>23680</v>
       </c>
-      <c r="N28" s="24">
+      <c r="N29" s="22">
         <v>1650780</v>
       </c>
-      <c r="O28" s="24">
+      <c r="O29" s="22">
         <v>2582812</v>
       </c>
     </row>
-    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="25">
+    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="23">
         <v>2022</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C30" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D30" s="25">
         <f t="shared" si="2"/>
         <v>6735243</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E30" s="26">
         <v>8855</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F30" s="26">
         <v>30082</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G30" s="26">
         <v>1541064</v>
       </c>
-      <c r="H29" s="28">
+      <c r="H30" s="26">
         <v>545257</v>
       </c>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28">
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26">
         <v>31832</v>
       </c>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28">
+      <c r="L30" s="26"/>
+      <c r="M30" s="26">
         <v>32706</v>
       </c>
-      <c r="N29" s="28">
+      <c r="N30" s="26">
         <v>1885616</v>
       </c>
-      <c r="O29" s="28">
+      <c r="O30" s="26">
         <v>2659831</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="13">
+    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="11">
         <v>2022</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D31" s="13">
         <f t="shared" si="2"/>
         <v>6388091</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E31" s="14">
         <v>10809</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F31" s="14">
         <v>29180</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G31" s="14">
         <v>1477832</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H31" s="14">
         <v>542019</v>
       </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16">
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14">
         <v>26190</v>
       </c>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16">
+      <c r="L31" s="14"/>
+      <c r="M31" s="14">
         <v>25324</v>
       </c>
-      <c r="N30" s="16">
+      <c r="N31" s="14">
         <v>1806360</v>
       </c>
-      <c r="O30" s="16">
+      <c r="O31" s="14">
         <v>2470377</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="17">
+    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="15">
         <v>2022</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C32" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D32" s="17">
         <f t="shared" si="2"/>
         <v>6296390</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E32" s="18">
         <v>11560</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F32" s="18">
         <v>29156</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G32" s="18">
         <v>1436769</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H32" s="18">
         <v>525145</v>
       </c>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20">
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18">
         <v>25003</v>
       </c>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20">
+      <c r="L32" s="18"/>
+      <c r="M32" s="18">
         <v>26165</v>
       </c>
-      <c r="N31" s="20">
+      <c r="N32" s="18">
         <v>1730130</v>
       </c>
-      <c r="O31" s="20">
+      <c r="O32" s="18">
         <v>2512462</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="13">
+    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="11">
         <v>2022</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C33" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D33" s="13">
         <f t="shared" si="2"/>
         <v>5717570</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E33" s="14">
         <v>8563</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F33" s="14">
         <v>27782</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G33" s="14">
         <v>1324735</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H33" s="14">
         <v>461328</v>
       </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16">
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14">
         <v>24539</v>
       </c>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16">
+      <c r="L33" s="14"/>
+      <c r="M33" s="14">
         <v>23409</v>
       </c>
-      <c r="N32" s="16">
+      <c r="N33" s="14">
         <v>1533686</v>
       </c>
-      <c r="O32" s="16">
+      <c r="O33" s="14">
         <v>2313528</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="17">
+    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="15">
         <v>2022</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C34" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D34" s="17">
         <f t="shared" si="2"/>
         <v>6395624</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E34" s="18">
         <v>12206</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F34" s="18">
         <v>36300</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G34" s="18">
         <v>1459848</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H34" s="18">
         <v>550210</v>
       </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20">
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18">
         <v>41574</v>
       </c>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20">
+      <c r="L34" s="18"/>
+      <c r="M34" s="18">
         <v>28457</v>
       </c>
-      <c r="N33" s="20">
+      <c r="N34" s="18">
         <v>1770150</v>
       </c>
-      <c r="O33" s="20">
+      <c r="O34" s="18">
         <v>2496879</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="13">
+    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="11">
         <v>2022</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D35" s="13">
         <f t="shared" si="2"/>
         <v>6606709</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E35" s="14">
         <v>12900</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F35" s="14">
         <v>37410</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G35" s="14">
         <v>1493132</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H35" s="14">
         <v>544988</v>
       </c>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16">
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14">
         <v>52783</v>
       </c>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16">
+      <c r="L35" s="14"/>
+      <c r="M35" s="14">
         <v>35829</v>
       </c>
-      <c r="N34" s="16">
+      <c r="N35" s="14">
         <v>1832173</v>
       </c>
-      <c r="O34" s="16">
+      <c r="O35" s="14">
         <v>2597494</v>
       </c>
     </row>
-    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="17">
+    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="15">
         <v>2022</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C36" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D36" s="17">
         <f t="shared" si="2"/>
         <v>5816384</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E36" s="18">
         <v>11528</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F36" s="18">
         <v>29894</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G36" s="18">
         <v>1448616</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H36" s="18">
         <v>482837</v>
       </c>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20">
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18">
         <v>38612</v>
       </c>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20">
+      <c r="L36" s="18"/>
+      <c r="M36" s="18">
         <v>31692</v>
       </c>
-      <c r="N35" s="20">
+      <c r="N36" s="18">
         <v>1629719</v>
       </c>
-      <c r="O35" s="20">
+      <c r="O36" s="18">
         <v>2143486</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="13">
+    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="11">
         <v>2022</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C37" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D37" s="13">
         <f t="shared" si="2"/>
         <v>5938227</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E37" s="14">
         <v>14051</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F37" s="14">
         <v>34530</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G37" s="14">
         <v>1394194</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H37" s="14">
         <v>469001</v>
       </c>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16">
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14">
         <v>36048</v>
       </c>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16">
+      <c r="L37" s="14"/>
+      <c r="M37" s="14">
         <v>32934</v>
       </c>
-      <c r="N36" s="16">
+      <c r="N37" s="14">
         <v>1638787</v>
       </c>
-      <c r="O36" s="16">
+      <c r="O37" s="14">
         <v>2318682</v>
       </c>
     </row>
-    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="17">
+    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="15">
         <v>2022</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C38" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D38" s="17">
         <f t="shared" si="2"/>
         <v>5762121</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E38" s="18">
         <v>12580</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F38" s="18">
         <v>39403</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G38" s="18">
         <v>1248745</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H38" s="18">
         <v>447104</v>
       </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20">
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18">
         <v>30427</v>
       </c>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20">
+      <c r="L38" s="18"/>
+      <c r="M38" s="18">
         <v>31976</v>
       </c>
-      <c r="N37" s="20">
+      <c r="N38" s="18">
         <v>1571982</v>
       </c>
-      <c r="O37" s="20">
+      <c r="O38" s="18">
         <v>2379904</v>
       </c>
     </row>
-    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="13">
+    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="11">
         <v>2022</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C39" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D39" s="13">
         <f t="shared" si="2"/>
         <v>5450271</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E39" s="14">
         <v>13206</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F39" s="14">
         <v>32413</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G39" s="14">
         <v>1137873</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H39" s="14">
         <v>485288</v>
       </c>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16">
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14">
         <v>20444</v>
       </c>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16">
+      <c r="L39" s="14"/>
+      <c r="M39" s="14">
         <v>30333</v>
       </c>
-      <c r="N38" s="16">
+      <c r="N39" s="14">
         <v>1443642</v>
       </c>
-      <c r="O38" s="16">
+      <c r="O39" s="14">
         <v>2287072</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="17">
+    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="15">
         <v>2022</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C40" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D40" s="17">
         <f t="shared" si="2"/>
         <v>4335053</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E40" s="18">
         <v>10775</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F40" s="18">
         <v>26979</v>
       </c>
-      <c r="G39" s="20">
+      <c r="G40" s="18">
         <v>817221</v>
       </c>
-      <c r="H39" s="20">
+      <c r="H40" s="18">
         <v>400280</v>
       </c>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20">
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18">
         <v>14632</v>
       </c>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20">
+      <c r="L40" s="18"/>
+      <c r="M40" s="18">
         <v>22836</v>
       </c>
-      <c r="N39" s="20">
+      <c r="N40" s="18">
         <v>1113977</v>
       </c>
-      <c r="O39" s="20">
+      <c r="O40" s="18">
         <v>1928353</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="21">
+    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="19">
         <v>2022</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C41" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D41" s="21">
         <f t="shared" si="2"/>
         <v>4754587</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E41" s="22">
         <v>10351</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F41" s="22">
         <v>35019</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G41" s="22">
         <v>851918</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H41" s="22">
         <v>400866</v>
       </c>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24">
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22">
         <v>19731</v>
       </c>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24">
+      <c r="L41" s="22"/>
+      <c r="M41" s="22">
         <v>22335</v>
       </c>
-      <c r="N40" s="24">
+      <c r="N41" s="22">
         <v>1322859</v>
       </c>
-      <c r="O40" s="24">
+      <c r="O41" s="22">
         <v>2091508</v>
       </c>
     </row>
-    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="25">
+    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="23">
         <v>2021</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C42" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="27">
+      <c r="D42" s="25">
         <f t="shared" si="2"/>
         <v>5788606</v>
       </c>
-      <c r="E41" s="28">
+      <c r="E42" s="26">
         <v>12597</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F42" s="26">
         <v>48986</v>
       </c>
-      <c r="G41" s="28">
+      <c r="G42" s="26">
         <v>1194196</v>
       </c>
-      <c r="H41" s="28">
+      <c r="H42" s="26">
         <v>531737</v>
       </c>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28">
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26">
         <v>41564</v>
       </c>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28">
+      <c r="L42" s="26"/>
+      <c r="M42" s="26">
         <v>32426</v>
       </c>
-      <c r="N41" s="28">
+      <c r="N42" s="26">
         <v>1542449</v>
       </c>
-      <c r="O41" s="28">
+      <c r="O42" s="26">
         <v>2384651</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="13">
+    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="11">
         <v>2021</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D43" s="13">
         <f t="shared" si="2"/>
         <v>5289729</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E43" s="14">
         <v>11837</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F43" s="14">
         <v>46757</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G43" s="14">
         <v>1056753</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H43" s="14">
         <v>485468</v>
       </c>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16">
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14">
         <v>32507</v>
       </c>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16">
+      <c r="L43" s="14"/>
+      <c r="M43" s="14">
         <v>29832</v>
       </c>
-      <c r="N42" s="16">
+      <c r="N43" s="14">
         <v>1406500</v>
       </c>
-      <c r="O42" s="16">
+      <c r="O43" s="14">
         <v>2220075</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="17">
+    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="15">
         <v>2021</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C44" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D44" s="17">
         <f t="shared" si="2"/>
         <v>5118685</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E44" s="18">
         <v>14115</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F44" s="18">
         <v>45703</v>
       </c>
-      <c r="G43" s="20">
+      <c r="G44" s="18">
         <v>1034177</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H44" s="18">
         <v>510398</v>
       </c>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20">
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18">
         <v>28313</v>
       </c>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20">
+      <c r="L44" s="18"/>
+      <c r="M44" s="18">
         <v>31649</v>
       </c>
-      <c r="N43" s="20">
+      <c r="N44" s="18">
         <v>1355918</v>
       </c>
-      <c r="O43" s="20">
+      <c r="O44" s="18">
         <v>2098412</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="13">
+    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="11">
         <v>2021</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C45" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="15">
-        <f t="shared" ref="D44:D75" si="3">SUM(E44:O44)</f>
+      <c r="D45" s="13">
+        <f t="shared" ref="D45:D76" si="3">SUM(E45:O45)</f>
         <v>4470649</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E45" s="14">
         <v>12872</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F45" s="14">
         <v>42716</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G45" s="14">
         <v>893242</v>
       </c>
-      <c r="H44" s="16">
+      <c r="H45" s="14">
         <v>444101</v>
       </c>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16">
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14">
         <v>24490</v>
       </c>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16">
+      <c r="L45" s="14"/>
+      <c r="M45" s="14">
         <v>25901</v>
       </c>
-      <c r="N44" s="16">
+      <c r="N45" s="14">
         <v>1153271</v>
       </c>
-      <c r="O44" s="16">
+      <c r="O45" s="14">
         <v>1874056</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="17">
+    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="15">
         <v>2021</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C46" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D46" s="17">
         <f t="shared" si="3"/>
         <v>5008604</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E46" s="18">
         <v>12792</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F46" s="18">
         <v>47119</v>
       </c>
-      <c r="G45" s="20">
+      <c r="G46" s="18">
         <v>993427</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H46" s="18">
         <v>524484</v>
       </c>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20">
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18">
         <v>35479</v>
       </c>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20">
+      <c r="L46" s="18"/>
+      <c r="M46" s="18">
         <v>26034</v>
       </c>
-      <c r="N45" s="20">
+      <c r="N46" s="18">
         <v>1305965</v>
       </c>
-      <c r="O45" s="20">
+      <c r="O46" s="18">
         <v>2063304</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="13">
+    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="11">
         <v>2021</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C47" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D47" s="13">
         <f t="shared" si="3"/>
         <v>5456169</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E47" s="14">
         <v>15216</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F47" s="14">
         <v>53005</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G47" s="14">
         <v>1058956</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H47" s="14">
         <v>590598</v>
       </c>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16">
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14">
         <v>64029</v>
       </c>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16">
+      <c r="L47" s="14"/>
+      <c r="M47" s="14">
         <v>30912</v>
       </c>
-      <c r="N46" s="16">
+      <c r="N47" s="14">
         <v>1503552</v>
       </c>
-      <c r="O46" s="16">
+      <c r="O47" s="14">
         <v>2139901</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="17">
+    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="15">
         <v>2021</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C48" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D48" s="17">
         <f t="shared" si="3"/>
         <v>4784013</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E48" s="18">
         <v>15389</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F48" s="18">
         <v>43733</v>
       </c>
-      <c r="G47" s="20">
+      <c r="G48" s="18">
         <v>853708</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H48" s="18">
         <v>536816</v>
       </c>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20">
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18">
         <v>54554</v>
       </c>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20">
+      <c r="L48" s="18"/>
+      <c r="M48" s="18">
         <v>23167</v>
       </c>
-      <c r="N47" s="20">
+      <c r="N48" s="18">
         <v>1288126</v>
       </c>
-      <c r="O47" s="20">
+      <c r="O48" s="18">
         <v>1968520</v>
       </c>
     </row>
-    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="13">
+    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="11">
         <v>2021</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D49" s="13">
         <f t="shared" si="3"/>
         <v>4739036</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E49" s="14">
         <v>16431</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F49" s="14">
         <v>40566</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G49" s="14">
         <v>804638</v>
       </c>
-      <c r="H48" s="16">
+      <c r="H49" s="14">
         <v>535959</v>
       </c>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16">
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14">
         <v>45166</v>
       </c>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16">
+      <c r="L49" s="14"/>
+      <c r="M49" s="14">
         <v>20712</v>
       </c>
-      <c r="N48" s="16">
+      <c r="N49" s="14">
         <v>1283475</v>
       </c>
-      <c r="O48" s="16">
+      <c r="O49" s="14">
         <v>1992089</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="17">
+    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="15">
         <v>2021</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C50" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D50" s="17">
         <f t="shared" si="3"/>
         <v>4139956</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E50" s="18">
         <v>13432</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F50" s="18">
         <v>34786</v>
       </c>
-      <c r="G49" s="20">
+      <c r="G50" s="18">
         <v>729359</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H50" s="18">
         <v>459115</v>
       </c>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20">
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18">
         <v>37963</v>
       </c>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20">
+      <c r="L50" s="18"/>
+      <c r="M50" s="18">
         <v>19899</v>
       </c>
-      <c r="N49" s="20">
+      <c r="N50" s="18">
         <v>1098291</v>
       </c>
-      <c r="O49" s="20">
+      <c r="O50" s="18">
         <v>1747111</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="13">
+    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="11">
         <v>2021</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C51" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D51" s="13">
         <f t="shared" si="3"/>
         <v>3643233</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E51" s="14">
         <v>13443</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F51" s="14">
         <v>34472</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G51" s="14">
         <v>700282</v>
       </c>
-      <c r="H50" s="16">
+      <c r="H51" s="14">
         <v>454696</v>
       </c>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16">
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14">
         <v>25539</v>
       </c>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16">
+      <c r="L51" s="14"/>
+      <c r="M51" s="14">
         <v>18739</v>
       </c>
-      <c r="N50" s="16">
+      <c r="N51" s="14">
         <v>1015276</v>
       </c>
-      <c r="O50" s="16">
+      <c r="O51" s="14">
         <v>1380786</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="17">
+    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="15">
         <v>2021</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C52" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D52" s="17">
         <f t="shared" si="3"/>
         <v>2522697</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E52" s="18">
         <v>8230</v>
       </c>
-      <c r="F51" s="20">
+      <c r="F52" s="18">
         <v>21876</v>
       </c>
-      <c r="G51" s="20">
+      <c r="G52" s="18">
         <v>521896</v>
       </c>
-      <c r="H51" s="20">
+      <c r="H52" s="18">
         <v>365190</v>
       </c>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20">
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18">
         <v>13877</v>
       </c>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20">
+      <c r="L52" s="18"/>
+      <c r="M52" s="18">
         <v>12256</v>
       </c>
-      <c r="N51" s="20">
+      <c r="N52" s="18">
         <v>590075</v>
       </c>
-      <c r="O51" s="20">
+      <c r="O52" s="18">
         <v>989297</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="21">
+    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="19">
         <v>2021</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C53" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D53" s="21">
         <f t="shared" si="3"/>
         <v>3256499</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E53" s="22">
         <v>7181</v>
       </c>
-      <c r="F52" s="24">
+      <c r="F53" s="22">
         <v>25543</v>
       </c>
-      <c r="G52" s="24">
+      <c r="G53" s="22">
         <v>641860</v>
       </c>
-      <c r="H52" s="24">
+      <c r="H53" s="22">
         <v>438330</v>
       </c>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24">
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22">
         <v>19413</v>
       </c>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24">
+      <c r="L53" s="22"/>
+      <c r="M53" s="22">
         <v>13791</v>
       </c>
-      <c r="N52" s="24">
+      <c r="N53" s="22">
         <v>759842</v>
       </c>
-      <c r="O52" s="24">
+      <c r="O53" s="22">
         <v>1350539</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="25">
+    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="23">
         <v>2020</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C54" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="27">
+      <c r="D54" s="25">
         <f t="shared" si="3"/>
         <v>3752676</v>
       </c>
-      <c r="E53" s="28">
+      <c r="E54" s="26">
         <v>6626</v>
       </c>
-      <c r="F53" s="28">
+      <c r="F54" s="26">
         <v>32040</v>
       </c>
-      <c r="G53" s="28">
+      <c r="G54" s="26">
         <v>610544</v>
       </c>
-      <c r="H53" s="28">
+      <c r="H54" s="26">
         <v>491905</v>
       </c>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28">
+      <c r="I54" s="26"/>
+      <c r="J54" s="26">
         <v>4039</v>
       </c>
-      <c r="K53" s="28">
+      <c r="K54" s="26">
         <v>45610</v>
       </c>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28">
+      <c r="L54" s="26"/>
+      <c r="M54" s="26">
         <v>17383</v>
       </c>
-      <c r="N53" s="28">
+      <c r="N54" s="26">
         <v>998369</v>
       </c>
-      <c r="O53" s="28">
+      <c r="O54" s="26">
         <v>1546160</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="13">
+    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="11">
         <v>2020</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C55" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D55" s="13">
         <f t="shared" si="3"/>
         <v>3347186</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E55" s="14">
         <v>6583</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F55" s="14">
         <v>28629</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G55" s="14">
         <v>520221</v>
       </c>
-      <c r="H54" s="16">
+      <c r="H55" s="14">
         <v>395967</v>
       </c>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16">
+      <c r="I55" s="14"/>
+      <c r="J55" s="14">
         <v>17545</v>
       </c>
-      <c r="K54" s="16">
+      <c r="K55" s="14">
         <v>37463</v>
       </c>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16">
+      <c r="L55" s="14"/>
+      <c r="M55" s="14">
         <v>14115</v>
       </c>
-      <c r="N54" s="16">
+      <c r="N55" s="14">
         <v>863224</v>
       </c>
-      <c r="O54" s="16">
+      <c r="O55" s="14">
         <v>1463439</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="17">
+    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="15">
         <v>2020</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C56" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D56" s="17">
         <f t="shared" si="3"/>
         <v>3072785</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E56" s="18">
         <v>5614</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F56" s="18">
         <v>27120</v>
       </c>
-      <c r="G55" s="20">
+      <c r="G56" s="18">
         <v>463245</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H56" s="18">
         <v>395686</v>
       </c>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20">
+      <c r="I56" s="18"/>
+      <c r="J56" s="18">
         <v>33425</v>
       </c>
-      <c r="K55" s="20">
+      <c r="K56" s="18">
         <v>29759</v>
       </c>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20">
+      <c r="L56" s="18"/>
+      <c r="M56" s="18">
         <v>14897</v>
       </c>
-      <c r="N55" s="20">
+      <c r="N56" s="18">
         <v>803614</v>
       </c>
-      <c r="O55" s="20">
+      <c r="O56" s="18">
         <v>1299425</v>
       </c>
     </row>
-    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="13">
+    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="11">
         <v>2020</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D57" s="13">
         <f t="shared" si="3"/>
         <v>2614973</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E57" s="14">
         <v>4853</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F57" s="14">
         <v>21371</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G57" s="14">
         <v>371636</v>
       </c>
-      <c r="H56" s="16">
+      <c r="H57" s="14">
         <v>325704</v>
       </c>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16">
+      <c r="I57" s="14"/>
+      <c r="J57" s="14">
         <v>41547</v>
       </c>
-      <c r="K56" s="16">
+      <c r="K57" s="14">
         <v>30615</v>
       </c>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16">
+      <c r="L57" s="14"/>
+      <c r="M57" s="14">
         <v>11615</v>
       </c>
-      <c r="N56" s="16">
+      <c r="N57" s="14">
         <v>665331</v>
       </c>
-      <c r="O56" s="16">
+      <c r="O57" s="14">
         <v>1142301</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="17">
+    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="15">
         <v>2020</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C58" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D58" s="17">
         <f t="shared" si="3"/>
         <v>2423904</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E58" s="18">
         <v>3748</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F58" s="18">
         <v>22617</v>
       </c>
-      <c r="G57" s="20">
+      <c r="G58" s="18">
         <v>322580</v>
       </c>
-      <c r="H57" s="20">
+      <c r="H58" s="18">
         <v>310616</v>
       </c>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20">
+      <c r="I58" s="18"/>
+      <c r="J58" s="18">
         <v>38737</v>
       </c>
-      <c r="K57" s="20">
+      <c r="K58" s="18">
         <v>30641</v>
       </c>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20">
+      <c r="L58" s="18"/>
+      <c r="M58" s="18">
         <v>7400</v>
       </c>
-      <c r="N57" s="20">
+      <c r="N58" s="18">
         <v>586367</v>
       </c>
-      <c r="O57" s="20">
+      <c r="O58" s="18">
         <v>1101198</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="13">
+    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="11">
         <v>2020</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D59" s="13">
         <f t="shared" si="3"/>
         <v>1910823</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E59" s="14">
         <v>3082</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F59" s="14">
         <v>18259</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G59" s="14">
         <v>251899</v>
       </c>
-      <c r="H58" s="16">
+      <c r="H59" s="14">
         <v>254505</v>
       </c>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16">
+      <c r="I59" s="14"/>
+      <c r="J59" s="14">
         <v>38811</v>
       </c>
-      <c r="K58" s="16">
+      <c r="K59" s="14">
         <v>24630</v>
       </c>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16">
+      <c r="L59" s="14"/>
+      <c r="M59" s="14">
         <v>4178</v>
       </c>
-      <c r="N58" s="16">
+      <c r="N59" s="14">
         <v>418350</v>
       </c>
-      <c r="O58" s="16">
+      <c r="O59" s="14">
         <v>897109</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="17">
+    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="15">
         <v>2020</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C60" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D60" s="17">
         <f t="shared" si="3"/>
         <v>996346</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E60" s="18">
         <v>1927</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F60" s="18">
         <v>9051</v>
       </c>
-      <c r="G59" s="20">
+      <c r="G60" s="18">
         <v>140991</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H60" s="18">
         <v>97306</v>
       </c>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20">
+      <c r="I60" s="18"/>
+      <c r="J60" s="18">
         <v>24942</v>
       </c>
-      <c r="K59" s="20">
+      <c r="K60" s="18">
         <v>5002</v>
       </c>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20">
+      <c r="L60" s="18"/>
+      <c r="M60" s="18">
         <v>2168</v>
       </c>
-      <c r="N59" s="20">
+      <c r="N60" s="18">
         <v>201937</v>
       </c>
-      <c r="O59" s="20">
+      <c r="O60" s="18">
         <v>513022</v>
       </c>
     </row>
-    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="13">
+    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="11">
         <v>2020</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D61" s="13">
         <f t="shared" si="3"/>
         <v>410766</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E61" s="14">
         <v>1324</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F61" s="14">
         <v>4688</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G61" s="14">
         <v>50801</v>
       </c>
-      <c r="H60" s="16">
+      <c r="H61" s="14">
         <v>80478</v>
       </c>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16">
+      <c r="I61" s="14"/>
+      <c r="J61" s="14">
         <v>14835</v>
       </c>
-      <c r="K60" s="16">
+      <c r="K61" s="14">
         <v>0</v>
       </c>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16">
+      <c r="L61" s="14"/>
+      <c r="M61" s="14">
         <v>1040</v>
       </c>
-      <c r="N60" s="16">
+      <c r="N61" s="14">
         <v>90419</v>
       </c>
-      <c r="O60" s="16">
+      <c r="O61" s="14">
         <v>167181</v>
       </c>
     </row>
-    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="17">
+    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="15">
         <v>2020</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C62" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="19">
+      <c r="D62" s="17">
         <f t="shared" si="3"/>
         <v>449003</v>
       </c>
-      <c r="E61" s="20">
+      <c r="E62" s="18">
         <v>1164</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F62" s="18">
         <v>2668</v>
       </c>
-      <c r="G61" s="20">
+      <c r="G62" s="18">
         <v>60744</v>
       </c>
-      <c r="H61" s="20">
+      <c r="H62" s="18">
         <v>86523</v>
       </c>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20">
+      <c r="I62" s="18"/>
+      <c r="J62" s="18">
         <v>25068</v>
       </c>
-      <c r="K61" s="20">
+      <c r="K62" s="18">
         <v>705</v>
       </c>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20">
+      <c r="L62" s="18"/>
+      <c r="M62" s="18">
         <v>485</v>
       </c>
-      <c r="N61" s="20">
+      <c r="N62" s="18">
         <v>89915</v>
       </c>
-      <c r="O61" s="20">
+      <c r="O62" s="18">
         <v>181731</v>
       </c>
     </row>
-    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="13">
+    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="11">
         <v>2020</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C63" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D63" s="13">
         <f t="shared" si="3"/>
         <v>3931644</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E63" s="14">
         <v>8791</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F63" s="14">
         <v>41673</v>
       </c>
-      <c r="G62" s="16">
+      <c r="G63" s="14">
         <v>572018</v>
       </c>
-      <c r="H62" s="16">
+      <c r="H63" s="14">
         <v>464064</v>
       </c>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16">
+      <c r="I63" s="14"/>
+      <c r="J63" s="14">
         <v>822187</v>
       </c>
-      <c r="K62" s="16">
+      <c r="K63" s="14">
         <v>23248</v>
       </c>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16">
+      <c r="L63" s="14"/>
+      <c r="M63" s="14">
         <v>26274</v>
       </c>
-      <c r="N62" s="16">
+      <c r="N63" s="14">
         <v>704638</v>
       </c>
-      <c r="O62" s="16">
+      <c r="O63" s="14">
         <v>1268751</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="17">
+    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="15">
         <v>2020</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C64" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D64" s="17">
         <f t="shared" si="3"/>
         <v>5315967</v>
       </c>
-      <c r="E63" s="20">
+      <c r="E64" s="18">
         <v>10857</v>
       </c>
-      <c r="F63" s="20">
+      <c r="F64" s="18">
         <v>59357</v>
       </c>
-      <c r="G63" s="20">
+      <c r="G64" s="18">
         <v>846279</v>
       </c>
-      <c r="H63" s="20">
+      <c r="H64" s="18">
         <v>641873</v>
       </c>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20">
+      <c r="I64" s="18"/>
+      <c r="J64" s="18">
         <v>1178801</v>
       </c>
-      <c r="K63" s="20">
+      <c r="K64" s="18">
         <v>26652</v>
       </c>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20">
+      <c r="L64" s="18"/>
+      <c r="M64" s="18">
         <v>36382</v>
       </c>
-      <c r="N63" s="20">
+      <c r="N64" s="18">
         <v>881600</v>
       </c>
-      <c r="O63" s="20">
+      <c r="O64" s="18">
         <v>1634166</v>
       </c>
     </row>
-    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="21">
+    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="19">
         <v>2020</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C65" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="23">
+      <c r="D65" s="21">
         <f t="shared" si="3"/>
         <v>5907035</v>
       </c>
-      <c r="E64" s="24">
+      <c r="E65" s="22">
         <v>13840</v>
       </c>
-      <c r="F64" s="24">
+      <c r="F65" s="22">
         <v>68044</v>
       </c>
-      <c r="G64" s="24">
+      <c r="G65" s="22">
         <v>961808</v>
       </c>
-      <c r="H64" s="24">
+      <c r="H65" s="22">
         <v>680707</v>
       </c>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24">
+      <c r="I65" s="22"/>
+      <c r="J65" s="22">
         <v>1315599</v>
       </c>
-      <c r="K64" s="24">
+      <c r="K65" s="22">
         <v>47575</v>
       </c>
-      <c r="L64" s="24"/>
-      <c r="M64" s="24">
+      <c r="L65" s="22"/>
+      <c r="M65" s="22">
         <v>40620</v>
       </c>
-      <c r="N64" s="24">
+      <c r="N65" s="22">
         <v>980414</v>
       </c>
-      <c r="O64" s="24">
+      <c r="O65" s="22">
         <v>1798428</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="25">
+    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="23">
         <v>2019</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C66" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="27">
+      <c r="D66" s="25">
         <f t="shared" si="3"/>
         <v>6305291</v>
       </c>
-      <c r="E65" s="28">
+      <c r="E66" s="26">
         <v>14577</v>
       </c>
-      <c r="F65" s="28">
+      <c r="F66" s="26">
         <v>79686</v>
       </c>
-      <c r="G65" s="28">
+      <c r="G66" s="26">
         <v>1001613</v>
       </c>
-      <c r="H65" s="28">
+      <c r="H66" s="26">
         <v>756331</v>
       </c>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28">
+      <c r="I66" s="26"/>
+      <c r="J66" s="26">
         <v>1419527</v>
       </c>
-      <c r="K65" s="28">
+      <c r="K66" s="26">
         <v>72539</v>
       </c>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28">
+      <c r="L66" s="26"/>
+      <c r="M66" s="26">
         <v>45759</v>
       </c>
-      <c r="N65" s="28">
+      <c r="N66" s="26">
         <v>1083272</v>
       </c>
-      <c r="O65" s="28">
+      <c r="O66" s="26">
         <v>1831987</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="13">
+    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="11">
         <v>2019</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C67" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D67" s="13">
         <f t="shared" si="3"/>
         <v>5933699</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E67" s="14">
         <v>15593</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F67" s="14">
         <v>73513</v>
       </c>
-      <c r="G66" s="16">
+      <c r="G67" s="14">
         <v>938515</v>
       </c>
-      <c r="H66" s="16">
+      <c r="H67" s="14">
         <v>697055</v>
       </c>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16">
+      <c r="I67" s="14"/>
+      <c r="J67" s="14">
         <v>1349425</v>
       </c>
-      <c r="K66" s="16">
+      <c r="K67" s="14">
         <v>54165</v>
       </c>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16">
+      <c r="L67" s="14"/>
+      <c r="M67" s="14">
         <v>41740</v>
       </c>
-      <c r="N66" s="16">
+      <c r="N67" s="14">
         <v>1014931</v>
       </c>
-      <c r="O66" s="16">
+      <c r="O67" s="14">
         <v>1748762</v>
       </c>
     </row>
-    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="17">
+    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="15">
         <v>2019</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C68" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D68" s="17">
         <f t="shared" si="3"/>
         <v>5863191</v>
       </c>
-      <c r="E67" s="20">
+      <c r="E68" s="18">
         <v>19701</v>
       </c>
-      <c r="F67" s="20">
+      <c r="F68" s="18">
         <v>67349</v>
       </c>
-      <c r="G67" s="20">
+      <c r="G68" s="18">
         <v>957393</v>
       </c>
-      <c r="H67" s="20">
+      <c r="H68" s="18">
         <v>740956</v>
       </c>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20">
+      <c r="I68" s="18"/>
+      <c r="J68" s="18">
         <v>1232933</v>
       </c>
-      <c r="K67" s="20">
+      <c r="K68" s="18">
         <v>57392</v>
       </c>
-      <c r="L67" s="20"/>
-      <c r="M67" s="20">
+      <c r="L68" s="18"/>
+      <c r="M68" s="18">
         <v>40850</v>
       </c>
-      <c r="N67" s="20">
+      <c r="N68" s="18">
         <v>1022260</v>
       </c>
-      <c r="O67" s="20">
+      <c r="O68" s="18">
         <v>1724357</v>
       </c>
     </row>
-    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="13">
+    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="11">
         <v>2019</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C69" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D69" s="13">
         <f t="shared" si="3"/>
         <v>5409755</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E69" s="14">
         <v>15863</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F69" s="14">
         <v>61156</v>
       </c>
-      <c r="G68" s="16">
+      <c r="G69" s="14">
         <v>897733</v>
       </c>
-      <c r="H68" s="16">
+      <c r="H69" s="14">
         <v>677299</v>
       </c>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16">
+      <c r="I69" s="14"/>
+      <c r="J69" s="14">
         <v>1115654</v>
       </c>
-      <c r="K68" s="16">
+      <c r="K69" s="14">
         <v>61638</v>
       </c>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16">
+      <c r="L69" s="14"/>
+      <c r="M69" s="14">
         <v>42002</v>
       </c>
-      <c r="N68" s="16">
+      <c r="N69" s="14">
         <v>922290</v>
       </c>
-      <c r="O68" s="16">
+      <c r="O69" s="14">
         <v>1616120</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="17">
+    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="15">
         <v>2019</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C70" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D70" s="17">
         <f t="shared" si="3"/>
         <v>6259657</v>
       </c>
-      <c r="E69" s="20">
+      <c r="E70" s="18">
         <v>22090</v>
       </c>
-      <c r="F69" s="20">
+      <c r="F70" s="18">
         <v>68824</v>
       </c>
-      <c r="G69" s="20">
+      <c r="G70" s="18">
         <v>1001754</v>
       </c>
-      <c r="H69" s="20">
+      <c r="H70" s="18">
         <v>777867</v>
       </c>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20">
+      <c r="I70" s="18"/>
+      <c r="J70" s="18">
         <v>1395254</v>
       </c>
-      <c r="K69" s="20">
+      <c r="K70" s="18">
         <v>88036</v>
       </c>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20">
+      <c r="L70" s="18"/>
+      <c r="M70" s="18">
         <v>47511</v>
       </c>
-      <c r="N69" s="20">
+      <c r="N70" s="18">
         <v>1112562</v>
       </c>
-      <c r="O69" s="20">
+      <c r="O70" s="18">
         <v>1745759</v>
       </c>
     </row>
-    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="13">
+    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="11">
         <v>2019</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C71" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D71" s="13">
         <f t="shared" si="3"/>
         <v>6643948</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E71" s="14">
         <v>24398</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F71" s="14">
         <v>75738</v>
       </c>
-      <c r="G70" s="16">
+      <c r="G71" s="14">
         <v>1056905</v>
       </c>
-      <c r="H70" s="16">
+      <c r="H71" s="14">
         <v>847525</v>
       </c>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16">
+      <c r="I71" s="14"/>
+      <c r="J71" s="14">
         <v>1440396</v>
       </c>
-      <c r="K70" s="16">
+      <c r="K71" s="14">
         <v>112757</v>
       </c>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16">
+      <c r="L71" s="14"/>
+      <c r="M71" s="14">
         <v>53404</v>
       </c>
-      <c r="N70" s="16">
+      <c r="N71" s="14">
         <v>1151999</v>
       </c>
-      <c r="O70" s="16">
+      <c r="O71" s="14">
         <v>1880826</v>
       </c>
     </row>
-    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="17">
+    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="15">
         <v>2019</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C72" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D72" s="17">
         <f t="shared" si="3"/>
         <v>6003625</v>
       </c>
-      <c r="E71" s="20">
+      <c r="E72" s="18">
         <v>24034</v>
       </c>
-      <c r="F71" s="20">
+      <c r="F72" s="18">
         <v>65120</v>
       </c>
-      <c r="G71" s="20">
+      <c r="G72" s="18">
         <v>968584</v>
       </c>
-      <c r="H71" s="20">
+      <c r="H72" s="18">
         <v>772914</v>
       </c>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20">
+      <c r="I72" s="18"/>
+      <c r="J72" s="18">
         <v>1315938</v>
       </c>
-      <c r="K71" s="20">
+      <c r="K72" s="18">
         <v>90790</v>
       </c>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20">
+      <c r="L72" s="18"/>
+      <c r="M72" s="18">
         <v>47162</v>
       </c>
-      <c r="N71" s="20">
+      <c r="N72" s="18">
         <v>974523</v>
       </c>
-      <c r="O71" s="20">
+      <c r="O72" s="18">
         <v>1744560</v>
       </c>
     </row>
-    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="13">
+    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="11">
         <v>2019</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C73" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D73" s="13">
         <f t="shared" si="3"/>
         <v>6066733</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E73" s="14">
         <v>24578</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F73" s="14">
         <v>61163</v>
       </c>
-      <c r="G72" s="16">
+      <c r="G73" s="14">
         <v>976676</v>
       </c>
-      <c r="H72" s="16">
+      <c r="H73" s="14">
         <v>788262</v>
       </c>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16">
+      <c r="I73" s="14"/>
+      <c r="J73" s="14">
         <v>1373059</v>
       </c>
-      <c r="K72" s="16">
+      <c r="K73" s="14">
         <v>74030</v>
       </c>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16">
+      <c r="L73" s="14"/>
+      <c r="M73" s="14">
         <v>51746</v>
       </c>
-      <c r="N72" s="16">
+      <c r="N73" s="14">
         <v>931984</v>
       </c>
-      <c r="O72" s="16">
+      <c r="O73" s="14">
         <v>1785235</v>
       </c>
     </row>
-    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="17">
+    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="15">
         <v>2019</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C74" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="19">
+      <c r="D74" s="17">
         <f t="shared" si="3"/>
         <v>5766967</v>
       </c>
-      <c r="E73" s="20">
+      <c r="E74" s="18">
         <v>26137</v>
       </c>
-      <c r="F73" s="20">
+      <c r="F74" s="18">
         <v>63912</v>
       </c>
-      <c r="G73" s="20">
+      <c r="G74" s="18">
         <v>935481</v>
       </c>
-      <c r="H73" s="20">
+      <c r="H74" s="18">
         <v>737722</v>
       </c>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20">
+      <c r="I74" s="18"/>
+      <c r="J74" s="18">
         <v>1282012</v>
       </c>
-      <c r="K73" s="20">
+      <c r="K74" s="18">
         <v>54469</v>
       </c>
-      <c r="L73" s="20"/>
-      <c r="M73" s="20">
+      <c r="L74" s="18"/>
+      <c r="M74" s="18">
         <v>50399</v>
       </c>
-      <c r="N73" s="20">
+      <c r="N74" s="18">
         <v>893208</v>
       </c>
-      <c r="O73" s="20">
+      <c r="O74" s="18">
         <v>1723627</v>
       </c>
     </row>
-    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="13">
+    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="11">
         <v>2019</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C75" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D75" s="13">
         <f t="shared" si="3"/>
         <v>5617314</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E75" s="14">
         <v>24631</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F75" s="14">
         <v>66177</v>
       </c>
-      <c r="G74" s="16">
+      <c r="G75" s="14">
         <v>991931</v>
       </c>
-      <c r="H74" s="16">
+      <c r="H75" s="14">
         <v>774790</v>
       </c>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16">
+      <c r="I75" s="14"/>
+      <c r="J75" s="14">
         <v>1245949</v>
       </c>
-      <c r="K74" s="16">
+      <c r="K75" s="14">
         <v>40758</v>
       </c>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16">
+      <c r="L75" s="14"/>
+      <c r="M75" s="14">
         <v>49242</v>
       </c>
-      <c r="N74" s="16">
+      <c r="N75" s="14">
         <v>767922</v>
       </c>
-      <c r="O74" s="16">
+      <c r="O75" s="14">
         <v>1655914</v>
       </c>
     </row>
-    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="17">
+    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="15">
         <v>2019</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C76" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="19">
+      <c r="D76" s="17">
         <f t="shared" si="3"/>
         <v>4697667</v>
       </c>
-      <c r="E75" s="20">
+      <c r="E76" s="18">
         <v>20074</v>
       </c>
-      <c r="F75" s="20">
+      <c r="F76" s="18">
         <v>57946</v>
       </c>
-      <c r="G75" s="20">
+      <c r="G76" s="18">
         <v>888111</v>
       </c>
-      <c r="H75" s="20">
+      <c r="H76" s="18">
         <v>647818</v>
       </c>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20">
+      <c r="I76" s="18"/>
+      <c r="J76" s="18">
         <v>1002798</v>
       </c>
-      <c r="K75" s="20">
+      <c r="K76" s="18">
         <v>31139</v>
       </c>
-      <c r="L75" s="20"/>
-      <c r="M75" s="20">
+      <c r="L76" s="18"/>
+      <c r="M76" s="18">
         <v>40877</v>
       </c>
-      <c r="N75" s="20">
+      <c r="N76" s="18">
         <v>617809</v>
       </c>
-      <c r="O75" s="20">
+      <c r="O76" s="18">
         <v>1391095</v>
       </c>
     </row>
-    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="21">
+    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="19">
         <v>2019</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C77" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="23">
-        <f t="shared" ref="D76:D88" si="4">SUM(E76:O76)</f>
+      <c r="D77" s="21">
+        <f t="shared" ref="D77:D89" si="4">SUM(E77:O77)</f>
         <v>5369991</v>
       </c>
-      <c r="E76" s="24">
+      <c r="E77" s="22">
         <v>24399</v>
       </c>
-      <c r="F76" s="24">
+      <c r="F77" s="22">
         <v>59133</v>
       </c>
-      <c r="G76" s="24">
+      <c r="G77" s="22">
         <v>1017714</v>
       </c>
-      <c r="H76" s="24">
+      <c r="H77" s="22">
         <v>718168</v>
       </c>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24">
+      <c r="I77" s="22"/>
+      <c r="J77" s="22">
         <v>1143850</v>
       </c>
-      <c r="K76" s="24">
+      <c r="K77" s="22">
         <v>45885</v>
       </c>
-      <c r="L76" s="24"/>
-      <c r="M76" s="24">
+      <c r="L77" s="22"/>
+      <c r="M77" s="22">
         <v>45704</v>
       </c>
-      <c r="N76" s="24">
+      <c r="N77" s="22">
         <v>787962</v>
       </c>
-      <c r="O76" s="24">
+      <c r="O77" s="22">
         <v>1527176</v>
       </c>
     </row>
-    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="18">
+    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="16">
         <v>2018</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C78" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D77" s="19">
+      <c r="D78" s="17">
         <f t="shared" si="4"/>
         <v>5844697</v>
       </c>
-      <c r="E77" s="20">
+      <c r="E78" s="18">
         <v>25513</v>
       </c>
-      <c r="F77" s="20">
+      <c r="F78" s="18">
         <v>64369</v>
       </c>
-      <c r="G77" s="20">
+      <c r="G78" s="18">
         <v>1071044</v>
       </c>
-      <c r="H77" s="20">
+      <c r="H78" s="18">
         <v>804521</v>
       </c>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20">
+      <c r="I78" s="18"/>
+      <c r="J78" s="18">
         <v>1232404</v>
       </c>
-      <c r="K77" s="20">
+      <c r="K78" s="18">
         <v>78800</v>
       </c>
-      <c r="L77" s="20"/>
-      <c r="M77" s="20">
+      <c r="L78" s="18"/>
+      <c r="M78" s="18">
         <v>50423</v>
       </c>
-      <c r="N77" s="20">
+      <c r="N78" s="18">
         <v>905477</v>
       </c>
-      <c r="O77" s="20">
+      <c r="O78" s="18">
         <v>1612146</v>
       </c>
     </row>
-    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="14">
+    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="12">
         <v>2018</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C79" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D78" s="15">
+      <c r="D79" s="13">
         <f t="shared" si="4"/>
         <v>5548187</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E79" s="14">
         <v>24593</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F79" s="14">
         <v>68160</v>
       </c>
-      <c r="G78" s="16">
+      <c r="G79" s="14">
         <v>1004506</v>
       </c>
-      <c r="H78" s="16">
+      <c r="H79" s="14">
         <v>761656</v>
       </c>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16">
+      <c r="I79" s="14"/>
+      <c r="J79" s="14">
         <v>1214579</v>
       </c>
-      <c r="K78" s="16">
+      <c r="K79" s="14">
         <v>70291</v>
       </c>
-      <c r="L78" s="16"/>
-      <c r="M78" s="16">
+      <c r="L79" s="14"/>
+      <c r="M79" s="14">
         <v>52654</v>
       </c>
-      <c r="N78" s="16">
+      <c r="N79" s="14">
         <v>844104</v>
       </c>
-      <c r="O78" s="16">
+      <c r="O79" s="14">
         <v>1507644</v>
       </c>
     </row>
-    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="18">
+    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="16">
         <v>2018</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C80" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D79" s="19">
+      <c r="D80" s="17">
         <f t="shared" si="4"/>
         <v>5436017</v>
       </c>
-      <c r="E79" s="20">
+      <c r="E80" s="18">
         <v>23163</v>
       </c>
-      <c r="F79" s="20">
+      <c r="F80" s="18">
         <v>67739</v>
       </c>
-      <c r="G79" s="20">
+      <c r="G80" s="18">
         <v>1006759</v>
       </c>
-      <c r="H79" s="20">
+      <c r="H80" s="18">
         <v>779871</v>
       </c>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20">
+      <c r="I80" s="18"/>
+      <c r="J80" s="18">
         <v>1170513</v>
       </c>
-      <c r="K79" s="20">
+      <c r="K80" s="18">
         <v>65741</v>
       </c>
-      <c r="L79" s="20"/>
-      <c r="M79" s="20">
+      <c r="L80" s="18"/>
+      <c r="M80" s="18">
         <v>52203</v>
       </c>
-      <c r="N79" s="20">
+      <c r="N80" s="18">
         <v>808467</v>
       </c>
-      <c r="O79" s="20">
+      <c r="O80" s="18">
         <v>1461561</v>
       </c>
     </row>
-    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="14">
+    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="12">
         <v>2018</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C81" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="15">
+      <c r="D81" s="13">
         <f t="shared" si="4"/>
         <v>5031295</v>
       </c>
-      <c r="E80" s="16">
+      <c r="E81" s="14">
         <v>21054</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F81" s="14">
         <v>57581</v>
       </c>
-      <c r="G80" s="16">
+      <c r="G81" s="14">
         <v>953415</v>
       </c>
-      <c r="H80" s="16">
+      <c r="H81" s="14">
         <v>749609</v>
       </c>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16">
+      <c r="I81" s="14"/>
+      <c r="J81" s="14">
         <v>1042581</v>
       </c>
-      <c r="K80" s="16">
+      <c r="K81" s="14">
         <v>61896</v>
       </c>
-      <c r="L80" s="16"/>
-      <c r="M80" s="16">
+      <c r="L81" s="14"/>
+      <c r="M81" s="14">
         <v>46860</v>
       </c>
-      <c r="N80" s="16">
+      <c r="N81" s="14">
         <v>767606</v>
       </c>
-      <c r="O80" s="16">
+      <c r="O81" s="14">
         <v>1330693</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="18">
+    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="16">
         <v>2018</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C82" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D81" s="19">
+      <c r="D82" s="17">
         <f t="shared" si="4"/>
         <v>5768371</v>
       </c>
-      <c r="E81" s="20">
+      <c r="E82" s="18">
         <v>27838</v>
       </c>
-      <c r="F81" s="20">
+      <c r="F82" s="18">
         <v>63083</v>
       </c>
-      <c r="G81" s="20">
+      <c r="G82" s="18">
         <v>1074998</v>
       </c>
-      <c r="H81" s="20">
+      <c r="H82" s="18">
         <v>852980</v>
       </c>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20">
+      <c r="I82" s="18"/>
+      <c r="J82" s="18">
         <v>1233129</v>
       </c>
-      <c r="K81" s="20">
+      <c r="K82" s="18">
         <v>104695</v>
       </c>
-      <c r="L81" s="20"/>
-      <c r="M81" s="20">
+      <c r="L82" s="18"/>
+      <c r="M82" s="18">
         <v>54110</v>
       </c>
-      <c r="N81" s="20">
+      <c r="N82" s="18">
         <v>921277</v>
       </c>
-      <c r="O81" s="20">
+      <c r="O82" s="18">
         <v>1436261</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="14">
+    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="12">
         <v>2018</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C83" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="15">
+      <c r="D83" s="13">
         <f t="shared" si="4"/>
         <v>6140662</v>
       </c>
-      <c r="E82" s="16">
+      <c r="E83" s="14">
         <v>32903</v>
       </c>
-      <c r="F82" s="16">
+      <c r="F83" s="14">
         <v>56167</v>
       </c>
-      <c r="G82" s="16">
+      <c r="G83" s="14">
         <v>1179423</v>
       </c>
-      <c r="H82" s="16">
+      <c r="H83" s="14">
         <v>895787</v>
       </c>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16">
+      <c r="I83" s="14"/>
+      <c r="J83" s="14">
         <v>1280292</v>
       </c>
-      <c r="K82" s="16">
+      <c r="K83" s="14">
         <v>110733</v>
       </c>
-      <c r="L82" s="16"/>
-      <c r="M82" s="16">
+      <c r="L83" s="14"/>
+      <c r="M83" s="14">
         <v>58466</v>
       </c>
-      <c r="N82" s="16">
+      <c r="N83" s="14">
         <v>944861</v>
       </c>
-      <c r="O82" s="16">
+      <c r="O83" s="14">
         <v>1582030</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="18">
+    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="16">
         <v>2018</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C84" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D83" s="19">
+      <c r="D84" s="17">
         <f t="shared" si="4"/>
         <v>5347432</v>
       </c>
-      <c r="E83" s="20">
+      <c r="E84" s="18">
         <v>26323</v>
       </c>
-      <c r="F83" s="20">
+      <c r="F84" s="18">
         <v>46065</v>
       </c>
-      <c r="G83" s="20">
+      <c r="G84" s="18">
         <v>1036698</v>
       </c>
-      <c r="H83" s="20">
+      <c r="H84" s="18">
         <v>815293</v>
       </c>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20">
+      <c r="I84" s="18"/>
+      <c r="J84" s="18">
         <v>1141203</v>
       </c>
-      <c r="K83" s="20">
+      <c r="K84" s="18">
         <v>75066</v>
       </c>
-      <c r="L83" s="20"/>
-      <c r="M83" s="20">
+      <c r="L84" s="18"/>
+      <c r="M84" s="18">
         <v>48032</v>
       </c>
-      <c r="N83" s="20">
+      <c r="N84" s="18">
         <v>768437</v>
       </c>
-      <c r="O83" s="20">
+      <c r="O84" s="18">
         <v>1390315</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="14">
+    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="12">
         <v>2018</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C85" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D85" s="13">
         <f t="shared" si="4"/>
         <v>5369812</v>
       </c>
-      <c r="E84" s="16">
+      <c r="E85" s="14">
         <v>26212</v>
       </c>
-      <c r="F84" s="16">
+      <c r="F85" s="14">
         <v>54265</v>
       </c>
-      <c r="G84" s="16">
+      <c r="G85" s="14">
         <v>1033321</v>
       </c>
-      <c r="H84" s="16">
+      <c r="H85" s="14">
         <v>780048</v>
       </c>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16">
+      <c r="I85" s="14"/>
+      <c r="J85" s="14">
         <v>1201298</v>
       </c>
-      <c r="K84" s="16">
+      <c r="K85" s="14">
         <v>84998</v>
       </c>
-      <c r="L84" s="16"/>
-      <c r="M84" s="16">
+      <c r="L85" s="14"/>
+      <c r="M85" s="14">
         <v>49481</v>
       </c>
-      <c r="N84" s="16">
+      <c r="N85" s="14">
         <v>759447</v>
       </c>
-      <c r="O84" s="16">
+      <c r="O85" s="14">
         <v>1380742</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="18">
+    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="16">
         <v>2018</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C86" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D85" s="19">
+      <c r="D86" s="17">
         <f t="shared" si="4"/>
         <v>5275071</v>
       </c>
-      <c r="E85" s="20">
+      <c r="E86" s="18">
         <v>25839</v>
       </c>
-      <c r="F85" s="20">
+      <c r="F86" s="18">
         <v>59133</v>
       </c>
-      <c r="G85" s="20">
+      <c r="G86" s="18">
         <v>996415</v>
       </c>
-      <c r="H85" s="20">
+      <c r="H86" s="18">
         <v>794436</v>
       </c>
-      <c r="I85" s="20"/>
-      <c r="J85" s="20">
+      <c r="I86" s="18"/>
+      <c r="J86" s="18">
         <v>1176450</v>
       </c>
-      <c r="K85" s="20">
+      <c r="K86" s="18">
         <v>73805</v>
       </c>
-      <c r="L85" s="20"/>
-      <c r="M85" s="20">
+      <c r="L86" s="18"/>
+      <c r="M86" s="18">
         <v>49795</v>
       </c>
-      <c r="N85" s="20">
+      <c r="N86" s="18">
         <v>730221</v>
       </c>
-      <c r="O85" s="20">
+      <c r="O86" s="18">
         <v>1368977</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="14">
+    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="12">
         <v>2018</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C87" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="15">
+      <c r="D87" s="13">
         <f t="shared" si="4"/>
         <v>5277344</v>
       </c>
-      <c r="E86" s="16">
+      <c r="E87" s="14">
         <v>29029</v>
       </c>
-      <c r="F86" s="16">
+      <c r="F87" s="14">
         <v>65814</v>
       </c>
-      <c r="G86" s="16">
+      <c r="G87" s="14">
         <v>993548</v>
       </c>
-      <c r="H86" s="16">
+      <c r="H87" s="14">
         <v>797581</v>
       </c>
-      <c r="I86" s="16"/>
-      <c r="J86" s="16">
+      <c r="I87" s="14"/>
+      <c r="J87" s="14">
         <v>1174935</v>
       </c>
-      <c r="K86" s="16">
+      <c r="K87" s="14">
         <v>50611</v>
       </c>
-      <c r="L86" s="16"/>
-      <c r="M86" s="16">
+      <c r="L87" s="14"/>
+      <c r="M87" s="14">
         <v>50043</v>
       </c>
-      <c r="N86" s="16">
+      <c r="N87" s="14">
         <v>723374</v>
       </c>
-      <c r="O86" s="16">
+      <c r="O87" s="14">
         <v>1392409</v>
       </c>
     </row>
-    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="18">
+    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="16">
         <v>2018</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="C88" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D87" s="19">
+      <c r="D88" s="17">
         <f t="shared" si="4"/>
         <v>4448093</v>
       </c>
-      <c r="E87" s="20">
+      <c r="E88" s="18">
         <v>22962</v>
       </c>
-      <c r="F87" s="20">
+      <c r="F88" s="18">
         <v>59046</v>
       </c>
-      <c r="G87" s="20">
+      <c r="G88" s="18">
         <v>878966</v>
       </c>
-      <c r="H87" s="20">
+      <c r="H88" s="18">
         <v>699650</v>
       </c>
-      <c r="I87" s="20"/>
-      <c r="J87" s="20">
+      <c r="I88" s="18"/>
+      <c r="J88" s="18">
         <v>934030</v>
       </c>
-      <c r="K87" s="20">
+      <c r="K88" s="18">
         <v>39995</v>
       </c>
-      <c r="L87" s="20"/>
-      <c r="M87" s="20">
+      <c r="L88" s="18"/>
+      <c r="M88" s="18">
         <v>44679</v>
       </c>
-      <c r="N87" s="20">
+      <c r="N88" s="18">
         <v>569891</v>
       </c>
-      <c r="O87" s="20">
+      <c r="O88" s="18">
         <v>1198874</v>
       </c>
     </row>
-    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="14">
+    <row r="89" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="12">
         <v>2018</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C89" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D88" s="15">
+      <c r="D89" s="13">
         <f t="shared" si="4"/>
         <v>5082659</v>
       </c>
-      <c r="E88" s="16">
+      <c r="E89" s="14">
         <v>24734</v>
       </c>
-      <c r="F88" s="16">
+      <c r="F89" s="14">
         <v>60981</v>
       </c>
-      <c r="G88" s="16">
+      <c r="G89" s="14">
         <v>1021784</v>
       </c>
-      <c r="H88" s="16">
+      <c r="H89" s="14">
         <v>777479</v>
       </c>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16">
+      <c r="I89" s="14"/>
+      <c r="J89" s="14">
         <v>1078923</v>
       </c>
-      <c r="K88" s="16">
+      <c r="K89" s="14">
         <v>55290</v>
       </c>
-      <c r="L88" s="16"/>
-      <c r="M88" s="16">
+      <c r="L89" s="14"/>
+      <c r="M89" s="14">
         <v>47772</v>
       </c>
-      <c r="N88" s="16">
+      <c r="N89" s="14">
         <v>664529</v>
       </c>
-      <c r="O88" s="16">
+      <c r="O89" s="14">
         <v>1351167</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B89" s="29" t="s">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B90" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B91" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="28"/>
+      <c r="O91" s="29"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B92" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B90" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="30"/>
-      <c r="O90" s="31"/>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B91" s="30" t="s">
+      <c r="C92" s="28"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B93" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C91" s="30"/>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B92" s="30" t="s">
+      <c r="C93" s="28"/>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B94" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C92" s="30"/>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B93" s="30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B94" s="3" t="s">
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B95" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D97" s="29"/>
-    </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D101" s="29"/>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D98" s="27"/>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D102" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Pasajeros_por_aerolinea_nac.xlsx
+++ b/Pasajeros_por_aerolinea_nac.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631CF6C6-91B3-4EED-A074-60A4C14E25FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559595A6-C0E5-45C6-B511-00E07C11FE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_31" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -137,7 +137,7 @@
     <t xml:space="preserve"> La línea aérea Aerus inició operaciones el 27 de abril de 2023.</t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -225,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -319,12 +319,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -401,6 +425,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -697,8 +729,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O89" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
-  <autoFilter ref="B5:O89" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O90" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
+  <autoFilter ref="B5:O90" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -950,7 +982,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O102"/>
+  <dimension ref="B2:O103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1051,3407 +1083,3446 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6" s="15">
+      <c r="B6" s="32">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="34">
+        <f>SUM(E6:O6)</f>
+        <v>6705805</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35">
+        <v>1669900</v>
+      </c>
+      <c r="H6" s="35">
+        <v>395411</v>
+      </c>
+      <c r="I6" s="35">
+        <v>3219</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35">
+        <v>11376</v>
+      </c>
+      <c r="L6" s="35">
+        <v>33325</v>
+      </c>
+      <c r="M6" s="35">
+        <v>15081</v>
+      </c>
+      <c r="N6" s="35">
+        <v>2220761</v>
+      </c>
+      <c r="O6" s="35">
+        <v>2356732</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7" s="15">
         <v>2024</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="17">
-        <f>SUM(E6:O6)</f>
+      <c r="D7" s="17">
+        <f>SUM(E7:O7)</f>
         <v>7193395</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18">
         <v>1749211</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H7" s="18">
         <v>393443</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I7" s="18">
         <v>3591</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18">
+      <c r="J7" s="18"/>
+      <c r="K7" s="18">
         <v>19131</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L7" s="18">
         <v>42411</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M7" s="18">
         <v>19789</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N7" s="18">
         <v>2449237</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O7" s="18">
         <v>2516582</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7" s="11">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8" s="11">
         <v>2024</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="13">
-        <f>SUM(E7:O7)</f>
+      <c r="D8" s="13">
+        <f>SUM(E8:O8)</f>
         <v>6698440</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14">
         <v>1630210</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H8" s="14">
         <v>378802</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I8" s="14">
         <v>3872</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14">
+      <c r="J8" s="14"/>
+      <c r="K8" s="14">
         <v>18521</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L8" s="14">
         <v>23922</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M8" s="14">
         <v>14425</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N8" s="14">
         <v>2321101</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O8" s="14">
         <v>2307587</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" s="15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9" s="15">
         <v>2024</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="17">
-        <f t="shared" ref="D8" si="0">SUM(E8:O8)</f>
+      <c r="D9" s="17">
+        <f t="shared" ref="D9" si="0">SUM(E9:O9)</f>
         <v>6571845</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18">
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18">
         <v>1659284</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H9" s="18">
         <v>357763</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I9" s="18">
         <v>4125</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18">
+      <c r="J9" s="18"/>
+      <c r="K9" s="18">
         <v>18874</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L9" s="18">
         <v>22660</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M9" s="18">
         <v>9268</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N9" s="18">
         <v>2210987</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O9" s="18">
         <v>2288884</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="11">
+    <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="11">
         <v>2024</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="13">
-        <f>SUM(E9:O9)</f>
+      <c r="D10" s="13">
+        <f>SUM(E10:O10)</f>
         <v>6241021</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14">
         <v>1602332</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H10" s="14">
         <v>357115</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I10" s="14">
         <v>3750</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14">
+      <c r="J10" s="14"/>
+      <c r="K10" s="14">
         <v>16595</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L10" s="14">
         <v>21490</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M10" s="14">
         <v>8152</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N10" s="14">
         <v>2135071</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O10" s="14">
         <v>2096516</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="15">
+    <row r="11" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="15">
         <v>2024</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="17">
-        <f>SUM(E10:O10)</f>
+      <c r="D11" s="17">
+        <f>SUM(E11:O11)</f>
         <v>7122257</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18">
         <v>1846259</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H11" s="18">
         <v>423300</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I11" s="18">
         <v>3350</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18">
+      <c r="J11" s="18"/>
+      <c r="K11" s="18">
         <v>23287</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L11" s="18">
         <v>32823</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M11" s="18">
         <v>13091</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N11" s="18">
         <v>2380847</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O11" s="18">
         <v>2399300</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="11">
+    <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="11">
         <v>2024</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="13">
-        <f t="shared" ref="D11:D13" si="1">SUM(E11:O11)</f>
+      <c r="D12" s="13">
+        <f t="shared" ref="D12:D14" si="1">SUM(E12:O12)</f>
         <v>7365600</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E12" s="14">
         <v>972</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14">
         <v>1936260</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H12" s="14">
         <v>455999</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I12" s="14">
         <v>2952</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14">
+      <c r="J12" s="14"/>
+      <c r="K12" s="14">
         <v>25726</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L12" s="14">
         <v>35662</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M12" s="14">
         <v>11529</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N12" s="14">
         <v>2421165</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O12" s="14">
         <v>2475335</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="15">
+    <row r="13" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="15">
         <v>2024</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D13" s="17">
         <f t="shared" si="1"/>
         <v>6545709</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E13" s="18">
         <v>744</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18">
+      <c r="F13" s="18"/>
+      <c r="G13" s="18">
         <v>1681153</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H13" s="18">
         <v>420652</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I13" s="18">
         <v>2495</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18">
+      <c r="J13" s="18"/>
+      <c r="K13" s="18">
         <v>23110</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L13" s="18">
         <v>21518</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M13" s="18">
         <v>9672</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N13" s="18">
         <v>2174929</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O13" s="18">
         <v>2211436</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="11">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="11">
         <v>2024</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D14" s="13">
         <f t="shared" si="1"/>
         <v>6588910</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E14" s="14">
         <v>820</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14">
         <v>1727003</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H14" s="14">
         <v>431546</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I14" s="14">
         <v>2633</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14">
+      <c r="J14" s="14"/>
+      <c r="K14" s="14">
         <v>13929</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L14" s="14">
         <v>22186</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M14" s="14">
         <v>10844</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N14" s="14">
         <v>2176419</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O14" s="14">
         <v>2203530</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="15">
         <v>2024</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="17">
-        <f t="shared" ref="D14:D44" si="2">SUM(E14:O14)</f>
+      <c r="D15" s="17">
+        <f t="shared" ref="D15:D45" si="2">SUM(E15:O15)</f>
         <v>6255613</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E15" s="18">
         <v>1018</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18">
+      <c r="F15" s="18"/>
+      <c r="G15" s="18">
         <v>1647314</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H15" s="18">
         <v>437362</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I15" s="18">
         <v>2451</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18">
+      <c r="J15" s="18"/>
+      <c r="K15" s="18">
         <v>17123</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L15" s="18">
         <v>21899</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M15" s="18">
         <v>13242</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N15" s="18">
         <v>2025760</v>
       </c>
-      <c r="O14" s="18">
+      <c r="O15" s="18">
         <v>2089444</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="11">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="11">
         <v>2024</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D16" s="13">
         <f t="shared" si="2"/>
         <v>6264883</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E16" s="14">
         <v>985</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14">
+      <c r="F16" s="14"/>
+      <c r="G16" s="14">
         <v>1663451</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H16" s="14">
         <v>414407</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I16" s="14">
         <v>2426</v>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14">
+      <c r="J16" s="14"/>
+      <c r="K16" s="14">
         <v>16310</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L16" s="14">
         <v>24140</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M16" s="14">
         <v>11320</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N16" s="14">
         <v>2037641</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O16" s="14">
         <v>2094203</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17" s="15">
         <v>2024</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D17" s="17">
         <f t="shared" si="2"/>
         <v>5606595</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E17" s="18">
         <v>703</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18">
+      <c r="F17" s="18"/>
+      <c r="G17" s="18">
         <v>1479121</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H17" s="18">
         <v>395860</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I17" s="18">
         <v>2323</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18">
+      <c r="J17" s="18"/>
+      <c r="K17" s="18">
         <v>11161</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L17" s="18">
         <v>17287</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M17" s="18">
         <v>11349</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N17" s="18">
         <v>1772299</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O17" s="18">
         <v>1916492</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B17" s="19">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B18" s="19">
         <v>2024</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D18" s="21">
         <f t="shared" si="2"/>
         <v>6274620</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E18" s="22">
         <v>1102</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22">
+      <c r="F18" s="22"/>
+      <c r="G18" s="22">
         <v>1481216</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H18" s="22">
         <v>490118</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I18" s="22">
         <v>2332</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22">
+      <c r="J18" s="22"/>
+      <c r="K18" s="22">
         <v>14046</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L18" s="22">
         <v>12504</v>
       </c>
-      <c r="M17" s="22">
+      <c r="M18" s="22">
         <v>12424</v>
       </c>
-      <c r="N17" s="22">
+      <c r="N18" s="22">
         <v>2028846</v>
       </c>
-      <c r="O17" s="22">
+      <c r="O18" s="22">
         <v>2232032</v>
       </c>
     </row>
-    <row r="18" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="23">
+    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="23">
         <v>2023</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C19" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D19" s="25">
         <f t="shared" si="2"/>
         <v>6943699</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E19" s="26">
         <v>1263</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26">
+      <c r="F19" s="26"/>
+      <c r="G19" s="26">
         <v>1661066</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H19" s="26">
         <v>520344</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I19" s="26">
         <v>2164</v>
       </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26">
+      <c r="J19" s="26"/>
+      <c r="K19" s="26">
         <v>23295</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L19" s="26">
         <v>1620</v>
       </c>
-      <c r="M18" s="26">
+      <c r="M19" s="26">
         <v>19717</v>
       </c>
-      <c r="N18" s="26">
+      <c r="N19" s="26">
         <v>2180392</v>
       </c>
-      <c r="O18" s="26">
+      <c r="O19" s="26">
         <v>2533838</v>
       </c>
     </row>
-    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="11">
+    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="11">
         <v>2023</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D20" s="13">
         <f t="shared" si="2"/>
         <v>6524452</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E20" s="14">
         <v>817</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14">
+      <c r="F20" s="14"/>
+      <c r="G20" s="14">
         <v>1518614</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H20" s="14">
         <v>487651</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I20" s="14">
         <v>1815</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14">
+      <c r="J20" s="14"/>
+      <c r="K20" s="14">
         <v>23109</v>
       </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14">
+      <c r="L20" s="14"/>
+      <c r="M20" s="14">
         <v>18006</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N20" s="14">
         <v>2055956</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O20" s="14">
         <v>2418484</v>
       </c>
     </row>
-    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="15">
+    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="15">
         <v>2023</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D21" s="17">
         <f t="shared" si="2"/>
         <v>6666523</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E21" s="18">
         <v>745</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18">
+      <c r="F21" s="18"/>
+      <c r="G21" s="18">
         <v>1534357</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H21" s="18">
         <v>502142</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I21" s="18">
         <v>1593</v>
       </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18">
+      <c r="J21" s="18"/>
+      <c r="K21" s="18">
         <v>27175</v>
       </c>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18">
+      <c r="L21" s="18"/>
+      <c r="M21" s="18">
         <v>15799</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N21" s="18">
         <v>2142423</v>
       </c>
-      <c r="O20" s="18">
+      <c r="O21" s="18">
         <v>2442289</v>
       </c>
     </row>
-    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="11">
+    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="11">
         <v>2023</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D22" s="13">
         <f t="shared" si="2"/>
         <v>6234323</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E22" s="14">
         <v>136</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14">
+      <c r="F22" s="14"/>
+      <c r="G22" s="14">
         <v>1449933</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H22" s="14">
         <v>489367</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I22" s="14">
         <v>1718</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14">
+      <c r="J22" s="14"/>
+      <c r="K22" s="14">
         <v>20794</v>
       </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14">
+      <c r="L22" s="14"/>
+      <c r="M22" s="14">
         <v>13440</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N22" s="14">
         <v>1975887</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O22" s="14">
         <v>2283048</v>
       </c>
     </row>
-    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="15">
+    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="15">
         <v>2023</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D23" s="17">
         <f t="shared" si="2"/>
         <v>7366586</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E23" s="18">
         <v>711</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18">
+      <c r="F23" s="18"/>
+      <c r="G23" s="18">
         <v>1790842</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H23" s="18">
         <v>509073</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I23" s="18">
         <v>1858</v>
       </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18">
+      <c r="J23" s="18"/>
+      <c r="K23" s="18">
         <v>33617</v>
       </c>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18">
+      <c r="L23" s="18"/>
+      <c r="M23" s="18">
         <v>17102</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N23" s="18">
         <v>2222143</v>
       </c>
-      <c r="O22" s="18">
+      <c r="O23" s="18">
         <v>2791240</v>
       </c>
     </row>
-    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="11">
+    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="11">
         <v>2023</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D24" s="13">
         <f t="shared" si="2"/>
         <v>7470779</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E24" s="14">
         <v>7815</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14">
+      <c r="F24" s="14"/>
+      <c r="G24" s="14">
         <v>1877785</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H24" s="14">
         <v>489520</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I24" s="14">
         <v>1593</v>
       </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14">
+      <c r="J24" s="14"/>
+      <c r="K24" s="14">
         <v>38495</v>
       </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14">
+      <c r="L24" s="14"/>
+      <c r="M24" s="14">
         <v>16965</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N24" s="14">
         <v>2256958</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O24" s="14">
         <v>2781648</v>
       </c>
     </row>
-    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="15">
+    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="15">
         <v>2023</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C25" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D25" s="17">
         <f t="shared" si="2"/>
         <v>6481356</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E25" s="18">
         <v>8579</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18">
+      <c r="F25" s="18"/>
+      <c r="G25" s="18">
         <v>1623869</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H25" s="18">
         <v>444461</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I25" s="18">
         <v>930</v>
       </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18">
+      <c r="J25" s="18"/>
+      <c r="K25" s="18">
         <v>26027</v>
       </c>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18">
+      <c r="L25" s="18"/>
+      <c r="M25" s="18">
         <v>16972</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N25" s="18">
         <v>1939577</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O25" s="18">
         <v>2420941</v>
       </c>
     </row>
-    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="11">
+    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="11">
         <v>2023</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D26" s="13">
         <f t="shared" si="2"/>
         <v>6466836</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E26" s="14">
         <v>10045</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14">
+      <c r="F26" s="14"/>
+      <c r="G26" s="14">
         <v>1475419</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H26" s="14">
         <v>493646</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I26" s="14">
         <v>866</v>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14">
+      <c r="J26" s="14"/>
+      <c r="K26" s="14">
         <v>22311</v>
       </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14">
+      <c r="L26" s="14"/>
+      <c r="M26" s="14">
         <v>22530</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N26" s="14">
         <v>1903714</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O26" s="14">
         <v>2538305</v>
       </c>
     </row>
-    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="15">
+    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="15">
         <v>2023</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D27" s="17">
         <f t="shared" si="2"/>
         <v>6505979</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E27" s="18">
         <v>7610</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18">
+      <c r="F27" s="18"/>
+      <c r="G27" s="18">
         <v>1447508</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H27" s="18">
         <v>495864</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I27" s="18">
         <v>73</v>
       </c>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18">
+      <c r="J27" s="18"/>
+      <c r="K27" s="18">
         <v>22224</v>
       </c>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18">
+      <c r="L27" s="18"/>
+      <c r="M27" s="18">
         <v>23384</v>
       </c>
-      <c r="N26" s="18">
+      <c r="N27" s="18">
         <v>1903503</v>
       </c>
-      <c r="O26" s="18">
+      <c r="O27" s="18">
         <v>2605813</v>
       </c>
     </row>
-    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="11">
+    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="11">
         <v>2023</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D28" s="13">
         <f t="shared" si="2"/>
         <v>6389909</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E28" s="14">
         <v>4538</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14">
+      <c r="F28" s="14"/>
+      <c r="G28" s="14">
         <v>1502404</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H28" s="14">
         <v>516526</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14">
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14">
         <v>15589</v>
       </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14">
+      <c r="L28" s="14"/>
+      <c r="M28" s="14">
         <v>23229</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N28" s="14">
         <v>1776763</v>
       </c>
-      <c r="O27" s="14">
+      <c r="O28" s="14">
         <v>2550860</v>
       </c>
     </row>
-    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="15">
+    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="15">
         <v>2023</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C29" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D29" s="17">
         <f t="shared" si="2"/>
         <v>5478771</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E29" s="18">
         <v>9031</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F29" s="18">
         <v>9443</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G29" s="18">
         <v>1277871</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H29" s="18">
         <v>459155</v>
       </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18">
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18">
         <v>11992</v>
       </c>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18">
+      <c r="L29" s="18"/>
+      <c r="M29" s="18">
         <v>19704</v>
       </c>
-      <c r="N28" s="18">
+      <c r="N29" s="18">
         <v>1431046</v>
       </c>
-      <c r="O28" s="18">
+      <c r="O29" s="18">
         <v>2260529</v>
       </c>
     </row>
-    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="19">
+    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="19">
         <v>2023</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C30" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D30" s="21">
         <f t="shared" si="2"/>
         <v>6248337</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E30" s="22">
         <v>9895</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F30" s="22">
         <v>23595</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G30" s="22">
         <v>1439058</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H30" s="22">
         <v>503079</v>
       </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22">
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22">
         <v>15438</v>
       </c>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22">
+      <c r="L30" s="22"/>
+      <c r="M30" s="22">
         <v>23680</v>
       </c>
-      <c r="N29" s="22">
+      <c r="N30" s="22">
         <v>1650780</v>
       </c>
-      <c r="O29" s="22">
+      <c r="O30" s="22">
         <v>2582812</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="23">
+    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="23">
         <v>2022</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C31" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D31" s="25">
         <f t="shared" si="2"/>
         <v>6735243</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E31" s="26">
         <v>8855</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F31" s="26">
         <v>30082</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G31" s="26">
         <v>1541064</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H31" s="26">
         <v>545257</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26">
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26">
         <v>31832</v>
       </c>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26">
+      <c r="L31" s="26"/>
+      <c r="M31" s="26">
         <v>32706</v>
       </c>
-      <c r="N30" s="26">
+      <c r="N31" s="26">
         <v>1885616</v>
       </c>
-      <c r="O30" s="26">
+      <c r="O31" s="26">
         <v>2659831</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="11">
+    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="11">
         <v>2022</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D32" s="13">
         <f t="shared" si="2"/>
         <v>6388091</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E32" s="14">
         <v>10809</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F32" s="14">
         <v>29180</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G32" s="14">
         <v>1477832</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H32" s="14">
         <v>542019</v>
       </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14">
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14">
         <v>26190</v>
       </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14">
+      <c r="L32" s="14"/>
+      <c r="M32" s="14">
         <v>25324</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N32" s="14">
         <v>1806360</v>
       </c>
-      <c r="O31" s="14">
+      <c r="O32" s="14">
         <v>2470377</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="15">
+    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="15">
         <v>2022</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C33" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D33" s="17">
         <f t="shared" si="2"/>
         <v>6296390</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E33" s="18">
         <v>11560</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F33" s="18">
         <v>29156</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G33" s="18">
         <v>1436769</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H33" s="18">
         <v>525145</v>
       </c>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18">
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18">
         <v>25003</v>
       </c>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18">
+      <c r="L33" s="18"/>
+      <c r="M33" s="18">
         <v>26165</v>
       </c>
-      <c r="N32" s="18">
+      <c r="N33" s="18">
         <v>1730130</v>
       </c>
-      <c r="O32" s="18">
+      <c r="O33" s="18">
         <v>2512462</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="11">
+    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="11">
         <v>2022</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D34" s="13">
         <f t="shared" si="2"/>
         <v>5717570</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E34" s="14">
         <v>8563</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F34" s="14">
         <v>27782</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G34" s="14">
         <v>1324735</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H34" s="14">
         <v>461328</v>
       </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14">
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14">
         <v>24539</v>
       </c>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14">
+      <c r="L34" s="14"/>
+      <c r="M34" s="14">
         <v>23409</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N34" s="14">
         <v>1533686</v>
       </c>
-      <c r="O33" s="14">
+      <c r="O34" s="14">
         <v>2313528</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="15">
+    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="15">
         <v>2022</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C35" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D35" s="17">
         <f t="shared" si="2"/>
         <v>6395624</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E35" s="18">
         <v>12206</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F35" s="18">
         <v>36300</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G35" s="18">
         <v>1459848</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H35" s="18">
         <v>550210</v>
       </c>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18">
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18">
         <v>41574</v>
       </c>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18">
+      <c r="L35" s="18"/>
+      <c r="M35" s="18">
         <v>28457</v>
       </c>
-      <c r="N34" s="18">
+      <c r="N35" s="18">
         <v>1770150</v>
       </c>
-      <c r="O34" s="18">
+      <c r="O35" s="18">
         <v>2496879</v>
       </c>
     </row>
-    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="11">
+    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="11">
         <v>2022</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D36" s="13">
         <f t="shared" si="2"/>
         <v>6606709</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E36" s="14">
         <v>12900</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F36" s="14">
         <v>37410</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G36" s="14">
         <v>1493132</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H36" s="14">
         <v>544988</v>
       </c>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14">
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14">
         <v>52783</v>
       </c>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14">
+      <c r="L36" s="14"/>
+      <c r="M36" s="14">
         <v>35829</v>
       </c>
-      <c r="N35" s="14">
+      <c r="N36" s="14">
         <v>1832173</v>
       </c>
-      <c r="O35" s="14">
+      <c r="O36" s="14">
         <v>2597494</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="15">
+    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="15">
         <v>2022</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C37" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D37" s="17">
         <f t="shared" si="2"/>
         <v>5816384</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E37" s="18">
         <v>11528</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F37" s="18">
         <v>29894</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G37" s="18">
         <v>1448616</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H37" s="18">
         <v>482837</v>
       </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18">
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18">
         <v>38612</v>
       </c>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18">
+      <c r="L37" s="18"/>
+      <c r="M37" s="18">
         <v>31692</v>
       </c>
-      <c r="N36" s="18">
+      <c r="N37" s="18">
         <v>1629719</v>
       </c>
-      <c r="O36" s="18">
+      <c r="O37" s="18">
         <v>2143486</v>
       </c>
     </row>
-    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="11">
+    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="11">
         <v>2022</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D38" s="13">
         <f t="shared" si="2"/>
         <v>5938227</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E38" s="14">
         <v>14051</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F38" s="14">
         <v>34530</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G38" s="14">
         <v>1394194</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H38" s="14">
         <v>469001</v>
       </c>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14">
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14">
         <v>36048</v>
       </c>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14">
+      <c r="L38" s="14"/>
+      <c r="M38" s="14">
         <v>32934</v>
       </c>
-      <c r="N37" s="14">
+      <c r="N38" s="14">
         <v>1638787</v>
       </c>
-      <c r="O37" s="14">
+      <c r="O38" s="14">
         <v>2318682</v>
       </c>
     </row>
-    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="15">
+    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="15">
         <v>2022</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C39" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D39" s="17">
         <f t="shared" si="2"/>
         <v>5762121</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E39" s="18">
         <v>12580</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F39" s="18">
         <v>39403</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G39" s="18">
         <v>1248745</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H39" s="18">
         <v>447104</v>
       </c>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18">
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18">
         <v>30427</v>
       </c>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18">
+      <c r="L39" s="18"/>
+      <c r="M39" s="18">
         <v>31976</v>
       </c>
-      <c r="N38" s="18">
+      <c r="N39" s="18">
         <v>1571982</v>
       </c>
-      <c r="O38" s="18">
+      <c r="O39" s="18">
         <v>2379904</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="11">
+    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="11">
         <v>2022</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D40" s="13">
         <f t="shared" si="2"/>
         <v>5450271</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E40" s="14">
         <v>13206</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F40" s="14">
         <v>32413</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G40" s="14">
         <v>1137873</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H40" s="14">
         <v>485288</v>
       </c>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14">
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14">
         <v>20444</v>
       </c>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14">
+      <c r="L40" s="14"/>
+      <c r="M40" s="14">
         <v>30333</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N40" s="14">
         <v>1443642</v>
       </c>
-      <c r="O39" s="14">
+      <c r="O40" s="14">
         <v>2287072</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="15">
+    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="15">
         <v>2022</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C41" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D41" s="17">
         <f t="shared" si="2"/>
         <v>4335053</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E41" s="18">
         <v>10775</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F41" s="18">
         <v>26979</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G41" s="18">
         <v>817221</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H41" s="18">
         <v>400280</v>
       </c>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18">
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18">
         <v>14632</v>
       </c>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18">
+      <c r="L41" s="18"/>
+      <c r="M41" s="18">
         <v>22836</v>
       </c>
-      <c r="N40" s="18">
+      <c r="N41" s="18">
         <v>1113977</v>
       </c>
-      <c r="O40" s="18">
+      <c r="O41" s="18">
         <v>1928353</v>
       </c>
     </row>
-    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="19">
+    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="19">
         <v>2022</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C42" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D42" s="21">
         <f t="shared" si="2"/>
         <v>4754587</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E42" s="22">
         <v>10351</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F42" s="22">
         <v>35019</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G42" s="22">
         <v>851918</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H42" s="22">
         <v>400866</v>
       </c>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22">
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22">
         <v>19731</v>
       </c>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22">
+      <c r="L42" s="22"/>
+      <c r="M42" s="22">
         <v>22335</v>
       </c>
-      <c r="N41" s="22">
+      <c r="N42" s="22">
         <v>1322859</v>
       </c>
-      <c r="O41" s="22">
+      <c r="O42" s="22">
         <v>2091508</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="23">
+    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="23">
         <v>2021</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C43" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D43" s="25">
         <f t="shared" si="2"/>
         <v>5788606</v>
       </c>
-      <c r="E42" s="26">
+      <c r="E43" s="26">
         <v>12597</v>
       </c>
-      <c r="F42" s="26">
+      <c r="F43" s="26">
         <v>48986</v>
       </c>
-      <c r="G42" s="26">
+      <c r="G43" s="26">
         <v>1194196</v>
       </c>
-      <c r="H42" s="26">
+      <c r="H43" s="26">
         <v>531737</v>
       </c>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26">
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26">
         <v>41564</v>
       </c>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26">
+      <c r="L43" s="26"/>
+      <c r="M43" s="26">
         <v>32426</v>
       </c>
-      <c r="N42" s="26">
+      <c r="N43" s="26">
         <v>1542449</v>
       </c>
-      <c r="O42" s="26">
+      <c r="O43" s="26">
         <v>2384651</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="11">
+    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="11">
         <v>2021</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C44" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D44" s="13">
         <f t="shared" si="2"/>
         <v>5289729</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E44" s="14">
         <v>11837</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F44" s="14">
         <v>46757</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G44" s="14">
         <v>1056753</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H44" s="14">
         <v>485468</v>
       </c>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14">
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14">
         <v>32507</v>
       </c>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14">
+      <c r="L44" s="14"/>
+      <c r="M44" s="14">
         <v>29832</v>
       </c>
-      <c r="N43" s="14">
+      <c r="N44" s="14">
         <v>1406500</v>
       </c>
-      <c r="O43" s="14">
+      <c r="O44" s="14">
         <v>2220075</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="15">
+    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="15">
         <v>2021</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C45" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D45" s="17">
         <f t="shared" si="2"/>
         <v>5118685</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E45" s="18">
         <v>14115</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F45" s="18">
         <v>45703</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G45" s="18">
         <v>1034177</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H45" s="18">
         <v>510398</v>
       </c>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18">
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18">
         <v>28313</v>
       </c>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18">
+      <c r="L45" s="18"/>
+      <c r="M45" s="18">
         <v>31649</v>
       </c>
-      <c r="N44" s="18">
+      <c r="N45" s="18">
         <v>1355918</v>
       </c>
-      <c r="O44" s="18">
+      <c r="O45" s="18">
         <v>2098412</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="11">
+    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="11">
         <v>2021</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C46" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="13">
-        <f t="shared" ref="D45:D76" si="3">SUM(E45:O45)</f>
+      <c r="D46" s="13">
+        <f t="shared" ref="D46:D77" si="3">SUM(E46:O46)</f>
         <v>4470649</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E46" s="14">
         <v>12872</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F46" s="14">
         <v>42716</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G46" s="14">
         <v>893242</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H46" s="14">
         <v>444101</v>
       </c>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14">
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14">
         <v>24490</v>
       </c>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14">
+      <c r="L46" s="14"/>
+      <c r="M46" s="14">
         <v>25901</v>
       </c>
-      <c r="N45" s="14">
+      <c r="N46" s="14">
         <v>1153271</v>
       </c>
-      <c r="O45" s="14">
+      <c r="O46" s="14">
         <v>1874056</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="15">
+    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="15">
         <v>2021</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C47" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D47" s="17">
         <f t="shared" si="3"/>
         <v>5008604</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E47" s="18">
         <v>12792</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F47" s="18">
         <v>47119</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G47" s="18">
         <v>993427</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H47" s="18">
         <v>524484</v>
       </c>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18">
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18">
         <v>35479</v>
       </c>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18">
+      <c r="L47" s="18"/>
+      <c r="M47" s="18">
         <v>26034</v>
       </c>
-      <c r="N46" s="18">
+      <c r="N47" s="18">
         <v>1305965</v>
       </c>
-      <c r="O46" s="18">
+      <c r="O47" s="18">
         <v>2063304</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="11">
+    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="11">
         <v>2021</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D48" s="13">
         <f t="shared" si="3"/>
         <v>5456169</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E48" s="14">
         <v>15216</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F48" s="14">
         <v>53005</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G48" s="14">
         <v>1058956</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H48" s="14">
         <v>590598</v>
       </c>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14">
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14">
         <v>64029</v>
       </c>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14">
+      <c r="L48" s="14"/>
+      <c r="M48" s="14">
         <v>30912</v>
       </c>
-      <c r="N47" s="14">
+      <c r="N48" s="14">
         <v>1503552</v>
       </c>
-      <c r="O47" s="14">
+      <c r="O48" s="14">
         <v>2139901</v>
       </c>
     </row>
-    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="15">
+    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="15">
         <v>2021</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C49" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D49" s="17">
         <f t="shared" si="3"/>
         <v>4784013</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E49" s="18">
         <v>15389</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F49" s="18">
         <v>43733</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G49" s="18">
         <v>853708</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H49" s="18">
         <v>536816</v>
       </c>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18">
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18">
         <v>54554</v>
       </c>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18">
+      <c r="L49" s="18"/>
+      <c r="M49" s="18">
         <v>23167</v>
       </c>
-      <c r="N48" s="18">
+      <c r="N49" s="18">
         <v>1288126</v>
       </c>
-      <c r="O48" s="18">
+      <c r="O49" s="18">
         <v>1968520</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="11">
+    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="11">
         <v>2021</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C50" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D50" s="13">
         <f t="shared" si="3"/>
         <v>4739036</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E50" s="14">
         <v>16431</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F50" s="14">
         <v>40566</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G50" s="14">
         <v>804638</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H50" s="14">
         <v>535959</v>
       </c>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14">
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14">
         <v>45166</v>
       </c>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14">
+      <c r="L50" s="14"/>
+      <c r="M50" s="14">
         <v>20712</v>
       </c>
-      <c r="N49" s="14">
+      <c r="N50" s="14">
         <v>1283475</v>
       </c>
-      <c r="O49" s="14">
+      <c r="O50" s="14">
         <v>1992089</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="15">
+    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="15">
         <v>2021</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C51" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D51" s="17">
         <f t="shared" si="3"/>
         <v>4139956</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E51" s="18">
         <v>13432</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F51" s="18">
         <v>34786</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G51" s="18">
         <v>729359</v>
       </c>
-      <c r="H50" s="18">
+      <c r="H51" s="18">
         <v>459115</v>
       </c>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18">
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18">
         <v>37963</v>
       </c>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18">
+      <c r="L51" s="18"/>
+      <c r="M51" s="18">
         <v>19899</v>
       </c>
-      <c r="N50" s="18">
+      <c r="N51" s="18">
         <v>1098291</v>
       </c>
-      <c r="O50" s="18">
+      <c r="O51" s="18">
         <v>1747111</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="11">
+    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="11">
         <v>2021</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D52" s="13">
         <f t="shared" si="3"/>
         <v>3643233</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E52" s="14">
         <v>13443</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F52" s="14">
         <v>34472</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G52" s="14">
         <v>700282</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H52" s="14">
         <v>454696</v>
       </c>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14">
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14">
         <v>25539</v>
       </c>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14">
+      <c r="L52" s="14"/>
+      <c r="M52" s="14">
         <v>18739</v>
       </c>
-      <c r="N51" s="14">
+      <c r="N52" s="14">
         <v>1015276</v>
       </c>
-      <c r="O51" s="14">
+      <c r="O52" s="14">
         <v>1380786</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="15">
+    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="15">
         <v>2021</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C53" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D53" s="17">
         <f t="shared" si="3"/>
         <v>2522697</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E53" s="18">
         <v>8230</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F53" s="18">
         <v>21876</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G53" s="18">
         <v>521896</v>
       </c>
-      <c r="H52" s="18">
+      <c r="H53" s="18">
         <v>365190</v>
       </c>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18">
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18">
         <v>13877</v>
       </c>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18">
+      <c r="L53" s="18"/>
+      <c r="M53" s="18">
         <v>12256</v>
       </c>
-      <c r="N52" s="18">
+      <c r="N53" s="18">
         <v>590075</v>
       </c>
-      <c r="O52" s="18">
+      <c r="O53" s="18">
         <v>989297</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="19">
+    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="19">
         <v>2021</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C54" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D54" s="21">
         <f t="shared" si="3"/>
         <v>3256499</v>
       </c>
-      <c r="E53" s="22">
+      <c r="E54" s="22">
         <v>7181</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F54" s="22">
         <v>25543</v>
       </c>
-      <c r="G53" s="22">
+      <c r="G54" s="22">
         <v>641860</v>
       </c>
-      <c r="H53" s="22">
+      <c r="H54" s="22">
         <v>438330</v>
       </c>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22">
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22">
         <v>19413</v>
       </c>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22">
+      <c r="L54" s="22"/>
+      <c r="M54" s="22">
         <v>13791</v>
       </c>
-      <c r="N53" s="22">
+      <c r="N54" s="22">
         <v>759842</v>
       </c>
-      <c r="O53" s="22">
+      <c r="O54" s="22">
         <v>1350539</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="23">
+    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="23">
         <v>2020</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C55" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="25">
+      <c r="D55" s="25">
         <f t="shared" si="3"/>
         <v>3752676</v>
       </c>
-      <c r="E54" s="26">
+      <c r="E55" s="26">
         <v>6626</v>
       </c>
-      <c r="F54" s="26">
+      <c r="F55" s="26">
         <v>32040</v>
       </c>
-      <c r="G54" s="26">
+      <c r="G55" s="26">
         <v>610544</v>
       </c>
-      <c r="H54" s="26">
+      <c r="H55" s="26">
         <v>491905</v>
       </c>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26">
+      <c r="I55" s="26"/>
+      <c r="J55" s="26">
         <v>4039</v>
       </c>
-      <c r="K54" s="26">
+      <c r="K55" s="26">
         <v>45610</v>
       </c>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26">
+      <c r="L55" s="26"/>
+      <c r="M55" s="26">
         <v>17383</v>
       </c>
-      <c r="N54" s="26">
+      <c r="N55" s="26">
         <v>998369</v>
       </c>
-      <c r="O54" s="26">
+      <c r="O55" s="26">
         <v>1546160</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="11">
+    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="11">
         <v>2020</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C56" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D56" s="13">
         <f t="shared" si="3"/>
         <v>3347186</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E56" s="14">
         <v>6583</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F56" s="14">
         <v>28629</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G56" s="14">
         <v>520221</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H56" s="14">
         <v>395967</v>
       </c>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14">
+      <c r="I56" s="14"/>
+      <c r="J56" s="14">
         <v>17545</v>
       </c>
-      <c r="K55" s="14">
+      <c r="K56" s="14">
         <v>37463</v>
       </c>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14">
+      <c r="L56" s="14"/>
+      <c r="M56" s="14">
         <v>14115</v>
       </c>
-      <c r="N55" s="14">
+      <c r="N56" s="14">
         <v>863224</v>
       </c>
-      <c r="O55" s="14">
+      <c r="O56" s="14">
         <v>1463439</v>
       </c>
     </row>
-    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="15">
+    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="15">
         <v>2020</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C57" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D57" s="17">
         <f t="shared" si="3"/>
         <v>3072785</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E57" s="18">
         <v>5614</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F57" s="18">
         <v>27120</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G57" s="18">
         <v>463245</v>
       </c>
-      <c r="H56" s="18">
+      <c r="H57" s="18">
         <v>395686</v>
       </c>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18">
+      <c r="I57" s="18"/>
+      <c r="J57" s="18">
         <v>33425</v>
       </c>
-      <c r="K56" s="18">
+      <c r="K57" s="18">
         <v>29759</v>
       </c>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18">
+      <c r="L57" s="18"/>
+      <c r="M57" s="18">
         <v>14897</v>
       </c>
-      <c r="N56" s="18">
+      <c r="N57" s="18">
         <v>803614</v>
       </c>
-      <c r="O56" s="18">
+      <c r="O57" s="18">
         <v>1299425</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="11">
+    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="11">
         <v>2020</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D58" s="13">
         <f t="shared" si="3"/>
         <v>2614973</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E58" s="14">
         <v>4853</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F58" s="14">
         <v>21371</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G58" s="14">
         <v>371636</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H58" s="14">
         <v>325704</v>
       </c>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14">
+      <c r="I58" s="14"/>
+      <c r="J58" s="14">
         <v>41547</v>
       </c>
-      <c r="K57" s="14">
+      <c r="K58" s="14">
         <v>30615</v>
       </c>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14">
+      <c r="L58" s="14"/>
+      <c r="M58" s="14">
         <v>11615</v>
       </c>
-      <c r="N57" s="14">
+      <c r="N58" s="14">
         <v>665331</v>
       </c>
-      <c r="O57" s="14">
+      <c r="O58" s="14">
         <v>1142301</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="15">
+    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="15">
         <v>2020</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C59" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D59" s="17">
         <f t="shared" si="3"/>
         <v>2423904</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E59" s="18">
         <v>3748</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F59" s="18">
         <v>22617</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G59" s="18">
         <v>322580</v>
       </c>
-      <c r="H58" s="18">
+      <c r="H59" s="18">
         <v>310616</v>
       </c>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18">
+      <c r="I59" s="18"/>
+      <c r="J59" s="18">
         <v>38737</v>
       </c>
-      <c r="K58" s="18">
+      <c r="K59" s="18">
         <v>30641</v>
       </c>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18">
+      <c r="L59" s="18"/>
+      <c r="M59" s="18">
         <v>7400</v>
       </c>
-      <c r="N58" s="18">
+      <c r="N59" s="18">
         <v>586367</v>
       </c>
-      <c r="O58" s="18">
+      <c r="O59" s="18">
         <v>1101198</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="11">
+    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="11">
         <v>2020</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C60" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D60" s="13">
         <f t="shared" si="3"/>
         <v>1910823</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E60" s="14">
         <v>3082</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F60" s="14">
         <v>18259</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G60" s="14">
         <v>251899</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H60" s="14">
         <v>254505</v>
       </c>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14">
+      <c r="I60" s="14"/>
+      <c r="J60" s="14">
         <v>38811</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K60" s="14">
         <v>24630</v>
       </c>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14">
+      <c r="L60" s="14"/>
+      <c r="M60" s="14">
         <v>4178</v>
       </c>
-      <c r="N59" s="14">
+      <c r="N60" s="14">
         <v>418350</v>
       </c>
-      <c r="O59" s="14">
+      <c r="O60" s="14">
         <v>897109</v>
       </c>
     </row>
-    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="15">
+    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="15">
         <v>2020</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C61" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D61" s="17">
         <f t="shared" si="3"/>
         <v>996346</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E61" s="18">
         <v>1927</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F61" s="18">
         <v>9051</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G61" s="18">
         <v>140991</v>
       </c>
-      <c r="H60" s="18">
+      <c r="H61" s="18">
         <v>97306</v>
       </c>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18">
+      <c r="I61" s="18"/>
+      <c r="J61" s="18">
         <v>24942</v>
       </c>
-      <c r="K60" s="18">
+      <c r="K61" s="18">
         <v>5002</v>
       </c>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18">
+      <c r="L61" s="18"/>
+      <c r="M61" s="18">
         <v>2168</v>
       </c>
-      <c r="N60" s="18">
+      <c r="N61" s="18">
         <v>201937</v>
       </c>
-      <c r="O60" s="18">
+      <c r="O61" s="18">
         <v>513022</v>
       </c>
     </row>
-    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="11">
+    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="11">
         <v>2020</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C62" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D62" s="13">
         <f t="shared" si="3"/>
         <v>410766</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E62" s="14">
         <v>1324</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F62" s="14">
         <v>4688</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G62" s="14">
         <v>50801</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H62" s="14">
         <v>80478</v>
       </c>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14">
+      <c r="I62" s="14"/>
+      <c r="J62" s="14">
         <v>14835</v>
       </c>
-      <c r="K61" s="14">
+      <c r="K62" s="14">
         <v>0</v>
       </c>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14">
+      <c r="L62" s="14"/>
+      <c r="M62" s="14">
         <v>1040</v>
       </c>
-      <c r="N61" s="14">
+      <c r="N62" s="14">
         <v>90419</v>
       </c>
-      <c r="O61" s="14">
+      <c r="O62" s="14">
         <v>167181</v>
       </c>
     </row>
-    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="15">
+    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="15">
         <v>2020</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C63" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D63" s="17">
         <f t="shared" si="3"/>
         <v>449003</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E63" s="18">
         <v>1164</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F63" s="18">
         <v>2668</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G63" s="18">
         <v>60744</v>
       </c>
-      <c r="H62" s="18">
+      <c r="H63" s="18">
         <v>86523</v>
       </c>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18">
+      <c r="I63" s="18"/>
+      <c r="J63" s="18">
         <v>25068</v>
       </c>
-      <c r="K62" s="18">
+      <c r="K63" s="18">
         <v>705</v>
       </c>
-      <c r="L62" s="18"/>
-      <c r="M62" s="18">
+      <c r="L63" s="18"/>
+      <c r="M63" s="18">
         <v>485</v>
       </c>
-      <c r="N62" s="18">
+      <c r="N63" s="18">
         <v>89915</v>
       </c>
-      <c r="O62" s="18">
+      <c r="O63" s="18">
         <v>181731</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="11">
+    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="11">
         <v>2020</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C64" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D64" s="13">
         <f t="shared" si="3"/>
         <v>3931644</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E64" s="14">
         <v>8791</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F64" s="14">
         <v>41673</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G64" s="14">
         <v>572018</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H64" s="14">
         <v>464064</v>
       </c>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14">
+      <c r="I64" s="14"/>
+      <c r="J64" s="14">
         <v>822187</v>
       </c>
-      <c r="K63" s="14">
+      <c r="K64" s="14">
         <v>23248</v>
       </c>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14">
+      <c r="L64" s="14"/>
+      <c r="M64" s="14">
         <v>26274</v>
       </c>
-      <c r="N63" s="14">
+      <c r="N64" s="14">
         <v>704638</v>
       </c>
-      <c r="O63" s="14">
+      <c r="O64" s="14">
         <v>1268751</v>
       </c>
     </row>
-    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="15">
+    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="15">
         <v>2020</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C65" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D65" s="17">
         <f t="shared" si="3"/>
         <v>5315967</v>
       </c>
-      <c r="E64" s="18">
+      <c r="E65" s="18">
         <v>10857</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F65" s="18">
         <v>59357</v>
       </c>
-      <c r="G64" s="18">
+      <c r="G65" s="18">
         <v>846279</v>
       </c>
-      <c r="H64" s="18">
+      <c r="H65" s="18">
         <v>641873</v>
       </c>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18">
+      <c r="I65" s="18"/>
+      <c r="J65" s="18">
         <v>1178801</v>
       </c>
-      <c r="K64" s="18">
+      <c r="K65" s="18">
         <v>26652</v>
       </c>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18">
+      <c r="L65" s="18"/>
+      <c r="M65" s="18">
         <v>36382</v>
       </c>
-      <c r="N64" s="18">
+      <c r="N65" s="18">
         <v>881600</v>
       </c>
-      <c r="O64" s="18">
+      <c r="O65" s="18">
         <v>1634166</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="19">
+    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="19">
         <v>2020</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C66" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D66" s="21">
         <f t="shared" si="3"/>
         <v>5907035</v>
       </c>
-      <c r="E65" s="22">
+      <c r="E66" s="22">
         <v>13840</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F66" s="22">
         <v>68044</v>
       </c>
-      <c r="G65" s="22">
+      <c r="G66" s="22">
         <v>961808</v>
       </c>
-      <c r="H65" s="22">
+      <c r="H66" s="22">
         <v>680707</v>
       </c>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22">
+      <c r="I66" s="22"/>
+      <c r="J66" s="22">
         <v>1315599</v>
       </c>
-      <c r="K65" s="22">
+      <c r="K66" s="22">
         <v>47575</v>
       </c>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22">
+      <c r="L66" s="22"/>
+      <c r="M66" s="22">
         <v>40620</v>
       </c>
-      <c r="N65" s="22">
+      <c r="N66" s="22">
         <v>980414</v>
       </c>
-      <c r="O65" s="22">
+      <c r="O66" s="22">
         <v>1798428</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="23">
+    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="23">
         <v>2019</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D66" s="25">
+      <c r="D67" s="25">
         <f t="shared" si="3"/>
         <v>6305291</v>
       </c>
-      <c r="E66" s="26">
+      <c r="E67" s="26">
         <v>14577</v>
       </c>
-      <c r="F66" s="26">
+      <c r="F67" s="26">
         <v>79686</v>
       </c>
-      <c r="G66" s="26">
+      <c r="G67" s="26">
         <v>1001613</v>
       </c>
-      <c r="H66" s="26">
+      <c r="H67" s="26">
         <v>756331</v>
       </c>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26">
+      <c r="I67" s="26"/>
+      <c r="J67" s="26">
         <v>1419527</v>
       </c>
-      <c r="K66" s="26">
+      <c r="K67" s="26">
         <v>72539</v>
       </c>
-      <c r="L66" s="26"/>
-      <c r="M66" s="26">
+      <c r="L67" s="26"/>
+      <c r="M67" s="26">
         <v>45759</v>
       </c>
-      <c r="N66" s="26">
+      <c r="N67" s="26">
         <v>1083272</v>
       </c>
-      <c r="O66" s="26">
+      <c r="O67" s="26">
         <v>1831987</v>
       </c>
     </row>
-    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="11">
+    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="11">
         <v>2019</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C68" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D68" s="13">
         <f t="shared" si="3"/>
         <v>5933699</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E68" s="14">
         <v>15593</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F68" s="14">
         <v>73513</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G68" s="14">
         <v>938515</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H68" s="14">
         <v>697055</v>
       </c>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14">
+      <c r="I68" s="14"/>
+      <c r="J68" s="14">
         <v>1349425</v>
       </c>
-      <c r="K67" s="14">
+      <c r="K68" s="14">
         <v>54165</v>
       </c>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14">
+      <c r="L68" s="14"/>
+      <c r="M68" s="14">
         <v>41740</v>
       </c>
-      <c r="N67" s="14">
+      <c r="N68" s="14">
         <v>1014931</v>
       </c>
-      <c r="O67" s="14">
+      <c r="O68" s="14">
         <v>1748762</v>
       </c>
     </row>
-    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="15">
+    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="15">
         <v>2019</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C69" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D69" s="17">
         <f t="shared" si="3"/>
         <v>5863191</v>
       </c>
-      <c r="E68" s="18">
+      <c r="E69" s="18">
         <v>19701</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F69" s="18">
         <v>67349</v>
       </c>
-      <c r="G68" s="18">
+      <c r="G69" s="18">
         <v>957393</v>
       </c>
-      <c r="H68" s="18">
+      <c r="H69" s="18">
         <v>740956</v>
       </c>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18">
+      <c r="I69" s="18"/>
+      <c r="J69" s="18">
         <v>1232933</v>
       </c>
-      <c r="K68" s="18">
+      <c r="K69" s="18">
         <v>57392</v>
       </c>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18">
+      <c r="L69" s="18"/>
+      <c r="M69" s="18">
         <v>40850</v>
       </c>
-      <c r="N68" s="18">
+      <c r="N69" s="18">
         <v>1022260</v>
       </c>
-      <c r="O68" s="18">
+      <c r="O69" s="18">
         <v>1724357</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="11">
+    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="11">
         <v>2019</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C70" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D70" s="13">
         <f t="shared" si="3"/>
         <v>5409755</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E70" s="14">
         <v>15863</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F70" s="14">
         <v>61156</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G70" s="14">
         <v>897733</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H70" s="14">
         <v>677299</v>
       </c>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14">
+      <c r="I70" s="14"/>
+      <c r="J70" s="14">
         <v>1115654</v>
       </c>
-      <c r="K69" s="14">
+      <c r="K70" s="14">
         <v>61638</v>
       </c>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14">
+      <c r="L70" s="14"/>
+      <c r="M70" s="14">
         <v>42002</v>
       </c>
-      <c r="N69" s="14">
+      <c r="N70" s="14">
         <v>922290</v>
       </c>
-      <c r="O69" s="14">
+      <c r="O70" s="14">
         <v>1616120</v>
       </c>
     </row>
-    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="15">
+    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="15">
         <v>2019</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C71" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D71" s="17">
         <f t="shared" si="3"/>
         <v>6259657</v>
       </c>
-      <c r="E70" s="18">
+      <c r="E71" s="18">
         <v>22090</v>
       </c>
-      <c r="F70" s="18">
+      <c r="F71" s="18">
         <v>68824</v>
       </c>
-      <c r="G70" s="18">
+      <c r="G71" s="18">
         <v>1001754</v>
       </c>
-      <c r="H70" s="18">
+      <c r="H71" s="18">
         <v>777867</v>
       </c>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18">
+      <c r="I71" s="18"/>
+      <c r="J71" s="18">
         <v>1395254</v>
       </c>
-      <c r="K70" s="18">
+      <c r="K71" s="18">
         <v>88036</v>
       </c>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18">
+      <c r="L71" s="18"/>
+      <c r="M71" s="18">
         <v>47511</v>
       </c>
-      <c r="N70" s="18">
+      <c r="N71" s="18">
         <v>1112562</v>
       </c>
-      <c r="O70" s="18">
+      <c r="O71" s="18">
         <v>1745759</v>
       </c>
     </row>
-    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="11">
+    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="11">
         <v>2019</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D72" s="13">
         <f t="shared" si="3"/>
         <v>6643948</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E72" s="14">
         <v>24398</v>
       </c>
-      <c r="F71" s="14">
+      <c r="F72" s="14">
         <v>75738</v>
       </c>
-      <c r="G71" s="14">
+      <c r="G72" s="14">
         <v>1056905</v>
       </c>
-      <c r="H71" s="14">
+      <c r="H72" s="14">
         <v>847525</v>
       </c>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14">
+      <c r="I72" s="14"/>
+      <c r="J72" s="14">
         <v>1440396</v>
       </c>
-      <c r="K71" s="14">
+      <c r="K72" s="14">
         <v>112757</v>
       </c>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14">
+      <c r="L72" s="14"/>
+      <c r="M72" s="14">
         <v>53404</v>
       </c>
-      <c r="N71" s="14">
+      <c r="N72" s="14">
         <v>1151999</v>
       </c>
-      <c r="O71" s="14">
+      <c r="O72" s="14">
         <v>1880826</v>
       </c>
     </row>
-    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="15">
+    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="15">
         <v>2019</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C73" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D73" s="17">
         <f t="shared" si="3"/>
         <v>6003625</v>
       </c>
-      <c r="E72" s="18">
+      <c r="E73" s="18">
         <v>24034</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F73" s="18">
         <v>65120</v>
       </c>
-      <c r="G72" s="18">
+      <c r="G73" s="18">
         <v>968584</v>
       </c>
-      <c r="H72" s="18">
+      <c r="H73" s="18">
         <v>772914</v>
       </c>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18">
+      <c r="I73" s="18"/>
+      <c r="J73" s="18">
         <v>1315938</v>
       </c>
-      <c r="K72" s="18">
+      <c r="K73" s="18">
         <v>90790</v>
       </c>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18">
+      <c r="L73" s="18"/>
+      <c r="M73" s="18">
         <v>47162</v>
       </c>
-      <c r="N72" s="18">
+      <c r="N73" s="18">
         <v>974523</v>
       </c>
-      <c r="O72" s="18">
+      <c r="O73" s="18">
         <v>1744560</v>
       </c>
     </row>
-    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="11">
+    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="11">
         <v>2019</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C74" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D74" s="13">
         <f t="shared" si="3"/>
         <v>6066733</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E74" s="14">
         <v>24578</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F74" s="14">
         <v>61163</v>
       </c>
-      <c r="G73" s="14">
+      <c r="G74" s="14">
         <v>976676</v>
       </c>
-      <c r="H73" s="14">
+      <c r="H74" s="14">
         <v>788262</v>
       </c>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14">
+      <c r="I74" s="14"/>
+      <c r="J74" s="14">
         <v>1373059</v>
       </c>
-      <c r="K73" s="14">
+      <c r="K74" s="14">
         <v>74030</v>
       </c>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14">
+      <c r="L74" s="14"/>
+      <c r="M74" s="14">
         <v>51746</v>
       </c>
-      <c r="N73" s="14">
+      <c r="N74" s="14">
         <v>931984</v>
       </c>
-      <c r="O73" s="14">
+      <c r="O74" s="14">
         <v>1785235</v>
       </c>
     </row>
-    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="15">
+    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="15">
         <v>2019</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C75" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D74" s="17">
+      <c r="D75" s="17">
         <f t="shared" si="3"/>
         <v>5766967</v>
       </c>
-      <c r="E74" s="18">
+      <c r="E75" s="18">
         <v>26137</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F75" s="18">
         <v>63912</v>
       </c>
-      <c r="G74" s="18">
+      <c r="G75" s="18">
         <v>935481</v>
       </c>
-      <c r="H74" s="18">
+      <c r="H75" s="18">
         <v>737722</v>
       </c>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18">
+      <c r="I75" s="18"/>
+      <c r="J75" s="18">
         <v>1282012</v>
       </c>
-      <c r="K74" s="18">
+      <c r="K75" s="18">
         <v>54469</v>
       </c>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18">
+      <c r="L75" s="18"/>
+      <c r="M75" s="18">
         <v>50399</v>
       </c>
-      <c r="N74" s="18">
+      <c r="N75" s="18">
         <v>893208</v>
       </c>
-      <c r="O74" s="18">
+      <c r="O75" s="18">
         <v>1723627</v>
       </c>
     </row>
-    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="11">
+    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="11">
         <v>2019</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D76" s="13">
         <f t="shared" si="3"/>
         <v>5617314</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E76" s="14">
         <v>24631</v>
       </c>
-      <c r="F75" s="14">
+      <c r="F76" s="14">
         <v>66177</v>
       </c>
-      <c r="G75" s="14">
+      <c r="G76" s="14">
         <v>991931</v>
       </c>
-      <c r="H75" s="14">
+      <c r="H76" s="14">
         <v>774790</v>
       </c>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14">
+      <c r="I76" s="14"/>
+      <c r="J76" s="14">
         <v>1245949</v>
       </c>
-      <c r="K75" s="14">
+      <c r="K76" s="14">
         <v>40758</v>
       </c>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14">
+      <c r="L76" s="14"/>
+      <c r="M76" s="14">
         <v>49242</v>
       </c>
-      <c r="N75" s="14">
+      <c r="N76" s="14">
         <v>767922</v>
       </c>
-      <c r="O75" s="14">
+      <c r="O76" s="14">
         <v>1655914</v>
       </c>
     </row>
-    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="15">
+    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="15">
         <v>2019</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C77" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="17">
+      <c r="D77" s="17">
         <f t="shared" si="3"/>
         <v>4697667</v>
       </c>
-      <c r="E76" s="18">
+      <c r="E77" s="18">
         <v>20074</v>
       </c>
-      <c r="F76" s="18">
+      <c r="F77" s="18">
         <v>57946</v>
       </c>
-      <c r="G76" s="18">
+      <c r="G77" s="18">
         <v>888111</v>
       </c>
-      <c r="H76" s="18">
+      <c r="H77" s="18">
         <v>647818</v>
       </c>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18">
+      <c r="I77" s="18"/>
+      <c r="J77" s="18">
         <v>1002798</v>
       </c>
-      <c r="K76" s="18">
+      <c r="K77" s="18">
         <v>31139</v>
       </c>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18">
+      <c r="L77" s="18"/>
+      <c r="M77" s="18">
         <v>40877</v>
       </c>
-      <c r="N76" s="18">
+      <c r="N77" s="18">
         <v>617809</v>
       </c>
-      <c r="O76" s="18">
+      <c r="O77" s="18">
         <v>1391095</v>
       </c>
     </row>
-    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="19">
+    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="19">
         <v>2019</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C78" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="21">
-        <f t="shared" ref="D77:D89" si="4">SUM(E77:O77)</f>
+      <c r="D78" s="21">
+        <f t="shared" ref="D78:D90" si="4">SUM(E78:O78)</f>
         <v>5369991</v>
       </c>
-      <c r="E77" s="22">
+      <c r="E78" s="22">
         <v>24399</v>
       </c>
-      <c r="F77" s="22">
+      <c r="F78" s="22">
         <v>59133</v>
       </c>
-      <c r="G77" s="22">
+      <c r="G78" s="22">
         <v>1017714</v>
       </c>
-      <c r="H77" s="22">
+      <c r="H78" s="22">
         <v>718168</v>
       </c>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22">
+      <c r="I78" s="22"/>
+      <c r="J78" s="22">
         <v>1143850</v>
       </c>
-      <c r="K77" s="22">
+      <c r="K78" s="22">
         <v>45885</v>
       </c>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22">
+      <c r="L78" s="22"/>
+      <c r="M78" s="22">
         <v>45704</v>
       </c>
-      <c r="N77" s="22">
+      <c r="N78" s="22">
         <v>787962</v>
       </c>
-      <c r="O77" s="22">
+      <c r="O78" s="22">
         <v>1527176</v>
       </c>
     </row>
-    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="16">
+    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="16">
         <v>2018</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C79" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D78" s="17">
+      <c r="D79" s="17">
         <f t="shared" si="4"/>
         <v>5844697</v>
       </c>
-      <c r="E78" s="18">
+      <c r="E79" s="18">
         <v>25513</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F79" s="18">
         <v>64369</v>
       </c>
-      <c r="G78" s="18">
+      <c r="G79" s="18">
         <v>1071044</v>
       </c>
-      <c r="H78" s="18">
+      <c r="H79" s="18">
         <v>804521</v>
       </c>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18">
+      <c r="I79" s="18"/>
+      <c r="J79" s="18">
         <v>1232404</v>
       </c>
-      <c r="K78" s="18">
+      <c r="K79" s="18">
         <v>78800</v>
       </c>
-      <c r="L78" s="18"/>
-      <c r="M78" s="18">
+      <c r="L79" s="18"/>
+      <c r="M79" s="18">
         <v>50423</v>
       </c>
-      <c r="N78" s="18">
+      <c r="N79" s="18">
         <v>905477</v>
       </c>
-      <c r="O78" s="18">
+      <c r="O79" s="18">
         <v>1612146</v>
       </c>
     </row>
-    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="12">
+    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="12">
         <v>2018</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C80" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D80" s="13">
         <f t="shared" si="4"/>
         <v>5548187</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E80" s="14">
         <v>24593</v>
       </c>
-      <c r="F79" s="14">
+      <c r="F80" s="14">
         <v>68160</v>
       </c>
-      <c r="G79" s="14">
+      <c r="G80" s="14">
         <v>1004506</v>
       </c>
-      <c r="H79" s="14">
+      <c r="H80" s="14">
         <v>761656</v>
       </c>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14">
+      <c r="I80" s="14"/>
+      <c r="J80" s="14">
         <v>1214579</v>
       </c>
-      <c r="K79" s="14">
+      <c r="K80" s="14">
         <v>70291</v>
       </c>
-      <c r="L79" s="14"/>
-      <c r="M79" s="14">
+      <c r="L80" s="14"/>
+      <c r="M80" s="14">
         <v>52654</v>
       </c>
-      <c r="N79" s="14">
+      <c r="N80" s="14">
         <v>844104</v>
       </c>
-      <c r="O79" s="14">
+      <c r="O80" s="14">
         <v>1507644</v>
       </c>
     </row>
-    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="16">
+    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="16">
         <v>2018</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C81" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D80" s="17">
+      <c r="D81" s="17">
         <f t="shared" si="4"/>
         <v>5436017</v>
       </c>
-      <c r="E80" s="18">
+      <c r="E81" s="18">
         <v>23163</v>
       </c>
-      <c r="F80" s="18">
+      <c r="F81" s="18">
         <v>67739</v>
       </c>
-      <c r="G80" s="18">
+      <c r="G81" s="18">
         <v>1006759</v>
       </c>
-      <c r="H80" s="18">
+      <c r="H81" s="18">
         <v>779871</v>
       </c>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18">
+      <c r="I81" s="18"/>
+      <c r="J81" s="18">
         <v>1170513</v>
       </c>
-      <c r="K80" s="18">
+      <c r="K81" s="18">
         <v>65741</v>
       </c>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18">
+      <c r="L81" s="18"/>
+      <c r="M81" s="18">
         <v>52203</v>
       </c>
-      <c r="N80" s="18">
+      <c r="N81" s="18">
         <v>808467</v>
       </c>
-      <c r="O80" s="18">
+      <c r="O81" s="18">
         <v>1461561</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="12">
+    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="12">
         <v>2018</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C82" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D82" s="13">
         <f t="shared" si="4"/>
         <v>5031295</v>
       </c>
-      <c r="E81" s="14">
+      <c r="E82" s="14">
         <v>21054</v>
       </c>
-      <c r="F81" s="14">
+      <c r="F82" s="14">
         <v>57581</v>
       </c>
-      <c r="G81" s="14">
+      <c r="G82" s="14">
         <v>953415</v>
       </c>
-      <c r="H81" s="14">
+      <c r="H82" s="14">
         <v>749609</v>
       </c>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14">
+      <c r="I82" s="14"/>
+      <c r="J82" s="14">
         <v>1042581</v>
       </c>
-      <c r="K81" s="14">
+      <c r="K82" s="14">
         <v>61896</v>
       </c>
-      <c r="L81" s="14"/>
-      <c r="M81" s="14">
+      <c r="L82" s="14"/>
+      <c r="M82" s="14">
         <v>46860</v>
       </c>
-      <c r="N81" s="14">
+      <c r="N82" s="14">
         <v>767606</v>
       </c>
-      <c r="O81" s="14">
+      <c r="O82" s="14">
         <v>1330693</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="16">
+    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="16">
         <v>2018</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C83" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D82" s="17">
+      <c r="D83" s="17">
         <f t="shared" si="4"/>
         <v>5768371</v>
       </c>
-      <c r="E82" s="18">
+      <c r="E83" s="18">
         <v>27838</v>
       </c>
-      <c r="F82" s="18">
+      <c r="F83" s="18">
         <v>63083</v>
       </c>
-      <c r="G82" s="18">
+      <c r="G83" s="18">
         <v>1074998</v>
       </c>
-      <c r="H82" s="18">
+      <c r="H83" s="18">
         <v>852980</v>
       </c>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18">
+      <c r="I83" s="18"/>
+      <c r="J83" s="18">
         <v>1233129</v>
       </c>
-      <c r="K82" s="18">
+      <c r="K83" s="18">
         <v>104695</v>
       </c>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18">
+      <c r="L83" s="18"/>
+      <c r="M83" s="18">
         <v>54110</v>
       </c>
-      <c r="N82" s="18">
+      <c r="N83" s="18">
         <v>921277</v>
       </c>
-      <c r="O82" s="18">
+      <c r="O83" s="18">
         <v>1436261</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="12">
+    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="12">
         <v>2018</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D84" s="13">
         <f t="shared" si="4"/>
         <v>6140662</v>
       </c>
-      <c r="E83" s="14">
+      <c r="E84" s="14">
         <v>32903</v>
       </c>
-      <c r="F83" s="14">
+      <c r="F84" s="14">
         <v>56167</v>
       </c>
-      <c r="G83" s="14">
+      <c r="G84" s="14">
         <v>1179423</v>
       </c>
-      <c r="H83" s="14">
+      <c r="H84" s="14">
         <v>895787</v>
       </c>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14">
+      <c r="I84" s="14"/>
+      <c r="J84" s="14">
         <v>1280292</v>
       </c>
-      <c r="K83" s="14">
+      <c r="K84" s="14">
         <v>110733</v>
       </c>
-      <c r="L83" s="14"/>
-      <c r="M83" s="14">
+      <c r="L84" s="14"/>
+      <c r="M84" s="14">
         <v>58466</v>
       </c>
-      <c r="N83" s="14">
+      <c r="N84" s="14">
         <v>944861</v>
       </c>
-      <c r="O83" s="14">
+      <c r="O84" s="14">
         <v>1582030</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="16">
+    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="16">
         <v>2018</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C85" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="17">
+      <c r="D85" s="17">
         <f t="shared" si="4"/>
         <v>5347432</v>
       </c>
-      <c r="E84" s="18">
+      <c r="E85" s="18">
         <v>26323</v>
       </c>
-      <c r="F84" s="18">
+      <c r="F85" s="18">
         <v>46065</v>
       </c>
-      <c r="G84" s="18">
+      <c r="G85" s="18">
         <v>1036698</v>
       </c>
-      <c r="H84" s="18">
+      <c r="H85" s="18">
         <v>815293</v>
       </c>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18">
+      <c r="I85" s="18"/>
+      <c r="J85" s="18">
         <v>1141203</v>
       </c>
-      <c r="K84" s="18">
+      <c r="K85" s="18">
         <v>75066</v>
       </c>
-      <c r="L84" s="18"/>
-      <c r="M84" s="18">
+      <c r="L85" s="18"/>
+      <c r="M85" s="18">
         <v>48032</v>
       </c>
-      <c r="N84" s="18">
+      <c r="N85" s="18">
         <v>768437</v>
       </c>
-      <c r="O84" s="18">
+      <c r="O85" s="18">
         <v>1390315</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="12">
+    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="12">
         <v>2018</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C86" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D86" s="13">
         <f t="shared" si="4"/>
         <v>5369812</v>
       </c>
-      <c r="E85" s="14">
+      <c r="E86" s="14">
         <v>26212</v>
       </c>
-      <c r="F85" s="14">
+      <c r="F86" s="14">
         <v>54265</v>
       </c>
-      <c r="G85" s="14">
+      <c r="G86" s="14">
         <v>1033321</v>
       </c>
-      <c r="H85" s="14">
+      <c r="H86" s="14">
         <v>780048</v>
       </c>
-      <c r="I85" s="14"/>
-      <c r="J85" s="14">
+      <c r="I86" s="14"/>
+      <c r="J86" s="14">
         <v>1201298</v>
       </c>
-      <c r="K85" s="14">
+      <c r="K86" s="14">
         <v>84998</v>
       </c>
-      <c r="L85" s="14"/>
-      <c r="M85" s="14">
+      <c r="L86" s="14"/>
+      <c r="M86" s="14">
         <v>49481</v>
       </c>
-      <c r="N85" s="14">
+      <c r="N86" s="14">
         <v>759447</v>
       </c>
-      <c r="O85" s="14">
+      <c r="O86" s="14">
         <v>1380742</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="16">
+    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="16">
         <v>2018</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C87" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="17">
+      <c r="D87" s="17">
         <f t="shared" si="4"/>
         <v>5275071</v>
       </c>
-      <c r="E86" s="18">
+      <c r="E87" s="18">
         <v>25839</v>
       </c>
-      <c r="F86" s="18">
+      <c r="F87" s="18">
         <v>59133</v>
       </c>
-      <c r="G86" s="18">
+      <c r="G87" s="18">
         <v>996415</v>
       </c>
-      <c r="H86" s="18">
+      <c r="H87" s="18">
         <v>794436</v>
       </c>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18">
+      <c r="I87" s="18"/>
+      <c r="J87" s="18">
         <v>1176450</v>
       </c>
-      <c r="K86" s="18">
+      <c r="K87" s="18">
         <v>73805</v>
       </c>
-      <c r="L86" s="18"/>
-      <c r="M86" s="18">
+      <c r="L87" s="18"/>
+      <c r="M87" s="18">
         <v>49795</v>
       </c>
-      <c r="N86" s="18">
+      <c r="N87" s="18">
         <v>730221</v>
       </c>
-      <c r="O86" s="18">
+      <c r="O87" s="18">
         <v>1368977</v>
       </c>
     </row>
-    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="12">
+    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="12">
         <v>2018</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C88" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D88" s="13">
         <f t="shared" si="4"/>
         <v>5277344</v>
       </c>
-      <c r="E87" s="14">
+      <c r="E88" s="14">
         <v>29029</v>
       </c>
-      <c r="F87" s="14">
+      <c r="F88" s="14">
         <v>65814</v>
       </c>
-      <c r="G87" s="14">
+      <c r="G88" s="14">
         <v>993548</v>
       </c>
-      <c r="H87" s="14">
+      <c r="H88" s="14">
         <v>797581</v>
       </c>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14">
+      <c r="I88" s="14"/>
+      <c r="J88" s="14">
         <v>1174935</v>
       </c>
-      <c r="K87" s="14">
+      <c r="K88" s="14">
         <v>50611</v>
       </c>
-      <c r="L87" s="14"/>
-      <c r="M87" s="14">
+      <c r="L88" s="14"/>
+      <c r="M88" s="14">
         <v>50043</v>
       </c>
-      <c r="N87" s="14">
+      <c r="N88" s="14">
         <v>723374</v>
       </c>
-      <c r="O87" s="14">
+      <c r="O88" s="14">
         <v>1392409</v>
       </c>
     </row>
-    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="16">
+    <row r="89" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="16">
         <v>2018</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C89" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D88" s="17">
+      <c r="D89" s="17">
         <f t="shared" si="4"/>
         <v>4448093</v>
       </c>
-      <c r="E88" s="18">
+      <c r="E89" s="18">
         <v>22962</v>
       </c>
-      <c r="F88" s="18">
+      <c r="F89" s="18">
         <v>59046</v>
       </c>
-      <c r="G88" s="18">
+      <c r="G89" s="18">
         <v>878966</v>
       </c>
-      <c r="H88" s="18">
+      <c r="H89" s="18">
         <v>699650</v>
       </c>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18">
+      <c r="I89" s="18"/>
+      <c r="J89" s="18">
         <v>934030</v>
       </c>
-      <c r="K88" s="18">
+      <c r="K89" s="18">
         <v>39995</v>
       </c>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18">
+      <c r="L89" s="18"/>
+      <c r="M89" s="18">
         <v>44679</v>
       </c>
-      <c r="N88" s="18">
+      <c r="N89" s="18">
         <v>569891</v>
       </c>
-      <c r="O88" s="18">
+      <c r="O89" s="18">
         <v>1198874</v>
       </c>
     </row>
-    <row r="89" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="12">
+    <row r="90" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="12">
         <v>2018</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C90" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D90" s="13">
         <f t="shared" si="4"/>
         <v>5082659</v>
       </c>
-      <c r="E89" s="14">
+      <c r="E90" s="14">
         <v>24734</v>
       </c>
-      <c r="F89" s="14">
+      <c r="F90" s="14">
         <v>60981</v>
       </c>
-      <c r="G89" s="14">
+      <c r="G90" s="14">
         <v>1021784</v>
       </c>
-      <c r="H89" s="14">
+      <c r="H90" s="14">
         <v>777479</v>
       </c>
-      <c r="I89" s="14"/>
-      <c r="J89" s="14">
+      <c r="I90" s="14"/>
+      <c r="J90" s="14">
         <v>1078923</v>
       </c>
-      <c r="K89" s="14">
+      <c r="K90" s="14">
         <v>55290</v>
       </c>
-      <c r="L89" s="14"/>
-      <c r="M89" s="14">
+      <c r="L90" s="14"/>
+      <c r="M90" s="14">
         <v>47772</v>
       </c>
-      <c r="N89" s="14">
+      <c r="N90" s="14">
         <v>664529</v>
       </c>
-      <c r="O89" s="14">
+      <c r="O90" s="14">
         <v>1351167</v>
       </c>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B90" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E90" s="3"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B91" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B92" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C91" s="28"/>
-      <c r="O91" s="29"/>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B92" s="28" t="s">
-        <v>30</v>
-      </c>
       <c r="C92" s="28"/>
+      <c r="O92" s="29"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B93" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C93" s="28"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B94" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" s="28"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B95" s="28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B95" s="3" t="s">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B96" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D98" s="27"/>
-    </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D102" s="27"/>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D99" s="27"/>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D103" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Pasajeros_por_aerolinea_nac.xlsx
+++ b/Pasajeros_por_aerolinea_nac.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559595A6-C0E5-45C6-B511-00E07C11FE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B622F1-E0CA-4B02-868D-F3791096BD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_31" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -137,7 +137,7 @@
     <t xml:space="preserve"> La línea aérea Aerus inició operaciones el 27 de abril de 2023.</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Febrero 2025.</t>
   </si>
 </sst>
 </file>
@@ -147,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -319,36 +319,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -425,14 +401,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -646,7 +614,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -729,8 +697,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O90" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
-  <autoFilter ref="B5:O90" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O91" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
+  <autoFilter ref="B5:O91" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -982,13 +950,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O103"/>
+  <dimension ref="B2:O104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.875" style="3" customWidth="1"/>
@@ -1008,19 +976,19 @@
     <col min="16" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" ht="18">
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:15">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:15">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
@@ -1038,7 +1006,7 @@
       <c r="N4" s="31"/>
       <c r="O4" s="31"/>
     </row>
-    <row r="5" spans="2:15" ht="78" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:15" ht="66">
       <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
@@ -1082,3447 +1050,3486 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6" s="32">
+    <row r="6" spans="2:15">
+      <c r="B6" s="15">
         <v>2025</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="17">
+        <f>SUM(E6:O6)</f>
+        <v>5718454</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18">
+        <v>1396853</v>
+      </c>
+      <c r="H6" s="18">
+        <v>347893</v>
+      </c>
+      <c r="I6" s="18">
+        <v>2787</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18">
+        <v>7942</v>
+      </c>
+      <c r="L6" s="18">
+        <v>19987</v>
+      </c>
+      <c r="M6" s="18">
+        <v>13607</v>
+      </c>
+      <c r="N6" s="18">
+        <v>1922778</v>
+      </c>
+      <c r="O6" s="18">
+        <v>2006607</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="19">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="34">
-        <f>SUM(E6:O6)</f>
+      <c r="D7" s="21">
+        <f>SUM(E7:O7)</f>
         <v>6705805</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22">
         <v>1669900</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H7" s="22">
         <v>395411</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I7" s="22">
         <v>3219</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35">
+      <c r="J7" s="22"/>
+      <c r="K7" s="22">
         <v>11376</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L7" s="22">
         <v>33325</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M7" s="22">
         <v>15081</v>
       </c>
-      <c r="N6" s="35">
+      <c r="N7" s="22">
         <v>2220761</v>
       </c>
-      <c r="O6" s="35">
+      <c r="O7" s="22">
         <v>2356732</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7" s="15">
+    <row r="8" spans="2:15">
+      <c r="B8" s="15">
         <v>2024</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="17">
-        <f>SUM(E7:O7)</f>
+      <c r="D8" s="17">
+        <f>SUM(E8:O8)</f>
         <v>7193395</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18">
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18">
         <v>1749211</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H8" s="18">
         <v>393443</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I8" s="18">
         <v>3591</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18">
+      <c r="J8" s="18"/>
+      <c r="K8" s="18">
         <v>19131</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L8" s="18">
         <v>42411</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M8" s="18">
         <v>19789</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N8" s="18">
         <v>2449237</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O8" s="18">
         <v>2516582</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" s="11">
+    <row r="9" spans="2:15">
+      <c r="B9" s="11">
         <v>2024</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="13">
-        <f>SUM(E8:O8)</f>
+      <c r="D9" s="13">
+        <f>SUM(E9:O9)</f>
         <v>6698440</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14">
         <v>1630210</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H9" s="14">
         <v>378802</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I9" s="14">
         <v>3872</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14">
+      <c r="J9" s="14"/>
+      <c r="K9" s="14">
         <v>18521</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L9" s="14">
         <v>23922</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M9" s="14">
         <v>14425</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N9" s="14">
         <v>2321101</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O9" s="14">
         <v>2307587</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" s="15">
+    <row r="10" spans="2:15">
+      <c r="B10" s="15">
         <v>2024</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="17">
-        <f t="shared" ref="D9" si="0">SUM(E9:O9)</f>
+      <c r="D10" s="17">
+        <f t="shared" ref="D10" si="0">SUM(E10:O10)</f>
         <v>6571845</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18">
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18">
         <v>1659284</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H10" s="18">
         <v>357763</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I10" s="18">
         <v>4125</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18">
+      <c r="J10" s="18"/>
+      <c r="K10" s="18">
         <v>18874</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L10" s="18">
         <v>22660</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M10" s="18">
         <v>9268</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N10" s="18">
         <v>2210987</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O10" s="18">
         <v>2288884</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="11">
+    <row r="11" spans="2:15" ht="18.75" customHeight="1">
+      <c r="B11" s="11">
         <v>2024</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="13">
-        <f>SUM(E10:O10)</f>
+      <c r="D11" s="13">
+        <f>SUM(E11:O11)</f>
         <v>6241021</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14">
         <v>1602332</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H11" s="14">
         <v>357115</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I11" s="14">
         <v>3750</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14">
+      <c r="J11" s="14"/>
+      <c r="K11" s="14">
         <v>16595</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L11" s="14">
         <v>21490</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M11" s="14">
         <v>8152</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N11" s="14">
         <v>2135071</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O11" s="14">
         <v>2096516</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="15">
+    <row r="12" spans="2:15" ht="18.75" customHeight="1">
+      <c r="B12" s="15">
         <v>2024</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="17">
-        <f>SUM(E11:O11)</f>
+      <c r="D12" s="17">
+        <f>SUM(E12:O12)</f>
         <v>7122257</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18">
         <v>1846259</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H12" s="18">
         <v>423300</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I12" s="18">
         <v>3350</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18">
+      <c r="J12" s="18"/>
+      <c r="K12" s="18">
         <v>23287</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L12" s="18">
         <v>32823</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M12" s="18">
         <v>13091</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N12" s="18">
         <v>2380847</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O12" s="18">
         <v>2399300</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="11">
+    <row r="13" spans="2:15" ht="18.75" customHeight="1">
+      <c r="B13" s="11">
         <v>2024</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="13">
-        <f t="shared" ref="D12:D14" si="1">SUM(E12:O12)</f>
+      <c r="D13" s="13">
+        <f t="shared" ref="D13:D15" si="1">SUM(E13:O13)</f>
         <v>7365600</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E13" s="14">
         <v>972</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14">
         <v>1936260</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H13" s="14">
         <v>455999</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I13" s="14">
         <v>2952</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14">
+      <c r="J13" s="14"/>
+      <c r="K13" s="14">
         <v>25726</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L13" s="14">
         <v>35662</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M13" s="14">
         <v>11529</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N13" s="14">
         <v>2421165</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O13" s="14">
         <v>2475335</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="15">
+    <row r="14" spans="2:15" ht="18.75" customHeight="1">
+      <c r="B14" s="15">
         <v>2024</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D14" s="17">
         <f t="shared" si="1"/>
         <v>6545709</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E14" s="18">
         <v>744</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18">
+      <c r="F14" s="18"/>
+      <c r="G14" s="18">
         <v>1681153</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H14" s="18">
         <v>420652</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I14" s="18">
         <v>2495</v>
       </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18">
+      <c r="J14" s="18"/>
+      <c r="K14" s="18">
         <v>23110</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L14" s="18">
         <v>21518</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M14" s="18">
         <v>9672</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N14" s="18">
         <v>2174929</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O14" s="18">
         <v>2211436</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="11">
+    <row r="15" spans="2:15">
+      <c r="B15" s="11">
         <v>2024</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D15" s="13">
         <f t="shared" si="1"/>
         <v>6588910</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E15" s="14">
         <v>820</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14">
         <v>1727003</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H15" s="14">
         <v>431546</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I15" s="14">
         <v>2633</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14">
+      <c r="J15" s="14"/>
+      <c r="K15" s="14">
         <v>13929</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L15" s="14">
         <v>22186</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M15" s="14">
         <v>10844</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N15" s="14">
         <v>2176419</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O15" s="14">
         <v>2203530</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="15">
+    <row r="16" spans="2:15">
+      <c r="B16" s="15">
         <v>2024</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="17">
-        <f t="shared" ref="D15:D45" si="2">SUM(E15:O15)</f>
+      <c r="D16" s="17">
+        <f t="shared" ref="D16:D46" si="2">SUM(E16:O16)</f>
         <v>6255613</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E16" s="18">
         <v>1018</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18">
+      <c r="F16" s="18"/>
+      <c r="G16" s="18">
         <v>1647314</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H16" s="18">
         <v>437362</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I16" s="18">
         <v>2451</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18">
+      <c r="J16" s="18"/>
+      <c r="K16" s="18">
         <v>17123</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L16" s="18">
         <v>21899</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M16" s="18">
         <v>13242</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N16" s="18">
         <v>2025760</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O16" s="18">
         <v>2089444</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="11">
+    <row r="17" spans="2:15">
+      <c r="B17" s="11">
         <v>2024</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D17" s="13">
         <f t="shared" si="2"/>
         <v>6264883</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E17" s="14">
         <v>985</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14">
+      <c r="F17" s="14"/>
+      <c r="G17" s="14">
         <v>1663451</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H17" s="14">
         <v>414407</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I17" s="14">
         <v>2426</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14">
+      <c r="J17" s="14"/>
+      <c r="K17" s="14">
         <v>16310</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L17" s="14">
         <v>24140</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M17" s="14">
         <v>11320</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N17" s="14">
         <v>2037641</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O17" s="14">
         <v>2094203</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B17" s="15">
+    <row r="18" spans="2:15">
+      <c r="B18" s="15">
         <v>2024</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D18" s="17">
         <f t="shared" si="2"/>
         <v>5606595</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E18" s="18">
         <v>703</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18">
+      <c r="F18" s="18"/>
+      <c r="G18" s="18">
         <v>1479121</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H18" s="18">
         <v>395860</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I18" s="18">
         <v>2323</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18">
+      <c r="J18" s="18"/>
+      <c r="K18" s="18">
         <v>11161</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L18" s="18">
         <v>17287</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M18" s="18">
         <v>11349</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N18" s="18">
         <v>1772299</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O18" s="18">
         <v>1916492</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B18" s="19">
+    <row r="19" spans="2:15">
+      <c r="B19" s="19">
         <v>2024</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D19" s="21">
         <f t="shared" si="2"/>
         <v>6274620</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E19" s="22">
         <v>1102</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22">
+      <c r="F19" s="22"/>
+      <c r="G19" s="22">
         <v>1481216</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H19" s="22">
         <v>490118</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I19" s="22">
         <v>2332</v>
       </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22">
+      <c r="J19" s="22"/>
+      <c r="K19" s="22">
         <v>14046</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L19" s="22">
         <v>12504</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M19" s="22">
         <v>12424</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N19" s="22">
         <v>2028846</v>
       </c>
-      <c r="O18" s="22">
+      <c r="O19" s="22">
         <v>2232032</v>
       </c>
     </row>
-    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="23">
+    <row r="20" spans="2:15" hidden="1">
+      <c r="B20" s="23">
         <v>2023</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C20" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D20" s="25">
         <f t="shared" si="2"/>
         <v>6943699</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E20" s="26">
         <v>1263</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26">
+      <c r="F20" s="26"/>
+      <c r="G20" s="26">
         <v>1661066</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H20" s="26">
         <v>520344</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I20" s="26">
         <v>2164</v>
       </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26">
+      <c r="J20" s="26"/>
+      <c r="K20" s="26">
         <v>23295</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L20" s="26">
         <v>1620</v>
       </c>
-      <c r="M19" s="26">
+      <c r="M20" s="26">
         <v>19717</v>
       </c>
-      <c r="N19" s="26">
+      <c r="N20" s="26">
         <v>2180392</v>
       </c>
-      <c r="O19" s="26">
+      <c r="O20" s="26">
         <v>2533838</v>
       </c>
     </row>
-    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="11">
+    <row r="21" spans="2:15" hidden="1">
+      <c r="B21" s="11">
         <v>2023</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D21" s="13">
         <f t="shared" si="2"/>
         <v>6524452</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E21" s="14">
         <v>817</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14">
+      <c r="F21" s="14"/>
+      <c r="G21" s="14">
         <v>1518614</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H21" s="14">
         <v>487651</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I21" s="14">
         <v>1815</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14">
+      <c r="J21" s="14"/>
+      <c r="K21" s="14">
         <v>23109</v>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14">
+      <c r="L21" s="14"/>
+      <c r="M21" s="14">
         <v>18006</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N21" s="14">
         <v>2055956</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O21" s="14">
         <v>2418484</v>
       </c>
     </row>
-    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="15">
+    <row r="22" spans="2:15" hidden="1">
+      <c r="B22" s="15">
         <v>2023</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C22" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D22" s="17">
         <f t="shared" si="2"/>
         <v>6666523</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E22" s="18">
         <v>745</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18">
+      <c r="F22" s="18"/>
+      <c r="G22" s="18">
         <v>1534357</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H22" s="18">
         <v>502142</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I22" s="18">
         <v>1593</v>
       </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18">
+      <c r="J22" s="18"/>
+      <c r="K22" s="18">
         <v>27175</v>
       </c>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18">
+      <c r="L22" s="18"/>
+      <c r="M22" s="18">
         <v>15799</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N22" s="18">
         <v>2142423</v>
       </c>
-      <c r="O21" s="18">
+      <c r="O22" s="18">
         <v>2442289</v>
       </c>
     </row>
-    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="11">
+    <row r="23" spans="2:15" hidden="1">
+      <c r="B23" s="11">
         <v>2023</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D23" s="13">
         <f t="shared" si="2"/>
         <v>6234323</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E23" s="14">
         <v>136</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14">
+      <c r="F23" s="14"/>
+      <c r="G23" s="14">
         <v>1449933</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H23" s="14">
         <v>489367</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I23" s="14">
         <v>1718</v>
       </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14">
+      <c r="J23" s="14"/>
+      <c r="K23" s="14">
         <v>20794</v>
       </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14">
+      <c r="L23" s="14"/>
+      <c r="M23" s="14">
         <v>13440</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N23" s="14">
         <v>1975887</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O23" s="14">
         <v>2283048</v>
       </c>
     </row>
-    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="15">
+    <row r="24" spans="2:15" hidden="1">
+      <c r="B24" s="15">
         <v>2023</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C24" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D24" s="17">
         <f t="shared" si="2"/>
         <v>7366586</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E24" s="18">
         <v>711</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18">
+      <c r="F24" s="18"/>
+      <c r="G24" s="18">
         <v>1790842</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H24" s="18">
         <v>509073</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I24" s="18">
         <v>1858</v>
       </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18">
+      <c r="J24" s="18"/>
+      <c r="K24" s="18">
         <v>33617</v>
       </c>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18">
+      <c r="L24" s="18"/>
+      <c r="M24" s="18">
         <v>17102</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N24" s="18">
         <v>2222143</v>
       </c>
-      <c r="O23" s="18">
+      <c r="O24" s="18">
         <v>2791240</v>
       </c>
     </row>
-    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="11">
+    <row r="25" spans="2:15" hidden="1">
+      <c r="B25" s="11">
         <v>2023</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D25" s="13">
         <f t="shared" si="2"/>
         <v>7470779</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E25" s="14">
         <v>7815</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14">
+      <c r="F25" s="14"/>
+      <c r="G25" s="14">
         <v>1877785</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H25" s="14">
         <v>489520</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I25" s="14">
         <v>1593</v>
       </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14">
+      <c r="J25" s="14"/>
+      <c r="K25" s="14">
         <v>38495</v>
       </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14">
+      <c r="L25" s="14"/>
+      <c r="M25" s="14">
         <v>16965</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N25" s="14">
         <v>2256958</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O25" s="14">
         <v>2781648</v>
       </c>
     </row>
-    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="15">
+    <row r="26" spans="2:15" hidden="1">
+      <c r="B26" s="15">
         <v>2023</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D26" s="17">
         <f t="shared" si="2"/>
         <v>6481356</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E26" s="18">
         <v>8579</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18">
+      <c r="F26" s="18"/>
+      <c r="G26" s="18">
         <v>1623869</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H26" s="18">
         <v>444461</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I26" s="18">
         <v>930</v>
       </c>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18">
+      <c r="J26" s="18"/>
+      <c r="K26" s="18">
         <v>26027</v>
       </c>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18">
+      <c r="L26" s="18"/>
+      <c r="M26" s="18">
         <v>16972</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N26" s="18">
         <v>1939577</v>
       </c>
-      <c r="O25" s="18">
+      <c r="O26" s="18">
         <v>2420941</v>
       </c>
     </row>
-    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="11">
+    <row r="27" spans="2:15" hidden="1">
+      <c r="B27" s="11">
         <v>2023</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D27" s="13">
         <f t="shared" si="2"/>
         <v>6466836</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E27" s="14">
         <v>10045</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14">
+      <c r="F27" s="14"/>
+      <c r="G27" s="14">
         <v>1475419</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H27" s="14">
         <v>493646</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I27" s="14">
         <v>866</v>
       </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14">
+      <c r="J27" s="14"/>
+      <c r="K27" s="14">
         <v>22311</v>
       </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14">
+      <c r="L27" s="14"/>
+      <c r="M27" s="14">
         <v>22530</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N27" s="14">
         <v>1903714</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O27" s="14">
         <v>2538305</v>
       </c>
     </row>
-    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="15">
+    <row r="28" spans="2:15" hidden="1">
+      <c r="B28" s="15">
         <v>2023</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C28" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D28" s="17">
         <f t="shared" si="2"/>
         <v>6505979</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E28" s="18">
         <v>7610</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18">
+      <c r="F28" s="18"/>
+      <c r="G28" s="18">
         <v>1447508</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H28" s="18">
         <v>495864</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I28" s="18">
         <v>73</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18">
+      <c r="J28" s="18"/>
+      <c r="K28" s="18">
         <v>22224</v>
       </c>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18">
+      <c r="L28" s="18"/>
+      <c r="M28" s="18">
         <v>23384</v>
       </c>
-      <c r="N27" s="18">
+      <c r="N28" s="18">
         <v>1903503</v>
       </c>
-      <c r="O27" s="18">
+      <c r="O28" s="18">
         <v>2605813</v>
       </c>
     </row>
-    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="11">
+    <row r="29" spans="2:15" hidden="1">
+      <c r="B29" s="11">
         <v>2023</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D29" s="13">
         <f t="shared" si="2"/>
         <v>6389909</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E29" s="14">
         <v>4538</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14">
+      <c r="F29" s="14"/>
+      <c r="G29" s="14">
         <v>1502404</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H29" s="14">
         <v>516526</v>
       </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14">
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14">
         <v>15589</v>
       </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14">
+      <c r="L29" s="14"/>
+      <c r="M29" s="14">
         <v>23229</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N29" s="14">
         <v>1776763</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O29" s="14">
         <v>2550860</v>
       </c>
     </row>
-    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="15">
+    <row r="30" spans="2:15" hidden="1">
+      <c r="B30" s="15">
         <v>2023</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C30" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D30" s="17">
         <f t="shared" si="2"/>
         <v>5478771</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E30" s="18">
         <v>9031</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F30" s="18">
         <v>9443</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G30" s="18">
         <v>1277871</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H30" s="18">
         <v>459155</v>
       </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18">
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18">
         <v>11992</v>
       </c>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18">
+      <c r="L30" s="18"/>
+      <c r="M30" s="18">
         <v>19704</v>
       </c>
-      <c r="N29" s="18">
+      <c r="N30" s="18">
         <v>1431046</v>
       </c>
-      <c r="O29" s="18">
+      <c r="O30" s="18">
         <v>2260529</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="19">
+    <row r="31" spans="2:15" hidden="1">
+      <c r="B31" s="19">
         <v>2023</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C31" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D31" s="21">
         <f t="shared" si="2"/>
         <v>6248337</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E31" s="22">
         <v>9895</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F31" s="22">
         <v>23595</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G31" s="22">
         <v>1439058</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H31" s="22">
         <v>503079</v>
       </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22">
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22">
         <v>15438</v>
       </c>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22">
+      <c r="L31" s="22"/>
+      <c r="M31" s="22">
         <v>23680</v>
       </c>
-      <c r="N30" s="22">
+      <c r="N31" s="22">
         <v>1650780</v>
       </c>
-      <c r="O30" s="22">
+      <c r="O31" s="22">
         <v>2582812</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="23">
+    <row r="32" spans="2:15" hidden="1">
+      <c r="B32" s="23">
         <v>2022</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C32" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D32" s="25">
         <f t="shared" si="2"/>
         <v>6735243</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E32" s="26">
         <v>8855</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F32" s="26">
         <v>30082</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G32" s="26">
         <v>1541064</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H32" s="26">
         <v>545257</v>
       </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26">
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26">
         <v>31832</v>
       </c>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26">
+      <c r="L32" s="26"/>
+      <c r="M32" s="26">
         <v>32706</v>
       </c>
-      <c r="N31" s="26">
+      <c r="N32" s="26">
         <v>1885616</v>
       </c>
-      <c r="O31" s="26">
+      <c r="O32" s="26">
         <v>2659831</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="11">
+    <row r="33" spans="2:15" hidden="1">
+      <c r="B33" s="11">
         <v>2022</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D33" s="13">
         <f t="shared" si="2"/>
         <v>6388091</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E33" s="14">
         <v>10809</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F33" s="14">
         <v>29180</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G33" s="14">
         <v>1477832</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H33" s="14">
         <v>542019</v>
       </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14">
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14">
         <v>26190</v>
       </c>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14">
+      <c r="L33" s="14"/>
+      <c r="M33" s="14">
         <v>25324</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N33" s="14">
         <v>1806360</v>
       </c>
-      <c r="O32" s="14">
+      <c r="O33" s="14">
         <v>2470377</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="15">
+    <row r="34" spans="2:15" hidden="1">
+      <c r="B34" s="15">
         <v>2022</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C34" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D34" s="17">
         <f t="shared" si="2"/>
         <v>6296390</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E34" s="18">
         <v>11560</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F34" s="18">
         <v>29156</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G34" s="18">
         <v>1436769</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H34" s="18">
         <v>525145</v>
       </c>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18">
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18">
         <v>25003</v>
       </c>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18">
+      <c r="L34" s="18"/>
+      <c r="M34" s="18">
         <v>26165</v>
       </c>
-      <c r="N33" s="18">
+      <c r="N34" s="18">
         <v>1730130</v>
       </c>
-      <c r="O33" s="18">
+      <c r="O34" s="18">
         <v>2512462</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="11">
+    <row r="35" spans="2:15" hidden="1">
+      <c r="B35" s="11">
         <v>2022</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D35" s="13">
         <f t="shared" si="2"/>
         <v>5717570</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E35" s="14">
         <v>8563</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F35" s="14">
         <v>27782</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G35" s="14">
         <v>1324735</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H35" s="14">
         <v>461328</v>
       </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14">
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14">
         <v>24539</v>
       </c>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14">
+      <c r="L35" s="14"/>
+      <c r="M35" s="14">
         <v>23409</v>
       </c>
-      <c r="N34" s="14">
+      <c r="N35" s="14">
         <v>1533686</v>
       </c>
-      <c r="O34" s="14">
+      <c r="O35" s="14">
         <v>2313528</v>
       </c>
     </row>
-    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="15">
+    <row r="36" spans="2:15" hidden="1">
+      <c r="B36" s="15">
         <v>2022</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D36" s="17">
         <f t="shared" si="2"/>
         <v>6395624</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E36" s="18">
         <v>12206</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F36" s="18">
         <v>36300</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G36" s="18">
         <v>1459848</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H36" s="18">
         <v>550210</v>
       </c>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18">
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18">
         <v>41574</v>
       </c>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18">
+      <c r="L36" s="18"/>
+      <c r="M36" s="18">
         <v>28457</v>
       </c>
-      <c r="N35" s="18">
+      <c r="N36" s="18">
         <v>1770150</v>
       </c>
-      <c r="O35" s="18">
+      <c r="O36" s="18">
         <v>2496879</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="11">
+    <row r="37" spans="2:15" hidden="1">
+      <c r="B37" s="11">
         <v>2022</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D37" s="13">
         <f t="shared" si="2"/>
         <v>6606709</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E37" s="14">
         <v>12900</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F37" s="14">
         <v>37410</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G37" s="14">
         <v>1493132</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H37" s="14">
         <v>544988</v>
       </c>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14">
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14">
         <v>52783</v>
       </c>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14">
+      <c r="L37" s="14"/>
+      <c r="M37" s="14">
         <v>35829</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N37" s="14">
         <v>1832173</v>
       </c>
-      <c r="O36" s="14">
+      <c r="O37" s="14">
         <v>2597494</v>
       </c>
     </row>
-    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="15">
+    <row r="38" spans="2:15" hidden="1">
+      <c r="B38" s="15">
         <v>2022</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C38" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D38" s="17">
         <f t="shared" si="2"/>
         <v>5816384</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E38" s="18">
         <v>11528</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F38" s="18">
         <v>29894</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G38" s="18">
         <v>1448616</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H38" s="18">
         <v>482837</v>
       </c>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18">
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18">
         <v>38612</v>
       </c>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18">
+      <c r="L38" s="18"/>
+      <c r="M38" s="18">
         <v>31692</v>
       </c>
-      <c r="N37" s="18">
+      <c r="N38" s="18">
         <v>1629719</v>
       </c>
-      <c r="O37" s="18">
+      <c r="O38" s="18">
         <v>2143486</v>
       </c>
     </row>
-    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="11">
+    <row r="39" spans="2:15" hidden="1">
+      <c r="B39" s="11">
         <v>2022</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D39" s="13">
         <f t="shared" si="2"/>
         <v>5938227</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E39" s="14">
         <v>14051</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F39" s="14">
         <v>34530</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G39" s="14">
         <v>1394194</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H39" s="14">
         <v>469001</v>
       </c>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14">
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14">
         <v>36048</v>
       </c>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14">
+      <c r="L39" s="14"/>
+      <c r="M39" s="14">
         <v>32934</v>
       </c>
-      <c r="N38" s="14">
+      <c r="N39" s="14">
         <v>1638787</v>
       </c>
-      <c r="O38" s="14">
+      <c r="O39" s="14">
         <v>2318682</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="15">
+    <row r="40" spans="2:15" hidden="1">
+      <c r="B40" s="15">
         <v>2022</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C40" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D40" s="17">
         <f t="shared" si="2"/>
         <v>5762121</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E40" s="18">
         <v>12580</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F40" s="18">
         <v>39403</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G40" s="18">
         <v>1248745</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H40" s="18">
         <v>447104</v>
       </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18">
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18">
         <v>30427</v>
       </c>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18">
+      <c r="L40" s="18"/>
+      <c r="M40" s="18">
         <v>31976</v>
       </c>
-      <c r="N39" s="18">
+      <c r="N40" s="18">
         <v>1571982</v>
       </c>
-      <c r="O39" s="18">
+      <c r="O40" s="18">
         <v>2379904</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="11">
+    <row r="41" spans="2:15" hidden="1">
+      <c r="B41" s="11">
         <v>2022</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D41" s="13">
         <f t="shared" si="2"/>
         <v>5450271</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E41" s="14">
         <v>13206</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F41" s="14">
         <v>32413</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G41" s="14">
         <v>1137873</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H41" s="14">
         <v>485288</v>
       </c>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14">
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14">
         <v>20444</v>
       </c>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14">
+      <c r="L41" s="14"/>
+      <c r="M41" s="14">
         <v>30333</v>
       </c>
-      <c r="N40" s="14">
+      <c r="N41" s="14">
         <v>1443642</v>
       </c>
-      <c r="O40" s="14">
+      <c r="O41" s="14">
         <v>2287072</v>
       </c>
     </row>
-    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="15">
+    <row r="42" spans="2:15" hidden="1">
+      <c r="B42" s="15">
         <v>2022</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C42" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D42" s="17">
         <f t="shared" si="2"/>
         <v>4335053</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E42" s="18">
         <v>10775</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F42" s="18">
         <v>26979</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G42" s="18">
         <v>817221</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H42" s="18">
         <v>400280</v>
       </c>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18">
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18">
         <v>14632</v>
       </c>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18">
+      <c r="L42" s="18"/>
+      <c r="M42" s="18">
         <v>22836</v>
       </c>
-      <c r="N41" s="18">
+      <c r="N42" s="18">
         <v>1113977</v>
       </c>
-      <c r="O41" s="18">
+      <c r="O42" s="18">
         <v>1928353</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="19">
+    <row r="43" spans="2:15" hidden="1">
+      <c r="B43" s="19">
         <v>2022</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C43" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D43" s="21">
         <f t="shared" si="2"/>
         <v>4754587</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E43" s="22">
         <v>10351</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F43" s="22">
         <v>35019</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G43" s="22">
         <v>851918</v>
       </c>
-      <c r="H42" s="22">
+      <c r="H43" s="22">
         <v>400866</v>
       </c>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22">
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22">
         <v>19731</v>
       </c>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22">
+      <c r="L43" s="22"/>
+      <c r="M43" s="22">
         <v>22335</v>
       </c>
-      <c r="N42" s="22">
+      <c r="N43" s="22">
         <v>1322859</v>
       </c>
-      <c r="O42" s="22">
+      <c r="O43" s="22">
         <v>2091508</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="23">
+    <row r="44" spans="2:15" hidden="1">
+      <c r="B44" s="23">
         <v>2021</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C44" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="25">
+      <c r="D44" s="25">
         <f t="shared" si="2"/>
         <v>5788606</v>
       </c>
-      <c r="E43" s="26">
+      <c r="E44" s="26">
         <v>12597</v>
       </c>
-      <c r="F43" s="26">
+      <c r="F44" s="26">
         <v>48986</v>
       </c>
-      <c r="G43" s="26">
+      <c r="G44" s="26">
         <v>1194196</v>
       </c>
-      <c r="H43" s="26">
+      <c r="H44" s="26">
         <v>531737</v>
       </c>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26">
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26">
         <v>41564</v>
       </c>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26">
+      <c r="L44" s="26"/>
+      <c r="M44" s="26">
         <v>32426</v>
       </c>
-      <c r="N43" s="26">
+      <c r="N44" s="26">
         <v>1542449</v>
       </c>
-      <c r="O43" s="26">
+      <c r="O44" s="26">
         <v>2384651</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="11">
+    <row r="45" spans="2:15" hidden="1">
+      <c r="B45" s="11">
         <v>2021</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C45" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D45" s="13">
         <f t="shared" si="2"/>
         <v>5289729</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E45" s="14">
         <v>11837</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F45" s="14">
         <v>46757</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G45" s="14">
         <v>1056753</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H45" s="14">
         <v>485468</v>
       </c>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14">
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14">
         <v>32507</v>
       </c>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14">
+      <c r="L45" s="14"/>
+      <c r="M45" s="14">
         <v>29832</v>
       </c>
-      <c r="N44" s="14">
+      <c r="N45" s="14">
         <v>1406500</v>
       </c>
-      <c r="O44" s="14">
+      <c r="O45" s="14">
         <v>2220075</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="15">
+    <row r="46" spans="2:15" hidden="1">
+      <c r="B46" s="15">
         <v>2021</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C46" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D46" s="17">
         <f t="shared" si="2"/>
         <v>5118685</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E46" s="18">
         <v>14115</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F46" s="18">
         <v>45703</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G46" s="18">
         <v>1034177</v>
       </c>
-      <c r="H45" s="18">
+      <c r="H46" s="18">
         <v>510398</v>
       </c>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18">
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18">
         <v>28313</v>
       </c>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18">
+      <c r="L46" s="18"/>
+      <c r="M46" s="18">
         <v>31649</v>
       </c>
-      <c r="N45" s="18">
+      <c r="N46" s="18">
         <v>1355918</v>
       </c>
-      <c r="O45" s="18">
+      <c r="O46" s="18">
         <v>2098412</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="11">
+    <row r="47" spans="2:15" hidden="1">
+      <c r="B47" s="11">
         <v>2021</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="13">
-        <f t="shared" ref="D46:D77" si="3">SUM(E46:O46)</f>
+      <c r="D47" s="13">
+        <f t="shared" ref="D47:D78" si="3">SUM(E47:O47)</f>
         <v>4470649</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E47" s="14">
         <v>12872</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F47" s="14">
         <v>42716</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G47" s="14">
         <v>893242</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H47" s="14">
         <v>444101</v>
       </c>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14">
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14">
         <v>24490</v>
       </c>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14">
+      <c r="L47" s="14"/>
+      <c r="M47" s="14">
         <v>25901</v>
       </c>
-      <c r="N46" s="14">
+      <c r="N47" s="14">
         <v>1153271</v>
       </c>
-      <c r="O46" s="14">
+      <c r="O47" s="14">
         <v>1874056</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="15">
+    <row r="48" spans="2:15" hidden="1">
+      <c r="B48" s="15">
         <v>2021</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C48" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D48" s="17">
         <f t="shared" si="3"/>
         <v>5008604</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E48" s="18">
         <v>12792</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F48" s="18">
         <v>47119</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G48" s="18">
         <v>993427</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H48" s="18">
         <v>524484</v>
       </c>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18">
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18">
         <v>35479</v>
       </c>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18">
+      <c r="L48" s="18"/>
+      <c r="M48" s="18">
         <v>26034</v>
       </c>
-      <c r="N47" s="18">
+      <c r="N48" s="18">
         <v>1305965</v>
       </c>
-      <c r="O47" s="18">
+      <c r="O48" s="18">
         <v>2063304</v>
       </c>
     </row>
-    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="11">
+    <row r="49" spans="2:15" hidden="1">
+      <c r="B49" s="11">
         <v>2021</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C49" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D49" s="13">
         <f t="shared" si="3"/>
         <v>5456169</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E49" s="14">
         <v>15216</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F49" s="14">
         <v>53005</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G49" s="14">
         <v>1058956</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H49" s="14">
         <v>590598</v>
       </c>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14">
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14">
         <v>64029</v>
       </c>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14">
+      <c r="L49" s="14"/>
+      <c r="M49" s="14">
         <v>30912</v>
       </c>
-      <c r="N48" s="14">
+      <c r="N49" s="14">
         <v>1503552</v>
       </c>
-      <c r="O48" s="14">
+      <c r="O49" s="14">
         <v>2139901</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="15">
+    <row r="50" spans="2:15" hidden="1">
+      <c r="B50" s="15">
         <v>2021</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C50" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D50" s="17">
         <f t="shared" si="3"/>
         <v>4784013</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E50" s="18">
         <v>15389</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F50" s="18">
         <v>43733</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G50" s="18">
         <v>853708</v>
       </c>
-      <c r="H49" s="18">
+      <c r="H50" s="18">
         <v>536816</v>
       </c>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18">
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18">
         <v>54554</v>
       </c>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18">
+      <c r="L50" s="18"/>
+      <c r="M50" s="18">
         <v>23167</v>
       </c>
-      <c r="N49" s="18">
+      <c r="N50" s="18">
         <v>1288126</v>
       </c>
-      <c r="O49" s="18">
+      <c r="O50" s="18">
         <v>1968520</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="11">
+    <row r="51" spans="2:15" hidden="1">
+      <c r="B51" s="11">
         <v>2021</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C51" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D51" s="13">
         <f t="shared" si="3"/>
         <v>4739036</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E51" s="14">
         <v>16431</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F51" s="14">
         <v>40566</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G51" s="14">
         <v>804638</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H51" s="14">
         <v>535959</v>
       </c>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14">
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14">
         <v>45166</v>
       </c>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14">
+      <c r="L51" s="14"/>
+      <c r="M51" s="14">
         <v>20712</v>
       </c>
-      <c r="N50" s="14">
+      <c r="N51" s="14">
         <v>1283475</v>
       </c>
-      <c r="O50" s="14">
+      <c r="O51" s="14">
         <v>1992089</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="15">
+    <row r="52" spans="2:15" hidden="1">
+      <c r="B52" s="15">
         <v>2021</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C52" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D52" s="17">
         <f t="shared" si="3"/>
         <v>4139956</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E52" s="18">
         <v>13432</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F52" s="18">
         <v>34786</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G52" s="18">
         <v>729359</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H52" s="18">
         <v>459115</v>
       </c>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18">
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18">
         <v>37963</v>
       </c>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18">
+      <c r="L52" s="18"/>
+      <c r="M52" s="18">
         <v>19899</v>
       </c>
-      <c r="N51" s="18">
+      <c r="N52" s="18">
         <v>1098291</v>
       </c>
-      <c r="O51" s="18">
+      <c r="O52" s="18">
         <v>1747111</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="11">
+    <row r="53" spans="2:15" hidden="1">
+      <c r="B53" s="11">
         <v>2021</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C53" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D53" s="13">
         <f t="shared" si="3"/>
         <v>3643233</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E53" s="14">
         <v>13443</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F53" s="14">
         <v>34472</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G53" s="14">
         <v>700282</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H53" s="14">
         <v>454696</v>
       </c>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14">
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14">
         <v>25539</v>
       </c>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14">
+      <c r="L53" s="14"/>
+      <c r="M53" s="14">
         <v>18739</v>
       </c>
-      <c r="N52" s="14">
+      <c r="N53" s="14">
         <v>1015276</v>
       </c>
-      <c r="O52" s="14">
+      <c r="O53" s="14">
         <v>1380786</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="15">
+    <row r="54" spans="2:15" hidden="1">
+      <c r="B54" s="15">
         <v>2021</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C54" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D54" s="17">
         <f t="shared" si="3"/>
         <v>2522697</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E54" s="18">
         <v>8230</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F54" s="18">
         <v>21876</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G54" s="18">
         <v>521896</v>
       </c>
-      <c r="H53" s="18">
+      <c r="H54" s="18">
         <v>365190</v>
       </c>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18">
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18">
         <v>13877</v>
       </c>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18">
+      <c r="L54" s="18"/>
+      <c r="M54" s="18">
         <v>12256</v>
       </c>
-      <c r="N53" s="18">
+      <c r="N54" s="18">
         <v>590075</v>
       </c>
-      <c r="O53" s="18">
+      <c r="O54" s="18">
         <v>989297</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="19">
+    <row r="55" spans="2:15" hidden="1">
+      <c r="B55" s="19">
         <v>2021</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C55" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D55" s="21">
         <f t="shared" si="3"/>
         <v>3256499</v>
       </c>
-      <c r="E54" s="22">
+      <c r="E55" s="22">
         <v>7181</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F55" s="22">
         <v>25543</v>
       </c>
-      <c r="G54" s="22">
+      <c r="G55" s="22">
         <v>641860</v>
       </c>
-      <c r="H54" s="22">
+      <c r="H55" s="22">
         <v>438330</v>
       </c>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22">
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22">
         <v>19413</v>
       </c>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22">
+      <c r="L55" s="22"/>
+      <c r="M55" s="22">
         <v>13791</v>
       </c>
-      <c r="N54" s="22">
+      <c r="N55" s="22">
         <v>759842</v>
       </c>
-      <c r="O54" s="22">
+      <c r="O55" s="22">
         <v>1350539</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="23">
+    <row r="56" spans="2:15" hidden="1">
+      <c r="B56" s="23">
         <v>2020</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C56" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="25">
+      <c r="D56" s="25">
         <f t="shared" si="3"/>
         <v>3752676</v>
       </c>
-      <c r="E55" s="26">
+      <c r="E56" s="26">
         <v>6626</v>
       </c>
-      <c r="F55" s="26">
+      <c r="F56" s="26">
         <v>32040</v>
       </c>
-      <c r="G55" s="26">
+      <c r="G56" s="26">
         <v>610544</v>
       </c>
-      <c r="H55" s="26">
+      <c r="H56" s="26">
         <v>491905</v>
       </c>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26">
+      <c r="I56" s="26"/>
+      <c r="J56" s="26">
         <v>4039</v>
       </c>
-      <c r="K55" s="26">
+      <c r="K56" s="26">
         <v>45610</v>
       </c>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26">
+      <c r="L56" s="26"/>
+      <c r="M56" s="26">
         <v>17383</v>
       </c>
-      <c r="N55" s="26">
+      <c r="N56" s="26">
         <v>998369</v>
       </c>
-      <c r="O55" s="26">
+      <c r="O56" s="26">
         <v>1546160</v>
       </c>
     </row>
-    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="11">
+    <row r="57" spans="2:15" hidden="1">
+      <c r="B57" s="11">
         <v>2020</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C57" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D57" s="13">
         <f t="shared" si="3"/>
         <v>3347186</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E57" s="14">
         <v>6583</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F57" s="14">
         <v>28629</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G57" s="14">
         <v>520221</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H57" s="14">
         <v>395967</v>
       </c>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14">
+      <c r="I57" s="14"/>
+      <c r="J57" s="14">
         <v>17545</v>
       </c>
-      <c r="K56" s="14">
+      <c r="K57" s="14">
         <v>37463</v>
       </c>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14">
+      <c r="L57" s="14"/>
+      <c r="M57" s="14">
         <v>14115</v>
       </c>
-      <c r="N56" s="14">
+      <c r="N57" s="14">
         <v>863224</v>
       </c>
-      <c r="O56" s="14">
+      <c r="O57" s="14">
         <v>1463439</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="15">
+    <row r="58" spans="2:15" hidden="1">
+      <c r="B58" s="15">
         <v>2020</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C58" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D58" s="17">
         <f t="shared" si="3"/>
         <v>3072785</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E58" s="18">
         <v>5614</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F58" s="18">
         <v>27120</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G58" s="18">
         <v>463245</v>
       </c>
-      <c r="H57" s="18">
+      <c r="H58" s="18">
         <v>395686</v>
       </c>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18">
+      <c r="I58" s="18"/>
+      <c r="J58" s="18">
         <v>33425</v>
       </c>
-      <c r="K57" s="18">
+      <c r="K58" s="18">
         <v>29759</v>
       </c>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18">
+      <c r="L58" s="18"/>
+      <c r="M58" s="18">
         <v>14897</v>
       </c>
-      <c r="N57" s="18">
+      <c r="N58" s="18">
         <v>803614</v>
       </c>
-      <c r="O57" s="18">
+      <c r="O58" s="18">
         <v>1299425</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="11">
+    <row r="59" spans="2:15" hidden="1">
+      <c r="B59" s="11">
         <v>2020</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D59" s="13">
         <f t="shared" si="3"/>
         <v>2614973</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E59" s="14">
         <v>4853</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F59" s="14">
         <v>21371</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G59" s="14">
         <v>371636</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H59" s="14">
         <v>325704</v>
       </c>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14">
+      <c r="I59" s="14"/>
+      <c r="J59" s="14">
         <v>41547</v>
       </c>
-      <c r="K58" s="14">
+      <c r="K59" s="14">
         <v>30615</v>
       </c>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14">
+      <c r="L59" s="14"/>
+      <c r="M59" s="14">
         <v>11615</v>
       </c>
-      <c r="N58" s="14">
+      <c r="N59" s="14">
         <v>665331</v>
       </c>
-      <c r="O58" s="14">
+      <c r="O59" s="14">
         <v>1142301</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="15">
+    <row r="60" spans="2:15" hidden="1">
+      <c r="B60" s="15">
         <v>2020</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C60" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D60" s="17">
         <f t="shared" si="3"/>
         <v>2423904</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E60" s="18">
         <v>3748</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F60" s="18">
         <v>22617</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G60" s="18">
         <v>322580</v>
       </c>
-      <c r="H59" s="18">
+      <c r="H60" s="18">
         <v>310616</v>
       </c>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18">
+      <c r="I60" s="18"/>
+      <c r="J60" s="18">
         <v>38737</v>
       </c>
-      <c r="K59" s="18">
+      <c r="K60" s="18">
         <v>30641</v>
       </c>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18">
+      <c r="L60" s="18"/>
+      <c r="M60" s="18">
         <v>7400</v>
       </c>
-      <c r="N59" s="18">
+      <c r="N60" s="18">
         <v>586367</v>
       </c>
-      <c r="O59" s="18">
+      <c r="O60" s="18">
         <v>1101198</v>
       </c>
     </row>
-    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="11">
+    <row r="61" spans="2:15" hidden="1">
+      <c r="B61" s="11">
         <v>2020</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C61" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D61" s="13">
         <f t="shared" si="3"/>
         <v>1910823</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E61" s="14">
         <v>3082</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F61" s="14">
         <v>18259</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G61" s="14">
         <v>251899</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H61" s="14">
         <v>254505</v>
       </c>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14">
+      <c r="I61" s="14"/>
+      <c r="J61" s="14">
         <v>38811</v>
       </c>
-      <c r="K60" s="14">
+      <c r="K61" s="14">
         <v>24630</v>
       </c>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14">
+      <c r="L61" s="14"/>
+      <c r="M61" s="14">
         <v>4178</v>
       </c>
-      <c r="N60" s="14">
+      <c r="N61" s="14">
         <v>418350</v>
       </c>
-      <c r="O60" s="14">
+      <c r="O61" s="14">
         <v>897109</v>
       </c>
     </row>
-    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="15">
+    <row r="62" spans="2:15" hidden="1">
+      <c r="B62" s="15">
         <v>2020</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C62" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D62" s="17">
         <f t="shared" si="3"/>
         <v>996346</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E62" s="18">
         <v>1927</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F62" s="18">
         <v>9051</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G62" s="18">
         <v>140991</v>
       </c>
-      <c r="H61" s="18">
+      <c r="H62" s="18">
         <v>97306</v>
       </c>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18">
+      <c r="I62" s="18"/>
+      <c r="J62" s="18">
         <v>24942</v>
       </c>
-      <c r="K61" s="18">
+      <c r="K62" s="18">
         <v>5002</v>
       </c>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18">
+      <c r="L62" s="18"/>
+      <c r="M62" s="18">
         <v>2168</v>
       </c>
-      <c r="N61" s="18">
+      <c r="N62" s="18">
         <v>201937</v>
       </c>
-      <c r="O61" s="18">
+      <c r="O62" s="18">
         <v>513022</v>
       </c>
     </row>
-    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="11">
+    <row r="63" spans="2:15" hidden="1">
+      <c r="B63" s="11">
         <v>2020</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C63" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D63" s="13">
         <f t="shared" si="3"/>
         <v>410766</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E63" s="14">
         <v>1324</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F63" s="14">
         <v>4688</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G63" s="14">
         <v>50801</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H63" s="14">
         <v>80478</v>
       </c>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14">
+      <c r="I63" s="14"/>
+      <c r="J63" s="14">
         <v>14835</v>
       </c>
-      <c r="K62" s="14">
+      <c r="K63" s="14">
         <v>0</v>
       </c>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14">
+      <c r="L63" s="14"/>
+      <c r="M63" s="14">
         <v>1040</v>
       </c>
-      <c r="N62" s="14">
+      <c r="N63" s="14">
         <v>90419</v>
       </c>
-      <c r="O62" s="14">
+      <c r="O63" s="14">
         <v>167181</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="15">
+    <row r="64" spans="2:15" hidden="1">
+      <c r="B64" s="15">
         <v>2020</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C64" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D64" s="17">
         <f t="shared" si="3"/>
         <v>449003</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E64" s="18">
         <v>1164</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F64" s="18">
         <v>2668</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G64" s="18">
         <v>60744</v>
       </c>
-      <c r="H63" s="18">
+      <c r="H64" s="18">
         <v>86523</v>
       </c>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18">
+      <c r="I64" s="18"/>
+      <c r="J64" s="18">
         <v>25068</v>
       </c>
-      <c r="K63" s="18">
+      <c r="K64" s="18">
         <v>705</v>
       </c>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18">
+      <c r="L64" s="18"/>
+      <c r="M64" s="18">
         <v>485</v>
       </c>
-      <c r="N63" s="18">
+      <c r="N64" s="18">
         <v>89915</v>
       </c>
-      <c r="O63" s="18">
+      <c r="O64" s="18">
         <v>181731</v>
       </c>
     </row>
-    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="11">
+    <row r="65" spans="2:15" hidden="1">
+      <c r="B65" s="11">
         <v>2020</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C65" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D65" s="13">
         <f t="shared" si="3"/>
         <v>3931644</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E65" s="14">
         <v>8791</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F65" s="14">
         <v>41673</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G65" s="14">
         <v>572018</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H65" s="14">
         <v>464064</v>
       </c>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14">
+      <c r="I65" s="14"/>
+      <c r="J65" s="14">
         <v>822187</v>
       </c>
-      <c r="K64" s="14">
+      <c r="K65" s="14">
         <v>23248</v>
       </c>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14">
+      <c r="L65" s="14"/>
+      <c r="M65" s="14">
         <v>26274</v>
       </c>
-      <c r="N64" s="14">
+      <c r="N65" s="14">
         <v>704638</v>
       </c>
-      <c r="O64" s="14">
+      <c r="O65" s="14">
         <v>1268751</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="15">
+    <row r="66" spans="2:15" hidden="1">
+      <c r="B66" s="15">
         <v>2020</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C66" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D66" s="17">
         <f t="shared" si="3"/>
         <v>5315967</v>
       </c>
-      <c r="E65" s="18">
+      <c r="E66" s="18">
         <v>10857</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F66" s="18">
         <v>59357</v>
       </c>
-      <c r="G65" s="18">
+      <c r="G66" s="18">
         <v>846279</v>
       </c>
-      <c r="H65" s="18">
+      <c r="H66" s="18">
         <v>641873</v>
       </c>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18">
+      <c r="I66" s="18"/>
+      <c r="J66" s="18">
         <v>1178801</v>
       </c>
-      <c r="K65" s="18">
+      <c r="K66" s="18">
         <v>26652</v>
       </c>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18">
+      <c r="L66" s="18"/>
+      <c r="M66" s="18">
         <v>36382</v>
       </c>
-      <c r="N65" s="18">
+      <c r="N66" s="18">
         <v>881600</v>
       </c>
-      <c r="O65" s="18">
+      <c r="O66" s="18">
         <v>1634166</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="19">
+    <row r="67" spans="2:15" hidden="1">
+      <c r="B67" s="19">
         <v>2020</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C67" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D67" s="21">
         <f t="shared" si="3"/>
         <v>5907035</v>
       </c>
-      <c r="E66" s="22">
+      <c r="E67" s="22">
         <v>13840</v>
       </c>
-      <c r="F66" s="22">
+      <c r="F67" s="22">
         <v>68044</v>
       </c>
-      <c r="G66" s="22">
+      <c r="G67" s="22">
         <v>961808</v>
       </c>
-      <c r="H66" s="22">
+      <c r="H67" s="22">
         <v>680707</v>
       </c>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22">
+      <c r="I67" s="22"/>
+      <c r="J67" s="22">
         <v>1315599</v>
       </c>
-      <c r="K66" s="22">
+      <c r="K67" s="22">
         <v>47575</v>
       </c>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22">
+      <c r="L67" s="22"/>
+      <c r="M67" s="22">
         <v>40620</v>
       </c>
-      <c r="N66" s="22">
+      <c r="N67" s="22">
         <v>980414</v>
       </c>
-      <c r="O66" s="22">
+      <c r="O67" s="22">
         <v>1798428</v>
       </c>
     </row>
-    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="23">
+    <row r="68" spans="2:15" hidden="1">
+      <c r="B68" s="23">
         <v>2019</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C68" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="25">
+      <c r="D68" s="25">
         <f t="shared" si="3"/>
         <v>6305291</v>
       </c>
-      <c r="E67" s="26">
+      <c r="E68" s="26">
         <v>14577</v>
       </c>
-      <c r="F67" s="26">
+      <c r="F68" s="26">
         <v>79686</v>
       </c>
-      <c r="G67" s="26">
+      <c r="G68" s="26">
         <v>1001613</v>
       </c>
-      <c r="H67" s="26">
+      <c r="H68" s="26">
         <v>756331</v>
       </c>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26">
+      <c r="I68" s="26"/>
+      <c r="J68" s="26">
         <v>1419527</v>
       </c>
-      <c r="K67" s="26">
+      <c r="K68" s="26">
         <v>72539</v>
       </c>
-      <c r="L67" s="26"/>
-      <c r="M67" s="26">
+      <c r="L68" s="26"/>
+      <c r="M68" s="26">
         <v>45759</v>
       </c>
-      <c r="N67" s="26">
+      <c r="N68" s="26">
         <v>1083272</v>
       </c>
-      <c r="O67" s="26">
+      <c r="O68" s="26">
         <v>1831987</v>
       </c>
     </row>
-    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="11">
+    <row r="69" spans="2:15" hidden="1">
+      <c r="B69" s="11">
         <v>2019</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C69" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D69" s="13">
         <f t="shared" si="3"/>
         <v>5933699</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E69" s="14">
         <v>15593</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F69" s="14">
         <v>73513</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G69" s="14">
         <v>938515</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H69" s="14">
         <v>697055</v>
       </c>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14">
+      <c r="I69" s="14"/>
+      <c r="J69" s="14">
         <v>1349425</v>
       </c>
-      <c r="K68" s="14">
+      <c r="K69" s="14">
         <v>54165</v>
       </c>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14">
+      <c r="L69" s="14"/>
+      <c r="M69" s="14">
         <v>41740</v>
       </c>
-      <c r="N68" s="14">
+      <c r="N69" s="14">
         <v>1014931</v>
       </c>
-      <c r="O68" s="14">
+      <c r="O69" s="14">
         <v>1748762</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="15">
+    <row r="70" spans="2:15" hidden="1">
+      <c r="B70" s="15">
         <v>2019</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C70" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D70" s="17">
         <f t="shared" si="3"/>
         <v>5863191</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E70" s="18">
         <v>19701</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F70" s="18">
         <v>67349</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G70" s="18">
         <v>957393</v>
       </c>
-      <c r="H69" s="18">
+      <c r="H70" s="18">
         <v>740956</v>
       </c>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18">
+      <c r="I70" s="18"/>
+      <c r="J70" s="18">
         <v>1232933</v>
       </c>
-      <c r="K69" s="18">
+      <c r="K70" s="18">
         <v>57392</v>
       </c>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18">
+      <c r="L70" s="18"/>
+      <c r="M70" s="18">
         <v>40850</v>
       </c>
-      <c r="N69" s="18">
+      <c r="N70" s="18">
         <v>1022260</v>
       </c>
-      <c r="O69" s="18">
+      <c r="O70" s="18">
         <v>1724357</v>
       </c>
     </row>
-    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="11">
+    <row r="71" spans="2:15" hidden="1">
+      <c r="B71" s="11">
         <v>2019</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D71" s="13">
         <f t="shared" si="3"/>
         <v>5409755</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E71" s="14">
         <v>15863</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F71" s="14">
         <v>61156</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G71" s="14">
         <v>897733</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H71" s="14">
         <v>677299</v>
       </c>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14">
+      <c r="I71" s="14"/>
+      <c r="J71" s="14">
         <v>1115654</v>
       </c>
-      <c r="K70" s="14">
+      <c r="K71" s="14">
         <v>61638</v>
       </c>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14">
+      <c r="L71" s="14"/>
+      <c r="M71" s="14">
         <v>42002</v>
       </c>
-      <c r="N70" s="14">
+      <c r="N71" s="14">
         <v>922290</v>
       </c>
-      <c r="O70" s="14">
+      <c r="O71" s="14">
         <v>1616120</v>
       </c>
     </row>
-    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="15">
+    <row r="72" spans="2:15" hidden="1">
+      <c r="B72" s="15">
         <v>2019</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C72" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D72" s="17">
         <f t="shared" si="3"/>
         <v>6259657</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E72" s="18">
         <v>22090</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F72" s="18">
         <v>68824</v>
       </c>
-      <c r="G71" s="18">
+      <c r="G72" s="18">
         <v>1001754</v>
       </c>
-      <c r="H71" s="18">
+      <c r="H72" s="18">
         <v>777867</v>
       </c>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18">
+      <c r="I72" s="18"/>
+      <c r="J72" s="18">
         <v>1395254</v>
       </c>
-      <c r="K71" s="18">
+      <c r="K72" s="18">
         <v>88036</v>
       </c>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18">
+      <c r="L72" s="18"/>
+      <c r="M72" s="18">
         <v>47511</v>
       </c>
-      <c r="N71" s="18">
+      <c r="N72" s="18">
         <v>1112562</v>
       </c>
-      <c r="O71" s="18">
+      <c r="O72" s="18">
         <v>1745759</v>
       </c>
     </row>
-    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="11">
+    <row r="73" spans="2:15" hidden="1">
+      <c r="B73" s="11">
         <v>2019</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C73" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D73" s="13">
         <f t="shared" si="3"/>
         <v>6643948</v>
       </c>
-      <c r="E72" s="14">
+      <c r="E73" s="14">
         <v>24398</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F73" s="14">
         <v>75738</v>
       </c>
-      <c r="G72" s="14">
+      <c r="G73" s="14">
         <v>1056905</v>
       </c>
-      <c r="H72" s="14">
+      <c r="H73" s="14">
         <v>847525</v>
       </c>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14">
+      <c r="I73" s="14"/>
+      <c r="J73" s="14">
         <v>1440396</v>
       </c>
-      <c r="K72" s="14">
+      <c r="K73" s="14">
         <v>112757</v>
       </c>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14">
+      <c r="L73" s="14"/>
+      <c r="M73" s="14">
         <v>53404</v>
       </c>
-      <c r="N72" s="14">
+      <c r="N73" s="14">
         <v>1151999</v>
       </c>
-      <c r="O72" s="14">
+      <c r="O73" s="14">
         <v>1880826</v>
       </c>
     </row>
-    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="15">
+    <row r="74" spans="2:15" hidden="1">
+      <c r="B74" s="15">
         <v>2019</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C74" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="17">
+      <c r="D74" s="17">
         <f t="shared" si="3"/>
         <v>6003625</v>
       </c>
-      <c r="E73" s="18">
+      <c r="E74" s="18">
         <v>24034</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F74" s="18">
         <v>65120</v>
       </c>
-      <c r="G73" s="18">
+      <c r="G74" s="18">
         <v>968584</v>
       </c>
-      <c r="H73" s="18">
+      <c r="H74" s="18">
         <v>772914</v>
       </c>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18">
+      <c r="I74" s="18"/>
+      <c r="J74" s="18">
         <v>1315938</v>
       </c>
-      <c r="K73" s="18">
+      <c r="K74" s="18">
         <v>90790</v>
       </c>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18">
+      <c r="L74" s="18"/>
+      <c r="M74" s="18">
         <v>47162</v>
       </c>
-      <c r="N73" s="18">
+      <c r="N74" s="18">
         <v>974523</v>
       </c>
-      <c r="O73" s="18">
+      <c r="O74" s="18">
         <v>1744560</v>
       </c>
     </row>
-    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="11">
+    <row r="75" spans="2:15" hidden="1">
+      <c r="B75" s="11">
         <v>2019</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C75" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D75" s="13">
         <f t="shared" si="3"/>
         <v>6066733</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E75" s="14">
         <v>24578</v>
       </c>
-      <c r="F74" s="14">
+      <c r="F75" s="14">
         <v>61163</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G75" s="14">
         <v>976676</v>
       </c>
-      <c r="H74" s="14">
+      <c r="H75" s="14">
         <v>788262</v>
       </c>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14">
+      <c r="I75" s="14"/>
+      <c r="J75" s="14">
         <v>1373059</v>
       </c>
-      <c r="K74" s="14">
+      <c r="K75" s="14">
         <v>74030</v>
       </c>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14">
+      <c r="L75" s="14"/>
+      <c r="M75" s="14">
         <v>51746</v>
       </c>
-      <c r="N74" s="14">
+      <c r="N75" s="14">
         <v>931984</v>
       </c>
-      <c r="O74" s="14">
+      <c r="O75" s="14">
         <v>1785235</v>
       </c>
     </row>
-    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="15">
+    <row r="76" spans="2:15" hidden="1">
+      <c r="B76" s="15">
         <v>2019</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C76" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="17">
+      <c r="D76" s="17">
         <f t="shared" si="3"/>
         <v>5766967</v>
       </c>
-      <c r="E75" s="18">
+      <c r="E76" s="18">
         <v>26137</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F76" s="18">
         <v>63912</v>
       </c>
-      <c r="G75" s="18">
+      <c r="G76" s="18">
         <v>935481</v>
       </c>
-      <c r="H75" s="18">
+      <c r="H76" s="18">
         <v>737722</v>
       </c>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18">
+      <c r="I76" s="18"/>
+      <c r="J76" s="18">
         <v>1282012</v>
       </c>
-      <c r="K75" s="18">
+      <c r="K76" s="18">
         <v>54469</v>
       </c>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18">
+      <c r="L76" s="18"/>
+      <c r="M76" s="18">
         <v>50399</v>
       </c>
-      <c r="N75" s="18">
+      <c r="N76" s="18">
         <v>893208</v>
       </c>
-      <c r="O75" s="18">
+      <c r="O76" s="18">
         <v>1723627</v>
       </c>
     </row>
-    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="11">
+    <row r="77" spans="2:15" hidden="1">
+      <c r="B77" s="11">
         <v>2019</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C77" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D77" s="13">
         <f t="shared" si="3"/>
         <v>5617314</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E77" s="14">
         <v>24631</v>
       </c>
-      <c r="F76" s="14">
+      <c r="F77" s="14">
         <v>66177</v>
       </c>
-      <c r="G76" s="14">
+      <c r="G77" s="14">
         <v>991931</v>
       </c>
-      <c r="H76" s="14">
+      <c r="H77" s="14">
         <v>774790</v>
       </c>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14">
+      <c r="I77" s="14"/>
+      <c r="J77" s="14">
         <v>1245949</v>
       </c>
-      <c r="K76" s="14">
+      <c r="K77" s="14">
         <v>40758</v>
       </c>
-      <c r="L76" s="14"/>
-      <c r="M76" s="14">
+      <c r="L77" s="14"/>
+      <c r="M77" s="14">
         <v>49242</v>
       </c>
-      <c r="N76" s="14">
+      <c r="N77" s="14">
         <v>767922</v>
       </c>
-      <c r="O76" s="14">
+      <c r="O77" s="14">
         <v>1655914</v>
       </c>
     </row>
-    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="15">
+    <row r="78" spans="2:15" hidden="1">
+      <c r="B78" s="15">
         <v>2019</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C78" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="17">
+      <c r="D78" s="17">
         <f t="shared" si="3"/>
         <v>4697667</v>
       </c>
-      <c r="E77" s="18">
+      <c r="E78" s="18">
         <v>20074</v>
       </c>
-      <c r="F77" s="18">
+      <c r="F78" s="18">
         <v>57946</v>
       </c>
-      <c r="G77" s="18">
+      <c r="G78" s="18">
         <v>888111</v>
       </c>
-      <c r="H77" s="18">
+      <c r="H78" s="18">
         <v>647818</v>
       </c>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18">
+      <c r="I78" s="18"/>
+      <c r="J78" s="18">
         <v>1002798</v>
       </c>
-      <c r="K77" s="18">
+      <c r="K78" s="18">
         <v>31139</v>
       </c>
-      <c r="L77" s="18"/>
-      <c r="M77" s="18">
+      <c r="L78" s="18"/>
+      <c r="M78" s="18">
         <v>40877</v>
       </c>
-      <c r="N77" s="18">
+      <c r="N78" s="18">
         <v>617809</v>
       </c>
-      <c r="O77" s="18">
+      <c r="O78" s="18">
         <v>1391095</v>
       </c>
     </row>
-    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="19">
+    <row r="79" spans="2:15" hidden="1">
+      <c r="B79" s="19">
         <v>2019</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C79" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="21">
-        <f t="shared" ref="D78:D90" si="4">SUM(E78:O78)</f>
+      <c r="D79" s="21">
+        <f t="shared" ref="D79:D91" si="4">SUM(E79:O79)</f>
         <v>5369991</v>
       </c>
-      <c r="E78" s="22">
+      <c r="E79" s="22">
         <v>24399</v>
       </c>
-      <c r="F78" s="22">
+      <c r="F79" s="22">
         <v>59133</v>
       </c>
-      <c r="G78" s="22">
+      <c r="G79" s="22">
         <v>1017714</v>
       </c>
-      <c r="H78" s="22">
+      <c r="H79" s="22">
         <v>718168</v>
       </c>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22">
+      <c r="I79" s="22"/>
+      <c r="J79" s="22">
         <v>1143850</v>
       </c>
-      <c r="K78" s="22">
+      <c r="K79" s="22">
         <v>45885</v>
       </c>
-      <c r="L78" s="22"/>
-      <c r="M78" s="22">
+      <c r="L79" s="22"/>
+      <c r="M79" s="22">
         <v>45704</v>
       </c>
-      <c r="N78" s="22">
+      <c r="N79" s="22">
         <v>787962</v>
       </c>
-      <c r="O78" s="22">
+      <c r="O79" s="22">
         <v>1527176</v>
       </c>
     </row>
-    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="16">
+    <row r="80" spans="2:15" hidden="1">
+      <c r="B80" s="16">
         <v>2018</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C80" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="17">
+      <c r="D80" s="17">
         <f t="shared" si="4"/>
         <v>5844697</v>
       </c>
-      <c r="E79" s="18">
+      <c r="E80" s="18">
         <v>25513</v>
       </c>
-      <c r="F79" s="18">
+      <c r="F80" s="18">
         <v>64369</v>
       </c>
-      <c r="G79" s="18">
+      <c r="G80" s="18">
         <v>1071044</v>
       </c>
-      <c r="H79" s="18">
+      <c r="H80" s="18">
         <v>804521</v>
       </c>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18">
+      <c r="I80" s="18"/>
+      <c r="J80" s="18">
         <v>1232404</v>
       </c>
-      <c r="K79" s="18">
+      <c r="K80" s="18">
         <v>78800</v>
       </c>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18">
+      <c r="L80" s="18"/>
+      <c r="M80" s="18">
         <v>50423</v>
       </c>
-      <c r="N79" s="18">
+      <c r="N80" s="18">
         <v>905477</v>
       </c>
-      <c r="O79" s="18">
+      <c r="O80" s="18">
         <v>1612146</v>
       </c>
     </row>
-    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="12">
+    <row r="81" spans="2:15" hidden="1">
+      <c r="B81" s="12">
         <v>2018</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C81" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D81" s="13">
         <f t="shared" si="4"/>
         <v>5548187</v>
       </c>
-      <c r="E80" s="14">
+      <c r="E81" s="14">
         <v>24593</v>
       </c>
-      <c r="F80" s="14">
+      <c r="F81" s="14">
         <v>68160</v>
       </c>
-      <c r="G80" s="14">
+      <c r="G81" s="14">
         <v>1004506</v>
       </c>
-      <c r="H80" s="14">
+      <c r="H81" s="14">
         <v>761656</v>
       </c>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14">
+      <c r="I81" s="14"/>
+      <c r="J81" s="14">
         <v>1214579</v>
       </c>
-      <c r="K80" s="14">
+      <c r="K81" s="14">
         <v>70291</v>
       </c>
-      <c r="L80" s="14"/>
-      <c r="M80" s="14">
+      <c r="L81" s="14"/>
+      <c r="M81" s="14">
         <v>52654</v>
       </c>
-      <c r="N80" s="14">
+      <c r="N81" s="14">
         <v>844104</v>
       </c>
-      <c r="O80" s="14">
+      <c r="O81" s="14">
         <v>1507644</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="16">
+    <row r="82" spans="2:15" hidden="1">
+      <c r="B82" s="16">
         <v>2018</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C82" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D81" s="17">
+      <c r="D82" s="17">
         <f t="shared" si="4"/>
         <v>5436017</v>
       </c>
-      <c r="E81" s="18">
+      <c r="E82" s="18">
         <v>23163</v>
       </c>
-      <c r="F81" s="18">
+      <c r="F82" s="18">
         <v>67739</v>
       </c>
-      <c r="G81" s="18">
+      <c r="G82" s="18">
         <v>1006759</v>
       </c>
-      <c r="H81" s="18">
+      <c r="H82" s="18">
         <v>779871</v>
       </c>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18">
+      <c r="I82" s="18"/>
+      <c r="J82" s="18">
         <v>1170513</v>
       </c>
-      <c r="K81" s="18">
+      <c r="K82" s="18">
         <v>65741</v>
       </c>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18">
+      <c r="L82" s="18"/>
+      <c r="M82" s="18">
         <v>52203</v>
       </c>
-      <c r="N81" s="18">
+      <c r="N82" s="18">
         <v>808467</v>
       </c>
-      <c r="O81" s="18">
+      <c r="O82" s="18">
         <v>1461561</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="12">
+    <row r="83" spans="2:15" hidden="1">
+      <c r="B83" s="12">
         <v>2018</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C83" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D83" s="13">
         <f t="shared" si="4"/>
         <v>5031295</v>
       </c>
-      <c r="E82" s="14">
+      <c r="E83" s="14">
         <v>21054</v>
       </c>
-      <c r="F82" s="14">
+      <c r="F83" s="14">
         <v>57581</v>
       </c>
-      <c r="G82" s="14">
+      <c r="G83" s="14">
         <v>953415</v>
       </c>
-      <c r="H82" s="14">
+      <c r="H83" s="14">
         <v>749609</v>
       </c>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14">
+      <c r="I83" s="14"/>
+      <c r="J83" s="14">
         <v>1042581</v>
       </c>
-      <c r="K82" s="14">
+      <c r="K83" s="14">
         <v>61896</v>
       </c>
-      <c r="L82" s="14"/>
-      <c r="M82" s="14">
+      <c r="L83" s="14"/>
+      <c r="M83" s="14">
         <v>46860</v>
       </c>
-      <c r="N82" s="14">
+      <c r="N83" s="14">
         <v>767606</v>
       </c>
-      <c r="O82" s="14">
+      <c r="O83" s="14">
         <v>1330693</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="16">
+    <row r="84" spans="2:15" hidden="1">
+      <c r="B84" s="16">
         <v>2018</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C84" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D83" s="17">
+      <c r="D84" s="17">
         <f t="shared" si="4"/>
         <v>5768371</v>
       </c>
-      <c r="E83" s="18">
+      <c r="E84" s="18">
         <v>27838</v>
       </c>
-      <c r="F83" s="18">
+      <c r="F84" s="18">
         <v>63083</v>
       </c>
-      <c r="G83" s="18">
+      <c r="G84" s="18">
         <v>1074998</v>
       </c>
-      <c r="H83" s="18">
+      <c r="H84" s="18">
         <v>852980</v>
       </c>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18">
+      <c r="I84" s="18"/>
+      <c r="J84" s="18">
         <v>1233129</v>
       </c>
-      <c r="K83" s="18">
+      <c r="K84" s="18">
         <v>104695</v>
       </c>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18">
+      <c r="L84" s="18"/>
+      <c r="M84" s="18">
         <v>54110</v>
       </c>
-      <c r="N83" s="18">
+      <c r="N84" s="18">
         <v>921277</v>
       </c>
-      <c r="O83" s="18">
+      <c r="O84" s="18">
         <v>1436261</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="12">
+    <row r="85" spans="2:15" hidden="1">
+      <c r="B85" s="12">
         <v>2018</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C85" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D85" s="13">
         <f t="shared" si="4"/>
         <v>6140662</v>
       </c>
-      <c r="E84" s="14">
+      <c r="E85" s="14">
         <v>32903</v>
       </c>
-      <c r="F84" s="14">
+      <c r="F85" s="14">
         <v>56167</v>
       </c>
-      <c r="G84" s="14">
+      <c r="G85" s="14">
         <v>1179423</v>
       </c>
-      <c r="H84" s="14">
+      <c r="H85" s="14">
         <v>895787</v>
       </c>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14">
+      <c r="I85" s="14"/>
+      <c r="J85" s="14">
         <v>1280292</v>
       </c>
-      <c r="K84" s="14">
+      <c r="K85" s="14">
         <v>110733</v>
       </c>
-      <c r="L84" s="14"/>
-      <c r="M84" s="14">
+      <c r="L85" s="14"/>
+      <c r="M85" s="14">
         <v>58466</v>
       </c>
-      <c r="N84" s="14">
+      <c r="N85" s="14">
         <v>944861</v>
       </c>
-      <c r="O84" s="14">
+      <c r="O85" s="14">
         <v>1582030</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="16">
+    <row r="86" spans="2:15" hidden="1">
+      <c r="B86" s="16">
         <v>2018</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C86" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="17">
+      <c r="D86" s="17">
         <f t="shared" si="4"/>
         <v>5347432</v>
       </c>
-      <c r="E85" s="18">
+      <c r="E86" s="18">
         <v>26323</v>
       </c>
-      <c r="F85" s="18">
+      <c r="F86" s="18">
         <v>46065</v>
       </c>
-      <c r="G85" s="18">
+      <c r="G86" s="18">
         <v>1036698</v>
       </c>
-      <c r="H85" s="18">
+      <c r="H86" s="18">
         <v>815293</v>
       </c>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18">
+      <c r="I86" s="18"/>
+      <c r="J86" s="18">
         <v>1141203</v>
       </c>
-      <c r="K85" s="18">
+      <c r="K86" s="18">
         <v>75066</v>
       </c>
-      <c r="L85" s="18"/>
-      <c r="M85" s="18">
+      <c r="L86" s="18"/>
+      <c r="M86" s="18">
         <v>48032</v>
       </c>
-      <c r="N85" s="18">
+      <c r="N86" s="18">
         <v>768437</v>
       </c>
-      <c r="O85" s="18">
+      <c r="O86" s="18">
         <v>1390315</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="12">
+    <row r="87" spans="2:15" hidden="1">
+      <c r="B87" s="12">
         <v>2018</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C87" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D87" s="13">
         <f t="shared" si="4"/>
         <v>5369812</v>
       </c>
-      <c r="E86" s="14">
+      <c r="E87" s="14">
         <v>26212</v>
       </c>
-      <c r="F86" s="14">
+      <c r="F87" s="14">
         <v>54265</v>
       </c>
-      <c r="G86" s="14">
+      <c r="G87" s="14">
         <v>1033321</v>
       </c>
-      <c r="H86" s="14">
+      <c r="H87" s="14">
         <v>780048</v>
       </c>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14">
+      <c r="I87" s="14"/>
+      <c r="J87" s="14">
         <v>1201298</v>
       </c>
-      <c r="K86" s="14">
+      <c r="K87" s="14">
         <v>84998</v>
       </c>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14">
+      <c r="L87" s="14"/>
+      <c r="M87" s="14">
         <v>49481</v>
       </c>
-      <c r="N86" s="14">
+      <c r="N87" s="14">
         <v>759447</v>
       </c>
-      <c r="O86" s="14">
+      <c r="O87" s="14">
         <v>1380742</v>
       </c>
     </row>
-    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="16">
+    <row r="88" spans="2:15" hidden="1">
+      <c r="B88" s="16">
         <v>2018</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C88" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="17">
+      <c r="D88" s="17">
         <f t="shared" si="4"/>
         <v>5275071</v>
       </c>
-      <c r="E87" s="18">
+      <c r="E88" s="18">
         <v>25839</v>
       </c>
-      <c r="F87" s="18">
+      <c r="F88" s="18">
         <v>59133</v>
       </c>
-      <c r="G87" s="18">
+      <c r="G88" s="18">
         <v>996415</v>
       </c>
-      <c r="H87" s="18">
+      <c r="H88" s="18">
         <v>794436</v>
       </c>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18">
+      <c r="I88" s="18"/>
+      <c r="J88" s="18">
         <v>1176450</v>
       </c>
-      <c r="K87" s="18">
+      <c r="K88" s="18">
         <v>73805</v>
       </c>
-      <c r="L87" s="18"/>
-      <c r="M87" s="18">
+      <c r="L88" s="18"/>
+      <c r="M88" s="18">
         <v>49795</v>
       </c>
-      <c r="N87" s="18">
+      <c r="N88" s="18">
         <v>730221</v>
       </c>
-      <c r="O87" s="18">
+      <c r="O88" s="18">
         <v>1368977</v>
       </c>
     </row>
-    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="12">
+    <row r="89" spans="2:15" hidden="1">
+      <c r="B89" s="12">
         <v>2018</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C89" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D89" s="13">
         <f t="shared" si="4"/>
         <v>5277344</v>
       </c>
-      <c r="E88" s="14">
+      <c r="E89" s="14">
         <v>29029</v>
       </c>
-      <c r="F88" s="14">
+      <c r="F89" s="14">
         <v>65814</v>
       </c>
-      <c r="G88" s="14">
+      <c r="G89" s="14">
         <v>993548</v>
       </c>
-      <c r="H88" s="14">
+      <c r="H89" s="14">
         <v>797581</v>
       </c>
-      <c r="I88" s="14"/>
-      <c r="J88" s="14">
+      <c r="I89" s="14"/>
+      <c r="J89" s="14">
         <v>1174935</v>
       </c>
-      <c r="K88" s="14">
+      <c r="K89" s="14">
         <v>50611</v>
       </c>
-      <c r="L88" s="14"/>
-      <c r="M88" s="14">
+      <c r="L89" s="14"/>
+      <c r="M89" s="14">
         <v>50043</v>
       </c>
-      <c r="N88" s="14">
+      <c r="N89" s="14">
         <v>723374</v>
       </c>
-      <c r="O88" s="14">
+      <c r="O89" s="14">
         <v>1392409</v>
       </c>
     </row>
-    <row r="89" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="16">
+    <row r="90" spans="2:15" hidden="1">
+      <c r="B90" s="16">
         <v>2018</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C90" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="17">
+      <c r="D90" s="17">
         <f t="shared" si="4"/>
         <v>4448093</v>
       </c>
-      <c r="E89" s="18">
+      <c r="E90" s="18">
         <v>22962</v>
       </c>
-      <c r="F89" s="18">
+      <c r="F90" s="18">
         <v>59046</v>
       </c>
-      <c r="G89" s="18">
+      <c r="G90" s="18">
         <v>878966</v>
       </c>
-      <c r="H89" s="18">
+      <c r="H90" s="18">
         <v>699650</v>
       </c>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18">
+      <c r="I90" s="18"/>
+      <c r="J90" s="18">
         <v>934030</v>
       </c>
-      <c r="K89" s="18">
+      <c r="K90" s="18">
         <v>39995</v>
       </c>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18">
+      <c r="L90" s="18"/>
+      <c r="M90" s="18">
         <v>44679</v>
       </c>
-      <c r="N89" s="18">
+      <c r="N90" s="18">
         <v>569891</v>
       </c>
-      <c r="O89" s="18">
+      <c r="O90" s="18">
         <v>1198874</v>
       </c>
     </row>
-    <row r="90" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="12">
+    <row r="91" spans="2:15" hidden="1">
+      <c r="B91" s="12">
         <v>2018</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C91" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D90" s="13">
+      <c r="D91" s="13">
         <f t="shared" si="4"/>
         <v>5082659</v>
       </c>
-      <c r="E90" s="14">
+      <c r="E91" s="14">
         <v>24734</v>
       </c>
-      <c r="F90" s="14">
+      <c r="F91" s="14">
         <v>60981</v>
       </c>
-      <c r="G90" s="14">
+      <c r="G91" s="14">
         <v>1021784</v>
       </c>
-      <c r="H90" s="14">
+      <c r="H91" s="14">
         <v>777479</v>
       </c>
-      <c r="I90" s="14"/>
-      <c r="J90" s="14">
+      <c r="I91" s="14"/>
+      <c r="J91" s="14">
         <v>1078923</v>
       </c>
-      <c r="K90" s="14">
+      <c r="K91" s="14">
         <v>55290</v>
       </c>
-      <c r="L90" s="14"/>
-      <c r="M90" s="14">
+      <c r="L91" s="14"/>
+      <c r="M91" s="14">
         <v>47772</v>
       </c>
-      <c r="N90" s="14">
+      <c r="N91" s="14">
         <v>664529</v>
       </c>
-      <c r="O90" s="14">
+      <c r="O91" s="14">
         <v>1351167</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B91" s="27" t="s">
+    <row r="92" spans="2:15">
+      <c r="B92" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B92" s="27" t="s">
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="2:15">
+      <c r="B93" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C92" s="28"/>
-      <c r="O92" s="29"/>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B93" s="28" t="s">
+      <c r="C93" s="28"/>
+      <c r="O93" s="29"/>
+    </row>
+    <row r="94" spans="2:15">
+      <c r="B94" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C93" s="28"/>
-    </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B94" s="28" t="s">
+      <c r="C94" s="28"/>
+    </row>
+    <row r="95" spans="2:15">
+      <c r="B95" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C94" s="28"/>
-    </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B95" s="28" t="s">
+      <c r="C95" s="28"/>
+    </row>
+    <row r="96" spans="2:15">
+      <c r="B96" s="28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B96" s="3" t="s">
+    <row r="97" spans="2:4">
+      <c r="B97" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D99" s="27"/>
-    </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D103" s="27"/>
+    <row r="100" spans="2:4">
+      <c r="D100" s="27"/>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="D104" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Pasajeros_por_aerolinea_nac.xlsx
+++ b/Pasajeros_por_aerolinea_nac.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B622F1-E0CA-4B02-868D-F3791096BD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE18512-950F-4620-9185-E026B63C2E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -137,7 +137,7 @@
     <t xml:space="preserve"> La línea aérea Aerus inició operaciones el 27 de abril de 2023.</t>
   </si>
   <si>
-    <t>Actualización: Febrero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -697,8 +697,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O91" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
-  <autoFilter ref="B5:O91" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O92" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
+  <autoFilter ref="B5:O92" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -950,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O104"/>
+  <dimension ref="B2:O105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1051,3485 +1051,3524 @@
       </c>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="15">
+      <c r="B6" s="11">
         <v>2025</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="13">
+        <f>SUM(E6:O6)</f>
+        <v>6673744</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14">
+        <v>1613283</v>
+      </c>
+      <c r="H6" s="14">
+        <v>387375</v>
+      </c>
+      <c r="I6" s="14">
+        <v>2498</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14">
+        <v>12552</v>
+      </c>
+      <c r="L6" s="14">
+        <v>27996</v>
+      </c>
+      <c r="M6" s="14">
+        <v>17356</v>
+      </c>
+      <c r="N6" s="14">
+        <v>2269618</v>
+      </c>
+      <c r="O6" s="14">
+        <v>2343066</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="15">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="17">
-        <f>SUM(E6:O6)</f>
-        <v>5718454</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18">
+      <c r="D7" s="17">
+        <f>SUM(E7:O7)</f>
+        <v>5717669</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18">
         <v>1396853</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H7" s="18">
         <v>347893</v>
       </c>
-      <c r="I6" s="18">
-        <v>2787</v>
-      </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18">
+      <c r="I7" s="18">
+        <v>2002</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18">
         <v>7942</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L7" s="18">
         <v>19987</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M7" s="18">
         <v>13607</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N7" s="18">
         <v>1922778</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O7" s="18">
         <v>2006607</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="19">
+    <row r="8" spans="2:15">
+      <c r="B8" s="19">
         <v>2025</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="21">
-        <f>SUM(E7:O7)</f>
-        <v>6705805</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22">
+      <c r="D8" s="21">
+        <f>SUM(E8:O8)</f>
+        <v>6704849</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22">
         <v>1669900</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H8" s="22">
         <v>395411</v>
       </c>
-      <c r="I7" s="22">
-        <v>3219</v>
-      </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22">
+      <c r="I8" s="22">
+        <v>2263</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22">
         <v>11376</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L8" s="22">
         <v>33325</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M8" s="22">
         <v>15081</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N8" s="22">
         <v>2220761</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O8" s="22">
         <v>2356732</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="15">
+    <row r="9" spans="2:15">
+      <c r="B9" s="15">
         <v>2024</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="17">
-        <f>SUM(E8:O8)</f>
+      <c r="D9" s="17">
+        <f>SUM(E9:O9)</f>
         <v>7193395</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18">
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18">
         <v>1749211</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H9" s="18">
         <v>393443</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I9" s="18">
         <v>3591</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18">
+      <c r="J9" s="18"/>
+      <c r="K9" s="18">
         <v>19131</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L9" s="18">
         <v>42411</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M9" s="18">
         <v>19789</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N9" s="18">
         <v>2449237</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O9" s="18">
         <v>2516582</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="11">
+    <row r="10" spans="2:15">
+      <c r="B10" s="11">
         <v>2024</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="13">
-        <f>SUM(E9:O9)</f>
+      <c r="D10" s="13">
+        <f>SUM(E10:O10)</f>
         <v>6698440</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14">
         <v>1630210</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H10" s="14">
         <v>378802</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I10" s="14">
         <v>3872</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14">
+      <c r="J10" s="14"/>
+      <c r="K10" s="14">
         <v>18521</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L10" s="14">
         <v>23922</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M10" s="14">
         <v>14425</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N10" s="14">
         <v>2321101</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O10" s="14">
         <v>2307587</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="15">
+    <row r="11" spans="2:15">
+      <c r="B11" s="15">
         <v>2024</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="17">
-        <f t="shared" ref="D10" si="0">SUM(E10:O10)</f>
+      <c r="D11" s="17">
+        <f t="shared" ref="D11" si="0">SUM(E11:O11)</f>
         <v>6571845</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18">
         <v>1659284</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H11" s="18">
         <v>357763</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I11" s="18">
         <v>4125</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18">
+      <c r="J11" s="18"/>
+      <c r="K11" s="18">
         <v>18874</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L11" s="18">
         <v>22660</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M11" s="18">
         <v>9268</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N11" s="18">
         <v>2210987</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O11" s="18">
         <v>2288884</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="18.75" customHeight="1">
-      <c r="B11" s="11">
+    <row r="12" spans="2:15" ht="18.75" customHeight="1">
+      <c r="B12" s="11">
         <v>2024</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="13">
-        <f>SUM(E11:O11)</f>
+      <c r="D12" s="13">
+        <f>SUM(E12:O12)</f>
         <v>6241021</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14">
         <v>1602332</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H12" s="14">
         <v>357115</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I12" s="14">
         <v>3750</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14">
+      <c r="J12" s="14"/>
+      <c r="K12" s="14">
         <v>16595</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L12" s="14">
         <v>21490</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M12" s="14">
         <v>8152</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N12" s="14">
         <v>2135071</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O12" s="14">
         <v>2096516</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="18.75" customHeight="1">
-      <c r="B12" s="15">
+    <row r="13" spans="2:15" ht="18.75" customHeight="1">
+      <c r="B13" s="15">
         <v>2024</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="17">
-        <f>SUM(E12:O12)</f>
+      <c r="D13" s="17">
+        <f>SUM(E13:O13)</f>
         <v>7122257</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18">
         <v>1846259</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H13" s="18">
         <v>423300</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I13" s="18">
         <v>3350</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18">
+      <c r="J13" s="18"/>
+      <c r="K13" s="18">
         <v>23287</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L13" s="18">
         <v>32823</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M13" s="18">
         <v>13091</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N13" s="18">
         <v>2380847</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O13" s="18">
         <v>2399300</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="18.75" customHeight="1">
-      <c r="B13" s="11">
+    <row r="14" spans="2:15" ht="18.75" customHeight="1">
+      <c r="B14" s="11">
         <v>2024</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="13">
-        <f t="shared" ref="D13:D15" si="1">SUM(E13:O13)</f>
+      <c r="D14" s="13">
+        <f t="shared" ref="D14:D16" si="1">SUM(E14:O14)</f>
         <v>7365600</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E14" s="14">
         <v>972</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14">
         <v>1936260</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H14" s="14">
         <v>455999</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I14" s="14">
         <v>2952</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14">
+      <c r="J14" s="14"/>
+      <c r="K14" s="14">
         <v>25726</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L14" s="14">
         <v>35662</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M14" s="14">
         <v>11529</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N14" s="14">
         <v>2421165</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O14" s="14">
         <v>2475335</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="18.75" customHeight="1">
-      <c r="B14" s="15">
+    <row r="15" spans="2:15" ht="18.75" customHeight="1">
+      <c r="B15" s="15">
         <v>2024</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D15" s="17">
         <f t="shared" si="1"/>
         <v>6545709</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E15" s="18">
         <v>744</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18">
+      <c r="F15" s="18"/>
+      <c r="G15" s="18">
         <v>1681153</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H15" s="18">
         <v>420652</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I15" s="18">
         <v>2495</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18">
+      <c r="J15" s="18"/>
+      <c r="K15" s="18">
         <v>23110</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L15" s="18">
         <v>21518</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M15" s="18">
         <v>9672</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N15" s="18">
         <v>2174929</v>
       </c>
-      <c r="O14" s="18">
+      <c r="O15" s="18">
         <v>2211436</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="11">
+    <row r="16" spans="2:15">
+      <c r="B16" s="11">
         <v>2024</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D16" s="13">
         <f t="shared" si="1"/>
         <v>6588910</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E16" s="14">
         <v>820</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14">
+      <c r="F16" s="14"/>
+      <c r="G16" s="14">
         <v>1727003</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H16" s="14">
         <v>431546</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I16" s="14">
         <v>2633</v>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14">
+      <c r="J16" s="14"/>
+      <c r="K16" s="14">
         <v>13929</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L16" s="14">
         <v>22186</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M16" s="14">
         <v>10844</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N16" s="14">
         <v>2176419</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O16" s="14">
         <v>2203530</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="15">
+    <row r="17" spans="2:15">
+      <c r="B17" s="15">
         <v>2024</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C17" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="17">
-        <f t="shared" ref="D16:D46" si="2">SUM(E16:O16)</f>
+      <c r="D17" s="17">
+        <f t="shared" ref="D17:D47" si="2">SUM(E17:O17)</f>
         <v>6255613</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E17" s="18">
         <v>1018</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18">
+      <c r="F17" s="18"/>
+      <c r="G17" s="18">
         <v>1647314</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H17" s="18">
         <v>437362</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I17" s="18">
         <v>2451</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18">
+      <c r="J17" s="18"/>
+      <c r="K17" s="18">
         <v>17123</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L17" s="18">
         <v>21899</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M17" s="18">
         <v>13242</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N17" s="18">
         <v>2025760</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O17" s="18">
         <v>2089444</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="11">
+    <row r="18" spans="2:15">
+      <c r="B18" s="11">
         <v>2024</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D18" s="13">
         <f t="shared" si="2"/>
         <v>6264883</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E18" s="14">
         <v>985</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14">
         <v>1663451</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H18" s="14">
         <v>414407</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I18" s="14">
         <v>2426</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14">
+      <c r="J18" s="14"/>
+      <c r="K18" s="14">
         <v>16310</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L18" s="14">
         <v>24140</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M18" s="14">
         <v>11320</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N18" s="14">
         <v>2037641</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O18" s="14">
         <v>2094203</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="15">
+    <row r="19" spans="2:15">
+      <c r="B19" s="15">
         <v>2024</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D19" s="17">
         <f t="shared" si="2"/>
         <v>5606595</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E19" s="18">
         <v>703</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18">
+      <c r="F19" s="18"/>
+      <c r="G19" s="18">
         <v>1479121</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H19" s="18">
         <v>395860</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I19" s="18">
         <v>2323</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18">
+      <c r="J19" s="18"/>
+      <c r="K19" s="18">
         <v>11161</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L19" s="18">
         <v>17287</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M19" s="18">
         <v>11349</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N19" s="18">
         <v>1772299</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O19" s="18">
         <v>1916492</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="19">
+    <row r="20" spans="2:15">
+      <c r="B20" s="19">
         <v>2024</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C20" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D20" s="21">
         <f t="shared" si="2"/>
         <v>6274620</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E20" s="22">
         <v>1102</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22">
+      <c r="F20" s="22"/>
+      <c r="G20" s="22">
         <v>1481216</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H20" s="22">
         <v>490118</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I20" s="22">
         <v>2332</v>
       </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22">
+      <c r="J20" s="22"/>
+      <c r="K20" s="22">
         <v>14046</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L20" s="22">
         <v>12504</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M20" s="22">
         <v>12424</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N20" s="22">
         <v>2028846</v>
       </c>
-      <c r="O19" s="22">
+      <c r="O20" s="22">
         <v>2232032</v>
       </c>
     </row>
-    <row r="20" spans="2:15" hidden="1">
-      <c r="B20" s="23">
+    <row r="21" spans="2:15" hidden="1">
+      <c r="B21" s="23">
         <v>2023</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D21" s="25">
         <f t="shared" si="2"/>
         <v>6943699</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E21" s="26">
         <v>1263</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26">
+      <c r="F21" s="26"/>
+      <c r="G21" s="26">
         <v>1661066</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H21" s="26">
         <v>520344</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I21" s="26">
         <v>2164</v>
       </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26">
+      <c r="J21" s="26"/>
+      <c r="K21" s="26">
         <v>23295</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L21" s="26">
         <v>1620</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M21" s="26">
         <v>19717</v>
       </c>
-      <c r="N20" s="26">
+      <c r="N21" s="26">
         <v>2180392</v>
       </c>
-      <c r="O20" s="26">
+      <c r="O21" s="26">
         <v>2533838</v>
       </c>
     </row>
-    <row r="21" spans="2:15" hidden="1">
-      <c r="B21" s="11">
+    <row r="22" spans="2:15" hidden="1">
+      <c r="B22" s="11">
         <v>2023</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D22" s="13">
         <f t="shared" si="2"/>
         <v>6524452</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E22" s="14">
         <v>817</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14">
+      <c r="F22" s="14"/>
+      <c r="G22" s="14">
         <v>1518614</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H22" s="14">
         <v>487651</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I22" s="14">
         <v>1815</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14">
+      <c r="J22" s="14"/>
+      <c r="K22" s="14">
         <v>23109</v>
       </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14">
+      <c r="L22" s="14"/>
+      <c r="M22" s="14">
         <v>18006</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N22" s="14">
         <v>2055956</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O22" s="14">
         <v>2418484</v>
       </c>
     </row>
-    <row r="22" spans="2:15" hidden="1">
-      <c r="B22" s="15">
+    <row r="23" spans="2:15" hidden="1">
+      <c r="B23" s="15">
         <v>2023</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D23" s="17">
         <f t="shared" si="2"/>
         <v>6666523</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E23" s="18">
         <v>745</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18">
+      <c r="F23" s="18"/>
+      <c r="G23" s="18">
         <v>1534357</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H23" s="18">
         <v>502142</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I23" s="18">
         <v>1593</v>
       </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18">
+      <c r="J23" s="18"/>
+      <c r="K23" s="18">
         <v>27175</v>
       </c>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18">
+      <c r="L23" s="18"/>
+      <c r="M23" s="18">
         <v>15799</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N23" s="18">
         <v>2142423</v>
       </c>
-      <c r="O22" s="18">
+      <c r="O23" s="18">
         <v>2442289</v>
       </c>
     </row>
-    <row r="23" spans="2:15" hidden="1">
-      <c r="B23" s="11">
+    <row r="24" spans="2:15" hidden="1">
+      <c r="B24" s="11">
         <v>2023</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D24" s="13">
         <f t="shared" si="2"/>
         <v>6234323</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E24" s="14">
         <v>136</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14">
+      <c r="F24" s="14"/>
+      <c r="G24" s="14">
         <v>1449933</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H24" s="14">
         <v>489367</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I24" s="14">
         <v>1718</v>
       </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14">
+      <c r="J24" s="14"/>
+      <c r="K24" s="14">
         <v>20794</v>
       </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14">
+      <c r="L24" s="14"/>
+      <c r="M24" s="14">
         <v>13440</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N24" s="14">
         <v>1975887</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O24" s="14">
         <v>2283048</v>
       </c>
     </row>
-    <row r="24" spans="2:15" hidden="1">
-      <c r="B24" s="15">
+    <row r="25" spans="2:15" hidden="1">
+      <c r="B25" s="15">
         <v>2023</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D25" s="17">
         <f t="shared" si="2"/>
         <v>7366586</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E25" s="18">
         <v>711</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18">
+      <c r="F25" s="18"/>
+      <c r="G25" s="18">
         <v>1790842</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H25" s="18">
         <v>509073</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I25" s="18">
         <v>1858</v>
       </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18">
+      <c r="J25" s="18"/>
+      <c r="K25" s="18">
         <v>33617</v>
       </c>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18">
+      <c r="L25" s="18"/>
+      <c r="M25" s="18">
         <v>17102</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N25" s="18">
         <v>2222143</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O25" s="18">
         <v>2791240</v>
       </c>
     </row>
-    <row r="25" spans="2:15" hidden="1">
-      <c r="B25" s="11">
+    <row r="26" spans="2:15" hidden="1">
+      <c r="B26" s="11">
         <v>2023</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D26" s="13">
         <f t="shared" si="2"/>
         <v>7470779</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E26" s="14">
         <v>7815</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14">
+      <c r="F26" s="14"/>
+      <c r="G26" s="14">
         <v>1877785</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H26" s="14">
         <v>489520</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I26" s="14">
         <v>1593</v>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14">
+      <c r="J26" s="14"/>
+      <c r="K26" s="14">
         <v>38495</v>
       </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14">
+      <c r="L26" s="14"/>
+      <c r="M26" s="14">
         <v>16965</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N26" s="14">
         <v>2256958</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O26" s="14">
         <v>2781648</v>
       </c>
     </row>
-    <row r="26" spans="2:15" hidden="1">
-      <c r="B26" s="15">
+    <row r="27" spans="2:15" hidden="1">
+      <c r="B27" s="15">
         <v>2023</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D27" s="17">
         <f t="shared" si="2"/>
         <v>6481356</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E27" s="18">
         <v>8579</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18">
+      <c r="F27" s="18"/>
+      <c r="G27" s="18">
         <v>1623869</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H27" s="18">
         <v>444461</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I27" s="18">
         <v>930</v>
       </c>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18">
+      <c r="J27" s="18"/>
+      <c r="K27" s="18">
         <v>26027</v>
       </c>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18">
+      <c r="L27" s="18"/>
+      <c r="M27" s="18">
         <v>16972</v>
       </c>
-      <c r="N26" s="18">
+      <c r="N27" s="18">
         <v>1939577</v>
       </c>
-      <c r="O26" s="18">
+      <c r="O27" s="18">
         <v>2420941</v>
       </c>
     </row>
-    <row r="27" spans="2:15" hidden="1">
-      <c r="B27" s="11">
+    <row r="28" spans="2:15" hidden="1">
+      <c r="B28" s="11">
         <v>2023</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D28" s="13">
         <f t="shared" si="2"/>
         <v>6466836</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E28" s="14">
         <v>10045</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14">
+      <c r="F28" s="14"/>
+      <c r="G28" s="14">
         <v>1475419</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H28" s="14">
         <v>493646</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I28" s="14">
         <v>866</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14">
+      <c r="J28" s="14"/>
+      <c r="K28" s="14">
         <v>22311</v>
       </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14">
+      <c r="L28" s="14"/>
+      <c r="M28" s="14">
         <v>22530</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N28" s="14">
         <v>1903714</v>
       </c>
-      <c r="O27" s="14">
+      <c r="O28" s="14">
         <v>2538305</v>
       </c>
     </row>
-    <row r="28" spans="2:15" hidden="1">
-      <c r="B28" s="15">
+    <row r="29" spans="2:15" hidden="1">
+      <c r="B29" s="15">
         <v>2023</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C29" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D29" s="17">
         <f t="shared" si="2"/>
         <v>6505979</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E29" s="18">
         <v>7610</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18">
+      <c r="F29" s="18"/>
+      <c r="G29" s="18">
         <v>1447508</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H29" s="18">
         <v>495864</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I29" s="18">
         <v>73</v>
       </c>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18">
+      <c r="J29" s="18"/>
+      <c r="K29" s="18">
         <v>22224</v>
       </c>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18">
+      <c r="L29" s="18"/>
+      <c r="M29" s="18">
         <v>23384</v>
       </c>
-      <c r="N28" s="18">
+      <c r="N29" s="18">
         <v>1903503</v>
       </c>
-      <c r="O28" s="18">
+      <c r="O29" s="18">
         <v>2605813</v>
       </c>
     </row>
-    <row r="29" spans="2:15" hidden="1">
-      <c r="B29" s="11">
+    <row r="30" spans="2:15" hidden="1">
+      <c r="B30" s="11">
         <v>2023</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D30" s="13">
         <f t="shared" si="2"/>
         <v>6389909</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E30" s="14">
         <v>4538</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14">
+      <c r="F30" s="14"/>
+      <c r="G30" s="14">
         <v>1502404</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H30" s="14">
         <v>516526</v>
       </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14">
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14">
         <v>15589</v>
       </c>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14">
+      <c r="L30" s="14"/>
+      <c r="M30" s="14">
         <v>23229</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N30" s="14">
         <v>1776763</v>
       </c>
-      <c r="O29" s="14">
+      <c r="O30" s="14">
         <v>2550860</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1">
-      <c r="B30" s="15">
+    <row r="31" spans="2:15" hidden="1">
+      <c r="B31" s="15">
         <v>2023</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C31" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D31" s="17">
         <f t="shared" si="2"/>
         <v>5478771</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E31" s="18">
         <v>9031</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F31" s="18">
         <v>9443</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G31" s="18">
         <v>1277871</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H31" s="18">
         <v>459155</v>
       </c>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18">
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18">
         <v>11992</v>
       </c>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18">
+      <c r="L31" s="18"/>
+      <c r="M31" s="18">
         <v>19704</v>
       </c>
-      <c r="N30" s="18">
+      <c r="N31" s="18">
         <v>1431046</v>
       </c>
-      <c r="O30" s="18">
+      <c r="O31" s="18">
         <v>2260529</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1">
-      <c r="B31" s="19">
+    <row r="32" spans="2:15" hidden="1">
+      <c r="B32" s="19">
         <v>2023</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C32" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D32" s="21">
         <f t="shared" si="2"/>
         <v>6248337</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E32" s="22">
         <v>9895</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F32" s="22">
         <v>23595</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G32" s="22">
         <v>1439058</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H32" s="22">
         <v>503079</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22">
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22">
         <v>15438</v>
       </c>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22">
+      <c r="L32" s="22"/>
+      <c r="M32" s="22">
         <v>23680</v>
       </c>
-      <c r="N31" s="22">
+      <c r="N32" s="22">
         <v>1650780</v>
       </c>
-      <c r="O31" s="22">
+      <c r="O32" s="22">
         <v>2582812</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1">
-      <c r="B32" s="23">
+    <row r="33" spans="2:15" hidden="1">
+      <c r="B33" s="23">
         <v>2022</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C33" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D33" s="25">
         <f t="shared" si="2"/>
         <v>6735243</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E33" s="26">
         <v>8855</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F33" s="26">
         <v>30082</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G33" s="26">
         <v>1541064</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H33" s="26">
         <v>545257</v>
       </c>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26">
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26">
         <v>31832</v>
       </c>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26">
+      <c r="L33" s="26"/>
+      <c r="M33" s="26">
         <v>32706</v>
       </c>
-      <c r="N32" s="26">
+      <c r="N33" s="26">
         <v>1885616</v>
       </c>
-      <c r="O32" s="26">
+      <c r="O33" s="26">
         <v>2659831</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1">
-      <c r="B33" s="11">
+    <row r="34" spans="2:15" hidden="1">
+      <c r="B34" s="11">
         <v>2022</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D34" s="13">
         <f t="shared" si="2"/>
         <v>6388091</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E34" s="14">
         <v>10809</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F34" s="14">
         <v>29180</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G34" s="14">
         <v>1477832</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H34" s="14">
         <v>542019</v>
       </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14">
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14">
         <v>26190</v>
       </c>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14">
+      <c r="L34" s="14"/>
+      <c r="M34" s="14">
         <v>25324</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N34" s="14">
         <v>1806360</v>
       </c>
-      <c r="O33" s="14">
+      <c r="O34" s="14">
         <v>2470377</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1">
-      <c r="B34" s="15">
+    <row r="35" spans="2:15" hidden="1">
+      <c r="B35" s="15">
         <v>2022</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C35" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D35" s="17">
         <f t="shared" si="2"/>
         <v>6296390</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E35" s="18">
         <v>11560</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F35" s="18">
         <v>29156</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G35" s="18">
         <v>1436769</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H35" s="18">
         <v>525145</v>
       </c>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18">
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18">
         <v>25003</v>
       </c>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18">
+      <c r="L35" s="18"/>
+      <c r="M35" s="18">
         <v>26165</v>
       </c>
-      <c r="N34" s="18">
+      <c r="N35" s="18">
         <v>1730130</v>
       </c>
-      <c r="O34" s="18">
+      <c r="O35" s="18">
         <v>2512462</v>
       </c>
     </row>
-    <row r="35" spans="2:15" hidden="1">
-      <c r="B35" s="11">
+    <row r="36" spans="2:15" hidden="1">
+      <c r="B36" s="11">
         <v>2022</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D36" s="13">
         <f t="shared" si="2"/>
         <v>5717570</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E36" s="14">
         <v>8563</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F36" s="14">
         <v>27782</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G36" s="14">
         <v>1324735</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H36" s="14">
         <v>461328</v>
       </c>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14">
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14">
         <v>24539</v>
       </c>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14">
+      <c r="L36" s="14"/>
+      <c r="M36" s="14">
         <v>23409</v>
       </c>
-      <c r="N35" s="14">
+      <c r="N36" s="14">
         <v>1533686</v>
       </c>
-      <c r="O35" s="14">
+      <c r="O36" s="14">
         <v>2313528</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1">
-      <c r="B36" s="15">
+    <row r="37" spans="2:15" hidden="1">
+      <c r="B37" s="15">
         <v>2022</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C37" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D37" s="17">
         <f t="shared" si="2"/>
         <v>6395624</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E37" s="18">
         <v>12206</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F37" s="18">
         <v>36300</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G37" s="18">
         <v>1459848</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H37" s="18">
         <v>550210</v>
       </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18">
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18">
         <v>41574</v>
       </c>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18">
+      <c r="L37" s="18"/>
+      <c r="M37" s="18">
         <v>28457</v>
       </c>
-      <c r="N36" s="18">
+      <c r="N37" s="18">
         <v>1770150</v>
       </c>
-      <c r="O36" s="18">
+      <c r="O37" s="18">
         <v>2496879</v>
       </c>
     </row>
-    <row r="37" spans="2:15" hidden="1">
-      <c r="B37" s="11">
+    <row r="38" spans="2:15" hidden="1">
+      <c r="B38" s="11">
         <v>2022</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D38" s="13">
         <f t="shared" si="2"/>
         <v>6606709</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E38" s="14">
         <v>12900</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F38" s="14">
         <v>37410</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G38" s="14">
         <v>1493132</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H38" s="14">
         <v>544988</v>
       </c>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14">
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14">
         <v>52783</v>
       </c>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14">
+      <c r="L38" s="14"/>
+      <c r="M38" s="14">
         <v>35829</v>
       </c>
-      <c r="N37" s="14">
+      <c r="N38" s="14">
         <v>1832173</v>
       </c>
-      <c r="O37" s="14">
+      <c r="O38" s="14">
         <v>2597494</v>
       </c>
     </row>
-    <row r="38" spans="2:15" hidden="1">
-      <c r="B38" s="15">
+    <row r="39" spans="2:15" hidden="1">
+      <c r="B39" s="15">
         <v>2022</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C39" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D39" s="17">
         <f t="shared" si="2"/>
         <v>5816384</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E39" s="18">
         <v>11528</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F39" s="18">
         <v>29894</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G39" s="18">
         <v>1448616</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H39" s="18">
         <v>482837</v>
       </c>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18">
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18">
         <v>38612</v>
       </c>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18">
+      <c r="L39" s="18"/>
+      <c r="M39" s="18">
         <v>31692</v>
       </c>
-      <c r="N38" s="18">
+      <c r="N39" s="18">
         <v>1629719</v>
       </c>
-      <c r="O38" s="18">
+      <c r="O39" s="18">
         <v>2143486</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1">
-      <c r="B39" s="11">
+    <row r="40" spans="2:15" hidden="1">
+      <c r="B40" s="11">
         <v>2022</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D40" s="13">
         <f t="shared" si="2"/>
         <v>5938227</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E40" s="14">
         <v>14051</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F40" s="14">
         <v>34530</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G40" s="14">
         <v>1394194</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H40" s="14">
         <v>469001</v>
       </c>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14">
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14">
         <v>36048</v>
       </c>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14">
+      <c r="L40" s="14"/>
+      <c r="M40" s="14">
         <v>32934</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N40" s="14">
         <v>1638787</v>
       </c>
-      <c r="O39" s="14">
+      <c r="O40" s="14">
         <v>2318682</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1">
-      <c r="B40" s="15">
+    <row r="41" spans="2:15" hidden="1">
+      <c r="B41" s="15">
         <v>2022</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C41" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D41" s="17">
         <f t="shared" si="2"/>
         <v>5762121</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E41" s="18">
         <v>12580</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F41" s="18">
         <v>39403</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G41" s="18">
         <v>1248745</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H41" s="18">
         <v>447104</v>
       </c>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18">
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18">
         <v>30427</v>
       </c>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18">
+      <c r="L41" s="18"/>
+      <c r="M41" s="18">
         <v>31976</v>
       </c>
-      <c r="N40" s="18">
+      <c r="N41" s="18">
         <v>1571982</v>
       </c>
-      <c r="O40" s="18">
+      <c r="O41" s="18">
         <v>2379904</v>
       </c>
     </row>
-    <row r="41" spans="2:15" hidden="1">
-      <c r="B41" s="11">
+    <row r="42" spans="2:15" hidden="1">
+      <c r="B42" s="11">
         <v>2022</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C42" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D42" s="13">
         <f t="shared" si="2"/>
         <v>5450271</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E42" s="14">
         <v>13206</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F42" s="14">
         <v>32413</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G42" s="14">
         <v>1137873</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H42" s="14">
         <v>485288</v>
       </c>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14">
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14">
         <v>20444</v>
       </c>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14">
+      <c r="L42" s="14"/>
+      <c r="M42" s="14">
         <v>30333</v>
       </c>
-      <c r="N41" s="14">
+      <c r="N42" s="14">
         <v>1443642</v>
       </c>
-      <c r="O41" s="14">
+      <c r="O42" s="14">
         <v>2287072</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1">
-      <c r="B42" s="15">
+    <row r="43" spans="2:15" hidden="1">
+      <c r="B43" s="15">
         <v>2022</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C43" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D43" s="17">
         <f t="shared" si="2"/>
         <v>4335053</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E43" s="18">
         <v>10775</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F43" s="18">
         <v>26979</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G43" s="18">
         <v>817221</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H43" s="18">
         <v>400280</v>
       </c>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18">
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18">
         <v>14632</v>
       </c>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18">
+      <c r="L43" s="18"/>
+      <c r="M43" s="18">
         <v>22836</v>
       </c>
-      <c r="N42" s="18">
+      <c r="N43" s="18">
         <v>1113977</v>
       </c>
-      <c r="O42" s="18">
+      <c r="O43" s="18">
         <v>1928353</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1">
-      <c r="B43" s="19">
+    <row r="44" spans="2:15" hidden="1">
+      <c r="B44" s="19">
         <v>2022</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C44" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D44" s="21">
         <f t="shared" si="2"/>
         <v>4754587</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E44" s="22">
         <v>10351</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F44" s="22">
         <v>35019</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G44" s="22">
         <v>851918</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H44" s="22">
         <v>400866</v>
       </c>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22">
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22">
         <v>19731</v>
       </c>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22">
+      <c r="L44" s="22"/>
+      <c r="M44" s="22">
         <v>22335</v>
       </c>
-      <c r="N43" s="22">
+      <c r="N44" s="22">
         <v>1322859</v>
       </c>
-      <c r="O43" s="22">
+      <c r="O44" s="22">
         <v>2091508</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1">
-      <c r="B44" s="23">
+    <row r="45" spans="2:15" hidden="1">
+      <c r="B45" s="23">
         <v>2021</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C45" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D45" s="25">
         <f t="shared" si="2"/>
         <v>5788606</v>
       </c>
-      <c r="E44" s="26">
+      <c r="E45" s="26">
         <v>12597</v>
       </c>
-      <c r="F44" s="26">
+      <c r="F45" s="26">
         <v>48986</v>
       </c>
-      <c r="G44" s="26">
+      <c r="G45" s="26">
         <v>1194196</v>
       </c>
-      <c r="H44" s="26">
+      <c r="H45" s="26">
         <v>531737</v>
       </c>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26">
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26">
         <v>41564</v>
       </c>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26">
+      <c r="L45" s="26"/>
+      <c r="M45" s="26">
         <v>32426</v>
       </c>
-      <c r="N44" s="26">
+      <c r="N45" s="26">
         <v>1542449</v>
       </c>
-      <c r="O44" s="26">
+      <c r="O45" s="26">
         <v>2384651</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1">
-      <c r="B45" s="11">
+    <row r="46" spans="2:15" hidden="1">
+      <c r="B46" s="11">
         <v>2021</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C46" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D46" s="13">
         <f t="shared" si="2"/>
         <v>5289729</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E46" s="14">
         <v>11837</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F46" s="14">
         <v>46757</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G46" s="14">
         <v>1056753</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H46" s="14">
         <v>485468</v>
       </c>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14">
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14">
         <v>32507</v>
       </c>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14">
+      <c r="L46" s="14"/>
+      <c r="M46" s="14">
         <v>29832</v>
       </c>
-      <c r="N45" s="14">
+      <c r="N46" s="14">
         <v>1406500</v>
       </c>
-      <c r="O45" s="14">
+      <c r="O46" s="14">
         <v>2220075</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1">
-      <c r="B46" s="15">
+    <row r="47" spans="2:15" hidden="1">
+      <c r="B47" s="15">
         <v>2021</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C47" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D47" s="17">
         <f t="shared" si="2"/>
         <v>5118685</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E47" s="18">
         <v>14115</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F47" s="18">
         <v>45703</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G47" s="18">
         <v>1034177</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H47" s="18">
         <v>510398</v>
       </c>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18">
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18">
         <v>28313</v>
       </c>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18">
+      <c r="L47" s="18"/>
+      <c r="M47" s="18">
         <v>31649</v>
       </c>
-      <c r="N46" s="18">
+      <c r="N47" s="18">
         <v>1355918</v>
       </c>
-      <c r="O46" s="18">
+      <c r="O47" s="18">
         <v>2098412</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1">
-      <c r="B47" s="11">
+    <row r="48" spans="2:15" hidden="1">
+      <c r="B48" s="11">
         <v>2021</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="13">
-        <f t="shared" ref="D47:D78" si="3">SUM(E47:O47)</f>
+      <c r="D48" s="13">
+        <f t="shared" ref="D48:D79" si="3">SUM(E48:O48)</f>
         <v>4470649</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E48" s="14">
         <v>12872</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F48" s="14">
         <v>42716</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G48" s="14">
         <v>893242</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H48" s="14">
         <v>444101</v>
       </c>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14">
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14">
         <v>24490</v>
       </c>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14">
+      <c r="L48" s="14"/>
+      <c r="M48" s="14">
         <v>25901</v>
       </c>
-      <c r="N47" s="14">
+      <c r="N48" s="14">
         <v>1153271</v>
       </c>
-      <c r="O47" s="14">
+      <c r="O48" s="14">
         <v>1874056</v>
       </c>
     </row>
-    <row r="48" spans="2:15" hidden="1">
-      <c r="B48" s="15">
+    <row r="49" spans="2:15" hidden="1">
+      <c r="B49" s="15">
         <v>2021</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C49" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D49" s="17">
         <f t="shared" si="3"/>
         <v>5008604</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E49" s="18">
         <v>12792</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F49" s="18">
         <v>47119</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G49" s="18">
         <v>993427</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H49" s="18">
         <v>524484</v>
       </c>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18">
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18">
         <v>35479</v>
       </c>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18">
+      <c r="L49" s="18"/>
+      <c r="M49" s="18">
         <v>26034</v>
       </c>
-      <c r="N48" s="18">
+      <c r="N49" s="18">
         <v>1305965</v>
       </c>
-      <c r="O48" s="18">
+      <c r="O49" s="18">
         <v>2063304</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1">
-      <c r="B49" s="11">
+    <row r="50" spans="2:15" hidden="1">
+      <c r="B50" s="11">
         <v>2021</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C50" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D50" s="13">
         <f t="shared" si="3"/>
         <v>5456169</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E50" s="14">
         <v>15216</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F50" s="14">
         <v>53005</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G50" s="14">
         <v>1058956</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H50" s="14">
         <v>590598</v>
       </c>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14">
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14">
         <v>64029</v>
       </c>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14">
+      <c r="L50" s="14"/>
+      <c r="M50" s="14">
         <v>30912</v>
       </c>
-      <c r="N49" s="14">
+      <c r="N50" s="14">
         <v>1503552</v>
       </c>
-      <c r="O49" s="14">
+      <c r="O50" s="14">
         <v>2139901</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1">
-      <c r="B50" s="15">
+    <row r="51" spans="2:15" hidden="1">
+      <c r="B51" s="15">
         <v>2021</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C51" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D51" s="17">
         <f t="shared" si="3"/>
         <v>4784013</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E51" s="18">
         <v>15389</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F51" s="18">
         <v>43733</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G51" s="18">
         <v>853708</v>
       </c>
-      <c r="H50" s="18">
+      <c r="H51" s="18">
         <v>536816</v>
       </c>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18">
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18">
         <v>54554</v>
       </c>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18">
+      <c r="L51" s="18"/>
+      <c r="M51" s="18">
         <v>23167</v>
       </c>
-      <c r="N50" s="18">
+      <c r="N51" s="18">
         <v>1288126</v>
       </c>
-      <c r="O50" s="18">
+      <c r="O51" s="18">
         <v>1968520</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1">
-      <c r="B51" s="11">
+    <row r="52" spans="2:15" hidden="1">
+      <c r="B52" s="11">
         <v>2021</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D52" s="13">
         <f t="shared" si="3"/>
         <v>4739036</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E52" s="14">
         <v>16431</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F52" s="14">
         <v>40566</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G52" s="14">
         <v>804638</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H52" s="14">
         <v>535959</v>
       </c>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14">
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14">
         <v>45166</v>
       </c>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14">
+      <c r="L52" s="14"/>
+      <c r="M52" s="14">
         <v>20712</v>
       </c>
-      <c r="N51" s="14">
+      <c r="N52" s="14">
         <v>1283475</v>
       </c>
-      <c r="O51" s="14">
+      <c r="O52" s="14">
         <v>1992089</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1">
-      <c r="B52" s="15">
+    <row r="53" spans="2:15" hidden="1">
+      <c r="B53" s="15">
         <v>2021</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C53" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D53" s="17">
         <f t="shared" si="3"/>
         <v>4139956</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E53" s="18">
         <v>13432</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F53" s="18">
         <v>34786</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G53" s="18">
         <v>729359</v>
       </c>
-      <c r="H52" s="18">
+      <c r="H53" s="18">
         <v>459115</v>
       </c>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18">
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18">
         <v>37963</v>
       </c>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18">
+      <c r="L53" s="18"/>
+      <c r="M53" s="18">
         <v>19899</v>
       </c>
-      <c r="N52" s="18">
+      <c r="N53" s="18">
         <v>1098291</v>
       </c>
-      <c r="O52" s="18">
+      <c r="O53" s="18">
         <v>1747111</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1">
-      <c r="B53" s="11">
+    <row r="54" spans="2:15" hidden="1">
+      <c r="B54" s="11">
         <v>2021</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C54" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D54" s="13">
         <f t="shared" si="3"/>
         <v>3643233</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E54" s="14">
         <v>13443</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F54" s="14">
         <v>34472</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G54" s="14">
         <v>700282</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H54" s="14">
         <v>454696</v>
       </c>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14">
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14">
         <v>25539</v>
       </c>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14">
+      <c r="L54" s="14"/>
+      <c r="M54" s="14">
         <v>18739</v>
       </c>
-      <c r="N53" s="14">
+      <c r="N54" s="14">
         <v>1015276</v>
       </c>
-      <c r="O53" s="14">
+      <c r="O54" s="14">
         <v>1380786</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1">
-      <c r="B54" s="15">
+    <row r="55" spans="2:15" hidden="1">
+      <c r="B55" s="15">
         <v>2021</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C55" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D55" s="17">
         <f t="shared" si="3"/>
         <v>2522697</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E55" s="18">
         <v>8230</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F55" s="18">
         <v>21876</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G55" s="18">
         <v>521896</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H55" s="18">
         <v>365190</v>
       </c>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18">
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18">
         <v>13877</v>
       </c>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18">
+      <c r="L55" s="18"/>
+      <c r="M55" s="18">
         <v>12256</v>
       </c>
-      <c r="N54" s="18">
+      <c r="N55" s="18">
         <v>590075</v>
       </c>
-      <c r="O54" s="18">
+      <c r="O55" s="18">
         <v>989297</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1">
-      <c r="B55" s="19">
+    <row r="56" spans="2:15" hidden="1">
+      <c r="B56" s="19">
         <v>2021</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C56" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D56" s="21">
         <f t="shared" si="3"/>
         <v>3256499</v>
       </c>
-      <c r="E55" s="22">
+      <c r="E56" s="22">
         <v>7181</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F56" s="22">
         <v>25543</v>
       </c>
-      <c r="G55" s="22">
+      <c r="G56" s="22">
         <v>641860</v>
       </c>
-      <c r="H55" s="22">
+      <c r="H56" s="22">
         <v>438330</v>
       </c>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22">
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22">
         <v>19413</v>
       </c>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22">
+      <c r="L56" s="22"/>
+      <c r="M56" s="22">
         <v>13791</v>
       </c>
-      <c r="N55" s="22">
+      <c r="N56" s="22">
         <v>759842</v>
       </c>
-      <c r="O55" s="22">
+      <c r="O56" s="22">
         <v>1350539</v>
       </c>
     </row>
-    <row r="56" spans="2:15" hidden="1">
-      <c r="B56" s="23">
+    <row r="57" spans="2:15" hidden="1">
+      <c r="B57" s="23">
         <v>2020</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C57" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D56" s="25">
+      <c r="D57" s="25">
         <f t="shared" si="3"/>
         <v>3752676</v>
       </c>
-      <c r="E56" s="26">
+      <c r="E57" s="26">
         <v>6626</v>
       </c>
-      <c r="F56" s="26">
+      <c r="F57" s="26">
         <v>32040</v>
       </c>
-      <c r="G56" s="26">
+      <c r="G57" s="26">
         <v>610544</v>
       </c>
-      <c r="H56" s="26">
+      <c r="H57" s="26">
         <v>491905</v>
       </c>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26">
+      <c r="I57" s="26"/>
+      <c r="J57" s="26">
         <v>4039</v>
       </c>
-      <c r="K56" s="26">
+      <c r="K57" s="26">
         <v>45610</v>
       </c>
-      <c r="L56" s="26"/>
-      <c r="M56" s="26">
+      <c r="L57" s="26"/>
+      <c r="M57" s="26">
         <v>17383</v>
       </c>
-      <c r="N56" s="26">
+      <c r="N57" s="26">
         <v>998369</v>
       </c>
-      <c r="O56" s="26">
+      <c r="O57" s="26">
         <v>1546160</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1">
-      <c r="B57" s="11">
+    <row r="58" spans="2:15" hidden="1">
+      <c r="B58" s="11">
         <v>2020</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D58" s="13">
         <f t="shared" si="3"/>
         <v>3347186</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E58" s="14">
         <v>6583</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F58" s="14">
         <v>28629</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G58" s="14">
         <v>520221</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H58" s="14">
         <v>395967</v>
       </c>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14">
+      <c r="I58" s="14"/>
+      <c r="J58" s="14">
         <v>17545</v>
       </c>
-      <c r="K57" s="14">
+      <c r="K58" s="14">
         <v>37463</v>
       </c>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14">
+      <c r="L58" s="14"/>
+      <c r="M58" s="14">
         <v>14115</v>
       </c>
-      <c r="N57" s="14">
+      <c r="N58" s="14">
         <v>863224</v>
       </c>
-      <c r="O57" s="14">
+      <c r="O58" s="14">
         <v>1463439</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1">
-      <c r="B58" s="15">
+    <row r="59" spans="2:15" hidden="1">
+      <c r="B59" s="15">
         <v>2020</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C59" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D59" s="17">
         <f t="shared" si="3"/>
         <v>3072785</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E59" s="18">
         <v>5614</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F59" s="18">
         <v>27120</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G59" s="18">
         <v>463245</v>
       </c>
-      <c r="H58" s="18">
+      <c r="H59" s="18">
         <v>395686</v>
       </c>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18">
+      <c r="I59" s="18"/>
+      <c r="J59" s="18">
         <v>33425</v>
       </c>
-      <c r="K58" s="18">
+      <c r="K59" s="18">
         <v>29759</v>
       </c>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18">
+      <c r="L59" s="18"/>
+      <c r="M59" s="18">
         <v>14897</v>
       </c>
-      <c r="N58" s="18">
+      <c r="N59" s="18">
         <v>803614</v>
       </c>
-      <c r="O58" s="18">
+      <c r="O59" s="18">
         <v>1299425</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1">
-      <c r="B59" s="11">
+    <row r="60" spans="2:15" hidden="1">
+      <c r="B60" s="11">
         <v>2020</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C60" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D60" s="13">
         <f t="shared" si="3"/>
         <v>2614973</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E60" s="14">
         <v>4853</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F60" s="14">
         <v>21371</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G60" s="14">
         <v>371636</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H60" s="14">
         <v>325704</v>
       </c>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14">
+      <c r="I60" s="14"/>
+      <c r="J60" s="14">
         <v>41547</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K60" s="14">
         <v>30615</v>
       </c>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14">
+      <c r="L60" s="14"/>
+      <c r="M60" s="14">
         <v>11615</v>
       </c>
-      <c r="N59" s="14">
+      <c r="N60" s="14">
         <v>665331</v>
       </c>
-      <c r="O59" s="14">
+      <c r="O60" s="14">
         <v>1142301</v>
       </c>
     </row>
-    <row r="60" spans="2:15" hidden="1">
-      <c r="B60" s="15">
+    <row r="61" spans="2:15" hidden="1">
+      <c r="B61" s="15">
         <v>2020</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C61" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D61" s="17">
         <f t="shared" si="3"/>
         <v>2423904</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E61" s="18">
         <v>3748</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F61" s="18">
         <v>22617</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G61" s="18">
         <v>322580</v>
       </c>
-      <c r="H60" s="18">
+      <c r="H61" s="18">
         <v>310616</v>
       </c>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18">
+      <c r="I61" s="18"/>
+      <c r="J61" s="18">
         <v>38737</v>
       </c>
-      <c r="K60" s="18">
+      <c r="K61" s="18">
         <v>30641</v>
       </c>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18">
+      <c r="L61" s="18"/>
+      <c r="M61" s="18">
         <v>7400</v>
       </c>
-      <c r="N60" s="18">
+      <c r="N61" s="18">
         <v>586367</v>
       </c>
-      <c r="O60" s="18">
+      <c r="O61" s="18">
         <v>1101198</v>
       </c>
     </row>
-    <row r="61" spans="2:15" hidden="1">
-      <c r="B61" s="11">
+    <row r="62" spans="2:15" hidden="1">
+      <c r="B62" s="11">
         <v>2020</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C62" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D62" s="13">
         <f t="shared" si="3"/>
         <v>1910823</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E62" s="14">
         <v>3082</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F62" s="14">
         <v>18259</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G62" s="14">
         <v>251899</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H62" s="14">
         <v>254505</v>
       </c>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14">
+      <c r="I62" s="14"/>
+      <c r="J62" s="14">
         <v>38811</v>
       </c>
-      <c r="K61" s="14">
+      <c r="K62" s="14">
         <v>24630</v>
       </c>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14">
+      <c r="L62" s="14"/>
+      <c r="M62" s="14">
         <v>4178</v>
       </c>
-      <c r="N61" s="14">
+      <c r="N62" s="14">
         <v>418350</v>
       </c>
-      <c r="O61" s="14">
+      <c r="O62" s="14">
         <v>897109</v>
       </c>
     </row>
-    <row r="62" spans="2:15" hidden="1">
-      <c r="B62" s="15">
+    <row r="63" spans="2:15" hidden="1">
+      <c r="B63" s="15">
         <v>2020</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C63" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D63" s="17">
         <f t="shared" si="3"/>
         <v>996346</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E63" s="18">
         <v>1927</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F63" s="18">
         <v>9051</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G63" s="18">
         <v>140991</v>
       </c>
-      <c r="H62" s="18">
+      <c r="H63" s="18">
         <v>97306</v>
       </c>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18">
+      <c r="I63" s="18"/>
+      <c r="J63" s="18">
         <v>24942</v>
       </c>
-      <c r="K62" s="18">
+      <c r="K63" s="18">
         <v>5002</v>
       </c>
-      <c r="L62" s="18"/>
-      <c r="M62" s="18">
+      <c r="L63" s="18"/>
+      <c r="M63" s="18">
         <v>2168</v>
       </c>
-      <c r="N62" s="18">
+      <c r="N63" s="18">
         <v>201937</v>
       </c>
-      <c r="O62" s="18">
+      <c r="O63" s="18">
         <v>513022</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1">
-      <c r="B63" s="11">
+    <row r="64" spans="2:15" hidden="1">
+      <c r="B64" s="11">
         <v>2020</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C64" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D64" s="13">
         <f t="shared" si="3"/>
         <v>410766</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E64" s="14">
         <v>1324</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F64" s="14">
         <v>4688</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G64" s="14">
         <v>50801</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H64" s="14">
         <v>80478</v>
       </c>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14">
+      <c r="I64" s="14"/>
+      <c r="J64" s="14">
         <v>14835</v>
       </c>
-      <c r="K63" s="14">
+      <c r="K64" s="14">
         <v>0</v>
       </c>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14">
+      <c r="L64" s="14"/>
+      <c r="M64" s="14">
         <v>1040</v>
       </c>
-      <c r="N63" s="14">
+      <c r="N64" s="14">
         <v>90419</v>
       </c>
-      <c r="O63" s="14">
+      <c r="O64" s="14">
         <v>167181</v>
       </c>
     </row>
-    <row r="64" spans="2:15" hidden="1">
-      <c r="B64" s="15">
+    <row r="65" spans="2:15" hidden="1">
+      <c r="B65" s="15">
         <v>2020</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C65" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D65" s="17">
         <f t="shared" si="3"/>
         <v>449003</v>
       </c>
-      <c r="E64" s="18">
+      <c r="E65" s="18">
         <v>1164</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F65" s="18">
         <v>2668</v>
       </c>
-      <c r="G64" s="18">
+      <c r="G65" s="18">
         <v>60744</v>
       </c>
-      <c r="H64" s="18">
+      <c r="H65" s="18">
         <v>86523</v>
       </c>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18">
+      <c r="I65" s="18"/>
+      <c r="J65" s="18">
         <v>25068</v>
       </c>
-      <c r="K64" s="18">
+      <c r="K65" s="18">
         <v>705</v>
       </c>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18">
+      <c r="L65" s="18"/>
+      <c r="M65" s="18">
         <v>485</v>
       </c>
-      <c r="N64" s="18">
+      <c r="N65" s="18">
         <v>89915</v>
       </c>
-      <c r="O64" s="18">
+      <c r="O65" s="18">
         <v>181731</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1">
-      <c r="B65" s="11">
+    <row r="66" spans="2:15" hidden="1">
+      <c r="B66" s="11">
         <v>2020</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C66" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D66" s="13">
         <f t="shared" si="3"/>
         <v>3931644</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E66" s="14">
         <v>8791</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F66" s="14">
         <v>41673</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G66" s="14">
         <v>572018</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H66" s="14">
         <v>464064</v>
       </c>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14">
+      <c r="I66" s="14"/>
+      <c r="J66" s="14">
         <v>822187</v>
       </c>
-      <c r="K65" s="14">
+      <c r="K66" s="14">
         <v>23248</v>
       </c>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14">
+      <c r="L66" s="14"/>
+      <c r="M66" s="14">
         <v>26274</v>
       </c>
-      <c r="N65" s="14">
+      <c r="N66" s="14">
         <v>704638</v>
       </c>
-      <c r="O65" s="14">
+      <c r="O66" s="14">
         <v>1268751</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1">
-      <c r="B66" s="15">
+    <row r="67" spans="2:15" hidden="1">
+      <c r="B67" s="15">
         <v>2020</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C67" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D67" s="17">
         <f t="shared" si="3"/>
         <v>5315967</v>
       </c>
-      <c r="E66" s="18">
+      <c r="E67" s="18">
         <v>10857</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F67" s="18">
         <v>59357</v>
       </c>
-      <c r="G66" s="18">
+      <c r="G67" s="18">
         <v>846279</v>
       </c>
-      <c r="H66" s="18">
+      <c r="H67" s="18">
         <v>641873</v>
       </c>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18">
+      <c r="I67" s="18"/>
+      <c r="J67" s="18">
         <v>1178801</v>
       </c>
-      <c r="K66" s="18">
+      <c r="K67" s="18">
         <v>26652</v>
       </c>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18">
+      <c r="L67" s="18"/>
+      <c r="M67" s="18">
         <v>36382</v>
       </c>
-      <c r="N66" s="18">
+      <c r="N67" s="18">
         <v>881600</v>
       </c>
-      <c r="O66" s="18">
+      <c r="O67" s="18">
         <v>1634166</v>
       </c>
     </row>
-    <row r="67" spans="2:15" hidden="1">
-      <c r="B67" s="19">
+    <row r="68" spans="2:15" hidden="1">
+      <c r="B68" s="19">
         <v>2020</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C68" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D68" s="21">
         <f t="shared" si="3"/>
         <v>5907035</v>
       </c>
-      <c r="E67" s="22">
+      <c r="E68" s="22">
         <v>13840</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F68" s="22">
         <v>68044</v>
       </c>
-      <c r="G67" s="22">
+      <c r="G68" s="22">
         <v>961808</v>
       </c>
-      <c r="H67" s="22">
+      <c r="H68" s="22">
         <v>680707</v>
       </c>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22">
+      <c r="I68" s="22"/>
+      <c r="J68" s="22">
         <v>1315599</v>
       </c>
-      <c r="K67" s="22">
+      <c r="K68" s="22">
         <v>47575</v>
       </c>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22">
+      <c r="L68" s="22"/>
+      <c r="M68" s="22">
         <v>40620</v>
       </c>
-      <c r="N67" s="22">
+      <c r="N68" s="22">
         <v>980414</v>
       </c>
-      <c r="O67" s="22">
+      <c r="O68" s="22">
         <v>1798428</v>
       </c>
     </row>
-    <row r="68" spans="2:15" hidden="1">
-      <c r="B68" s="23">
+    <row r="69" spans="2:15" hidden="1">
+      <c r="B69" s="23">
         <v>2019</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C69" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D68" s="25">
+      <c r="D69" s="25">
         <f t="shared" si="3"/>
         <v>6305291</v>
       </c>
-      <c r="E68" s="26">
+      <c r="E69" s="26">
         <v>14577</v>
       </c>
-      <c r="F68" s="26">
+      <c r="F69" s="26">
         <v>79686</v>
       </c>
-      <c r="G68" s="26">
+      <c r="G69" s="26">
         <v>1001613</v>
       </c>
-      <c r="H68" s="26">
+      <c r="H69" s="26">
         <v>756331</v>
       </c>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26">
+      <c r="I69" s="26"/>
+      <c r="J69" s="26">
         <v>1419527</v>
       </c>
-      <c r="K68" s="26">
+      <c r="K69" s="26">
         <v>72539</v>
       </c>
-      <c r="L68" s="26"/>
-      <c r="M68" s="26">
+      <c r="L69" s="26"/>
+      <c r="M69" s="26">
         <v>45759</v>
       </c>
-      <c r="N68" s="26">
+      <c r="N69" s="26">
         <v>1083272</v>
       </c>
-      <c r="O68" s="26">
+      <c r="O69" s="26">
         <v>1831987</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1">
-      <c r="B69" s="11">
+    <row r="70" spans="2:15" hidden="1">
+      <c r="B70" s="11">
         <v>2019</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C70" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D70" s="13">
         <f t="shared" si="3"/>
         <v>5933699</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E70" s="14">
         <v>15593</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F70" s="14">
         <v>73513</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G70" s="14">
         <v>938515</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H70" s="14">
         <v>697055</v>
       </c>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14">
+      <c r="I70" s="14"/>
+      <c r="J70" s="14">
         <v>1349425</v>
       </c>
-      <c r="K69" s="14">
+      <c r="K70" s="14">
         <v>54165</v>
       </c>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14">
+      <c r="L70" s="14"/>
+      <c r="M70" s="14">
         <v>41740</v>
       </c>
-      <c r="N69" s="14">
+      <c r="N70" s="14">
         <v>1014931</v>
       </c>
-      <c r="O69" s="14">
+      <c r="O70" s="14">
         <v>1748762</v>
       </c>
     </row>
-    <row r="70" spans="2:15" hidden="1">
-      <c r="B70" s="15">
+    <row r="71" spans="2:15" hidden="1">
+      <c r="B71" s="15">
         <v>2019</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C71" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D71" s="17">
         <f t="shared" si="3"/>
         <v>5863191</v>
       </c>
-      <c r="E70" s="18">
+      <c r="E71" s="18">
         <v>19701</v>
       </c>
-      <c r="F70" s="18">
+      <c r="F71" s="18">
         <v>67349</v>
       </c>
-      <c r="G70" s="18">
+      <c r="G71" s="18">
         <v>957393</v>
       </c>
-      <c r="H70" s="18">
+      <c r="H71" s="18">
         <v>740956</v>
       </c>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18">
+      <c r="I71" s="18"/>
+      <c r="J71" s="18">
         <v>1232933</v>
       </c>
-      <c r="K70" s="18">
+      <c r="K71" s="18">
         <v>57392</v>
       </c>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18">
+      <c r="L71" s="18"/>
+      <c r="M71" s="18">
         <v>40850</v>
       </c>
-      <c r="N70" s="18">
+      <c r="N71" s="18">
         <v>1022260</v>
       </c>
-      <c r="O70" s="18">
+      <c r="O71" s="18">
         <v>1724357</v>
       </c>
     </row>
-    <row r="71" spans="2:15" hidden="1">
-      <c r="B71" s="11">
+    <row r="72" spans="2:15" hidden="1">
+      <c r="B72" s="11">
         <v>2019</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D72" s="13">
         <f t="shared" si="3"/>
         <v>5409755</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E72" s="14">
         <v>15863</v>
       </c>
-      <c r="F71" s="14">
+      <c r="F72" s="14">
         <v>61156</v>
       </c>
-      <c r="G71" s="14">
+      <c r="G72" s="14">
         <v>897733</v>
       </c>
-      <c r="H71" s="14">
+      <c r="H72" s="14">
         <v>677299</v>
       </c>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14">
+      <c r="I72" s="14"/>
+      <c r="J72" s="14">
         <v>1115654</v>
       </c>
-      <c r="K71" s="14">
+      <c r="K72" s="14">
         <v>61638</v>
       </c>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14">
+      <c r="L72" s="14"/>
+      <c r="M72" s="14">
         <v>42002</v>
       </c>
-      <c r="N71" s="14">
+      <c r="N72" s="14">
         <v>922290</v>
       </c>
-      <c r="O71" s="14">
+      <c r="O72" s="14">
         <v>1616120</v>
       </c>
     </row>
-    <row r="72" spans="2:15" hidden="1">
-      <c r="B72" s="15">
+    <row r="73" spans="2:15" hidden="1">
+      <c r="B73" s="15">
         <v>2019</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C73" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D73" s="17">
         <f t="shared" si="3"/>
         <v>6259657</v>
       </c>
-      <c r="E72" s="18">
+      <c r="E73" s="18">
         <v>22090</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F73" s="18">
         <v>68824</v>
       </c>
-      <c r="G72" s="18">
+      <c r="G73" s="18">
         <v>1001754</v>
       </c>
-      <c r="H72" s="18">
+      <c r="H73" s="18">
         <v>777867</v>
       </c>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18">
+      <c r="I73" s="18"/>
+      <c r="J73" s="18">
         <v>1395254</v>
       </c>
-      <c r="K72" s="18">
+      <c r="K73" s="18">
         <v>88036</v>
       </c>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18">
+      <c r="L73" s="18"/>
+      <c r="M73" s="18">
         <v>47511</v>
       </c>
-      <c r="N72" s="18">
+      <c r="N73" s="18">
         <v>1112562</v>
       </c>
-      <c r="O72" s="18">
+      <c r="O73" s="18">
         <v>1745759</v>
       </c>
     </row>
-    <row r="73" spans="2:15" hidden="1">
-      <c r="B73" s="11">
+    <row r="74" spans="2:15" hidden="1">
+      <c r="B74" s="11">
         <v>2019</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C74" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D74" s="13">
         <f t="shared" si="3"/>
         <v>6643948</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E74" s="14">
         <v>24398</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F74" s="14">
         <v>75738</v>
       </c>
-      <c r="G73" s="14">
+      <c r="G74" s="14">
         <v>1056905</v>
       </c>
-      <c r="H73" s="14">
+      <c r="H74" s="14">
         <v>847525</v>
       </c>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14">
+      <c r="I74" s="14"/>
+      <c r="J74" s="14">
         <v>1440396</v>
       </c>
-      <c r="K73" s="14">
+      <c r="K74" s="14">
         <v>112757</v>
       </c>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14">
+      <c r="L74" s="14"/>
+      <c r="M74" s="14">
         <v>53404</v>
       </c>
-      <c r="N73" s="14">
+      <c r="N74" s="14">
         <v>1151999</v>
       </c>
-      <c r="O73" s="14">
+      <c r="O74" s="14">
         <v>1880826</v>
       </c>
     </row>
-    <row r="74" spans="2:15" hidden="1">
-      <c r="B74" s="15">
+    <row r="75" spans="2:15" hidden="1">
+      <c r="B75" s="15">
         <v>2019</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C75" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="17">
+      <c r="D75" s="17">
         <f t="shared" si="3"/>
         <v>6003625</v>
       </c>
-      <c r="E74" s="18">
+      <c r="E75" s="18">
         <v>24034</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F75" s="18">
         <v>65120</v>
       </c>
-      <c r="G74" s="18">
+      <c r="G75" s="18">
         <v>968584</v>
       </c>
-      <c r="H74" s="18">
+      <c r="H75" s="18">
         <v>772914</v>
       </c>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18">
+      <c r="I75" s="18"/>
+      <c r="J75" s="18">
         <v>1315938</v>
       </c>
-      <c r="K74" s="18">
+      <c r="K75" s="18">
         <v>90790</v>
       </c>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18">
+      <c r="L75" s="18"/>
+      <c r="M75" s="18">
         <v>47162</v>
       </c>
-      <c r="N74" s="18">
+      <c r="N75" s="18">
         <v>974523</v>
       </c>
-      <c r="O74" s="18">
+      <c r="O75" s="18">
         <v>1744560</v>
       </c>
     </row>
-    <row r="75" spans="2:15" hidden="1">
-      <c r="B75" s="11">
+    <row r="76" spans="2:15" hidden="1">
+      <c r="B76" s="11">
         <v>2019</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D76" s="13">
         <f t="shared" si="3"/>
         <v>6066733</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E76" s="14">
         <v>24578</v>
       </c>
-      <c r="F75" s="14">
+      <c r="F76" s="14">
         <v>61163</v>
       </c>
-      <c r="G75" s="14">
+      <c r="G76" s="14">
         <v>976676</v>
       </c>
-      <c r="H75" s="14">
+      <c r="H76" s="14">
         <v>788262</v>
       </c>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14">
+      <c r="I76" s="14"/>
+      <c r="J76" s="14">
         <v>1373059</v>
       </c>
-      <c r="K75" s="14">
+      <c r="K76" s="14">
         <v>74030</v>
       </c>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14">
+      <c r="L76" s="14"/>
+      <c r="M76" s="14">
         <v>51746</v>
       </c>
-      <c r="N75" s="14">
+      <c r="N76" s="14">
         <v>931984</v>
       </c>
-      <c r="O75" s="14">
+      <c r="O76" s="14">
         <v>1785235</v>
       </c>
     </row>
-    <row r="76" spans="2:15" hidden="1">
-      <c r="B76" s="15">
+    <row r="77" spans="2:15" hidden="1">
+      <c r="B77" s="15">
         <v>2019</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C77" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="17">
+      <c r="D77" s="17">
         <f t="shared" si="3"/>
         <v>5766967</v>
       </c>
-      <c r="E76" s="18">
+      <c r="E77" s="18">
         <v>26137</v>
       </c>
-      <c r="F76" s="18">
+      <c r="F77" s="18">
         <v>63912</v>
       </c>
-      <c r="G76" s="18">
+      <c r="G77" s="18">
         <v>935481</v>
       </c>
-      <c r="H76" s="18">
+      <c r="H77" s="18">
         <v>737722</v>
       </c>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18">
+      <c r="I77" s="18"/>
+      <c r="J77" s="18">
         <v>1282012</v>
       </c>
-      <c r="K76" s="18">
+      <c r="K77" s="18">
         <v>54469</v>
       </c>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18">
+      <c r="L77" s="18"/>
+      <c r="M77" s="18">
         <v>50399</v>
       </c>
-      <c r="N76" s="18">
+      <c r="N77" s="18">
         <v>893208</v>
       </c>
-      <c r="O76" s="18">
+      <c r="O77" s="18">
         <v>1723627</v>
       </c>
     </row>
-    <row r="77" spans="2:15" hidden="1">
-      <c r="B77" s="11">
+    <row r="78" spans="2:15" hidden="1">
+      <c r="B78" s="11">
         <v>2019</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C78" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D78" s="13">
         <f t="shared" si="3"/>
         <v>5617314</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E78" s="14">
         <v>24631</v>
       </c>
-      <c r="F77" s="14">
+      <c r="F78" s="14">
         <v>66177</v>
       </c>
-      <c r="G77" s="14">
+      <c r="G78" s="14">
         <v>991931</v>
       </c>
-      <c r="H77" s="14">
+      <c r="H78" s="14">
         <v>774790</v>
       </c>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14">
+      <c r="I78" s="14"/>
+      <c r="J78" s="14">
         <v>1245949</v>
       </c>
-      <c r="K77" s="14">
+      <c r="K78" s="14">
         <v>40758</v>
       </c>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14">
+      <c r="L78" s="14"/>
+      <c r="M78" s="14">
         <v>49242</v>
       </c>
-      <c r="N77" s="14">
+      <c r="N78" s="14">
         <v>767922</v>
       </c>
-      <c r="O77" s="14">
+      <c r="O78" s="14">
         <v>1655914</v>
       </c>
     </row>
-    <row r="78" spans="2:15" hidden="1">
-      <c r="B78" s="15">
+    <row r="79" spans="2:15" hidden="1">
+      <c r="B79" s="15">
         <v>2019</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C79" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="17">
+      <c r="D79" s="17">
         <f t="shared" si="3"/>
         <v>4697667</v>
       </c>
-      <c r="E78" s="18">
+      <c r="E79" s="18">
         <v>20074</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F79" s="18">
         <v>57946</v>
       </c>
-      <c r="G78" s="18">
+      <c r="G79" s="18">
         <v>888111</v>
       </c>
-      <c r="H78" s="18">
+      <c r="H79" s="18">
         <v>647818</v>
       </c>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18">
+      <c r="I79" s="18"/>
+      <c r="J79" s="18">
         <v>1002798</v>
       </c>
-      <c r="K78" s="18">
+      <c r="K79" s="18">
         <v>31139</v>
       </c>
-      <c r="L78" s="18"/>
-      <c r="M78" s="18">
+      <c r="L79" s="18"/>
+      <c r="M79" s="18">
         <v>40877</v>
       </c>
-      <c r="N78" s="18">
+      <c r="N79" s="18">
         <v>617809</v>
       </c>
-      <c r="O78" s="18">
+      <c r="O79" s="18">
         <v>1391095</v>
       </c>
     </row>
-    <row r="79" spans="2:15" hidden="1">
-      <c r="B79" s="19">
+    <row r="80" spans="2:15" hidden="1">
+      <c r="B80" s="19">
         <v>2019</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C80" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="21">
-        <f t="shared" ref="D79:D91" si="4">SUM(E79:O79)</f>
+      <c r="D80" s="21">
+        <f t="shared" ref="D80:D92" si="4">SUM(E80:O80)</f>
         <v>5369991</v>
       </c>
-      <c r="E79" s="22">
+      <c r="E80" s="22">
         <v>24399</v>
       </c>
-      <c r="F79" s="22">
+      <c r="F80" s="22">
         <v>59133</v>
       </c>
-      <c r="G79" s="22">
+      <c r="G80" s="22">
         <v>1017714</v>
       </c>
-      <c r="H79" s="22">
+      <c r="H80" s="22">
         <v>718168</v>
       </c>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22">
+      <c r="I80" s="22"/>
+      <c r="J80" s="22">
         <v>1143850</v>
       </c>
-      <c r="K79" s="22">
+      <c r="K80" s="22">
         <v>45885</v>
       </c>
-      <c r="L79" s="22"/>
-      <c r="M79" s="22">
+      <c r="L80" s="22"/>
+      <c r="M80" s="22">
         <v>45704</v>
       </c>
-      <c r="N79" s="22">
+      <c r="N80" s="22">
         <v>787962</v>
       </c>
-      <c r="O79" s="22">
+      <c r="O80" s="22">
         <v>1527176</v>
       </c>
     </row>
-    <row r="80" spans="2:15" hidden="1">
-      <c r="B80" s="16">
+    <row r="81" spans="2:15" hidden="1">
+      <c r="B81" s="16">
         <v>2018</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C81" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D80" s="17">
+      <c r="D81" s="17">
         <f t="shared" si="4"/>
         <v>5844697</v>
       </c>
-      <c r="E80" s="18">
+      <c r="E81" s="18">
         <v>25513</v>
       </c>
-      <c r="F80" s="18">
+      <c r="F81" s="18">
         <v>64369</v>
       </c>
-      <c r="G80" s="18">
+      <c r="G81" s="18">
         <v>1071044</v>
       </c>
-      <c r="H80" s="18">
+      <c r="H81" s="18">
         <v>804521</v>
       </c>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18">
+      <c r="I81" s="18"/>
+      <c r="J81" s="18">
         <v>1232404</v>
       </c>
-      <c r="K80" s="18">
+      <c r="K81" s="18">
         <v>78800</v>
       </c>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18">
+      <c r="L81" s="18"/>
+      <c r="M81" s="18">
         <v>50423</v>
       </c>
-      <c r="N80" s="18">
+      <c r="N81" s="18">
         <v>905477</v>
       </c>
-      <c r="O80" s="18">
+      <c r="O81" s="18">
         <v>1612146</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1">
-      <c r="B81" s="12">
+    <row r="82" spans="2:15" hidden="1">
+      <c r="B82" s="12">
         <v>2018</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C82" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D82" s="13">
         <f t="shared" si="4"/>
         <v>5548187</v>
       </c>
-      <c r="E81" s="14">
+      <c r="E82" s="14">
         <v>24593</v>
       </c>
-      <c r="F81" s="14">
+      <c r="F82" s="14">
         <v>68160</v>
       </c>
-      <c r="G81" s="14">
+      <c r="G82" s="14">
         <v>1004506</v>
       </c>
-      <c r="H81" s="14">
+      <c r="H82" s="14">
         <v>761656</v>
       </c>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14">
+      <c r="I82" s="14"/>
+      <c r="J82" s="14">
         <v>1214579</v>
       </c>
-      <c r="K81" s="14">
+      <c r="K82" s="14">
         <v>70291</v>
       </c>
-      <c r="L81" s="14"/>
-      <c r="M81" s="14">
+      <c r="L82" s="14"/>
+      <c r="M82" s="14">
         <v>52654</v>
       </c>
-      <c r="N81" s="14">
+      <c r="N82" s="14">
         <v>844104</v>
       </c>
-      <c r="O81" s="14">
+      <c r="O82" s="14">
         <v>1507644</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1">
-      <c r="B82" s="16">
+    <row r="83" spans="2:15" hidden="1">
+      <c r="B83" s="16">
         <v>2018</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C83" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D82" s="17">
+      <c r="D83" s="17">
         <f t="shared" si="4"/>
         <v>5436017</v>
       </c>
-      <c r="E82" s="18">
+      <c r="E83" s="18">
         <v>23163</v>
       </c>
-      <c r="F82" s="18">
+      <c r="F83" s="18">
         <v>67739</v>
       </c>
-      <c r="G82" s="18">
+      <c r="G83" s="18">
         <v>1006759</v>
       </c>
-      <c r="H82" s="18">
+      <c r="H83" s="18">
         <v>779871</v>
       </c>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18">
+      <c r="I83" s="18"/>
+      <c r="J83" s="18">
         <v>1170513</v>
       </c>
-      <c r="K82" s="18">
+      <c r="K83" s="18">
         <v>65741</v>
       </c>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18">
+      <c r="L83" s="18"/>
+      <c r="M83" s="18">
         <v>52203</v>
       </c>
-      <c r="N82" s="18">
+      <c r="N83" s="18">
         <v>808467</v>
       </c>
-      <c r="O82" s="18">
+      <c r="O83" s="18">
         <v>1461561</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1">
-      <c r="B83" s="12">
+    <row r="84" spans="2:15" hidden="1">
+      <c r="B84" s="12">
         <v>2018</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D84" s="13">
         <f t="shared" si="4"/>
         <v>5031295</v>
       </c>
-      <c r="E83" s="14">
+      <c r="E84" s="14">
         <v>21054</v>
       </c>
-      <c r="F83" s="14">
+      <c r="F84" s="14">
         <v>57581</v>
       </c>
-      <c r="G83" s="14">
+      <c r="G84" s="14">
         <v>953415</v>
       </c>
-      <c r="H83" s="14">
+      <c r="H84" s="14">
         <v>749609</v>
       </c>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14">
+      <c r="I84" s="14"/>
+      <c r="J84" s="14">
         <v>1042581</v>
       </c>
-      <c r="K83" s="14">
+      <c r="K84" s="14">
         <v>61896</v>
       </c>
-      <c r="L83" s="14"/>
-      <c r="M83" s="14">
+      <c r="L84" s="14"/>
+      <c r="M84" s="14">
         <v>46860</v>
       </c>
-      <c r="N83" s="14">
+      <c r="N84" s="14">
         <v>767606</v>
       </c>
-      <c r="O83" s="14">
+      <c r="O84" s="14">
         <v>1330693</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1">
-      <c r="B84" s="16">
+    <row r="85" spans="2:15" hidden="1">
+      <c r="B85" s="16">
         <v>2018</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C85" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="17">
+      <c r="D85" s="17">
         <f t="shared" si="4"/>
         <v>5768371</v>
       </c>
-      <c r="E84" s="18">
+      <c r="E85" s="18">
         <v>27838</v>
       </c>
-      <c r="F84" s="18">
+      <c r="F85" s="18">
         <v>63083</v>
       </c>
-      <c r="G84" s="18">
+      <c r="G85" s="18">
         <v>1074998</v>
       </c>
-      <c r="H84" s="18">
+      <c r="H85" s="18">
         <v>852980</v>
       </c>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18">
+      <c r="I85" s="18"/>
+      <c r="J85" s="18">
         <v>1233129</v>
       </c>
-      <c r="K84" s="18">
+      <c r="K85" s="18">
         <v>104695</v>
       </c>
-      <c r="L84" s="18"/>
-      <c r="M84" s="18">
+      <c r="L85" s="18"/>
+      <c r="M85" s="18">
         <v>54110</v>
       </c>
-      <c r="N84" s="18">
+      <c r="N85" s="18">
         <v>921277</v>
       </c>
-      <c r="O84" s="18">
+      <c r="O85" s="18">
         <v>1436261</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1">
-      <c r="B85" s="12">
+    <row r="86" spans="2:15" hidden="1">
+      <c r="B86" s="12">
         <v>2018</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C86" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D86" s="13">
         <f t="shared" si="4"/>
         <v>6140662</v>
       </c>
-      <c r="E85" s="14">
+      <c r="E86" s="14">
         <v>32903</v>
       </c>
-      <c r="F85" s="14">
+      <c r="F86" s="14">
         <v>56167</v>
       </c>
-      <c r="G85" s="14">
+      <c r="G86" s="14">
         <v>1179423</v>
       </c>
-      <c r="H85" s="14">
+      <c r="H86" s="14">
         <v>895787</v>
       </c>
-      <c r="I85" s="14"/>
-      <c r="J85" s="14">
+      <c r="I86" s="14"/>
+      <c r="J86" s="14">
         <v>1280292</v>
       </c>
-      <c r="K85" s="14">
+      <c r="K86" s="14">
         <v>110733</v>
       </c>
-      <c r="L85" s="14"/>
-      <c r="M85" s="14">
+      <c r="L86" s="14"/>
+      <c r="M86" s="14">
         <v>58466</v>
       </c>
-      <c r="N85" s="14">
+      <c r="N86" s="14">
         <v>944861</v>
       </c>
-      <c r="O85" s="14">
+      <c r="O86" s="14">
         <v>1582030</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1">
-      <c r="B86" s="16">
+    <row r="87" spans="2:15" hidden="1">
+      <c r="B87" s="16">
         <v>2018</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C87" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="17">
+      <c r="D87" s="17">
         <f t="shared" si="4"/>
         <v>5347432</v>
       </c>
-      <c r="E86" s="18">
+      <c r="E87" s="18">
         <v>26323</v>
       </c>
-      <c r="F86" s="18">
+      <c r="F87" s="18">
         <v>46065</v>
       </c>
-      <c r="G86" s="18">
+      <c r="G87" s="18">
         <v>1036698</v>
       </c>
-      <c r="H86" s="18">
+      <c r="H87" s="18">
         <v>815293</v>
       </c>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18">
+      <c r="I87" s="18"/>
+      <c r="J87" s="18">
         <v>1141203</v>
       </c>
-      <c r="K86" s="18">
+      <c r="K87" s="18">
         <v>75066</v>
       </c>
-      <c r="L86" s="18"/>
-      <c r="M86" s="18">
+      <c r="L87" s="18"/>
+      <c r="M87" s="18">
         <v>48032</v>
       </c>
-      <c r="N86" s="18">
+      <c r="N87" s="18">
         <v>768437</v>
       </c>
-      <c r="O86" s="18">
+      <c r="O87" s="18">
         <v>1390315</v>
       </c>
     </row>
-    <row r="87" spans="2:15" hidden="1">
-      <c r="B87" s="12">
+    <row r="88" spans="2:15" hidden="1">
+      <c r="B88" s="12">
         <v>2018</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C88" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D88" s="13">
         <f t="shared" si="4"/>
         <v>5369812</v>
       </c>
-      <c r="E87" s="14">
+      <c r="E88" s="14">
         <v>26212</v>
       </c>
-      <c r="F87" s="14">
+      <c r="F88" s="14">
         <v>54265</v>
       </c>
-      <c r="G87" s="14">
+      <c r="G88" s="14">
         <v>1033321</v>
       </c>
-      <c r="H87" s="14">
+      <c r="H88" s="14">
         <v>780048</v>
       </c>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14">
+      <c r="I88" s="14"/>
+      <c r="J88" s="14">
         <v>1201298</v>
       </c>
-      <c r="K87" s="14">
+      <c r="K88" s="14">
         <v>84998</v>
       </c>
-      <c r="L87" s="14"/>
-      <c r="M87" s="14">
+      <c r="L88" s="14"/>
+      <c r="M88" s="14">
         <v>49481</v>
       </c>
-      <c r="N87" s="14">
+      <c r="N88" s="14">
         <v>759447</v>
       </c>
-      <c r="O87" s="14">
+      <c r="O88" s="14">
         <v>1380742</v>
       </c>
     </row>
-    <row r="88" spans="2:15" hidden="1">
-      <c r="B88" s="16">
+    <row r="89" spans="2:15" hidden="1">
+      <c r="B89" s="16">
         <v>2018</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C89" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="17">
+      <c r="D89" s="17">
         <f t="shared" si="4"/>
         <v>5275071</v>
       </c>
-      <c r="E88" s="18">
+      <c r="E89" s="18">
         <v>25839</v>
       </c>
-      <c r="F88" s="18">
+      <c r="F89" s="18">
         <v>59133</v>
       </c>
-      <c r="G88" s="18">
+      <c r="G89" s="18">
         <v>996415</v>
       </c>
-      <c r="H88" s="18">
+      <c r="H89" s="18">
         <v>794436</v>
       </c>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18">
+      <c r="I89" s="18"/>
+      <c r="J89" s="18">
         <v>1176450</v>
       </c>
-      <c r="K88" s="18">
+      <c r="K89" s="18">
         <v>73805</v>
       </c>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18">
+      <c r="L89" s="18"/>
+      <c r="M89" s="18">
         <v>49795</v>
       </c>
-      <c r="N88" s="18">
+      <c r="N89" s="18">
         <v>730221</v>
       </c>
-      <c r="O88" s="18">
+      <c r="O89" s="18">
         <v>1368977</v>
       </c>
     </row>
-    <row r="89" spans="2:15" hidden="1">
-      <c r="B89" s="12">
+    <row r="90" spans="2:15" hidden="1">
+      <c r="B90" s="12">
         <v>2018</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C90" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D90" s="13">
         <f t="shared" si="4"/>
         <v>5277344</v>
       </c>
-      <c r="E89" s="14">
+      <c r="E90" s="14">
         <v>29029</v>
       </c>
-      <c r="F89" s="14">
+      <c r="F90" s="14">
         <v>65814</v>
       </c>
-      <c r="G89" s="14">
+      <c r="G90" s="14">
         <v>993548</v>
       </c>
-      <c r="H89" s="14">
+      <c r="H90" s="14">
         <v>797581</v>
       </c>
-      <c r="I89" s="14"/>
-      <c r="J89" s="14">
+      <c r="I90" s="14"/>
+      <c r="J90" s="14">
         <v>1174935</v>
       </c>
-      <c r="K89" s="14">
+      <c r="K90" s="14">
         <v>50611</v>
       </c>
-      <c r="L89" s="14"/>
-      <c r="M89" s="14">
+      <c r="L90" s="14"/>
+      <c r="M90" s="14">
         <v>50043</v>
       </c>
-      <c r="N89" s="14">
+      <c r="N90" s="14">
         <v>723374</v>
       </c>
-      <c r="O89" s="14">
+      <c r="O90" s="14">
         <v>1392409</v>
       </c>
     </row>
-    <row r="90" spans="2:15" hidden="1">
-      <c r="B90" s="16">
+    <row r="91" spans="2:15" hidden="1">
+      <c r="B91" s="16">
         <v>2018</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C91" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D90" s="17">
+      <c r="D91" s="17">
         <f t="shared" si="4"/>
         <v>4448093</v>
       </c>
-      <c r="E90" s="18">
+      <c r="E91" s="18">
         <v>22962</v>
       </c>
-      <c r="F90" s="18">
+      <c r="F91" s="18">
         <v>59046</v>
       </c>
-      <c r="G90" s="18">
+      <c r="G91" s="18">
         <v>878966</v>
       </c>
-      <c r="H90" s="18">
+      <c r="H91" s="18">
         <v>699650</v>
       </c>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18">
+      <c r="I91" s="18"/>
+      <c r="J91" s="18">
         <v>934030</v>
       </c>
-      <c r="K90" s="18">
+      <c r="K91" s="18">
         <v>39995</v>
       </c>
-      <c r="L90" s="18"/>
-      <c r="M90" s="18">
+      <c r="L91" s="18"/>
+      <c r="M91" s="18">
         <v>44679</v>
       </c>
-      <c r="N90" s="18">
+      <c r="N91" s="18">
         <v>569891</v>
       </c>
-      <c r="O90" s="18">
+      <c r="O91" s="18">
         <v>1198874</v>
       </c>
     </row>
-    <row r="91" spans="2:15" hidden="1">
-      <c r="B91" s="12">
+    <row r="92" spans="2:15" hidden="1">
+      <c r="B92" s="12">
         <v>2018</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="C92" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D91" s="13">
+      <c r="D92" s="13">
         <f t="shared" si="4"/>
         <v>5082659</v>
       </c>
-      <c r="E91" s="14">
+      <c r="E92" s="14">
         <v>24734</v>
       </c>
-      <c r="F91" s="14">
+      <c r="F92" s="14">
         <v>60981</v>
       </c>
-      <c r="G91" s="14">
+      <c r="G92" s="14">
         <v>1021784</v>
       </c>
-      <c r="H91" s="14">
+      <c r="H92" s="14">
         <v>777479</v>
       </c>
-      <c r="I91" s="14"/>
-      <c r="J91" s="14">
+      <c r="I92" s="14"/>
+      <c r="J92" s="14">
         <v>1078923</v>
       </c>
-      <c r="K91" s="14">
+      <c r="K92" s="14">
         <v>55290</v>
       </c>
-      <c r="L91" s="14"/>
-      <c r="M91" s="14">
+      <c r="L92" s="14"/>
+      <c r="M92" s="14">
         <v>47772</v>
       </c>
-      <c r="N91" s="14">
+      <c r="N92" s="14">
         <v>664529</v>
       </c>
-      <c r="O91" s="14">
+      <c r="O92" s="14">
         <v>1351167</v>
       </c>
-    </row>
-    <row r="92" spans="2:15">
-      <c r="B92" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E92" s="3"/>
     </row>
     <row r="93" spans="2:15">
       <c r="B93" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="2:15">
+      <c r="B94" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="28"/>
-      <c r="O93" s="29"/>
-    </row>
-    <row r="94" spans="2:15">
-      <c r="B94" s="28" t="s">
-        <v>30</v>
-      </c>
       <c r="C94" s="28"/>
+      <c r="O94" s="29"/>
     </row>
     <row r="95" spans="2:15">
       <c r="B95" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C95" s="28"/>
     </row>
     <row r="96" spans="2:15">
       <c r="B96" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" s="28"/>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
-      <c r="B97" s="3" t="s">
+    <row r="98" spans="2:4">
+      <c r="B98" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:4">
-      <c r="D100" s="27"/>
-    </row>
-    <row r="104" spans="2:4">
-      <c r="D104" s="27"/>
+    <row r="101" spans="2:4">
+      <c r="D101" s="27"/>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="D105" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Pasajeros_por_aerolinea_nac.xlsx
+++ b/Pasajeros_por_aerolinea_nac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE18512-950F-4620-9185-E026B63C2E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D33246-D60B-4101-AEAB-3E347BBFE1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_31" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -137,7 +137,7 @@
     <t xml:space="preserve"> La línea aérea Aerus inició operaciones el 27 de abril de 2023.</t>
   </si>
   <si>
-    <t>Actualización: Marzo 2025.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -697,8 +697,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O92" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
-  <autoFilter ref="B5:O92" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O93" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
+  <autoFilter ref="B5:O93" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -950,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O105"/>
+  <dimension ref="B2:O106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1051,3524 +1051,3563 @@
       </c>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="11">
+      <c r="B6" s="15">
         <v>2025</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="17">
+        <f>SUM(E6:O6)</f>
+        <v>6914542</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18">
+        <v>1679269</v>
+      </c>
+      <c r="H6" s="18">
+        <v>375721</v>
+      </c>
+      <c r="I6" s="18">
+        <v>2623</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18">
+        <v>17652</v>
+      </c>
+      <c r="L6" s="18">
+        <v>39304</v>
+      </c>
+      <c r="M6" s="18">
+        <v>19246</v>
+      </c>
+      <c r="N6" s="18">
+        <v>2388075</v>
+      </c>
+      <c r="O6" s="18">
+        <v>2392652</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="11">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="13">
-        <f>SUM(E6:O6)</f>
+      <c r="D7" s="13">
+        <f>SUM(E7:O7)</f>
         <v>6673744</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14">
         <v>1613283</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H7" s="14">
         <v>387375</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I7" s="14">
         <v>2498</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14">
+      <c r="J7" s="14"/>
+      <c r="K7" s="14">
         <v>12552</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L7" s="14">
         <v>27996</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M7" s="14">
         <v>17356</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N7" s="14">
         <v>2269618</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O7" s="14">
         <v>2343066</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="15">
+    <row r="8" spans="2:15">
+      <c r="B8" s="15">
         <v>2025</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="17">
-        <f>SUM(E7:O7)</f>
+      <c r="D8" s="17">
+        <f>SUM(E8:O8)</f>
         <v>5717669</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18">
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18">
         <v>1396853</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H8" s="18">
         <v>347893</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I8" s="18">
         <v>2002</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18">
+      <c r="J8" s="18"/>
+      <c r="K8" s="18">
         <v>7942</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L8" s="18">
         <v>19987</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M8" s="18">
         <v>13607</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N8" s="18">
         <v>1922778</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O8" s="18">
         <v>2006607</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="19">
+    <row r="9" spans="2:15">
+      <c r="B9" s="19">
         <v>2025</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="21">
-        <f>SUM(E8:O8)</f>
+      <c r="D9" s="21">
+        <f>SUM(E9:O9)</f>
         <v>6704849</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22">
         <v>1669900</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H9" s="22">
         <v>395411</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I9" s="22">
         <v>2263</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22">
+      <c r="J9" s="22"/>
+      <c r="K9" s="22">
         <v>11376</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L9" s="22">
         <v>33325</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M9" s="22">
         <v>15081</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N9" s="22">
         <v>2220761</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O9" s="22">
         <v>2356732</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="15">
+    <row r="10" spans="2:15">
+      <c r="B10" s="15">
         <v>2024</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="17">
-        <f>SUM(E9:O9)</f>
+      <c r="D10" s="17">
+        <f>SUM(E10:O10)</f>
         <v>7193395</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18">
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18">
         <v>1749211</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H10" s="18">
         <v>393443</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I10" s="18">
         <v>3591</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18">
+      <c r="J10" s="18"/>
+      <c r="K10" s="18">
         <v>19131</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L10" s="18">
         <v>42411</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M10" s="18">
         <v>19789</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N10" s="18">
         <v>2449237</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O10" s="18">
         <v>2516582</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="11">
+    <row r="11" spans="2:15">
+      <c r="B11" s="11">
         <v>2024</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="13">
-        <f>SUM(E10:O10)</f>
+      <c r="D11" s="13">
+        <f>SUM(E11:O11)</f>
         <v>6698440</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14">
         <v>1630210</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H11" s="14">
         <v>378802</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I11" s="14">
         <v>3872</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14">
+      <c r="J11" s="14"/>
+      <c r="K11" s="14">
         <v>18521</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L11" s="14">
         <v>23922</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M11" s="14">
         <v>14425</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N11" s="14">
         <v>2321101</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O11" s="14">
         <v>2307587</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="15">
+    <row r="12" spans="2:15">
+      <c r="B12" s="15">
         <v>2024</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="17">
-        <f t="shared" ref="D11" si="0">SUM(E11:O11)</f>
+      <c r="D12" s="17">
+        <f t="shared" ref="D12" si="0">SUM(E12:O12)</f>
         <v>6571845</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18">
         <v>1659284</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H12" s="18">
         <v>357763</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I12" s="18">
         <v>4125</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18">
+      <c r="J12" s="18"/>
+      <c r="K12" s="18">
         <v>18874</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L12" s="18">
         <v>22660</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M12" s="18">
         <v>9268</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N12" s="18">
         <v>2210987</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O12" s="18">
         <v>2288884</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="18.75" customHeight="1">
-      <c r="B12" s="11">
+    <row r="13" spans="2:15" ht="18.75" customHeight="1">
+      <c r="B13" s="11">
         <v>2024</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="13">
-        <f>SUM(E12:O12)</f>
+      <c r="D13" s="13">
+        <f>SUM(E13:O13)</f>
         <v>6241021</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14">
         <v>1602332</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H13" s="14">
         <v>357115</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I13" s="14">
         <v>3750</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14">
+      <c r="J13" s="14"/>
+      <c r="K13" s="14">
         <v>16595</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L13" s="14">
         <v>21490</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M13" s="14">
         <v>8152</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N13" s="14">
         <v>2135071</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O13" s="14">
         <v>2096516</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="18.75" customHeight="1">
-      <c r="B13" s="15">
+    <row r="14" spans="2:15" ht="18.75" customHeight="1">
+      <c r="B14" s="15">
         <v>2024</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="17">
-        <f>SUM(E13:O13)</f>
+      <c r="D14" s="17">
+        <f>SUM(E14:O14)</f>
         <v>7122257</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18">
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18">
         <v>1846259</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H14" s="18">
         <v>423300</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I14" s="18">
         <v>3350</v>
       </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18">
+      <c r="J14" s="18"/>
+      <c r="K14" s="18">
         <v>23287</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L14" s="18">
         <v>32823</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M14" s="18">
         <v>13091</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N14" s="18">
         <v>2380847</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O14" s="18">
         <v>2399300</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="18.75" customHeight="1">
-      <c r="B14" s="11">
+    <row r="15" spans="2:15" ht="18.75" customHeight="1">
+      <c r="B15" s="11">
         <v>2024</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="13">
-        <f t="shared" ref="D14:D16" si="1">SUM(E14:O14)</f>
+      <c r="D15" s="13">
+        <f t="shared" ref="D15:D17" si="1">SUM(E15:O15)</f>
         <v>7365600</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E15" s="14">
         <v>972</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14">
         <v>1936260</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H15" s="14">
         <v>455999</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I15" s="14">
         <v>2952</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14">
+      <c r="J15" s="14"/>
+      <c r="K15" s="14">
         <v>25726</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L15" s="14">
         <v>35662</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M15" s="14">
         <v>11529</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N15" s="14">
         <v>2421165</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O15" s="14">
         <v>2475335</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="18.75" customHeight="1">
-      <c r="B15" s="15">
+    <row r="16" spans="2:15" ht="18.75" customHeight="1">
+      <c r="B16" s="15">
         <v>2024</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D16" s="17">
         <f t="shared" si="1"/>
         <v>6545709</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E16" s="18">
         <v>744</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18">
+      <c r="F16" s="18"/>
+      <c r="G16" s="18">
         <v>1681153</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H16" s="18">
         <v>420652</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I16" s="18">
         <v>2495</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18">
+      <c r="J16" s="18"/>
+      <c r="K16" s="18">
         <v>23110</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L16" s="18">
         <v>21518</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M16" s="18">
         <v>9672</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N16" s="18">
         <v>2174929</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O16" s="18">
         <v>2211436</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="11">
+    <row r="17" spans="2:15">
+      <c r="B17" s="11">
         <v>2024</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D17" s="13">
         <f t="shared" si="1"/>
         <v>6588910</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E17" s="14">
         <v>820</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14">
+      <c r="F17" s="14"/>
+      <c r="G17" s="14">
         <v>1727003</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H17" s="14">
         <v>431546</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I17" s="14">
         <v>2633</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14">
+      <c r="J17" s="14"/>
+      <c r="K17" s="14">
         <v>13929</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L17" s="14">
         <v>22186</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M17" s="14">
         <v>10844</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N17" s="14">
         <v>2176419</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O17" s="14">
         <v>2203530</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="15">
+    <row r="18" spans="2:15">
+      <c r="B18" s="15">
         <v>2024</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="17">
-        <f t="shared" ref="D17:D47" si="2">SUM(E17:O17)</f>
+      <c r="D18" s="17">
+        <f t="shared" ref="D18:D48" si="2">SUM(E18:O18)</f>
         <v>6255613</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E18" s="18">
         <v>1018</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18">
+      <c r="F18" s="18"/>
+      <c r="G18" s="18">
         <v>1647314</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H18" s="18">
         <v>437362</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I18" s="18">
         <v>2451</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18">
+      <c r="J18" s="18"/>
+      <c r="K18" s="18">
         <v>17123</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L18" s="18">
         <v>21899</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M18" s="18">
         <v>13242</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N18" s="18">
         <v>2025760</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O18" s="18">
         <v>2089444</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="11">
+    <row r="19" spans="2:15">
+      <c r="B19" s="11">
         <v>2024</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D19" s="13">
         <f t="shared" si="2"/>
         <v>6264883</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E19" s="14">
         <v>985</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14">
         <v>1663451</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H19" s="14">
         <v>414407</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I19" s="14">
         <v>2426</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14">
+      <c r="J19" s="14"/>
+      <c r="K19" s="14">
         <v>16310</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L19" s="14">
         <v>24140</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M19" s="14">
         <v>11320</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N19" s="14">
         <v>2037641</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O19" s="14">
         <v>2094203</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="15">
+    <row r="20" spans="2:15">
+      <c r="B20" s="15">
         <v>2024</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D20" s="17">
         <f t="shared" si="2"/>
         <v>5606595</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E20" s="18">
         <v>703</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18">
+      <c r="F20" s="18"/>
+      <c r="G20" s="18">
         <v>1479121</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H20" s="18">
         <v>395860</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I20" s="18">
         <v>2323</v>
       </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18">
+      <c r="J20" s="18"/>
+      <c r="K20" s="18">
         <v>11161</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L20" s="18">
         <v>17287</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M20" s="18">
         <v>11349</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N20" s="18">
         <v>1772299</v>
       </c>
-      <c r="O19" s="18">
+      <c r="O20" s="18">
         <v>1916492</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="19">
+    <row r="21" spans="2:15">
+      <c r="B21" s="19">
         <v>2024</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D21" s="21">
         <f t="shared" si="2"/>
         <v>6274620</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E21" s="22">
         <v>1102</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22">
+      <c r="F21" s="22"/>
+      <c r="G21" s="22">
         <v>1481216</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H21" s="22">
         <v>490118</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I21" s="22">
         <v>2332</v>
       </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22">
+      <c r="J21" s="22"/>
+      <c r="K21" s="22">
         <v>14046</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L21" s="22">
         <v>12504</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M21" s="22">
         <v>12424</v>
       </c>
-      <c r="N20" s="22">
+      <c r="N21" s="22">
         <v>2028846</v>
       </c>
-      <c r="O20" s="22">
+      <c r="O21" s="22">
         <v>2232032</v>
       </c>
     </row>
-    <row r="21" spans="2:15" hidden="1">
-      <c r="B21" s="23">
+    <row r="22" spans="2:15" hidden="1">
+      <c r="B22" s="23">
         <v>2023</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C22" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D22" s="25">
         <f t="shared" si="2"/>
         <v>6943699</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E22" s="26">
         <v>1263</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26">
+      <c r="F22" s="26"/>
+      <c r="G22" s="26">
         <v>1661066</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H22" s="26">
         <v>520344</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I22" s="26">
         <v>2164</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26">
+      <c r="J22" s="26"/>
+      <c r="K22" s="26">
         <v>23295</v>
       </c>
-      <c r="L21" s="26">
+      <c r="L22" s="26">
         <v>1620</v>
       </c>
-      <c r="M21" s="26">
+      <c r="M22" s="26">
         <v>19717</v>
       </c>
-      <c r="N21" s="26">
+      <c r="N22" s="26">
         <v>2180392</v>
       </c>
-      <c r="O21" s="26">
+      <c r="O22" s="26">
         <v>2533838</v>
       </c>
     </row>
-    <row r="22" spans="2:15" hidden="1">
-      <c r="B22" s="11">
+    <row r="23" spans="2:15" hidden="1">
+      <c r="B23" s="11">
         <v>2023</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D23" s="13">
         <f t="shared" si="2"/>
         <v>6524452</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E23" s="14">
         <v>817</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14">
+      <c r="F23" s="14"/>
+      <c r="G23" s="14">
         <v>1518614</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H23" s="14">
         <v>487651</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I23" s="14">
         <v>1815</v>
       </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14">
+      <c r="J23" s="14"/>
+      <c r="K23" s="14">
         <v>23109</v>
       </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14">
+      <c r="L23" s="14"/>
+      <c r="M23" s="14">
         <v>18006</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N23" s="14">
         <v>2055956</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O23" s="14">
         <v>2418484</v>
       </c>
     </row>
-    <row r="23" spans="2:15" hidden="1">
-      <c r="B23" s="15">
+    <row r="24" spans="2:15" hidden="1">
+      <c r="B24" s="15">
         <v>2023</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D24" s="17">
         <f t="shared" si="2"/>
         <v>6666523</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E24" s="18">
         <v>745</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18">
+      <c r="F24" s="18"/>
+      <c r="G24" s="18">
         <v>1534357</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H24" s="18">
         <v>502142</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I24" s="18">
         <v>1593</v>
       </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18">
+      <c r="J24" s="18"/>
+      <c r="K24" s="18">
         <v>27175</v>
       </c>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18">
+      <c r="L24" s="18"/>
+      <c r="M24" s="18">
         <v>15799</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N24" s="18">
         <v>2142423</v>
       </c>
-      <c r="O23" s="18">
+      <c r="O24" s="18">
         <v>2442289</v>
       </c>
     </row>
-    <row r="24" spans="2:15" hidden="1">
-      <c r="B24" s="11">
+    <row r="25" spans="2:15" hidden="1">
+      <c r="B25" s="11">
         <v>2023</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D25" s="13">
         <f t="shared" si="2"/>
         <v>6234323</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E25" s="14">
         <v>136</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14">
+      <c r="F25" s="14"/>
+      <c r="G25" s="14">
         <v>1449933</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H25" s="14">
         <v>489367</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I25" s="14">
         <v>1718</v>
       </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14">
+      <c r="J25" s="14"/>
+      <c r="K25" s="14">
         <v>20794</v>
       </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14">
+      <c r="L25" s="14"/>
+      <c r="M25" s="14">
         <v>13440</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N25" s="14">
         <v>1975887</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O25" s="14">
         <v>2283048</v>
       </c>
     </row>
-    <row r="25" spans="2:15" hidden="1">
-      <c r="B25" s="15">
+    <row r="26" spans="2:15" hidden="1">
+      <c r="B26" s="15">
         <v>2023</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D26" s="17">
         <f t="shared" si="2"/>
         <v>7366586</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E26" s="18">
         <v>711</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18">
+      <c r="F26" s="18"/>
+      <c r="G26" s="18">
         <v>1790842</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H26" s="18">
         <v>509073</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I26" s="18">
         <v>1858</v>
       </c>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18">
+      <c r="J26" s="18"/>
+      <c r="K26" s="18">
         <v>33617</v>
       </c>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18">
+      <c r="L26" s="18"/>
+      <c r="M26" s="18">
         <v>17102</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N26" s="18">
         <v>2222143</v>
       </c>
-      <c r="O25" s="18">
+      <c r="O26" s="18">
         <v>2791240</v>
       </c>
     </row>
-    <row r="26" spans="2:15" hidden="1">
-      <c r="B26" s="11">
+    <row r="27" spans="2:15" hidden="1">
+      <c r="B27" s="11">
         <v>2023</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D27" s="13">
         <f t="shared" si="2"/>
         <v>7470779</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E27" s="14">
         <v>7815</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14">
+      <c r="F27" s="14"/>
+      <c r="G27" s="14">
         <v>1877785</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H27" s="14">
         <v>489520</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I27" s="14">
         <v>1593</v>
       </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14">
+      <c r="J27" s="14"/>
+      <c r="K27" s="14">
         <v>38495</v>
       </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14">
+      <c r="L27" s="14"/>
+      <c r="M27" s="14">
         <v>16965</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N27" s="14">
         <v>2256958</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O27" s="14">
         <v>2781648</v>
       </c>
     </row>
-    <row r="27" spans="2:15" hidden="1">
-      <c r="B27" s="15">
+    <row r="28" spans="2:15" hidden="1">
+      <c r="B28" s="15">
         <v>2023</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C28" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D28" s="17">
         <f t="shared" si="2"/>
         <v>6481356</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E28" s="18">
         <v>8579</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18">
+      <c r="F28" s="18"/>
+      <c r="G28" s="18">
         <v>1623869</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H28" s="18">
         <v>444461</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I28" s="18">
         <v>930</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18">
+      <c r="J28" s="18"/>
+      <c r="K28" s="18">
         <v>26027</v>
       </c>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18">
+      <c r="L28" s="18"/>
+      <c r="M28" s="18">
         <v>16972</v>
       </c>
-      <c r="N27" s="18">
+      <c r="N28" s="18">
         <v>1939577</v>
       </c>
-      <c r="O27" s="18">
+      <c r="O28" s="18">
         <v>2420941</v>
       </c>
     </row>
-    <row r="28" spans="2:15" hidden="1">
-      <c r="B28" s="11">
+    <row r="29" spans="2:15" hidden="1">
+      <c r="B29" s="11">
         <v>2023</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D29" s="13">
         <f t="shared" si="2"/>
         <v>6466836</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E29" s="14">
         <v>10045</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14">
+      <c r="F29" s="14"/>
+      <c r="G29" s="14">
         <v>1475419</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H29" s="14">
         <v>493646</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I29" s="14">
         <v>866</v>
       </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14">
+      <c r="J29" s="14"/>
+      <c r="K29" s="14">
         <v>22311</v>
       </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14">
+      <c r="L29" s="14"/>
+      <c r="M29" s="14">
         <v>22530</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N29" s="14">
         <v>1903714</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O29" s="14">
         <v>2538305</v>
       </c>
     </row>
-    <row r="29" spans="2:15" hidden="1">
-      <c r="B29" s="15">
+    <row r="30" spans="2:15" hidden="1">
+      <c r="B30" s="15">
         <v>2023</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C30" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D30" s="17">
         <f t="shared" si="2"/>
         <v>6505979</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E30" s="18">
         <v>7610</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18">
+      <c r="F30" s="18"/>
+      <c r="G30" s="18">
         <v>1447508</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H30" s="18">
         <v>495864</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I30" s="18">
         <v>73</v>
       </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18">
+      <c r="J30" s="18"/>
+      <c r="K30" s="18">
         <v>22224</v>
       </c>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18">
+      <c r="L30" s="18"/>
+      <c r="M30" s="18">
         <v>23384</v>
       </c>
-      <c r="N29" s="18">
+      <c r="N30" s="18">
         <v>1903503</v>
       </c>
-      <c r="O29" s="18">
+      <c r="O30" s="18">
         <v>2605813</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1">
-      <c r="B30" s="11">
+    <row r="31" spans="2:15" hidden="1">
+      <c r="B31" s="11">
         <v>2023</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D31" s="13">
         <f t="shared" si="2"/>
         <v>6389909</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E31" s="14">
         <v>4538</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14">
+      <c r="F31" s="14"/>
+      <c r="G31" s="14">
         <v>1502404</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H31" s="14">
         <v>516526</v>
       </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14">
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14">
         <v>15589</v>
       </c>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14">
+      <c r="L31" s="14"/>
+      <c r="M31" s="14">
         <v>23229</v>
       </c>
-      <c r="N30" s="14">
+      <c r="N31" s="14">
         <v>1776763</v>
       </c>
-      <c r="O30" s="14">
+      <c r="O31" s="14">
         <v>2550860</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1">
-      <c r="B31" s="15">
+    <row r="32" spans="2:15" hidden="1">
+      <c r="B32" s="15">
         <v>2023</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C32" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D32" s="17">
         <f t="shared" si="2"/>
         <v>5478771</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E32" s="18">
         <v>9031</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F32" s="18">
         <v>9443</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G32" s="18">
         <v>1277871</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H32" s="18">
         <v>459155</v>
       </c>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18">
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18">
         <v>11992</v>
       </c>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18">
+      <c r="L32" s="18"/>
+      <c r="M32" s="18">
         <v>19704</v>
       </c>
-      <c r="N31" s="18">
+      <c r="N32" s="18">
         <v>1431046</v>
       </c>
-      <c r="O31" s="18">
+      <c r="O32" s="18">
         <v>2260529</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1">
-      <c r="B32" s="19">
+    <row r="33" spans="2:15" hidden="1">
+      <c r="B33" s="19">
         <v>2023</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C33" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D33" s="21">
         <f t="shared" si="2"/>
         <v>6248337</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E33" s="22">
         <v>9895</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F33" s="22">
         <v>23595</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G33" s="22">
         <v>1439058</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H33" s="22">
         <v>503079</v>
       </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22">
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22">
         <v>15438</v>
       </c>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22">
+      <c r="L33" s="22"/>
+      <c r="M33" s="22">
         <v>23680</v>
       </c>
-      <c r="N32" s="22">
+      <c r="N33" s="22">
         <v>1650780</v>
       </c>
-      <c r="O32" s="22">
+      <c r="O33" s="22">
         <v>2582812</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1">
-      <c r="B33" s="23">
+    <row r="34" spans="2:15" hidden="1">
+      <c r="B34" s="23">
         <v>2022</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C34" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D34" s="25">
         <f t="shared" si="2"/>
         <v>6735243</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E34" s="26">
         <v>8855</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F34" s="26">
         <v>30082</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G34" s="26">
         <v>1541064</v>
       </c>
-      <c r="H33" s="26">
+      <c r="H34" s="26">
         <v>545257</v>
       </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26">
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26">
         <v>31832</v>
       </c>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26">
+      <c r="L34" s="26"/>
+      <c r="M34" s="26">
         <v>32706</v>
       </c>
-      <c r="N33" s="26">
+      <c r="N34" s="26">
         <v>1885616</v>
       </c>
-      <c r="O33" s="26">
+      <c r="O34" s="26">
         <v>2659831</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1">
-      <c r="B34" s="11">
+    <row r="35" spans="2:15" hidden="1">
+      <c r="B35" s="11">
         <v>2022</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D35" s="13">
         <f t="shared" si="2"/>
         <v>6388091</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E35" s="14">
         <v>10809</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F35" s="14">
         <v>29180</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G35" s="14">
         <v>1477832</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H35" s="14">
         <v>542019</v>
       </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14">
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14">
         <v>26190</v>
       </c>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14">
+      <c r="L35" s="14"/>
+      <c r="M35" s="14">
         <v>25324</v>
       </c>
-      <c r="N34" s="14">
+      <c r="N35" s="14">
         <v>1806360</v>
       </c>
-      <c r="O34" s="14">
+      <c r="O35" s="14">
         <v>2470377</v>
       </c>
     </row>
-    <row r="35" spans="2:15" hidden="1">
-      <c r="B35" s="15">
+    <row r="36" spans="2:15" hidden="1">
+      <c r="B36" s="15">
         <v>2022</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C36" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D36" s="17">
         <f t="shared" si="2"/>
         <v>6296390</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E36" s="18">
         <v>11560</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F36" s="18">
         <v>29156</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G36" s="18">
         <v>1436769</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H36" s="18">
         <v>525145</v>
       </c>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18">
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18">
         <v>25003</v>
       </c>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18">
+      <c r="L36" s="18"/>
+      <c r="M36" s="18">
         <v>26165</v>
       </c>
-      <c r="N35" s="18">
+      <c r="N36" s="18">
         <v>1730130</v>
       </c>
-      <c r="O35" s="18">
+      <c r="O36" s="18">
         <v>2512462</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1">
-      <c r="B36" s="11">
+    <row r="37" spans="2:15" hidden="1">
+      <c r="B37" s="11">
         <v>2022</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D37" s="13">
         <f t="shared" si="2"/>
         <v>5717570</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E37" s="14">
         <v>8563</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F37" s="14">
         <v>27782</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G37" s="14">
         <v>1324735</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H37" s="14">
         <v>461328</v>
       </c>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14">
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14">
         <v>24539</v>
       </c>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14">
+      <c r="L37" s="14"/>
+      <c r="M37" s="14">
         <v>23409</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N37" s="14">
         <v>1533686</v>
       </c>
-      <c r="O36" s="14">
+      <c r="O37" s="14">
         <v>2313528</v>
       </c>
     </row>
-    <row r="37" spans="2:15" hidden="1">
-      <c r="B37" s="15">
+    <row r="38" spans="2:15" hidden="1">
+      <c r="B38" s="15">
         <v>2022</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C38" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D38" s="17">
         <f t="shared" si="2"/>
         <v>6395624</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E38" s="18">
         <v>12206</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F38" s="18">
         <v>36300</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G38" s="18">
         <v>1459848</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H38" s="18">
         <v>550210</v>
       </c>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18">
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18">
         <v>41574</v>
       </c>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18">
+      <c r="L38" s="18"/>
+      <c r="M38" s="18">
         <v>28457</v>
       </c>
-      <c r="N37" s="18">
+      <c r="N38" s="18">
         <v>1770150</v>
       </c>
-      <c r="O37" s="18">
+      <c r="O38" s="18">
         <v>2496879</v>
       </c>
     </row>
-    <row r="38" spans="2:15" hidden="1">
-      <c r="B38" s="11">
+    <row r="39" spans="2:15" hidden="1">
+      <c r="B39" s="11">
         <v>2022</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D39" s="13">
         <f t="shared" si="2"/>
         <v>6606709</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E39" s="14">
         <v>12900</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F39" s="14">
         <v>37410</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G39" s="14">
         <v>1493132</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H39" s="14">
         <v>544988</v>
       </c>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14">
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14">
         <v>52783</v>
       </c>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14">
+      <c r="L39" s="14"/>
+      <c r="M39" s="14">
         <v>35829</v>
       </c>
-      <c r="N38" s="14">
+      <c r="N39" s="14">
         <v>1832173</v>
       </c>
-      <c r="O38" s="14">
+      <c r="O39" s="14">
         <v>2597494</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1">
-      <c r="B39" s="15">
+    <row r="40" spans="2:15" hidden="1">
+      <c r="B40" s="15">
         <v>2022</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C40" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D40" s="17">
         <f t="shared" si="2"/>
         <v>5816384</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E40" s="18">
         <v>11528</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F40" s="18">
         <v>29894</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G40" s="18">
         <v>1448616</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H40" s="18">
         <v>482837</v>
       </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18">
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18">
         <v>38612</v>
       </c>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18">
+      <c r="L40" s="18"/>
+      <c r="M40" s="18">
         <v>31692</v>
       </c>
-      <c r="N39" s="18">
+      <c r="N40" s="18">
         <v>1629719</v>
       </c>
-      <c r="O39" s="18">
+      <c r="O40" s="18">
         <v>2143486</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1">
-      <c r="B40" s="11">
+    <row r="41" spans="2:15" hidden="1">
+      <c r="B41" s="11">
         <v>2022</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D41" s="13">
         <f t="shared" si="2"/>
         <v>5938227</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E41" s="14">
         <v>14051</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F41" s="14">
         <v>34530</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G41" s="14">
         <v>1394194</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H41" s="14">
         <v>469001</v>
       </c>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14">
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14">
         <v>36048</v>
       </c>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14">
+      <c r="L41" s="14"/>
+      <c r="M41" s="14">
         <v>32934</v>
       </c>
-      <c r="N40" s="14">
+      <c r="N41" s="14">
         <v>1638787</v>
       </c>
-      <c r="O40" s="14">
+      <c r="O41" s="14">
         <v>2318682</v>
       </c>
     </row>
-    <row r="41" spans="2:15" hidden="1">
-      <c r="B41" s="15">
+    <row r="42" spans="2:15" hidden="1">
+      <c r="B42" s="15">
         <v>2022</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C42" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D42" s="17">
         <f t="shared" si="2"/>
         <v>5762121</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E42" s="18">
         <v>12580</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F42" s="18">
         <v>39403</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G42" s="18">
         <v>1248745</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H42" s="18">
         <v>447104</v>
       </c>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18">
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18">
         <v>30427</v>
       </c>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18">
+      <c r="L42" s="18"/>
+      <c r="M42" s="18">
         <v>31976</v>
       </c>
-      <c r="N41" s="18">
+      <c r="N42" s="18">
         <v>1571982</v>
       </c>
-      <c r="O41" s="18">
+      <c r="O42" s="18">
         <v>2379904</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1">
-      <c r="B42" s="11">
+    <row r="43" spans="2:15" hidden="1">
+      <c r="B43" s="11">
         <v>2022</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C43" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D43" s="13">
         <f t="shared" si="2"/>
         <v>5450271</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E43" s="14">
         <v>13206</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F43" s="14">
         <v>32413</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G43" s="14">
         <v>1137873</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H43" s="14">
         <v>485288</v>
       </c>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14">
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14">
         <v>20444</v>
       </c>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14">
+      <c r="L43" s="14"/>
+      <c r="M43" s="14">
         <v>30333</v>
       </c>
-      <c r="N42" s="14">
+      <c r="N43" s="14">
         <v>1443642</v>
       </c>
-      <c r="O42" s="14">
+      <c r="O43" s="14">
         <v>2287072</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1">
-      <c r="B43" s="15">
+    <row r="44" spans="2:15" hidden="1">
+      <c r="B44" s="15">
         <v>2022</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C44" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D44" s="17">
         <f t="shared" si="2"/>
         <v>4335053</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E44" s="18">
         <v>10775</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F44" s="18">
         <v>26979</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G44" s="18">
         <v>817221</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H44" s="18">
         <v>400280</v>
       </c>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18">
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18">
         <v>14632</v>
       </c>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18">
+      <c r="L44" s="18"/>
+      <c r="M44" s="18">
         <v>22836</v>
       </c>
-      <c r="N43" s="18">
+      <c r="N44" s="18">
         <v>1113977</v>
       </c>
-      <c r="O43" s="18">
+      <c r="O44" s="18">
         <v>1928353</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1">
-      <c r="B44" s="19">
+    <row r="45" spans="2:15" hidden="1">
+      <c r="B45" s="19">
         <v>2022</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C45" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D45" s="21">
         <f t="shared" si="2"/>
         <v>4754587</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E45" s="22">
         <v>10351</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F45" s="22">
         <v>35019</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G45" s="22">
         <v>851918</v>
       </c>
-      <c r="H44" s="22">
+      <c r="H45" s="22">
         <v>400866</v>
       </c>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22">
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22">
         <v>19731</v>
       </c>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22">
+      <c r="L45" s="22"/>
+      <c r="M45" s="22">
         <v>22335</v>
       </c>
-      <c r="N44" s="22">
+      <c r="N45" s="22">
         <v>1322859</v>
       </c>
-      <c r="O44" s="22">
+      <c r="O45" s="22">
         <v>2091508</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1">
-      <c r="B45" s="23">
+    <row r="46" spans="2:15" hidden="1">
+      <c r="B46" s="23">
         <v>2021</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C46" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D46" s="25">
         <f t="shared" si="2"/>
         <v>5788606</v>
       </c>
-      <c r="E45" s="26">
+      <c r="E46" s="26">
         <v>12597</v>
       </c>
-      <c r="F45" s="26">
+      <c r="F46" s="26">
         <v>48986</v>
       </c>
-      <c r="G45" s="26">
+      <c r="G46" s="26">
         <v>1194196</v>
       </c>
-      <c r="H45" s="26">
+      <c r="H46" s="26">
         <v>531737</v>
       </c>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26">
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26">
         <v>41564</v>
       </c>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26">
+      <c r="L46" s="26"/>
+      <c r="M46" s="26">
         <v>32426</v>
       </c>
-      <c r="N45" s="26">
+      <c r="N46" s="26">
         <v>1542449</v>
       </c>
-      <c r="O45" s="26">
+      <c r="O46" s="26">
         <v>2384651</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1">
-      <c r="B46" s="11">
+    <row r="47" spans="2:15" hidden="1">
+      <c r="B47" s="11">
         <v>2021</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D47" s="13">
         <f t="shared" si="2"/>
         <v>5289729</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E47" s="14">
         <v>11837</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F47" s="14">
         <v>46757</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G47" s="14">
         <v>1056753</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H47" s="14">
         <v>485468</v>
       </c>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14">
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14">
         <v>32507</v>
       </c>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14">
+      <c r="L47" s="14"/>
+      <c r="M47" s="14">
         <v>29832</v>
       </c>
-      <c r="N46" s="14">
+      <c r="N47" s="14">
         <v>1406500</v>
       </c>
-      <c r="O46" s="14">
+      <c r="O47" s="14">
         <v>2220075</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1">
-      <c r="B47" s="15">
+    <row r="48" spans="2:15" hidden="1">
+      <c r="B48" s="15">
         <v>2021</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C48" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D48" s="17">
         <f t="shared" si="2"/>
         <v>5118685</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E48" s="18">
         <v>14115</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F48" s="18">
         <v>45703</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G48" s="18">
         <v>1034177</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H48" s="18">
         <v>510398</v>
       </c>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18">
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18">
         <v>28313</v>
       </c>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18">
+      <c r="L48" s="18"/>
+      <c r="M48" s="18">
         <v>31649</v>
       </c>
-      <c r="N47" s="18">
+      <c r="N48" s="18">
         <v>1355918</v>
       </c>
-      <c r="O47" s="18">
+      <c r="O48" s="18">
         <v>2098412</v>
       </c>
     </row>
-    <row r="48" spans="2:15" hidden="1">
-      <c r="B48" s="11">
+    <row r="49" spans="2:15" hidden="1">
+      <c r="B49" s="11">
         <v>2021</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C49" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="13">
-        <f t="shared" ref="D48:D79" si="3">SUM(E48:O48)</f>
+      <c r="D49" s="13">
+        <f t="shared" ref="D49:D80" si="3">SUM(E49:O49)</f>
         <v>4470649</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E49" s="14">
         <v>12872</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F49" s="14">
         <v>42716</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G49" s="14">
         <v>893242</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H49" s="14">
         <v>444101</v>
       </c>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14">
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14">
         <v>24490</v>
       </c>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14">
+      <c r="L49" s="14"/>
+      <c r="M49" s="14">
         <v>25901</v>
       </c>
-      <c r="N48" s="14">
+      <c r="N49" s="14">
         <v>1153271</v>
       </c>
-      <c r="O48" s="14">
+      <c r="O49" s="14">
         <v>1874056</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1">
-      <c r="B49" s="15">
+    <row r="50" spans="2:15" hidden="1">
+      <c r="B50" s="15">
         <v>2021</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C50" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D50" s="17">
         <f t="shared" si="3"/>
         <v>5008604</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E50" s="18">
         <v>12792</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F50" s="18">
         <v>47119</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G50" s="18">
         <v>993427</v>
       </c>
-      <c r="H49" s="18">
+      <c r="H50" s="18">
         <v>524484</v>
       </c>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18">
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18">
         <v>35479</v>
       </c>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18">
+      <c r="L50" s="18"/>
+      <c r="M50" s="18">
         <v>26034</v>
       </c>
-      <c r="N49" s="18">
+      <c r="N50" s="18">
         <v>1305965</v>
       </c>
-      <c r="O49" s="18">
+      <c r="O50" s="18">
         <v>2063304</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1">
-      <c r="B50" s="11">
+    <row r="51" spans="2:15" hidden="1">
+      <c r="B51" s="11">
         <v>2021</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C51" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D51" s="13">
         <f t="shared" si="3"/>
         <v>5456169</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E51" s="14">
         <v>15216</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F51" s="14">
         <v>53005</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G51" s="14">
         <v>1058956</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H51" s="14">
         <v>590598</v>
       </c>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14">
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14">
         <v>64029</v>
       </c>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14">
+      <c r="L51" s="14"/>
+      <c r="M51" s="14">
         <v>30912</v>
       </c>
-      <c r="N50" s="14">
+      <c r="N51" s="14">
         <v>1503552</v>
       </c>
-      <c r="O50" s="14">
+      <c r="O51" s="14">
         <v>2139901</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1">
-      <c r="B51" s="15">
+    <row r="52" spans="2:15" hidden="1">
+      <c r="B52" s="15">
         <v>2021</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C52" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D52" s="17">
         <f t="shared" si="3"/>
         <v>4784013</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E52" s="18">
         <v>15389</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F52" s="18">
         <v>43733</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G52" s="18">
         <v>853708</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H52" s="18">
         <v>536816</v>
       </c>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18">
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18">
         <v>54554</v>
       </c>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18">
+      <c r="L52" s="18"/>
+      <c r="M52" s="18">
         <v>23167</v>
       </c>
-      <c r="N51" s="18">
+      <c r="N52" s="18">
         <v>1288126</v>
       </c>
-      <c r="O51" s="18">
+      <c r="O52" s="18">
         <v>1968520</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1">
-      <c r="B52" s="11">
+    <row r="53" spans="2:15" hidden="1">
+      <c r="B53" s="11">
         <v>2021</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C53" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D53" s="13">
         <f t="shared" si="3"/>
         <v>4739036</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E53" s="14">
         <v>16431</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F53" s="14">
         <v>40566</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G53" s="14">
         <v>804638</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H53" s="14">
         <v>535959</v>
       </c>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14">
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14">
         <v>45166</v>
       </c>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14">
+      <c r="L53" s="14"/>
+      <c r="M53" s="14">
         <v>20712</v>
       </c>
-      <c r="N52" s="14">
+      <c r="N53" s="14">
         <v>1283475</v>
       </c>
-      <c r="O52" s="14">
+      <c r="O53" s="14">
         <v>1992089</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1">
-      <c r="B53" s="15">
+    <row r="54" spans="2:15" hidden="1">
+      <c r="B54" s="15">
         <v>2021</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C54" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D54" s="17">
         <f t="shared" si="3"/>
         <v>4139956</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E54" s="18">
         <v>13432</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F54" s="18">
         <v>34786</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G54" s="18">
         <v>729359</v>
       </c>
-      <c r="H53" s="18">
+      <c r="H54" s="18">
         <v>459115</v>
       </c>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18">
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18">
         <v>37963</v>
       </c>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18">
+      <c r="L54" s="18"/>
+      <c r="M54" s="18">
         <v>19899</v>
       </c>
-      <c r="N53" s="18">
+      <c r="N54" s="18">
         <v>1098291</v>
       </c>
-      <c r="O53" s="18">
+      <c r="O54" s="18">
         <v>1747111</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1">
-      <c r="B54" s="11">
+    <row r="55" spans="2:15" hidden="1">
+      <c r="B55" s="11">
         <v>2021</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C55" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D55" s="13">
         <f t="shared" si="3"/>
         <v>3643233</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E55" s="14">
         <v>13443</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F55" s="14">
         <v>34472</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G55" s="14">
         <v>700282</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H55" s="14">
         <v>454696</v>
       </c>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14">
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14">
         <v>25539</v>
       </c>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14">
+      <c r="L55" s="14"/>
+      <c r="M55" s="14">
         <v>18739</v>
       </c>
-      <c r="N54" s="14">
+      <c r="N55" s="14">
         <v>1015276</v>
       </c>
-      <c r="O54" s="14">
+      <c r="O55" s="14">
         <v>1380786</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1">
-      <c r="B55" s="15">
+    <row r="56" spans="2:15" hidden="1">
+      <c r="B56" s="15">
         <v>2021</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C56" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D56" s="17">
         <f t="shared" si="3"/>
         <v>2522697</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E56" s="18">
         <v>8230</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F56" s="18">
         <v>21876</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G56" s="18">
         <v>521896</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H56" s="18">
         <v>365190</v>
       </c>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18">
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18">
         <v>13877</v>
       </c>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18">
+      <c r="L56" s="18"/>
+      <c r="M56" s="18">
         <v>12256</v>
       </c>
-      <c r="N55" s="18">
+      <c r="N56" s="18">
         <v>590075</v>
       </c>
-      <c r="O55" s="18">
+      <c r="O56" s="18">
         <v>989297</v>
       </c>
     </row>
-    <row r="56" spans="2:15" hidden="1">
-      <c r="B56" s="19">
+    <row r="57" spans="2:15" hidden="1">
+      <c r="B57" s="19">
         <v>2021</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C57" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D57" s="21">
         <f t="shared" si="3"/>
         <v>3256499</v>
       </c>
-      <c r="E56" s="22">
+      <c r="E57" s="22">
         <v>7181</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F57" s="22">
         <v>25543</v>
       </c>
-      <c r="G56" s="22">
+      <c r="G57" s="22">
         <v>641860</v>
       </c>
-      <c r="H56" s="22">
+      <c r="H57" s="22">
         <v>438330</v>
       </c>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22">
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22">
         <v>19413</v>
       </c>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22">
+      <c r="L57" s="22"/>
+      <c r="M57" s="22">
         <v>13791</v>
       </c>
-      <c r="N56" s="22">
+      <c r="N57" s="22">
         <v>759842</v>
       </c>
-      <c r="O56" s="22">
+      <c r="O57" s="22">
         <v>1350539</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1">
-      <c r="B57" s="23">
+    <row r="58" spans="2:15" hidden="1">
+      <c r="B58" s="23">
         <v>2020</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D57" s="25">
+      <c r="D58" s="25">
         <f t="shared" si="3"/>
         <v>3752676</v>
       </c>
-      <c r="E57" s="26">
+      <c r="E58" s="26">
         <v>6626</v>
       </c>
-      <c r="F57" s="26">
+      <c r="F58" s="26">
         <v>32040</v>
       </c>
-      <c r="G57" s="26">
+      <c r="G58" s="26">
         <v>610544</v>
       </c>
-      <c r="H57" s="26">
+      <c r="H58" s="26">
         <v>491905</v>
       </c>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26">
+      <c r="I58" s="26"/>
+      <c r="J58" s="26">
         <v>4039</v>
       </c>
-      <c r="K57" s="26">
+      <c r="K58" s="26">
         <v>45610</v>
       </c>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26">
+      <c r="L58" s="26"/>
+      <c r="M58" s="26">
         <v>17383</v>
       </c>
-      <c r="N57" s="26">
+      <c r="N58" s="26">
         <v>998369</v>
       </c>
-      <c r="O57" s="26">
+      <c r="O58" s="26">
         <v>1546160</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1">
-      <c r="B58" s="11">
+    <row r="59" spans="2:15" hidden="1">
+      <c r="B59" s="11">
         <v>2020</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D59" s="13">
         <f t="shared" si="3"/>
         <v>3347186</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E59" s="14">
         <v>6583</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F59" s="14">
         <v>28629</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G59" s="14">
         <v>520221</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H59" s="14">
         <v>395967</v>
       </c>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14">
+      <c r="I59" s="14"/>
+      <c r="J59" s="14">
         <v>17545</v>
       </c>
-      <c r="K58" s="14">
+      <c r="K59" s="14">
         <v>37463</v>
       </c>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14">
+      <c r="L59" s="14"/>
+      <c r="M59" s="14">
         <v>14115</v>
       </c>
-      <c r="N58" s="14">
+      <c r="N59" s="14">
         <v>863224</v>
       </c>
-      <c r="O58" s="14">
+      <c r="O59" s="14">
         <v>1463439</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1">
-      <c r="B59" s="15">
+    <row r="60" spans="2:15" hidden="1">
+      <c r="B60" s="15">
         <v>2020</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C60" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D60" s="17">
         <f t="shared" si="3"/>
         <v>3072785</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E60" s="18">
         <v>5614</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F60" s="18">
         <v>27120</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G60" s="18">
         <v>463245</v>
       </c>
-      <c r="H59" s="18">
+      <c r="H60" s="18">
         <v>395686</v>
       </c>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18">
+      <c r="I60" s="18"/>
+      <c r="J60" s="18">
         <v>33425</v>
       </c>
-      <c r="K59" s="18">
+      <c r="K60" s="18">
         <v>29759</v>
       </c>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18">
+      <c r="L60" s="18"/>
+      <c r="M60" s="18">
         <v>14897</v>
       </c>
-      <c r="N59" s="18">
+      <c r="N60" s="18">
         <v>803614</v>
       </c>
-      <c r="O59" s="18">
+      <c r="O60" s="18">
         <v>1299425</v>
       </c>
     </row>
-    <row r="60" spans="2:15" hidden="1">
-      <c r="B60" s="11">
+    <row r="61" spans="2:15" hidden="1">
+      <c r="B61" s="11">
         <v>2020</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C61" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D61" s="13">
         <f t="shared" si="3"/>
         <v>2614973</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E61" s="14">
         <v>4853</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F61" s="14">
         <v>21371</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G61" s="14">
         <v>371636</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H61" s="14">
         <v>325704</v>
       </c>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14">
+      <c r="I61" s="14"/>
+      <c r="J61" s="14">
         <v>41547</v>
       </c>
-      <c r="K60" s="14">
+      <c r="K61" s="14">
         <v>30615</v>
       </c>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14">
+      <c r="L61" s="14"/>
+      <c r="M61" s="14">
         <v>11615</v>
       </c>
-      <c r="N60" s="14">
+      <c r="N61" s="14">
         <v>665331</v>
       </c>
-      <c r="O60" s="14">
+      <c r="O61" s="14">
         <v>1142301</v>
       </c>
     </row>
-    <row r="61" spans="2:15" hidden="1">
-      <c r="B61" s="15">
+    <row r="62" spans="2:15" hidden="1">
+      <c r="B62" s="15">
         <v>2020</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C62" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D62" s="17">
         <f t="shared" si="3"/>
         <v>2423904</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E62" s="18">
         <v>3748</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F62" s="18">
         <v>22617</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G62" s="18">
         <v>322580</v>
       </c>
-      <c r="H61" s="18">
+      <c r="H62" s="18">
         <v>310616</v>
       </c>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18">
+      <c r="I62" s="18"/>
+      <c r="J62" s="18">
         <v>38737</v>
       </c>
-      <c r="K61" s="18">
+      <c r="K62" s="18">
         <v>30641</v>
       </c>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18">
+      <c r="L62" s="18"/>
+      <c r="M62" s="18">
         <v>7400</v>
       </c>
-      <c r="N61" s="18">
+      <c r="N62" s="18">
         <v>586367</v>
       </c>
-      <c r="O61" s="18">
+      <c r="O62" s="18">
         <v>1101198</v>
       </c>
     </row>
-    <row r="62" spans="2:15" hidden="1">
-      <c r="B62" s="11">
+    <row r="63" spans="2:15" hidden="1">
+      <c r="B63" s="11">
         <v>2020</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C63" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D63" s="13">
         <f t="shared" si="3"/>
         <v>1910823</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E63" s="14">
         <v>3082</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F63" s="14">
         <v>18259</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G63" s="14">
         <v>251899</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H63" s="14">
         <v>254505</v>
       </c>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14">
+      <c r="I63" s="14"/>
+      <c r="J63" s="14">
         <v>38811</v>
       </c>
-      <c r="K62" s="14">
+      <c r="K63" s="14">
         <v>24630</v>
       </c>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14">
+      <c r="L63" s="14"/>
+      <c r="M63" s="14">
         <v>4178</v>
       </c>
-      <c r="N62" s="14">
+      <c r="N63" s="14">
         <v>418350</v>
       </c>
-      <c r="O62" s="14">
+      <c r="O63" s="14">
         <v>897109</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1">
-      <c r="B63" s="15">
+    <row r="64" spans="2:15" hidden="1">
+      <c r="B64" s="15">
         <v>2020</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C64" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D64" s="17">
         <f t="shared" si="3"/>
         <v>996346</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E64" s="18">
         <v>1927</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F64" s="18">
         <v>9051</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G64" s="18">
         <v>140991</v>
       </c>
-      <c r="H63" s="18">
+      <c r="H64" s="18">
         <v>97306</v>
       </c>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18">
+      <c r="I64" s="18"/>
+      <c r="J64" s="18">
         <v>24942</v>
       </c>
-      <c r="K63" s="18">
+      <c r="K64" s="18">
         <v>5002</v>
       </c>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18">
+      <c r="L64" s="18"/>
+      <c r="M64" s="18">
         <v>2168</v>
       </c>
-      <c r="N63" s="18">
+      <c r="N64" s="18">
         <v>201937</v>
       </c>
-      <c r="O63" s="18">
+      <c r="O64" s="18">
         <v>513022</v>
       </c>
     </row>
-    <row r="64" spans="2:15" hidden="1">
-      <c r="B64" s="11">
+    <row r="65" spans="2:15" hidden="1">
+      <c r="B65" s="11">
         <v>2020</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C65" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D65" s="13">
         <f t="shared" si="3"/>
         <v>410766</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E65" s="14">
         <v>1324</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F65" s="14">
         <v>4688</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G65" s="14">
         <v>50801</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H65" s="14">
         <v>80478</v>
       </c>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14">
+      <c r="I65" s="14"/>
+      <c r="J65" s="14">
         <v>14835</v>
       </c>
-      <c r="K64" s="14">
+      <c r="K65" s="14">
         <v>0</v>
       </c>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14">
+      <c r="L65" s="14"/>
+      <c r="M65" s="14">
         <v>1040</v>
       </c>
-      <c r="N64" s="14">
+      <c r="N65" s="14">
         <v>90419</v>
       </c>
-      <c r="O64" s="14">
+      <c r="O65" s="14">
         <v>167181</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1">
-      <c r="B65" s="15">
+    <row r="66" spans="2:15" hidden="1">
+      <c r="B66" s="15">
         <v>2020</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C66" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D66" s="17">
         <f t="shared" si="3"/>
         <v>449003</v>
       </c>
-      <c r="E65" s="18">
+      <c r="E66" s="18">
         <v>1164</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F66" s="18">
         <v>2668</v>
       </c>
-      <c r="G65" s="18">
+      <c r="G66" s="18">
         <v>60744</v>
       </c>
-      <c r="H65" s="18">
+      <c r="H66" s="18">
         <v>86523</v>
       </c>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18">
+      <c r="I66" s="18"/>
+      <c r="J66" s="18">
         <v>25068</v>
       </c>
-      <c r="K65" s="18">
+      <c r="K66" s="18">
         <v>705</v>
       </c>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18">
+      <c r="L66" s="18"/>
+      <c r="M66" s="18">
         <v>485</v>
       </c>
-      <c r="N65" s="18">
+      <c r="N66" s="18">
         <v>89915</v>
       </c>
-      <c r="O65" s="18">
+      <c r="O66" s="18">
         <v>181731</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1">
-      <c r="B66" s="11">
+    <row r="67" spans="2:15" hidden="1">
+      <c r="B67" s="11">
         <v>2020</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C67" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D67" s="13">
         <f t="shared" si="3"/>
         <v>3931644</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E67" s="14">
         <v>8791</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F67" s="14">
         <v>41673</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G67" s="14">
         <v>572018</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H67" s="14">
         <v>464064</v>
       </c>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14">
+      <c r="I67" s="14"/>
+      <c r="J67" s="14">
         <v>822187</v>
       </c>
-      <c r="K66" s="14">
+      <c r="K67" s="14">
         <v>23248</v>
       </c>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14">
+      <c r="L67" s="14"/>
+      <c r="M67" s="14">
         <v>26274</v>
       </c>
-      <c r="N66" s="14">
+      <c r="N67" s="14">
         <v>704638</v>
       </c>
-      <c r="O66" s="14">
+      <c r="O67" s="14">
         <v>1268751</v>
       </c>
     </row>
-    <row r="67" spans="2:15" hidden="1">
-      <c r="B67" s="15">
+    <row r="68" spans="2:15" hidden="1">
+      <c r="B68" s="15">
         <v>2020</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C68" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D68" s="17">
         <f t="shared" si="3"/>
         <v>5315967</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E68" s="18">
         <v>10857</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F68" s="18">
         <v>59357</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G68" s="18">
         <v>846279</v>
       </c>
-      <c r="H67" s="18">
+      <c r="H68" s="18">
         <v>641873</v>
       </c>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18">
+      <c r="I68" s="18"/>
+      <c r="J68" s="18">
         <v>1178801</v>
       </c>
-      <c r="K67" s="18">
+      <c r="K68" s="18">
         <v>26652</v>
       </c>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18">
+      <c r="L68" s="18"/>
+      <c r="M68" s="18">
         <v>36382</v>
       </c>
-      <c r="N67" s="18">
+      <c r="N68" s="18">
         <v>881600</v>
       </c>
-      <c r="O67" s="18">
+      <c r="O68" s="18">
         <v>1634166</v>
       </c>
     </row>
-    <row r="68" spans="2:15" hidden="1">
-      <c r="B68" s="19">
+    <row r="69" spans="2:15" hidden="1">
+      <c r="B69" s="19">
         <v>2020</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C69" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D69" s="21">
         <f t="shared" si="3"/>
         <v>5907035</v>
       </c>
-      <c r="E68" s="22">
+      <c r="E69" s="22">
         <v>13840</v>
       </c>
-      <c r="F68" s="22">
+      <c r="F69" s="22">
         <v>68044</v>
       </c>
-      <c r="G68" s="22">
+      <c r="G69" s="22">
         <v>961808</v>
       </c>
-      <c r="H68" s="22">
+      <c r="H69" s="22">
         <v>680707</v>
       </c>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22">
+      <c r="I69" s="22"/>
+      <c r="J69" s="22">
         <v>1315599</v>
       </c>
-      <c r="K68" s="22">
+      <c r="K69" s="22">
         <v>47575</v>
       </c>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22">
+      <c r="L69" s="22"/>
+      <c r="M69" s="22">
         <v>40620</v>
       </c>
-      <c r="N68" s="22">
+      <c r="N69" s="22">
         <v>980414</v>
       </c>
-      <c r="O68" s="22">
+      <c r="O69" s="22">
         <v>1798428</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1">
-      <c r="B69" s="23">
+    <row r="70" spans="2:15" hidden="1">
+      <c r="B70" s="23">
         <v>2019</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="C70" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D69" s="25">
+      <c r="D70" s="25">
         <f t="shared" si="3"/>
         <v>6305291</v>
       </c>
-      <c r="E69" s="26">
+      <c r="E70" s="26">
         <v>14577</v>
       </c>
-      <c r="F69" s="26">
+      <c r="F70" s="26">
         <v>79686</v>
       </c>
-      <c r="G69" s="26">
+      <c r="G70" s="26">
         <v>1001613</v>
       </c>
-      <c r="H69" s="26">
+      <c r="H70" s="26">
         <v>756331</v>
       </c>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26">
+      <c r="I70" s="26"/>
+      <c r="J70" s="26">
         <v>1419527</v>
       </c>
-      <c r="K69" s="26">
+      <c r="K70" s="26">
         <v>72539</v>
       </c>
-      <c r="L69" s="26"/>
-      <c r="M69" s="26">
+      <c r="L70" s="26"/>
+      <c r="M70" s="26">
         <v>45759</v>
       </c>
-      <c r="N69" s="26">
+      <c r="N70" s="26">
         <v>1083272</v>
       </c>
-      <c r="O69" s="26">
+      <c r="O70" s="26">
         <v>1831987</v>
       </c>
     </row>
-    <row r="70" spans="2:15" hidden="1">
-      <c r="B70" s="11">
+    <row r="71" spans="2:15" hidden="1">
+      <c r="B71" s="11">
         <v>2019</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D71" s="13">
         <f t="shared" si="3"/>
         <v>5933699</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E71" s="14">
         <v>15593</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F71" s="14">
         <v>73513</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G71" s="14">
         <v>938515</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H71" s="14">
         <v>697055</v>
       </c>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14">
+      <c r="I71" s="14"/>
+      <c r="J71" s="14">
         <v>1349425</v>
       </c>
-      <c r="K70" s="14">
+      <c r="K71" s="14">
         <v>54165</v>
       </c>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14">
+      <c r="L71" s="14"/>
+      <c r="M71" s="14">
         <v>41740</v>
       </c>
-      <c r="N70" s="14">
+      <c r="N71" s="14">
         <v>1014931</v>
       </c>
-      <c r="O70" s="14">
+      <c r="O71" s="14">
         <v>1748762</v>
       </c>
     </row>
-    <row r="71" spans="2:15" hidden="1">
-      <c r="B71" s="15">
+    <row r="72" spans="2:15" hidden="1">
+      <c r="B72" s="15">
         <v>2019</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C72" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D72" s="17">
         <f t="shared" si="3"/>
         <v>5863191</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E72" s="18">
         <v>19701</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F72" s="18">
         <v>67349</v>
       </c>
-      <c r="G71" s="18">
+      <c r="G72" s="18">
         <v>957393</v>
       </c>
-      <c r="H71" s="18">
+      <c r="H72" s="18">
         <v>740956</v>
       </c>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18">
+      <c r="I72" s="18"/>
+      <c r="J72" s="18">
         <v>1232933</v>
       </c>
-      <c r="K71" s="18">
+      <c r="K72" s="18">
         <v>57392</v>
       </c>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18">
+      <c r="L72" s="18"/>
+      <c r="M72" s="18">
         <v>40850</v>
       </c>
-      <c r="N71" s="18">
+      <c r="N72" s="18">
         <v>1022260</v>
       </c>
-      <c r="O71" s="18">
+      <c r="O72" s="18">
         <v>1724357</v>
       </c>
     </row>
-    <row r="72" spans="2:15" hidden="1">
-      <c r="B72" s="11">
+    <row r="73" spans="2:15" hidden="1">
+      <c r="B73" s="11">
         <v>2019</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C73" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D73" s="13">
         <f t="shared" si="3"/>
         <v>5409755</v>
       </c>
-      <c r="E72" s="14">
+      <c r="E73" s="14">
         <v>15863</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F73" s="14">
         <v>61156</v>
       </c>
-      <c r="G72" s="14">
+      <c r="G73" s="14">
         <v>897733</v>
       </c>
-      <c r="H72" s="14">
+      <c r="H73" s="14">
         <v>677299</v>
       </c>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14">
+      <c r="I73" s="14"/>
+      <c r="J73" s="14">
         <v>1115654</v>
       </c>
-      <c r="K72" s="14">
+      <c r="K73" s="14">
         <v>61638</v>
       </c>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14">
+      <c r="L73" s="14"/>
+      <c r="M73" s="14">
         <v>42002</v>
       </c>
-      <c r="N72" s="14">
+      <c r="N73" s="14">
         <v>922290</v>
       </c>
-      <c r="O72" s="14">
+      <c r="O73" s="14">
         <v>1616120</v>
       </c>
     </row>
-    <row r="73" spans="2:15" hidden="1">
-      <c r="B73" s="15">
+    <row r="74" spans="2:15" hidden="1">
+      <c r="B74" s="15">
         <v>2019</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C74" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D73" s="17">
+      <c r="D74" s="17">
         <f t="shared" si="3"/>
         <v>6259657</v>
       </c>
-      <c r="E73" s="18">
+      <c r="E74" s="18">
         <v>22090</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F74" s="18">
         <v>68824</v>
       </c>
-      <c r="G73" s="18">
+      <c r="G74" s="18">
         <v>1001754</v>
       </c>
-      <c r="H73" s="18">
+      <c r="H74" s="18">
         <v>777867</v>
       </c>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18">
+      <c r="I74" s="18"/>
+      <c r="J74" s="18">
         <v>1395254</v>
       </c>
-      <c r="K73" s="18">
+      <c r="K74" s="18">
         <v>88036</v>
       </c>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18">
+      <c r="L74" s="18"/>
+      <c r="M74" s="18">
         <v>47511</v>
       </c>
-      <c r="N73" s="18">
+      <c r="N74" s="18">
         <v>1112562</v>
       </c>
-      <c r="O73" s="18">
+      <c r="O74" s="18">
         <v>1745759</v>
       </c>
     </row>
-    <row r="74" spans="2:15" hidden="1">
-      <c r="B74" s="11">
+    <row r="75" spans="2:15" hidden="1">
+      <c r="B75" s="11">
         <v>2019</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C75" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D75" s="13">
         <f t="shared" si="3"/>
         <v>6643948</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E75" s="14">
         <v>24398</v>
       </c>
-      <c r="F74" s="14">
+      <c r="F75" s="14">
         <v>75738</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G75" s="14">
         <v>1056905</v>
       </c>
-      <c r="H74" s="14">
+      <c r="H75" s="14">
         <v>847525</v>
       </c>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14">
+      <c r="I75" s="14"/>
+      <c r="J75" s="14">
         <v>1440396</v>
       </c>
-      <c r="K74" s="14">
+      <c r="K75" s="14">
         <v>112757</v>
       </c>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14">
+      <c r="L75" s="14"/>
+      <c r="M75" s="14">
         <v>53404</v>
       </c>
-      <c r="N74" s="14">
+      <c r="N75" s="14">
         <v>1151999</v>
       </c>
-      <c r="O74" s="14">
+      <c r="O75" s="14">
         <v>1880826</v>
       </c>
     </row>
-    <row r="75" spans="2:15" hidden="1">
-      <c r="B75" s="15">
+    <row r="76" spans="2:15" hidden="1">
+      <c r="B76" s="15">
         <v>2019</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C76" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="17">
+      <c r="D76" s="17">
         <f t="shared" si="3"/>
         <v>6003625</v>
       </c>
-      <c r="E75" s="18">
+      <c r="E76" s="18">
         <v>24034</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F76" s="18">
         <v>65120</v>
       </c>
-      <c r="G75" s="18">
+      <c r="G76" s="18">
         <v>968584</v>
       </c>
-      <c r="H75" s="18">
+      <c r="H76" s="18">
         <v>772914</v>
       </c>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18">
+      <c r="I76" s="18"/>
+      <c r="J76" s="18">
         <v>1315938</v>
       </c>
-      <c r="K75" s="18">
+      <c r="K76" s="18">
         <v>90790</v>
       </c>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18">
+      <c r="L76" s="18"/>
+      <c r="M76" s="18">
         <v>47162</v>
       </c>
-      <c r="N75" s="18">
+      <c r="N76" s="18">
         <v>974523</v>
       </c>
-      <c r="O75" s="18">
+      <c r="O76" s="18">
         <v>1744560</v>
       </c>
     </row>
-    <row r="76" spans="2:15" hidden="1">
-      <c r="B76" s="11">
+    <row r="77" spans="2:15" hidden="1">
+      <c r="B77" s="11">
         <v>2019</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C77" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D77" s="13">
         <f t="shared" si="3"/>
         <v>6066733</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E77" s="14">
         <v>24578</v>
       </c>
-      <c r="F76" s="14">
+      <c r="F77" s="14">
         <v>61163</v>
       </c>
-      <c r="G76" s="14">
+      <c r="G77" s="14">
         <v>976676</v>
       </c>
-      <c r="H76" s="14">
+      <c r="H77" s="14">
         <v>788262</v>
       </c>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14">
+      <c r="I77" s="14"/>
+      <c r="J77" s="14">
         <v>1373059</v>
       </c>
-      <c r="K76" s="14">
+      <c r="K77" s="14">
         <v>74030</v>
       </c>
-      <c r="L76" s="14"/>
-      <c r="M76" s="14">
+      <c r="L77" s="14"/>
+      <c r="M77" s="14">
         <v>51746</v>
       </c>
-      <c r="N76" s="14">
+      <c r="N77" s="14">
         <v>931984</v>
       </c>
-      <c r="O76" s="14">
+      <c r="O77" s="14">
         <v>1785235</v>
       </c>
     </row>
-    <row r="77" spans="2:15" hidden="1">
-      <c r="B77" s="15">
+    <row r="78" spans="2:15" hidden="1">
+      <c r="B78" s="15">
         <v>2019</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C78" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="17">
+      <c r="D78" s="17">
         <f t="shared" si="3"/>
         <v>5766967</v>
       </c>
-      <c r="E77" s="18">
+      <c r="E78" s="18">
         <v>26137</v>
       </c>
-      <c r="F77" s="18">
+      <c r="F78" s="18">
         <v>63912</v>
       </c>
-      <c r="G77" s="18">
+      <c r="G78" s="18">
         <v>935481</v>
       </c>
-      <c r="H77" s="18">
+      <c r="H78" s="18">
         <v>737722</v>
       </c>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18">
+      <c r="I78" s="18"/>
+      <c r="J78" s="18">
         <v>1282012</v>
       </c>
-      <c r="K77" s="18">
+      <c r="K78" s="18">
         <v>54469</v>
       </c>
-      <c r="L77" s="18"/>
-      <c r="M77" s="18">
+      <c r="L78" s="18"/>
+      <c r="M78" s="18">
         <v>50399</v>
       </c>
-      <c r="N77" s="18">
+      <c r="N78" s="18">
         <v>893208</v>
       </c>
-      <c r="O77" s="18">
+      <c r="O78" s="18">
         <v>1723627</v>
       </c>
     </row>
-    <row r="78" spans="2:15" hidden="1">
-      <c r="B78" s="11">
+    <row r="79" spans="2:15" hidden="1">
+      <c r="B79" s="11">
         <v>2019</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C79" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D79" s="13">
         <f t="shared" si="3"/>
         <v>5617314</v>
       </c>
-      <c r="E78" s="14">
+      <c r="E79" s="14">
         <v>24631</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F79" s="14">
         <v>66177</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G79" s="14">
         <v>991931</v>
       </c>
-      <c r="H78" s="14">
+      <c r="H79" s="14">
         <v>774790</v>
       </c>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14">
+      <c r="I79" s="14"/>
+      <c r="J79" s="14">
         <v>1245949</v>
       </c>
-      <c r="K78" s="14">
+      <c r="K79" s="14">
         <v>40758</v>
       </c>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14">
+      <c r="L79" s="14"/>
+      <c r="M79" s="14">
         <v>49242</v>
       </c>
-      <c r="N78" s="14">
+      <c r="N79" s="14">
         <v>767922</v>
       </c>
-      <c r="O78" s="14">
+      <c r="O79" s="14">
         <v>1655914</v>
       </c>
     </row>
-    <row r="79" spans="2:15" hidden="1">
-      <c r="B79" s="15">
+    <row r="80" spans="2:15" hidden="1">
+      <c r="B80" s="15">
         <v>2019</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C80" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="17">
+      <c r="D80" s="17">
         <f t="shared" si="3"/>
         <v>4697667</v>
       </c>
-      <c r="E79" s="18">
+      <c r="E80" s="18">
         <v>20074</v>
       </c>
-      <c r="F79" s="18">
+      <c r="F80" s="18">
         <v>57946</v>
       </c>
-      <c r="G79" s="18">
+      <c r="G80" s="18">
         <v>888111</v>
       </c>
-      <c r="H79" s="18">
+      <c r="H80" s="18">
         <v>647818</v>
       </c>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18">
+      <c r="I80" s="18"/>
+      <c r="J80" s="18">
         <v>1002798</v>
       </c>
-      <c r="K79" s="18">
+      <c r="K80" s="18">
         <v>31139</v>
       </c>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18">
+      <c r="L80" s="18"/>
+      <c r="M80" s="18">
         <v>40877</v>
       </c>
-      <c r="N79" s="18">
+      <c r="N80" s="18">
         <v>617809</v>
       </c>
-      <c r="O79" s="18">
+      <c r="O80" s="18">
         <v>1391095</v>
       </c>
     </row>
-    <row r="80" spans="2:15" hidden="1">
-      <c r="B80" s="19">
+    <row r="81" spans="2:15" hidden="1">
+      <c r="B81" s="19">
         <v>2019</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C81" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="21">
-        <f t="shared" ref="D80:D92" si="4">SUM(E80:O80)</f>
+      <c r="D81" s="21">
+        <f t="shared" ref="D81:D93" si="4">SUM(E81:O81)</f>
         <v>5369991</v>
       </c>
-      <c r="E80" s="22">
+      <c r="E81" s="22">
         <v>24399</v>
       </c>
-      <c r="F80" s="22">
+      <c r="F81" s="22">
         <v>59133</v>
       </c>
-      <c r="G80" s="22">
+      <c r="G81" s="22">
         <v>1017714</v>
       </c>
-      <c r="H80" s="22">
+      <c r="H81" s="22">
         <v>718168</v>
       </c>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22">
+      <c r="I81" s="22"/>
+      <c r="J81" s="22">
         <v>1143850</v>
       </c>
-      <c r="K80" s="22">
+      <c r="K81" s="22">
         <v>45885</v>
       </c>
-      <c r="L80" s="22"/>
-      <c r="M80" s="22">
+      <c r="L81" s="22"/>
+      <c r="M81" s="22">
         <v>45704</v>
       </c>
-      <c r="N80" s="22">
+      <c r="N81" s="22">
         <v>787962</v>
       </c>
-      <c r="O80" s="22">
+      <c r="O81" s="22">
         <v>1527176</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1">
-      <c r="B81" s="16">
+    <row r="82" spans="2:15" hidden="1">
+      <c r="B82" s="16">
         <v>2018</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C82" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="17">
+      <c r="D82" s="17">
         <f t="shared" si="4"/>
         <v>5844697</v>
       </c>
-      <c r="E81" s="18">
+      <c r="E82" s="18">
         <v>25513</v>
       </c>
-      <c r="F81" s="18">
+      <c r="F82" s="18">
         <v>64369</v>
       </c>
-      <c r="G81" s="18">
+      <c r="G82" s="18">
         <v>1071044</v>
       </c>
-      <c r="H81" s="18">
+      <c r="H82" s="18">
         <v>804521</v>
       </c>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18">
+      <c r="I82" s="18"/>
+      <c r="J82" s="18">
         <v>1232404</v>
       </c>
-      <c r="K81" s="18">
+      <c r="K82" s="18">
         <v>78800</v>
       </c>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18">
+      <c r="L82" s="18"/>
+      <c r="M82" s="18">
         <v>50423</v>
       </c>
-      <c r="N81" s="18">
+      <c r="N82" s="18">
         <v>905477</v>
       </c>
-      <c r="O81" s="18">
+      <c r="O82" s="18">
         <v>1612146</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1">
-      <c r="B82" s="12">
+    <row r="83" spans="2:15" hidden="1">
+      <c r="B83" s="12">
         <v>2018</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C83" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D83" s="13">
         <f t="shared" si="4"/>
         <v>5548187</v>
       </c>
-      <c r="E82" s="14">
+      <c r="E83" s="14">
         <v>24593</v>
       </c>
-      <c r="F82" s="14">
+      <c r="F83" s="14">
         <v>68160</v>
       </c>
-      <c r="G82" s="14">
+      <c r="G83" s="14">
         <v>1004506</v>
       </c>
-      <c r="H82" s="14">
+      <c r="H83" s="14">
         <v>761656</v>
       </c>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14">
+      <c r="I83" s="14"/>
+      <c r="J83" s="14">
         <v>1214579</v>
       </c>
-      <c r="K82" s="14">
+      <c r="K83" s="14">
         <v>70291</v>
       </c>
-      <c r="L82" s="14"/>
-      <c r="M82" s="14">
+      <c r="L83" s="14"/>
+      <c r="M83" s="14">
         <v>52654</v>
       </c>
-      <c r="N82" s="14">
+      <c r="N83" s="14">
         <v>844104</v>
       </c>
-      <c r="O82" s="14">
+      <c r="O83" s="14">
         <v>1507644</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1">
-      <c r="B83" s="16">
+    <row r="84" spans="2:15" hidden="1">
+      <c r="B84" s="16">
         <v>2018</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C84" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="17">
+      <c r="D84" s="17">
         <f t="shared" si="4"/>
         <v>5436017</v>
       </c>
-      <c r="E83" s="18">
+      <c r="E84" s="18">
         <v>23163</v>
       </c>
-      <c r="F83" s="18">
+      <c r="F84" s="18">
         <v>67739</v>
       </c>
-      <c r="G83" s="18">
+      <c r="G84" s="18">
         <v>1006759</v>
       </c>
-      <c r="H83" s="18">
+      <c r="H84" s="18">
         <v>779871</v>
       </c>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18">
+      <c r="I84" s="18"/>
+      <c r="J84" s="18">
         <v>1170513</v>
       </c>
-      <c r="K83" s="18">
+      <c r="K84" s="18">
         <v>65741</v>
       </c>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18">
+      <c r="L84" s="18"/>
+      <c r="M84" s="18">
         <v>52203</v>
       </c>
-      <c r="N83" s="18">
+      <c r="N84" s="18">
         <v>808467</v>
       </c>
-      <c r="O83" s="18">
+      <c r="O84" s="18">
         <v>1461561</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1">
-      <c r="B84" s="12">
+    <row r="85" spans="2:15" hidden="1">
+      <c r="B85" s="12">
         <v>2018</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C85" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D85" s="13">
         <f t="shared" si="4"/>
         <v>5031295</v>
       </c>
-      <c r="E84" s="14">
+      <c r="E85" s="14">
         <v>21054</v>
       </c>
-      <c r="F84" s="14">
+      <c r="F85" s="14">
         <v>57581</v>
       </c>
-      <c r="G84" s="14">
+      <c r="G85" s="14">
         <v>953415</v>
       </c>
-      <c r="H84" s="14">
+      <c r="H85" s="14">
         <v>749609</v>
       </c>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14">
+      <c r="I85" s="14"/>
+      <c r="J85" s="14">
         <v>1042581</v>
       </c>
-      <c r="K84" s="14">
+      <c r="K85" s="14">
         <v>61896</v>
       </c>
-      <c r="L84" s="14"/>
-      <c r="M84" s="14">
+      <c r="L85" s="14"/>
+      <c r="M85" s="14">
         <v>46860</v>
       </c>
-      <c r="N84" s="14">
+      <c r="N85" s="14">
         <v>767606</v>
       </c>
-      <c r="O84" s="14">
+      <c r="O85" s="14">
         <v>1330693</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1">
-      <c r="B85" s="16">
+    <row r="86" spans="2:15" hidden="1">
+      <c r="B86" s="16">
         <v>2018</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C86" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D85" s="17">
+      <c r="D86" s="17">
         <f t="shared" si="4"/>
         <v>5768371</v>
       </c>
-      <c r="E85" s="18">
+      <c r="E86" s="18">
         <v>27838</v>
       </c>
-      <c r="F85" s="18">
+      <c r="F86" s="18">
         <v>63083</v>
       </c>
-      <c r="G85" s="18">
+      <c r="G86" s="18">
         <v>1074998</v>
       </c>
-      <c r="H85" s="18">
+      <c r="H86" s="18">
         <v>852980</v>
       </c>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18">
+      <c r="I86" s="18"/>
+      <c r="J86" s="18">
         <v>1233129</v>
       </c>
-      <c r="K85" s="18">
+      <c r="K86" s="18">
         <v>104695</v>
       </c>
-      <c r="L85" s="18"/>
-      <c r="M85" s="18">
+      <c r="L86" s="18"/>
+      <c r="M86" s="18">
         <v>54110</v>
       </c>
-      <c r="N85" s="18">
+      <c r="N86" s="18">
         <v>921277</v>
       </c>
-      <c r="O85" s="18">
+      <c r="O86" s="18">
         <v>1436261</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1">
-      <c r="B86" s="12">
+    <row r="87" spans="2:15" hidden="1">
+      <c r="B87" s="12">
         <v>2018</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C87" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D87" s="13">
         <f t="shared" si="4"/>
         <v>6140662</v>
       </c>
-      <c r="E86" s="14">
+      <c r="E87" s="14">
         <v>32903</v>
       </c>
-      <c r="F86" s="14">
+      <c r="F87" s="14">
         <v>56167</v>
       </c>
-      <c r="G86" s="14">
+      <c r="G87" s="14">
         <v>1179423</v>
       </c>
-      <c r="H86" s="14">
+      <c r="H87" s="14">
         <v>895787</v>
       </c>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14">
+      <c r="I87" s="14"/>
+      <c r="J87" s="14">
         <v>1280292</v>
       </c>
-      <c r="K86" s="14">
+      <c r="K87" s="14">
         <v>110733</v>
       </c>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14">
+      <c r="L87" s="14"/>
+      <c r="M87" s="14">
         <v>58466</v>
       </c>
-      <c r="N86" s="14">
+      <c r="N87" s="14">
         <v>944861</v>
       </c>
-      <c r="O86" s="14">
+      <c r="O87" s="14">
         <v>1582030</v>
       </c>
     </row>
-    <row r="87" spans="2:15" hidden="1">
-      <c r="B87" s="16">
+    <row r="88" spans="2:15" hidden="1">
+      <c r="B88" s="16">
         <v>2018</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C88" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D87" s="17">
+      <c r="D88" s="17">
         <f t="shared" si="4"/>
         <v>5347432</v>
       </c>
-      <c r="E87" s="18">
+      <c r="E88" s="18">
         <v>26323</v>
       </c>
-      <c r="F87" s="18">
+      <c r="F88" s="18">
         <v>46065</v>
       </c>
-      <c r="G87" s="18">
+      <c r="G88" s="18">
         <v>1036698</v>
       </c>
-      <c r="H87" s="18">
+      <c r="H88" s="18">
         <v>815293</v>
       </c>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18">
+      <c r="I88" s="18"/>
+      <c r="J88" s="18">
         <v>1141203</v>
       </c>
-      <c r="K87" s="18">
+      <c r="K88" s="18">
         <v>75066</v>
       </c>
-      <c r="L87" s="18"/>
-      <c r="M87" s="18">
+      <c r="L88" s="18"/>
+      <c r="M88" s="18">
         <v>48032</v>
       </c>
-      <c r="N87" s="18">
+      <c r="N88" s="18">
         <v>768437</v>
       </c>
-      <c r="O87" s="18">
+      <c r="O88" s="18">
         <v>1390315</v>
       </c>
     </row>
-    <row r="88" spans="2:15" hidden="1">
-      <c r="B88" s="12">
+    <row r="89" spans="2:15" hidden="1">
+      <c r="B89" s="12">
         <v>2018</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C89" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D89" s="13">
         <f t="shared" si="4"/>
         <v>5369812</v>
       </c>
-      <c r="E88" s="14">
+      <c r="E89" s="14">
         <v>26212</v>
       </c>
-      <c r="F88" s="14">
+      <c r="F89" s="14">
         <v>54265</v>
       </c>
-      <c r="G88" s="14">
+      <c r="G89" s="14">
         <v>1033321</v>
       </c>
-      <c r="H88" s="14">
+      <c r="H89" s="14">
         <v>780048</v>
       </c>
-      <c r="I88" s="14"/>
-      <c r="J88" s="14">
+      <c r="I89" s="14"/>
+      <c r="J89" s="14">
         <v>1201298</v>
       </c>
-      <c r="K88" s="14">
+      <c r="K89" s="14">
         <v>84998</v>
       </c>
-      <c r="L88" s="14"/>
-      <c r="M88" s="14">
+      <c r="L89" s="14"/>
+      <c r="M89" s="14">
         <v>49481</v>
       </c>
-      <c r="N88" s="14">
+      <c r="N89" s="14">
         <v>759447</v>
       </c>
-      <c r="O88" s="14">
+      <c r="O89" s="14">
         <v>1380742</v>
       </c>
     </row>
-    <row r="89" spans="2:15" hidden="1">
-      <c r="B89" s="16">
+    <row r="90" spans="2:15" hidden="1">
+      <c r="B90" s="16">
         <v>2018</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C90" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="17">
+      <c r="D90" s="17">
         <f t="shared" si="4"/>
         <v>5275071</v>
       </c>
-      <c r="E89" s="18">
+      <c r="E90" s="18">
         <v>25839</v>
       </c>
-      <c r="F89" s="18">
+      <c r="F90" s="18">
         <v>59133</v>
       </c>
-      <c r="G89" s="18">
+      <c r="G90" s="18">
         <v>996415</v>
       </c>
-      <c r="H89" s="18">
+      <c r="H90" s="18">
         <v>794436</v>
       </c>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18">
+      <c r="I90" s="18"/>
+      <c r="J90" s="18">
         <v>1176450</v>
       </c>
-      <c r="K89" s="18">
+      <c r="K90" s="18">
         <v>73805</v>
       </c>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18">
+      <c r="L90" s="18"/>
+      <c r="M90" s="18">
         <v>49795</v>
       </c>
-      <c r="N89" s="18">
+      <c r="N90" s="18">
         <v>730221</v>
       </c>
-      <c r="O89" s="18">
+      <c r="O90" s="18">
         <v>1368977</v>
       </c>
     </row>
-    <row r="90" spans="2:15" hidden="1">
-      <c r="B90" s="12">
+    <row r="91" spans="2:15" hidden="1">
+      <c r="B91" s="12">
         <v>2018</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C91" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D90" s="13">
+      <c r="D91" s="13">
         <f t="shared" si="4"/>
         <v>5277344</v>
       </c>
-      <c r="E90" s="14">
+      <c r="E91" s="14">
         <v>29029</v>
       </c>
-      <c r="F90" s="14">
+      <c r="F91" s="14">
         <v>65814</v>
       </c>
-      <c r="G90" s="14">
+      <c r="G91" s="14">
         <v>993548</v>
       </c>
-      <c r="H90" s="14">
+      <c r="H91" s="14">
         <v>797581</v>
       </c>
-      <c r="I90" s="14"/>
-      <c r="J90" s="14">
+      <c r="I91" s="14"/>
+      <c r="J91" s="14">
         <v>1174935</v>
       </c>
-      <c r="K90" s="14">
+      <c r="K91" s="14">
         <v>50611</v>
       </c>
-      <c r="L90" s="14"/>
-      <c r="M90" s="14">
+      <c r="L91" s="14"/>
+      <c r="M91" s="14">
         <v>50043</v>
       </c>
-      <c r="N90" s="14">
+      <c r="N91" s="14">
         <v>723374</v>
       </c>
-      <c r="O90" s="14">
+      <c r="O91" s="14">
         <v>1392409</v>
       </c>
     </row>
-    <row r="91" spans="2:15" hidden="1">
-      <c r="B91" s="16">
+    <row r="92" spans="2:15" hidden="1">
+      <c r="B92" s="16">
         <v>2018</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C92" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D91" s="17">
+      <c r="D92" s="17">
         <f t="shared" si="4"/>
         <v>4448093</v>
       </c>
-      <c r="E91" s="18">
+      <c r="E92" s="18">
         <v>22962</v>
       </c>
-      <c r="F91" s="18">
+      <c r="F92" s="18">
         <v>59046</v>
       </c>
-      <c r="G91" s="18">
+      <c r="G92" s="18">
         <v>878966</v>
       </c>
-      <c r="H91" s="18">
+      <c r="H92" s="18">
         <v>699650</v>
       </c>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18">
+      <c r="I92" s="18"/>
+      <c r="J92" s="18">
         <v>934030</v>
       </c>
-      <c r="K91" s="18">
+      <c r="K92" s="18">
         <v>39995</v>
       </c>
-      <c r="L91" s="18"/>
-      <c r="M91" s="18">
+      <c r="L92" s="18"/>
+      <c r="M92" s="18">
         <v>44679</v>
       </c>
-      <c r="N91" s="18">
+      <c r="N92" s="18">
         <v>569891</v>
       </c>
-      <c r="O91" s="18">
+      <c r="O92" s="18">
         <v>1198874</v>
       </c>
     </row>
-    <row r="92" spans="2:15" hidden="1">
-      <c r="B92" s="12">
+    <row r="93" spans="2:15" hidden="1">
+      <c r="B93" s="12">
         <v>2018</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C93" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D92" s="13">
+      <c r="D93" s="13">
         <f t="shared" si="4"/>
         <v>5082659</v>
       </c>
-      <c r="E92" s="14">
+      <c r="E93" s="14">
         <v>24734</v>
       </c>
-      <c r="F92" s="14">
+      <c r="F93" s="14">
         <v>60981</v>
       </c>
-      <c r="G92" s="14">
+      <c r="G93" s="14">
         <v>1021784</v>
       </c>
-      <c r="H92" s="14">
+      <c r="H93" s="14">
         <v>777479</v>
       </c>
-      <c r="I92" s="14"/>
-      <c r="J92" s="14">
+      <c r="I93" s="14"/>
+      <c r="J93" s="14">
         <v>1078923</v>
       </c>
-      <c r="K92" s="14">
+      <c r="K93" s="14">
         <v>55290</v>
       </c>
-      <c r="L92" s="14"/>
-      <c r="M92" s="14">
+      <c r="L93" s="14"/>
+      <c r="M93" s="14">
         <v>47772</v>
       </c>
-      <c r="N92" s="14">
+      <c r="N93" s="14">
         <v>664529</v>
       </c>
-      <c r="O92" s="14">
+      <c r="O93" s="14">
         <v>1351167</v>
       </c>
-    </row>
-    <row r="93" spans="2:15">
-      <c r="B93" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E93" s="3"/>
     </row>
     <row r="94" spans="2:15">
       <c r="B94" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="2:15">
+      <c r="B95" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="28"/>
-      <c r="O94" s="29"/>
-    </row>
-    <row r="95" spans="2:15">
-      <c r="B95" s="28" t="s">
-        <v>30</v>
-      </c>
       <c r="C95" s="28"/>
+      <c r="O95" s="29"/>
     </row>
     <row r="96" spans="2:15">
       <c r="B96" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C96" s="28"/>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" s="28"/>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="2:4">
-      <c r="B98" s="3" t="s">
+    <row r="99" spans="2:4">
+      <c r="B99" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:4">
-      <c r="D101" s="27"/>
-    </row>
-    <row r="105" spans="2:4">
-      <c r="D105" s="27"/>
+    <row r="102" spans="2:4">
+      <c r="D102" s="27"/>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="D106" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Pasajeros_por_aerolinea_nac.xlsx
+++ b/Pasajeros_por_aerolinea_nac.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D33246-D60B-4101-AEAB-3E347BBFE1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0BB4F4-BE1F-420A-9366-0C51414C4B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="32">
   <si>
     <t>Total</t>
   </si>
@@ -56,16 +56,10 @@
     <t>Aeroméxico Connect (Aerolitoral)</t>
   </si>
   <si>
-    <t>Interjet (ABC Aerolíneas)</t>
-  </si>
-  <si>
     <t>Vivaaerobus (Aeroenlaces)</t>
   </si>
   <si>
     <t>Volaris (Concesionaria Vuela Cia de Aviación)</t>
-  </si>
-  <si>
-    <t>Nota: Interjet suspendió operaciones a partir del 11 de diciembre de 2020.</t>
   </si>
   <si>
     <t>Aerus</t>
@@ -128,16 +122,16 @@
     <t>Aerolíneas</t>
   </si>
   <si>
-    <t xml:space="preserve"> La línea aérea Mexicana comenzó operaciones el 26 de diciembre de 2023.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> La línea aérea Aeromar suspendió operaciones a partir del 16 de febrero de 2023.</t>
   </si>
   <si>
     <t xml:space="preserve"> La línea aérea Aerus inició operaciones el 27 de abril de 2023.</t>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
+    <t>Nota: La línea aérea Mexicana comenzó operaciones el 26 de diciembre de 2023.</t>
+  </si>
+  <si>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -225,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -319,12 +313,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -395,10 +426,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -406,21 +440,7 @@
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <strike val="0"/>
@@ -697,26 +717,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O93" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
-  <autoFilter ref="B5:O93" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:N95" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14">
+  <autoFilter ref="B5:N95" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
+        <filter val="2025"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{BA0C0B85-5366-4A43-92B4-3E3742FD994D}" name="Mes" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{86077915-C170-40DA-9DB4-19E81910B485}" name="Total" dataDxfId="11">
-      <calculatedColumnFormula>SUM(E6:O6)</calculatedColumnFormula>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{BA0C0B85-5366-4A43-92B4-3E3742FD994D}" name="Mes" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{86077915-C170-40DA-9DB4-19E81910B485}" name="Total" dataDxfId="10">
+      <calculatedColumnFormula>SUM(E6:N6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Aéreo Calafia" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Aeromar" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aeroméxico (Aerovías de México)" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{A869730C-1719-4A70-8838-10376967FD05}" name="Aeroméxico Connect (Aerolitoral)" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{523CBB34-1DEE-445B-8474-FD8E64117197}" name="Aerus" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{631795EF-E72C-4257-9376-F3F950D2CD24}" name="Interjet (ABC Aerolíneas)" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Aéreo Calafia" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Aeromar" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aeroméxico (Aerovías de México)" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{A869730C-1719-4A70-8838-10376967FD05}" name="Aeroméxico Connect (Aerolitoral)" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{523CBB34-1DEE-445B-8474-FD8E64117197}" name="Aerus" dataDxfId="5"/>
     <tableColumn id="9" xr3:uid="{7825E645-762A-41A2-B4FE-F68035B408F7}" name="Magnicharters (Grupo Aéreo Monterrey)" dataDxfId="4"/>
     <tableColumn id="10" xr3:uid="{ABE62262-6A70-4763-8581-1FC262023BDA}" name="Mexicana (Aerolínea del Estado Mexicano)" dataDxfId="3"/>
     <tableColumn id="11" xr3:uid="{79063C30-2596-43D4-82AD-DC7007BA3E47}" name="Transportes Aéreos Regionales (TAR)" dataDxfId="2"/>
@@ -950,9 +970,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O106"/>
+  <dimension ref="B2:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -976,24 +996,24 @@
     <col min="16" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18">
+    <row r="2" spans="2:14" ht="18">
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:14">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:14">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
       <c r="E4" s="30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
@@ -1003,15 +1023,14 @@
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
       <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-    </row>
-    <row r="5" spans="2:15" ht="66">
+      <c r="N4" s="32"/>
+    </row>
+    <row r="5" spans="2:14" ht="66">
       <c r="B5" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>0</v>
@@ -1029,28 +1048,25 @@
         <v>5</v>
       </c>
       <c r="I5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="L5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15">
+    </row>
+    <row r="6" spans="2:14">
       <c r="B6" s="15">
         <v>2025</v>
       </c>
@@ -1058,38 +1074,37 @@
         <v>20</v>
       </c>
       <c r="D6" s="17">
-        <f>SUM(E6:O6)</f>
-        <v>6914542</v>
+        <f>SUM(E6:N6)</f>
+        <v>6582543</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18">
-        <v>1679269</v>
+        <v>1637841</v>
       </c>
       <c r="H6" s="18">
-        <v>375721</v>
+        <v>366046</v>
       </c>
       <c r="I6" s="18">
-        <v>2623</v>
-      </c>
-      <c r="J6" s="18"/>
+        <v>3085</v>
+      </c>
+      <c r="J6" s="18">
+        <v>21458</v>
+      </c>
       <c r="K6" s="18">
-        <v>17652</v>
+        <v>29258</v>
       </c>
       <c r="L6" s="18">
-        <v>39304</v>
+        <v>13273</v>
       </c>
       <c r="M6" s="18">
-        <v>19246</v>
+        <v>2305737</v>
       </c>
       <c r="N6" s="18">
-        <v>2388075</v>
-      </c>
-      <c r="O6" s="18">
-        <v>2392652</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15">
+        <v>2205845</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
       <c r="B7" s="11">
         <v>2025</v>
       </c>
@@ -1097,38 +1112,37 @@
         <v>19</v>
       </c>
       <c r="D7" s="13">
-        <f>SUM(E7:O7)</f>
-        <v>6673744</v>
+        <f t="shared" ref="D7:D38" si="0">SUM(E7:N7)</f>
+        <v>6744988</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14">
-        <v>1613283</v>
+        <v>1650373</v>
       </c>
       <c r="H7" s="14">
-        <v>387375</v>
+        <v>376468</v>
       </c>
       <c r="I7" s="14">
-        <v>2498</v>
-      </c>
-      <c r="J7" s="14"/>
+        <v>2743</v>
+      </c>
+      <c r="J7" s="14">
+        <v>18727</v>
+      </c>
       <c r="K7" s="14">
-        <v>12552</v>
+        <v>31001</v>
       </c>
       <c r="L7" s="14">
-        <v>27996</v>
+        <v>16237</v>
       </c>
       <c r="M7" s="14">
-        <v>17356</v>
+        <v>2362806</v>
       </c>
       <c r="N7" s="14">
-        <v>2269618</v>
-      </c>
-      <c r="O7" s="14">
-        <v>2343066</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15">
+        <v>2286633</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
       <c r="B8" s="15">
         <v>2025</v>
       </c>
@@ -1136,155 +1150,151 @@
         <v>18</v>
       </c>
       <c r="D8" s="17">
-        <f>SUM(E8:O8)</f>
-        <v>5717669</v>
+        <f t="shared" si="0"/>
+        <v>6914542</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18">
-        <v>1396853</v>
+        <v>1679269</v>
       </c>
       <c r="H8" s="18">
-        <v>347893</v>
+        <v>375721</v>
       </c>
       <c r="I8" s="18">
-        <v>2002</v>
-      </c>
-      <c r="J8" s="18"/>
+        <v>2623</v>
+      </c>
+      <c r="J8" s="18">
+        <v>17652</v>
+      </c>
       <c r="K8" s="18">
-        <v>7942</v>
+        <v>39304</v>
       </c>
       <c r="L8" s="18">
-        <v>19987</v>
+        <v>19246</v>
       </c>
       <c r="M8" s="18">
-        <v>13607</v>
+        <v>2388075</v>
       </c>
       <c r="N8" s="18">
-        <v>1922778</v>
-      </c>
-      <c r="O8" s="18">
-        <v>2006607</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="19">
+        <v>2392652</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="11">
         <v>2025</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="21">
-        <f>SUM(E9:O9)</f>
-        <v>6704849</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22">
-        <v>1669900</v>
-      </c>
-      <c r="H9" s="22">
-        <v>395411</v>
-      </c>
-      <c r="I9" s="22">
-        <v>2263</v>
-      </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22">
-        <v>11376</v>
-      </c>
-      <c r="L9" s="22">
-        <v>33325</v>
-      </c>
-      <c r="M9" s="22">
-        <v>15081</v>
-      </c>
-      <c r="N9" s="22">
-        <v>2220761</v>
-      </c>
-      <c r="O9" s="22">
-        <v>2356732</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15">
+      <c r="D9" s="13">
+        <f t="shared" si="0"/>
+        <v>6673780</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14">
+        <v>1613283</v>
+      </c>
+      <c r="H9" s="14">
+        <v>387375</v>
+      </c>
+      <c r="I9" s="14">
+        <v>2498</v>
+      </c>
+      <c r="J9" s="14">
+        <v>12552</v>
+      </c>
+      <c r="K9" s="14">
+        <v>27996</v>
+      </c>
+      <c r="L9" s="14">
+        <v>17392</v>
+      </c>
+      <c r="M9" s="14">
+        <v>2269618</v>
+      </c>
+      <c r="N9" s="14">
+        <v>2343066</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10" s="15">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D10" s="17">
-        <f>SUM(E10:O10)</f>
-        <v>7193395</v>
+        <f t="shared" si="0"/>
+        <v>5717679</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18">
-        <v>1749211</v>
+        <v>1396853</v>
       </c>
       <c r="H10" s="18">
-        <v>393443</v>
+        <v>347893</v>
       </c>
       <c r="I10" s="18">
-        <v>3591</v>
-      </c>
-      <c r="J10" s="18"/>
+        <v>2002</v>
+      </c>
+      <c r="J10" s="18">
+        <v>7942</v>
+      </c>
       <c r="K10" s="18">
-        <v>19131</v>
+        <v>19987</v>
       </c>
       <c r="L10" s="18">
-        <v>42411</v>
+        <v>13617</v>
       </c>
       <c r="M10" s="18">
-        <v>19789</v>
+        <v>1922778</v>
       </c>
       <c r="N10" s="18">
-        <v>2449237</v>
-      </c>
-      <c r="O10" s="18">
-        <v>2516582</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="11">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="13">
-        <f>SUM(E11:O11)</f>
-        <v>6698440</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14">
-        <v>1630210</v>
-      </c>
-      <c r="H11" s="14">
-        <v>378802</v>
-      </c>
-      <c r="I11" s="14">
-        <v>3872</v>
-      </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14">
-        <v>18521</v>
-      </c>
-      <c r="L11" s="14">
-        <v>23922</v>
-      </c>
-      <c r="M11" s="14">
-        <v>14425</v>
-      </c>
-      <c r="N11" s="14">
-        <v>2321101</v>
-      </c>
-      <c r="O11" s="14">
-        <v>2307587</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15">
+        <v>2006607</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="19">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="21">
+        <f t="shared" si="0"/>
+        <v>6704849</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22">
+        <v>1669900</v>
+      </c>
+      <c r="H11" s="22">
+        <v>395411</v>
+      </c>
+      <c r="I11" s="22">
+        <v>2263</v>
+      </c>
+      <c r="J11" s="22">
+        <v>11376</v>
+      </c>
+      <c r="K11" s="22">
+        <v>33325</v>
+      </c>
+      <c r="L11" s="22">
+        <v>15081</v>
+      </c>
+      <c r="M11" s="22">
+        <v>2220761</v>
+      </c>
+      <c r="N11" s="22">
+        <v>2356732</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
       <c r="B12" s="15">
         <v>2024</v>
       </c>
@@ -1292,38 +1302,37 @@
         <v>26</v>
       </c>
       <c r="D12" s="17">
-        <f t="shared" ref="D12" si="0">SUM(E12:O12)</f>
-        <v>6571845</v>
+        <f t="shared" si="0"/>
+        <v>7192079</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18">
-        <v>1659284</v>
+        <v>1749211</v>
       </c>
       <c r="H12" s="18">
-        <v>357763</v>
+        <v>393443</v>
       </c>
       <c r="I12" s="18">
-        <v>4125</v>
-      </c>
-      <c r="J12" s="18"/>
+        <v>2275</v>
+      </c>
+      <c r="J12" s="18">
+        <v>19131</v>
+      </c>
       <c r="K12" s="18">
-        <v>18874</v>
+        <v>42411</v>
       </c>
       <c r="L12" s="18">
-        <v>22660</v>
+        <v>19789</v>
       </c>
       <c r="M12" s="18">
-        <v>9268</v>
+        <v>2449237</v>
       </c>
       <c r="N12" s="18">
-        <v>2210987</v>
-      </c>
-      <c r="O12" s="18">
-        <v>2288884</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="18.75" customHeight="1">
+        <v>2516582</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
       <c r="B13" s="11">
         <v>2024</v>
       </c>
@@ -1331,38 +1340,37 @@
         <v>25</v>
       </c>
       <c r="D13" s="13">
-        <f>SUM(E13:O13)</f>
-        <v>6241021</v>
+        <f t="shared" si="0"/>
+        <v>6697243</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14">
-        <v>1602332</v>
+        <v>1630210</v>
       </c>
       <c r="H13" s="14">
-        <v>357115</v>
+        <v>378802</v>
       </c>
       <c r="I13" s="14">
-        <v>3750</v>
-      </c>
-      <c r="J13" s="14"/>
+        <v>2675</v>
+      </c>
+      <c r="J13" s="14">
+        <v>18521</v>
+      </c>
       <c r="K13" s="14">
-        <v>16595</v>
+        <v>23922</v>
       </c>
       <c r="L13" s="14">
-        <v>21490</v>
+        <v>14425</v>
       </c>
       <c r="M13" s="14">
-        <v>8152</v>
+        <v>2321101</v>
       </c>
       <c r="N13" s="14">
-        <v>2135071</v>
-      </c>
-      <c r="O13" s="14">
-        <v>2096516</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="18.75" customHeight="1">
+        <v>2307587</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
       <c r="B14" s="15">
         <v>2024</v>
       </c>
@@ -1370,38 +1378,37 @@
         <v>24</v>
       </c>
       <c r="D14" s="17">
-        <f>SUM(E14:O14)</f>
-        <v>7122257</v>
+        <f t="shared" si="0"/>
+        <v>6570638</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18">
-        <v>1846259</v>
+        <v>1659284</v>
       </c>
       <c r="H14" s="18">
-        <v>423300</v>
+        <v>357763</v>
       </c>
       <c r="I14" s="18">
-        <v>3350</v>
-      </c>
-      <c r="J14" s="18"/>
+        <v>2918</v>
+      </c>
+      <c r="J14" s="18">
+        <v>18874</v>
+      </c>
       <c r="K14" s="18">
-        <v>23287</v>
+        <v>22660</v>
       </c>
       <c r="L14" s="18">
-        <v>32823</v>
+        <v>9268</v>
       </c>
       <c r="M14" s="18">
-        <v>13091</v>
+        <v>2210987</v>
       </c>
       <c r="N14" s="18">
-        <v>2380847</v>
-      </c>
-      <c r="O14" s="18">
-        <v>2399300</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" ht="18.75" customHeight="1">
+        <v>2288884</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="18.75" customHeight="1">
       <c r="B15" s="11">
         <v>2024</v>
       </c>
@@ -1409,40 +1416,37 @@
         <v>23</v>
       </c>
       <c r="D15" s="13">
-        <f t="shared" ref="D15:D17" si="1">SUM(E15:O15)</f>
-        <v>7365600</v>
-      </c>
-      <c r="E15" s="14">
-        <v>972</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>6239937</v>
+      </c>
+      <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14">
-        <v>1936260</v>
+        <v>1602332</v>
       </c>
       <c r="H15" s="14">
-        <v>455999</v>
+        <v>357115</v>
       </c>
       <c r="I15" s="14">
-        <v>2952</v>
-      </c>
-      <c r="J15" s="14"/>
+        <v>2666</v>
+      </c>
+      <c r="J15" s="14">
+        <v>16595</v>
+      </c>
       <c r="K15" s="14">
-        <v>25726</v>
+        <v>21490</v>
       </c>
       <c r="L15" s="14">
-        <v>35662</v>
+        <v>8152</v>
       </c>
       <c r="M15" s="14">
-        <v>11529</v>
+        <v>2135071</v>
       </c>
       <c r="N15" s="14">
-        <v>2421165</v>
-      </c>
-      <c r="O15" s="14">
-        <v>2475335</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" ht="18.75" customHeight="1">
+        <v>2096516</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="18.75" customHeight="1">
       <c r="B16" s="15">
         <v>2024</v>
       </c>
@@ -1450,40 +1454,37 @@
         <v>22</v>
       </c>
       <c r="D16" s="17">
-        <f t="shared" si="1"/>
-        <v>6545709</v>
-      </c>
-      <c r="E16" s="18">
-        <v>744</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>7121241</v>
+      </c>
+      <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18">
-        <v>1681153</v>
+        <v>1846259</v>
       </c>
       <c r="H16" s="18">
-        <v>420652</v>
+        <v>423300</v>
       </c>
       <c r="I16" s="18">
-        <v>2495</v>
-      </c>
-      <c r="J16" s="18"/>
+        <v>2334</v>
+      </c>
+      <c r="J16" s="18">
+        <v>23287</v>
+      </c>
       <c r="K16" s="18">
-        <v>23110</v>
+        <v>32823</v>
       </c>
       <c r="L16" s="18">
-        <v>21518</v>
+        <v>13091</v>
       </c>
       <c r="M16" s="18">
-        <v>9672</v>
+        <v>2380847</v>
       </c>
       <c r="N16" s="18">
-        <v>2174929</v>
-      </c>
-      <c r="O16" s="18">
-        <v>2211436</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15">
+        <v>2399300</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="18.75" customHeight="1">
       <c r="B17" s="11">
         <v>2024</v>
       </c>
@@ -1491,40 +1492,39 @@
         <v>21</v>
       </c>
       <c r="D17" s="13">
-        <f t="shared" si="1"/>
-        <v>6588910</v>
+        <f t="shared" si="0"/>
+        <v>7364610</v>
       </c>
       <c r="E17" s="14">
-        <v>820</v>
+        <v>972</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14">
-        <v>1727003</v>
+        <v>1936260</v>
       </c>
       <c r="H17" s="14">
-        <v>431546</v>
+        <v>455999</v>
       </c>
       <c r="I17" s="14">
-        <v>2633</v>
-      </c>
-      <c r="J17" s="14"/>
+        <v>1962</v>
+      </c>
+      <c r="J17" s="14">
+        <v>25726</v>
+      </c>
       <c r="K17" s="14">
-        <v>13929</v>
+        <v>35662</v>
       </c>
       <c r="L17" s="14">
-        <v>22186</v>
+        <v>11529</v>
       </c>
       <c r="M17" s="14">
-        <v>10844</v>
+        <v>2421165</v>
       </c>
       <c r="N17" s="14">
-        <v>2176419</v>
-      </c>
-      <c r="O17" s="14">
-        <v>2203530</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15">
+        <v>2475335</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="18.75" customHeight="1">
       <c r="B18" s="15">
         <v>2024</v>
       </c>
@@ -1532,40 +1532,39 @@
         <v>20</v>
       </c>
       <c r="D18" s="17">
-        <f t="shared" ref="D18:D48" si="2">SUM(E18:O18)</f>
-        <v>6255613</v>
+        <f t="shared" si="0"/>
+        <v>6544776</v>
       </c>
       <c r="E18" s="18">
-        <v>1018</v>
+        <v>744</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18">
-        <v>1647314</v>
+        <v>1681153</v>
       </c>
       <c r="H18" s="18">
-        <v>437362</v>
+        <v>420652</v>
       </c>
       <c r="I18" s="18">
-        <v>2451</v>
-      </c>
-      <c r="J18" s="18"/>
+        <v>1562</v>
+      </c>
+      <c r="J18" s="18">
+        <v>23110</v>
+      </c>
       <c r="K18" s="18">
-        <v>17123</v>
+        <v>21518</v>
       </c>
       <c r="L18" s="18">
-        <v>21899</v>
+        <v>9672</v>
       </c>
       <c r="M18" s="18">
-        <v>13242</v>
+        <v>2174929</v>
       </c>
       <c r="N18" s="18">
-        <v>2025760</v>
-      </c>
-      <c r="O18" s="18">
-        <v>2089444</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15">
+        <v>2211436</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
       <c r="B19" s="11">
         <v>2024</v>
       </c>
@@ -1573,40 +1572,39 @@
         <v>19</v>
       </c>
       <c r="D19" s="13">
-        <f t="shared" si="2"/>
-        <v>6264883</v>
+        <f t="shared" si="0"/>
+        <v>6587851</v>
       </c>
       <c r="E19" s="14">
-        <v>985</v>
+        <v>820</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14">
-        <v>1663451</v>
+        <v>1727003</v>
       </c>
       <c r="H19" s="14">
-        <v>414407</v>
+        <v>431546</v>
       </c>
       <c r="I19" s="14">
-        <v>2426</v>
-      </c>
-      <c r="J19" s="14"/>
+        <v>1574</v>
+      </c>
+      <c r="J19" s="14">
+        <v>13929</v>
+      </c>
       <c r="K19" s="14">
-        <v>16310</v>
+        <v>22186</v>
       </c>
       <c r="L19" s="14">
-        <v>24140</v>
+        <v>10844</v>
       </c>
       <c r="M19" s="14">
-        <v>11320</v>
+        <v>2176419</v>
       </c>
       <c r="N19" s="14">
-        <v>2037641</v>
-      </c>
-      <c r="O19" s="14">
-        <v>2094203</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15">
+        <v>2203530</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
       <c r="B20" s="15">
         <v>2024</v>
       </c>
@@ -1614,200 +1612,199 @@
         <v>18</v>
       </c>
       <c r="D20" s="17">
-        <f t="shared" si="2"/>
-        <v>5606595</v>
+        <f t="shared" si="0"/>
+        <v>6254455</v>
       </c>
       <c r="E20" s="18">
-        <v>703</v>
+        <v>1018</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18">
+        <v>1647314</v>
+      </c>
+      <c r="H20" s="18">
+        <v>437362</v>
+      </c>
+      <c r="I20" s="18">
+        <v>1293</v>
+      </c>
+      <c r="J20" s="18">
+        <v>17123</v>
+      </c>
+      <c r="K20" s="18">
+        <v>21899</v>
+      </c>
+      <c r="L20" s="18">
+        <v>13242</v>
+      </c>
+      <c r="M20" s="18">
+        <v>2025760</v>
+      </c>
+      <c r="N20" s="18">
+        <v>2089444</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="11">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="13">
+        <f t="shared" si="0"/>
+        <v>6263723</v>
+      </c>
+      <c r="E21" s="14">
+        <v>985</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14">
+        <v>1663451</v>
+      </c>
+      <c r="H21" s="14">
+        <v>414407</v>
+      </c>
+      <c r="I21" s="14">
+        <v>1266</v>
+      </c>
+      <c r="J21" s="14">
+        <v>16310</v>
+      </c>
+      <c r="K21" s="14">
+        <v>24140</v>
+      </c>
+      <c r="L21" s="14">
+        <v>11320</v>
+      </c>
+      <c r="M21" s="14">
+        <v>2037641</v>
+      </c>
+      <c r="N21" s="14">
+        <v>2094203</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="17">
+        <f t="shared" si="0"/>
+        <v>5605484</v>
+      </c>
+      <c r="E22" s="18">
+        <v>703</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18">
         <v>1479121</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H22" s="18">
         <v>395860</v>
       </c>
-      <c r="I20" s="18">
-        <v>2323</v>
-      </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18">
+      <c r="I22" s="18">
+        <v>1212</v>
+      </c>
+      <c r="J22" s="18">
         <v>11161</v>
       </c>
-      <c r="L20" s="18">
+      <c r="K22" s="18">
         <v>17287</v>
       </c>
-      <c r="M20" s="18">
+      <c r="L22" s="18">
         <v>11349</v>
       </c>
-      <c r="N20" s="18">
+      <c r="M22" s="18">
         <v>1772299</v>
       </c>
-      <c r="O20" s="18">
+      <c r="N22" s="18">
         <v>1916492</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
-      <c r="B21" s="19">
+    <row r="23" spans="2:14">
+      <c r="B23" s="19">
         <v>2024</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="21">
-        <f t="shared" si="2"/>
-        <v>6274620</v>
-      </c>
-      <c r="E21" s="22">
+      <c r="C23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="21">
+        <f t="shared" si="0"/>
+        <v>6273694</v>
+      </c>
+      <c r="E23" s="22">
         <v>1102</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22">
+      <c r="F23" s="22"/>
+      <c r="G23" s="22">
         <v>1481216</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H23" s="22">
         <v>490118</v>
       </c>
-      <c r="I21" s="22">
-        <v>2332</v>
-      </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22">
+      <c r="I23" s="22">
+        <v>1406</v>
+      </c>
+      <c r="J23" s="22">
         <v>14046</v>
       </c>
-      <c r="L21" s="22">
+      <c r="K23" s="22">
         <v>12504</v>
       </c>
-      <c r="M21" s="22">
+      <c r="L23" s="22">
         <v>12424</v>
       </c>
-      <c r="N21" s="22">
+      <c r="M23" s="22">
         <v>2028846</v>
       </c>
-      <c r="O21" s="22">
+      <c r="N23" s="22">
         <v>2232032</v>
       </c>
     </row>
-    <row r="22" spans="2:15" hidden="1">
-      <c r="B22" s="23">
+    <row r="24" spans="2:14" hidden="1">
+      <c r="B24" s="23">
         <v>2023</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="25">
-        <f t="shared" si="2"/>
+      <c r="C24" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="25">
+        <f t="shared" si="0"/>
         <v>6943699</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E24" s="26">
         <v>1263</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26">
+      <c r="F24" s="26"/>
+      <c r="G24" s="26">
         <v>1661066</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H24" s="26">
         <v>520344</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I24" s="26">
         <v>2164</v>
       </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26">
+      <c r="J24" s="26">
         <v>23295</v>
       </c>
-      <c r="L22" s="26">
+      <c r="K24" s="26">
         <v>1620</v>
       </c>
-      <c r="M22" s="26">
+      <c r="L24" s="26">
         <v>19717</v>
       </c>
-      <c r="N22" s="26">
+      <c r="M24" s="26">
         <v>2180392</v>
       </c>
-      <c r="O22" s="26">
+      <c r="N24" s="26">
         <v>2533838</v>
       </c>
     </row>
-    <row r="23" spans="2:15" hidden="1">
-      <c r="B23" s="11">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="13">
-        <f t="shared" si="2"/>
-        <v>6524452</v>
-      </c>
-      <c r="E23" s="14">
-        <v>817</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14">
-        <v>1518614</v>
-      </c>
-      <c r="H23" s="14">
-        <v>487651</v>
-      </c>
-      <c r="I23" s="14">
-        <v>1815</v>
-      </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14">
-        <v>23109</v>
-      </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14">
-        <v>18006</v>
-      </c>
-      <c r="N23" s="14">
-        <v>2055956</v>
-      </c>
-      <c r="O23" s="14">
-        <v>2418484</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" hidden="1">
-      <c r="B24" s="15">
-        <v>2023</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="17">
-        <f t="shared" si="2"/>
-        <v>6666523</v>
-      </c>
-      <c r="E24" s="18">
-        <v>745</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18">
-        <v>1534357</v>
-      </c>
-      <c r="H24" s="18">
-        <v>502142</v>
-      </c>
-      <c r="I24" s="18">
-        <v>1593</v>
-      </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18">
-        <v>27175</v>
-      </c>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18">
-        <v>15799</v>
-      </c>
-      <c r="N24" s="18">
-        <v>2142423</v>
-      </c>
-      <c r="O24" s="18">
-        <v>2442289</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" hidden="1">
+    <row r="25" spans="2:14" hidden="1">
       <c r="B25" s="11">
         <v>2023</v>
       </c>
@@ -1815,38 +1812,37 @@
         <v>25</v>
       </c>
       <c r="D25" s="13">
-        <f t="shared" si="2"/>
-        <v>6234323</v>
+        <f t="shared" si="0"/>
+        <v>6524452</v>
       </c>
       <c r="E25" s="14">
-        <v>136</v>
+        <v>817</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14">
-        <v>1449933</v>
+        <v>1518614</v>
       </c>
       <c r="H25" s="14">
-        <v>489367</v>
+        <v>487651</v>
       </c>
       <c r="I25" s="14">
-        <v>1718</v>
-      </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14">
-        <v>20794</v>
-      </c>
-      <c r="L25" s="14"/>
+        <v>1815</v>
+      </c>
+      <c r="J25" s="14">
+        <v>23109</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14">
+        <v>18006</v>
+      </c>
       <c r="M25" s="14">
-        <v>13440</v>
+        <v>2055956</v>
       </c>
       <c r="N25" s="14">
-        <v>1975887</v>
-      </c>
-      <c r="O25" s="14">
-        <v>2283048</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" hidden="1">
+        <v>2418484</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" hidden="1">
       <c r="B26" s="15">
         <v>2023</v>
       </c>
@@ -1854,38 +1850,37 @@
         <v>24</v>
       </c>
       <c r="D26" s="17">
-        <f t="shared" si="2"/>
-        <v>7366586</v>
+        <f t="shared" si="0"/>
+        <v>6666523</v>
       </c>
       <c r="E26" s="18">
-        <v>711</v>
+        <v>745</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18">
-        <v>1790842</v>
+        <v>1534357</v>
       </c>
       <c r="H26" s="18">
-        <v>509073</v>
+        <v>502142</v>
       </c>
       <c r="I26" s="18">
-        <v>1858</v>
-      </c>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18">
-        <v>33617</v>
-      </c>
-      <c r="L26" s="18"/>
+        <v>1593</v>
+      </c>
+      <c r="J26" s="18">
+        <v>27175</v>
+      </c>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18">
+        <v>15799</v>
+      </c>
       <c r="M26" s="18">
-        <v>17102</v>
+        <v>2142423</v>
       </c>
       <c r="N26" s="18">
-        <v>2222143</v>
-      </c>
-      <c r="O26" s="18">
-        <v>2791240</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" hidden="1">
+        <v>2442289</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" hidden="1">
       <c r="B27" s="11">
         <v>2023</v>
       </c>
@@ -1893,38 +1888,37 @@
         <v>23</v>
       </c>
       <c r="D27" s="13">
-        <f t="shared" si="2"/>
-        <v>7470779</v>
+        <f t="shared" si="0"/>
+        <v>6234323</v>
       </c>
       <c r="E27" s="14">
-        <v>7815</v>
+        <v>136</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14">
-        <v>1877785</v>
+        <v>1449933</v>
       </c>
       <c r="H27" s="14">
-        <v>489520</v>
+        <v>489367</v>
       </c>
       <c r="I27" s="14">
-        <v>1593</v>
-      </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14">
-        <v>38495</v>
-      </c>
-      <c r="L27" s="14"/>
+        <v>1718</v>
+      </c>
+      <c r="J27" s="14">
+        <v>20794</v>
+      </c>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14">
+        <v>13440</v>
+      </c>
       <c r="M27" s="14">
-        <v>16965</v>
+        <v>1975887</v>
       </c>
       <c r="N27" s="14">
-        <v>2256958</v>
-      </c>
-      <c r="O27" s="14">
-        <v>2781648</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" hidden="1">
+        <v>2283048</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" hidden="1">
       <c r="B28" s="15">
         <v>2023</v>
       </c>
@@ -1932,38 +1926,37 @@
         <v>22</v>
       </c>
       <c r="D28" s="17">
-        <f t="shared" si="2"/>
-        <v>6481356</v>
+        <f t="shared" si="0"/>
+        <v>7366586</v>
       </c>
       <c r="E28" s="18">
-        <v>8579</v>
+        <v>711</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18">
-        <v>1623869</v>
+        <v>1790842</v>
       </c>
       <c r="H28" s="18">
-        <v>444461</v>
+        <v>509073</v>
       </c>
       <c r="I28" s="18">
-        <v>930</v>
-      </c>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18">
-        <v>26027</v>
-      </c>
-      <c r="L28" s="18"/>
+        <v>1858</v>
+      </c>
+      <c r="J28" s="18">
+        <v>33617</v>
+      </c>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18">
+        <v>17102</v>
+      </c>
       <c r="M28" s="18">
-        <v>16972</v>
+        <v>2222143</v>
       </c>
       <c r="N28" s="18">
-        <v>1939577</v>
-      </c>
-      <c r="O28" s="18">
-        <v>2420941</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" hidden="1">
+        <v>2791240</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" hidden="1">
       <c r="B29" s="11">
         <v>2023</v>
       </c>
@@ -1971,38 +1964,37 @@
         <v>21</v>
       </c>
       <c r="D29" s="13">
-        <f t="shared" si="2"/>
-        <v>6466836</v>
+        <f t="shared" si="0"/>
+        <v>7470779</v>
       </c>
       <c r="E29" s="14">
-        <v>10045</v>
+        <v>7815</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14">
-        <v>1475419</v>
+        <v>1877785</v>
       </c>
       <c r="H29" s="14">
-        <v>493646</v>
+        <v>489520</v>
       </c>
       <c r="I29" s="14">
-        <v>866</v>
-      </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14">
-        <v>22311</v>
-      </c>
-      <c r="L29" s="14"/>
+        <v>1593</v>
+      </c>
+      <c r="J29" s="14">
+        <v>38495</v>
+      </c>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14">
+        <v>16965</v>
+      </c>
       <c r="M29" s="14">
-        <v>22530</v>
+        <v>2256958</v>
       </c>
       <c r="N29" s="14">
-        <v>1903714</v>
-      </c>
-      <c r="O29" s="14">
-        <v>2538305</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" hidden="1">
+        <v>2781648</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" hidden="1">
       <c r="B30" s="15">
         <v>2023</v>
       </c>
@@ -2010,38 +2002,37 @@
         <v>20</v>
       </c>
       <c r="D30" s="17">
-        <f t="shared" si="2"/>
-        <v>6505979</v>
+        <f t="shared" si="0"/>
+        <v>6481356</v>
       </c>
       <c r="E30" s="18">
-        <v>7610</v>
+        <v>8579</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="18">
-        <v>1447508</v>
+        <v>1623869</v>
       </c>
       <c r="H30" s="18">
-        <v>495864</v>
+        <v>444461</v>
       </c>
       <c r="I30" s="18">
-        <v>73</v>
-      </c>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18">
-        <v>22224</v>
-      </c>
-      <c r="L30" s="18"/>
+        <v>930</v>
+      </c>
+      <c r="J30" s="18">
+        <v>26027</v>
+      </c>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18">
+        <v>16972</v>
+      </c>
       <c r="M30" s="18">
-        <v>23384</v>
+        <v>1939577</v>
       </c>
       <c r="N30" s="18">
-        <v>1903503</v>
-      </c>
-      <c r="O30" s="18">
-        <v>2605813</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" hidden="1">
+        <v>2420941</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" hidden="1">
       <c r="B31" s="11">
         <v>2023</v>
       </c>
@@ -2049,36 +2040,37 @@
         <v>19</v>
       </c>
       <c r="D31" s="13">
-        <f t="shared" si="2"/>
-        <v>6389909</v>
+        <f t="shared" si="0"/>
+        <v>6466836</v>
       </c>
       <c r="E31" s="14">
-        <v>4538</v>
+        <v>10045</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14">
-        <v>1502404</v>
+        <v>1475419</v>
       </c>
       <c r="H31" s="14">
-        <v>516526</v>
-      </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14">
-        <v>15589</v>
-      </c>
-      <c r="L31" s="14"/>
+        <v>493646</v>
+      </c>
+      <c r="I31" s="14">
+        <v>866</v>
+      </c>
+      <c r="J31" s="14">
+        <v>22311</v>
+      </c>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14">
+        <v>22530</v>
+      </c>
       <c r="M31" s="14">
-        <v>23229</v>
+        <v>1903714</v>
       </c>
       <c r="N31" s="14">
-        <v>1776763</v>
-      </c>
-      <c r="O31" s="14">
-        <v>2550860</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" hidden="1">
+        <v>2538305</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" hidden="1">
       <c r="B32" s="15">
         <v>2023</v>
       </c>
@@ -2086,194 +2078,187 @@
         <v>18</v>
       </c>
       <c r="D32" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>6505979</v>
+      </c>
+      <c r="E32" s="18">
+        <v>7610</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18">
+        <v>1447508</v>
+      </c>
+      <c r="H32" s="18">
+        <v>495864</v>
+      </c>
+      <c r="I32" s="18">
+        <v>73</v>
+      </c>
+      <c r="J32" s="18">
+        <v>22224</v>
+      </c>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18">
+        <v>23384</v>
+      </c>
+      <c r="M32" s="18">
+        <v>1903503</v>
+      </c>
+      <c r="N32" s="18">
+        <v>2605813</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" hidden="1">
+      <c r="B33" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="13">
+        <f t="shared" si="0"/>
+        <v>6389909</v>
+      </c>
+      <c r="E33" s="14">
+        <v>4538</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14">
+        <v>1502404</v>
+      </c>
+      <c r="H33" s="14">
+        <v>516526</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14">
+        <v>15589</v>
+      </c>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14">
+        <v>23229</v>
+      </c>
+      <c r="M33" s="14">
+        <v>1776763</v>
+      </c>
+      <c r="N33" s="14">
+        <v>2550860</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" hidden="1">
+      <c r="B34" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="17">
+        <f t="shared" si="0"/>
         <v>5478771</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E34" s="18">
         <v>9031</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F34" s="18">
         <v>9443</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G34" s="18">
         <v>1277871</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H34" s="18">
         <v>459155</v>
       </c>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18">
+      <c r="I34" s="18"/>
+      <c r="J34" s="18">
         <v>11992</v>
       </c>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18">
+      <c r="K34" s="18"/>
+      <c r="L34" s="18">
         <v>19704</v>
       </c>
-      <c r="N32" s="18">
+      <c r="M34" s="18">
         <v>1431046</v>
       </c>
-      <c r="O32" s="18">
+      <c r="N34" s="18">
         <v>2260529</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1">
-      <c r="B33" s="19">
+    <row r="35" spans="2:14" hidden="1">
+      <c r="B35" s="19">
         <v>2023</v>
       </c>
-      <c r="C33" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="21">
-        <f t="shared" si="2"/>
+      <c r="C35" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="21">
+        <f t="shared" si="0"/>
         <v>6248337</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E35" s="22">
         <v>9895</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F35" s="22">
         <v>23595</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G35" s="22">
         <v>1439058</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H35" s="22">
         <v>503079</v>
       </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22">
+      <c r="I35" s="22"/>
+      <c r="J35" s="22">
         <v>15438</v>
       </c>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22">
+      <c r="K35" s="22"/>
+      <c r="L35" s="22">
         <v>23680</v>
       </c>
-      <c r="N33" s="22">
+      <c r="M35" s="22">
         <v>1650780</v>
       </c>
-      <c r="O33" s="22">
+      <c r="N35" s="22">
         <v>2582812</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1">
-      <c r="B34" s="23">
+    <row r="36" spans="2:14" hidden="1">
+      <c r="B36" s="23">
         <v>2022</v>
       </c>
-      <c r="C34" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="25">
-        <f t="shared" si="2"/>
+      <c r="C36" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="25">
+        <f t="shared" si="0"/>
         <v>6735243</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E36" s="26">
         <v>8855</v>
       </c>
-      <c r="F34" s="26">
+      <c r="F36" s="26">
         <v>30082</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G36" s="26">
         <v>1541064</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H36" s="26">
         <v>545257</v>
       </c>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26">
+      <c r="I36" s="26"/>
+      <c r="J36" s="26">
         <v>31832</v>
       </c>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26">
+      <c r="K36" s="26"/>
+      <c r="L36" s="26">
         <v>32706</v>
       </c>
-      <c r="N34" s="26">
+      <c r="M36" s="26">
         <v>1885616</v>
       </c>
-      <c r="O34" s="26">
+      <c r="N36" s="26">
         <v>2659831</v>
       </c>
     </row>
-    <row r="35" spans="2:15" hidden="1">
-      <c r="B35" s="11">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="13">
-        <f t="shared" si="2"/>
-        <v>6388091</v>
-      </c>
-      <c r="E35" s="14">
-        <v>10809</v>
-      </c>
-      <c r="F35" s="14">
-        <v>29180</v>
-      </c>
-      <c r="G35" s="14">
-        <v>1477832</v>
-      </c>
-      <c r="H35" s="14">
-        <v>542019</v>
-      </c>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14">
-        <v>26190</v>
-      </c>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14">
-        <v>25324</v>
-      </c>
-      <c r="N35" s="14">
-        <v>1806360</v>
-      </c>
-      <c r="O35" s="14">
-        <v>2470377</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" hidden="1">
-      <c r="B36" s="15">
-        <v>2022</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="17">
-        <f t="shared" si="2"/>
-        <v>6296390</v>
-      </c>
-      <c r="E36" s="18">
-        <v>11560</v>
-      </c>
-      <c r="F36" s="18">
-        <v>29156</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1436769</v>
-      </c>
-      <c r="H36" s="18">
-        <v>525145</v>
-      </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18">
-        <v>25003</v>
-      </c>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18">
-        <v>26165</v>
-      </c>
-      <c r="N36" s="18">
-        <v>1730130</v>
-      </c>
-      <c r="O36" s="18">
-        <v>2512462</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" hidden="1">
+    <row r="37" spans="2:14" hidden="1">
       <c r="B37" s="11">
         <v>2022</v>
       </c>
@@ -2281,38 +2266,37 @@
         <v>25</v>
       </c>
       <c r="D37" s="13">
-        <f t="shared" si="2"/>
-        <v>5717570</v>
+        <f t="shared" si="0"/>
+        <v>6388091</v>
       </c>
       <c r="E37" s="14">
-        <v>8563</v>
+        <v>10809</v>
       </c>
       <c r="F37" s="14">
-        <v>27782</v>
+        <v>29180</v>
       </c>
       <c r="G37" s="14">
-        <v>1324735</v>
+        <v>1477832</v>
       </c>
       <c r="H37" s="14">
-        <v>461328</v>
+        <v>542019</v>
       </c>
       <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14">
-        <v>24539</v>
-      </c>
-      <c r="L37" s="14"/>
+      <c r="J37" s="14">
+        <v>26190</v>
+      </c>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14">
+        <v>25324</v>
+      </c>
       <c r="M37" s="14">
-        <v>23409</v>
+        <v>1806360</v>
       </c>
       <c r="N37" s="14">
-        <v>1533686</v>
-      </c>
-      <c r="O37" s="14">
-        <v>2313528</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" hidden="1">
+        <v>2470377</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" hidden="1">
       <c r="B38" s="15">
         <v>2022</v>
       </c>
@@ -2320,38 +2304,37 @@
         <v>24</v>
       </c>
       <c r="D38" s="17">
-        <f t="shared" si="2"/>
-        <v>6395624</v>
+        <f t="shared" si="0"/>
+        <v>6296390</v>
       </c>
       <c r="E38" s="18">
-        <v>12206</v>
+        <v>11560</v>
       </c>
       <c r="F38" s="18">
-        <v>36300</v>
+        <v>29156</v>
       </c>
       <c r="G38" s="18">
-        <v>1459848</v>
+        <v>1436769</v>
       </c>
       <c r="H38" s="18">
-        <v>550210</v>
+        <v>525145</v>
       </c>
       <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18">
-        <v>41574</v>
-      </c>
-      <c r="L38" s="18"/>
+      <c r="J38" s="18">
+        <v>25003</v>
+      </c>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18">
+        <v>26165</v>
+      </c>
       <c r="M38" s="18">
-        <v>28457</v>
+        <v>1730130</v>
       </c>
       <c r="N38" s="18">
-        <v>1770150</v>
-      </c>
-      <c r="O38" s="18">
-        <v>2496879</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" hidden="1">
+        <v>2512462</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" hidden="1">
       <c r="B39" s="11">
         <v>2022</v>
       </c>
@@ -2359,38 +2342,37 @@
         <v>23</v>
       </c>
       <c r="D39" s="13">
-        <f t="shared" si="2"/>
-        <v>6606709</v>
+        <f t="shared" ref="D39:D70" si="1">SUM(E39:N39)</f>
+        <v>5717570</v>
       </c>
       <c r="E39" s="14">
-        <v>12900</v>
+        <v>8563</v>
       </c>
       <c r="F39" s="14">
-        <v>37410</v>
+        <v>27782</v>
       </c>
       <c r="G39" s="14">
-        <v>1493132</v>
+        <v>1324735</v>
       </c>
       <c r="H39" s="14">
-        <v>544988</v>
+        <v>461328</v>
       </c>
       <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14">
-        <v>52783</v>
-      </c>
-      <c r="L39" s="14"/>
+      <c r="J39" s="14">
+        <v>24539</v>
+      </c>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14">
+        <v>23409</v>
+      </c>
       <c r="M39" s="14">
-        <v>35829</v>
+        <v>1533686</v>
       </c>
       <c r="N39" s="14">
-        <v>1832173</v>
-      </c>
-      <c r="O39" s="14">
-        <v>2597494</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" hidden="1">
+        <v>2313528</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" hidden="1">
       <c r="B40" s="15">
         <v>2022</v>
       </c>
@@ -2398,38 +2380,37 @@
         <v>22</v>
       </c>
       <c r="D40" s="17">
-        <f t="shared" si="2"/>
-        <v>5816384</v>
+        <f t="shared" si="1"/>
+        <v>6395624</v>
       </c>
       <c r="E40" s="18">
-        <v>11528</v>
+        <v>12206</v>
       </c>
       <c r="F40" s="18">
-        <v>29894</v>
+        <v>36300</v>
       </c>
       <c r="G40" s="18">
-        <v>1448616</v>
+        <v>1459848</v>
       </c>
       <c r="H40" s="18">
-        <v>482837</v>
+        <v>550210</v>
       </c>
       <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18">
-        <v>38612</v>
-      </c>
-      <c r="L40" s="18"/>
+      <c r="J40" s="18">
+        <v>41574</v>
+      </c>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18">
+        <v>28457</v>
+      </c>
       <c r="M40" s="18">
-        <v>31692</v>
+        <v>1770150</v>
       </c>
       <c r="N40" s="18">
-        <v>1629719</v>
-      </c>
-      <c r="O40" s="18">
-        <v>2143486</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" hidden="1">
+        <v>2496879</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" hidden="1">
       <c r="B41" s="11">
         <v>2022</v>
       </c>
@@ -2437,38 +2418,37 @@
         <v>21</v>
       </c>
       <c r="D41" s="13">
-        <f t="shared" si="2"/>
-        <v>5938227</v>
+        <f t="shared" si="1"/>
+        <v>6606709</v>
       </c>
       <c r="E41" s="14">
-        <v>14051</v>
+        <v>12900</v>
       </c>
       <c r="F41" s="14">
-        <v>34530</v>
+        <v>37410</v>
       </c>
       <c r="G41" s="14">
-        <v>1394194</v>
+        <v>1493132</v>
       </c>
       <c r="H41" s="14">
-        <v>469001</v>
+        <v>544988</v>
       </c>
       <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14">
-        <v>36048</v>
-      </c>
-      <c r="L41" s="14"/>
+      <c r="J41" s="14">
+        <v>52783</v>
+      </c>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14">
+        <v>35829</v>
+      </c>
       <c r="M41" s="14">
-        <v>32934</v>
+        <v>1832173</v>
       </c>
       <c r="N41" s="14">
-        <v>1638787</v>
-      </c>
-      <c r="O41" s="14">
-        <v>2318682</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" hidden="1">
+        <v>2597494</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" hidden="1">
       <c r="B42" s="15">
         <v>2022</v>
       </c>
@@ -2476,38 +2456,37 @@
         <v>20</v>
       </c>
       <c r="D42" s="17">
-        <f t="shared" si="2"/>
-        <v>5762121</v>
+        <f t="shared" si="1"/>
+        <v>5816384</v>
       </c>
       <c r="E42" s="18">
-        <v>12580</v>
+        <v>11528</v>
       </c>
       <c r="F42" s="18">
-        <v>39403</v>
+        <v>29894</v>
       </c>
       <c r="G42" s="18">
-        <v>1248745</v>
+        <v>1448616</v>
       </c>
       <c r="H42" s="18">
-        <v>447104</v>
+        <v>482837</v>
       </c>
       <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18">
-        <v>30427</v>
-      </c>
-      <c r="L42" s="18"/>
+      <c r="J42" s="18">
+        <v>38612</v>
+      </c>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18">
+        <v>31692</v>
+      </c>
       <c r="M42" s="18">
-        <v>31976</v>
+        <v>1629719</v>
       </c>
       <c r="N42" s="18">
-        <v>1571982</v>
-      </c>
-      <c r="O42" s="18">
-        <v>2379904</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" hidden="1">
+        <v>2143486</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" hidden="1">
       <c r="B43" s="11">
         <v>2022</v>
       </c>
@@ -2515,38 +2494,37 @@
         <v>19</v>
       </c>
       <c r="D43" s="13">
-        <f t="shared" si="2"/>
-        <v>5450271</v>
+        <f t="shared" si="1"/>
+        <v>5938227</v>
       </c>
       <c r="E43" s="14">
-        <v>13206</v>
+        <v>14051</v>
       </c>
       <c r="F43" s="14">
-        <v>32413</v>
+        <v>34530</v>
       </c>
       <c r="G43" s="14">
-        <v>1137873</v>
+        <v>1394194</v>
       </c>
       <c r="H43" s="14">
-        <v>485288</v>
+        <v>469001</v>
       </c>
       <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14">
-        <v>20444</v>
-      </c>
-      <c r="L43" s="14"/>
+      <c r="J43" s="14">
+        <v>36048</v>
+      </c>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14">
+        <v>32934</v>
+      </c>
       <c r="M43" s="14">
-        <v>30333</v>
+        <v>1638787</v>
       </c>
       <c r="N43" s="14">
-        <v>1443642</v>
-      </c>
-      <c r="O43" s="14">
-        <v>2287072</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" hidden="1">
+        <v>2318682</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" hidden="1">
       <c r="B44" s="15">
         <v>2022</v>
       </c>
@@ -2554,194 +2532,189 @@
         <v>18</v>
       </c>
       <c r="D44" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
+        <v>5762121</v>
+      </c>
+      <c r="E44" s="18">
+        <v>12580</v>
+      </c>
+      <c r="F44" s="18">
+        <v>39403</v>
+      </c>
+      <c r="G44" s="18">
+        <v>1248745</v>
+      </c>
+      <c r="H44" s="18">
+        <v>447104</v>
+      </c>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18">
+        <v>30427</v>
+      </c>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18">
+        <v>31976</v>
+      </c>
+      <c r="M44" s="18">
+        <v>1571982</v>
+      </c>
+      <c r="N44" s="18">
+        <v>2379904</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" hidden="1">
+      <c r="B45" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="13">
+        <f t="shared" si="1"/>
+        <v>5450271</v>
+      </c>
+      <c r="E45" s="14">
+        <v>13206</v>
+      </c>
+      <c r="F45" s="14">
+        <v>32413</v>
+      </c>
+      <c r="G45" s="14">
+        <v>1137873</v>
+      </c>
+      <c r="H45" s="14">
+        <v>485288</v>
+      </c>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14">
+        <v>20444</v>
+      </c>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14">
+        <v>30333</v>
+      </c>
+      <c r="M45" s="14">
+        <v>1443642</v>
+      </c>
+      <c r="N45" s="14">
+        <v>2287072</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" hidden="1">
+      <c r="B46" s="15">
+        <v>2022</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="17">
+        <f t="shared" si="1"/>
         <v>4335053</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E46" s="18">
         <v>10775</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F46" s="18">
         <v>26979</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G46" s="18">
         <v>817221</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H46" s="18">
         <v>400280</v>
       </c>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18">
+      <c r="I46" s="18"/>
+      <c r="J46" s="18">
         <v>14632</v>
       </c>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18">
+      <c r="K46" s="18"/>
+      <c r="L46" s="18">
         <v>22836</v>
       </c>
-      <c r="N44" s="18">
+      <c r="M46" s="18">
         <v>1113977</v>
       </c>
-      <c r="O44" s="18">
+      <c r="N46" s="18">
         <v>1928353</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1">
-      <c r="B45" s="19">
+    <row r="47" spans="2:14" hidden="1">
+      <c r="B47" s="19">
         <v>2022</v>
       </c>
-      <c r="C45" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="21">
-        <f t="shared" si="2"/>
+      <c r="C47" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="21">
+        <f t="shared" si="1"/>
         <v>4754587</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E47" s="22">
         <v>10351</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F47" s="22">
         <v>35019</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G47" s="22">
         <v>851918</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H47" s="22">
         <v>400866</v>
       </c>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22">
+      <c r="I47" s="22"/>
+      <c r="J47" s="22">
         <v>19731</v>
       </c>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22">
+      <c r="K47" s="22"/>
+      <c r="L47" s="22">
         <v>22335</v>
       </c>
-      <c r="N45" s="22">
+      <c r="M47" s="22">
         <v>1322859</v>
       </c>
-      <c r="O45" s="22">
+      <c r="N47" s="22">
         <v>2091508</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1">
-      <c r="B46" s="23">
+    <row r="48" spans="2:14" hidden="1">
+      <c r="B48" s="23">
         <v>2021</v>
       </c>
-      <c r="C46" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="25">
-        <f t="shared" si="2"/>
+      <c r="C48" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="25">
+        <f t="shared" si="1"/>
         <v>5788606</v>
       </c>
-      <c r="E46" s="26">
+      <c r="E48" s="26">
         <v>12597</v>
       </c>
-      <c r="F46" s="26">
+      <c r="F48" s="26">
         <v>48986</v>
       </c>
-      <c r="G46" s="26">
+      <c r="G48" s="26">
         <v>1194196</v>
       </c>
-      <c r="H46" s="26">
+      <c r="H48" s="26">
         <v>531737</v>
       </c>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26">
+      <c r="I48" s="26"/>
+      <c r="J48" s="26">
         <v>41564</v>
       </c>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26">
+      <c r="K48" s="26"/>
+      <c r="L48" s="26">
         <v>32426</v>
       </c>
-      <c r="N46" s="26">
+      <c r="M48" s="26">
         <v>1542449</v>
       </c>
-      <c r="O46" s="26">
+      <c r="N48" s="26">
         <v>2384651</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1">
-      <c r="B47" s="11">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="13">
-        <f t="shared" si="2"/>
-        <v>5289729</v>
-      </c>
-      <c r="E47" s="14">
-        <v>11837</v>
-      </c>
-      <c r="F47" s="14">
-        <v>46757</v>
-      </c>
-      <c r="G47" s="14">
-        <v>1056753</v>
-      </c>
-      <c r="H47" s="14">
-        <v>485468</v>
-      </c>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14">
-        <v>32507</v>
-      </c>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14">
-        <v>29832</v>
-      </c>
-      <c r="N47" s="14">
-        <v>1406500</v>
-      </c>
-      <c r="O47" s="14">
-        <v>2220075</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" hidden="1">
-      <c r="B48" s="15">
-        <v>2021</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" s="17">
-        <f t="shared" si="2"/>
-        <v>5118685</v>
-      </c>
-      <c r="E48" s="18">
-        <v>14115</v>
-      </c>
-      <c r="F48" s="18">
-        <v>45703</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1034177</v>
-      </c>
-      <c r="H48" s="18">
-        <v>510398</v>
-      </c>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18">
-        <v>28313</v>
-      </c>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18">
-        <v>31649</v>
-      </c>
-      <c r="N48" s="18">
-        <v>1355918</v>
-      </c>
-      <c r="O48" s="18">
-        <v>2098412</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" hidden="1">
+    <row r="49" spans="2:14" hidden="1">
       <c r="B49" s="11">
         <v>2021</v>
       </c>
@@ -2749,38 +2722,37 @@
         <v>25</v>
       </c>
       <c r="D49" s="13">
-        <f t="shared" ref="D49:D80" si="3">SUM(E49:O49)</f>
-        <v>4470649</v>
+        <f t="shared" si="1"/>
+        <v>5289729</v>
       </c>
       <c r="E49" s="14">
-        <v>12872</v>
+        <v>11837</v>
       </c>
       <c r="F49" s="14">
-        <v>42716</v>
+        <v>46757</v>
       </c>
       <c r="G49" s="14">
-        <v>893242</v>
+        <v>1056753</v>
       </c>
       <c r="H49" s="14">
-        <v>444101</v>
+        <v>485468</v>
       </c>
       <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14">
-        <v>24490</v>
-      </c>
-      <c r="L49" s="14"/>
+      <c r="J49" s="14">
+        <v>32507</v>
+      </c>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14">
+        <v>29832</v>
+      </c>
       <c r="M49" s="14">
-        <v>25901</v>
+        <v>1406500</v>
       </c>
       <c r="N49" s="14">
-        <v>1153271</v>
-      </c>
-      <c r="O49" s="14">
-        <v>1874056</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" hidden="1">
+        <v>2220075</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" hidden="1">
       <c r="B50" s="15">
         <v>2021</v>
       </c>
@@ -2788,38 +2760,37 @@
         <v>24</v>
       </c>
       <c r="D50" s="17">
-        <f t="shared" si="3"/>
-        <v>5008604</v>
+        <f t="shared" si="1"/>
+        <v>5118685</v>
       </c>
       <c r="E50" s="18">
-        <v>12792</v>
+        <v>14115</v>
       </c>
       <c r="F50" s="18">
-        <v>47119</v>
+        <v>45703</v>
       </c>
       <c r="G50" s="18">
-        <v>993427</v>
+        <v>1034177</v>
       </c>
       <c r="H50" s="18">
-        <v>524484</v>
+        <v>510398</v>
       </c>
       <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18">
-        <v>35479</v>
-      </c>
-      <c r="L50" s="18"/>
+      <c r="J50" s="18">
+        <v>28313</v>
+      </c>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18">
+        <v>31649</v>
+      </c>
       <c r="M50" s="18">
-        <v>26034</v>
+        <v>1355918</v>
       </c>
       <c r="N50" s="18">
-        <v>1305965</v>
-      </c>
-      <c r="O50" s="18">
-        <v>2063304</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" hidden="1">
+        <v>2098412</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" hidden="1">
       <c r="B51" s="11">
         <v>2021</v>
       </c>
@@ -2827,38 +2798,37 @@
         <v>23</v>
       </c>
       <c r="D51" s="13">
-        <f t="shared" si="3"/>
-        <v>5456169</v>
+        <f t="shared" si="1"/>
+        <v>4470649</v>
       </c>
       <c r="E51" s="14">
-        <v>15216</v>
+        <v>12872</v>
       </c>
       <c r="F51" s="14">
-        <v>53005</v>
+        <v>42716</v>
       </c>
       <c r="G51" s="14">
-        <v>1058956</v>
+        <v>893242</v>
       </c>
       <c r="H51" s="14">
-        <v>590598</v>
+        <v>444101</v>
       </c>
       <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14">
-        <v>64029</v>
-      </c>
-      <c r="L51" s="14"/>
+      <c r="J51" s="14">
+        <v>24490</v>
+      </c>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14">
+        <v>25901</v>
+      </c>
       <c r="M51" s="14">
-        <v>30912</v>
+        <v>1153271</v>
       </c>
       <c r="N51" s="14">
-        <v>1503552</v>
-      </c>
-      <c r="O51" s="14">
-        <v>2139901</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" hidden="1">
+        <v>1874056</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" hidden="1">
       <c r="B52" s="15">
         <v>2021</v>
       </c>
@@ -2866,38 +2836,37 @@
         <v>22</v>
       </c>
       <c r="D52" s="17">
-        <f t="shared" si="3"/>
-        <v>4784013</v>
+        <f t="shared" si="1"/>
+        <v>5008604</v>
       </c>
       <c r="E52" s="18">
-        <v>15389</v>
+        <v>12792</v>
       </c>
       <c r="F52" s="18">
-        <v>43733</v>
+        <v>47119</v>
       </c>
       <c r="G52" s="18">
-        <v>853708</v>
+        <v>993427</v>
       </c>
       <c r="H52" s="18">
-        <v>536816</v>
+        <v>524484</v>
       </c>
       <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18">
-        <v>54554</v>
-      </c>
-      <c r="L52" s="18"/>
+      <c r="J52" s="18">
+        <v>35479</v>
+      </c>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18">
+        <v>26034</v>
+      </c>
       <c r="M52" s="18">
-        <v>23167</v>
+        <v>1305965</v>
       </c>
       <c r="N52" s="18">
-        <v>1288126</v>
-      </c>
-      <c r="O52" s="18">
-        <v>1968520</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" hidden="1">
+        <v>2063304</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" hidden="1">
       <c r="B53" s="11">
         <v>2021</v>
       </c>
@@ -2905,38 +2874,37 @@
         <v>21</v>
       </c>
       <c r="D53" s="13">
-        <f t="shared" si="3"/>
-        <v>4739036</v>
+        <f t="shared" si="1"/>
+        <v>5456169</v>
       </c>
       <c r="E53" s="14">
-        <v>16431</v>
+        <v>15216</v>
       </c>
       <c r="F53" s="14">
-        <v>40566</v>
+        <v>53005</v>
       </c>
       <c r="G53" s="14">
-        <v>804638</v>
+        <v>1058956</v>
       </c>
       <c r="H53" s="14">
-        <v>535959</v>
+        <v>590598</v>
       </c>
       <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14">
-        <v>45166</v>
-      </c>
-      <c r="L53" s="14"/>
+      <c r="J53" s="14">
+        <v>64029</v>
+      </c>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14">
+        <v>30912</v>
+      </c>
       <c r="M53" s="14">
-        <v>20712</v>
+        <v>1503552</v>
       </c>
       <c r="N53" s="14">
-        <v>1283475</v>
-      </c>
-      <c r="O53" s="14">
-        <v>1992089</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15" hidden="1">
+        <v>2139901</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" hidden="1">
       <c r="B54" s="15">
         <v>2021</v>
       </c>
@@ -2944,38 +2912,37 @@
         <v>20</v>
       </c>
       <c r="D54" s="17">
-        <f t="shared" si="3"/>
-        <v>4139956</v>
+        <f t="shared" si="1"/>
+        <v>4784013</v>
       </c>
       <c r="E54" s="18">
-        <v>13432</v>
+        <v>15389</v>
       </c>
       <c r="F54" s="18">
-        <v>34786</v>
+        <v>43733</v>
       </c>
       <c r="G54" s="18">
-        <v>729359</v>
+        <v>853708</v>
       </c>
       <c r="H54" s="18">
-        <v>459115</v>
+        <v>536816</v>
       </c>
       <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18">
-        <v>37963</v>
-      </c>
-      <c r="L54" s="18"/>
+      <c r="J54" s="18">
+        <v>54554</v>
+      </c>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18">
+        <v>23167</v>
+      </c>
       <c r="M54" s="18">
-        <v>19899</v>
+        <v>1288126</v>
       </c>
       <c r="N54" s="18">
-        <v>1098291</v>
-      </c>
-      <c r="O54" s="18">
-        <v>1747111</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15" hidden="1">
+        <v>1968520</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" hidden="1">
       <c r="B55" s="11">
         <v>2021</v>
       </c>
@@ -2983,38 +2950,37 @@
         <v>19</v>
       </c>
       <c r="D55" s="13">
-        <f t="shared" si="3"/>
-        <v>3643233</v>
+        <f t="shared" si="1"/>
+        <v>4739036</v>
       </c>
       <c r="E55" s="14">
-        <v>13443</v>
+        <v>16431</v>
       </c>
       <c r="F55" s="14">
-        <v>34472</v>
+        <v>40566</v>
       </c>
       <c r="G55" s="14">
-        <v>700282</v>
+        <v>804638</v>
       </c>
       <c r="H55" s="14">
-        <v>454696</v>
+        <v>535959</v>
       </c>
       <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14">
-        <v>25539</v>
-      </c>
-      <c r="L55" s="14"/>
+      <c r="J55" s="14">
+        <v>45166</v>
+      </c>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14">
+        <v>20712</v>
+      </c>
       <c r="M55" s="14">
-        <v>18739</v>
+        <v>1283475</v>
       </c>
       <c r="N55" s="14">
-        <v>1015276</v>
-      </c>
-      <c r="O55" s="14">
-        <v>1380786</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15" hidden="1">
+        <v>1992089</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" hidden="1">
       <c r="B56" s="15">
         <v>2021</v>
       </c>
@@ -3022,200 +2988,189 @@
         <v>18</v>
       </c>
       <c r="D56" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
+        <v>4139956</v>
+      </c>
+      <c r="E56" s="18">
+        <v>13432</v>
+      </c>
+      <c r="F56" s="18">
+        <v>34786</v>
+      </c>
+      <c r="G56" s="18">
+        <v>729359</v>
+      </c>
+      <c r="H56" s="18">
+        <v>459115</v>
+      </c>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18">
+        <v>37963</v>
+      </c>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18">
+        <v>19899</v>
+      </c>
+      <c r="M56" s="18">
+        <v>1098291</v>
+      </c>
+      <c r="N56" s="18">
+        <v>1747111</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" hidden="1">
+      <c r="B57" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="13">
+        <f t="shared" si="1"/>
+        <v>3643233</v>
+      </c>
+      <c r="E57" s="14">
+        <v>13443</v>
+      </c>
+      <c r="F57" s="14">
+        <v>34472</v>
+      </c>
+      <c r="G57" s="14">
+        <v>700282</v>
+      </c>
+      <c r="H57" s="14">
+        <v>454696</v>
+      </c>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14">
+        <v>25539</v>
+      </c>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14">
+        <v>18739</v>
+      </c>
+      <c r="M57" s="14">
+        <v>1015276</v>
+      </c>
+      <c r="N57" s="14">
+        <v>1380786</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" hidden="1">
+      <c r="B58" s="15">
+        <v>2021</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="17">
+        <f t="shared" si="1"/>
         <v>2522697</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E58" s="18">
         <v>8230</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F58" s="18">
         <v>21876</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G58" s="18">
         <v>521896</v>
       </c>
-      <c r="H56" s="18">
+      <c r="H58" s="18">
         <v>365190</v>
       </c>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18">
+      <c r="I58" s="18"/>
+      <c r="J58" s="18">
         <v>13877</v>
       </c>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18">
+      <c r="K58" s="18"/>
+      <c r="L58" s="18">
         <v>12256</v>
       </c>
-      <c r="N56" s="18">
+      <c r="M58" s="18">
         <v>590075</v>
       </c>
-      <c r="O56" s="18">
+      <c r="N58" s="18">
         <v>989297</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1">
-      <c r="B57" s="19">
+    <row r="59" spans="2:14" hidden="1">
+      <c r="B59" s="19">
         <v>2021</v>
       </c>
-      <c r="C57" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="21">
-        <f t="shared" si="3"/>
+      <c r="C59" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="21">
+        <f t="shared" si="1"/>
         <v>3256499</v>
       </c>
-      <c r="E57" s="22">
+      <c r="E59" s="22">
         <v>7181</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F59" s="22">
         <v>25543</v>
       </c>
-      <c r="G57" s="22">
+      <c r="G59" s="22">
         <v>641860</v>
       </c>
-      <c r="H57" s="22">
+      <c r="H59" s="22">
         <v>438330</v>
       </c>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22">
+      <c r="I59" s="22"/>
+      <c r="J59" s="22">
         <v>19413</v>
       </c>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22">
+      <c r="K59" s="22"/>
+      <c r="L59" s="22">
         <v>13791</v>
       </c>
-      <c r="N57" s="22">
+      <c r="M59" s="22">
         <v>759842</v>
       </c>
-      <c r="O57" s="22">
+      <c r="N59" s="22">
         <v>1350539</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1">
-      <c r="B58" s="23">
+    <row r="60" spans="2:14" hidden="1">
+      <c r="B60" s="23">
         <v>2020</v>
       </c>
-      <c r="C58" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="25">
-        <f t="shared" si="3"/>
-        <v>3752676</v>
-      </c>
-      <c r="E58" s="26">
+      <c r="C60" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="25">
+        <f t="shared" si="1"/>
+        <v>3748637</v>
+      </c>
+      <c r="E60" s="26">
         <v>6626</v>
       </c>
-      <c r="F58" s="26">
+      <c r="F60" s="26">
         <v>32040</v>
       </c>
-      <c r="G58" s="26">
+      <c r="G60" s="26">
         <v>610544</v>
       </c>
-      <c r="H58" s="26">
+      <c r="H60" s="26">
         <v>491905</v>
       </c>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26">
-        <v>4039</v>
-      </c>
-      <c r="K58" s="26">
+      <c r="I60" s="26"/>
+      <c r="J60" s="26">
         <v>45610</v>
       </c>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26">
+      <c r="K60" s="26"/>
+      <c r="L60" s="26">
         <v>17383</v>
       </c>
-      <c r="N58" s="26">
+      <c r="M60" s="26">
         <v>998369</v>
       </c>
-      <c r="O58" s="26">
+      <c r="N60" s="26">
         <v>1546160</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1">
-      <c r="B59" s="11">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="13">
-        <f t="shared" si="3"/>
-        <v>3347186</v>
-      </c>
-      <c r="E59" s="14">
-        <v>6583</v>
-      </c>
-      <c r="F59" s="14">
-        <v>28629</v>
-      </c>
-      <c r="G59" s="14">
-        <v>520221</v>
-      </c>
-      <c r="H59" s="14">
-        <v>395967</v>
-      </c>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14">
-        <v>17545</v>
-      </c>
-      <c r="K59" s="14">
-        <v>37463</v>
-      </c>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14">
-        <v>14115</v>
-      </c>
-      <c r="N59" s="14">
-        <v>863224</v>
-      </c>
-      <c r="O59" s="14">
-        <v>1463439</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15" hidden="1">
-      <c r="B60" s="15">
-        <v>2020</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D60" s="17">
-        <f t="shared" si="3"/>
-        <v>3072785</v>
-      </c>
-      <c r="E60" s="18">
-        <v>5614</v>
-      </c>
-      <c r="F60" s="18">
-        <v>27120</v>
-      </c>
-      <c r="G60" s="18">
-        <v>463245</v>
-      </c>
-      <c r="H60" s="18">
-        <v>395686</v>
-      </c>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18">
-        <v>33425</v>
-      </c>
-      <c r="K60" s="18">
-        <v>29759</v>
-      </c>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18">
-        <v>14897</v>
-      </c>
-      <c r="N60" s="18">
-        <v>803614</v>
-      </c>
-      <c r="O60" s="18">
-        <v>1299425</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15" hidden="1">
+    <row r="61" spans="2:14" hidden="1">
       <c r="B61" s="11">
         <v>2020</v>
       </c>
@@ -3223,40 +3178,37 @@
         <v>25</v>
       </c>
       <c r="D61" s="13">
-        <f t="shared" si="3"/>
-        <v>2614973</v>
+        <f t="shared" si="1"/>
+        <v>3329641</v>
       </c>
       <c r="E61" s="14">
-        <v>4853</v>
+        <v>6583</v>
       </c>
       <c r="F61" s="14">
-        <v>21371</v>
+        <v>28629</v>
       </c>
       <c r="G61" s="14">
-        <v>371636</v>
+        <v>520221</v>
       </c>
       <c r="H61" s="14">
-        <v>325704</v>
+        <v>395967</v>
       </c>
       <c r="I61" s="14"/>
       <c r="J61" s="14">
-        <v>41547</v>
-      </c>
-      <c r="K61" s="14">
-        <v>30615</v>
-      </c>
-      <c r="L61" s="14"/>
+        <v>37463</v>
+      </c>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14">
+        <v>14115</v>
+      </c>
       <c r="M61" s="14">
-        <v>11615</v>
+        <v>863224</v>
       </c>
       <c r="N61" s="14">
-        <v>665331</v>
-      </c>
-      <c r="O61" s="14">
-        <v>1142301</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15" hidden="1">
+        <v>1463439</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" hidden="1">
       <c r="B62" s="15">
         <v>2020</v>
       </c>
@@ -3264,40 +3216,37 @@
         <v>24</v>
       </c>
       <c r="D62" s="17">
-        <f t="shared" si="3"/>
-        <v>2423904</v>
+        <f t="shared" si="1"/>
+        <v>3039360</v>
       </c>
       <c r="E62" s="18">
-        <v>3748</v>
+        <v>5614</v>
       </c>
       <c r="F62" s="18">
-        <v>22617</v>
+        <v>27120</v>
       </c>
       <c r="G62" s="18">
-        <v>322580</v>
+        <v>463245</v>
       </c>
       <c r="H62" s="18">
-        <v>310616</v>
+        <v>395686</v>
       </c>
       <c r="I62" s="18"/>
       <c r="J62" s="18">
-        <v>38737</v>
-      </c>
-      <c r="K62" s="18">
-        <v>30641</v>
-      </c>
-      <c r="L62" s="18"/>
+        <v>29759</v>
+      </c>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18">
+        <v>14897</v>
+      </c>
       <c r="M62" s="18">
-        <v>7400</v>
+        <v>803614</v>
       </c>
       <c r="N62" s="18">
-        <v>586367</v>
-      </c>
-      <c r="O62" s="18">
-        <v>1101198</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15" hidden="1">
+        <v>1299425</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" hidden="1">
       <c r="B63" s="11">
         <v>2020</v>
       </c>
@@ -3305,40 +3254,37 @@
         <v>23</v>
       </c>
       <c r="D63" s="13">
-        <f t="shared" si="3"/>
-        <v>1910823</v>
+        <f t="shared" si="1"/>
+        <v>2573426</v>
       </c>
       <c r="E63" s="14">
-        <v>3082</v>
+        <v>4853</v>
       </c>
       <c r="F63" s="14">
-        <v>18259</v>
+        <v>21371</v>
       </c>
       <c r="G63" s="14">
-        <v>251899</v>
+        <v>371636</v>
       </c>
       <c r="H63" s="14">
-        <v>254505</v>
+        <v>325704</v>
       </c>
       <c r="I63" s="14"/>
       <c r="J63" s="14">
-        <v>38811</v>
-      </c>
-      <c r="K63" s="14">
-        <v>24630</v>
-      </c>
-      <c r="L63" s="14"/>
+        <v>30615</v>
+      </c>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14">
+        <v>11615</v>
+      </c>
       <c r="M63" s="14">
-        <v>4178</v>
+        <v>665331</v>
       </c>
       <c r="N63" s="14">
-        <v>418350</v>
-      </c>
-      <c r="O63" s="14">
-        <v>897109</v>
-      </c>
-    </row>
-    <row r="64" spans="2:15" hidden="1">
+        <v>1142301</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" hidden="1">
       <c r="B64" s="15">
         <v>2020</v>
       </c>
@@ -3346,40 +3292,37 @@
         <v>22</v>
       </c>
       <c r="D64" s="17">
-        <f t="shared" si="3"/>
-        <v>996346</v>
+        <f t="shared" si="1"/>
+        <v>2385167</v>
       </c>
       <c r="E64" s="18">
-        <v>1927</v>
+        <v>3748</v>
       </c>
       <c r="F64" s="18">
-        <v>9051</v>
+        <v>22617</v>
       </c>
       <c r="G64" s="18">
-        <v>140991</v>
+        <v>322580</v>
       </c>
       <c r="H64" s="18">
-        <v>97306</v>
+        <v>310616</v>
       </c>
       <c r="I64" s="18"/>
       <c r="J64" s="18">
-        <v>24942</v>
-      </c>
-      <c r="K64" s="18">
-        <v>5002</v>
-      </c>
-      <c r="L64" s="18"/>
+        <v>30641</v>
+      </c>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18">
+        <v>7400</v>
+      </c>
       <c r="M64" s="18">
-        <v>2168</v>
+        <v>586367</v>
       </c>
       <c r="N64" s="18">
-        <v>201937</v>
-      </c>
-      <c r="O64" s="18">
-        <v>513022</v>
-      </c>
-    </row>
-    <row r="65" spans="2:15" hidden="1">
+        <v>1101198</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" hidden="1">
       <c r="B65" s="11">
         <v>2020</v>
       </c>
@@ -3387,40 +3330,37 @@
         <v>21</v>
       </c>
       <c r="D65" s="13">
-        <f t="shared" si="3"/>
-        <v>410766</v>
+        <f t="shared" si="1"/>
+        <v>1872012</v>
       </c>
       <c r="E65" s="14">
-        <v>1324</v>
+        <v>3082</v>
       </c>
       <c r="F65" s="14">
-        <v>4688</v>
+        <v>18259</v>
       </c>
       <c r="G65" s="14">
-        <v>50801</v>
+        <v>251899</v>
       </c>
       <c r="H65" s="14">
-        <v>80478</v>
+        <v>254505</v>
       </c>
       <c r="I65" s="14"/>
       <c r="J65" s="14">
-        <v>14835</v>
-      </c>
-      <c r="K65" s="14">
-        <v>0</v>
-      </c>
-      <c r="L65" s="14"/>
+        <v>24630</v>
+      </c>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14">
+        <v>4178</v>
+      </c>
       <c r="M65" s="14">
-        <v>1040</v>
+        <v>418350</v>
       </c>
       <c r="N65" s="14">
-        <v>90419</v>
-      </c>
-      <c r="O65" s="14">
-        <v>167181</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15" hidden="1">
+        <v>897109</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" hidden="1">
       <c r="B66" s="15">
         <v>2020</v>
       </c>
@@ -3428,40 +3368,37 @@
         <v>20</v>
       </c>
       <c r="D66" s="17">
-        <f t="shared" si="3"/>
-        <v>449003</v>
+        <f t="shared" si="1"/>
+        <v>971404</v>
       </c>
       <c r="E66" s="18">
-        <v>1164</v>
+        <v>1927</v>
       </c>
       <c r="F66" s="18">
-        <v>2668</v>
+        <v>9051</v>
       </c>
       <c r="G66" s="18">
-        <v>60744</v>
+        <v>140991</v>
       </c>
       <c r="H66" s="18">
-        <v>86523</v>
+        <v>97306</v>
       </c>
       <c r="I66" s="18"/>
       <c r="J66" s="18">
-        <v>25068</v>
-      </c>
-      <c r="K66" s="18">
-        <v>705</v>
-      </c>
-      <c r="L66" s="18"/>
+        <v>5002</v>
+      </c>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18">
+        <v>2168</v>
+      </c>
       <c r="M66" s="18">
-        <v>485</v>
+        <v>201937</v>
       </c>
       <c r="N66" s="18">
-        <v>89915</v>
-      </c>
-      <c r="O66" s="18">
-        <v>181731</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" hidden="1">
+        <v>513022</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" hidden="1">
       <c r="B67" s="11">
         <v>2020</v>
       </c>
@@ -3469,40 +3406,37 @@
         <v>19</v>
       </c>
       <c r="D67" s="13">
-        <f t="shared" si="3"/>
-        <v>3931644</v>
+        <f t="shared" si="1"/>
+        <v>395931</v>
       </c>
       <c r="E67" s="14">
-        <v>8791</v>
+        <v>1324</v>
       </c>
       <c r="F67" s="14">
-        <v>41673</v>
+        <v>4688</v>
       </c>
       <c r="G67" s="14">
-        <v>572018</v>
+        <v>50801</v>
       </c>
       <c r="H67" s="14">
-        <v>464064</v>
+        <v>80478</v>
       </c>
       <c r="I67" s="14"/>
       <c r="J67" s="14">
-        <v>822187</v>
-      </c>
-      <c r="K67" s="14">
-        <v>23248</v>
-      </c>
-      <c r="L67" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14">
+        <v>1040</v>
+      </c>
       <c r="M67" s="14">
-        <v>26274</v>
+        <v>90419</v>
       </c>
       <c r="N67" s="14">
-        <v>704638</v>
-      </c>
-      <c r="O67" s="14">
-        <v>1268751</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" hidden="1">
+        <v>167181</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" hidden="1">
       <c r="B68" s="15">
         <v>2020</v>
       </c>
@@ -3510,204 +3444,189 @@
         <v>18</v>
       </c>
       <c r="D68" s="17">
-        <f t="shared" si="3"/>
-        <v>5315967</v>
+        <f t="shared" si="1"/>
+        <v>423935</v>
       </c>
       <c r="E68" s="18">
-        <v>10857</v>
+        <v>1164</v>
       </c>
       <c r="F68" s="18">
-        <v>59357</v>
+        <v>2668</v>
       </c>
       <c r="G68" s="18">
-        <v>846279</v>
+        <v>60744</v>
       </c>
       <c r="H68" s="18">
-        <v>641873</v>
+        <v>86523</v>
       </c>
       <c r="I68" s="18"/>
       <c r="J68" s="18">
-        <v>1178801</v>
-      </c>
-      <c r="K68" s="18">
+        <v>705</v>
+      </c>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18">
+        <v>485</v>
+      </c>
+      <c r="M68" s="18">
+        <v>89915</v>
+      </c>
+      <c r="N68" s="18">
+        <v>181731</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" hidden="1">
+      <c r="B69" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="13">
+        <f t="shared" si="1"/>
+        <v>3109457</v>
+      </c>
+      <c r="E69" s="14">
+        <v>8791</v>
+      </c>
+      <c r="F69" s="14">
+        <v>41673</v>
+      </c>
+      <c r="G69" s="14">
+        <v>572018</v>
+      </c>
+      <c r="H69" s="14">
+        <v>464064</v>
+      </c>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14">
+        <v>23248</v>
+      </c>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14">
+        <v>26274</v>
+      </c>
+      <c r="M69" s="14">
+        <v>704638</v>
+      </c>
+      <c r="N69" s="14">
+        <v>1268751</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" hidden="1">
+      <c r="B70" s="15">
+        <v>2020</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="17">
+        <f t="shared" si="1"/>
+        <v>4137166</v>
+      </c>
+      <c r="E70" s="18">
+        <v>10857</v>
+      </c>
+      <c r="F70" s="18">
+        <v>59357</v>
+      </c>
+      <c r="G70" s="18">
+        <v>846279</v>
+      </c>
+      <c r="H70" s="18">
+        <v>641873</v>
+      </c>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18">
         <v>26652</v>
       </c>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18">
+      <c r="K70" s="18"/>
+      <c r="L70" s="18">
         <v>36382</v>
       </c>
-      <c r="N68" s="18">
+      <c r="M70" s="18">
         <v>881600</v>
       </c>
-      <c r="O68" s="18">
+      <c r="N70" s="18">
         <v>1634166</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1">
-      <c r="B69" s="19">
+    <row r="71" spans="2:14" hidden="1">
+      <c r="B71" s="19">
         <v>2020</v>
       </c>
-      <c r="C69" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="21">
-        <f t="shared" si="3"/>
-        <v>5907035</v>
-      </c>
-      <c r="E69" s="22">
+      <c r="C71" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="21">
+        <f t="shared" ref="D71:D102" si="2">SUM(E71:N71)</f>
+        <v>4591436</v>
+      </c>
+      <c r="E71" s="22">
         <v>13840</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F71" s="22">
         <v>68044</v>
       </c>
-      <c r="G69" s="22">
+      <c r="G71" s="22">
         <v>961808</v>
       </c>
-      <c r="H69" s="22">
+      <c r="H71" s="22">
         <v>680707</v>
       </c>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22">
-        <v>1315599</v>
-      </c>
-      <c r="K69" s="22">
+      <c r="I71" s="22"/>
+      <c r="J71" s="22">
         <v>47575</v>
       </c>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22">
+      <c r="K71" s="22"/>
+      <c r="L71" s="22">
         <v>40620</v>
       </c>
-      <c r="N69" s="22">
+      <c r="M71" s="22">
         <v>980414</v>
       </c>
-      <c r="O69" s="22">
+      <c r="N71" s="22">
         <v>1798428</v>
       </c>
     </row>
-    <row r="70" spans="2:15" hidden="1">
-      <c r="B70" s="23">
+    <row r="72" spans="2:14" hidden="1">
+      <c r="B72" s="23">
         <v>2019</v>
       </c>
-      <c r="C70" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D70" s="25">
-        <f t="shared" si="3"/>
-        <v>6305291</v>
-      </c>
-      <c r="E70" s="26">
+      <c r="C72" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" s="25">
+        <f t="shared" si="2"/>
+        <v>4885764</v>
+      </c>
+      <c r="E72" s="26">
         <v>14577</v>
       </c>
-      <c r="F70" s="26">
+      <c r="F72" s="26">
         <v>79686</v>
       </c>
-      <c r="G70" s="26">
+      <c r="G72" s="26">
         <v>1001613</v>
       </c>
-      <c r="H70" s="26">
+      <c r="H72" s="26">
         <v>756331</v>
       </c>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26">
-        <v>1419527</v>
-      </c>
-      <c r="K70" s="26">
+      <c r="I72" s="26"/>
+      <c r="J72" s="26">
         <v>72539</v>
       </c>
-      <c r="L70" s="26"/>
-      <c r="M70" s="26">
+      <c r="K72" s="26"/>
+      <c r="L72" s="26">
         <v>45759</v>
       </c>
-      <c r="N70" s="26">
+      <c r="M72" s="26">
         <v>1083272</v>
       </c>
-      <c r="O70" s="26">
+      <c r="N72" s="26">
         <v>1831987</v>
       </c>
     </row>
-    <row r="71" spans="2:15" hidden="1">
-      <c r="B71" s="11">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D71" s="13">
-        <f t="shared" si="3"/>
-        <v>5933699</v>
-      </c>
-      <c r="E71" s="14">
-        <v>15593</v>
-      </c>
-      <c r="F71" s="14">
-        <v>73513</v>
-      </c>
-      <c r="G71" s="14">
-        <v>938515</v>
-      </c>
-      <c r="H71" s="14">
-        <v>697055</v>
-      </c>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14">
-        <v>1349425</v>
-      </c>
-      <c r="K71" s="14">
-        <v>54165</v>
-      </c>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14">
-        <v>41740</v>
-      </c>
-      <c r="N71" s="14">
-        <v>1014931</v>
-      </c>
-      <c r="O71" s="14">
-        <v>1748762</v>
-      </c>
-    </row>
-    <row r="72" spans="2:15" hidden="1">
-      <c r="B72" s="15">
-        <v>2019</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D72" s="17">
-        <f t="shared" si="3"/>
-        <v>5863191</v>
-      </c>
-      <c r="E72" s="18">
-        <v>19701</v>
-      </c>
-      <c r="F72" s="18">
-        <v>67349</v>
-      </c>
-      <c r="G72" s="18">
-        <v>957393</v>
-      </c>
-      <c r="H72" s="18">
-        <v>740956</v>
-      </c>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18">
-        <v>1232933</v>
-      </c>
-      <c r="K72" s="18">
-        <v>57392</v>
-      </c>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18">
-        <v>40850</v>
-      </c>
-      <c r="N72" s="18">
-        <v>1022260</v>
-      </c>
-      <c r="O72" s="18">
-        <v>1724357</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" hidden="1">
+    <row r="73" spans="2:14" hidden="1">
       <c r="B73" s="11">
         <v>2019</v>
       </c>
@@ -3715,40 +3634,37 @@
         <v>25</v>
       </c>
       <c r="D73" s="13">
-        <f t="shared" si="3"/>
-        <v>5409755</v>
+        <f t="shared" si="2"/>
+        <v>4584274</v>
       </c>
       <c r="E73" s="14">
-        <v>15863</v>
+        <v>15593</v>
       </c>
       <c r="F73" s="14">
-        <v>61156</v>
+        <v>73513</v>
       </c>
       <c r="G73" s="14">
-        <v>897733</v>
+        <v>938515</v>
       </c>
       <c r="H73" s="14">
-        <v>677299</v>
+        <v>697055</v>
       </c>
       <c r="I73" s="14"/>
       <c r="J73" s="14">
-        <v>1115654</v>
-      </c>
-      <c r="K73" s="14">
-        <v>61638</v>
-      </c>
-      <c r="L73" s="14"/>
+        <v>54165</v>
+      </c>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14">
+        <v>41740</v>
+      </c>
       <c r="M73" s="14">
-        <v>42002</v>
+        <v>1014931</v>
       </c>
       <c r="N73" s="14">
-        <v>922290</v>
-      </c>
-      <c r="O73" s="14">
-        <v>1616120</v>
-      </c>
-    </row>
-    <row r="74" spans="2:15" hidden="1">
+        <v>1748762</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" hidden="1">
       <c r="B74" s="15">
         <v>2019</v>
       </c>
@@ -3756,40 +3672,37 @@
         <v>24</v>
       </c>
       <c r="D74" s="17">
-        <f t="shared" si="3"/>
-        <v>6259657</v>
+        <f t="shared" si="2"/>
+        <v>4630258</v>
       </c>
       <c r="E74" s="18">
-        <v>22090</v>
+        <v>19701</v>
       </c>
       <c r="F74" s="18">
-        <v>68824</v>
+        <v>67349</v>
       </c>
       <c r="G74" s="18">
-        <v>1001754</v>
+        <v>957393</v>
       </c>
       <c r="H74" s="18">
-        <v>777867</v>
+        <v>740956</v>
       </c>
       <c r="I74" s="18"/>
       <c r="J74" s="18">
-        <v>1395254</v>
-      </c>
-      <c r="K74" s="18">
-        <v>88036</v>
-      </c>
-      <c r="L74" s="18"/>
+        <v>57392</v>
+      </c>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18">
+        <v>40850</v>
+      </c>
       <c r="M74" s="18">
-        <v>47511</v>
+        <v>1022260</v>
       </c>
       <c r="N74" s="18">
-        <v>1112562</v>
-      </c>
-      <c r="O74" s="18">
-        <v>1745759</v>
-      </c>
-    </row>
-    <row r="75" spans="2:15" hidden="1">
+        <v>1724357</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" hidden="1">
       <c r="B75" s="11">
         <v>2019</v>
       </c>
@@ -3797,40 +3710,37 @@
         <v>23</v>
       </c>
       <c r="D75" s="13">
-        <f t="shared" si="3"/>
-        <v>6643948</v>
+        <f t="shared" si="2"/>
+        <v>4294101</v>
       </c>
       <c r="E75" s="14">
-        <v>24398</v>
+        <v>15863</v>
       </c>
       <c r="F75" s="14">
-        <v>75738</v>
+        <v>61156</v>
       </c>
       <c r="G75" s="14">
-        <v>1056905</v>
+        <v>897733</v>
       </c>
       <c r="H75" s="14">
-        <v>847525</v>
+        <v>677299</v>
       </c>
       <c r="I75" s="14"/>
       <c r="J75" s="14">
-        <v>1440396</v>
-      </c>
-      <c r="K75" s="14">
-        <v>112757</v>
-      </c>
-      <c r="L75" s="14"/>
+        <v>61638</v>
+      </c>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14">
+        <v>42002</v>
+      </c>
       <c r="M75" s="14">
-        <v>53404</v>
+        <v>922290</v>
       </c>
       <c r="N75" s="14">
-        <v>1151999</v>
-      </c>
-      <c r="O75" s="14">
-        <v>1880826</v>
-      </c>
-    </row>
-    <row r="76" spans="2:15" hidden="1">
+        <v>1616120</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" hidden="1">
       <c r="B76" s="15">
         <v>2019</v>
       </c>
@@ -3838,40 +3748,37 @@
         <v>22</v>
       </c>
       <c r="D76" s="17">
-        <f t="shared" si="3"/>
-        <v>6003625</v>
+        <f t="shared" si="2"/>
+        <v>4864403</v>
       </c>
       <c r="E76" s="18">
-        <v>24034</v>
+        <v>22090</v>
       </c>
       <c r="F76" s="18">
-        <v>65120</v>
+        <v>68824</v>
       </c>
       <c r="G76" s="18">
-        <v>968584</v>
+        <v>1001754</v>
       </c>
       <c r="H76" s="18">
-        <v>772914</v>
+        <v>777867</v>
       </c>
       <c r="I76" s="18"/>
       <c r="J76" s="18">
-        <v>1315938</v>
-      </c>
-      <c r="K76" s="18">
-        <v>90790</v>
-      </c>
-      <c r="L76" s="18"/>
+        <v>88036</v>
+      </c>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18">
+        <v>47511</v>
+      </c>
       <c r="M76" s="18">
-        <v>47162</v>
+        <v>1112562</v>
       </c>
       <c r="N76" s="18">
-        <v>974523</v>
-      </c>
-      <c r="O76" s="18">
-        <v>1744560</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" hidden="1">
+        <v>1745759</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" hidden="1">
       <c r="B77" s="11">
         <v>2019</v>
       </c>
@@ -3879,40 +3786,37 @@
         <v>21</v>
       </c>
       <c r="D77" s="13">
-        <f t="shared" si="3"/>
-        <v>6066733</v>
+        <f t="shared" si="2"/>
+        <v>5203552</v>
       </c>
       <c r="E77" s="14">
-        <v>24578</v>
+        <v>24398</v>
       </c>
       <c r="F77" s="14">
-        <v>61163</v>
+        <v>75738</v>
       </c>
       <c r="G77" s="14">
-        <v>976676</v>
+        <v>1056905</v>
       </c>
       <c r="H77" s="14">
-        <v>788262</v>
+        <v>847525</v>
       </c>
       <c r="I77" s="14"/>
       <c r="J77" s="14">
-        <v>1373059</v>
-      </c>
-      <c r="K77" s="14">
-        <v>74030</v>
-      </c>
-      <c r="L77" s="14"/>
+        <v>112757</v>
+      </c>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14">
+        <v>53404</v>
+      </c>
       <c r="M77" s="14">
-        <v>51746</v>
+        <v>1151999</v>
       </c>
       <c r="N77" s="14">
-        <v>931984</v>
-      </c>
-      <c r="O77" s="14">
-        <v>1785235</v>
-      </c>
-    </row>
-    <row r="78" spans="2:15" hidden="1">
+        <v>1880826</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" hidden="1">
       <c r="B78" s="15">
         <v>2019</v>
       </c>
@@ -3920,40 +3824,37 @@
         <v>20</v>
       </c>
       <c r="D78" s="17">
-        <f t="shared" si="3"/>
-        <v>5766967</v>
+        <f t="shared" si="2"/>
+        <v>4687687</v>
       </c>
       <c r="E78" s="18">
-        <v>26137</v>
+        <v>24034</v>
       </c>
       <c r="F78" s="18">
-        <v>63912</v>
+        <v>65120</v>
       </c>
       <c r="G78" s="18">
-        <v>935481</v>
+        <v>968584</v>
       </c>
       <c r="H78" s="18">
-        <v>737722</v>
+        <v>772914</v>
       </c>
       <c r="I78" s="18"/>
       <c r="J78" s="18">
-        <v>1282012</v>
-      </c>
-      <c r="K78" s="18">
-        <v>54469</v>
-      </c>
-      <c r="L78" s="18"/>
+        <v>90790</v>
+      </c>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18">
+        <v>47162</v>
+      </c>
       <c r="M78" s="18">
-        <v>50399</v>
+        <v>974523</v>
       </c>
       <c r="N78" s="18">
-        <v>893208</v>
-      </c>
-      <c r="O78" s="18">
-        <v>1723627</v>
-      </c>
-    </row>
-    <row r="79" spans="2:15" hidden="1">
+        <v>1744560</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" hidden="1">
       <c r="B79" s="11">
         <v>2019</v>
       </c>
@@ -3961,40 +3862,37 @@
         <v>19</v>
       </c>
       <c r="D79" s="13">
-        <f t="shared" si="3"/>
-        <v>5617314</v>
+        <f t="shared" si="2"/>
+        <v>4693674</v>
       </c>
       <c r="E79" s="14">
-        <v>24631</v>
+        <v>24578</v>
       </c>
       <c r="F79" s="14">
-        <v>66177</v>
+        <v>61163</v>
       </c>
       <c r="G79" s="14">
-        <v>991931</v>
+        <v>976676</v>
       </c>
       <c r="H79" s="14">
-        <v>774790</v>
+        <v>788262</v>
       </c>
       <c r="I79" s="14"/>
       <c r="J79" s="14">
-        <v>1245949</v>
-      </c>
-      <c r="K79" s="14">
-        <v>40758</v>
-      </c>
-      <c r="L79" s="14"/>
+        <v>74030</v>
+      </c>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14">
+        <v>51746</v>
+      </c>
       <c r="M79" s="14">
-        <v>49242</v>
+        <v>931984</v>
       </c>
       <c r="N79" s="14">
-        <v>767922</v>
-      </c>
-      <c r="O79" s="14">
-        <v>1655914</v>
-      </c>
-    </row>
-    <row r="80" spans="2:15" hidden="1">
+        <v>1785235</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" hidden="1">
       <c r="B80" s="15">
         <v>2019</v>
       </c>
@@ -4002,163 +3900,151 @@
         <v>18</v>
       </c>
       <c r="D80" s="17">
-        <f t="shared" si="3"/>
-        <v>4697667</v>
+        <f t="shared" si="2"/>
+        <v>4484955</v>
       </c>
       <c r="E80" s="18">
-        <v>20074</v>
+        <v>26137</v>
       </c>
       <c r="F80" s="18">
-        <v>57946</v>
+        <v>63912</v>
       </c>
       <c r="G80" s="18">
-        <v>888111</v>
+        <v>935481</v>
       </c>
       <c r="H80" s="18">
-        <v>647818</v>
+        <v>737722</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="18">
-        <v>1002798</v>
-      </c>
-      <c r="K80" s="18">
-        <v>31139</v>
-      </c>
-      <c r="L80" s="18"/>
+        <v>54469</v>
+      </c>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18">
+        <v>50399</v>
+      </c>
       <c r="M80" s="18">
-        <v>40877</v>
+        <v>893208</v>
       </c>
       <c r="N80" s="18">
-        <v>617809</v>
-      </c>
-      <c r="O80" s="18">
-        <v>1391095</v>
-      </c>
-    </row>
-    <row r="81" spans="2:15" hidden="1">
-      <c r="B81" s="19">
+        <v>1723627</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" hidden="1">
+      <c r="B81" s="11">
         <v>2019</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="21">
-        <f t="shared" ref="D81:D93" si="4">SUM(E81:O81)</f>
-        <v>5369991</v>
-      </c>
-      <c r="E81" s="22">
-        <v>24399</v>
-      </c>
-      <c r="F81" s="22">
-        <v>59133</v>
-      </c>
-      <c r="G81" s="22">
-        <v>1017714</v>
-      </c>
-      <c r="H81" s="22">
-        <v>718168</v>
-      </c>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22">
-        <v>1143850</v>
-      </c>
-      <c r="K81" s="22">
-        <v>45885</v>
-      </c>
-      <c r="L81" s="22"/>
-      <c r="M81" s="22">
-        <v>45704</v>
-      </c>
-      <c r="N81" s="22">
-        <v>787962</v>
-      </c>
-      <c r="O81" s="22">
-        <v>1527176</v>
-      </c>
-    </row>
-    <row r="82" spans="2:15" hidden="1">
-      <c r="B82" s="16">
-        <v>2018</v>
+      <c r="D81" s="13">
+        <f t="shared" si="2"/>
+        <v>4371365</v>
+      </c>
+      <c r="E81" s="14">
+        <v>24631</v>
+      </c>
+      <c r="F81" s="14">
+        <v>66177</v>
+      </c>
+      <c r="G81" s="14">
+        <v>991931</v>
+      </c>
+      <c r="H81" s="14">
+        <v>774790</v>
+      </c>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14">
+        <v>40758</v>
+      </c>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14">
+        <v>49242</v>
+      </c>
+      <c r="M81" s="14">
+        <v>767922</v>
+      </c>
+      <c r="N81" s="14">
+        <v>1655914</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" hidden="1">
+      <c r="B82" s="15">
+        <v>2019</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D82" s="17">
-        <f t="shared" si="4"/>
-        <v>5844697</v>
+        <f t="shared" si="2"/>
+        <v>3694869</v>
       </c>
       <c r="E82" s="18">
-        <v>25513</v>
+        <v>20074</v>
       </c>
       <c r="F82" s="18">
-        <v>64369</v>
+        <v>57946</v>
       </c>
       <c r="G82" s="18">
-        <v>1071044</v>
+        <v>888111</v>
       </c>
       <c r="H82" s="18">
-        <v>804521</v>
+        <v>647818</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="18">
-        <v>1232404</v>
-      </c>
-      <c r="K82" s="18">
-        <v>78800</v>
-      </c>
-      <c r="L82" s="18"/>
+        <v>31139</v>
+      </c>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18">
+        <v>40877</v>
+      </c>
       <c r="M82" s="18">
-        <v>50423</v>
+        <v>617809</v>
       </c>
       <c r="N82" s="18">
-        <v>905477</v>
-      </c>
-      <c r="O82" s="18">
-        <v>1612146</v>
-      </c>
-    </row>
-    <row r="83" spans="2:15" hidden="1">
-      <c r="B83" s="12">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D83" s="13">
-        <f t="shared" si="4"/>
-        <v>5548187</v>
-      </c>
-      <c r="E83" s="14">
-        <v>24593</v>
-      </c>
-      <c r="F83" s="14">
-        <v>68160</v>
-      </c>
-      <c r="G83" s="14">
-        <v>1004506</v>
-      </c>
-      <c r="H83" s="14">
-        <v>761656</v>
-      </c>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14">
-        <v>1214579</v>
-      </c>
-      <c r="K83" s="14">
-        <v>70291</v>
-      </c>
-      <c r="L83" s="14"/>
-      <c r="M83" s="14">
-        <v>52654</v>
-      </c>
-      <c r="N83" s="14">
-        <v>844104</v>
-      </c>
-      <c r="O83" s="14">
-        <v>1507644</v>
-      </c>
-    </row>
-    <row r="84" spans="2:15" hidden="1">
+        <v>1391095</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" hidden="1">
+      <c r="B83" s="19">
+        <v>2019</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="21">
+        <f t="shared" si="2"/>
+        <v>4226141</v>
+      </c>
+      <c r="E83" s="22">
+        <v>24399</v>
+      </c>
+      <c r="F83" s="22">
+        <v>59133</v>
+      </c>
+      <c r="G83" s="22">
+        <v>1017714</v>
+      </c>
+      <c r="H83" s="22">
+        <v>718168</v>
+      </c>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22">
+        <v>45885</v>
+      </c>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22">
+        <v>45704</v>
+      </c>
+      <c r="M83" s="22">
+        <v>787962</v>
+      </c>
+      <c r="N83" s="22">
+        <v>1527176</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" hidden="1">
       <c r="B84" s="16">
         <v>2018</v>
       </c>
@@ -4166,40 +4052,37 @@
         <v>26</v>
       </c>
       <c r="D84" s="17">
-        <f t="shared" si="4"/>
-        <v>5436017</v>
+        <f t="shared" si="2"/>
+        <v>4612293</v>
       </c>
       <c r="E84" s="18">
-        <v>23163</v>
+        <v>25513</v>
       </c>
       <c r="F84" s="18">
-        <v>67739</v>
+        <v>64369</v>
       </c>
       <c r="G84" s="18">
-        <v>1006759</v>
+        <v>1071044</v>
       </c>
       <c r="H84" s="18">
-        <v>779871</v>
+        <v>804521</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="18">
-        <v>1170513</v>
-      </c>
-      <c r="K84" s="18">
-        <v>65741</v>
-      </c>
-      <c r="L84" s="18"/>
+        <v>78800</v>
+      </c>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18">
+        <v>50423</v>
+      </c>
       <c r="M84" s="18">
-        <v>52203</v>
+        <v>905477</v>
       </c>
       <c r="N84" s="18">
-        <v>808467</v>
-      </c>
-      <c r="O84" s="18">
-        <v>1461561</v>
-      </c>
-    </row>
-    <row r="85" spans="2:15" hidden="1">
+        <v>1612146</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" hidden="1">
       <c r="B85" s="12">
         <v>2018</v>
       </c>
@@ -4207,40 +4090,37 @@
         <v>25</v>
       </c>
       <c r="D85" s="13">
-        <f t="shared" si="4"/>
-        <v>5031295</v>
+        <f t="shared" si="2"/>
+        <v>4333608</v>
       </c>
       <c r="E85" s="14">
-        <v>21054</v>
+        <v>24593</v>
       </c>
       <c r="F85" s="14">
-        <v>57581</v>
+        <v>68160</v>
       </c>
       <c r="G85" s="14">
-        <v>953415</v>
+        <v>1004506</v>
       </c>
       <c r="H85" s="14">
-        <v>749609</v>
+        <v>761656</v>
       </c>
       <c r="I85" s="14"/>
       <c r="J85" s="14">
-        <v>1042581</v>
-      </c>
-      <c r="K85" s="14">
-        <v>61896</v>
-      </c>
-      <c r="L85" s="14"/>
+        <v>70291</v>
+      </c>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14">
+        <v>52654</v>
+      </c>
       <c r="M85" s="14">
-        <v>46860</v>
+        <v>844104</v>
       </c>
       <c r="N85" s="14">
-        <v>767606</v>
-      </c>
-      <c r="O85" s="14">
-        <v>1330693</v>
-      </c>
-    </row>
-    <row r="86" spans="2:15" hidden="1">
+        <v>1507644</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" hidden="1">
       <c r="B86" s="16">
         <v>2018</v>
       </c>
@@ -4248,40 +4128,37 @@
         <v>24</v>
       </c>
       <c r="D86" s="17">
-        <f t="shared" si="4"/>
-        <v>5768371</v>
+        <f t="shared" si="2"/>
+        <v>4265504</v>
       </c>
       <c r="E86" s="18">
-        <v>27838</v>
+        <v>23163</v>
       </c>
       <c r="F86" s="18">
-        <v>63083</v>
+        <v>67739</v>
       </c>
       <c r="G86" s="18">
-        <v>1074998</v>
+        <v>1006759</v>
       </c>
       <c r="H86" s="18">
-        <v>852980</v>
+        <v>779871</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="18">
-        <v>1233129</v>
-      </c>
-      <c r="K86" s="18">
-        <v>104695</v>
-      </c>
-      <c r="L86" s="18"/>
+        <v>65741</v>
+      </c>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18">
+        <v>52203</v>
+      </c>
       <c r="M86" s="18">
-        <v>54110</v>
+        <v>808467</v>
       </c>
       <c r="N86" s="18">
-        <v>921277</v>
-      </c>
-      <c r="O86" s="18">
-        <v>1436261</v>
-      </c>
-    </row>
-    <row r="87" spans="2:15" hidden="1">
+        <v>1461561</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" hidden="1">
       <c r="B87" s="12">
         <v>2018</v>
       </c>
@@ -4289,40 +4166,37 @@
         <v>23</v>
       </c>
       <c r="D87" s="13">
-        <f t="shared" si="4"/>
-        <v>6140662</v>
+        <f t="shared" si="2"/>
+        <v>3988714</v>
       </c>
       <c r="E87" s="14">
-        <v>32903</v>
+        <v>21054</v>
       </c>
       <c r="F87" s="14">
-        <v>56167</v>
+        <v>57581</v>
       </c>
       <c r="G87" s="14">
-        <v>1179423</v>
+        <v>953415</v>
       </c>
       <c r="H87" s="14">
-        <v>895787</v>
+        <v>749609</v>
       </c>
       <c r="I87" s="14"/>
       <c r="J87" s="14">
-        <v>1280292</v>
-      </c>
-      <c r="K87" s="14">
-        <v>110733</v>
-      </c>
-      <c r="L87" s="14"/>
+        <v>61896</v>
+      </c>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14">
+        <v>46860</v>
+      </c>
       <c r="M87" s="14">
-        <v>58466</v>
+        <v>767606</v>
       </c>
       <c r="N87" s="14">
-        <v>944861</v>
-      </c>
-      <c r="O87" s="14">
-        <v>1582030</v>
-      </c>
-    </row>
-    <row r="88" spans="2:15" hidden="1">
+        <v>1330693</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" hidden="1">
       <c r="B88" s="16">
         <v>2018</v>
       </c>
@@ -4330,40 +4204,37 @@
         <v>22</v>
       </c>
       <c r="D88" s="17">
-        <f t="shared" si="4"/>
-        <v>5347432</v>
+        <f t="shared" si="2"/>
+        <v>4535242</v>
       </c>
       <c r="E88" s="18">
-        <v>26323</v>
+        <v>27838</v>
       </c>
       <c r="F88" s="18">
-        <v>46065</v>
+        <v>63083</v>
       </c>
       <c r="G88" s="18">
-        <v>1036698</v>
+        <v>1074998</v>
       </c>
       <c r="H88" s="18">
-        <v>815293</v>
+        <v>852980</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="18">
-        <v>1141203</v>
-      </c>
-      <c r="K88" s="18">
-        <v>75066</v>
-      </c>
-      <c r="L88" s="18"/>
+        <v>104695</v>
+      </c>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18">
+        <v>54110</v>
+      </c>
       <c r="M88" s="18">
-        <v>48032</v>
+        <v>921277</v>
       </c>
       <c r="N88" s="18">
-        <v>768437</v>
-      </c>
-      <c r="O88" s="18">
-        <v>1390315</v>
-      </c>
-    </row>
-    <row r="89" spans="2:15" hidden="1">
+        <v>1436261</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" hidden="1">
       <c r="B89" s="12">
         <v>2018</v>
       </c>
@@ -4371,40 +4242,37 @@
         <v>21</v>
       </c>
       <c r="D89" s="13">
-        <f t="shared" si="4"/>
-        <v>5369812</v>
+        <f t="shared" si="2"/>
+        <v>4860370</v>
       </c>
       <c r="E89" s="14">
-        <v>26212</v>
+        <v>32903</v>
       </c>
       <c r="F89" s="14">
-        <v>54265</v>
+        <v>56167</v>
       </c>
       <c r="G89" s="14">
-        <v>1033321</v>
+        <v>1179423</v>
       </c>
       <c r="H89" s="14">
-        <v>780048</v>
+        <v>895787</v>
       </c>
       <c r="I89" s="14"/>
       <c r="J89" s="14">
-        <v>1201298</v>
-      </c>
-      <c r="K89" s="14">
-        <v>84998</v>
-      </c>
-      <c r="L89" s="14"/>
+        <v>110733</v>
+      </c>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14">
+        <v>58466</v>
+      </c>
       <c r="M89" s="14">
-        <v>49481</v>
+        <v>944861</v>
       </c>
       <c r="N89" s="14">
-        <v>759447</v>
-      </c>
-      <c r="O89" s="14">
-        <v>1380742</v>
-      </c>
-    </row>
-    <row r="90" spans="2:15" hidden="1">
+        <v>1582030</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" hidden="1">
       <c r="B90" s="16">
         <v>2018</v>
       </c>
@@ -4412,40 +4280,37 @@
         <v>20</v>
       </c>
       <c r="D90" s="17">
-        <f t="shared" si="4"/>
-        <v>5275071</v>
+        <f t="shared" si="2"/>
+        <v>4206229</v>
       </c>
       <c r="E90" s="18">
-        <v>25839</v>
+        <v>26323</v>
       </c>
       <c r="F90" s="18">
-        <v>59133</v>
+        <v>46065</v>
       </c>
       <c r="G90" s="18">
-        <v>996415</v>
+        <v>1036698</v>
       </c>
       <c r="H90" s="18">
-        <v>794436</v>
+        <v>815293</v>
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="18">
-        <v>1176450</v>
-      </c>
-      <c r="K90" s="18">
-        <v>73805</v>
-      </c>
-      <c r="L90" s="18"/>
+        <v>75066</v>
+      </c>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18">
+        <v>48032</v>
+      </c>
       <c r="M90" s="18">
-        <v>49795</v>
+        <v>768437</v>
       </c>
       <c r="N90" s="18">
-        <v>730221</v>
-      </c>
-      <c r="O90" s="18">
-        <v>1368977</v>
-      </c>
-    </row>
-    <row r="91" spans="2:15" hidden="1">
+        <v>1390315</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" hidden="1">
       <c r="B91" s="12">
         <v>2018</v>
       </c>
@@ -4453,40 +4318,37 @@
         <v>19</v>
       </c>
       <c r="D91" s="13">
-        <f t="shared" si="4"/>
-        <v>5277344</v>
+        <f t="shared" si="2"/>
+        <v>4168514</v>
       </c>
       <c r="E91" s="14">
-        <v>29029</v>
+        <v>26212</v>
       </c>
       <c r="F91" s="14">
-        <v>65814</v>
+        <v>54265</v>
       </c>
       <c r="G91" s="14">
-        <v>993548</v>
+        <v>1033321</v>
       </c>
       <c r="H91" s="14">
-        <v>797581</v>
+        <v>780048</v>
       </c>
       <c r="I91" s="14"/>
       <c r="J91" s="14">
-        <v>1174935</v>
-      </c>
-      <c r="K91" s="14">
-        <v>50611</v>
-      </c>
-      <c r="L91" s="14"/>
+        <v>84998</v>
+      </c>
+      <c r="K91" s="14"/>
+      <c r="L91" s="14">
+        <v>49481</v>
+      </c>
       <c r="M91" s="14">
-        <v>50043</v>
+        <v>759447</v>
       </c>
       <c r="N91" s="14">
-        <v>723374</v>
-      </c>
-      <c r="O91" s="14">
-        <v>1392409</v>
-      </c>
-    </row>
-    <row r="92" spans="2:15" hidden="1">
+        <v>1380742</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" hidden="1">
       <c r="B92" s="16">
         <v>2018</v>
       </c>
@@ -4494,40 +4356,37 @@
         <v>18</v>
       </c>
       <c r="D92" s="17">
-        <f t="shared" si="4"/>
-        <v>4448093</v>
+        <f t="shared" si="2"/>
+        <v>4098621</v>
       </c>
       <c r="E92" s="18">
-        <v>22962</v>
+        <v>25839</v>
       </c>
       <c r="F92" s="18">
-        <v>59046</v>
+        <v>59133</v>
       </c>
       <c r="G92" s="18">
-        <v>878966</v>
+        <v>996415</v>
       </c>
       <c r="H92" s="18">
-        <v>699650</v>
+        <v>794436</v>
       </c>
       <c r="I92" s="18"/>
       <c r="J92" s="18">
-        <v>934030</v>
-      </c>
-      <c r="K92" s="18">
-        <v>39995</v>
-      </c>
-      <c r="L92" s="18"/>
+        <v>73805</v>
+      </c>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18">
+        <v>49795</v>
+      </c>
       <c r="M92" s="18">
-        <v>44679</v>
+        <v>730221</v>
       </c>
       <c r="N92" s="18">
-        <v>569891</v>
-      </c>
-      <c r="O92" s="18">
-        <v>1198874</v>
-      </c>
-    </row>
-    <row r="93" spans="2:15" hidden="1">
+        <v>1368977</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" hidden="1">
       <c r="B93" s="12">
         <v>2018</v>
       </c>
@@ -4535,83 +4394,150 @@
         <v>17</v>
       </c>
       <c r="D93" s="13">
-        <f t="shared" si="4"/>
-        <v>5082659</v>
+        <f t="shared" si="2"/>
+        <v>4102409</v>
       </c>
       <c r="E93" s="14">
-        <v>24734</v>
+        <v>29029</v>
       </c>
       <c r="F93" s="14">
-        <v>60981</v>
+        <v>65814</v>
       </c>
       <c r="G93" s="14">
-        <v>1021784</v>
+        <v>993548</v>
       </c>
       <c r="H93" s="14">
-        <v>777479</v>
+        <v>797581</v>
       </c>
       <c r="I93" s="14"/>
       <c r="J93" s="14">
-        <v>1078923</v>
-      </c>
-      <c r="K93" s="14">
+        <v>50611</v>
+      </c>
+      <c r="K93" s="14"/>
+      <c r="L93" s="14">
+        <v>50043</v>
+      </c>
+      <c r="M93" s="14">
+        <v>723374</v>
+      </c>
+      <c r="N93" s="14">
+        <v>1392409</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" hidden="1">
+      <c r="B94" s="16">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="17">
+        <f t="shared" si="2"/>
+        <v>3514063</v>
+      </c>
+      <c r="E94" s="18">
+        <v>22962</v>
+      </c>
+      <c r="F94" s="18">
+        <v>59046</v>
+      </c>
+      <c r="G94" s="18">
+        <v>878966</v>
+      </c>
+      <c r="H94" s="18">
+        <v>699650</v>
+      </c>
+      <c r="I94" s="18"/>
+      <c r="J94" s="18">
+        <v>39995</v>
+      </c>
+      <c r="K94" s="18"/>
+      <c r="L94" s="18">
+        <v>44679</v>
+      </c>
+      <c r="M94" s="18">
+        <v>569891</v>
+      </c>
+      <c r="N94" s="18">
+        <v>1198874</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" hidden="1">
+      <c r="B95" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="13">
+        <f t="shared" si="2"/>
+        <v>4003736</v>
+      </c>
+      <c r="E95" s="14">
+        <v>24734</v>
+      </c>
+      <c r="F95" s="14">
+        <v>60981</v>
+      </c>
+      <c r="G95" s="14">
+        <v>1021784</v>
+      </c>
+      <c r="H95" s="14">
+        <v>777479</v>
+      </c>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14">
         <v>55290</v>
       </c>
-      <c r="L93" s="14"/>
-      <c r="M93" s="14">
+      <c r="K95" s="14"/>
+      <c r="L95" s="14">
         <v>47772</v>
       </c>
-      <c r="N93" s="14">
+      <c r="M95" s="14">
         <v>664529</v>
       </c>
-      <c r="O93" s="14">
+      <c r="N95" s="14">
         <v>1351167</v>
       </c>
     </row>
-    <row r="94" spans="2:15">
-      <c r="B94" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="2:15">
-      <c r="B95" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" s="28"/>
-      <c r="O95" s="29"/>
-    </row>
-    <row r="96" spans="2:15">
-      <c r="B96" s="28" t="s">
+    <row r="96" spans="2:14">
+      <c r="B96" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="2:15">
+      <c r="B97" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C96" s="28"/>
-    </row>
-    <row r="97" spans="2:4">
-      <c r="B97" s="28" t="s">
-        <v>31</v>
-      </c>
       <c r="C97" s="28"/>
-    </row>
-    <row r="98" spans="2:4">
+      <c r="O97" s="29"/>
+    </row>
+    <row r="98" spans="2:15">
       <c r="B98" s="28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4">
-      <c r="B99" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="28"/>
+    </row>
+    <row r="99" spans="2:15">
+      <c r="B99" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15">
+      <c r="B100" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:4">
-      <c r="D102" s="27"/>
-    </row>
-    <row r="106" spans="2:4">
-      <c r="D106" s="27"/>
+    <row r="103" spans="2:15">
+      <c r="D103" s="27"/>
+    </row>
+    <row r="107" spans="2:15">
+      <c r="D107" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E4:O4"/>
+    <mergeCell ref="E4:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Pasajeros_por_aerolinea_nac.xlsx
+++ b/Pasajeros_por_aerolinea_nac.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0BB4F4-BE1F-420A-9366-0C51414C4B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D0C9D1-CF4D-4AB6-A8F6-F509A146F57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_31" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="32">
   <si>
     <t>Total</t>
   </si>
@@ -131,7 +131,7 @@
     <t>Nota: La línea aérea Mexicana comenzó operaciones el 26 de diciembre de 2023.</t>
   </si>
   <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Julio 2025.</t>
   </si>
 </sst>
 </file>
@@ -717,8 +717,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:N95" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14">
-  <autoFilter ref="B5:N95" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:N96" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14">
+  <autoFilter ref="B5:N96" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -970,7 +970,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O107"/>
+  <dimension ref="B2:O108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1067,3473 +1067,3511 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="15">
+      <c r="B6" s="11">
         <v>2025</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="13">
+        <f>SUM(E6:N6)</f>
+        <v>7498051</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14">
+        <v>1919819</v>
+      </c>
+      <c r="H6" s="14">
+        <v>347447</v>
+      </c>
+      <c r="I6" s="14">
+        <v>4274</v>
+      </c>
+      <c r="J6" s="14">
+        <v>23382</v>
+      </c>
+      <c r="K6" s="14">
+        <v>42839</v>
+      </c>
+      <c r="L6" s="14">
+        <v>18345</v>
+      </c>
+      <c r="M6" s="14">
+        <v>2595878</v>
+      </c>
+      <c r="N6" s="14">
+        <v>2546067</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="15">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="17">
-        <f>SUM(E6:N6)</f>
+      <c r="D7" s="17">
+        <f>SUM(E7:N7)</f>
         <v>6582543</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18">
         <v>1637841</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H7" s="18">
         <v>366046</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I7" s="18">
         <v>3085</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J7" s="18">
         <v>21458</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K7" s="18">
         <v>29258</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L7" s="18">
         <v>13273</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M7" s="18">
         <v>2305737</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N7" s="18">
         <v>2205845</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="11">
+    <row r="8" spans="2:14">
+      <c r="B8" s="11">
         <v>2025</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="13">
-        <f t="shared" ref="D7:D38" si="0">SUM(E7:N7)</f>
+      <c r="D8" s="13">
+        <f t="shared" ref="D8:D39" si="0">SUM(E8:N8)</f>
         <v>6744988</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14">
         <v>1650373</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H8" s="14">
         <v>376468</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I8" s="14">
         <v>2743</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J8" s="14">
         <v>18727</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K8" s="14">
         <v>31001</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L8" s="14">
         <v>16237</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M8" s="14">
         <v>2362806</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N8" s="14">
         <v>2286633</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="15">
+    <row r="9" spans="2:14">
+      <c r="B9" s="15">
         <v>2025</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D9" s="17">
         <f t="shared" si="0"/>
         <v>6914542</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18">
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18">
         <v>1679269</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H9" s="18">
         <v>375721</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I9" s="18">
         <v>2623</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J9" s="18">
         <v>17652</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K9" s="18">
         <v>39304</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L9" s="18">
         <v>19246</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M9" s="18">
         <v>2388075</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N9" s="18">
         <v>2392652</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="11">
+    <row r="10" spans="2:14">
+      <c r="B10" s="11">
         <v>2025</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D10" s="13">
         <f t="shared" si="0"/>
         <v>6673780</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14">
         <v>1613283</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H10" s="14">
         <v>387375</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I10" s="14">
         <v>2498</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J10" s="14">
         <v>12552</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K10" s="14">
         <v>27996</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L10" s="14">
         <v>17392</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M10" s="14">
         <v>2269618</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N10" s="14">
         <v>2343066</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="15">
+    <row r="11" spans="2:14">
+      <c r="B11" s="15">
         <v>2025</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D11" s="17">
         <f t="shared" si="0"/>
         <v>5717679</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18">
         <v>1396853</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H11" s="18">
         <v>347893</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I11" s="18">
         <v>2002</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J11" s="18">
         <v>7942</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K11" s="18">
         <v>19987</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L11" s="18">
         <v>13617</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M11" s="18">
         <v>1922778</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N11" s="18">
         <v>2006607</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="19">
+    <row r="12" spans="2:14">
+      <c r="B12" s="19">
         <v>2025</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D12" s="21">
         <f t="shared" si="0"/>
         <v>6704849</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22">
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22">
         <v>1669900</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H12" s="22">
         <v>395411</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I12" s="22">
         <v>2263</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J12" s="22">
         <v>11376</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K12" s="22">
         <v>33325</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L12" s="22">
         <v>15081</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M12" s="22">
         <v>2220761</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N12" s="22">
         <v>2356732</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="15">
+    <row r="13" spans="2:14">
+      <c r="B13" s="15">
         <v>2024</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D13" s="17">
         <f t="shared" si="0"/>
         <v>7192079</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18">
         <v>1749211</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H13" s="18">
         <v>393443</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I13" s="18">
         <v>2275</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J13" s="18">
         <v>19131</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K13" s="18">
         <v>42411</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L13" s="18">
         <v>19789</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M13" s="18">
         <v>2449237</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N13" s="18">
         <v>2516582</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="11">
+    <row r="14" spans="2:14">
+      <c r="B14" s="11">
         <v>2024</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D14" s="13">
         <f t="shared" si="0"/>
         <v>6697243</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14">
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14">
         <v>1630210</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H14" s="14">
         <v>378802</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I14" s="14">
         <v>2675</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J14" s="14">
         <v>18521</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K14" s="14">
         <v>23922</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L14" s="14">
         <v>14425</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M14" s="14">
         <v>2321101</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N14" s="14">
         <v>2307587</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="15">
+    <row r="15" spans="2:14">
+      <c r="B15" s="15">
         <v>2024</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D15" s="17">
         <f t="shared" si="0"/>
         <v>6570638</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18">
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18">
         <v>1659284</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H15" s="18">
         <v>357763</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I15" s="18">
         <v>2918</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J15" s="18">
         <v>18874</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K15" s="18">
         <v>22660</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L15" s="18">
         <v>9268</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M15" s="18">
         <v>2210987</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N15" s="18">
         <v>2288884</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B15" s="11">
+    <row r="16" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B16" s="11">
         <v>2024</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D16" s="13">
         <f t="shared" si="0"/>
         <v>6239937</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14">
         <v>1602332</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H16" s="14">
         <v>357115</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I16" s="14">
         <v>2666</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J16" s="14">
         <v>16595</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K16" s="14">
         <v>21490</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L16" s="14">
         <v>8152</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M16" s="14">
         <v>2135071</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N16" s="14">
         <v>2096516</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B16" s="15">
+    <row r="17" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B17" s="15">
         <v>2024</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D17" s="17">
         <f t="shared" si="0"/>
         <v>7121241</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18">
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18">
         <v>1846259</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H17" s="18">
         <v>423300</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I17" s="18">
         <v>2334</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J17" s="18">
         <v>23287</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K17" s="18">
         <v>32823</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L17" s="18">
         <v>13091</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M17" s="18">
         <v>2380847</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N17" s="18">
         <v>2399300</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B17" s="11">
+    <row r="18" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B18" s="11">
         <v>2024</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D18" s="13">
         <f t="shared" si="0"/>
         <v>7364610</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E18" s="14">
         <v>972</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14">
         <v>1936260</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H18" s="14">
         <v>455999</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I18" s="14">
         <v>1962</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J18" s="14">
         <v>25726</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K18" s="14">
         <v>35662</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L18" s="14">
         <v>11529</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M18" s="14">
         <v>2421165</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N18" s="14">
         <v>2475335</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B18" s="15">
+    <row r="19" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B19" s="15">
         <v>2024</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D19" s="17">
         <f t="shared" si="0"/>
         <v>6544776</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E19" s="18">
         <v>744</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18">
+      <c r="F19" s="18"/>
+      <c r="G19" s="18">
         <v>1681153</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H19" s="18">
         <v>420652</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I19" s="18">
         <v>1562</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J19" s="18">
         <v>23110</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K19" s="18">
         <v>21518</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L19" s="18">
         <v>9672</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M19" s="18">
         <v>2174929</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N19" s="18">
         <v>2211436</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="11">
+    <row r="20" spans="2:14">
+      <c r="B20" s="11">
         <v>2024</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D20" s="13">
         <f t="shared" si="0"/>
         <v>6587851</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E20" s="14">
         <v>820</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14">
+      <c r="F20" s="14"/>
+      <c r="G20" s="14">
         <v>1727003</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H20" s="14">
         <v>431546</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I20" s="14">
         <v>1574</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J20" s="14">
         <v>13929</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K20" s="14">
         <v>22186</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L20" s="14">
         <v>10844</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M20" s="14">
         <v>2176419</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N20" s="14">
         <v>2203530</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="15">
+    <row r="21" spans="2:14">
+      <c r="B21" s="15">
         <v>2024</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D21" s="17">
         <f t="shared" si="0"/>
         <v>6254455</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E21" s="18">
         <v>1018</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18">
+      <c r="F21" s="18"/>
+      <c r="G21" s="18">
         <v>1647314</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H21" s="18">
         <v>437362</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I21" s="18">
         <v>1293</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J21" s="18">
         <v>17123</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K21" s="18">
         <v>21899</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L21" s="18">
         <v>13242</v>
       </c>
-      <c r="M20" s="18">
+      <c r="M21" s="18">
         <v>2025760</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N21" s="18">
         <v>2089444</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="11">
+    <row r="22" spans="2:14">
+      <c r="B22" s="11">
         <v>2024</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D22" s="13">
         <f t="shared" si="0"/>
         <v>6263723</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E22" s="14">
         <v>985</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14">
+      <c r="F22" s="14"/>
+      <c r="G22" s="14">
         <v>1663451</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H22" s="14">
         <v>414407</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I22" s="14">
         <v>1266</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J22" s="14">
         <v>16310</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K22" s="14">
         <v>24140</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L22" s="14">
         <v>11320</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M22" s="14">
         <v>2037641</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N22" s="14">
         <v>2094203</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="15">
+    <row r="23" spans="2:14">
+      <c r="B23" s="15">
         <v>2024</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D23" s="17">
         <f t="shared" si="0"/>
         <v>5605484</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E23" s="18">
         <v>703</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18">
+      <c r="F23" s="18"/>
+      <c r="G23" s="18">
         <v>1479121</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H23" s="18">
         <v>395860</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I23" s="18">
         <v>1212</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J23" s="18">
         <v>11161</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K23" s="18">
         <v>17287</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L23" s="18">
         <v>11349</v>
       </c>
-      <c r="M22" s="18">
+      <c r="M23" s="18">
         <v>1772299</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N23" s="18">
         <v>1916492</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="19">
+    <row r="24" spans="2:14">
+      <c r="B24" s="19">
         <v>2024</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C24" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D24" s="21">
         <f t="shared" si="0"/>
         <v>6273694</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E24" s="22">
         <v>1102</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22">
+      <c r="F24" s="22"/>
+      <c r="G24" s="22">
         <v>1481216</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H24" s="22">
         <v>490118</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I24" s="22">
         <v>1406</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J24" s="22">
         <v>14046</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K24" s="22">
         <v>12504</v>
       </c>
-      <c r="L23" s="22">
+      <c r="L24" s="22">
         <v>12424</v>
       </c>
-      <c r="M23" s="22">
+      <c r="M24" s="22">
         <v>2028846</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N24" s="22">
         <v>2232032</v>
       </c>
     </row>
-    <row r="24" spans="2:14" hidden="1">
-      <c r="B24" s="23">
+    <row r="25" spans="2:14" hidden="1">
+      <c r="B25" s="23">
         <v>2023</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C25" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D25" s="25">
         <f t="shared" si="0"/>
         <v>6943699</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E25" s="26">
         <v>1263</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26">
+      <c r="F25" s="26"/>
+      <c r="G25" s="26">
         <v>1661066</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H25" s="26">
         <v>520344</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I25" s="26">
         <v>2164</v>
       </c>
-      <c r="J24" s="26">
+      <c r="J25" s="26">
         <v>23295</v>
       </c>
-      <c r="K24" s="26">
+      <c r="K25" s="26">
         <v>1620</v>
       </c>
-      <c r="L24" s="26">
+      <c r="L25" s="26">
         <v>19717</v>
       </c>
-      <c r="M24" s="26">
+      <c r="M25" s="26">
         <v>2180392</v>
       </c>
-      <c r="N24" s="26">
+      <c r="N25" s="26">
         <v>2533838</v>
       </c>
     </row>
-    <row r="25" spans="2:14" hidden="1">
-      <c r="B25" s="11">
+    <row r="26" spans="2:14" hidden="1">
+      <c r="B26" s="11">
         <v>2023</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D26" s="13">
         <f t="shared" si="0"/>
         <v>6524452</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E26" s="14">
         <v>817</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14">
+      <c r="F26" s="14"/>
+      <c r="G26" s="14">
         <v>1518614</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H26" s="14">
         <v>487651</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I26" s="14">
         <v>1815</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J26" s="14">
         <v>23109</v>
       </c>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14">
+      <c r="K26" s="14"/>
+      <c r="L26" s="14">
         <v>18006</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M26" s="14">
         <v>2055956</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N26" s="14">
         <v>2418484</v>
       </c>
     </row>
-    <row r="26" spans="2:14" hidden="1">
-      <c r="B26" s="15">
+    <row r="27" spans="2:14" hidden="1">
+      <c r="B27" s="15">
         <v>2023</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D27" s="17">
         <f t="shared" si="0"/>
         <v>6666523</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E27" s="18">
         <v>745</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18">
+      <c r="F27" s="18"/>
+      <c r="G27" s="18">
         <v>1534357</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H27" s="18">
         <v>502142</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I27" s="18">
         <v>1593</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J27" s="18">
         <v>27175</v>
       </c>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18">
+      <c r="K27" s="18"/>
+      <c r="L27" s="18">
         <v>15799</v>
       </c>
-      <c r="M26" s="18">
+      <c r="M27" s="18">
         <v>2142423</v>
       </c>
-      <c r="N26" s="18">
+      <c r="N27" s="18">
         <v>2442289</v>
       </c>
     </row>
-    <row r="27" spans="2:14" hidden="1">
-      <c r="B27" s="11">
+    <row r="28" spans="2:14" hidden="1">
+      <c r="B28" s="11">
         <v>2023</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D28" s="13">
         <f t="shared" si="0"/>
         <v>6234323</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E28" s="14">
         <v>136</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14">
+      <c r="F28" s="14"/>
+      <c r="G28" s="14">
         <v>1449933</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H28" s="14">
         <v>489367</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I28" s="14">
         <v>1718</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J28" s="14">
         <v>20794</v>
       </c>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14">
+      <c r="K28" s="14"/>
+      <c r="L28" s="14">
         <v>13440</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M28" s="14">
         <v>1975887</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N28" s="14">
         <v>2283048</v>
       </c>
     </row>
-    <row r="28" spans="2:14" hidden="1">
-      <c r="B28" s="15">
+    <row r="29" spans="2:14" hidden="1">
+      <c r="B29" s="15">
         <v>2023</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D29" s="17">
         <f t="shared" si="0"/>
         <v>7366586</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E29" s="18">
         <v>711</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18">
+      <c r="F29" s="18"/>
+      <c r="G29" s="18">
         <v>1790842</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H29" s="18">
         <v>509073</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I29" s="18">
         <v>1858</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J29" s="18">
         <v>33617</v>
       </c>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18">
+      <c r="K29" s="18"/>
+      <c r="L29" s="18">
         <v>17102</v>
       </c>
-      <c r="M28" s="18">
+      <c r="M29" s="18">
         <v>2222143</v>
       </c>
-      <c r="N28" s="18">
+      <c r="N29" s="18">
         <v>2791240</v>
       </c>
     </row>
-    <row r="29" spans="2:14" hidden="1">
-      <c r="B29" s="11">
+    <row r="30" spans="2:14" hidden="1">
+      <c r="B30" s="11">
         <v>2023</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D30" s="13">
         <f t="shared" si="0"/>
         <v>7470779</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E30" s="14">
         <v>7815</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14">
+      <c r="F30" s="14"/>
+      <c r="G30" s="14">
         <v>1877785</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H30" s="14">
         <v>489520</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I30" s="14">
         <v>1593</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J30" s="14">
         <v>38495</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14">
+      <c r="K30" s="14"/>
+      <c r="L30" s="14">
         <v>16965</v>
       </c>
-      <c r="M29" s="14">
+      <c r="M30" s="14">
         <v>2256958</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N30" s="14">
         <v>2781648</v>
       </c>
     </row>
-    <row r="30" spans="2:14" hidden="1">
-      <c r="B30" s="15">
+    <row r="31" spans="2:14" hidden="1">
+      <c r="B31" s="15">
         <v>2023</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C31" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D31" s="17">
         <f t="shared" si="0"/>
         <v>6481356</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E31" s="18">
         <v>8579</v>
       </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18">
+      <c r="F31" s="18"/>
+      <c r="G31" s="18">
         <v>1623869</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H31" s="18">
         <v>444461</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I31" s="18">
         <v>930</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J31" s="18">
         <v>26027</v>
       </c>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18">
+      <c r="K31" s="18"/>
+      <c r="L31" s="18">
         <v>16972</v>
       </c>
-      <c r="M30" s="18">
+      <c r="M31" s="18">
         <v>1939577</v>
       </c>
-      <c r="N30" s="18">
+      <c r="N31" s="18">
         <v>2420941</v>
       </c>
     </row>
-    <row r="31" spans="2:14" hidden="1">
-      <c r="B31" s="11">
+    <row r="32" spans="2:14" hidden="1">
+      <c r="B32" s="11">
         <v>2023</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D32" s="13">
         <f t="shared" si="0"/>
         <v>6466836</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E32" s="14">
         <v>10045</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14">
+      <c r="F32" s="14"/>
+      <c r="G32" s="14">
         <v>1475419</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H32" s="14">
         <v>493646</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I32" s="14">
         <v>866</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J32" s="14">
         <v>22311</v>
       </c>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14">
+      <c r="K32" s="14"/>
+      <c r="L32" s="14">
         <v>22530</v>
       </c>
-      <c r="M31" s="14">
+      <c r="M32" s="14">
         <v>1903714</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N32" s="14">
         <v>2538305</v>
       </c>
     </row>
-    <row r="32" spans="2:14" hidden="1">
-      <c r="B32" s="15">
+    <row r="33" spans="2:14" hidden="1">
+      <c r="B33" s="15">
         <v>2023</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C33" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D33" s="17">
         <f t="shared" si="0"/>
         <v>6505979</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E33" s="18">
         <v>7610</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18">
+      <c r="F33" s="18"/>
+      <c r="G33" s="18">
         <v>1447508</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H33" s="18">
         <v>495864</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I33" s="18">
         <v>73</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J33" s="18">
         <v>22224</v>
       </c>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18">
+      <c r="K33" s="18"/>
+      <c r="L33" s="18">
         <v>23384</v>
       </c>
-      <c r="M32" s="18">
+      <c r="M33" s="18">
         <v>1903503</v>
       </c>
-      <c r="N32" s="18">
+      <c r="N33" s="18">
         <v>2605813</v>
       </c>
     </row>
-    <row r="33" spans="2:14" hidden="1">
-      <c r="B33" s="11">
+    <row r="34" spans="2:14" hidden="1">
+      <c r="B34" s="11">
         <v>2023</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D34" s="13">
         <f t="shared" si="0"/>
         <v>6389909</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E34" s="14">
         <v>4538</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14">
+      <c r="F34" s="14"/>
+      <c r="G34" s="14">
         <v>1502404</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H34" s="14">
         <v>516526</v>
       </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14">
+      <c r="I34" s="14"/>
+      <c r="J34" s="14">
         <v>15589</v>
       </c>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14">
+      <c r="K34" s="14"/>
+      <c r="L34" s="14">
         <v>23229</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M34" s="14">
         <v>1776763</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N34" s="14">
         <v>2550860</v>
       </c>
     </row>
-    <row r="34" spans="2:14" hidden="1">
-      <c r="B34" s="15">
+    <row r="35" spans="2:14" hidden="1">
+      <c r="B35" s="15">
         <v>2023</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C35" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D35" s="17">
         <f t="shared" si="0"/>
         <v>5478771</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E35" s="18">
         <v>9031</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F35" s="18">
         <v>9443</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G35" s="18">
         <v>1277871</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H35" s="18">
         <v>459155</v>
       </c>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18">
+      <c r="I35" s="18"/>
+      <c r="J35" s="18">
         <v>11992</v>
       </c>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18">
+      <c r="K35" s="18"/>
+      <c r="L35" s="18">
         <v>19704</v>
       </c>
-      <c r="M34" s="18">
+      <c r="M35" s="18">
         <v>1431046</v>
       </c>
-      <c r="N34" s="18">
+      <c r="N35" s="18">
         <v>2260529</v>
       </c>
     </row>
-    <row r="35" spans="2:14" hidden="1">
-      <c r="B35" s="19">
+    <row r="36" spans="2:14" hidden="1">
+      <c r="B36" s="19">
         <v>2023</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C36" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D36" s="21">
         <f t="shared" si="0"/>
         <v>6248337</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E36" s="22">
         <v>9895</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F36" s="22">
         <v>23595</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G36" s="22">
         <v>1439058</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H36" s="22">
         <v>503079</v>
       </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22">
+      <c r="I36" s="22"/>
+      <c r="J36" s="22">
         <v>15438</v>
       </c>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22">
+      <c r="K36" s="22"/>
+      <c r="L36" s="22">
         <v>23680</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M36" s="22">
         <v>1650780</v>
       </c>
-      <c r="N35" s="22">
+      <c r="N36" s="22">
         <v>2582812</v>
       </c>
     </row>
-    <row r="36" spans="2:14" hidden="1">
-      <c r="B36" s="23">
+    <row r="37" spans="2:14" hidden="1">
+      <c r="B37" s="23">
         <v>2022</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C37" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D37" s="25">
         <f t="shared" si="0"/>
         <v>6735243</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E37" s="26">
         <v>8855</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F37" s="26">
         <v>30082</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G37" s="26">
         <v>1541064</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H37" s="26">
         <v>545257</v>
       </c>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26">
+      <c r="I37" s="26"/>
+      <c r="J37" s="26">
         <v>31832</v>
       </c>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26">
+      <c r="K37" s="26"/>
+      <c r="L37" s="26">
         <v>32706</v>
       </c>
-      <c r="M36" s="26">
+      <c r="M37" s="26">
         <v>1885616</v>
       </c>
-      <c r="N36" s="26">
+      <c r="N37" s="26">
         <v>2659831</v>
       </c>
     </row>
-    <row r="37" spans="2:14" hidden="1">
-      <c r="B37" s="11">
+    <row r="38" spans="2:14" hidden="1">
+      <c r="B38" s="11">
         <v>2022</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D38" s="13">
         <f t="shared" si="0"/>
         <v>6388091</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E38" s="14">
         <v>10809</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F38" s="14">
         <v>29180</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G38" s="14">
         <v>1477832</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H38" s="14">
         <v>542019</v>
       </c>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14">
+      <c r="I38" s="14"/>
+      <c r="J38" s="14">
         <v>26190</v>
       </c>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14">
+      <c r="K38" s="14"/>
+      <c r="L38" s="14">
         <v>25324</v>
       </c>
-      <c r="M37" s="14">
+      <c r="M38" s="14">
         <v>1806360</v>
       </c>
-      <c r="N37" s="14">
+      <c r="N38" s="14">
         <v>2470377</v>
       </c>
     </row>
-    <row r="38" spans="2:14" hidden="1">
-      <c r="B38" s="15">
+    <row r="39" spans="2:14" hidden="1">
+      <c r="B39" s="15">
         <v>2022</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C39" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D39" s="17">
         <f t="shared" si="0"/>
         <v>6296390</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E39" s="18">
         <v>11560</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F39" s="18">
         <v>29156</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G39" s="18">
         <v>1436769</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H39" s="18">
         <v>525145</v>
       </c>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18">
+      <c r="I39" s="18"/>
+      <c r="J39" s="18">
         <v>25003</v>
       </c>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18">
+      <c r="K39" s="18"/>
+      <c r="L39" s="18">
         <v>26165</v>
       </c>
-      <c r="M38" s="18">
+      <c r="M39" s="18">
         <v>1730130</v>
       </c>
-      <c r="N38" s="18">
+      <c r="N39" s="18">
         <v>2512462</v>
       </c>
     </row>
-    <row r="39" spans="2:14" hidden="1">
-      <c r="B39" s="11">
+    <row r="40" spans="2:14" hidden="1">
+      <c r="B40" s="11">
         <v>2022</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="13">
-        <f t="shared" ref="D39:D70" si="1">SUM(E39:N39)</f>
+      <c r="D40" s="13">
+        <f t="shared" ref="D40:D71" si="1">SUM(E40:N40)</f>
         <v>5717570</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E40" s="14">
         <v>8563</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F40" s="14">
         <v>27782</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G40" s="14">
         <v>1324735</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H40" s="14">
         <v>461328</v>
       </c>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14">
+      <c r="I40" s="14"/>
+      <c r="J40" s="14">
         <v>24539</v>
       </c>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14">
+      <c r="K40" s="14"/>
+      <c r="L40" s="14">
         <v>23409</v>
       </c>
-      <c r="M39" s="14">
+      <c r="M40" s="14">
         <v>1533686</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N40" s="14">
         <v>2313528</v>
       </c>
     </row>
-    <row r="40" spans="2:14" hidden="1">
-      <c r="B40" s="15">
+    <row r="41" spans="2:14" hidden="1">
+      <c r="B41" s="15">
         <v>2022</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C41" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D41" s="17">
         <f t="shared" si="1"/>
         <v>6395624</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E41" s="18">
         <v>12206</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F41" s="18">
         <v>36300</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G41" s="18">
         <v>1459848</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H41" s="18">
         <v>550210</v>
       </c>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18">
+      <c r="I41" s="18"/>
+      <c r="J41" s="18">
         <v>41574</v>
       </c>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18">
+      <c r="K41" s="18"/>
+      <c r="L41" s="18">
         <v>28457</v>
       </c>
-      <c r="M40" s="18">
+      <c r="M41" s="18">
         <v>1770150</v>
       </c>
-      <c r="N40" s="18">
+      <c r="N41" s="18">
         <v>2496879</v>
       </c>
     </row>
-    <row r="41" spans="2:14" hidden="1">
-      <c r="B41" s="11">
+    <row r="42" spans="2:14" hidden="1">
+      <c r="B42" s="11">
         <v>2022</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C42" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D42" s="13">
         <f t="shared" si="1"/>
         <v>6606709</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E42" s="14">
         <v>12900</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F42" s="14">
         <v>37410</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G42" s="14">
         <v>1493132</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H42" s="14">
         <v>544988</v>
       </c>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14">
+      <c r="I42" s="14"/>
+      <c r="J42" s="14">
         <v>52783</v>
       </c>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14">
+      <c r="K42" s="14"/>
+      <c r="L42" s="14">
         <v>35829</v>
       </c>
-      <c r="M41" s="14">
+      <c r="M42" s="14">
         <v>1832173</v>
       </c>
-      <c r="N41" s="14">
+      <c r="N42" s="14">
         <v>2597494</v>
       </c>
     </row>
-    <row r="42" spans="2:14" hidden="1">
-      <c r="B42" s="15">
+    <row r="43" spans="2:14" hidden="1">
+      <c r="B43" s="15">
         <v>2022</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C43" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D43" s="17">
         <f t="shared" si="1"/>
         <v>5816384</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E43" s="18">
         <v>11528</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F43" s="18">
         <v>29894</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G43" s="18">
         <v>1448616</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H43" s="18">
         <v>482837</v>
       </c>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18">
+      <c r="I43" s="18"/>
+      <c r="J43" s="18">
         <v>38612</v>
       </c>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18">
+      <c r="K43" s="18"/>
+      <c r="L43" s="18">
         <v>31692</v>
       </c>
-      <c r="M42" s="18">
+      <c r="M43" s="18">
         <v>1629719</v>
       </c>
-      <c r="N42" s="18">
+      <c r="N43" s="18">
         <v>2143486</v>
       </c>
     </row>
-    <row r="43" spans="2:14" hidden="1">
-      <c r="B43" s="11">
+    <row r="44" spans="2:14" hidden="1">
+      <c r="B44" s="11">
         <v>2022</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C44" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D44" s="13">
         <f t="shared" si="1"/>
         <v>5938227</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E44" s="14">
         <v>14051</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F44" s="14">
         <v>34530</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G44" s="14">
         <v>1394194</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H44" s="14">
         <v>469001</v>
       </c>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14">
+      <c r="I44" s="14"/>
+      <c r="J44" s="14">
         <v>36048</v>
       </c>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14">
+      <c r="K44" s="14"/>
+      <c r="L44" s="14">
         <v>32934</v>
       </c>
-      <c r="M43" s="14">
+      <c r="M44" s="14">
         <v>1638787</v>
       </c>
-      <c r="N43" s="14">
+      <c r="N44" s="14">
         <v>2318682</v>
       </c>
     </row>
-    <row r="44" spans="2:14" hidden="1">
-      <c r="B44" s="15">
+    <row r="45" spans="2:14" hidden="1">
+      <c r="B45" s="15">
         <v>2022</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C45" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D45" s="17">
         <f t="shared" si="1"/>
         <v>5762121</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E45" s="18">
         <v>12580</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F45" s="18">
         <v>39403</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G45" s="18">
         <v>1248745</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H45" s="18">
         <v>447104</v>
       </c>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18">
+      <c r="I45" s="18"/>
+      <c r="J45" s="18">
         <v>30427</v>
       </c>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18">
+      <c r="K45" s="18"/>
+      <c r="L45" s="18">
         <v>31976</v>
       </c>
-      <c r="M44" s="18">
+      <c r="M45" s="18">
         <v>1571982</v>
       </c>
-      <c r="N44" s="18">
+      <c r="N45" s="18">
         <v>2379904</v>
       </c>
     </row>
-    <row r="45" spans="2:14" hidden="1">
-      <c r="B45" s="11">
+    <row r="46" spans="2:14" hidden="1">
+      <c r="B46" s="11">
         <v>2022</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C46" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D46" s="13">
         <f t="shared" si="1"/>
         <v>5450271</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E46" s="14">
         <v>13206</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F46" s="14">
         <v>32413</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G46" s="14">
         <v>1137873</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H46" s="14">
         <v>485288</v>
       </c>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14">
+      <c r="I46" s="14"/>
+      <c r="J46" s="14">
         <v>20444</v>
       </c>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14">
+      <c r="K46" s="14"/>
+      <c r="L46" s="14">
         <v>30333</v>
       </c>
-      <c r="M45" s="14">
+      <c r="M46" s="14">
         <v>1443642</v>
       </c>
-      <c r="N45" s="14">
+      <c r="N46" s="14">
         <v>2287072</v>
       </c>
     </row>
-    <row r="46" spans="2:14" hidden="1">
-      <c r="B46" s="15">
+    <row r="47" spans="2:14" hidden="1">
+      <c r="B47" s="15">
         <v>2022</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C47" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D47" s="17">
         <f t="shared" si="1"/>
         <v>4335053</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E47" s="18">
         <v>10775</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F47" s="18">
         <v>26979</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G47" s="18">
         <v>817221</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H47" s="18">
         <v>400280</v>
       </c>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18">
+      <c r="I47" s="18"/>
+      <c r="J47" s="18">
         <v>14632</v>
       </c>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18">
+      <c r="K47" s="18"/>
+      <c r="L47" s="18">
         <v>22836</v>
       </c>
-      <c r="M46" s="18">
+      <c r="M47" s="18">
         <v>1113977</v>
       </c>
-      <c r="N46" s="18">
+      <c r="N47" s="18">
         <v>1928353</v>
       </c>
     </row>
-    <row r="47" spans="2:14" hidden="1">
-      <c r="B47" s="19">
+    <row r="48" spans="2:14" hidden="1">
+      <c r="B48" s="19">
         <v>2022</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C48" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D48" s="21">
         <f t="shared" si="1"/>
         <v>4754587</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E48" s="22">
         <v>10351</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F48" s="22">
         <v>35019</v>
       </c>
-      <c r="G47" s="22">
+      <c r="G48" s="22">
         <v>851918</v>
       </c>
-      <c r="H47" s="22">
+      <c r="H48" s="22">
         <v>400866</v>
       </c>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22">
+      <c r="I48" s="22"/>
+      <c r="J48" s="22">
         <v>19731</v>
       </c>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22">
+      <c r="K48" s="22"/>
+      <c r="L48" s="22">
         <v>22335</v>
       </c>
-      <c r="M47" s="22">
+      <c r="M48" s="22">
         <v>1322859</v>
       </c>
-      <c r="N47" s="22">
+      <c r="N48" s="22">
         <v>2091508</v>
       </c>
     </row>
-    <row r="48" spans="2:14" hidden="1">
-      <c r="B48" s="23">
+    <row r="49" spans="2:14" hidden="1">
+      <c r="B49" s="23">
         <v>2021</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C49" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="25">
+      <c r="D49" s="25">
         <f t="shared" si="1"/>
         <v>5788606</v>
       </c>
-      <c r="E48" s="26">
+      <c r="E49" s="26">
         <v>12597</v>
       </c>
-      <c r="F48" s="26">
+      <c r="F49" s="26">
         <v>48986</v>
       </c>
-      <c r="G48" s="26">
+      <c r="G49" s="26">
         <v>1194196</v>
       </c>
-      <c r="H48" s="26">
+      <c r="H49" s="26">
         <v>531737</v>
       </c>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26">
+      <c r="I49" s="26"/>
+      <c r="J49" s="26">
         <v>41564</v>
       </c>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26">
+      <c r="K49" s="26"/>
+      <c r="L49" s="26">
         <v>32426</v>
       </c>
-      <c r="M48" s="26">
+      <c r="M49" s="26">
         <v>1542449</v>
       </c>
-      <c r="N48" s="26">
+      <c r="N49" s="26">
         <v>2384651</v>
       </c>
     </row>
-    <row r="49" spans="2:14" hidden="1">
-      <c r="B49" s="11">
+    <row r="50" spans="2:14" hidden="1">
+      <c r="B50" s="11">
         <v>2021</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C50" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D50" s="13">
         <f t="shared" si="1"/>
         <v>5289729</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E50" s="14">
         <v>11837</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F50" s="14">
         <v>46757</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G50" s="14">
         <v>1056753</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H50" s="14">
         <v>485468</v>
       </c>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14">
+      <c r="I50" s="14"/>
+      <c r="J50" s="14">
         <v>32507</v>
       </c>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14">
+      <c r="K50" s="14"/>
+      <c r="L50" s="14">
         <v>29832</v>
       </c>
-      <c r="M49" s="14">
+      <c r="M50" s="14">
         <v>1406500</v>
       </c>
-      <c r="N49" s="14">
+      <c r="N50" s="14">
         <v>2220075</v>
       </c>
     </row>
-    <row r="50" spans="2:14" hidden="1">
-      <c r="B50" s="15">
+    <row r="51" spans="2:14" hidden="1">
+      <c r="B51" s="15">
         <v>2021</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C51" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D51" s="17">
         <f t="shared" si="1"/>
         <v>5118685</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E51" s="18">
         <v>14115</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F51" s="18">
         <v>45703</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G51" s="18">
         <v>1034177</v>
       </c>
-      <c r="H50" s="18">
+      <c r="H51" s="18">
         <v>510398</v>
       </c>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18">
+      <c r="I51" s="18"/>
+      <c r="J51" s="18">
         <v>28313</v>
       </c>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18">
+      <c r="K51" s="18"/>
+      <c r="L51" s="18">
         <v>31649</v>
       </c>
-      <c r="M50" s="18">
+      <c r="M51" s="18">
         <v>1355918</v>
       </c>
-      <c r="N50" s="18">
+      <c r="N51" s="18">
         <v>2098412</v>
       </c>
     </row>
-    <row r="51" spans="2:14" hidden="1">
-      <c r="B51" s="11">
+    <row r="52" spans="2:14" hidden="1">
+      <c r="B52" s="11">
         <v>2021</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D52" s="13">
         <f t="shared" si="1"/>
         <v>4470649</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E52" s="14">
         <v>12872</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F52" s="14">
         <v>42716</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G52" s="14">
         <v>893242</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H52" s="14">
         <v>444101</v>
       </c>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14">
+      <c r="I52" s="14"/>
+      <c r="J52" s="14">
         <v>24490</v>
       </c>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14">
+      <c r="K52" s="14"/>
+      <c r="L52" s="14">
         <v>25901</v>
       </c>
-      <c r="M51" s="14">
+      <c r="M52" s="14">
         <v>1153271</v>
       </c>
-      <c r="N51" s="14">
+      <c r="N52" s="14">
         <v>1874056</v>
       </c>
     </row>
-    <row r="52" spans="2:14" hidden="1">
-      <c r="B52" s="15">
+    <row r="53" spans="2:14" hidden="1">
+      <c r="B53" s="15">
         <v>2021</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C53" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D53" s="17">
         <f t="shared" si="1"/>
         <v>5008604</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E53" s="18">
         <v>12792</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F53" s="18">
         <v>47119</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G53" s="18">
         <v>993427</v>
       </c>
-      <c r="H52" s="18">
+      <c r="H53" s="18">
         <v>524484</v>
       </c>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18">
+      <c r="I53" s="18"/>
+      <c r="J53" s="18">
         <v>35479</v>
       </c>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18">
+      <c r="K53" s="18"/>
+      <c r="L53" s="18">
         <v>26034</v>
       </c>
-      <c r="M52" s="18">
+      <c r="M53" s="18">
         <v>1305965</v>
       </c>
-      <c r="N52" s="18">
+      <c r="N53" s="18">
         <v>2063304</v>
       </c>
     </row>
-    <row r="53" spans="2:14" hidden="1">
-      <c r="B53" s="11">
+    <row r="54" spans="2:14" hidden="1">
+      <c r="B54" s="11">
         <v>2021</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C54" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D54" s="13">
         <f t="shared" si="1"/>
         <v>5456169</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E54" s="14">
         <v>15216</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F54" s="14">
         <v>53005</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G54" s="14">
         <v>1058956</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H54" s="14">
         <v>590598</v>
       </c>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14">
+      <c r="I54" s="14"/>
+      <c r="J54" s="14">
         <v>64029</v>
       </c>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14">
+      <c r="K54" s="14"/>
+      <c r="L54" s="14">
         <v>30912</v>
       </c>
-      <c r="M53" s="14">
+      <c r="M54" s="14">
         <v>1503552</v>
       </c>
-      <c r="N53" s="14">
+      <c r="N54" s="14">
         <v>2139901</v>
       </c>
     </row>
-    <row r="54" spans="2:14" hidden="1">
-      <c r="B54" s="15">
+    <row r="55" spans="2:14" hidden="1">
+      <c r="B55" s="15">
         <v>2021</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C55" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D55" s="17">
         <f t="shared" si="1"/>
         <v>4784013</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E55" s="18">
         <v>15389</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F55" s="18">
         <v>43733</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G55" s="18">
         <v>853708</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H55" s="18">
         <v>536816</v>
       </c>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18">
+      <c r="I55" s="18"/>
+      <c r="J55" s="18">
         <v>54554</v>
       </c>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18">
+      <c r="K55" s="18"/>
+      <c r="L55" s="18">
         <v>23167</v>
       </c>
-      <c r="M54" s="18">
+      <c r="M55" s="18">
         <v>1288126</v>
       </c>
-      <c r="N54" s="18">
+      <c r="N55" s="18">
         <v>1968520</v>
       </c>
     </row>
-    <row r="55" spans="2:14" hidden="1">
-      <c r="B55" s="11">
+    <row r="56" spans="2:14" hidden="1">
+      <c r="B56" s="11">
         <v>2021</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C56" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D56" s="13">
         <f t="shared" si="1"/>
         <v>4739036</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E56" s="14">
         <v>16431</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F56" s="14">
         <v>40566</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G56" s="14">
         <v>804638</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H56" s="14">
         <v>535959</v>
       </c>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14">
+      <c r="I56" s="14"/>
+      <c r="J56" s="14">
         <v>45166</v>
       </c>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14">
+      <c r="K56" s="14"/>
+      <c r="L56" s="14">
         <v>20712</v>
       </c>
-      <c r="M55" s="14">
+      <c r="M56" s="14">
         <v>1283475</v>
       </c>
-      <c r="N55" s="14">
+      <c r="N56" s="14">
         <v>1992089</v>
       </c>
     </row>
-    <row r="56" spans="2:14" hidden="1">
-      <c r="B56" s="15">
+    <row r="57" spans="2:14" hidden="1">
+      <c r="B57" s="15">
         <v>2021</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C57" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D57" s="17">
         <f t="shared" si="1"/>
         <v>4139956</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E57" s="18">
         <v>13432</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F57" s="18">
         <v>34786</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G57" s="18">
         <v>729359</v>
       </c>
-      <c r="H56" s="18">
+      <c r="H57" s="18">
         <v>459115</v>
       </c>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18">
+      <c r="I57" s="18"/>
+      <c r="J57" s="18">
         <v>37963</v>
       </c>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18">
+      <c r="K57" s="18"/>
+      <c r="L57" s="18">
         <v>19899</v>
       </c>
-      <c r="M56" s="18">
+      <c r="M57" s="18">
         <v>1098291</v>
       </c>
-      <c r="N56" s="18">
+      <c r="N57" s="18">
         <v>1747111</v>
       </c>
     </row>
-    <row r="57" spans="2:14" hidden="1">
-      <c r="B57" s="11">
+    <row r="58" spans="2:14" hidden="1">
+      <c r="B58" s="11">
         <v>2021</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D58" s="13">
         <f t="shared" si="1"/>
         <v>3643233</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E58" s="14">
         <v>13443</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F58" s="14">
         <v>34472</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G58" s="14">
         <v>700282</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H58" s="14">
         <v>454696</v>
       </c>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14">
+      <c r="I58" s="14"/>
+      <c r="J58" s="14">
         <v>25539</v>
       </c>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14">
+      <c r="K58" s="14"/>
+      <c r="L58" s="14">
         <v>18739</v>
       </c>
-      <c r="M57" s="14">
+      <c r="M58" s="14">
         <v>1015276</v>
       </c>
-      <c r="N57" s="14">
+      <c r="N58" s="14">
         <v>1380786</v>
       </c>
     </row>
-    <row r="58" spans="2:14" hidden="1">
-      <c r="B58" s="15">
+    <row r="59" spans="2:14" hidden="1">
+      <c r="B59" s="15">
         <v>2021</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C59" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D59" s="17">
         <f t="shared" si="1"/>
         <v>2522697</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E59" s="18">
         <v>8230</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F59" s="18">
         <v>21876</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G59" s="18">
         <v>521896</v>
       </c>
-      <c r="H58" s="18">
+      <c r="H59" s="18">
         <v>365190</v>
       </c>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18">
+      <c r="I59" s="18"/>
+      <c r="J59" s="18">
         <v>13877</v>
       </c>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18">
+      <c r="K59" s="18"/>
+      <c r="L59" s="18">
         <v>12256</v>
       </c>
-      <c r="M58" s="18">
+      <c r="M59" s="18">
         <v>590075</v>
       </c>
-      <c r="N58" s="18">
+      <c r="N59" s="18">
         <v>989297</v>
       </c>
     </row>
-    <row r="59" spans="2:14" hidden="1">
-      <c r="B59" s="19">
+    <row r="60" spans="2:14" hidden="1">
+      <c r="B60" s="19">
         <v>2021</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C60" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D60" s="21">
         <f t="shared" si="1"/>
         <v>3256499</v>
       </c>
-      <c r="E59" s="22">
+      <c r="E60" s="22">
         <v>7181</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F60" s="22">
         <v>25543</v>
       </c>
-      <c r="G59" s="22">
+      <c r="G60" s="22">
         <v>641860</v>
       </c>
-      <c r="H59" s="22">
+      <c r="H60" s="22">
         <v>438330</v>
       </c>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22">
+      <c r="I60" s="22"/>
+      <c r="J60" s="22">
         <v>19413</v>
       </c>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22">
+      <c r="K60" s="22"/>
+      <c r="L60" s="22">
         <v>13791</v>
       </c>
-      <c r="M59" s="22">
+      <c r="M60" s="22">
         <v>759842</v>
       </c>
-      <c r="N59" s="22">
+      <c r="N60" s="22">
         <v>1350539</v>
       </c>
     </row>
-    <row r="60" spans="2:14" hidden="1">
-      <c r="B60" s="23">
+    <row r="61" spans="2:14" hidden="1">
+      <c r="B61" s="23">
         <v>2020</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C61" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D60" s="25">
+      <c r="D61" s="25">
         <f t="shared" si="1"/>
         <v>3748637</v>
       </c>
-      <c r="E60" s="26">
+      <c r="E61" s="26">
         <v>6626</v>
       </c>
-      <c r="F60" s="26">
+      <c r="F61" s="26">
         <v>32040</v>
       </c>
-      <c r="G60" s="26">
+      <c r="G61" s="26">
         <v>610544</v>
       </c>
-      <c r="H60" s="26">
+      <c r="H61" s="26">
         <v>491905</v>
       </c>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26">
+      <c r="I61" s="26"/>
+      <c r="J61" s="26">
         <v>45610</v>
       </c>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26">
+      <c r="K61" s="26"/>
+      <c r="L61" s="26">
         <v>17383</v>
       </c>
-      <c r="M60" s="26">
+      <c r="M61" s="26">
         <v>998369</v>
       </c>
-      <c r="N60" s="26">
+      <c r="N61" s="26">
         <v>1546160</v>
       </c>
     </row>
-    <row r="61" spans="2:14" hidden="1">
-      <c r="B61" s="11">
+    <row r="62" spans="2:14" hidden="1">
+      <c r="B62" s="11">
         <v>2020</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C62" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D62" s="13">
         <f t="shared" si="1"/>
         <v>3329641</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E62" s="14">
         <v>6583</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F62" s="14">
         <v>28629</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G62" s="14">
         <v>520221</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H62" s="14">
         <v>395967</v>
       </c>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14">
+      <c r="I62" s="14"/>
+      <c r="J62" s="14">
         <v>37463</v>
       </c>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14">
+      <c r="K62" s="14"/>
+      <c r="L62" s="14">
         <v>14115</v>
       </c>
-      <c r="M61" s="14">
+      <c r="M62" s="14">
         <v>863224</v>
       </c>
-      <c r="N61" s="14">
+      <c r="N62" s="14">
         <v>1463439</v>
       </c>
     </row>
-    <row r="62" spans="2:14" hidden="1">
-      <c r="B62" s="15">
+    <row r="63" spans="2:14" hidden="1">
+      <c r="B63" s="15">
         <v>2020</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C63" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D63" s="17">
         <f t="shared" si="1"/>
         <v>3039360</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E63" s="18">
         <v>5614</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F63" s="18">
         <v>27120</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G63" s="18">
         <v>463245</v>
       </c>
-      <c r="H62" s="18">
+      <c r="H63" s="18">
         <v>395686</v>
       </c>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18">
+      <c r="I63" s="18"/>
+      <c r="J63" s="18">
         <v>29759</v>
       </c>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18">
+      <c r="K63" s="18"/>
+      <c r="L63" s="18">
         <v>14897</v>
       </c>
-      <c r="M62" s="18">
+      <c r="M63" s="18">
         <v>803614</v>
       </c>
-      <c r="N62" s="18">
+      <c r="N63" s="18">
         <v>1299425</v>
       </c>
     </row>
-    <row r="63" spans="2:14" hidden="1">
-      <c r="B63" s="11">
+    <row r="64" spans="2:14" hidden="1">
+      <c r="B64" s="11">
         <v>2020</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C64" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D64" s="13">
         <f t="shared" si="1"/>
         <v>2573426</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E64" s="14">
         <v>4853</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F64" s="14">
         <v>21371</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G64" s="14">
         <v>371636</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H64" s="14">
         <v>325704</v>
       </c>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14">
+      <c r="I64" s="14"/>
+      <c r="J64" s="14">
         <v>30615</v>
       </c>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14">
+      <c r="K64" s="14"/>
+      <c r="L64" s="14">
         <v>11615</v>
       </c>
-      <c r="M63" s="14">
+      <c r="M64" s="14">
         <v>665331</v>
       </c>
-      <c r="N63" s="14">
+      <c r="N64" s="14">
         <v>1142301</v>
       </c>
     </row>
-    <row r="64" spans="2:14" hidden="1">
-      <c r="B64" s="15">
+    <row r="65" spans="2:14" hidden="1">
+      <c r="B65" s="15">
         <v>2020</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C65" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D65" s="17">
         <f t="shared" si="1"/>
         <v>2385167</v>
       </c>
-      <c r="E64" s="18">
+      <c r="E65" s="18">
         <v>3748</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F65" s="18">
         <v>22617</v>
       </c>
-      <c r="G64" s="18">
+      <c r="G65" s="18">
         <v>322580</v>
       </c>
-      <c r="H64" s="18">
+      <c r="H65" s="18">
         <v>310616</v>
       </c>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18">
+      <c r="I65" s="18"/>
+      <c r="J65" s="18">
         <v>30641</v>
       </c>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18">
+      <c r="K65" s="18"/>
+      <c r="L65" s="18">
         <v>7400</v>
       </c>
-      <c r="M64" s="18">
+      <c r="M65" s="18">
         <v>586367</v>
       </c>
-      <c r="N64" s="18">
+      <c r="N65" s="18">
         <v>1101198</v>
       </c>
     </row>
-    <row r="65" spans="2:14" hidden="1">
-      <c r="B65" s="11">
+    <row r="66" spans="2:14" hidden="1">
+      <c r="B66" s="11">
         <v>2020</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C66" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D66" s="13">
         <f t="shared" si="1"/>
         <v>1872012</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E66" s="14">
         <v>3082</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F66" s="14">
         <v>18259</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G66" s="14">
         <v>251899</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H66" s="14">
         <v>254505</v>
       </c>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14">
+      <c r="I66" s="14"/>
+      <c r="J66" s="14">
         <v>24630</v>
       </c>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14">
+      <c r="K66" s="14"/>
+      <c r="L66" s="14">
         <v>4178</v>
       </c>
-      <c r="M65" s="14">
+      <c r="M66" s="14">
         <v>418350</v>
       </c>
-      <c r="N65" s="14">
+      <c r="N66" s="14">
         <v>897109</v>
       </c>
     </row>
-    <row r="66" spans="2:14" hidden="1">
-      <c r="B66" s="15">
+    <row r="67" spans="2:14" hidden="1">
+      <c r="B67" s="15">
         <v>2020</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C67" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D67" s="17">
         <f t="shared" si="1"/>
         <v>971404</v>
       </c>
-      <c r="E66" s="18">
+      <c r="E67" s="18">
         <v>1927</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F67" s="18">
         <v>9051</v>
       </c>
-      <c r="G66" s="18">
+      <c r="G67" s="18">
         <v>140991</v>
       </c>
-      <c r="H66" s="18">
+      <c r="H67" s="18">
         <v>97306</v>
       </c>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18">
+      <c r="I67" s="18"/>
+      <c r="J67" s="18">
         <v>5002</v>
       </c>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18">
+      <c r="K67" s="18"/>
+      <c r="L67" s="18">
         <v>2168</v>
       </c>
-      <c r="M66" s="18">
+      <c r="M67" s="18">
         <v>201937</v>
       </c>
-      <c r="N66" s="18">
+      <c r="N67" s="18">
         <v>513022</v>
       </c>
     </row>
-    <row r="67" spans="2:14" hidden="1">
-      <c r="B67" s="11">
+    <row r="68" spans="2:14" hidden="1">
+      <c r="B68" s="11">
         <v>2020</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C68" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D68" s="13">
         <f t="shared" si="1"/>
         <v>395931</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E68" s="14">
         <v>1324</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F68" s="14">
         <v>4688</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G68" s="14">
         <v>50801</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H68" s="14">
         <v>80478</v>
       </c>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14">
+      <c r="I68" s="14"/>
+      <c r="J68" s="14">
         <v>0</v>
       </c>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14">
+      <c r="K68" s="14"/>
+      <c r="L68" s="14">
         <v>1040</v>
       </c>
-      <c r="M67" s="14">
+      <c r="M68" s="14">
         <v>90419</v>
       </c>
-      <c r="N67" s="14">
+      <c r="N68" s="14">
         <v>167181</v>
       </c>
     </row>
-    <row r="68" spans="2:14" hidden="1">
-      <c r="B68" s="15">
+    <row r="69" spans="2:14" hidden="1">
+      <c r="B69" s="15">
         <v>2020</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C69" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D69" s="17">
         <f t="shared" si="1"/>
         <v>423935</v>
       </c>
-      <c r="E68" s="18">
+      <c r="E69" s="18">
         <v>1164</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F69" s="18">
         <v>2668</v>
       </c>
-      <c r="G68" s="18">
+      <c r="G69" s="18">
         <v>60744</v>
       </c>
-      <c r="H68" s="18">
+      <c r="H69" s="18">
         <v>86523</v>
       </c>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18">
+      <c r="I69" s="18"/>
+      <c r="J69" s="18">
         <v>705</v>
       </c>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18">
+      <c r="K69" s="18"/>
+      <c r="L69" s="18">
         <v>485</v>
       </c>
-      <c r="M68" s="18">
+      <c r="M69" s="18">
         <v>89915</v>
       </c>
-      <c r="N68" s="18">
+      <c r="N69" s="18">
         <v>181731</v>
       </c>
     </row>
-    <row r="69" spans="2:14" hidden="1">
-      <c r="B69" s="11">
+    <row r="70" spans="2:14" hidden="1">
+      <c r="B70" s="11">
         <v>2020</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C70" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D70" s="13">
         <f t="shared" si="1"/>
         <v>3109457</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E70" s="14">
         <v>8791</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F70" s="14">
         <v>41673</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G70" s="14">
         <v>572018</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H70" s="14">
         <v>464064</v>
       </c>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14">
+      <c r="I70" s="14"/>
+      <c r="J70" s="14">
         <v>23248</v>
       </c>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14">
+      <c r="K70" s="14"/>
+      <c r="L70" s="14">
         <v>26274</v>
       </c>
-      <c r="M69" s="14">
+      <c r="M70" s="14">
         <v>704638</v>
       </c>
-      <c r="N69" s="14">
+      <c r="N70" s="14">
         <v>1268751</v>
       </c>
     </row>
-    <row r="70" spans="2:14" hidden="1">
-      <c r="B70" s="15">
+    <row r="71" spans="2:14" hidden="1">
+      <c r="B71" s="15">
         <v>2020</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C71" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D71" s="17">
         <f t="shared" si="1"/>
         <v>4137166</v>
       </c>
-      <c r="E70" s="18">
+      <c r="E71" s="18">
         <v>10857</v>
       </c>
-      <c r="F70" s="18">
+      <c r="F71" s="18">
         <v>59357</v>
       </c>
-      <c r="G70" s="18">
+      <c r="G71" s="18">
         <v>846279</v>
       </c>
-      <c r="H70" s="18">
+      <c r="H71" s="18">
         <v>641873</v>
       </c>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18">
+      <c r="I71" s="18"/>
+      <c r="J71" s="18">
         <v>26652</v>
       </c>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18">
+      <c r="K71" s="18"/>
+      <c r="L71" s="18">
         <v>36382</v>
       </c>
-      <c r="M70" s="18">
+      <c r="M71" s="18">
         <v>881600</v>
       </c>
-      <c r="N70" s="18">
+      <c r="N71" s="18">
         <v>1634166</v>
       </c>
     </row>
-    <row r="71" spans="2:14" hidden="1">
-      <c r="B71" s="19">
+    <row r="72" spans="2:14" hidden="1">
+      <c r="B72" s="19">
         <v>2020</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C72" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="21">
-        <f t="shared" ref="D71:D102" si="2">SUM(E71:N71)</f>
+      <c r="D72" s="21">
+        <f t="shared" ref="D72:D96" si="2">SUM(E72:N72)</f>
         <v>4591436</v>
       </c>
-      <c r="E71" s="22">
+      <c r="E72" s="22">
         <v>13840</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F72" s="22">
         <v>68044</v>
       </c>
-      <c r="G71" s="22">
+      <c r="G72" s="22">
         <v>961808</v>
       </c>
-      <c r="H71" s="22">
+      <c r="H72" s="22">
         <v>680707</v>
       </c>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22">
+      <c r="I72" s="22"/>
+      <c r="J72" s="22">
         <v>47575</v>
       </c>
-      <c r="K71" s="22"/>
-      <c r="L71" s="22">
+      <c r="K72" s="22"/>
+      <c r="L72" s="22">
         <v>40620</v>
       </c>
-      <c r="M71" s="22">
+      <c r="M72" s="22">
         <v>980414</v>
       </c>
-      <c r="N71" s="22">
+      <c r="N72" s="22">
         <v>1798428</v>
       </c>
     </row>
-    <row r="72" spans="2:14" hidden="1">
-      <c r="B72" s="23">
+    <row r="73" spans="2:14" hidden="1">
+      <c r="B73" s="23">
         <v>2019</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C73" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="25">
+      <c r="D73" s="25">
         <f t="shared" si="2"/>
         <v>4885764</v>
       </c>
-      <c r="E72" s="26">
+      <c r="E73" s="26">
         <v>14577</v>
       </c>
-      <c r="F72" s="26">
+      <c r="F73" s="26">
         <v>79686</v>
       </c>
-      <c r="G72" s="26">
+      <c r="G73" s="26">
         <v>1001613</v>
       </c>
-      <c r="H72" s="26">
+      <c r="H73" s="26">
         <v>756331</v>
       </c>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26">
+      <c r="I73" s="26"/>
+      <c r="J73" s="26">
         <v>72539</v>
       </c>
-      <c r="K72" s="26"/>
-      <c r="L72" s="26">
+      <c r="K73" s="26"/>
+      <c r="L73" s="26">
         <v>45759</v>
       </c>
-      <c r="M72" s="26">
+      <c r="M73" s="26">
         <v>1083272</v>
       </c>
-      <c r="N72" s="26">
+      <c r="N73" s="26">
         <v>1831987</v>
       </c>
     </row>
-    <row r="73" spans="2:14" hidden="1">
-      <c r="B73" s="11">
+    <row r="74" spans="2:14" hidden="1">
+      <c r="B74" s="11">
         <v>2019</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C74" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D74" s="13">
         <f t="shared" si="2"/>
         <v>4584274</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E74" s="14">
         <v>15593</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F74" s="14">
         <v>73513</v>
       </c>
-      <c r="G73" s="14">
+      <c r="G74" s="14">
         <v>938515</v>
       </c>
-      <c r="H73" s="14">
+      <c r="H74" s="14">
         <v>697055</v>
       </c>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14">
+      <c r="I74" s="14"/>
+      <c r="J74" s="14">
         <v>54165</v>
       </c>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14">
+      <c r="K74" s="14"/>
+      <c r="L74" s="14">
         <v>41740</v>
       </c>
-      <c r="M73" s="14">
+      <c r="M74" s="14">
         <v>1014931</v>
       </c>
-      <c r="N73" s="14">
+      <c r="N74" s="14">
         <v>1748762</v>
       </c>
     </row>
-    <row r="74" spans="2:14" hidden="1">
-      <c r="B74" s="15">
+    <row r="75" spans="2:14" hidden="1">
+      <c r="B75" s="15">
         <v>2019</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C75" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="17">
+      <c r="D75" s="17">
         <f t="shared" si="2"/>
         <v>4630258</v>
       </c>
-      <c r="E74" s="18">
+      <c r="E75" s="18">
         <v>19701</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F75" s="18">
         <v>67349</v>
       </c>
-      <c r="G74" s="18">
+      <c r="G75" s="18">
         <v>957393</v>
       </c>
-      <c r="H74" s="18">
+      <c r="H75" s="18">
         <v>740956</v>
       </c>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18">
+      <c r="I75" s="18"/>
+      <c r="J75" s="18">
         <v>57392</v>
       </c>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18">
+      <c r="K75" s="18"/>
+      <c r="L75" s="18">
         <v>40850</v>
       </c>
-      <c r="M74" s="18">
+      <c r="M75" s="18">
         <v>1022260</v>
       </c>
-      <c r="N74" s="18">
+      <c r="N75" s="18">
         <v>1724357</v>
       </c>
     </row>
-    <row r="75" spans="2:14" hidden="1">
-      <c r="B75" s="11">
+    <row r="76" spans="2:14" hidden="1">
+      <c r="B76" s="11">
         <v>2019</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D76" s="13">
         <f t="shared" si="2"/>
         <v>4294101</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E76" s="14">
         <v>15863</v>
       </c>
-      <c r="F75" s="14">
+      <c r="F76" s="14">
         <v>61156</v>
       </c>
-      <c r="G75" s="14">
+      <c r="G76" s="14">
         <v>897733</v>
       </c>
-      <c r="H75" s="14">
+      <c r="H76" s="14">
         <v>677299</v>
       </c>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14">
+      <c r="I76" s="14"/>
+      <c r="J76" s="14">
         <v>61638</v>
       </c>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14">
+      <c r="K76" s="14"/>
+      <c r="L76" s="14">
         <v>42002</v>
       </c>
-      <c r="M75" s="14">
+      <c r="M76" s="14">
         <v>922290</v>
       </c>
-      <c r="N75" s="14">
+      <c r="N76" s="14">
         <v>1616120</v>
       </c>
     </row>
-    <row r="76" spans="2:14" hidden="1">
-      <c r="B76" s="15">
+    <row r="77" spans="2:14" hidden="1">
+      <c r="B77" s="15">
         <v>2019</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C77" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="17">
+      <c r="D77" s="17">
         <f t="shared" si="2"/>
         <v>4864403</v>
       </c>
-      <c r="E76" s="18">
+      <c r="E77" s="18">
         <v>22090</v>
       </c>
-      <c r="F76" s="18">
+      <c r="F77" s="18">
         <v>68824</v>
       </c>
-      <c r="G76" s="18">
+      <c r="G77" s="18">
         <v>1001754</v>
       </c>
-      <c r="H76" s="18">
+      <c r="H77" s="18">
         <v>777867</v>
       </c>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18">
+      <c r="I77" s="18"/>
+      <c r="J77" s="18">
         <v>88036</v>
       </c>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18">
+      <c r="K77" s="18"/>
+      <c r="L77" s="18">
         <v>47511</v>
       </c>
-      <c r="M76" s="18">
+      <c r="M77" s="18">
         <v>1112562</v>
       </c>
-      <c r="N76" s="18">
+      <c r="N77" s="18">
         <v>1745759</v>
       </c>
     </row>
-    <row r="77" spans="2:14" hidden="1">
-      <c r="B77" s="11">
+    <row r="78" spans="2:14" hidden="1">
+      <c r="B78" s="11">
         <v>2019</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C78" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D78" s="13">
         <f t="shared" si="2"/>
         <v>5203552</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E78" s="14">
         <v>24398</v>
       </c>
-      <c r="F77" s="14">
+      <c r="F78" s="14">
         <v>75738</v>
       </c>
-      <c r="G77" s="14">
+      <c r="G78" s="14">
         <v>1056905</v>
       </c>
-      <c r="H77" s="14">
+      <c r="H78" s="14">
         <v>847525</v>
       </c>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14">
+      <c r="I78" s="14"/>
+      <c r="J78" s="14">
         <v>112757</v>
       </c>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14">
+      <c r="K78" s="14"/>
+      <c r="L78" s="14">
         <v>53404</v>
       </c>
-      <c r="M77" s="14">
+      <c r="M78" s="14">
         <v>1151999</v>
       </c>
-      <c r="N77" s="14">
+      <c r="N78" s="14">
         <v>1880826</v>
       </c>
     </row>
-    <row r="78" spans="2:14" hidden="1">
-      <c r="B78" s="15">
+    <row r="79" spans="2:14" hidden="1">
+      <c r="B79" s="15">
         <v>2019</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C79" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="17">
+      <c r="D79" s="17">
         <f t="shared" si="2"/>
         <v>4687687</v>
       </c>
-      <c r="E78" s="18">
+      <c r="E79" s="18">
         <v>24034</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F79" s="18">
         <v>65120</v>
       </c>
-      <c r="G78" s="18">
+      <c r="G79" s="18">
         <v>968584</v>
       </c>
-      <c r="H78" s="18">
+      <c r="H79" s="18">
         <v>772914</v>
       </c>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18">
+      <c r="I79" s="18"/>
+      <c r="J79" s="18">
         <v>90790</v>
       </c>
-      <c r="K78" s="18"/>
-      <c r="L78" s="18">
+      <c r="K79" s="18"/>
+      <c r="L79" s="18">
         <v>47162</v>
       </c>
-      <c r="M78" s="18">
+      <c r="M79" s="18">
         <v>974523</v>
       </c>
-      <c r="N78" s="18">
+      <c r="N79" s="18">
         <v>1744560</v>
       </c>
     </row>
-    <row r="79" spans="2:14" hidden="1">
-      <c r="B79" s="11">
+    <row r="80" spans="2:14" hidden="1">
+      <c r="B80" s="11">
         <v>2019</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C80" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D80" s="13">
         <f t="shared" si="2"/>
         <v>4693674</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E80" s="14">
         <v>24578</v>
       </c>
-      <c r="F79" s="14">
+      <c r="F80" s="14">
         <v>61163</v>
       </c>
-      <c r="G79" s="14">
+      <c r="G80" s="14">
         <v>976676</v>
       </c>
-      <c r="H79" s="14">
+      <c r="H80" s="14">
         <v>788262</v>
       </c>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14">
+      <c r="I80" s="14"/>
+      <c r="J80" s="14">
         <v>74030</v>
       </c>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14">
+      <c r="K80" s="14"/>
+      <c r="L80" s="14">
         <v>51746</v>
       </c>
-      <c r="M79" s="14">
+      <c r="M80" s="14">
         <v>931984</v>
       </c>
-      <c r="N79" s="14">
+      <c r="N80" s="14">
         <v>1785235</v>
       </c>
     </row>
-    <row r="80" spans="2:14" hidden="1">
-      <c r="B80" s="15">
+    <row r="81" spans="2:14" hidden="1">
+      <c r="B81" s="15">
         <v>2019</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C81" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="17">
+      <c r="D81" s="17">
         <f t="shared" si="2"/>
         <v>4484955</v>
       </c>
-      <c r="E80" s="18">
+      <c r="E81" s="18">
         <v>26137</v>
       </c>
-      <c r="F80" s="18">
+      <c r="F81" s="18">
         <v>63912</v>
       </c>
-      <c r="G80" s="18">
+      <c r="G81" s="18">
         <v>935481</v>
       </c>
-      <c r="H80" s="18">
+      <c r="H81" s="18">
         <v>737722</v>
       </c>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18">
+      <c r="I81" s="18"/>
+      <c r="J81" s="18">
         <v>54469</v>
       </c>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18">
+      <c r="K81" s="18"/>
+      <c r="L81" s="18">
         <v>50399</v>
       </c>
-      <c r="M80" s="18">
+      <c r="M81" s="18">
         <v>893208</v>
       </c>
-      <c r="N80" s="18">
+      <c r="N81" s="18">
         <v>1723627</v>
       </c>
     </row>
-    <row r="81" spans="2:14" hidden="1">
-      <c r="B81" s="11">
+    <row r="82" spans="2:14" hidden="1">
+      <c r="B82" s="11">
         <v>2019</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C82" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D82" s="13">
         <f t="shared" si="2"/>
         <v>4371365</v>
       </c>
-      <c r="E81" s="14">
+      <c r="E82" s="14">
         <v>24631</v>
       </c>
-      <c r="F81" s="14">
+      <c r="F82" s="14">
         <v>66177</v>
       </c>
-      <c r="G81" s="14">
+      <c r="G82" s="14">
         <v>991931</v>
       </c>
-      <c r="H81" s="14">
+      <c r="H82" s="14">
         <v>774790</v>
       </c>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14">
+      <c r="I82" s="14"/>
+      <c r="J82" s="14">
         <v>40758</v>
       </c>
-      <c r="K81" s="14"/>
-      <c r="L81" s="14">
+      <c r="K82" s="14"/>
+      <c r="L82" s="14">
         <v>49242</v>
       </c>
-      <c r="M81" s="14">
+      <c r="M82" s="14">
         <v>767922</v>
       </c>
-      <c r="N81" s="14">
+      <c r="N82" s="14">
         <v>1655914</v>
       </c>
     </row>
-    <row r="82" spans="2:14" hidden="1">
-      <c r="B82" s="15">
+    <row r="83" spans="2:14" hidden="1">
+      <c r="B83" s="15">
         <v>2019</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C83" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D82" s="17">
+      <c r="D83" s="17">
         <f t="shared" si="2"/>
         <v>3694869</v>
       </c>
-      <c r="E82" s="18">
+      <c r="E83" s="18">
         <v>20074</v>
       </c>
-      <c r="F82" s="18">
+      <c r="F83" s="18">
         <v>57946</v>
       </c>
-      <c r="G82" s="18">
+      <c r="G83" s="18">
         <v>888111</v>
       </c>
-      <c r="H82" s="18">
+      <c r="H83" s="18">
         <v>647818</v>
       </c>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18">
+      <c r="I83" s="18"/>
+      <c r="J83" s="18">
         <v>31139</v>
       </c>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18">
+      <c r="K83" s="18"/>
+      <c r="L83" s="18">
         <v>40877</v>
       </c>
-      <c r="M82" s="18">
+      <c r="M83" s="18">
         <v>617809</v>
       </c>
-      <c r="N82" s="18">
+      <c r="N83" s="18">
         <v>1391095</v>
       </c>
     </row>
-    <row r="83" spans="2:14" hidden="1">
-      <c r="B83" s="19">
+    <row r="84" spans="2:14" hidden="1">
+      <c r="B84" s="19">
         <v>2019</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C84" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="21">
+      <c r="D84" s="21">
         <f t="shared" si="2"/>
         <v>4226141</v>
       </c>
-      <c r="E83" s="22">
+      <c r="E84" s="22">
         <v>24399</v>
       </c>
-      <c r="F83" s="22">
+      <c r="F84" s="22">
         <v>59133</v>
       </c>
-      <c r="G83" s="22">
+      <c r="G84" s="22">
         <v>1017714</v>
       </c>
-      <c r="H83" s="22">
+      <c r="H84" s="22">
         <v>718168</v>
       </c>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22">
+      <c r="I84" s="22"/>
+      <c r="J84" s="22">
         <v>45885</v>
       </c>
-      <c r="K83" s="22"/>
-      <c r="L83" s="22">
+      <c r="K84" s="22"/>
+      <c r="L84" s="22">
         <v>45704</v>
       </c>
-      <c r="M83" s="22">
+      <c r="M84" s="22">
         <v>787962</v>
       </c>
-      <c r="N83" s="22">
+      <c r="N84" s="22">
         <v>1527176</v>
       </c>
     </row>
-    <row r="84" spans="2:14" hidden="1">
-      <c r="B84" s="16">
+    <row r="85" spans="2:14" hidden="1">
+      <c r="B85" s="16">
         <v>2018</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C85" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D84" s="17">
+      <c r="D85" s="17">
         <f t="shared" si="2"/>
         <v>4612293</v>
       </c>
-      <c r="E84" s="18">
+      <c r="E85" s="18">
         <v>25513</v>
       </c>
-      <c r="F84" s="18">
+      <c r="F85" s="18">
         <v>64369</v>
       </c>
-      <c r="G84" s="18">
+      <c r="G85" s="18">
         <v>1071044</v>
       </c>
-      <c r="H84" s="18">
+      <c r="H85" s="18">
         <v>804521</v>
       </c>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18">
+      <c r="I85" s="18"/>
+      <c r="J85" s="18">
         <v>78800</v>
       </c>
-      <c r="K84" s="18"/>
-      <c r="L84" s="18">
+      <c r="K85" s="18"/>
+      <c r="L85" s="18">
         <v>50423</v>
       </c>
-      <c r="M84" s="18">
+      <c r="M85" s="18">
         <v>905477</v>
       </c>
-      <c r="N84" s="18">
+      <c r="N85" s="18">
         <v>1612146</v>
       </c>
     </row>
-    <row r="85" spans="2:14" hidden="1">
-      <c r="B85" s="12">
+    <row r="86" spans="2:14" hidden="1">
+      <c r="B86" s="12">
         <v>2018</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C86" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D86" s="13">
         <f t="shared" si="2"/>
         <v>4333608</v>
       </c>
-      <c r="E85" s="14">
+      <c r="E86" s="14">
         <v>24593</v>
       </c>
-      <c r="F85" s="14">
+      <c r="F86" s="14">
         <v>68160</v>
       </c>
-      <c r="G85" s="14">
+      <c r="G86" s="14">
         <v>1004506</v>
       </c>
-      <c r="H85" s="14">
+      <c r="H86" s="14">
         <v>761656</v>
       </c>
-      <c r="I85" s="14"/>
-      <c r="J85" s="14">
+      <c r="I86" s="14"/>
+      <c r="J86" s="14">
         <v>70291</v>
       </c>
-      <c r="K85" s="14"/>
-      <c r="L85" s="14">
+      <c r="K86" s="14"/>
+      <c r="L86" s="14">
         <v>52654</v>
       </c>
-      <c r="M85" s="14">
+      <c r="M86" s="14">
         <v>844104</v>
       </c>
-      <c r="N85" s="14">
+      <c r="N86" s="14">
         <v>1507644</v>
       </c>
     </row>
-    <row r="86" spans="2:14" hidden="1">
-      <c r="B86" s="16">
+    <row r="87" spans="2:14" hidden="1">
+      <c r="B87" s="16">
         <v>2018</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C87" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D86" s="17">
+      <c r="D87" s="17">
         <f t="shared" si="2"/>
         <v>4265504</v>
       </c>
-      <c r="E86" s="18">
+      <c r="E87" s="18">
         <v>23163</v>
       </c>
-      <c r="F86" s="18">
+      <c r="F87" s="18">
         <v>67739</v>
       </c>
-      <c r="G86" s="18">
+      <c r="G87" s="18">
         <v>1006759</v>
       </c>
-      <c r="H86" s="18">
+      <c r="H87" s="18">
         <v>779871</v>
       </c>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18">
+      <c r="I87" s="18"/>
+      <c r="J87" s="18">
         <v>65741</v>
       </c>
-      <c r="K86" s="18"/>
-      <c r="L86" s="18">
+      <c r="K87" s="18"/>
+      <c r="L87" s="18">
         <v>52203</v>
       </c>
-      <c r="M86" s="18">
+      <c r="M87" s="18">
         <v>808467</v>
       </c>
-      <c r="N86" s="18">
+      <c r="N87" s="18">
         <v>1461561</v>
       </c>
     </row>
-    <row r="87" spans="2:14" hidden="1">
-      <c r="B87" s="12">
+    <row r="88" spans="2:14" hidden="1">
+      <c r="B88" s="12">
         <v>2018</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C88" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D88" s="13">
         <f t="shared" si="2"/>
         <v>3988714</v>
       </c>
-      <c r="E87" s="14">
+      <c r="E88" s="14">
         <v>21054</v>
       </c>
-      <c r="F87" s="14">
+      <c r="F88" s="14">
         <v>57581</v>
       </c>
-      <c r="G87" s="14">
+      <c r="G88" s="14">
         <v>953415</v>
       </c>
-      <c r="H87" s="14">
+      <c r="H88" s="14">
         <v>749609</v>
       </c>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14">
+      <c r="I88" s="14"/>
+      <c r="J88" s="14">
         <v>61896</v>
       </c>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14">
+      <c r="K88" s="14"/>
+      <c r="L88" s="14">
         <v>46860</v>
       </c>
-      <c r="M87" s="14">
+      <c r="M88" s="14">
         <v>767606</v>
       </c>
-      <c r="N87" s="14">
+      <c r="N88" s="14">
         <v>1330693</v>
       </c>
     </row>
-    <row r="88" spans="2:14" hidden="1">
-      <c r="B88" s="16">
+    <row r="89" spans="2:14" hidden="1">
+      <c r="B89" s="16">
         <v>2018</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C89" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D88" s="17">
+      <c r="D89" s="17">
         <f t="shared" si="2"/>
         <v>4535242</v>
       </c>
-      <c r="E88" s="18">
+      <c r="E89" s="18">
         <v>27838</v>
       </c>
-      <c r="F88" s="18">
+      <c r="F89" s="18">
         <v>63083</v>
       </c>
-      <c r="G88" s="18">
+      <c r="G89" s="18">
         <v>1074998</v>
       </c>
-      <c r="H88" s="18">
+      <c r="H89" s="18">
         <v>852980</v>
       </c>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18">
+      <c r="I89" s="18"/>
+      <c r="J89" s="18">
         <v>104695</v>
       </c>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18">
+      <c r="K89" s="18"/>
+      <c r="L89" s="18">
         <v>54110</v>
       </c>
-      <c r="M88" s="18">
+      <c r="M89" s="18">
         <v>921277</v>
       </c>
-      <c r="N88" s="18">
+      <c r="N89" s="18">
         <v>1436261</v>
       </c>
     </row>
-    <row r="89" spans="2:14" hidden="1">
-      <c r="B89" s="12">
+    <row r="90" spans="2:14" hidden="1">
+      <c r="B90" s="12">
         <v>2018</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C90" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D90" s="13">
         <f t="shared" si="2"/>
         <v>4860370</v>
       </c>
-      <c r="E89" s="14">
+      <c r="E90" s="14">
         <v>32903</v>
       </c>
-      <c r="F89" s="14">
+      <c r="F90" s="14">
         <v>56167</v>
       </c>
-      <c r="G89" s="14">
+      <c r="G90" s="14">
         <v>1179423</v>
       </c>
-      <c r="H89" s="14">
+      <c r="H90" s="14">
         <v>895787</v>
       </c>
-      <c r="I89" s="14"/>
-      <c r="J89" s="14">
+      <c r="I90" s="14"/>
+      <c r="J90" s="14">
         <v>110733</v>
       </c>
-      <c r="K89" s="14"/>
-      <c r="L89" s="14">
+      <c r="K90" s="14"/>
+      <c r="L90" s="14">
         <v>58466</v>
       </c>
-      <c r="M89" s="14">
+      <c r="M90" s="14">
         <v>944861</v>
       </c>
-      <c r="N89" s="14">
+      <c r="N90" s="14">
         <v>1582030</v>
       </c>
     </row>
-    <row r="90" spans="2:14" hidden="1">
-      <c r="B90" s="16">
+    <row r="91" spans="2:14" hidden="1">
+      <c r="B91" s="16">
         <v>2018</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C91" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="17">
+      <c r="D91" s="17">
         <f t="shared" si="2"/>
         <v>4206229</v>
       </c>
-      <c r="E90" s="18">
+      <c r="E91" s="18">
         <v>26323</v>
       </c>
-      <c r="F90" s="18">
+      <c r="F91" s="18">
         <v>46065</v>
       </c>
-      <c r="G90" s="18">
+      <c r="G91" s="18">
         <v>1036698</v>
       </c>
-      <c r="H90" s="18">
+      <c r="H91" s="18">
         <v>815293</v>
       </c>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18">
+      <c r="I91" s="18"/>
+      <c r="J91" s="18">
         <v>75066</v>
       </c>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18">
+      <c r="K91" s="18"/>
+      <c r="L91" s="18">
         <v>48032</v>
       </c>
-      <c r="M90" s="18">
+      <c r="M91" s="18">
         <v>768437</v>
       </c>
-      <c r="N90" s="18">
+      <c r="N91" s="18">
         <v>1390315</v>
       </c>
     </row>
-    <row r="91" spans="2:14" hidden="1">
-      <c r="B91" s="12">
+    <row r="92" spans="2:14" hidden="1">
+      <c r="B92" s="12">
         <v>2018</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="C92" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D91" s="13">
+      <c r="D92" s="13">
         <f t="shared" si="2"/>
         <v>4168514</v>
       </c>
-      <c r="E91" s="14">
+      <c r="E92" s="14">
         <v>26212</v>
       </c>
-      <c r="F91" s="14">
+      <c r="F92" s="14">
         <v>54265</v>
       </c>
-      <c r="G91" s="14">
+      <c r="G92" s="14">
         <v>1033321</v>
       </c>
-      <c r="H91" s="14">
+      <c r="H92" s="14">
         <v>780048</v>
       </c>
-      <c r="I91" s="14"/>
-      <c r="J91" s="14">
+      <c r="I92" s="14"/>
+      <c r="J92" s="14">
         <v>84998</v>
       </c>
-      <c r="K91" s="14"/>
-      <c r="L91" s="14">
+      <c r="K92" s="14"/>
+      <c r="L92" s="14">
         <v>49481</v>
       </c>
-      <c r="M91" s="14">
+      <c r="M92" s="14">
         <v>759447</v>
       </c>
-      <c r="N91" s="14">
+      <c r="N92" s="14">
         <v>1380742</v>
       </c>
     </row>
-    <row r="92" spans="2:14" hidden="1">
-      <c r="B92" s="16">
+    <row r="93" spans="2:14" hidden="1">
+      <c r="B93" s="16">
         <v>2018</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="C93" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D92" s="17">
+      <c r="D93" s="17">
         <f t="shared" si="2"/>
         <v>4098621</v>
       </c>
-      <c r="E92" s="18">
+      <c r="E93" s="18">
         <v>25839</v>
       </c>
-      <c r="F92" s="18">
+      <c r="F93" s="18">
         <v>59133</v>
       </c>
-      <c r="G92" s="18">
+      <c r="G93" s="18">
         <v>996415</v>
       </c>
-      <c r="H92" s="18">
+      <c r="H93" s="18">
         <v>794436</v>
       </c>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18">
+      <c r="I93" s="18"/>
+      <c r="J93" s="18">
         <v>73805</v>
       </c>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18">
+      <c r="K93" s="18"/>
+      <c r="L93" s="18">
         <v>49795</v>
       </c>
-      <c r="M92" s="18">
+      <c r="M93" s="18">
         <v>730221</v>
       </c>
-      <c r="N92" s="18">
+      <c r="N93" s="18">
         <v>1368977</v>
       </c>
     </row>
-    <row r="93" spans="2:14" hidden="1">
-      <c r="B93" s="12">
+    <row r="94" spans="2:14" hidden="1">
+      <c r="B94" s="12">
         <v>2018</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="C94" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D93" s="13">
+      <c r="D94" s="13">
         <f t="shared" si="2"/>
         <v>4102409</v>
       </c>
-      <c r="E93" s="14">
+      <c r="E94" s="14">
         <v>29029</v>
       </c>
-      <c r="F93" s="14">
+      <c r="F94" s="14">
         <v>65814</v>
       </c>
-      <c r="G93" s="14">
+      <c r="G94" s="14">
         <v>993548</v>
       </c>
-      <c r="H93" s="14">
+      <c r="H94" s="14">
         <v>797581</v>
       </c>
-      <c r="I93" s="14"/>
-      <c r="J93" s="14">
+      <c r="I94" s="14"/>
+      <c r="J94" s="14">
         <v>50611</v>
       </c>
-      <c r="K93" s="14"/>
-      <c r="L93" s="14">
+      <c r="K94" s="14"/>
+      <c r="L94" s="14">
         <v>50043</v>
       </c>
-      <c r="M93" s="14">
+      <c r="M94" s="14">
         <v>723374</v>
       </c>
-      <c r="N93" s="14">
+      <c r="N94" s="14">
         <v>1392409</v>
       </c>
     </row>
-    <row r="94" spans="2:14" hidden="1">
-      <c r="B94" s="16">
+    <row r="95" spans="2:14" hidden="1">
+      <c r="B95" s="16">
         <v>2018</v>
       </c>
-      <c r="C94" s="16" t="s">
+      <c r="C95" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D94" s="17">
+      <c r="D95" s="17">
         <f t="shared" si="2"/>
         <v>3514063</v>
       </c>
-      <c r="E94" s="18">
+      <c r="E95" s="18">
         <v>22962</v>
       </c>
-      <c r="F94" s="18">
+      <c r="F95" s="18">
         <v>59046</v>
       </c>
-      <c r="G94" s="18">
+      <c r="G95" s="18">
         <v>878966</v>
       </c>
-      <c r="H94" s="18">
+      <c r="H95" s="18">
         <v>699650</v>
       </c>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18">
+      <c r="I95" s="18"/>
+      <c r="J95" s="18">
         <v>39995</v>
       </c>
-      <c r="K94" s="18"/>
-      <c r="L94" s="18">
+      <c r="K95" s="18"/>
+      <c r="L95" s="18">
         <v>44679</v>
       </c>
-      <c r="M94" s="18">
+      <c r="M95" s="18">
         <v>569891</v>
       </c>
-      <c r="N94" s="18">
+      <c r="N95" s="18">
         <v>1198874</v>
       </c>
     </row>
-    <row r="95" spans="2:14" hidden="1">
-      <c r="B95" s="12">
+    <row r="96" spans="2:14" hidden="1">
+      <c r="B96" s="12">
         <v>2018</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C96" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D95" s="13">
+      <c r="D96" s="13">
         <f t="shared" si="2"/>
         <v>4003736</v>
       </c>
-      <c r="E95" s="14">
+      <c r="E96" s="14">
         <v>24734</v>
       </c>
-      <c r="F95" s="14">
+      <c r="F96" s="14">
         <v>60981</v>
       </c>
-      <c r="G95" s="14">
+      <c r="G96" s="14">
         <v>1021784</v>
       </c>
-      <c r="H95" s="14">
+      <c r="H96" s="14">
         <v>777479</v>
       </c>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14">
+      <c r="I96" s="14"/>
+      <c r="J96" s="14">
         <v>55290</v>
       </c>
-      <c r="K95" s="14"/>
-      <c r="L95" s="14">
+      <c r="K96" s="14"/>
+      <c r="L96" s="14">
         <v>47772</v>
       </c>
-      <c r="M95" s="14">
+      <c r="M96" s="14">
         <v>664529</v>
       </c>
-      <c r="N95" s="14">
+      <c r="N96" s="14">
         <v>1351167</v>
       </c>
-    </row>
-    <row r="96" spans="2:14">
-      <c r="B96" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E96" s="3"/>
     </row>
     <row r="97" spans="2:15">
       <c r="B97" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="2:15">
+      <c r="B98" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C97" s="28"/>
-      <c r="O97" s="29"/>
-    </row>
-    <row r="98" spans="2:15">
-      <c r="B98" s="28" t="s">
-        <v>28</v>
-      </c>
       <c r="C98" s="28"/>
+      <c r="O98" s="29"/>
     </row>
     <row r="99" spans="2:15">
       <c r="B99" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" s="28"/>
+    </row>
+    <row r="100" spans="2:15">
+      <c r="B100" s="28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="2:15">
-      <c r="B100" s="3" t="s">
+    <row r="101" spans="2:15">
+      <c r="B101" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:15">
-      <c r="D103" s="27"/>
-    </row>
-    <row r="107" spans="2:15">
-      <c r="D107" s="27"/>
+    <row r="104" spans="2:15">
+      <c r="D104" s="27"/>
+    </row>
+    <row r="108" spans="2:15">
+      <c r="D108" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Pasajeros_por_aerolinea_nac.xlsx
+++ b/Pasajeros_por_aerolinea_nac.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D0C9D1-CF4D-4AB6-A8F6-F509A146F57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B748B1-9F51-4FF9-B162-47BFFDE2D6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="32">
   <si>
     <t>Total</t>
   </si>
@@ -131,7 +131,7 @@
     <t>Nota: La línea aérea Mexicana comenzó operaciones el 26 de diciembre de 2023.</t>
   </si>
   <si>
-    <t>Actualización: Julio 2025.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -717,8 +717,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:N96" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14">
-  <autoFilter ref="B5:N96" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:N97" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14">
+  <autoFilter ref="B5:N97" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -970,7 +970,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O108"/>
+  <dimension ref="B2:O109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1067,3511 +1067,3549 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="11">
+      <c r="B6" s="15">
         <v>2025</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="17">
+        <f>SUM(E6:N6)</f>
+        <v>7285742</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18">
+        <v>1756242</v>
+      </c>
+      <c r="H6" s="18">
+        <v>381504</v>
+      </c>
+      <c r="I6" s="18">
+        <v>4196</v>
+      </c>
+      <c r="J6" s="18">
+        <v>24170</v>
+      </c>
+      <c r="K6" s="18">
+        <v>49528</v>
+      </c>
+      <c r="L6" s="18">
+        <v>17225</v>
+      </c>
+      <c r="M6" s="18">
+        <v>2553365</v>
+      </c>
+      <c r="N6" s="18">
+        <v>2499512</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="11">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="13">
-        <f>SUM(E6:N6)</f>
+      <c r="D7" s="13">
+        <f>SUM(E7:N7)</f>
         <v>7498051</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14">
         <v>1919819</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H7" s="14">
         <v>347447</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I7" s="14">
         <v>4274</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J7" s="14">
         <v>23382</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K7" s="14">
         <v>42839</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L7" s="14">
         <v>18345</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M7" s="14">
         <v>2595878</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N7" s="14">
         <v>2546067</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="15">
+    <row r="8" spans="2:14">
+      <c r="B8" s="15">
         <v>2025</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="17">
-        <f>SUM(E7:N7)</f>
+      <c r="D8" s="17">
+        <f>SUM(E8:N8)</f>
         <v>6582543</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18">
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18">
         <v>1637841</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H8" s="18">
         <v>366046</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I8" s="18">
         <v>3085</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J8" s="18">
         <v>21458</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K8" s="18">
         <v>29258</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L8" s="18">
         <v>13273</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M8" s="18">
         <v>2305737</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N8" s="18">
         <v>2205845</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="11">
+    <row r="9" spans="2:14">
+      <c r="B9" s="11">
         <v>2025</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="13">
-        <f t="shared" ref="D8:D39" si="0">SUM(E8:N8)</f>
+      <c r="D9" s="13">
+        <f t="shared" ref="D9:D40" si="0">SUM(E9:N9)</f>
         <v>6744988</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14">
         <v>1650373</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H9" s="14">
         <v>376468</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I9" s="14">
         <v>2743</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J9" s="14">
         <v>18727</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K9" s="14">
         <v>31001</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L9" s="14">
         <v>16237</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M9" s="14">
         <v>2362806</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N9" s="14">
         <v>2286633</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="15">
+    <row r="10" spans="2:14">
+      <c r="B10" s="15">
         <v>2025</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D10" s="17">
         <f t="shared" si="0"/>
         <v>6914542</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18">
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18">
         <v>1679269</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H10" s="18">
         <v>375721</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I10" s="18">
         <v>2623</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J10" s="18">
         <v>17652</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K10" s="18">
         <v>39304</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L10" s="18">
         <v>19246</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M10" s="18">
         <v>2388075</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N10" s="18">
         <v>2392652</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="11">
+    <row r="11" spans="2:14">
+      <c r="B11" s="11">
         <v>2025</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D11" s="13">
         <f t="shared" si="0"/>
         <v>6673780</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14">
         <v>1613283</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H11" s="14">
         <v>387375</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I11" s="14">
         <v>2498</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J11" s="14">
         <v>12552</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K11" s="14">
         <v>27996</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L11" s="14">
         <v>17392</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M11" s="14">
         <v>2269618</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N11" s="14">
         <v>2343066</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="15">
+    <row r="12" spans="2:14">
+      <c r="B12" s="15">
         <v>2025</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D12" s="17">
         <f t="shared" si="0"/>
         <v>5717679</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18">
         <v>1396853</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H12" s="18">
         <v>347893</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I12" s="18">
         <v>2002</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J12" s="18">
         <v>7942</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K12" s="18">
         <v>19987</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L12" s="18">
         <v>13617</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M12" s="18">
         <v>1922778</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N12" s="18">
         <v>2006607</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="19">
+    <row r="13" spans="2:14">
+      <c r="B13" s="19">
         <v>2025</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D13" s="21">
         <f t="shared" si="0"/>
         <v>6704849</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22">
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22">
         <v>1669900</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H13" s="22">
         <v>395411</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I13" s="22">
         <v>2263</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J13" s="22">
         <v>11376</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K13" s="22">
         <v>33325</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L13" s="22">
         <v>15081</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M13" s="22">
         <v>2220761</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N13" s="22">
         <v>2356732</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="15">
+    <row r="14" spans="2:14">
+      <c r="B14" s="15">
         <v>2024</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D14" s="17">
         <f t="shared" si="0"/>
         <v>7192079</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18">
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18">
         <v>1749211</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H14" s="18">
         <v>393443</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I14" s="18">
         <v>2275</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J14" s="18">
         <v>19131</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K14" s="18">
         <v>42411</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L14" s="18">
         <v>19789</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M14" s="18">
         <v>2449237</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N14" s="18">
         <v>2516582</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="11">
+    <row r="15" spans="2:14">
+      <c r="B15" s="11">
         <v>2024</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D15" s="13">
         <f t="shared" si="0"/>
         <v>6697243</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14">
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14">
         <v>1630210</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H15" s="14">
         <v>378802</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I15" s="14">
         <v>2675</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J15" s="14">
         <v>18521</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K15" s="14">
         <v>23922</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L15" s="14">
         <v>14425</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M15" s="14">
         <v>2321101</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N15" s="14">
         <v>2307587</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="15">
+    <row r="16" spans="2:14">
+      <c r="B16" s="15">
         <v>2024</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D16" s="17">
         <f t="shared" si="0"/>
         <v>6570638</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18">
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18">
         <v>1659284</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H16" s="18">
         <v>357763</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I16" s="18">
         <v>2918</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J16" s="18">
         <v>18874</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K16" s="18">
         <v>22660</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L16" s="18">
         <v>9268</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M16" s="18">
         <v>2210987</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N16" s="18">
         <v>2288884</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B16" s="11">
+    <row r="17" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B17" s="11">
         <v>2024</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D17" s="13">
         <f t="shared" si="0"/>
         <v>6239937</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14">
         <v>1602332</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H17" s="14">
         <v>357115</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I17" s="14">
         <v>2666</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J17" s="14">
         <v>16595</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K17" s="14">
         <v>21490</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L17" s="14">
         <v>8152</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M17" s="14">
         <v>2135071</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N17" s="14">
         <v>2096516</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B17" s="15">
+    <row r="18" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B18" s="15">
         <v>2024</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D18" s="17">
         <f t="shared" si="0"/>
         <v>7121241</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18">
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18">
         <v>1846259</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H18" s="18">
         <v>423300</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I18" s="18">
         <v>2334</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J18" s="18">
         <v>23287</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K18" s="18">
         <v>32823</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L18" s="18">
         <v>13091</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M18" s="18">
         <v>2380847</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N18" s="18">
         <v>2399300</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B18" s="11">
+    <row r="19" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B19" s="11">
         <v>2024</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D19" s="13">
         <f t="shared" si="0"/>
         <v>7364610</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E19" s="14">
         <v>972</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14">
         <v>1936260</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H19" s="14">
         <v>455999</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I19" s="14">
         <v>1962</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J19" s="14">
         <v>25726</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K19" s="14">
         <v>35662</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L19" s="14">
         <v>11529</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M19" s="14">
         <v>2421165</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N19" s="14">
         <v>2475335</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B19" s="15">
+    <row r="20" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B20" s="15">
         <v>2024</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D20" s="17">
         <f t="shared" si="0"/>
         <v>6544776</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E20" s="18">
         <v>744</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18">
+      <c r="F20" s="18"/>
+      <c r="G20" s="18">
         <v>1681153</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H20" s="18">
         <v>420652</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I20" s="18">
         <v>1562</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J20" s="18">
         <v>23110</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K20" s="18">
         <v>21518</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L20" s="18">
         <v>9672</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M20" s="18">
         <v>2174929</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N20" s="18">
         <v>2211436</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="11">
+    <row r="21" spans="2:14">
+      <c r="B21" s="11">
         <v>2024</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D21" s="13">
         <f t="shared" si="0"/>
         <v>6587851</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E21" s="14">
         <v>820</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14">
+      <c r="F21" s="14"/>
+      <c r="G21" s="14">
         <v>1727003</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H21" s="14">
         <v>431546</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I21" s="14">
         <v>1574</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J21" s="14">
         <v>13929</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K21" s="14">
         <v>22186</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L21" s="14">
         <v>10844</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M21" s="14">
         <v>2176419</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N21" s="14">
         <v>2203530</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="15">
+    <row r="22" spans="2:14">
+      <c r="B22" s="15">
         <v>2024</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D22" s="17">
         <f t="shared" si="0"/>
         <v>6254455</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E22" s="18">
         <v>1018</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18">
+      <c r="F22" s="18"/>
+      <c r="G22" s="18">
         <v>1647314</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H22" s="18">
         <v>437362</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I22" s="18">
         <v>1293</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J22" s="18">
         <v>17123</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K22" s="18">
         <v>21899</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L22" s="18">
         <v>13242</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M22" s="18">
         <v>2025760</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N22" s="18">
         <v>2089444</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="11">
+    <row r="23" spans="2:14">
+      <c r="B23" s="11">
         <v>2024</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D23" s="13">
         <f t="shared" si="0"/>
         <v>6263723</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E23" s="14">
         <v>985</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14">
+      <c r="F23" s="14"/>
+      <c r="G23" s="14">
         <v>1663451</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H23" s="14">
         <v>414407</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I23" s="14">
         <v>1266</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J23" s="14">
         <v>16310</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K23" s="14">
         <v>24140</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L23" s="14">
         <v>11320</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M23" s="14">
         <v>2037641</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N23" s="14">
         <v>2094203</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="15">
+    <row r="24" spans="2:14">
+      <c r="B24" s="15">
         <v>2024</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D24" s="17">
         <f t="shared" si="0"/>
         <v>5605484</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E24" s="18">
         <v>703</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18">
+      <c r="F24" s="18"/>
+      <c r="G24" s="18">
         <v>1479121</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H24" s="18">
         <v>395860</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I24" s="18">
         <v>1212</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J24" s="18">
         <v>11161</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K24" s="18">
         <v>17287</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L24" s="18">
         <v>11349</v>
       </c>
-      <c r="M23" s="18">
+      <c r="M24" s="18">
         <v>1772299</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N24" s="18">
         <v>1916492</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
-      <c r="B24" s="19">
+    <row r="25" spans="2:14">
+      <c r="B25" s="19">
         <v>2024</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C25" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D25" s="21">
         <f t="shared" si="0"/>
         <v>6273694</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E25" s="22">
         <v>1102</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22">
+      <c r="F25" s="22"/>
+      <c r="G25" s="22">
         <v>1481216</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H25" s="22">
         <v>490118</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I25" s="22">
         <v>1406</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J25" s="22">
         <v>14046</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K25" s="22">
         <v>12504</v>
       </c>
-      <c r="L24" s="22">
+      <c r="L25" s="22">
         <v>12424</v>
       </c>
-      <c r="M24" s="22">
+      <c r="M25" s="22">
         <v>2028846</v>
       </c>
-      <c r="N24" s="22">
+      <c r="N25" s="22">
         <v>2232032</v>
       </c>
     </row>
-    <row r="25" spans="2:14" hidden="1">
-      <c r="B25" s="23">
+    <row r="26" spans="2:14" hidden="1">
+      <c r="B26" s="23">
         <v>2023</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C26" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D26" s="25">
         <f t="shared" si="0"/>
         <v>6943699</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E26" s="26">
         <v>1263</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26">
+      <c r="F26" s="26"/>
+      <c r="G26" s="26">
         <v>1661066</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H26" s="26">
         <v>520344</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I26" s="26">
         <v>2164</v>
       </c>
-      <c r="J25" s="26">
+      <c r="J26" s="26">
         <v>23295</v>
       </c>
-      <c r="K25" s="26">
+      <c r="K26" s="26">
         <v>1620</v>
       </c>
-      <c r="L25" s="26">
+      <c r="L26" s="26">
         <v>19717</v>
       </c>
-      <c r="M25" s="26">
+      <c r="M26" s="26">
         <v>2180392</v>
       </c>
-      <c r="N25" s="26">
+      <c r="N26" s="26">
         <v>2533838</v>
       </c>
     </row>
-    <row r="26" spans="2:14" hidden="1">
-      <c r="B26" s="11">
+    <row r="27" spans="2:14" hidden="1">
+      <c r="B27" s="11">
         <v>2023</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D27" s="13">
         <f t="shared" si="0"/>
         <v>6524452</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E27" s="14">
         <v>817</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14">
+      <c r="F27" s="14"/>
+      <c r="G27" s="14">
         <v>1518614</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H27" s="14">
         <v>487651</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I27" s="14">
         <v>1815</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J27" s="14">
         <v>23109</v>
       </c>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14">
+      <c r="K27" s="14"/>
+      <c r="L27" s="14">
         <v>18006</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M27" s="14">
         <v>2055956</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N27" s="14">
         <v>2418484</v>
       </c>
     </row>
-    <row r="27" spans="2:14" hidden="1">
-      <c r="B27" s="15">
+    <row r="28" spans="2:14" hidden="1">
+      <c r="B28" s="15">
         <v>2023</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C28" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D28" s="17">
         <f t="shared" si="0"/>
         <v>6666523</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E28" s="18">
         <v>745</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18">
+      <c r="F28" s="18"/>
+      <c r="G28" s="18">
         <v>1534357</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H28" s="18">
         <v>502142</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I28" s="18">
         <v>1593</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J28" s="18">
         <v>27175</v>
       </c>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18">
+      <c r="K28" s="18"/>
+      <c r="L28" s="18">
         <v>15799</v>
       </c>
-      <c r="M27" s="18">
+      <c r="M28" s="18">
         <v>2142423</v>
       </c>
-      <c r="N27" s="18">
+      <c r="N28" s="18">
         <v>2442289</v>
       </c>
     </row>
-    <row r="28" spans="2:14" hidden="1">
-      <c r="B28" s="11">
+    <row r="29" spans="2:14" hidden="1">
+      <c r="B29" s="11">
         <v>2023</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D29" s="13">
         <f t="shared" si="0"/>
         <v>6234323</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E29" s="14">
         <v>136</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14">
+      <c r="F29" s="14"/>
+      <c r="G29" s="14">
         <v>1449933</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H29" s="14">
         <v>489367</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I29" s="14">
         <v>1718</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J29" s="14">
         <v>20794</v>
       </c>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14">
+      <c r="K29" s="14"/>
+      <c r="L29" s="14">
         <v>13440</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M29" s="14">
         <v>1975887</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N29" s="14">
         <v>2283048</v>
       </c>
     </row>
-    <row r="29" spans="2:14" hidden="1">
-      <c r="B29" s="15">
+    <row r="30" spans="2:14" hidden="1">
+      <c r="B30" s="15">
         <v>2023</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C30" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D30" s="17">
         <f t="shared" si="0"/>
         <v>7366586</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E30" s="18">
         <v>711</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18">
+      <c r="F30" s="18"/>
+      <c r="G30" s="18">
         <v>1790842</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H30" s="18">
         <v>509073</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I30" s="18">
         <v>1858</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J30" s="18">
         <v>33617</v>
       </c>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18">
+      <c r="K30" s="18"/>
+      <c r="L30" s="18">
         <v>17102</v>
       </c>
-      <c r="M29" s="18">
+      <c r="M30" s="18">
         <v>2222143</v>
       </c>
-      <c r="N29" s="18">
+      <c r="N30" s="18">
         <v>2791240</v>
       </c>
     </row>
-    <row r="30" spans="2:14" hidden="1">
-      <c r="B30" s="11">
+    <row r="31" spans="2:14" hidden="1">
+      <c r="B31" s="11">
         <v>2023</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D31" s="13">
         <f t="shared" si="0"/>
         <v>7470779</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E31" s="14">
         <v>7815</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14">
+      <c r="F31" s="14"/>
+      <c r="G31" s="14">
         <v>1877785</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H31" s="14">
         <v>489520</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I31" s="14">
         <v>1593</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J31" s="14">
         <v>38495</v>
       </c>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14">
+      <c r="K31" s="14"/>
+      <c r="L31" s="14">
         <v>16965</v>
       </c>
-      <c r="M30" s="14">
+      <c r="M31" s="14">
         <v>2256958</v>
       </c>
-      <c r="N30" s="14">
+      <c r="N31" s="14">
         <v>2781648</v>
       </c>
     </row>
-    <row r="31" spans="2:14" hidden="1">
-      <c r="B31" s="15">
+    <row r="32" spans="2:14" hidden="1">
+      <c r="B32" s="15">
         <v>2023</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C32" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D32" s="17">
         <f t="shared" si="0"/>
         <v>6481356</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E32" s="18">
         <v>8579</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18">
+      <c r="F32" s="18"/>
+      <c r="G32" s="18">
         <v>1623869</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H32" s="18">
         <v>444461</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I32" s="18">
         <v>930</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J32" s="18">
         <v>26027</v>
       </c>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18">
+      <c r="K32" s="18"/>
+      <c r="L32" s="18">
         <v>16972</v>
       </c>
-      <c r="M31" s="18">
+      <c r="M32" s="18">
         <v>1939577</v>
       </c>
-      <c r="N31" s="18">
+      <c r="N32" s="18">
         <v>2420941</v>
       </c>
     </row>
-    <row r="32" spans="2:14" hidden="1">
-      <c r="B32" s="11">
+    <row r="33" spans="2:14" hidden="1">
+      <c r="B33" s="11">
         <v>2023</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D33" s="13">
         <f t="shared" si="0"/>
         <v>6466836</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E33" s="14">
         <v>10045</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14">
+      <c r="F33" s="14"/>
+      <c r="G33" s="14">
         <v>1475419</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H33" s="14">
         <v>493646</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I33" s="14">
         <v>866</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J33" s="14">
         <v>22311</v>
       </c>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14">
+      <c r="K33" s="14"/>
+      <c r="L33" s="14">
         <v>22530</v>
       </c>
-      <c r="M32" s="14">
+      <c r="M33" s="14">
         <v>1903714</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N33" s="14">
         <v>2538305</v>
       </c>
     </row>
-    <row r="33" spans="2:14" hidden="1">
-      <c r="B33" s="15">
+    <row r="34" spans="2:14" hidden="1">
+      <c r="B34" s="15">
         <v>2023</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C34" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D34" s="17">
         <f t="shared" si="0"/>
         <v>6505979</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E34" s="18">
         <v>7610</v>
       </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18">
+      <c r="F34" s="18"/>
+      <c r="G34" s="18">
         <v>1447508</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H34" s="18">
         <v>495864</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I34" s="18">
         <v>73</v>
       </c>
-      <c r="J33" s="18">
+      <c r="J34" s="18">
         <v>22224</v>
       </c>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18">
+      <c r="K34" s="18"/>
+      <c r="L34" s="18">
         <v>23384</v>
       </c>
-      <c r="M33" s="18">
+      <c r="M34" s="18">
         <v>1903503</v>
       </c>
-      <c r="N33" s="18">
+      <c r="N34" s="18">
         <v>2605813</v>
       </c>
     </row>
-    <row r="34" spans="2:14" hidden="1">
-      <c r="B34" s="11">
+    <row r="35" spans="2:14" hidden="1">
+      <c r="B35" s="11">
         <v>2023</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D35" s="13">
         <f t="shared" si="0"/>
         <v>6389909</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E35" s="14">
         <v>4538</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14">
+      <c r="F35" s="14"/>
+      <c r="G35" s="14">
         <v>1502404</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H35" s="14">
         <v>516526</v>
       </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14">
+      <c r="I35" s="14"/>
+      <c r="J35" s="14">
         <v>15589</v>
       </c>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14">
+      <c r="K35" s="14"/>
+      <c r="L35" s="14">
         <v>23229</v>
       </c>
-      <c r="M34" s="14">
+      <c r="M35" s="14">
         <v>1776763</v>
       </c>
-      <c r="N34" s="14">
+      <c r="N35" s="14">
         <v>2550860</v>
       </c>
     </row>
-    <row r="35" spans="2:14" hidden="1">
-      <c r="B35" s="15">
+    <row r="36" spans="2:14" hidden="1">
+      <c r="B36" s="15">
         <v>2023</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C36" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D36" s="17">
         <f t="shared" si="0"/>
         <v>5478771</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E36" s="18">
         <v>9031</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F36" s="18">
         <v>9443</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G36" s="18">
         <v>1277871</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H36" s="18">
         <v>459155</v>
       </c>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18">
+      <c r="I36" s="18"/>
+      <c r="J36" s="18">
         <v>11992</v>
       </c>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18">
+      <c r="K36" s="18"/>
+      <c r="L36" s="18">
         <v>19704</v>
       </c>
-      <c r="M35" s="18">
+      <c r="M36" s="18">
         <v>1431046</v>
       </c>
-      <c r="N35" s="18">
+      <c r="N36" s="18">
         <v>2260529</v>
       </c>
     </row>
-    <row r="36" spans="2:14" hidden="1">
-      <c r="B36" s="19">
+    <row r="37" spans="2:14" hidden="1">
+      <c r="B37" s="19">
         <v>2023</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C37" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D37" s="21">
         <f t="shared" si="0"/>
         <v>6248337</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E37" s="22">
         <v>9895</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F37" s="22">
         <v>23595</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G37" s="22">
         <v>1439058</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H37" s="22">
         <v>503079</v>
       </c>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22">
+      <c r="I37" s="22"/>
+      <c r="J37" s="22">
         <v>15438</v>
       </c>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22">
+      <c r="K37" s="22"/>
+      <c r="L37" s="22">
         <v>23680</v>
       </c>
-      <c r="M36" s="22">
+      <c r="M37" s="22">
         <v>1650780</v>
       </c>
-      <c r="N36" s="22">
+      <c r="N37" s="22">
         <v>2582812</v>
       </c>
     </row>
-    <row r="37" spans="2:14" hidden="1">
-      <c r="B37" s="23">
+    <row r="38" spans="2:14" hidden="1">
+      <c r="B38" s="23">
         <v>2022</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C38" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D38" s="25">
         <f t="shared" si="0"/>
         <v>6735243</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E38" s="26">
         <v>8855</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F38" s="26">
         <v>30082</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G38" s="26">
         <v>1541064</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H38" s="26">
         <v>545257</v>
       </c>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26">
+      <c r="I38" s="26"/>
+      <c r="J38" s="26">
         <v>31832</v>
       </c>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26">
+      <c r="K38" s="26"/>
+      <c r="L38" s="26">
         <v>32706</v>
       </c>
-      <c r="M37" s="26">
+      <c r="M38" s="26">
         <v>1885616</v>
       </c>
-      <c r="N37" s="26">
+      <c r="N38" s="26">
         <v>2659831</v>
       </c>
     </row>
-    <row r="38" spans="2:14" hidden="1">
-      <c r="B38" s="11">
+    <row r="39" spans="2:14" hidden="1">
+      <c r="B39" s="11">
         <v>2022</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D39" s="13">
         <f t="shared" si="0"/>
         <v>6388091</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E39" s="14">
         <v>10809</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F39" s="14">
         <v>29180</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G39" s="14">
         <v>1477832</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H39" s="14">
         <v>542019</v>
       </c>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14">
+      <c r="I39" s="14"/>
+      <c r="J39" s="14">
         <v>26190</v>
       </c>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14">
+      <c r="K39" s="14"/>
+      <c r="L39" s="14">
         <v>25324</v>
       </c>
-      <c r="M38" s="14">
+      <c r="M39" s="14">
         <v>1806360</v>
       </c>
-      <c r="N38" s="14">
+      <c r="N39" s="14">
         <v>2470377</v>
       </c>
     </row>
-    <row r="39" spans="2:14" hidden="1">
-      <c r="B39" s="15">
+    <row r="40" spans="2:14" hidden="1">
+      <c r="B40" s="15">
         <v>2022</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C40" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D40" s="17">
         <f t="shared" si="0"/>
         <v>6296390</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E40" s="18">
         <v>11560</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F40" s="18">
         <v>29156</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G40" s="18">
         <v>1436769</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H40" s="18">
         <v>525145</v>
       </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18">
+      <c r="I40" s="18"/>
+      <c r="J40" s="18">
         <v>25003</v>
       </c>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18">
+      <c r="K40" s="18"/>
+      <c r="L40" s="18">
         <v>26165</v>
       </c>
-      <c r="M39" s="18">
+      <c r="M40" s="18">
         <v>1730130</v>
       </c>
-      <c r="N39" s="18">
+      <c r="N40" s="18">
         <v>2512462</v>
       </c>
     </row>
-    <row r="40" spans="2:14" hidden="1">
-      <c r="B40" s="11">
+    <row r="41" spans="2:14" hidden="1">
+      <c r="B41" s="11">
         <v>2022</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="13">
-        <f t="shared" ref="D40:D71" si="1">SUM(E40:N40)</f>
+      <c r="D41" s="13">
+        <f t="shared" ref="D41:D72" si="1">SUM(E41:N41)</f>
         <v>5717570</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E41" s="14">
         <v>8563</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F41" s="14">
         <v>27782</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G41" s="14">
         <v>1324735</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H41" s="14">
         <v>461328</v>
       </c>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14">
+      <c r="I41" s="14"/>
+      <c r="J41" s="14">
         <v>24539</v>
       </c>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14">
+      <c r="K41" s="14"/>
+      <c r="L41" s="14">
         <v>23409</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M41" s="14">
         <v>1533686</v>
       </c>
-      <c r="N40" s="14">
+      <c r="N41" s="14">
         <v>2313528</v>
       </c>
     </row>
-    <row r="41" spans="2:14" hidden="1">
-      <c r="B41" s="15">
+    <row r="42" spans="2:14" hidden="1">
+      <c r="B42" s="15">
         <v>2022</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C42" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D42" s="17">
         <f t="shared" si="1"/>
         <v>6395624</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E42" s="18">
         <v>12206</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F42" s="18">
         <v>36300</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G42" s="18">
         <v>1459848</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H42" s="18">
         <v>550210</v>
       </c>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18">
+      <c r="I42" s="18"/>
+      <c r="J42" s="18">
         <v>41574</v>
       </c>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18">
+      <c r="K42" s="18"/>
+      <c r="L42" s="18">
         <v>28457</v>
       </c>
-      <c r="M41" s="18">
+      <c r="M42" s="18">
         <v>1770150</v>
       </c>
-      <c r="N41" s="18">
+      <c r="N42" s="18">
         <v>2496879</v>
       </c>
     </row>
-    <row r="42" spans="2:14" hidden="1">
-      <c r="B42" s="11">
+    <row r="43" spans="2:14" hidden="1">
+      <c r="B43" s="11">
         <v>2022</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C43" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D43" s="13">
         <f t="shared" si="1"/>
         <v>6606709</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E43" s="14">
         <v>12900</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F43" s="14">
         <v>37410</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G43" s="14">
         <v>1493132</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H43" s="14">
         <v>544988</v>
       </c>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14">
+      <c r="I43" s="14"/>
+      <c r="J43" s="14">
         <v>52783</v>
       </c>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14">
+      <c r="K43" s="14"/>
+      <c r="L43" s="14">
         <v>35829</v>
       </c>
-      <c r="M42" s="14">
+      <c r="M43" s="14">
         <v>1832173</v>
       </c>
-      <c r="N42" s="14">
+      <c r="N43" s="14">
         <v>2597494</v>
       </c>
     </row>
-    <row r="43" spans="2:14" hidden="1">
-      <c r="B43" s="15">
+    <row r="44" spans="2:14" hidden="1">
+      <c r="B44" s="15">
         <v>2022</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C44" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D44" s="17">
         <f t="shared" si="1"/>
         <v>5816384</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E44" s="18">
         <v>11528</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F44" s="18">
         <v>29894</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G44" s="18">
         <v>1448616</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H44" s="18">
         <v>482837</v>
       </c>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18">
+      <c r="I44" s="18"/>
+      <c r="J44" s="18">
         <v>38612</v>
       </c>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18">
+      <c r="K44" s="18"/>
+      <c r="L44" s="18">
         <v>31692</v>
       </c>
-      <c r="M43" s="18">
+      <c r="M44" s="18">
         <v>1629719</v>
       </c>
-      <c r="N43" s="18">
+      <c r="N44" s="18">
         <v>2143486</v>
       </c>
     </row>
-    <row r="44" spans="2:14" hidden="1">
-      <c r="B44" s="11">
+    <row r="45" spans="2:14" hidden="1">
+      <c r="B45" s="11">
         <v>2022</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C45" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D45" s="13">
         <f t="shared" si="1"/>
         <v>5938227</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E45" s="14">
         <v>14051</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F45" s="14">
         <v>34530</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G45" s="14">
         <v>1394194</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H45" s="14">
         <v>469001</v>
       </c>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14">
+      <c r="I45" s="14"/>
+      <c r="J45" s="14">
         <v>36048</v>
       </c>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14">
+      <c r="K45" s="14"/>
+      <c r="L45" s="14">
         <v>32934</v>
       </c>
-      <c r="M44" s="14">
+      <c r="M45" s="14">
         <v>1638787</v>
       </c>
-      <c r="N44" s="14">
+      <c r="N45" s="14">
         <v>2318682</v>
       </c>
     </row>
-    <row r="45" spans="2:14" hidden="1">
-      <c r="B45" s="15">
+    <row r="46" spans="2:14" hidden="1">
+      <c r="B46" s="15">
         <v>2022</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C46" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D46" s="17">
         <f t="shared" si="1"/>
         <v>5762121</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E46" s="18">
         <v>12580</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F46" s="18">
         <v>39403</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G46" s="18">
         <v>1248745</v>
       </c>
-      <c r="H45" s="18">
+      <c r="H46" s="18">
         <v>447104</v>
       </c>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18">
+      <c r="I46" s="18"/>
+      <c r="J46" s="18">
         <v>30427</v>
       </c>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18">
+      <c r="K46" s="18"/>
+      <c r="L46" s="18">
         <v>31976</v>
       </c>
-      <c r="M45" s="18">
+      <c r="M46" s="18">
         <v>1571982</v>
       </c>
-      <c r="N45" s="18">
+      <c r="N46" s="18">
         <v>2379904</v>
       </c>
     </row>
-    <row r="46" spans="2:14" hidden="1">
-      <c r="B46" s="11">
+    <row r="47" spans="2:14" hidden="1">
+      <c r="B47" s="11">
         <v>2022</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D47" s="13">
         <f t="shared" si="1"/>
         <v>5450271</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E47" s="14">
         <v>13206</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F47" s="14">
         <v>32413</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G47" s="14">
         <v>1137873</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H47" s="14">
         <v>485288</v>
       </c>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14">
+      <c r="I47" s="14"/>
+      <c r="J47" s="14">
         <v>20444</v>
       </c>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14">
+      <c r="K47" s="14"/>
+      <c r="L47" s="14">
         <v>30333</v>
       </c>
-      <c r="M46" s="14">
+      <c r="M47" s="14">
         <v>1443642</v>
       </c>
-      <c r="N46" s="14">
+      <c r="N47" s="14">
         <v>2287072</v>
       </c>
     </row>
-    <row r="47" spans="2:14" hidden="1">
-      <c r="B47" s="15">
+    <row r="48" spans="2:14" hidden="1">
+      <c r="B48" s="15">
         <v>2022</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C48" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D48" s="17">
         <f t="shared" si="1"/>
         <v>4335053</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E48" s="18">
         <v>10775</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F48" s="18">
         <v>26979</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G48" s="18">
         <v>817221</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H48" s="18">
         <v>400280</v>
       </c>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18">
+      <c r="I48" s="18"/>
+      <c r="J48" s="18">
         <v>14632</v>
       </c>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18">
+      <c r="K48" s="18"/>
+      <c r="L48" s="18">
         <v>22836</v>
       </c>
-      <c r="M47" s="18">
+      <c r="M48" s="18">
         <v>1113977</v>
       </c>
-      <c r="N47" s="18">
+      <c r="N48" s="18">
         <v>1928353</v>
       </c>
     </row>
-    <row r="48" spans="2:14" hidden="1">
-      <c r="B48" s="19">
+    <row r="49" spans="2:14" hidden="1">
+      <c r="B49" s="19">
         <v>2022</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C49" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D49" s="21">
         <f t="shared" si="1"/>
         <v>4754587</v>
       </c>
-      <c r="E48" s="22">
+      <c r="E49" s="22">
         <v>10351</v>
       </c>
-      <c r="F48" s="22">
+      <c r="F49" s="22">
         <v>35019</v>
       </c>
-      <c r="G48" s="22">
+      <c r="G49" s="22">
         <v>851918</v>
       </c>
-      <c r="H48" s="22">
+      <c r="H49" s="22">
         <v>400866</v>
       </c>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22">
+      <c r="I49" s="22"/>
+      <c r="J49" s="22">
         <v>19731</v>
       </c>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22">
+      <c r="K49" s="22"/>
+      <c r="L49" s="22">
         <v>22335</v>
       </c>
-      <c r="M48" s="22">
+      <c r="M49" s="22">
         <v>1322859</v>
       </c>
-      <c r="N48" s="22">
+      <c r="N49" s="22">
         <v>2091508</v>
       </c>
     </row>
-    <row r="49" spans="2:14" hidden="1">
-      <c r="B49" s="23">
+    <row r="50" spans="2:14" hidden="1">
+      <c r="B50" s="23">
         <v>2021</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C50" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="25">
+      <c r="D50" s="25">
         <f t="shared" si="1"/>
         <v>5788606</v>
       </c>
-      <c r="E49" s="26">
+      <c r="E50" s="26">
         <v>12597</v>
       </c>
-      <c r="F49" s="26">
+      <c r="F50" s="26">
         <v>48986</v>
       </c>
-      <c r="G49" s="26">
+      <c r="G50" s="26">
         <v>1194196</v>
       </c>
-      <c r="H49" s="26">
+      <c r="H50" s="26">
         <v>531737</v>
       </c>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26">
+      <c r="I50" s="26"/>
+      <c r="J50" s="26">
         <v>41564</v>
       </c>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26">
+      <c r="K50" s="26"/>
+      <c r="L50" s="26">
         <v>32426</v>
       </c>
-      <c r="M49" s="26">
+      <c r="M50" s="26">
         <v>1542449</v>
       </c>
-      <c r="N49" s="26">
+      <c r="N50" s="26">
         <v>2384651</v>
       </c>
     </row>
-    <row r="50" spans="2:14" hidden="1">
-      <c r="B50" s="11">
+    <row r="51" spans="2:14" hidden="1">
+      <c r="B51" s="11">
         <v>2021</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C51" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D51" s="13">
         <f t="shared" si="1"/>
         <v>5289729</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E51" s="14">
         <v>11837</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F51" s="14">
         <v>46757</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G51" s="14">
         <v>1056753</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H51" s="14">
         <v>485468</v>
       </c>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14">
+      <c r="I51" s="14"/>
+      <c r="J51" s="14">
         <v>32507</v>
       </c>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14">
+      <c r="K51" s="14"/>
+      <c r="L51" s="14">
         <v>29832</v>
       </c>
-      <c r="M50" s="14">
+      <c r="M51" s="14">
         <v>1406500</v>
       </c>
-      <c r="N50" s="14">
+      <c r="N51" s="14">
         <v>2220075</v>
       </c>
     </row>
-    <row r="51" spans="2:14" hidden="1">
-      <c r="B51" s="15">
+    <row r="52" spans="2:14" hidden="1">
+      <c r="B52" s="15">
         <v>2021</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C52" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D52" s="17">
         <f t="shared" si="1"/>
         <v>5118685</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E52" s="18">
         <v>14115</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F52" s="18">
         <v>45703</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G52" s="18">
         <v>1034177</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H52" s="18">
         <v>510398</v>
       </c>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18">
+      <c r="I52" s="18"/>
+      <c r="J52" s="18">
         <v>28313</v>
       </c>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18">
+      <c r="K52" s="18"/>
+      <c r="L52" s="18">
         <v>31649</v>
       </c>
-      <c r="M51" s="18">
+      <c r="M52" s="18">
         <v>1355918</v>
       </c>
-      <c r="N51" s="18">
+      <c r="N52" s="18">
         <v>2098412</v>
       </c>
     </row>
-    <row r="52" spans="2:14" hidden="1">
-      <c r="B52" s="11">
+    <row r="53" spans="2:14" hidden="1">
+      <c r="B53" s="11">
         <v>2021</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C53" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D53" s="13">
         <f t="shared" si="1"/>
         <v>4470649</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E53" s="14">
         <v>12872</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F53" s="14">
         <v>42716</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G53" s="14">
         <v>893242</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H53" s="14">
         <v>444101</v>
       </c>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14">
+      <c r="I53" s="14"/>
+      <c r="J53" s="14">
         <v>24490</v>
       </c>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14">
+      <c r="K53" s="14"/>
+      <c r="L53" s="14">
         <v>25901</v>
       </c>
-      <c r="M52" s="14">
+      <c r="M53" s="14">
         <v>1153271</v>
       </c>
-      <c r="N52" s="14">
+      <c r="N53" s="14">
         <v>1874056</v>
       </c>
     </row>
-    <row r="53" spans="2:14" hidden="1">
-      <c r="B53" s="15">
+    <row r="54" spans="2:14" hidden="1">
+      <c r="B54" s="15">
         <v>2021</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C54" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D54" s="17">
         <f t="shared" si="1"/>
         <v>5008604</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E54" s="18">
         <v>12792</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F54" s="18">
         <v>47119</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G54" s="18">
         <v>993427</v>
       </c>
-      <c r="H53" s="18">
+      <c r="H54" s="18">
         <v>524484</v>
       </c>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18">
+      <c r="I54" s="18"/>
+      <c r="J54" s="18">
         <v>35479</v>
       </c>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18">
+      <c r="K54" s="18"/>
+      <c r="L54" s="18">
         <v>26034</v>
       </c>
-      <c r="M53" s="18">
+      <c r="M54" s="18">
         <v>1305965</v>
       </c>
-      <c r="N53" s="18">
+      <c r="N54" s="18">
         <v>2063304</v>
       </c>
     </row>
-    <row r="54" spans="2:14" hidden="1">
-      <c r="B54" s="11">
+    <row r="55" spans="2:14" hidden="1">
+      <c r="B55" s="11">
         <v>2021</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C55" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D55" s="13">
         <f t="shared" si="1"/>
         <v>5456169</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E55" s="14">
         <v>15216</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F55" s="14">
         <v>53005</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G55" s="14">
         <v>1058956</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H55" s="14">
         <v>590598</v>
       </c>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14">
+      <c r="I55" s="14"/>
+      <c r="J55" s="14">
         <v>64029</v>
       </c>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14">
+      <c r="K55" s="14"/>
+      <c r="L55" s="14">
         <v>30912</v>
       </c>
-      <c r="M54" s="14">
+      <c r="M55" s="14">
         <v>1503552</v>
       </c>
-      <c r="N54" s="14">
+      <c r="N55" s="14">
         <v>2139901</v>
       </c>
     </row>
-    <row r="55" spans="2:14" hidden="1">
-      <c r="B55" s="15">
+    <row r="56" spans="2:14" hidden="1">
+      <c r="B56" s="15">
         <v>2021</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C56" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D56" s="17">
         <f t="shared" si="1"/>
         <v>4784013</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E56" s="18">
         <v>15389</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F56" s="18">
         <v>43733</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G56" s="18">
         <v>853708</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H56" s="18">
         <v>536816</v>
       </c>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18">
+      <c r="I56" s="18"/>
+      <c r="J56" s="18">
         <v>54554</v>
       </c>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18">
+      <c r="K56" s="18"/>
+      <c r="L56" s="18">
         <v>23167</v>
       </c>
-      <c r="M55" s="18">
+      <c r="M56" s="18">
         <v>1288126</v>
       </c>
-      <c r="N55" s="18">
+      <c r="N56" s="18">
         <v>1968520</v>
       </c>
     </row>
-    <row r="56" spans="2:14" hidden="1">
-      <c r="B56" s="11">
+    <row r="57" spans="2:14" hidden="1">
+      <c r="B57" s="11">
         <v>2021</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C57" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D57" s="13">
         <f t="shared" si="1"/>
         <v>4739036</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E57" s="14">
         <v>16431</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F57" s="14">
         <v>40566</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G57" s="14">
         <v>804638</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H57" s="14">
         <v>535959</v>
       </c>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14">
+      <c r="I57" s="14"/>
+      <c r="J57" s="14">
         <v>45166</v>
       </c>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14">
+      <c r="K57" s="14"/>
+      <c r="L57" s="14">
         <v>20712</v>
       </c>
-      <c r="M56" s="14">
+      <c r="M57" s="14">
         <v>1283475</v>
       </c>
-      <c r="N56" s="14">
+      <c r="N57" s="14">
         <v>1992089</v>
       </c>
     </row>
-    <row r="57" spans="2:14" hidden="1">
-      <c r="B57" s="15">
+    <row r="58" spans="2:14" hidden="1">
+      <c r="B58" s="15">
         <v>2021</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C58" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D58" s="17">
         <f t="shared" si="1"/>
         <v>4139956</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E58" s="18">
         <v>13432</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F58" s="18">
         <v>34786</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G58" s="18">
         <v>729359</v>
       </c>
-      <c r="H57" s="18">
+      <c r="H58" s="18">
         <v>459115</v>
       </c>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18">
+      <c r="I58" s="18"/>
+      <c r="J58" s="18">
         <v>37963</v>
       </c>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18">
+      <c r="K58" s="18"/>
+      <c r="L58" s="18">
         <v>19899</v>
       </c>
-      <c r="M57" s="18">
+      <c r="M58" s="18">
         <v>1098291</v>
       </c>
-      <c r="N57" s="18">
+      <c r="N58" s="18">
         <v>1747111</v>
       </c>
     </row>
-    <row r="58" spans="2:14" hidden="1">
-      <c r="B58" s="11">
+    <row r="59" spans="2:14" hidden="1">
+      <c r="B59" s="11">
         <v>2021</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D59" s="13">
         <f t="shared" si="1"/>
         <v>3643233</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E59" s="14">
         <v>13443</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F59" s="14">
         <v>34472</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G59" s="14">
         <v>700282</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H59" s="14">
         <v>454696</v>
       </c>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14">
+      <c r="I59" s="14"/>
+      <c r="J59" s="14">
         <v>25539</v>
       </c>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14">
+      <c r="K59" s="14"/>
+      <c r="L59" s="14">
         <v>18739</v>
       </c>
-      <c r="M58" s="14">
+      <c r="M59" s="14">
         <v>1015276</v>
       </c>
-      <c r="N58" s="14">
+      <c r="N59" s="14">
         <v>1380786</v>
       </c>
     </row>
-    <row r="59" spans="2:14" hidden="1">
-      <c r="B59" s="15">
+    <row r="60" spans="2:14" hidden="1">
+      <c r="B60" s="15">
         <v>2021</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C60" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D60" s="17">
         <f t="shared" si="1"/>
         <v>2522697</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E60" s="18">
         <v>8230</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F60" s="18">
         <v>21876</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G60" s="18">
         <v>521896</v>
       </c>
-      <c r="H59" s="18">
+      <c r="H60" s="18">
         <v>365190</v>
       </c>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18">
+      <c r="I60" s="18"/>
+      <c r="J60" s="18">
         <v>13877</v>
       </c>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18">
+      <c r="K60" s="18"/>
+      <c r="L60" s="18">
         <v>12256</v>
       </c>
-      <c r="M59" s="18">
+      <c r="M60" s="18">
         <v>590075</v>
       </c>
-      <c r="N59" s="18">
+      <c r="N60" s="18">
         <v>989297</v>
       </c>
     </row>
-    <row r="60" spans="2:14" hidden="1">
-      <c r="B60" s="19">
+    <row r="61" spans="2:14" hidden="1">
+      <c r="B61" s="19">
         <v>2021</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C61" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D61" s="21">
         <f t="shared" si="1"/>
         <v>3256499</v>
       </c>
-      <c r="E60" s="22">
+      <c r="E61" s="22">
         <v>7181</v>
       </c>
-      <c r="F60" s="22">
+      <c r="F61" s="22">
         <v>25543</v>
       </c>
-      <c r="G60" s="22">
+      <c r="G61" s="22">
         <v>641860</v>
       </c>
-      <c r="H60" s="22">
+      <c r="H61" s="22">
         <v>438330</v>
       </c>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22">
+      <c r="I61" s="22"/>
+      <c r="J61" s="22">
         <v>19413</v>
       </c>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22">
+      <c r="K61" s="22"/>
+      <c r="L61" s="22">
         <v>13791</v>
       </c>
-      <c r="M60" s="22">
+      <c r="M61" s="22">
         <v>759842</v>
       </c>
-      <c r="N60" s="22">
+      <c r="N61" s="22">
         <v>1350539</v>
       </c>
     </row>
-    <row r="61" spans="2:14" hidden="1">
-      <c r="B61" s="23">
+    <row r="62" spans="2:14" hidden="1">
+      <c r="B62" s="23">
         <v>2020</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C62" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D61" s="25">
+      <c r="D62" s="25">
         <f t="shared" si="1"/>
         <v>3748637</v>
       </c>
-      <c r="E61" s="26">
+      <c r="E62" s="26">
         <v>6626</v>
       </c>
-      <c r="F61" s="26">
+      <c r="F62" s="26">
         <v>32040</v>
       </c>
-      <c r="G61" s="26">
+      <c r="G62" s="26">
         <v>610544</v>
       </c>
-      <c r="H61" s="26">
+      <c r="H62" s="26">
         <v>491905</v>
       </c>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26">
+      <c r="I62" s="26"/>
+      <c r="J62" s="26">
         <v>45610</v>
       </c>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26">
+      <c r="K62" s="26"/>
+      <c r="L62" s="26">
         <v>17383</v>
       </c>
-      <c r="M61" s="26">
+      <c r="M62" s="26">
         <v>998369</v>
       </c>
-      <c r="N61" s="26">
+      <c r="N62" s="26">
         <v>1546160</v>
       </c>
     </row>
-    <row r="62" spans="2:14" hidden="1">
-      <c r="B62" s="11">
+    <row r="63" spans="2:14" hidden="1">
+      <c r="B63" s="11">
         <v>2020</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C63" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D63" s="13">
         <f t="shared" si="1"/>
         <v>3329641</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E63" s="14">
         <v>6583</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F63" s="14">
         <v>28629</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G63" s="14">
         <v>520221</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H63" s="14">
         <v>395967</v>
       </c>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14">
+      <c r="I63" s="14"/>
+      <c r="J63" s="14">
         <v>37463</v>
       </c>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14">
+      <c r="K63" s="14"/>
+      <c r="L63" s="14">
         <v>14115</v>
       </c>
-      <c r="M62" s="14">
+      <c r="M63" s="14">
         <v>863224</v>
       </c>
-      <c r="N62" s="14">
+      <c r="N63" s="14">
         <v>1463439</v>
       </c>
     </row>
-    <row r="63" spans="2:14" hidden="1">
-      <c r="B63" s="15">
+    <row r="64" spans="2:14" hidden="1">
+      <c r="B64" s="15">
         <v>2020</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C64" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D64" s="17">
         <f t="shared" si="1"/>
         <v>3039360</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E64" s="18">
         <v>5614</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F64" s="18">
         <v>27120</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G64" s="18">
         <v>463245</v>
       </c>
-      <c r="H63" s="18">
+      <c r="H64" s="18">
         <v>395686</v>
       </c>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18">
+      <c r="I64" s="18"/>
+      <c r="J64" s="18">
         <v>29759</v>
       </c>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18">
+      <c r="K64" s="18"/>
+      <c r="L64" s="18">
         <v>14897</v>
       </c>
-      <c r="M63" s="18">
+      <c r="M64" s="18">
         <v>803614</v>
       </c>
-      <c r="N63" s="18">
+      <c r="N64" s="18">
         <v>1299425</v>
       </c>
     </row>
-    <row r="64" spans="2:14" hidden="1">
-      <c r="B64" s="11">
+    <row r="65" spans="2:14" hidden="1">
+      <c r="B65" s="11">
         <v>2020</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C65" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D65" s="13">
         <f t="shared" si="1"/>
         <v>2573426</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E65" s="14">
         <v>4853</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F65" s="14">
         <v>21371</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G65" s="14">
         <v>371636</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H65" s="14">
         <v>325704</v>
       </c>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14">
+      <c r="I65" s="14"/>
+      <c r="J65" s="14">
         <v>30615</v>
       </c>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14">
+      <c r="K65" s="14"/>
+      <c r="L65" s="14">
         <v>11615</v>
       </c>
-      <c r="M64" s="14">
+      <c r="M65" s="14">
         <v>665331</v>
       </c>
-      <c r="N64" s="14">
+      <c r="N65" s="14">
         <v>1142301</v>
       </c>
     </row>
-    <row r="65" spans="2:14" hidden="1">
-      <c r="B65" s="15">
+    <row r="66" spans="2:14" hidden="1">
+      <c r="B66" s="15">
         <v>2020</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C66" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D66" s="17">
         <f t="shared" si="1"/>
         <v>2385167</v>
       </c>
-      <c r="E65" s="18">
+      <c r="E66" s="18">
         <v>3748</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F66" s="18">
         <v>22617</v>
       </c>
-      <c r="G65" s="18">
+      <c r="G66" s="18">
         <v>322580</v>
       </c>
-      <c r="H65" s="18">
+      <c r="H66" s="18">
         <v>310616</v>
       </c>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18">
+      <c r="I66" s="18"/>
+      <c r="J66" s="18">
         <v>30641</v>
       </c>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18">
+      <c r="K66" s="18"/>
+      <c r="L66" s="18">
         <v>7400</v>
       </c>
-      <c r="M65" s="18">
+      <c r="M66" s="18">
         <v>586367</v>
       </c>
-      <c r="N65" s="18">
+      <c r="N66" s="18">
         <v>1101198</v>
       </c>
     </row>
-    <row r="66" spans="2:14" hidden="1">
-      <c r="B66" s="11">
+    <row r="67" spans="2:14" hidden="1">
+      <c r="B67" s="11">
         <v>2020</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C67" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D67" s="13">
         <f t="shared" si="1"/>
         <v>1872012</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E67" s="14">
         <v>3082</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F67" s="14">
         <v>18259</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G67" s="14">
         <v>251899</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H67" s="14">
         <v>254505</v>
       </c>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14">
+      <c r="I67" s="14"/>
+      <c r="J67" s="14">
         <v>24630</v>
       </c>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14">
+      <c r="K67" s="14"/>
+      <c r="L67" s="14">
         <v>4178</v>
       </c>
-      <c r="M66" s="14">
+      <c r="M67" s="14">
         <v>418350</v>
       </c>
-      <c r="N66" s="14">
+      <c r="N67" s="14">
         <v>897109</v>
       </c>
     </row>
-    <row r="67" spans="2:14" hidden="1">
-      <c r="B67" s="15">
+    <row r="68" spans="2:14" hidden="1">
+      <c r="B68" s="15">
         <v>2020</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C68" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D68" s="17">
         <f t="shared" si="1"/>
         <v>971404</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E68" s="18">
         <v>1927</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F68" s="18">
         <v>9051</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G68" s="18">
         <v>140991</v>
       </c>
-      <c r="H67" s="18">
+      <c r="H68" s="18">
         <v>97306</v>
       </c>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18">
+      <c r="I68" s="18"/>
+      <c r="J68" s="18">
         <v>5002</v>
       </c>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18">
+      <c r="K68" s="18"/>
+      <c r="L68" s="18">
         <v>2168</v>
       </c>
-      <c r="M67" s="18">
+      <c r="M68" s="18">
         <v>201937</v>
       </c>
-      <c r="N67" s="18">
+      <c r="N68" s="18">
         <v>513022</v>
       </c>
     </row>
-    <row r="68" spans="2:14" hidden="1">
-      <c r="B68" s="11">
+    <row r="69" spans="2:14" hidden="1">
+      <c r="B69" s="11">
         <v>2020</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C69" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D69" s="13">
         <f t="shared" si="1"/>
         <v>395931</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E69" s="14">
         <v>1324</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F69" s="14">
         <v>4688</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G69" s="14">
         <v>50801</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H69" s="14">
         <v>80478</v>
       </c>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14">
+      <c r="I69" s="14"/>
+      <c r="J69" s="14">
         <v>0</v>
       </c>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14">
+      <c r="K69" s="14"/>
+      <c r="L69" s="14">
         <v>1040</v>
       </c>
-      <c r="M68" s="14">
+      <c r="M69" s="14">
         <v>90419</v>
       </c>
-      <c r="N68" s="14">
+      <c r="N69" s="14">
         <v>167181</v>
       </c>
     </row>
-    <row r="69" spans="2:14" hidden="1">
-      <c r="B69" s="15">
+    <row r="70" spans="2:14" hidden="1">
+      <c r="B70" s="15">
         <v>2020</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C70" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D70" s="17">
         <f t="shared" si="1"/>
         <v>423935</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E70" s="18">
         <v>1164</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F70" s="18">
         <v>2668</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G70" s="18">
         <v>60744</v>
       </c>
-      <c r="H69" s="18">
+      <c r="H70" s="18">
         <v>86523</v>
       </c>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18">
+      <c r="I70" s="18"/>
+      <c r="J70" s="18">
         <v>705</v>
       </c>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18">
+      <c r="K70" s="18"/>
+      <c r="L70" s="18">
         <v>485</v>
       </c>
-      <c r="M69" s="18">
+      <c r="M70" s="18">
         <v>89915</v>
       </c>
-      <c r="N69" s="18">
+      <c r="N70" s="18">
         <v>181731</v>
       </c>
     </row>
-    <row r="70" spans="2:14" hidden="1">
-      <c r="B70" s="11">
+    <row r="71" spans="2:14" hidden="1">
+      <c r="B71" s="11">
         <v>2020</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D71" s="13">
         <f t="shared" si="1"/>
         <v>3109457</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E71" s="14">
         <v>8791</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F71" s="14">
         <v>41673</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G71" s="14">
         <v>572018</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H71" s="14">
         <v>464064</v>
       </c>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14">
+      <c r="I71" s="14"/>
+      <c r="J71" s="14">
         <v>23248</v>
       </c>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14">
+      <c r="K71" s="14"/>
+      <c r="L71" s="14">
         <v>26274</v>
       </c>
-      <c r="M70" s="14">
+      <c r="M71" s="14">
         <v>704638</v>
       </c>
-      <c r="N70" s="14">
+      <c r="N71" s="14">
         <v>1268751</v>
       </c>
     </row>
-    <row r="71" spans="2:14" hidden="1">
-      <c r="B71" s="15">
+    <row r="72" spans="2:14" hidden="1">
+      <c r="B72" s="15">
         <v>2020</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C72" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D72" s="17">
         <f t="shared" si="1"/>
         <v>4137166</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E72" s="18">
         <v>10857</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F72" s="18">
         <v>59357</v>
       </c>
-      <c r="G71" s="18">
+      <c r="G72" s="18">
         <v>846279</v>
       </c>
-      <c r="H71" s="18">
+      <c r="H72" s="18">
         <v>641873</v>
       </c>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18">
+      <c r="I72" s="18"/>
+      <c r="J72" s="18">
         <v>26652</v>
       </c>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18">
+      <c r="K72" s="18"/>
+      <c r="L72" s="18">
         <v>36382</v>
       </c>
-      <c r="M71" s="18">
+      <c r="M72" s="18">
         <v>881600</v>
       </c>
-      <c r="N71" s="18">
+      <c r="N72" s="18">
         <v>1634166</v>
       </c>
     </row>
-    <row r="72" spans="2:14" hidden="1">
-      <c r="B72" s="19">
+    <row r="73" spans="2:14" hidden="1">
+      <c r="B73" s="19">
         <v>2020</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C73" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="21">
-        <f t="shared" ref="D72:D96" si="2">SUM(E72:N72)</f>
+      <c r="D73" s="21">
+        <f t="shared" ref="D73:D97" si="2">SUM(E73:N73)</f>
         <v>4591436</v>
       </c>
-      <c r="E72" s="22">
+      <c r="E73" s="22">
         <v>13840</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F73" s="22">
         <v>68044</v>
       </c>
-      <c r="G72" s="22">
+      <c r="G73" s="22">
         <v>961808</v>
       </c>
-      <c r="H72" s="22">
+      <c r="H73" s="22">
         <v>680707</v>
       </c>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22">
+      <c r="I73" s="22"/>
+      <c r="J73" s="22">
         <v>47575</v>
       </c>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22">
+      <c r="K73" s="22"/>
+      <c r="L73" s="22">
         <v>40620</v>
       </c>
-      <c r="M72" s="22">
+      <c r="M73" s="22">
         <v>980414</v>
       </c>
-      <c r="N72" s="22">
+      <c r="N73" s="22">
         <v>1798428</v>
       </c>
     </row>
-    <row r="73" spans="2:14" hidden="1">
-      <c r="B73" s="23">
+    <row r="74" spans="2:14" hidden="1">
+      <c r="B74" s="23">
         <v>2019</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C74" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="25">
+      <c r="D74" s="25">
         <f t="shared" si="2"/>
         <v>4885764</v>
       </c>
-      <c r="E73" s="26">
+      <c r="E74" s="26">
         <v>14577</v>
       </c>
-      <c r="F73" s="26">
+      <c r="F74" s="26">
         <v>79686</v>
       </c>
-      <c r="G73" s="26">
+      <c r="G74" s="26">
         <v>1001613</v>
       </c>
-      <c r="H73" s="26">
+      <c r="H74" s="26">
         <v>756331</v>
       </c>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26">
+      <c r="I74" s="26"/>
+      <c r="J74" s="26">
         <v>72539</v>
       </c>
-      <c r="K73" s="26"/>
-      <c r="L73" s="26">
+      <c r="K74" s="26"/>
+      <c r="L74" s="26">
         <v>45759</v>
       </c>
-      <c r="M73" s="26">
+      <c r="M74" s="26">
         <v>1083272</v>
       </c>
-      <c r="N73" s="26">
+      <c r="N74" s="26">
         <v>1831987</v>
       </c>
     </row>
-    <row r="74" spans="2:14" hidden="1">
-      <c r="B74" s="11">
+    <row r="75" spans="2:14" hidden="1">
+      <c r="B75" s="11">
         <v>2019</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C75" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D75" s="13">
         <f t="shared" si="2"/>
         <v>4584274</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E75" s="14">
         <v>15593</v>
       </c>
-      <c r="F74" s="14">
+      <c r="F75" s="14">
         <v>73513</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G75" s="14">
         <v>938515</v>
       </c>
-      <c r="H74" s="14">
+      <c r="H75" s="14">
         <v>697055</v>
       </c>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14">
+      <c r="I75" s="14"/>
+      <c r="J75" s="14">
         <v>54165</v>
       </c>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14">
+      <c r="K75" s="14"/>
+      <c r="L75" s="14">
         <v>41740</v>
       </c>
-      <c r="M74" s="14">
+      <c r="M75" s="14">
         <v>1014931</v>
       </c>
-      <c r="N74" s="14">
+      <c r="N75" s="14">
         <v>1748762</v>
       </c>
     </row>
-    <row r="75" spans="2:14" hidden="1">
-      <c r="B75" s="15">
+    <row r="76" spans="2:14" hidden="1">
+      <c r="B76" s="15">
         <v>2019</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C76" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="17">
+      <c r="D76" s="17">
         <f t="shared" si="2"/>
         <v>4630258</v>
       </c>
-      <c r="E75" s="18">
+      <c r="E76" s="18">
         <v>19701</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F76" s="18">
         <v>67349</v>
       </c>
-      <c r="G75" s="18">
+      <c r="G76" s="18">
         <v>957393</v>
       </c>
-      <c r="H75" s="18">
+      <c r="H76" s="18">
         <v>740956</v>
       </c>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18">
+      <c r="I76" s="18"/>
+      <c r="J76" s="18">
         <v>57392</v>
       </c>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18">
+      <c r="K76" s="18"/>
+      <c r="L76" s="18">
         <v>40850</v>
       </c>
-      <c r="M75" s="18">
+      <c r="M76" s="18">
         <v>1022260</v>
       </c>
-      <c r="N75" s="18">
+      <c r="N76" s="18">
         <v>1724357</v>
       </c>
     </row>
-    <row r="76" spans="2:14" hidden="1">
-      <c r="B76" s="11">
+    <row r="77" spans="2:14" hidden="1">
+      <c r="B77" s="11">
         <v>2019</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C77" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D77" s="13">
         <f t="shared" si="2"/>
         <v>4294101</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E77" s="14">
         <v>15863</v>
       </c>
-      <c r="F76" s="14">
+      <c r="F77" s="14">
         <v>61156</v>
       </c>
-      <c r="G76" s="14">
+      <c r="G77" s="14">
         <v>897733</v>
       </c>
-      <c r="H76" s="14">
+      <c r="H77" s="14">
         <v>677299</v>
       </c>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14">
+      <c r="I77" s="14"/>
+      <c r="J77" s="14">
         <v>61638</v>
       </c>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14">
+      <c r="K77" s="14"/>
+      <c r="L77" s="14">
         <v>42002</v>
       </c>
-      <c r="M76" s="14">
+      <c r="M77" s="14">
         <v>922290</v>
       </c>
-      <c r="N76" s="14">
+      <c r="N77" s="14">
         <v>1616120</v>
       </c>
     </row>
-    <row r="77" spans="2:14" hidden="1">
-      <c r="B77" s="15">
+    <row r="78" spans="2:14" hidden="1">
+      <c r="B78" s="15">
         <v>2019</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C78" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D77" s="17">
+      <c r="D78" s="17">
         <f t="shared" si="2"/>
         <v>4864403</v>
       </c>
-      <c r="E77" s="18">
+      <c r="E78" s="18">
         <v>22090</v>
       </c>
-      <c r="F77" s="18">
+      <c r="F78" s="18">
         <v>68824</v>
       </c>
-      <c r="G77" s="18">
+      <c r="G78" s="18">
         <v>1001754</v>
       </c>
-      <c r="H77" s="18">
+      <c r="H78" s="18">
         <v>777867</v>
       </c>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18">
+      <c r="I78" s="18"/>
+      <c r="J78" s="18">
         <v>88036</v>
       </c>
-      <c r="K77" s="18"/>
-      <c r="L77" s="18">
+      <c r="K78" s="18"/>
+      <c r="L78" s="18">
         <v>47511</v>
       </c>
-      <c r="M77" s="18">
+      <c r="M78" s="18">
         <v>1112562</v>
       </c>
-      <c r="N77" s="18">
+      <c r="N78" s="18">
         <v>1745759</v>
       </c>
     </row>
-    <row r="78" spans="2:14" hidden="1">
-      <c r="B78" s="11">
+    <row r="79" spans="2:14" hidden="1">
+      <c r="B79" s="11">
         <v>2019</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C79" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D79" s="13">
         <f t="shared" si="2"/>
         <v>5203552</v>
       </c>
-      <c r="E78" s="14">
+      <c r="E79" s="14">
         <v>24398</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F79" s="14">
         <v>75738</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G79" s="14">
         <v>1056905</v>
       </c>
-      <c r="H78" s="14">
+      <c r="H79" s="14">
         <v>847525</v>
       </c>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14">
+      <c r="I79" s="14"/>
+      <c r="J79" s="14">
         <v>112757</v>
       </c>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14">
+      <c r="K79" s="14"/>
+      <c r="L79" s="14">
         <v>53404</v>
       </c>
-      <c r="M78" s="14">
+      <c r="M79" s="14">
         <v>1151999</v>
       </c>
-      <c r="N78" s="14">
+      <c r="N79" s="14">
         <v>1880826</v>
       </c>
     </row>
-    <row r="79" spans="2:14" hidden="1">
-      <c r="B79" s="15">
+    <row r="80" spans="2:14" hidden="1">
+      <c r="B80" s="15">
         <v>2019</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C80" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="17">
+      <c r="D80" s="17">
         <f t="shared" si="2"/>
         <v>4687687</v>
       </c>
-      <c r="E79" s="18">
+      <c r="E80" s="18">
         <v>24034</v>
       </c>
-      <c r="F79" s="18">
+      <c r="F80" s="18">
         <v>65120</v>
       </c>
-      <c r="G79" s="18">
+      <c r="G80" s="18">
         <v>968584</v>
       </c>
-      <c r="H79" s="18">
+      <c r="H80" s="18">
         <v>772914</v>
       </c>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18">
+      <c r="I80" s="18"/>
+      <c r="J80" s="18">
         <v>90790</v>
       </c>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18">
+      <c r="K80" s="18"/>
+      <c r="L80" s="18">
         <v>47162</v>
       </c>
-      <c r="M79" s="18">
+      <c r="M80" s="18">
         <v>974523</v>
       </c>
-      <c r="N79" s="18">
+      <c r="N80" s="18">
         <v>1744560</v>
       </c>
     </row>
-    <row r="80" spans="2:14" hidden="1">
-      <c r="B80" s="11">
+    <row r="81" spans="2:14" hidden="1">
+      <c r="B81" s="11">
         <v>2019</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C81" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D81" s="13">
         <f t="shared" si="2"/>
         <v>4693674</v>
       </c>
-      <c r="E80" s="14">
+      <c r="E81" s="14">
         <v>24578</v>
       </c>
-      <c r="F80" s="14">
+      <c r="F81" s="14">
         <v>61163</v>
       </c>
-      <c r="G80" s="14">
+      <c r="G81" s="14">
         <v>976676</v>
       </c>
-      <c r="H80" s="14">
+      <c r="H81" s="14">
         <v>788262</v>
       </c>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14">
+      <c r="I81" s="14"/>
+      <c r="J81" s="14">
         <v>74030</v>
       </c>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14">
+      <c r="K81" s="14"/>
+      <c r="L81" s="14">
         <v>51746</v>
       </c>
-      <c r="M80" s="14">
+      <c r="M81" s="14">
         <v>931984</v>
       </c>
-      <c r="N80" s="14">
+      <c r="N81" s="14">
         <v>1785235</v>
       </c>
     </row>
-    <row r="81" spans="2:14" hidden="1">
-      <c r="B81" s="15">
+    <row r="82" spans="2:14" hidden="1">
+      <c r="B82" s="15">
         <v>2019</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C82" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="17">
+      <c r="D82" s="17">
         <f t="shared" si="2"/>
         <v>4484955</v>
       </c>
-      <c r="E81" s="18">
+      <c r="E82" s="18">
         <v>26137</v>
       </c>
-      <c r="F81" s="18">
+      <c r="F82" s="18">
         <v>63912</v>
       </c>
-      <c r="G81" s="18">
+      <c r="G82" s="18">
         <v>935481</v>
       </c>
-      <c r="H81" s="18">
+      <c r="H82" s="18">
         <v>737722</v>
       </c>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18">
+      <c r="I82" s="18"/>
+      <c r="J82" s="18">
         <v>54469</v>
       </c>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18">
+      <c r="K82" s="18"/>
+      <c r="L82" s="18">
         <v>50399</v>
       </c>
-      <c r="M81" s="18">
+      <c r="M82" s="18">
         <v>893208</v>
       </c>
-      <c r="N81" s="18">
+      <c r="N82" s="18">
         <v>1723627</v>
       </c>
     </row>
-    <row r="82" spans="2:14" hidden="1">
-      <c r="B82" s="11">
+    <row r="83" spans="2:14" hidden="1">
+      <c r="B83" s="11">
         <v>2019</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C83" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D83" s="13">
         <f t="shared" si="2"/>
         <v>4371365</v>
       </c>
-      <c r="E82" s="14">
+      <c r="E83" s="14">
         <v>24631</v>
       </c>
-      <c r="F82" s="14">
+      <c r="F83" s="14">
         <v>66177</v>
       </c>
-      <c r="G82" s="14">
+      <c r="G83" s="14">
         <v>991931</v>
       </c>
-      <c r="H82" s="14">
+      <c r="H83" s="14">
         <v>774790</v>
       </c>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14">
+      <c r="I83" s="14"/>
+      <c r="J83" s="14">
         <v>40758</v>
       </c>
-      <c r="K82" s="14"/>
-      <c r="L82" s="14">
+      <c r="K83" s="14"/>
+      <c r="L83" s="14">
         <v>49242</v>
       </c>
-      <c r="M82" s="14">
+      <c r="M83" s="14">
         <v>767922</v>
       </c>
-      <c r="N82" s="14">
+      <c r="N83" s="14">
         <v>1655914</v>
       </c>
     </row>
-    <row r="83" spans="2:14" hidden="1">
-      <c r="B83" s="15">
+    <row r="84" spans="2:14" hidden="1">
+      <c r="B84" s="15">
         <v>2019</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C84" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="17">
+      <c r="D84" s="17">
         <f t="shared" si="2"/>
         <v>3694869</v>
       </c>
-      <c r="E83" s="18">
+      <c r="E84" s="18">
         <v>20074</v>
       </c>
-      <c r="F83" s="18">
+      <c r="F84" s="18">
         <v>57946</v>
       </c>
-      <c r="G83" s="18">
+      <c r="G84" s="18">
         <v>888111</v>
       </c>
-      <c r="H83" s="18">
+      <c r="H84" s="18">
         <v>647818</v>
       </c>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18">
+      <c r="I84" s="18"/>
+      <c r="J84" s="18">
         <v>31139</v>
       </c>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18">
+      <c r="K84" s="18"/>
+      <c r="L84" s="18">
         <v>40877</v>
       </c>
-      <c r="M83" s="18">
+      <c r="M84" s="18">
         <v>617809</v>
       </c>
-      <c r="N83" s="18">
+      <c r="N84" s="18">
         <v>1391095</v>
       </c>
     </row>
-    <row r="84" spans="2:14" hidden="1">
-      <c r="B84" s="19">
+    <row r="85" spans="2:14" hidden="1">
+      <c r="B85" s="19">
         <v>2019</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C85" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="21">
+      <c r="D85" s="21">
         <f t="shared" si="2"/>
         <v>4226141</v>
       </c>
-      <c r="E84" s="22">
+      <c r="E85" s="22">
         <v>24399</v>
       </c>
-      <c r="F84" s="22">
+      <c r="F85" s="22">
         <v>59133</v>
       </c>
-      <c r="G84" s="22">
+      <c r="G85" s="22">
         <v>1017714</v>
       </c>
-      <c r="H84" s="22">
+      <c r="H85" s="22">
         <v>718168</v>
       </c>
-      <c r="I84" s="22"/>
-      <c r="J84" s="22">
+      <c r="I85" s="22"/>
+      <c r="J85" s="22">
         <v>45885</v>
       </c>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22">
+      <c r="K85" s="22"/>
+      <c r="L85" s="22">
         <v>45704</v>
       </c>
-      <c r="M84" s="22">
+      <c r="M85" s="22">
         <v>787962</v>
       </c>
-      <c r="N84" s="22">
+      <c r="N85" s="22">
         <v>1527176</v>
       </c>
     </row>
-    <row r="85" spans="2:14" hidden="1">
-      <c r="B85" s="16">
+    <row r="86" spans="2:14" hidden="1">
+      <c r="B86" s="16">
         <v>2018</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C86" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D85" s="17">
+      <c r="D86" s="17">
         <f t="shared" si="2"/>
         <v>4612293</v>
       </c>
-      <c r="E85" s="18">
+      <c r="E86" s="18">
         <v>25513</v>
       </c>
-      <c r="F85" s="18">
+      <c r="F86" s="18">
         <v>64369</v>
       </c>
-      <c r="G85" s="18">
+      <c r="G86" s="18">
         <v>1071044</v>
       </c>
-      <c r="H85" s="18">
+      <c r="H86" s="18">
         <v>804521</v>
       </c>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18">
+      <c r="I86" s="18"/>
+      <c r="J86" s="18">
         <v>78800</v>
       </c>
-      <c r="K85" s="18"/>
-      <c r="L85" s="18">
+      <c r="K86" s="18"/>
+      <c r="L86" s="18">
         <v>50423</v>
       </c>
-      <c r="M85" s="18">
+      <c r="M86" s="18">
         <v>905477</v>
       </c>
-      <c r="N85" s="18">
+      <c r="N86" s="18">
         <v>1612146</v>
       </c>
     </row>
-    <row r="86" spans="2:14" hidden="1">
-      <c r="B86" s="12">
+    <row r="87" spans="2:14" hidden="1">
+      <c r="B87" s="12">
         <v>2018</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C87" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D87" s="13">
         <f t="shared" si="2"/>
         <v>4333608</v>
       </c>
-      <c r="E86" s="14">
+      <c r="E87" s="14">
         <v>24593</v>
       </c>
-      <c r="F86" s="14">
+      <c r="F87" s="14">
         <v>68160</v>
       </c>
-      <c r="G86" s="14">
+      <c r="G87" s="14">
         <v>1004506</v>
       </c>
-      <c r="H86" s="14">
+      <c r="H87" s="14">
         <v>761656</v>
       </c>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14">
+      <c r="I87" s="14"/>
+      <c r="J87" s="14">
         <v>70291</v>
       </c>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14">
+      <c r="K87" s="14"/>
+      <c r="L87" s="14">
         <v>52654</v>
       </c>
-      <c r="M86" s="14">
+      <c r="M87" s="14">
         <v>844104</v>
       </c>
-      <c r="N86" s="14">
+      <c r="N87" s="14">
         <v>1507644</v>
       </c>
     </row>
-    <row r="87" spans="2:14" hidden="1">
-      <c r="B87" s="16">
+    <row r="88" spans="2:14" hidden="1">
+      <c r="B88" s="16">
         <v>2018</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C88" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D87" s="17">
+      <c r="D88" s="17">
         <f t="shared" si="2"/>
         <v>4265504</v>
       </c>
-      <c r="E87" s="18">
+      <c r="E88" s="18">
         <v>23163</v>
       </c>
-      <c r="F87" s="18">
+      <c r="F88" s="18">
         <v>67739</v>
       </c>
-      <c r="G87" s="18">
+      <c r="G88" s="18">
         <v>1006759</v>
       </c>
-      <c r="H87" s="18">
+      <c r="H88" s="18">
         <v>779871</v>
       </c>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18">
+      <c r="I88" s="18"/>
+      <c r="J88" s="18">
         <v>65741</v>
       </c>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18">
+      <c r="K88" s="18"/>
+      <c r="L88" s="18">
         <v>52203</v>
       </c>
-      <c r="M87" s="18">
+      <c r="M88" s="18">
         <v>808467</v>
       </c>
-      <c r="N87" s="18">
+      <c r="N88" s="18">
         <v>1461561</v>
       </c>
     </row>
-    <row r="88" spans="2:14" hidden="1">
-      <c r="B88" s="12">
+    <row r="89" spans="2:14" hidden="1">
+      <c r="B89" s="12">
         <v>2018</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C89" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D89" s="13">
         <f t="shared" si="2"/>
         <v>3988714</v>
       </c>
-      <c r="E88" s="14">
+      <c r="E89" s="14">
         <v>21054</v>
       </c>
-      <c r="F88" s="14">
+      <c r="F89" s="14">
         <v>57581</v>
       </c>
-      <c r="G88" s="14">
+      <c r="G89" s="14">
         <v>953415</v>
       </c>
-      <c r="H88" s="14">
+      <c r="H89" s="14">
         <v>749609</v>
       </c>
-      <c r="I88" s="14"/>
-      <c r="J88" s="14">
+      <c r="I89" s="14"/>
+      <c r="J89" s="14">
         <v>61896</v>
       </c>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14">
+      <c r="K89" s="14"/>
+      <c r="L89" s="14">
         <v>46860</v>
       </c>
-      <c r="M88" s="14">
+      <c r="M89" s="14">
         <v>767606</v>
       </c>
-      <c r="N88" s="14">
+      <c r="N89" s="14">
         <v>1330693</v>
       </c>
     </row>
-    <row r="89" spans="2:14" hidden="1">
-      <c r="B89" s="16">
+    <row r="90" spans="2:14" hidden="1">
+      <c r="B90" s="16">
         <v>2018</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C90" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D89" s="17">
+      <c r="D90" s="17">
         <f t="shared" si="2"/>
         <v>4535242</v>
       </c>
-      <c r="E89" s="18">
+      <c r="E90" s="18">
         <v>27838</v>
       </c>
-      <c r="F89" s="18">
+      <c r="F90" s="18">
         <v>63083</v>
       </c>
-      <c r="G89" s="18">
+      <c r="G90" s="18">
         <v>1074998</v>
       </c>
-      <c r="H89" s="18">
+      <c r="H90" s="18">
         <v>852980</v>
       </c>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18">
+      <c r="I90" s="18"/>
+      <c r="J90" s="18">
         <v>104695</v>
       </c>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18">
+      <c r="K90" s="18"/>
+      <c r="L90" s="18">
         <v>54110</v>
       </c>
-      <c r="M89" s="18">
+      <c r="M90" s="18">
         <v>921277</v>
       </c>
-      <c r="N89" s="18">
+      <c r="N90" s="18">
         <v>1436261</v>
       </c>
     </row>
-    <row r="90" spans="2:14" hidden="1">
-      <c r="B90" s="12">
+    <row r="91" spans="2:14" hidden="1">
+      <c r="B91" s="12">
         <v>2018</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C91" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D90" s="13">
+      <c r="D91" s="13">
         <f t="shared" si="2"/>
         <v>4860370</v>
       </c>
-      <c r="E90" s="14">
+      <c r="E91" s="14">
         <v>32903</v>
       </c>
-      <c r="F90" s="14">
+      <c r="F91" s="14">
         <v>56167</v>
       </c>
-      <c r="G90" s="14">
+      <c r="G91" s="14">
         <v>1179423</v>
       </c>
-      <c r="H90" s="14">
+      <c r="H91" s="14">
         <v>895787</v>
       </c>
-      <c r="I90" s="14"/>
-      <c r="J90" s="14">
+      <c r="I91" s="14"/>
+      <c r="J91" s="14">
         <v>110733</v>
       </c>
-      <c r="K90" s="14"/>
-      <c r="L90" s="14">
+      <c r="K91" s="14"/>
+      <c r="L91" s="14">
         <v>58466</v>
       </c>
-      <c r="M90" s="14">
+      <c r="M91" s="14">
         <v>944861</v>
       </c>
-      <c r="N90" s="14">
+      <c r="N91" s="14">
         <v>1582030</v>
       </c>
     </row>
-    <row r="91" spans="2:14" hidden="1">
-      <c r="B91" s="16">
+    <row r="92" spans="2:14" hidden="1">
+      <c r="B92" s="16">
         <v>2018</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C92" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D91" s="17">
+      <c r="D92" s="17">
         <f t="shared" si="2"/>
         <v>4206229</v>
       </c>
-      <c r="E91" s="18">
+      <c r="E92" s="18">
         <v>26323</v>
       </c>
-      <c r="F91" s="18">
+      <c r="F92" s="18">
         <v>46065</v>
       </c>
-      <c r="G91" s="18">
+      <c r="G92" s="18">
         <v>1036698</v>
       </c>
-      <c r="H91" s="18">
+      <c r="H92" s="18">
         <v>815293</v>
       </c>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18">
+      <c r="I92" s="18"/>
+      <c r="J92" s="18">
         <v>75066</v>
       </c>
-      <c r="K91" s="18"/>
-      <c r="L91" s="18">
+      <c r="K92" s="18"/>
+      <c r="L92" s="18">
         <v>48032</v>
       </c>
-      <c r="M91" s="18">
+      <c r="M92" s="18">
         <v>768437</v>
       </c>
-      <c r="N91" s="18">
+      <c r="N92" s="18">
         <v>1390315</v>
       </c>
     </row>
-    <row r="92" spans="2:14" hidden="1">
-      <c r="B92" s="12">
+    <row r="93" spans="2:14" hidden="1">
+      <c r="B93" s="12">
         <v>2018</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C93" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D92" s="13">
+      <c r="D93" s="13">
         <f t="shared" si="2"/>
         <v>4168514</v>
       </c>
-      <c r="E92" s="14">
+      <c r="E93" s="14">
         <v>26212</v>
       </c>
-      <c r="F92" s="14">
+      <c r="F93" s="14">
         <v>54265</v>
       </c>
-      <c r="G92" s="14">
+      <c r="G93" s="14">
         <v>1033321</v>
       </c>
-      <c r="H92" s="14">
+      <c r="H93" s="14">
         <v>780048</v>
       </c>
-      <c r="I92" s="14"/>
-      <c r="J92" s="14">
+      <c r="I93" s="14"/>
+      <c r="J93" s="14">
         <v>84998</v>
       </c>
-      <c r="K92" s="14"/>
-      <c r="L92" s="14">
+      <c r="K93" s="14"/>
+      <c r="L93" s="14">
         <v>49481</v>
       </c>
-      <c r="M92" s="14">
+      <c r="M93" s="14">
         <v>759447</v>
       </c>
-      <c r="N92" s="14">
+      <c r="N93" s="14">
         <v>1380742</v>
       </c>
     </row>
-    <row r="93" spans="2:14" hidden="1">
-      <c r="B93" s="16">
+    <row r="94" spans="2:14" hidden="1">
+      <c r="B94" s="16">
         <v>2018</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="C94" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D93" s="17">
+      <c r="D94" s="17">
         <f t="shared" si="2"/>
         <v>4098621</v>
       </c>
-      <c r="E93" s="18">
+      <c r="E94" s="18">
         <v>25839</v>
       </c>
-      <c r="F93" s="18">
+      <c r="F94" s="18">
         <v>59133</v>
       </c>
-      <c r="G93" s="18">
+      <c r="G94" s="18">
         <v>996415</v>
       </c>
-      <c r="H93" s="18">
+      <c r="H94" s="18">
         <v>794436</v>
       </c>
-      <c r="I93" s="18"/>
-      <c r="J93" s="18">
+      <c r="I94" s="18"/>
+      <c r="J94" s="18">
         <v>73805</v>
       </c>
-      <c r="K93" s="18"/>
-      <c r="L93" s="18">
+      <c r="K94" s="18"/>
+      <c r="L94" s="18">
         <v>49795</v>
       </c>
-      <c r="M93" s="18">
+      <c r="M94" s="18">
         <v>730221</v>
       </c>
-      <c r="N93" s="18">
+      <c r="N94" s="18">
         <v>1368977</v>
       </c>
     </row>
-    <row r="94" spans="2:14" hidden="1">
-      <c r="B94" s="12">
+    <row r="95" spans="2:14" hidden="1">
+      <c r="B95" s="12">
         <v>2018</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C95" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D94" s="13">
+      <c r="D95" s="13">
         <f t="shared" si="2"/>
         <v>4102409</v>
       </c>
-      <c r="E94" s="14">
+      <c r="E95" s="14">
         <v>29029</v>
       </c>
-      <c r="F94" s="14">
+      <c r="F95" s="14">
         <v>65814</v>
       </c>
-      <c r="G94" s="14">
+      <c r="G95" s="14">
         <v>993548</v>
       </c>
-      <c r="H94" s="14">
+      <c r="H95" s="14">
         <v>797581</v>
       </c>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14">
+      <c r="I95" s="14"/>
+      <c r="J95" s="14">
         <v>50611</v>
       </c>
-      <c r="K94" s="14"/>
-      <c r="L94" s="14">
+      <c r="K95" s="14"/>
+      <c r="L95" s="14">
         <v>50043</v>
       </c>
-      <c r="M94" s="14">
+      <c r="M95" s="14">
         <v>723374</v>
       </c>
-      <c r="N94" s="14">
+      <c r="N95" s="14">
         <v>1392409</v>
       </c>
     </row>
-    <row r="95" spans="2:14" hidden="1">
-      <c r="B95" s="16">
+    <row r="96" spans="2:14" hidden="1">
+      <c r="B96" s="16">
         <v>2018</v>
       </c>
-      <c r="C95" s="16" t="s">
+      <c r="C96" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D95" s="17">
+      <c r="D96" s="17">
         <f t="shared" si="2"/>
         <v>3514063</v>
       </c>
-      <c r="E95" s="18">
+      <c r="E96" s="18">
         <v>22962</v>
       </c>
-      <c r="F95" s="18">
+      <c r="F96" s="18">
         <v>59046</v>
       </c>
-      <c r="G95" s="18">
+      <c r="G96" s="18">
         <v>878966</v>
       </c>
-      <c r="H95" s="18">
+      <c r="H96" s="18">
         <v>699650</v>
       </c>
-      <c r="I95" s="18"/>
-      <c r="J95" s="18">
+      <c r="I96" s="18"/>
+      <c r="J96" s="18">
         <v>39995</v>
       </c>
-      <c r="K95" s="18"/>
-      <c r="L95" s="18">
+      <c r="K96" s="18"/>
+      <c r="L96" s="18">
         <v>44679</v>
       </c>
-      <c r="M95" s="18">
+      <c r="M96" s="18">
         <v>569891</v>
       </c>
-      <c r="N95" s="18">
+      <c r="N96" s="18">
         <v>1198874</v>
       </c>
     </row>
-    <row r="96" spans="2:14" hidden="1">
-      <c r="B96" s="12">
+    <row r="97" spans="2:15" hidden="1">
+      <c r="B97" s="12">
         <v>2018</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="C97" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D96" s="13">
+      <c r="D97" s="13">
         <f t="shared" si="2"/>
         <v>4003736</v>
       </c>
-      <c r="E96" s="14">
+      <c r="E97" s="14">
         <v>24734</v>
       </c>
-      <c r="F96" s="14">
+      <c r="F97" s="14">
         <v>60981</v>
       </c>
-      <c r="G96" s="14">
+      <c r="G97" s="14">
         <v>1021784</v>
       </c>
-      <c r="H96" s="14">
+      <c r="H97" s="14">
         <v>777479</v>
       </c>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14">
+      <c r="I97" s="14"/>
+      <c r="J97" s="14">
         <v>55290</v>
       </c>
-      <c r="K96" s="14"/>
-      <c r="L96" s="14">
+      <c r="K97" s="14"/>
+      <c r="L97" s="14">
         <v>47772</v>
       </c>
-      <c r="M96" s="14">
+      <c r="M97" s="14">
         <v>664529</v>
       </c>
-      <c r="N96" s="14">
+      <c r="N97" s="14">
         <v>1351167</v>
       </c>
-    </row>
-    <row r="97" spans="2:15">
-      <c r="B97" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E97" s="3"/>
     </row>
     <row r="98" spans="2:15">
       <c r="B98" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="2:15">
+      <c r="B99" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C98" s="28"/>
-      <c r="O98" s="29"/>
-    </row>
-    <row r="99" spans="2:15">
-      <c r="B99" s="28" t="s">
-        <v>28</v>
-      </c>
       <c r="C99" s="28"/>
+      <c r="O99" s="29"/>
     </row>
     <row r="100" spans="2:15">
       <c r="B100" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" s="28"/>
+    </row>
+    <row r="101" spans="2:15">
+      <c r="B101" s="28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="2:15">
-      <c r="B101" s="3" t="s">
+    <row r="102" spans="2:15">
+      <c r="B102" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:15">
-      <c r="D104" s="27"/>
-    </row>
-    <row r="108" spans="2:15">
-      <c r="D108" s="27"/>
+    <row r="105" spans="2:15">
+      <c r="D105" s="27"/>
+    </row>
+    <row r="109" spans="2:15">
+      <c r="D109" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
